--- a/plotting/617_temp.xlsx
+++ b/plotting/617_temp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="unet" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="517">
   <si>
     <t>.\vgg_unet2_0_3_640_640_64_256_rot_15_345_4_flip_5K\training_32_49_640_640_640_640_max_val_acc\vis\vis_log_181022_0927.txt</t>
   </si>
@@ -1534,6 +1534,42 @@
   </si>
   <si>
     <t>Model</t>
+  </si>
+  <si>
+    <t>Anchor and Frazil Ice Accuracy and IOU</t>
+  </si>
+  <si>
+    <t>Accuracy/ IOU</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>Recall for Anchor and Frazil Ice and Ice+Water</t>
+  </si>
+  <si>
+    <t>ice+water</t>
+  </si>
+  <si>
+    <t>ice+water(weighted)</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Precision for Anchor and Frazil Ice and Ice+Water</t>
+  </si>
+  <si>
+    <t>Anchor Ice Recall</t>
+  </si>
+  <si>
+    <t>Anchor Ice Precision</t>
+  </si>
+  <si>
+    <t>Frazil Ice Recall</t>
+  </si>
+  <si>
+    <t>Frazil Ice Precision</t>
   </si>
 </sst>
 </file>
@@ -1606,19 +1642,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1946,8 +1982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E243"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="A185" sqref="A185:E243"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A184" sqref="A184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7347,8 +7383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E396"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B390" sqref="B390:D390"/>
+    <sheetView topLeftCell="A237" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C251" sqref="C251:D251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7356,16 +7392,17 @@
     <col min="1" max="1" width="126.5703125" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -7704,13 +7741,13 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -7983,13 +8020,13 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -8262,13 +8299,13 @@
       </c>
     </row>
     <row r="71" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
@@ -8496,13 +8533,13 @@
       </c>
     </row>
     <row r="89" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" s="4" t="s">
+      <c r="A89" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
@@ -8730,13 +8767,13 @@
       </c>
     </row>
     <row r="108" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A108" s="4" t="s">
+      <c r="A108" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="B108" s="4"/>
-      <c r="C108" s="4"/>
-      <c r="D108" s="4"/>
-      <c r="E108" s="4"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
@@ -8964,13 +9001,13 @@
       </c>
     </row>
     <row r="126" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A126" s="4" t="s">
+      <c r="A126" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="B126" s="4"/>
-      <c r="C126" s="4"/>
-      <c r="D126" s="4"/>
-      <c r="E126" s="4"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
@@ -9423,13 +9460,13 @@
       </c>
     </row>
     <row r="162" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A162" s="4" t="s">
+      <c r="A162" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="B162" s="4"/>
-      <c r="C162" s="4"/>
-      <c r="D162" s="4"/>
-      <c r="E162" s="4"/>
+      <c r="B162" s="5"/>
+      <c r="C162" s="5"/>
+      <c r="D162" s="5"/>
+      <c r="E162" s="5"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
@@ -9927,13 +9964,13 @@
       </c>
     </row>
     <row r="199" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A199" s="4" t="s">
+      <c r="A199" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="B199" s="4"/>
-      <c r="C199" s="4"/>
-      <c r="D199" s="4"/>
-      <c r="E199" s="4"/>
+      <c r="B199" s="5"/>
+      <c r="C199" s="5"/>
+      <c r="D199" s="5"/>
+      <c r="E199" s="5"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
@@ -10431,13 +10468,13 @@
       </c>
     </row>
     <row r="238" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A238" s="4" t="s">
+      <c r="A238" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="B238" s="4"/>
-      <c r="C238" s="4"/>
-      <c r="D238" s="4"/>
-      <c r="E238" s="4"/>
+      <c r="B238" s="5"/>
+      <c r="C238" s="5"/>
+      <c r="D238" s="5"/>
+      <c r="E238" s="5"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
@@ -11250,13 +11287,13 @@
       </c>
     </row>
     <row r="300" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A300" s="4" t="s">
+      <c r="A300" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="B300" s="4"/>
-      <c r="C300" s="4"/>
-      <c r="D300" s="4"/>
-      <c r="E300" s="4"/>
+      <c r="B300" s="5"/>
+      <c r="C300" s="5"/>
+      <c r="D300" s="5"/>
+      <c r="E300" s="5"/>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
@@ -13197,26 +13234,27 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W123"/>
+  <dimension ref="A1:Z123"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:F30"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56:J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="4" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -13330,22 +13368,22 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -13498,14 +13536,14 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
       <c r="J17">
         <v>0.67832000000000003</v>
       </c>
@@ -13520,14 +13558,14 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -13741,11 +13779,11 @@
       <c r="A24" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
       <c r="J24">
         <v>0.43318000000000001</v>
       </c>
@@ -13772,14 +13810,14 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -13800,6 +13838,18 @@
       <c r="F26" s="1" t="s">
         <v>403</v>
       </c>
+      <c r="M26" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -13820,6 +13870,18 @@
       <c r="F27">
         <v>0.52803</v>
       </c>
+      <c r="M27" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="N27">
+        <v>0.43318000000000001</v>
+      </c>
+      <c r="P27">
+        <v>0.65837000000000001</v>
+      </c>
+      <c r="Q27">
+        <v>0.76844000000000001</v>
+      </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -13840,6 +13902,18 @@
       <c r="F28">
         <v>0.62604000000000004</v>
       </c>
+      <c r="M28" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="N28">
+        <v>0.62388999999999994</v>
+      </c>
+      <c r="P28">
+        <v>0.77244999999999997</v>
+      </c>
+      <c r="Q28">
+        <v>0.84316999999999998</v>
+      </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -13860,6 +13934,18 @@
       <c r="F29">
         <v>0.69601000000000002</v>
       </c>
+      <c r="M29" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="N29">
+        <v>0.54891000000000001</v>
+      </c>
+      <c r="P29">
+        <v>0.73194000000000004</v>
+      </c>
+      <c r="Q29">
+        <v>0.81733</v>
+      </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -13880,66 +13966,102 @@
       <c r="F30">
         <v>0.78456999999999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="M30" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="N30">
+        <v>0.48977999999999999</v>
+      </c>
+      <c r="P30">
+        <v>0.67691999999999997</v>
+      </c>
+      <c r="Q30">
+        <v>0.77490000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M31" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="N31">
+        <v>0.52803</v>
+      </c>
+      <c r="P31">
+        <v>0.69601000000000002</v>
+      </c>
+      <c r="Q31">
+        <v>0.78456999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="H34" s="5" t="s">
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="H34" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="O34" s="5" t="s">
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="O34" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="2"/>
-      <c r="W34" s="2"/>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="W34" s="7"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="7"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="H35" s="5" t="s">
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="H35" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="O35" s="5" t="s">
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="O35" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="2"/>
-      <c r="W35" s="2"/>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+      <c r="V35" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="W35" s="7"/>
+      <c r="X35" s="7"/>
+      <c r="Y35" s="7"/>
+      <c r="Z35" s="7"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>423</v>
       </c>
@@ -13997,8 +14119,23 @@
       <c r="U36" s="1" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V36" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="W36" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="X36" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y36" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="Z36" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>422</v>
       </c>
@@ -14056,8 +14193,23 @@
       <c r="U37">
         <v>0.63295999999999997</v>
       </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V37" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="W37">
+        <v>0.54969000000000001</v>
+      </c>
+      <c r="X37">
+        <v>0.70960000000000001</v>
+      </c>
+      <c r="Y37">
+        <v>0.70609999999999995</v>
+      </c>
+      <c r="Z37">
+        <v>0.57425999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>415</v>
       </c>
@@ -14115,8 +14267,23 @@
       <c r="U38">
         <v>0.63192000000000004</v>
       </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V38" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="W38">
+        <v>0.48721999999999999</v>
+      </c>
+      <c r="X38">
+        <v>0.69921999999999995</v>
+      </c>
+      <c r="Y38">
+        <v>0.61651999999999996</v>
+      </c>
+      <c r="Z38">
+        <v>0.63683000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>328</v>
       </c>
@@ -14174,8 +14341,23 @@
       <c r="U39">
         <v>0.65586</v>
       </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V39" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="W39">
+        <v>0.56130999999999998</v>
+      </c>
+      <c r="X39">
+        <v>0.52280000000000004</v>
+      </c>
+      <c r="Y39">
+        <v>0.63424000000000003</v>
+      </c>
+      <c r="Z39">
+        <v>0.73395999999999995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>327</v>
       </c>
@@ -14233,16 +14415,31 @@
       <c r="U40">
         <v>0.65734000000000004</v>
       </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="V40" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="W40">
+        <v>0.65468999999999999</v>
+      </c>
+      <c r="X40">
+        <v>0.73041999999999996</v>
+      </c>
+      <c r="Y40">
+        <v>0.69957000000000003</v>
+      </c>
+      <c r="Z40">
+        <v>0.70833999999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
       <c r="H41" s="1" t="s">
         <v>416</v>
       </c>
@@ -14282,16 +14479,31 @@
       <c r="U41">
         <v>0.65837000000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+      <c r="V41" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="W41">
+        <v>0.67832000000000003</v>
+      </c>
+      <c r="X41">
+        <v>0.74461999999999995</v>
+      </c>
+      <c r="Y41">
+        <v>0.73751999999999995</v>
+      </c>
+      <c r="Z41">
+        <v>0.76958000000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
       <c r="H42" s="1" t="s">
         <v>417</v>
       </c>
@@ -14310,17 +14522,24 @@
       <c r="M42">
         <v>0.63066</v>
       </c>
-      <c r="O42" s="5" t="s">
+      <c r="O42" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
-      <c r="U42" s="5"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
+      <c r="V42" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7"/>
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="7"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>423</v>
       </c>
@@ -14357,17 +14576,24 @@
       <c r="M43">
         <v>0.65837000000000001</v>
       </c>
-      <c r="O43" s="5" t="s">
+      <c r="O43" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5"/>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="W43" s="7"/>
+      <c r="X43" s="7"/>
+      <c r="Y43" s="7"/>
+      <c r="Z43" s="7"/>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>416</v>
       </c>
@@ -14425,8 +14651,23 @@
       <c r="U44" s="1" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V44" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="W44" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="X44" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y44" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="Z44" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>417</v>
       </c>
@@ -14466,8 +14707,23 @@
       <c r="U45">
         <v>0.67840999999999996</v>
       </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V45" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="W45">
+        <v>0.36651</v>
+      </c>
+      <c r="X45">
+        <v>0.49764999999999998</v>
+      </c>
+      <c r="Y45">
+        <v>0.46243000000000001</v>
+      </c>
+      <c r="Z45">
+        <v>0.41599999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>418</v>
       </c>
@@ -14486,6 +14742,8 @@
       <c r="F46">
         <v>0.65837000000000001</v>
       </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
       <c r="O46" s="1" t="s">
         <v>440</v>
       </c>
@@ -14507,8 +14765,23 @@
       <c r="U46">
         <v>0.67893000000000003</v>
       </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V46" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="W46">
+        <v>0.34910000000000002</v>
+      </c>
+      <c r="X46">
+        <v>0.56842000000000004</v>
+      </c>
+      <c r="Y46">
+        <v>0.43947999999999998</v>
+      </c>
+      <c r="Z46">
+        <v>0.42425000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>419</v>
       </c>
@@ -14527,6 +14800,8 @@
       <c r="F47">
         <v>0.76844000000000001</v>
       </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
       <c r="O47" s="1" t="s">
         <v>439</v>
       </c>
@@ -14548,8 +14823,33 @@
       <c r="U47">
         <v>0.70433000000000001</v>
       </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V47" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="W47">
+        <v>0.40035999999999999</v>
+      </c>
+      <c r="X47">
+        <v>0.42759000000000003</v>
+      </c>
+      <c r="Y47">
+        <v>0.47449999999999998</v>
+      </c>
+      <c r="Z47">
+        <v>0.47498000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="2"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
       <c r="O48" s="1" t="s">
         <v>438</v>
       </c>
@@ -14571,8 +14871,30 @@
       <c r="U48">
         <v>0.71987000000000001</v>
       </c>
-    </row>
-    <row r="49" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="V48" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="W48">
+        <v>0.42670999999999998</v>
+      </c>
+      <c r="X48">
+        <v>0.59179999999999999</v>
+      </c>
+      <c r="Y48">
+        <v>0.51239000000000001</v>
+      </c>
+      <c r="Z48">
+        <v>0.48705999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
       <c r="O49" s="1" t="s">
         <v>437</v>
       </c>
@@ -14594,30 +14916,104 @@
       <c r="U49">
         <v>0.73194000000000004</v>
       </c>
-    </row>
-    <row r="50" spans="15:21" x14ac:dyDescent="0.25">
-      <c r="O50" s="5" t="s">
+      <c r="V49" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="W49">
+        <v>0.43318000000000001</v>
+      </c>
+      <c r="X49">
+        <v>0.62388999999999994</v>
+      </c>
+      <c r="Y49">
+        <v>0.54891000000000001</v>
+      </c>
+      <c r="Z49">
+        <v>0.48977999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="O50" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="P50" s="5"/>
-      <c r="Q50" s="5"/>
-      <c r="R50" s="5"/>
-      <c r="S50" s="5"/>
-      <c r="T50" s="5"/>
-      <c r="U50" s="5"/>
-    </row>
-    <row r="51" spans="15:21" x14ac:dyDescent="0.25">
-      <c r="O51" s="5" t="s">
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="7"/>
+      <c r="U50" s="7"/>
+      <c r="V50" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="W50" s="7"/>
+      <c r="X50" s="7"/>
+      <c r="Y50" s="7"/>
+      <c r="Z50" s="7"/>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B51">
+        <v>0.61538000000000004</v>
+      </c>
+      <c r="C51">
+        <v>0.43318000000000001</v>
+      </c>
+      <c r="D51">
+        <v>0.75410999999999995</v>
+      </c>
+      <c r="E51">
+        <v>0.63066</v>
+      </c>
+      <c r="O51" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="P51" s="5"/>
-      <c r="Q51" s="5"/>
-      <c r="R51" s="5"/>
-      <c r="S51" s="5"/>
-      <c r="T51" s="5"/>
-      <c r="U51" s="5"/>
-    </row>
-    <row r="52" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="7"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7"/>
+      <c r="V51" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="W51" s="7"/>
+      <c r="X51" s="7"/>
+      <c r="Y51" s="7"/>
+      <c r="Z51" s="7"/>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B52">
+        <v>0.74461999999999995</v>
+      </c>
+      <c r="C52">
+        <v>0.62388999999999994</v>
+      </c>
+      <c r="D52">
+        <v>0.87512000000000001</v>
+      </c>
+      <c r="E52">
+        <v>0.77141999999999999</v>
+      </c>
       <c r="O52" s="1" t="s">
         <v>441</v>
       </c>
@@ -14639,8 +15035,38 @@
       <c r="U52" s="1" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="53" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="V52" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="W52" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="X52" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y52" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="Z52" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B53">
+        <v>0.73751999999999995</v>
+      </c>
+      <c r="C53">
+        <v>0.54891000000000001</v>
+      </c>
+      <c r="D53">
+        <v>0.84270999999999996</v>
+      </c>
+      <c r="E53">
+        <v>0.71165</v>
+      </c>
       <c r="O53" s="1" t="s">
         <v>436</v>
       </c>
@@ -14662,8 +15088,38 @@
       <c r="U53">
         <v>0.68532999999999999</v>
       </c>
-    </row>
-    <row r="54" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="V53" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="W53">
+        <v>0.81781999999999999</v>
+      </c>
+      <c r="X53">
+        <v>0.82057000000000002</v>
+      </c>
+      <c r="Y53">
+        <v>0.79564000000000001</v>
+      </c>
+      <c r="Z53">
+        <v>0.83855999999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B54">
+        <v>0.76958000000000004</v>
+      </c>
+      <c r="C54">
+        <v>0.48977999999999999</v>
+      </c>
+      <c r="D54">
+        <v>0.71062000000000003</v>
+      </c>
+      <c r="E54">
+        <v>0.60973999999999995</v>
+      </c>
       <c r="O54" s="1" t="s">
         <v>440</v>
       </c>
@@ -14685,8 +15141,38 @@
       <c r="U54">
         <v>0.74863000000000002</v>
       </c>
-    </row>
-    <row r="55" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="V54" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="W54">
+        <v>0.87961</v>
+      </c>
+      <c r="X54">
+        <v>0.88932999999999995</v>
+      </c>
+      <c r="Y54">
+        <v>0.89678000000000002</v>
+      </c>
+      <c r="Z54">
+        <v>0.83272999999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B55">
+        <v>0.82310000000000005</v>
+      </c>
+      <c r="C55">
+        <v>0.52803</v>
+      </c>
+      <c r="D55">
+        <v>0.68991999999999998</v>
+      </c>
+      <c r="E55">
+        <v>0.62604000000000004</v>
+      </c>
       <c r="O55" s="1" t="s">
         <v>439</v>
       </c>
@@ -14708,8 +15194,37 @@
       <c r="U55">
         <v>0.61036000000000001</v>
       </c>
-    </row>
-    <row r="56" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="V55" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="W55">
+        <v>0.83104999999999996</v>
+      </c>
+      <c r="X55">
+        <v>0.69803999999999999</v>
+      </c>
+      <c r="Y55">
+        <v>0.89527000000000001</v>
+      </c>
+      <c r="Z55">
+        <v>0.77902000000000005</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
       <c r="O56" s="1" t="s">
         <v>438</v>
       </c>
@@ -14731,8 +15246,37 @@
       <c r="U56">
         <v>0.74167000000000005</v>
       </c>
-    </row>
-    <row r="57" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="V56" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="W56">
+        <v>0.76309000000000005</v>
+      </c>
+      <c r="X56">
+        <v>0.82884000000000002</v>
+      </c>
+      <c r="Y56">
+        <v>0.86336000000000002</v>
+      </c>
+      <c r="Z56">
+        <v>0.78298999999999996</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
       <c r="O57" s="1" t="s">
         <v>437</v>
       </c>
@@ -14754,30 +15298,149 @@
       <c r="U57">
         <v>0.77244999999999997</v>
       </c>
-    </row>
-    <row r="58" spans="15:21" x14ac:dyDescent="0.25">
-      <c r="O58" s="5" t="s">
+      <c r="V57" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="W57">
+        <v>0.75012000000000001</v>
+      </c>
+      <c r="X57">
+        <v>0.87512000000000001</v>
+      </c>
+      <c r="Y57">
+        <v>0.84270999999999996</v>
+      </c>
+      <c r="Z57">
+        <v>0.71062000000000003</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="O58" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="P58" s="5"/>
-      <c r="Q58" s="5"/>
-      <c r="R58" s="5"/>
-      <c r="S58" s="5"/>
-      <c r="T58" s="5"/>
-      <c r="U58" s="5"/>
-    </row>
-    <row r="59" spans="15:21" x14ac:dyDescent="0.25">
-      <c r="O59" s="5" t="s">
+      <c r="P58" s="7"/>
+      <c r="Q58" s="7"/>
+      <c r="R58" s="7"/>
+      <c r="S58" s="7"/>
+      <c r="T58" s="7"/>
+      <c r="U58" s="7"/>
+      <c r="V58" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="W58" s="7"/>
+      <c r="X58" s="7"/>
+      <c r="Y58" s="7"/>
+      <c r="Z58" s="7"/>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B59">
+        <v>0.61538000000000004</v>
+      </c>
+      <c r="C59">
+        <v>0.75410999999999995</v>
+      </c>
+      <c r="D59">
+        <v>0.78120999999999996</v>
+      </c>
+      <c r="E59">
+        <v>0.84930000000000005</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="G59">
+        <v>0.43318000000000001</v>
+      </c>
+      <c r="H59">
+        <v>0.63066</v>
+      </c>
+      <c r="I59">
+        <v>0.65837000000000001</v>
+      </c>
+      <c r="J59">
+        <v>0.76844000000000001</v>
+      </c>
+      <c r="O59" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="P59" s="5"/>
-      <c r="Q59" s="5"/>
-      <c r="R59" s="5"/>
-      <c r="S59" s="5"/>
-      <c r="T59" s="5"/>
-      <c r="U59" s="5"/>
-    </row>
-    <row r="60" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7"/>
+      <c r="R59" s="7"/>
+      <c r="S59" s="7"/>
+      <c r="T59" s="7"/>
+      <c r="U59" s="7"/>
+      <c r="V59" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="W59" s="7"/>
+      <c r="X59" s="7"/>
+      <c r="Y59" s="7"/>
+      <c r="Z59" s="7"/>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B60">
+        <v>0.74461999999999995</v>
+      </c>
+      <c r="C60">
+        <v>0.87512000000000001</v>
+      </c>
+      <c r="D60">
+        <v>0.86380000000000001</v>
+      </c>
+      <c r="E60">
+        <v>0.90871000000000002</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="G60">
+        <v>0.62388999999999994</v>
+      </c>
+      <c r="H60">
+        <v>0.77141999999999999</v>
+      </c>
+      <c r="I60">
+        <v>0.77244999999999997</v>
+      </c>
+      <c r="J60">
+        <v>0.84316999999999998</v>
+      </c>
       <c r="O60" s="1" t="s">
         <v>441</v>
       </c>
@@ -14799,8 +15462,53 @@
       <c r="U60" s="1" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="61" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="V60" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="W60" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="X60" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y60" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="Z60" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B61">
+        <v>0.73751999999999995</v>
+      </c>
+      <c r="C61">
+        <v>0.84270999999999996</v>
+      </c>
+      <c r="D61">
+        <v>0.85128999999999999</v>
+      </c>
+      <c r="E61">
+        <v>0.88688</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="G61">
+        <v>0.54891000000000001</v>
+      </c>
+      <c r="H61">
+        <v>0.71165</v>
+      </c>
+      <c r="I61">
+        <v>0.73194000000000004</v>
+      </c>
+      <c r="J61">
+        <v>0.81733</v>
+      </c>
       <c r="O61" s="1" t="s">
         <v>436</v>
       </c>
@@ -14822,8 +15530,53 @@
       <c r="U61">
         <v>0.65786999999999995</v>
       </c>
-    </row>
-    <row r="62" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="V61" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="W61">
+        <v>0.62429999999999997</v>
+      </c>
+      <c r="X61">
+        <v>0.69708000000000003</v>
+      </c>
+      <c r="Y61">
+        <v>0.65627999999999997</v>
+      </c>
+      <c r="Z61">
+        <v>0.65461999999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B62">
+        <v>0.76958000000000004</v>
+      </c>
+      <c r="C62">
+        <v>0.71062000000000003</v>
+      </c>
+      <c r="D62">
+        <v>0.81420999999999999</v>
+      </c>
+      <c r="E62">
+        <v>0.85023000000000004</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="G62">
+        <v>0.48977999999999999</v>
+      </c>
+      <c r="H62">
+        <v>0.60973999999999995</v>
+      </c>
+      <c r="I62">
+        <v>0.67691999999999997</v>
+      </c>
+      <c r="J62">
+        <v>0.77490000000000003</v>
+      </c>
       <c r="O62" s="1" t="s">
         <v>440</v>
       </c>
@@ -14845,8 +15598,53 @@
       <c r="U62">
         <v>0.66286</v>
       </c>
-    </row>
-    <row r="63" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="V62" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="W62">
+        <v>0.64132</v>
+      </c>
+      <c r="X62">
+        <v>0.74800999999999995</v>
+      </c>
+      <c r="Y62">
+        <v>0.68098000000000003</v>
+      </c>
+      <c r="Z62">
+        <v>0.64800000000000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B63">
+        <v>0.82310000000000005</v>
+      </c>
+      <c r="C63">
+        <v>0.68991999999999998</v>
+      </c>
+      <c r="D63">
+        <v>0.8306</v>
+      </c>
+      <c r="E63">
+        <v>0.85895999999999995</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G63">
+        <v>0.52803</v>
+      </c>
+      <c r="H63">
+        <v>0.62604000000000004</v>
+      </c>
+      <c r="I63">
+        <v>0.69601000000000002</v>
+      </c>
+      <c r="J63">
+        <v>0.78456999999999999</v>
+      </c>
       <c r="O63" s="1" t="s">
         <v>439</v>
       </c>
@@ -14868,8 +15666,23 @@
       <c r="U63">
         <v>0.67813000000000001</v>
       </c>
-    </row>
-    <row r="64" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="V63" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="W63">
+        <v>0.65622000000000003</v>
+      </c>
+      <c r="X63">
+        <v>0.60480999999999996</v>
+      </c>
+      <c r="Y63">
+        <v>0.70894000000000001</v>
+      </c>
+      <c r="Z63">
+        <v>0.63865000000000005</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="O64" s="1" t="s">
         <v>438</v>
       </c>
@@ -14891,8 +15704,44 @@
       <c r="U64">
         <v>0.68750999999999995</v>
       </c>
-    </row>
-    <row r="65" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="V64" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="W64">
+        <v>0.63395000000000001</v>
+      </c>
+      <c r="X64">
+        <v>0.73675000000000002</v>
+      </c>
+      <c r="Y64">
+        <v>0.70867000000000002</v>
+      </c>
+      <c r="Z64">
+        <v>0.64681</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>327</v>
+      </c>
       <c r="O65" s="1" t="s">
         <v>437</v>
       </c>
@@ -14914,30 +15763,96 @@
       <c r="U65">
         <v>0.67691999999999997</v>
       </c>
-    </row>
-    <row r="66" spans="15:21" x14ac:dyDescent="0.25">
-      <c r="O66" s="5" t="s">
+      <c r="V65" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="W65">
+        <v>0.63066</v>
+      </c>
+      <c r="X65">
+        <v>0.77141999999999999</v>
+      </c>
+      <c r="Y65">
+        <v>0.71165</v>
+      </c>
+      <c r="Z65">
+        <v>0.60973999999999995</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D66">
+        <v>0.61538000000000004</v>
+      </c>
+      <c r="E66">
+        <v>0.75410999999999995</v>
+      </c>
+      <c r="F66">
+        <v>0.78120999999999996</v>
+      </c>
+      <c r="G66">
+        <v>0.84930000000000005</v>
+      </c>
+      <c r="O66" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="P66" s="5"/>
-      <c r="Q66" s="5"/>
-      <c r="R66" s="5"/>
-      <c r="S66" s="5"/>
-      <c r="T66" s="5"/>
-      <c r="U66" s="5"/>
-    </row>
-    <row r="67" spans="15:21" x14ac:dyDescent="0.25">
-      <c r="O67" s="5" t="s">
+      <c r="P66" s="7"/>
+      <c r="Q66" s="7"/>
+      <c r="R66" s="7"/>
+      <c r="S66" s="7"/>
+      <c r="T66" s="7"/>
+      <c r="U66" s="7"/>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D67">
+        <v>0.74461999999999995</v>
+      </c>
+      <c r="E67">
+        <v>0.87512000000000001</v>
+      </c>
+      <c r="F67">
+        <v>0.86380000000000001</v>
+      </c>
+      <c r="G67">
+        <v>0.90871000000000002</v>
+      </c>
+      <c r="O67" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="P67" s="5"/>
-      <c r="Q67" s="5"/>
-      <c r="R67" s="5"/>
-      <c r="S67" s="5"/>
-      <c r="T67" s="5"/>
-      <c r="U67" s="5"/>
-    </row>
-    <row r="68" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="P67" s="7"/>
+      <c r="Q67" s="7"/>
+      <c r="R67" s="7"/>
+      <c r="S67" s="7"/>
+      <c r="T67" s="7"/>
+      <c r="U67" s="7"/>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D68">
+        <v>0.73751999999999995</v>
+      </c>
+      <c r="E68">
+        <v>0.84270999999999996</v>
+      </c>
+      <c r="F68">
+        <v>0.85128999999999999</v>
+      </c>
+      <c r="G68">
+        <v>0.88688</v>
+      </c>
       <c r="O68" s="1" t="s">
         <v>441</v>
       </c>
@@ -14960,7 +15875,24 @@
         <v>450</v>
       </c>
     </row>
-    <row r="69" spans="15:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D69">
+        <v>0.76958000000000004</v>
+      </c>
+      <c r="E69">
+        <v>0.71062000000000003</v>
+      </c>
+      <c r="F69">
+        <v>0.81420999999999999</v>
+      </c>
+      <c r="G69">
+        <v>0.85023000000000004</v>
+      </c>
       <c r="O69" t="s">
         <v>436</v>
       </c>
@@ -14983,7 +15915,24 @@
         <v>0.41599999999999998</v>
       </c>
     </row>
-    <row r="70" spans="15:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D70">
+        <v>0.82310000000000005</v>
+      </c>
+      <c r="E70">
+        <v>0.68991999999999998</v>
+      </c>
+      <c r="F70">
+        <v>0.8306</v>
+      </c>
+      <c r="G70">
+        <v>0.85895999999999995</v>
+      </c>
       <c r="O70" t="s">
         <v>440</v>
       </c>
@@ -15006,7 +15955,28 @@
         <v>0.42425000000000002</v>
       </c>
     </row>
-    <row r="71" spans="15:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>419</v>
+      </c>
       <c r="O71" t="s">
         <v>439</v>
       </c>
@@ -15029,7 +15999,24 @@
         <v>0.47498000000000001</v>
       </c>
     </row>
-    <row r="72" spans="15:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D72">
+        <v>0.43318000000000001</v>
+      </c>
+      <c r="E72">
+        <v>0.63066</v>
+      </c>
+      <c r="F72">
+        <v>0.65837000000000001</v>
+      </c>
+      <c r="G72">
+        <v>0.76844000000000001</v>
+      </c>
       <c r="O72" t="s">
         <v>438</v>
       </c>
@@ -15052,7 +16039,24 @@
         <v>0.48705999999999999</v>
       </c>
     </row>
-    <row r="73" spans="15:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D73">
+        <v>0.62388999999999994</v>
+      </c>
+      <c r="E73">
+        <v>0.77141999999999999</v>
+      </c>
+      <c r="F73">
+        <v>0.77244999999999997</v>
+      </c>
+      <c r="G73">
+        <v>0.84316999999999998</v>
+      </c>
       <c r="O73" t="s">
         <v>437</v>
       </c>
@@ -15075,29 +16079,80 @@
         <v>0.48977999999999999</v>
       </c>
     </row>
-    <row r="74" spans="15:21" x14ac:dyDescent="0.25">
-      <c r="O74" s="5" t="s">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D74">
+        <v>0.54891000000000001</v>
+      </c>
+      <c r="E74">
+        <v>0.71165</v>
+      </c>
+      <c r="F74">
+        <v>0.73194000000000004</v>
+      </c>
+      <c r="G74">
+        <v>0.81733</v>
+      </c>
+      <c r="O74" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="P74" s="5"/>
-      <c r="Q74" s="5"/>
-      <c r="R74" s="5"/>
-      <c r="S74" s="5"/>
-      <c r="T74" s="5"/>
-      <c r="U74" s="5"/>
-    </row>
-    <row r="75" spans="15:21" x14ac:dyDescent="0.25">
-      <c r="O75" s="5" t="s">
+      <c r="P74" s="7"/>
+      <c r="Q74" s="7"/>
+      <c r="R74" s="7"/>
+      <c r="S74" s="7"/>
+      <c r="T74" s="7"/>
+      <c r="U74" s="7"/>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D75">
+        <v>0.48977999999999999</v>
+      </c>
+      <c r="E75">
+        <v>0.60973999999999995</v>
+      </c>
+      <c r="F75">
+        <v>0.67691999999999997</v>
+      </c>
+      <c r="G75">
+        <v>0.77490000000000003</v>
+      </c>
+      <c r="O75" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="P75" s="5"/>
-      <c r="Q75" s="5"/>
-      <c r="R75" s="5"/>
-      <c r="S75" s="5"/>
-      <c r="T75" s="5"/>
-      <c r="U75" s="5"/>
-    </row>
-    <row r="76" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="P75" s="7"/>
+      <c r="Q75" s="7"/>
+      <c r="R75" s="7"/>
+      <c r="S75" s="7"/>
+      <c r="T75" s="7"/>
+      <c r="U75" s="7"/>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D76">
+        <v>0.52803</v>
+      </c>
+      <c r="E76">
+        <v>0.62604000000000004</v>
+      </c>
+      <c r="F76">
+        <v>0.69601000000000002</v>
+      </c>
+      <c r="G76">
+        <v>0.78456999999999999</v>
+      </c>
       <c r="O76" s="1" t="s">
         <v>441</v>
       </c>
@@ -15120,7 +16175,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="77" spans="15:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="O77" t="s">
         <v>436</v>
       </c>
@@ -15143,7 +16198,7 @@
         <v>0.65786999999999995</v>
       </c>
     </row>
-    <row r="78" spans="15:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="O78" t="s">
         <v>440</v>
       </c>
@@ -15166,7 +16221,7 @@
         <v>0.66286</v>
       </c>
     </row>
-    <row r="79" spans="15:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="O79" t="s">
         <v>439</v>
       </c>
@@ -15189,7 +16244,7 @@
         <v>0.67813000000000001</v>
       </c>
     </row>
-    <row r="80" spans="15:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="O80" t="s">
         <v>438</v>
       </c>
@@ -15236,30 +16291,30 @@
       </c>
     </row>
     <row r="84" spans="15:23" x14ac:dyDescent="0.25">
-      <c r="O84" s="5" t="s">
+      <c r="O84" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="P84" s="5"/>
-      <c r="Q84" s="5"/>
-      <c r="R84" s="5"/>
-      <c r="S84" s="5"/>
-      <c r="T84" s="5"/>
-      <c r="U84" s="5"/>
-      <c r="V84" s="5"/>
-      <c r="W84" s="5"/>
+      <c r="P84" s="7"/>
+      <c r="Q84" s="7"/>
+      <c r="R84" s="7"/>
+      <c r="S84" s="7"/>
+      <c r="T84" s="7"/>
+      <c r="U84" s="7"/>
+      <c r="V84" s="7"/>
+      <c r="W84" s="7"/>
     </row>
     <row r="85" spans="15:23" x14ac:dyDescent="0.25">
-      <c r="O85" s="5" t="s">
+      <c r="O85" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="P85" s="5"/>
-      <c r="Q85" s="5"/>
-      <c r="R85" s="5"/>
-      <c r="S85" s="5"/>
-      <c r="T85" s="5"/>
-      <c r="U85" s="5"/>
-      <c r="V85" s="5"/>
-      <c r="W85" s="5"/>
+      <c r="P85" s="7"/>
+      <c r="Q85" s="7"/>
+      <c r="R85" s="7"/>
+      <c r="S85" s="7"/>
+      <c r="T85" s="7"/>
+      <c r="U85" s="7"/>
+      <c r="V85" s="7"/>
+      <c r="W85" s="7"/>
     </row>
     <row r="86" spans="15:23" x14ac:dyDescent="0.25">
       <c r="O86" s="1" t="s">
@@ -15436,30 +16491,30 @@
       </c>
     </row>
     <row r="92" spans="15:23" x14ac:dyDescent="0.25">
-      <c r="O92" s="5" t="s">
+      <c r="O92" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="P92" s="5"/>
-      <c r="Q92" s="5"/>
-      <c r="R92" s="5"/>
-      <c r="S92" s="5"/>
-      <c r="T92" s="5"/>
-      <c r="U92" s="5"/>
-      <c r="V92" s="5"/>
-      <c r="W92" s="5"/>
+      <c r="P92" s="7"/>
+      <c r="Q92" s="7"/>
+      <c r="R92" s="7"/>
+      <c r="S92" s="7"/>
+      <c r="T92" s="7"/>
+      <c r="U92" s="7"/>
+      <c r="V92" s="7"/>
+      <c r="W92" s="7"/>
     </row>
     <row r="93" spans="15:23" x14ac:dyDescent="0.25">
-      <c r="O93" s="5" t="s">
+      <c r="O93" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="P93" s="5"/>
-      <c r="Q93" s="5"/>
-      <c r="R93" s="5"/>
-      <c r="S93" s="5"/>
-      <c r="T93" s="5"/>
-      <c r="U93" s="5"/>
-      <c r="V93" s="5"/>
-      <c r="W93" s="5"/>
+      <c r="P93" s="7"/>
+      <c r="Q93" s="7"/>
+      <c r="R93" s="7"/>
+      <c r="S93" s="7"/>
+      <c r="T93" s="7"/>
+      <c r="U93" s="7"/>
+      <c r="V93" s="7"/>
+      <c r="W93" s="7"/>
     </row>
     <row r="94" spans="15:23" x14ac:dyDescent="0.25">
       <c r="O94" s="1" t="s">
@@ -15636,30 +16691,30 @@
       </c>
     </row>
     <row r="100" spans="15:23" x14ac:dyDescent="0.25">
-      <c r="O100" s="5" t="s">
+      <c r="O100" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="P100" s="5"/>
-      <c r="Q100" s="5"/>
-      <c r="R100" s="5"/>
-      <c r="S100" s="5"/>
-      <c r="T100" s="5"/>
-      <c r="U100" s="5"/>
-      <c r="V100" s="5"/>
-      <c r="W100" s="5"/>
+      <c r="P100" s="7"/>
+      <c r="Q100" s="7"/>
+      <c r="R100" s="7"/>
+      <c r="S100" s="7"/>
+      <c r="T100" s="7"/>
+      <c r="U100" s="7"/>
+      <c r="V100" s="7"/>
+      <c r="W100" s="7"/>
     </row>
     <row r="101" spans="15:23" x14ac:dyDescent="0.25">
-      <c r="O101" s="5" t="s">
+      <c r="O101" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="P101" s="5"/>
-      <c r="Q101" s="5"/>
-      <c r="R101" s="5"/>
-      <c r="S101" s="5"/>
-      <c r="T101" s="5"/>
-      <c r="U101" s="5"/>
-      <c r="V101" s="5"/>
-      <c r="W101" s="5"/>
+      <c r="P101" s="7"/>
+      <c r="Q101" s="7"/>
+      <c r="R101" s="7"/>
+      <c r="S101" s="7"/>
+      <c r="T101" s="7"/>
+      <c r="U101" s="7"/>
+      <c r="V101" s="7"/>
+      <c r="W101" s="7"/>
     </row>
     <row r="102" spans="15:23" x14ac:dyDescent="0.25">
       <c r="O102" s="1" t="s">
@@ -15836,28 +16891,28 @@
       </c>
     </row>
     <row r="108" spans="15:23" x14ac:dyDescent="0.25">
-      <c r="O108" s="5" t="s">
+      <c r="O108" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="P108" s="5"/>
-      <c r="Q108" s="5"/>
-      <c r="R108" s="5"/>
-      <c r="S108" s="5"/>
-      <c r="T108" s="5"/>
-      <c r="U108" s="5"/>
+      <c r="P108" s="7"/>
+      <c r="Q108" s="7"/>
+      <c r="R108" s="7"/>
+      <c r="S108" s="7"/>
+      <c r="T108" s="7"/>
+      <c r="U108" s="7"/>
       <c r="V108" s="2"/>
       <c r="W108" s="2"/>
     </row>
     <row r="109" spans="15:23" x14ac:dyDescent="0.25">
-      <c r="O109" s="5" t="s">
+      <c r="O109" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="P109" s="5"/>
-      <c r="Q109" s="5"/>
-      <c r="R109" s="5"/>
-      <c r="S109" s="5"/>
-      <c r="T109" s="5"/>
-      <c r="U109" s="5"/>
+      <c r="P109" s="7"/>
+      <c r="Q109" s="7"/>
+      <c r="R109" s="7"/>
+      <c r="S109" s="7"/>
+      <c r="T109" s="7"/>
+      <c r="U109" s="7"/>
     </row>
     <row r="110" spans="15:23" x14ac:dyDescent="0.25">
       <c r="O110" s="1" t="s">
@@ -15998,26 +17053,26 @@
       </c>
     </row>
     <row r="116" spans="15:21" x14ac:dyDescent="0.25">
-      <c r="O116" s="5" t="s">
+      <c r="O116" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="P116" s="5"/>
-      <c r="Q116" s="5"/>
-      <c r="R116" s="5"/>
-      <c r="S116" s="5"/>
-      <c r="T116" s="5"/>
-      <c r="U116" s="5"/>
+      <c r="P116" s="7"/>
+      <c r="Q116" s="7"/>
+      <c r="R116" s="7"/>
+      <c r="S116" s="7"/>
+      <c r="T116" s="7"/>
+      <c r="U116" s="7"/>
     </row>
     <row r="117" spans="15:21" x14ac:dyDescent="0.25">
-      <c r="O117" s="5" t="s">
+      <c r="O117" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="P117" s="5"/>
-      <c r="Q117" s="5"/>
-      <c r="R117" s="5"/>
-      <c r="S117" s="5"/>
-      <c r="T117" s="5"/>
-      <c r="U117" s="5"/>
+      <c r="P117" s="7"/>
+      <c r="Q117" s="7"/>
+      <c r="R117" s="7"/>
+      <c r="S117" s="7"/>
+      <c r="T117" s="7"/>
+      <c r="U117" s="7"/>
     </row>
     <row r="118" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O118" s="1" t="s">
@@ -16158,7 +17213,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="53">
+    <mergeCell ref="V58:Z58"/>
+    <mergeCell ref="V59:Z59"/>
     <mergeCell ref="O43:U43"/>
     <mergeCell ref="O117:U117"/>
     <mergeCell ref="O85:W85"/>
@@ -16191,9 +17248,25 @@
     <mergeCell ref="A24:F24"/>
     <mergeCell ref="O35:U35"/>
     <mergeCell ref="O34:U34"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
     <mergeCell ref="A34:F34"/>
     <mergeCell ref="A35:F35"/>
     <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="V35:Z35"/>
+    <mergeCell ref="V34:Z34"/>
+    <mergeCell ref="V43:Z43"/>
+    <mergeCell ref="V42:Z42"/>
+    <mergeCell ref="V50:Z50"/>
+    <mergeCell ref="V51:Z51"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A65:A70"/>
+    <mergeCell ref="B65:B70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
@@ -16204,7 +17277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="A14" sqref="A14:E18"/>
     </sheetView>
   </sheetViews>
@@ -16334,13 +17407,13 @@
       <c r="A7" t="s">
         <v>504</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -16446,13 +17519,13 @@
       <c r="A14" t="s">
         <v>504</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>472</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">

--- a/plotting/617_temp.xlsx
+++ b/plotting/617_temp.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="518">
   <si>
     <t>.\vgg_unet2_0_3_640_640_64_256_rot_15_345_4_flip_5K\training_32_49_640_640_640_640_max_val_acc\vis\vis_log_181022_0927.txt</t>
   </si>
@@ -1570,6 +1570,9 @@
   </si>
   <si>
     <t>Frazil Ice Precision</t>
+  </si>
+  <si>
+    <t>20161203_Deployment_1_YUN00002_1800</t>
   </si>
 </sst>
 </file>
@@ -1646,10 +1649,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -12657,17 +12660,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A300:E300"/>
-    <mergeCell ref="A238:E238"/>
-    <mergeCell ref="A199:E199"/>
-    <mergeCell ref="A162:E162"/>
-    <mergeCell ref="A126:E126"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A52:E52"/>
     <mergeCell ref="A71:E71"/>
     <mergeCell ref="A89:E89"/>
     <mergeCell ref="A108:E108"/>
     <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A300:E300"/>
+    <mergeCell ref="A238:E238"/>
+    <mergeCell ref="A199:E199"/>
+    <mergeCell ref="A162:E162"/>
+    <mergeCell ref="A126:E126"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
@@ -13236,25 +13239,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56:J63"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="38.85546875" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="4" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -13368,22 +13371,22 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -13536,14 +13539,14 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
       <c r="J17">
         <v>0.67832000000000003</v>
       </c>
@@ -13558,14 +13561,14 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -13776,14 +13779,14 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
       <c r="J24">
         <v>0.43318000000000001</v>
       </c>
@@ -13810,14 +13813,14 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -13994,72 +13997,72 @@
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="H34" s="7" t="s">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="H34" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="O34" s="7" t="s">
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="O34" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="7"/>
-      <c r="T34" s="7"/>
-      <c r="U34" s="7"/>
-      <c r="V34" s="7" t="s">
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="6"/>
+      <c r="U34" s="6"/>
+      <c r="V34" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="W34" s="7"/>
-      <c r="X34" s="7"/>
-      <c r="Y34" s="7"/>
-      <c r="Z34" s="7"/>
+      <c r="W34" s="6"/>
+      <c r="X34" s="6"/>
+      <c r="Y34" s="6"/>
+      <c r="Z34" s="6"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="H35" s="7" t="s">
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="H35" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="O35" s="7" t="s">
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="O35" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
-      <c r="S35" s="7"/>
-      <c r="T35" s="7"/>
-      <c r="U35" s="7"/>
-      <c r="V35" s="7" t="s">
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="W35" s="7"/>
-      <c r="X35" s="7"/>
-      <c r="Y35" s="7"/>
-      <c r="Z35" s="7"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="6"/>
+      <c r="Z35" s="6"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -14432,14 +14435,14 @@
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
       <c r="H41" s="1" t="s">
         <v>416</v>
       </c>
@@ -14496,14 +14499,14 @@
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
       <c r="H42" s="1" t="s">
         <v>417</v>
       </c>
@@ -14522,22 +14525,22 @@
       <c r="M42">
         <v>0.63066</v>
       </c>
-      <c r="O42" s="7" t="s">
+      <c r="O42" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="7"/>
-      <c r="R42" s="7"/>
-      <c r="S42" s="7"/>
-      <c r="T42" s="7"/>
-      <c r="U42" s="7"/>
-      <c r="V42" s="7" t="s">
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="6"/>
+      <c r="V42" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="W42" s="7"/>
-      <c r="X42" s="7"/>
-      <c r="Y42" s="7"/>
-      <c r="Z42" s="7"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="6"/>
+      <c r="Y42" s="6"/>
+      <c r="Z42" s="6"/>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
@@ -14576,22 +14579,22 @@
       <c r="M43">
         <v>0.65837000000000001</v>
       </c>
-      <c r="O43" s="7" t="s">
+      <c r="O43" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="P43" s="7"/>
-      <c r="Q43" s="7"/>
-      <c r="R43" s="7"/>
-      <c r="S43" s="7"/>
-      <c r="T43" s="7"/>
-      <c r="U43" s="7"/>
-      <c r="V43" s="7" t="s">
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="6"/>
+      <c r="U43" s="6"/>
+      <c r="V43" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="W43" s="7"/>
-      <c r="X43" s="7"/>
-      <c r="Y43" s="7"/>
-      <c r="Z43" s="7"/>
+      <c r="W43" s="6"/>
+      <c r="X43" s="6"/>
+      <c r="Y43" s="6"/>
+      <c r="Z43" s="6"/>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
@@ -14840,13 +14843,13 @@
       </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
       <c r="F48" s="2"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
@@ -14888,13 +14891,13 @@
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="6" t="s">
         <v>505</v>
       </c>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
       <c r="O49" s="1" t="s">
         <v>437</v>
       </c>
@@ -14948,22 +14951,22 @@
       <c r="E50" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="O50" s="7" t="s">
+      <c r="O50" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="P50" s="7"/>
-      <c r="Q50" s="7"/>
-      <c r="R50" s="7"/>
-      <c r="S50" s="7"/>
-      <c r="T50" s="7"/>
-      <c r="U50" s="7"/>
-      <c r="V50" s="7" t="s">
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="6"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="6"/>
+      <c r="U50" s="6"/>
+      <c r="V50" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="W50" s="7"/>
-      <c r="X50" s="7"/>
-      <c r="Y50" s="7"/>
-      <c r="Z50" s="7"/>
+      <c r="W50" s="6"/>
+      <c r="X50" s="6"/>
+      <c r="Y50" s="6"/>
+      <c r="Z50" s="6"/>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
@@ -14981,22 +14984,22 @@
       <c r="E51">
         <v>0.63066</v>
       </c>
-      <c r="O51" s="7" t="s">
+      <c r="O51" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="P51" s="7"/>
-      <c r="Q51" s="7"/>
-      <c r="R51" s="7"/>
-      <c r="S51" s="7"/>
-      <c r="T51" s="7"/>
-      <c r="U51" s="7"/>
-      <c r="V51" s="7" t="s">
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="6"/>
+      <c r="U51" s="6"/>
+      <c r="V51" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="W51" s="7"/>
-      <c r="X51" s="7"/>
-      <c r="Y51" s="7"/>
-      <c r="Z51" s="7"/>
+      <c r="W51" s="6"/>
+      <c r="X51" s="6"/>
+      <c r="Y51" s="6"/>
+      <c r="Z51" s="6"/>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -15211,20 +15214,20 @@
       </c>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7" t="s">
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
       <c r="O56" s="1" t="s">
         <v>438</v>
       </c>
@@ -15263,20 +15266,20 @@
       </c>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7" t="s">
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
       <c r="O57" s="1" t="s">
         <v>437</v>
       </c>
@@ -15345,22 +15348,22 @@
       <c r="J58" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="O58" s="7" t="s">
+      <c r="O58" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="P58" s="7"/>
-      <c r="Q58" s="7"/>
-      <c r="R58" s="7"/>
-      <c r="S58" s="7"/>
-      <c r="T58" s="7"/>
-      <c r="U58" s="7"/>
-      <c r="V58" s="7" t="s">
+      <c r="P58" s="6"/>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="6"/>
+      <c r="S58" s="6"/>
+      <c r="T58" s="6"/>
+      <c r="U58" s="6"/>
+      <c r="V58" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="W58" s="7"/>
-      <c r="X58" s="7"/>
-      <c r="Y58" s="7"/>
-      <c r="Z58" s="7"/>
+      <c r="W58" s="6"/>
+      <c r="X58" s="6"/>
+      <c r="Y58" s="6"/>
+      <c r="Z58" s="6"/>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
@@ -15393,22 +15396,22 @@
       <c r="J59">
         <v>0.76844000000000001</v>
       </c>
-      <c r="O59" s="7" t="s">
+      <c r="O59" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="P59" s="7"/>
-      <c r="Q59" s="7"/>
-      <c r="R59" s="7"/>
-      <c r="S59" s="7"/>
-      <c r="T59" s="7"/>
-      <c r="U59" s="7"/>
-      <c r="V59" s="7" t="s">
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="6"/>
+      <c r="S59" s="6"/>
+      <c r="T59" s="6"/>
+      <c r="U59" s="6"/>
+      <c r="V59" s="6" t="s">
         <v>516</v>
       </c>
-      <c r="W59" s="7"/>
-      <c r="X59" s="7"/>
-      <c r="Y59" s="7"/>
-      <c r="Z59" s="7"/>
+      <c r="W59" s="6"/>
+      <c r="X59" s="6"/>
+      <c r="Y59" s="6"/>
+      <c r="Z59" s="6"/>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
@@ -15721,10 +15724,10 @@
       </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="6" t="s">
         <v>444</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -15780,8 +15783,8 @@
       </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
       <c r="C66" s="1" t="s">
         <v>412</v>
       </c>
@@ -15797,19 +15800,19 @@
       <c r="G66">
         <v>0.84930000000000005</v>
       </c>
-      <c r="O66" s="7" t="s">
+      <c r="O66" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="P66" s="7"/>
-      <c r="Q66" s="7"/>
-      <c r="R66" s="7"/>
-      <c r="S66" s="7"/>
-      <c r="T66" s="7"/>
-      <c r="U66" s="7"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="6"/>
+      <c r="R66" s="6"/>
+      <c r="S66" s="6"/>
+      <c r="T66" s="6"/>
+      <c r="U66" s="6"/>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A67" s="7"/>
-      <c r="B67" s="7"/>
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
       <c r="C67" s="1" t="s">
         <v>405</v>
       </c>
@@ -15825,19 +15828,19 @@
       <c r="G67">
         <v>0.90871000000000002</v>
       </c>
-      <c r="O67" s="7" t="s">
+      <c r="O67" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="P67" s="7"/>
-      <c r="Q67" s="7"/>
-      <c r="R67" s="7"/>
-      <c r="S67" s="7"/>
-      <c r="T67" s="7"/>
-      <c r="U67" s="7"/>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="6"/>
+      <c r="R67" s="6"/>
+      <c r="S67" s="6"/>
+      <c r="T67" s="6"/>
+      <c r="U67" s="6"/>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A68" s="7"/>
-      <c r="B68" s="7"/>
+      <c r="A68" s="6"/>
+      <c r="B68" s="6"/>
       <c r="C68" s="1" t="s">
         <v>404</v>
       </c>
@@ -15876,8 +15879,8 @@
       </c>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A69" s="7"/>
-      <c r="B69" s="7"/>
+      <c r="A69" s="6"/>
+      <c r="B69" s="6"/>
       <c r="C69" s="1" t="s">
         <v>406</v>
       </c>
@@ -15916,8 +15919,8 @@
       </c>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A70" s="7"/>
-      <c r="B70" s="7"/>
+      <c r="A70" s="6"/>
+      <c r="B70" s="6"/>
       <c r="C70" s="1" t="s">
         <v>403</v>
       </c>
@@ -15956,10 +15959,10 @@
       </c>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A71" s="6" t="s">
+      <c r="A71" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="6" t="s">
         <v>445</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -16000,8 +16003,8 @@
       </c>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A72" s="7"/>
-      <c r="B72" s="7"/>
+      <c r="A72" s="6"/>
+      <c r="B72" s="6"/>
       <c r="C72" s="1" t="s">
         <v>412</v>
       </c>
@@ -16040,8 +16043,8 @@
       </c>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A73" s="7"/>
-      <c r="B73" s="7"/>
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
       <c r="C73" s="1" t="s">
         <v>405</v>
       </c>
@@ -16080,8 +16083,8 @@
       </c>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A74" s="7"/>
-      <c r="B74" s="7"/>
+      <c r="A74" s="6"/>
+      <c r="B74" s="6"/>
       <c r="C74" s="1" t="s">
         <v>404</v>
       </c>
@@ -16097,19 +16100,19 @@
       <c r="G74">
         <v>0.81733</v>
       </c>
-      <c r="O74" s="7" t="s">
+      <c r="O74" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="P74" s="7"/>
-      <c r="Q74" s="7"/>
-      <c r="R74" s="7"/>
-      <c r="S74" s="7"/>
-      <c r="T74" s="7"/>
-      <c r="U74" s="7"/>
+      <c r="P74" s="6"/>
+      <c r="Q74" s="6"/>
+      <c r="R74" s="6"/>
+      <c r="S74" s="6"/>
+      <c r="T74" s="6"/>
+      <c r="U74" s="6"/>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A75" s="7"/>
-      <c r="B75" s="7"/>
+      <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
       <c r="C75" s="1" t="s">
         <v>406</v>
       </c>
@@ -16125,19 +16128,19 @@
       <c r="G75">
         <v>0.77490000000000003</v>
       </c>
-      <c r="O75" s="7" t="s">
+      <c r="O75" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="P75" s="7"/>
-      <c r="Q75" s="7"/>
-      <c r="R75" s="7"/>
-      <c r="S75" s="7"/>
-      <c r="T75" s="7"/>
-      <c r="U75" s="7"/>
+      <c r="P75" s="6"/>
+      <c r="Q75" s="6"/>
+      <c r="R75" s="6"/>
+      <c r="S75" s="6"/>
+      <c r="T75" s="6"/>
+      <c r="U75" s="6"/>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A76" s="7"/>
-      <c r="B76" s="7"/>
+      <c r="A76" s="6"/>
+      <c r="B76" s="6"/>
       <c r="C76" s="1" t="s">
         <v>403</v>
       </c>
@@ -16176,6 +16179,22 @@
       </c>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A77" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
       <c r="O77" t="s">
         <v>436</v>
       </c>
@@ -16199,6 +16218,22 @@
       </c>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A78" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
       <c r="O78" t="s">
         <v>440</v>
       </c>
@@ -16222,6 +16257,42 @@
       </c>
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>403</v>
+      </c>
       <c r="O79" t="s">
         <v>439</v>
       </c>
@@ -16245,6 +16316,42 @@
       </c>
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B80">
+        <v>0.61538000000000004</v>
+      </c>
+      <c r="C80">
+        <v>0.74461999999999995</v>
+      </c>
+      <c r="D80">
+        <v>0.73751999999999995</v>
+      </c>
+      <c r="E80">
+        <v>0.76958000000000004</v>
+      </c>
+      <c r="F80">
+        <v>0.82310000000000005</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="H80">
+        <v>0.43318000000000001</v>
+      </c>
+      <c r="I80">
+        <v>0.62388999999999994</v>
+      </c>
+      <c r="J80">
+        <v>0.54891000000000001</v>
+      </c>
+      <c r="K80">
+        <v>0.48977999999999999</v>
+      </c>
+      <c r="L80">
+        <v>0.52803</v>
+      </c>
       <c r="O80" t="s">
         <v>438</v>
       </c>
@@ -16267,7 +16374,43 @@
         <v>0.68750999999999995</v>
       </c>
     </row>
-    <row r="81" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B81">
+        <v>0.75410999999999995</v>
+      </c>
+      <c r="C81">
+        <v>0.87512000000000001</v>
+      </c>
+      <c r="D81">
+        <v>0.84270999999999996</v>
+      </c>
+      <c r="E81">
+        <v>0.71062000000000003</v>
+      </c>
+      <c r="F81">
+        <v>0.68991999999999998</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="H81">
+        <v>0.63066</v>
+      </c>
+      <c r="I81">
+        <v>0.77141999999999999</v>
+      </c>
+      <c r="J81">
+        <v>0.71165</v>
+      </c>
+      <c r="K81">
+        <v>0.60973999999999995</v>
+      </c>
+      <c r="L81">
+        <v>0.62604000000000004</v>
+      </c>
       <c r="O81" t="s">
         <v>437</v>
       </c>
@@ -16290,33 +16433,133 @@
         <v>0.67691999999999997</v>
       </c>
     </row>
-    <row r="84" spans="15:23" x14ac:dyDescent="0.25">
-      <c r="O84" s="7" t="s">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B82">
+        <v>0.78120999999999996</v>
+      </c>
+      <c r="C82">
+        <v>0.86380000000000001</v>
+      </c>
+      <c r="D82">
+        <v>0.85128999999999999</v>
+      </c>
+      <c r="E82">
+        <v>0.81420999999999999</v>
+      </c>
+      <c r="F82">
+        <v>0.8306</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="H82">
+        <v>0.65837000000000001</v>
+      </c>
+      <c r="I82">
+        <v>0.77244999999999997</v>
+      </c>
+      <c r="J82">
+        <v>0.73194000000000004</v>
+      </c>
+      <c r="K82">
+        <v>0.67691999999999997</v>
+      </c>
+      <c r="L82">
+        <v>0.69601000000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B83">
+        <v>0.84930000000000005</v>
+      </c>
+      <c r="C83">
+        <v>0.90871000000000002</v>
+      </c>
+      <c r="D83">
+        <v>0.88688</v>
+      </c>
+      <c r="E83">
+        <v>0.85023000000000004</v>
+      </c>
+      <c r="F83">
+        <v>0.85895999999999995</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H83">
+        <v>0.76844000000000001</v>
+      </c>
+      <c r="I83">
+        <v>0.84316999999999998</v>
+      </c>
+      <c r="J83">
+        <v>0.81733</v>
+      </c>
+      <c r="K83">
+        <v>0.77490000000000003</v>
+      </c>
+      <c r="L83">
+        <v>0.78456999999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="O84" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="P84" s="7"/>
-      <c r="Q84" s="7"/>
-      <c r="R84" s="7"/>
-      <c r="S84" s="7"/>
-      <c r="T84" s="7"/>
-      <c r="U84" s="7"/>
-      <c r="V84" s="7"/>
-      <c r="W84" s="7"/>
-    </row>
-    <row r="85" spans="15:23" x14ac:dyDescent="0.25">
-      <c r="O85" s="7" t="s">
+      <c r="P84" s="6"/>
+      <c r="Q84" s="6"/>
+      <c r="R84" s="6"/>
+      <c r="S84" s="6"/>
+      <c r="T84" s="6"/>
+      <c r="U84" s="6"/>
+      <c r="V84" s="6"/>
+      <c r="W84" s="6"/>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>517</v>
+      </c>
+      <c r="B85">
+        <v>2.5178015658025799</v>
+      </c>
+      <c r="C85">
+        <v>0.576305151363669</v>
+      </c>
+      <c r="D85">
+        <v>0.63810396770711098</v>
+      </c>
+      <c r="O85" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="P85" s="7"/>
-      <c r="Q85" s="7"/>
-      <c r="R85" s="7"/>
-      <c r="S85" s="7"/>
-      <c r="T85" s="7"/>
-      <c r="U85" s="7"/>
-      <c r="V85" s="7"/>
-      <c r="W85" s="7"/>
-    </row>
-    <row r="86" spans="15:23" x14ac:dyDescent="0.25">
+      <c r="P85" s="6"/>
+      <c r="Q85" s="6"/>
+      <c r="R85" s="6"/>
+      <c r="S85" s="6"/>
+      <c r="T85" s="6"/>
+      <c r="U85" s="6"/>
+      <c r="V85" s="6"/>
+      <c r="W85" s="6"/>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="O86" s="1" t="s">
         <v>441</v>
       </c>
@@ -16345,7 +16588,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="87" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="O87" t="s">
         <v>436</v>
       </c>
@@ -16374,7 +16617,7 @@
         <v>0.41599999999999998</v>
       </c>
     </row>
-    <row r="88" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="O88" t="s">
         <v>440</v>
       </c>
@@ -16403,7 +16646,7 @@
         <v>0.42425000000000002</v>
       </c>
     </row>
-    <row r="89" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="O89" t="s">
         <v>439</v>
       </c>
@@ -16432,7 +16675,7 @@
         <v>0.47498000000000001</v>
       </c>
     </row>
-    <row r="90" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="O90" t="s">
         <v>438</v>
       </c>
@@ -16461,7 +16704,7 @@
         <v>0.48705999999999999</v>
       </c>
     </row>
-    <row r="91" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="O91" t="s">
         <v>437</v>
       </c>
@@ -16490,33 +16733,33 @@
         <v>0.48977999999999999</v>
       </c>
     </row>
-    <row r="92" spans="15:23" x14ac:dyDescent="0.25">
-      <c r="O92" s="7" t="s">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O92" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="P92" s="7"/>
-      <c r="Q92" s="7"/>
-      <c r="R92" s="7"/>
-      <c r="S92" s="7"/>
-      <c r="T92" s="7"/>
-      <c r="U92" s="7"/>
-      <c r="V92" s="7"/>
-      <c r="W92" s="7"/>
-    </row>
-    <row r="93" spans="15:23" x14ac:dyDescent="0.25">
-      <c r="O93" s="7" t="s">
+      <c r="P92" s="6"/>
+      <c r="Q92" s="6"/>
+      <c r="R92" s="6"/>
+      <c r="S92" s="6"/>
+      <c r="T92" s="6"/>
+      <c r="U92" s="6"/>
+      <c r="V92" s="6"/>
+      <c r="W92" s="6"/>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O93" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="P93" s="7"/>
-      <c r="Q93" s="7"/>
-      <c r="R93" s="7"/>
-      <c r="S93" s="7"/>
-      <c r="T93" s="7"/>
-      <c r="U93" s="7"/>
-      <c r="V93" s="7"/>
-      <c r="W93" s="7"/>
-    </row>
-    <row r="94" spans="15:23" x14ac:dyDescent="0.25">
+      <c r="P93" s="6"/>
+      <c r="Q93" s="6"/>
+      <c r="R93" s="6"/>
+      <c r="S93" s="6"/>
+      <c r="T93" s="6"/>
+      <c r="U93" s="6"/>
+      <c r="V93" s="6"/>
+      <c r="W93" s="6"/>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="O94" s="1" t="s">
         <v>441</v>
       </c>
@@ -16545,7 +16788,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="95" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="O95" t="s">
         <v>436</v>
       </c>
@@ -16574,7 +16817,7 @@
         <v>0.65461999999999998</v>
       </c>
     </row>
-    <row r="96" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="O96" t="s">
         <v>440</v>
       </c>
@@ -16691,30 +16934,30 @@
       </c>
     </row>
     <row r="100" spans="15:23" x14ac:dyDescent="0.25">
-      <c r="O100" s="7" t="s">
+      <c r="O100" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="P100" s="7"/>
-      <c r="Q100" s="7"/>
-      <c r="R100" s="7"/>
-      <c r="S100" s="7"/>
-      <c r="T100" s="7"/>
-      <c r="U100" s="7"/>
-      <c r="V100" s="7"/>
-      <c r="W100" s="7"/>
+      <c r="P100" s="6"/>
+      <c r="Q100" s="6"/>
+      <c r="R100" s="6"/>
+      <c r="S100" s="6"/>
+      <c r="T100" s="6"/>
+      <c r="U100" s="6"/>
+      <c r="V100" s="6"/>
+      <c r="W100" s="6"/>
     </row>
     <row r="101" spans="15:23" x14ac:dyDescent="0.25">
-      <c r="O101" s="7" t="s">
+      <c r="O101" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="P101" s="7"/>
-      <c r="Q101" s="7"/>
-      <c r="R101" s="7"/>
-      <c r="S101" s="7"/>
-      <c r="T101" s="7"/>
-      <c r="U101" s="7"/>
-      <c r="V101" s="7"/>
-      <c r="W101" s="7"/>
+      <c r="P101" s="6"/>
+      <c r="Q101" s="6"/>
+      <c r="R101" s="6"/>
+      <c r="S101" s="6"/>
+      <c r="T101" s="6"/>
+      <c r="U101" s="6"/>
+      <c r="V101" s="6"/>
+      <c r="W101" s="6"/>
     </row>
     <row r="102" spans="15:23" x14ac:dyDescent="0.25">
       <c r="O102" s="1" t="s">
@@ -16891,28 +17134,28 @@
       </c>
     </row>
     <row r="108" spans="15:23" x14ac:dyDescent="0.25">
-      <c r="O108" s="7" t="s">
+      <c r="O108" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="P108" s="7"/>
-      <c r="Q108" s="7"/>
-      <c r="R108" s="7"/>
-      <c r="S108" s="7"/>
-      <c r="T108" s="7"/>
-      <c r="U108" s="7"/>
+      <c r="P108" s="6"/>
+      <c r="Q108" s="6"/>
+      <c r="R108" s="6"/>
+      <c r="S108" s="6"/>
+      <c r="T108" s="6"/>
+      <c r="U108" s="6"/>
       <c r="V108" s="2"/>
       <c r="W108" s="2"/>
     </row>
     <row r="109" spans="15:23" x14ac:dyDescent="0.25">
-      <c r="O109" s="7" t="s">
+      <c r="O109" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="P109" s="7"/>
-      <c r="Q109" s="7"/>
-      <c r="R109" s="7"/>
-      <c r="S109" s="7"/>
-      <c r="T109" s="7"/>
-      <c r="U109" s="7"/>
+      <c r="P109" s="6"/>
+      <c r="Q109" s="6"/>
+      <c r="R109" s="6"/>
+      <c r="S109" s="6"/>
+      <c r="T109" s="6"/>
+      <c r="U109" s="6"/>
     </row>
     <row r="110" spans="15:23" x14ac:dyDescent="0.25">
       <c r="O110" s="1" t="s">
@@ -17053,26 +17296,26 @@
       </c>
     </row>
     <row r="116" spans="15:21" x14ac:dyDescent="0.25">
-      <c r="O116" s="7" t="s">
+      <c r="O116" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="P116" s="7"/>
-      <c r="Q116" s="7"/>
-      <c r="R116" s="7"/>
-      <c r="S116" s="7"/>
-      <c r="T116" s="7"/>
-      <c r="U116" s="7"/>
+      <c r="P116" s="6"/>
+      <c r="Q116" s="6"/>
+      <c r="R116" s="6"/>
+      <c r="S116" s="6"/>
+      <c r="T116" s="6"/>
+      <c r="U116" s="6"/>
     </row>
     <row r="117" spans="15:21" x14ac:dyDescent="0.25">
-      <c r="O117" s="7" t="s">
+      <c r="O117" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="P117" s="7"/>
-      <c r="Q117" s="7"/>
-      <c r="R117" s="7"/>
-      <c r="S117" s="7"/>
-      <c r="T117" s="7"/>
-      <c r="U117" s="7"/>
+      <c r="P117" s="6"/>
+      <c r="Q117" s="6"/>
+      <c r="R117" s="6"/>
+      <c r="S117" s="6"/>
+      <c r="T117" s="6"/>
+      <c r="U117" s="6"/>
     </row>
     <row r="118" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O118" s="1" t="s">
@@ -17213,7 +17456,48 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="53">
+  <mergeCells count="57">
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="G77:L77"/>
+    <mergeCell ref="G78:L78"/>
+    <mergeCell ref="V51:Z51"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A65:A70"/>
+    <mergeCell ref="B65:B70"/>
+    <mergeCell ref="V35:Z35"/>
+    <mergeCell ref="V34:Z34"/>
+    <mergeCell ref="V43:Z43"/>
+    <mergeCell ref="V42:Z42"/>
+    <mergeCell ref="V50:Z50"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="O42:U42"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="O35:U35"/>
+    <mergeCell ref="O34:U34"/>
+    <mergeCell ref="O66:U66"/>
+    <mergeCell ref="O50:U50"/>
+    <mergeCell ref="O51:U51"/>
+    <mergeCell ref="O58:U58"/>
+    <mergeCell ref="O59:U59"/>
     <mergeCell ref="V58:Z58"/>
     <mergeCell ref="V59:Z59"/>
     <mergeCell ref="O43:U43"/>
@@ -17230,43 +17514,6 @@
     <mergeCell ref="O75:U75"/>
     <mergeCell ref="O74:U74"/>
     <mergeCell ref="O67:U67"/>
-    <mergeCell ref="O66:U66"/>
-    <mergeCell ref="O50:U50"/>
-    <mergeCell ref="O51:U51"/>
-    <mergeCell ref="O58:U58"/>
-    <mergeCell ref="O59:U59"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="O42:U42"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="O35:U35"/>
-    <mergeCell ref="O34:U34"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="V35:Z35"/>
-    <mergeCell ref="V34:Z34"/>
-    <mergeCell ref="V43:Z43"/>
-    <mergeCell ref="V42:Z42"/>
-    <mergeCell ref="V50:Z50"/>
-    <mergeCell ref="V51:Z51"/>
-    <mergeCell ref="A71:A76"/>
-    <mergeCell ref="B71:B76"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="A65:A70"/>
-    <mergeCell ref="B65:B70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>

--- a/plotting/617_temp.xlsx
+++ b/plotting/617_temp.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="520">
   <si>
     <t>.\vgg_unet2_0_3_640_640_64_256_rot_15_345_4_flip_5K\training_32_49_640_640_640_640_max_val_acc\vis\vis_log_181022_0927.txt</t>
   </si>
@@ -1573,6 +1573,12 @@
   </si>
   <si>
     <t>20161203_Deployment_1_YUN00002_1800</t>
+  </si>
+  <si>
+    <t>20160122_YUN00002_700_2500</t>
+  </si>
+  <si>
+    <t>20160122_YUN00020_2000_3800</t>
   </si>
 </sst>
 </file>
@@ -13240,7 +13246,7 @@
   <dimension ref="A1:Z123"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A69" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16560,6 +16566,18 @@
       <c r="W85" s="6"/>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B86">
+        <v>3.6073240237310298</v>
+      </c>
+      <c r="C86">
+        <v>2.1653551205573698</v>
+      </c>
+      <c r="D86">
+        <v>2.1350182315256498</v>
+      </c>
       <c r="O86" s="1" t="s">
         <v>441</v>
       </c>
@@ -16589,6 +16607,18 @@
       </c>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B87">
+        <v>1.2235413881447299</v>
+      </c>
+      <c r="C87">
+        <v>0.79677180078824605</v>
+      </c>
+      <c r="D87">
+        <v>0.650672310126853</v>
+      </c>
       <c r="O87" t="s">
         <v>436</v>
       </c>

--- a/plotting/617_temp.xlsx
+++ b/plotting/617_temp.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="522">
   <si>
     <t>.\vgg_unet2_0_3_640_640_64_256_rot_15_345_4_flip_5K\training_32_49_640_640_640_640_max_val_acc\vis\vis_log_181022_0927.txt</t>
   </si>
@@ -1579,6 +1579,12 @@
   </si>
   <si>
     <t>20160122_YUN00020_2000_3800</t>
+  </si>
+  <si>
+    <t>20161203_Deployment_1_YUN00001_900_2700</t>
+  </si>
+  <si>
+    <t>combined_ice</t>
   </si>
 </sst>
 </file>
@@ -13245,8 +13251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16516,7 +16522,9 @@
       </c>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
+      <c r="A84" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="B84" s="1" t="s">
         <v>405</v>
       </c>
@@ -16648,6 +16656,18 @@
       </c>
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B88">
+        <v>2.4806143105480398</v>
+      </c>
+      <c r="C88">
+        <v>0.54179917233682595</v>
+      </c>
+      <c r="D88">
+        <v>0.62264071952053202</v>
+      </c>
       <c r="O88" t="s">
         <v>440</v>
       </c>
@@ -16706,6 +16726,18 @@
       </c>
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>406</v>
+      </c>
       <c r="O90" t="s">
         <v>438</v>
       </c>
@@ -16735,6 +16767,18 @@
       </c>
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>517</v>
+      </c>
+      <c r="B91">
+        <v>2.8450692597460598</v>
+      </c>
+      <c r="C91">
+        <v>1.2697443702112401</v>
+      </c>
+      <c r="D91">
+        <v>0.81001445981863995</v>
+      </c>
       <c r="O91" t="s">
         <v>437</v>
       </c>
@@ -16764,6 +16808,18 @@
       </c>
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B92">
+        <v>2.8446595054629902</v>
+      </c>
+      <c r="C92">
+        <v>1.90135349596226</v>
+      </c>
+      <c r="D92">
+        <v>1.7041987033906001</v>
+      </c>
       <c r="O92" s="6" t="s">
         <v>434</v>
       </c>
@@ -16777,6 +16833,18 @@
       <c r="W92" s="6"/>
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B93">
+        <v>1.6576068159758599</v>
+      </c>
+      <c r="C93">
+        <v>1.2432031668185</v>
+      </c>
+      <c r="D93">
+        <v>0.81725156004450294</v>
+      </c>
       <c r="O93" s="6" t="s">
         <v>462</v>
       </c>
@@ -16790,6 +16858,18 @@
       <c r="W93" s="6"/>
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B94">
+        <v>2.54269492594694</v>
+      </c>
+      <c r="C94">
+        <v>1.2320490000767701</v>
+      </c>
+      <c r="D94">
+        <v>0.69840204943890205</v>
+      </c>
       <c r="O94" s="1" t="s">
         <v>441</v>
       </c>

--- a/plotting/617_temp.xlsx
+++ b/plotting/617_temp.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="528">
   <si>
     <t>.\vgg_unet2_0_3_640_640_64_256_rot_15_345_4_flip_5K\training_32_49_640_640_640_640_max_val_acc\vis\vis_log_181022_0927.txt</t>
   </si>
@@ -1585,6 +1585,24 @@
   </si>
   <si>
     <t>combined_ice</t>
+  </si>
+  <si>
+    <t>YUN00001_3600</t>
+  </si>
+  <si>
+    <t>video_id</t>
+  </si>
+  <si>
+    <t>Concentration Difference (%)</t>
+  </si>
+  <si>
+    <t>Mean Ice Concentration Difference Between Consecutive Frames</t>
+  </si>
+  <si>
+    <t>Mean Anchor Ice Concentration Difference Between Consecutive Frames</t>
+  </si>
+  <si>
+    <t>Mean Frazil Ice Concentration Difference Between Consecutive Frames</t>
   </si>
 </sst>
 </file>
@@ -13251,8 +13269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16386,7 +16404,7 @@
         <v>0.68750999999999995</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>452</v>
       </c>
@@ -16445,7 +16463,7 @@
         <v>0.67691999999999997</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>509</v>
       </c>
@@ -16483,7 +16501,7 @@
         <v>0.69601000000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>510</v>
       </c>
@@ -16521,25 +16539,19 @@
         <v>0.78456999999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="E84" s="1"/>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A84" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
       <c r="F84" s="1"/>
-      <c r="O84" s="6" t="s">
+      <c r="G84" s="1"/>
+      <c r="P84" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="P84" s="6"/>
       <c r="Q84" s="6"/>
       <c r="R84" s="6"/>
       <c r="S84" s="6"/>
@@ -16547,24 +16559,19 @@
       <c r="U84" s="6"/>
       <c r="V84" s="6"/>
       <c r="W84" s="6"/>
-    </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>517</v>
-      </c>
-      <c r="B85">
-        <v>2.5178015658025799</v>
-      </c>
-      <c r="C85">
-        <v>0.576305151363669</v>
-      </c>
-      <c r="D85">
-        <v>0.63810396770711098</v>
-      </c>
-      <c r="O85" s="6" t="s">
+      <c r="X84" s="6"/>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A85" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="P85" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="P85" s="6"/>
       <c r="Q85" s="6"/>
       <c r="R85" s="6"/>
       <c r="S85" s="6"/>
@@ -16572,258 +16579,283 @@
       <c r="U85" s="6"/>
       <c r="V85" s="6"/>
       <c r="W85" s="6"/>
-    </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X85" s="6"/>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="P86" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q86" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="R86" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="S86" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="T86" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="U86" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="V86" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="W86" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="X86" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>517</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>2.5178015658025799</v>
+      </c>
+      <c r="D87">
+        <v>0.576305151363669</v>
+      </c>
+      <c r="E87">
+        <v>0.63810396770711098</v>
+      </c>
+      <c r="P87" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q87">
+        <v>0.54969000000000001</v>
+      </c>
+      <c r="R87">
+        <v>0.70960000000000001</v>
+      </c>
+      <c r="S87">
+        <v>0.70609999999999995</v>
+      </c>
+      <c r="T87">
+        <v>0.57425999999999999</v>
+      </c>
+      <c r="U87">
+        <v>0.36651</v>
+      </c>
+      <c r="V87">
+        <v>0.49764999999999998</v>
+      </c>
+      <c r="W87">
+        <v>0.46243000000000001</v>
+      </c>
+      <c r="X87">
+        <v>0.41599999999999998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="B86">
+      <c r="B88" s="1">
+        <v>2</v>
+      </c>
+      <c r="C88">
         <v>3.6073240237310298</v>
       </c>
-      <c r="C86">
+      <c r="D88">
         <v>2.1653551205573698</v>
       </c>
-      <c r="D86">
+      <c r="E88">
         <v>2.1350182315256498</v>
       </c>
-      <c r="O86" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="P86" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q86" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="R86" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="S86" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="T86" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="U86" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="V86" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="W86" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+      <c r="P88" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q88">
+        <v>0.48721999999999999</v>
+      </c>
+      <c r="R88">
+        <v>0.69921999999999995</v>
+      </c>
+      <c r="S88">
+        <v>0.61651999999999996</v>
+      </c>
+      <c r="T88">
+        <v>0.63683000000000001</v>
+      </c>
+      <c r="U88">
+        <v>0.34910000000000002</v>
+      </c>
+      <c r="V88">
+        <v>0.56842000000000004</v>
+      </c>
+      <c r="W88">
+        <v>0.43947999999999998</v>
+      </c>
+      <c r="X88">
+        <v>0.42425000000000002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="B87">
+      <c r="B89" s="1">
+        <v>3</v>
+      </c>
+      <c r="C89">
         <v>1.2235413881447299</v>
       </c>
-      <c r="C87">
+      <c r="D89">
         <v>0.79677180078824605</v>
       </c>
-      <c r="D87">
+      <c r="E89">
         <v>0.650672310126853</v>
       </c>
-      <c r="O87" t="s">
-        <v>436</v>
-      </c>
-      <c r="P87">
-        <v>0.54969000000000001</v>
-      </c>
-      <c r="Q87">
-        <v>0.70960000000000001</v>
-      </c>
-      <c r="R87">
-        <v>0.70609999999999995</v>
-      </c>
-      <c r="S87">
-        <v>0.57425999999999999</v>
-      </c>
-      <c r="T87">
-        <v>0.36651</v>
-      </c>
-      <c r="U87">
-        <v>0.49764999999999998</v>
-      </c>
-      <c r="V87">
-        <v>0.46243000000000001</v>
-      </c>
-      <c r="W87">
-        <v>0.41599999999999998</v>
-      </c>
-    </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+      <c r="P89" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q89">
+        <v>0.56130999999999998</v>
+      </c>
+      <c r="R89">
+        <v>0.52280000000000004</v>
+      </c>
+      <c r="S89">
+        <v>0.63424000000000003</v>
+      </c>
+      <c r="T89">
+        <v>0.73395999999999995</v>
+      </c>
+      <c r="U89">
+        <v>0.40035999999999999</v>
+      </c>
+      <c r="V89">
+        <v>0.42759000000000003</v>
+      </c>
+      <c r="W89">
+        <v>0.47449999999999998</v>
+      </c>
+      <c r="X89">
+        <v>0.47498000000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="B88">
+      <c r="B90" s="1">
+        <v>4</v>
+      </c>
+      <c r="C90">
         <v>2.4806143105480398</v>
       </c>
-      <c r="C88">
+      <c r="D90">
         <v>0.54179917233682595</v>
       </c>
-      <c r="D88">
+      <c r="E90">
         <v>0.62264071952053202</v>
       </c>
-      <c r="O88" t="s">
-        <v>440</v>
-      </c>
-      <c r="P88">
-        <v>0.48721999999999999</v>
-      </c>
-      <c r="Q88">
-        <v>0.69921999999999995</v>
-      </c>
-      <c r="R88">
-        <v>0.61651999999999996</v>
-      </c>
-      <c r="S88">
-        <v>0.63683000000000001</v>
-      </c>
-      <c r="T88">
-        <v>0.34910000000000002</v>
-      </c>
-      <c r="U88">
-        <v>0.56842000000000004</v>
-      </c>
-      <c r="V88">
-        <v>0.43947999999999998</v>
-      </c>
-      <c r="W88">
-        <v>0.42425000000000002</v>
-      </c>
-    </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="O89" t="s">
-        <v>439</v>
-      </c>
-      <c r="P89">
-        <v>0.56130999999999998</v>
-      </c>
-      <c r="Q89">
-        <v>0.52280000000000004</v>
-      </c>
-      <c r="R89">
-        <v>0.63424000000000003</v>
-      </c>
-      <c r="S89">
-        <v>0.73395999999999995</v>
-      </c>
-      <c r="T89">
-        <v>0.40035999999999999</v>
-      </c>
-      <c r="U89">
-        <v>0.42759000000000003</v>
-      </c>
-      <c r="V89">
-        <v>0.47449999999999998</v>
-      </c>
-      <c r="W89">
-        <v>0.47498000000000001</v>
-      </c>
-    </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="O90" t="s">
+      <c r="P90" t="s">
         <v>438</v>
       </c>
-      <c r="P90">
+      <c r="Q90">
         <v>0.65468999999999999</v>
       </c>
-      <c r="Q90">
+      <c r="R90">
         <v>0.73041999999999996</v>
       </c>
-      <c r="R90">
+      <c r="S90">
         <v>0.69957000000000003</v>
       </c>
-      <c r="S90">
+      <c r="T90">
         <v>0.70833999999999997</v>
       </c>
-      <c r="T90">
+      <c r="U90">
         <v>0.42670999999999998</v>
       </c>
-      <c r="U90">
+      <c r="V90">
         <v>0.59179999999999999</v>
       </c>
-      <c r="V90">
+      <c r="W90">
         <v>0.51239000000000001</v>
       </c>
-      <c r="W90">
+      <c r="X90">
         <v>0.48705999999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>517</v>
-      </c>
-      <c r="B91">
-        <v>2.8450692597460598</v>
+        <v>522</v>
+      </c>
+      <c r="B91" s="1">
+        <v>5</v>
       </c>
       <c r="C91">
-        <v>1.2697443702112401</v>
+        <v>1.4617734433154399</v>
       </c>
       <c r="D91">
-        <v>0.81001445981863995</v>
-      </c>
-      <c r="O91" t="s">
+        <v>0.96573967345931999</v>
+      </c>
+      <c r="E91">
+        <v>0.92539776566878995</v>
+      </c>
+      <c r="P91" t="s">
         <v>437</v>
       </c>
-      <c r="P91">
+      <c r="Q91">
         <v>0.67832000000000003</v>
       </c>
-      <c r="Q91">
+      <c r="R91">
         <v>0.74461999999999995</v>
       </c>
-      <c r="R91">
+      <c r="S91">
         <v>0.73751999999999995</v>
       </c>
-      <c r="S91">
+      <c r="T91">
         <v>0.76958000000000004</v>
       </c>
-      <c r="T91">
+      <c r="U91">
         <v>0.43318000000000001</v>
       </c>
-      <c r="U91">
+      <c r="V91">
         <v>0.62388999999999994</v>
       </c>
-      <c r="V91">
+      <c r="W91">
         <v>0.54891000000000001</v>
       </c>
-      <c r="W91">
+      <c r="X91">
         <v>0.48977999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="B92">
-        <v>2.8446595054629902</v>
-      </c>
-      <c r="C92">
-        <v>1.90135349596226</v>
-      </c>
-      <c r="D92">
-        <v>1.7041987033906001</v>
-      </c>
-      <c r="O92" s="6" t="s">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A92" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="P92" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="P92" s="6"/>
       <c r="Q92" s="6"/>
       <c r="R92" s="6"/>
       <c r="S92" s="6"/>
@@ -16831,24 +16863,19 @@
       <c r="U92" s="6"/>
       <c r="V92" s="6"/>
       <c r="W92" s="6"/>
-    </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="B93">
-        <v>1.6576068159758599</v>
-      </c>
-      <c r="C93">
-        <v>1.2432031668185</v>
-      </c>
-      <c r="D93">
-        <v>0.81725156004450294</v>
-      </c>
-      <c r="O93" s="6" t="s">
+      <c r="X92" s="6"/>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A93" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="P93" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="P93" s="6"/>
       <c r="Q93" s="6"/>
       <c r="R93" s="6"/>
       <c r="S93" s="6"/>
@@ -16856,198 +16883,281 @@
       <c r="U93" s="6"/>
       <c r="V93" s="6"/>
       <c r="W93" s="6"/>
-    </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X93" s="6"/>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="P94" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q94" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="R94" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="S94" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="T94" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="U94" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="V94" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="W94" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="X94" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>517</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>2.8450692597460598</v>
+      </c>
+      <c r="D95">
+        <v>1.2697443702112401</v>
+      </c>
+      <c r="E95">
+        <v>0.81001445981863995</v>
+      </c>
+      <c r="P95" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q95">
+        <v>0.81781999999999999</v>
+      </c>
+      <c r="R95">
+        <v>0.82057000000000002</v>
+      </c>
+      <c r="S95">
+        <v>0.79564000000000001</v>
+      </c>
+      <c r="T95">
+        <v>0.83855999999999997</v>
+      </c>
+      <c r="U95">
+        <v>0.62429999999999997</v>
+      </c>
+      <c r="V95">
+        <v>0.69708000000000003</v>
+      </c>
+      <c r="W95">
+        <v>0.65627999999999997</v>
+      </c>
+      <c r="X95">
+        <v>0.65461999999999998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B96" s="1">
+        <v>2</v>
+      </c>
+      <c r="C96">
+        <v>2.8446595054629902</v>
+      </c>
+      <c r="D96">
+        <v>1.90135349596226</v>
+      </c>
+      <c r="E96">
+        <v>1.7041987033906001</v>
+      </c>
+      <c r="P96" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q96">
+        <v>0.87961</v>
+      </c>
+      <c r="R96">
+        <v>0.88932999999999995</v>
+      </c>
+      <c r="S96">
+        <v>0.89678000000000002</v>
+      </c>
+      <c r="T96">
+        <v>0.83272999999999997</v>
+      </c>
+      <c r="U96">
+        <v>0.64132</v>
+      </c>
+      <c r="V96">
+        <v>0.74800999999999995</v>
+      </c>
+      <c r="W96">
+        <v>0.68098000000000003</v>
+      </c>
+      <c r="X96">
+        <v>0.64800000000000002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B97" s="1">
+        <v>3</v>
+      </c>
+      <c r="C97">
+        <v>1.6576068159758599</v>
+      </c>
+      <c r="D97">
+        <v>1.2432031668185</v>
+      </c>
+      <c r="E97">
+        <v>0.81725156004450294</v>
+      </c>
+      <c r="P97" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q97">
+        <v>0.83104999999999996</v>
+      </c>
+      <c r="R97">
+        <v>0.69803999999999999</v>
+      </c>
+      <c r="S97">
+        <v>0.89527000000000001</v>
+      </c>
+      <c r="T97">
+        <v>0.77902000000000005</v>
+      </c>
+      <c r="U97">
+        <v>0.65622000000000003</v>
+      </c>
+      <c r="V97">
+        <v>0.60480999999999996</v>
+      </c>
+      <c r="W97">
+        <v>0.70894000000000001</v>
+      </c>
+      <c r="X97">
+        <v>0.63865000000000005</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="B94">
+      <c r="B98" s="1">
+        <v>4</v>
+      </c>
+      <c r="C98">
         <v>2.54269492594694</v>
       </c>
-      <c r="C94">
+      <c r="D98">
         <v>1.2320490000767701</v>
       </c>
-      <c r="D94">
+      <c r="E98">
         <v>0.69840204943890205</v>
       </c>
-      <c r="O94" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="P94" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q94" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="R94" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="S94" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="T94" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="U94" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="V94" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="W94" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="O95" t="s">
-        <v>436</v>
-      </c>
-      <c r="P95">
-        <v>0.81781999999999999</v>
-      </c>
-      <c r="Q95">
-        <v>0.82057000000000002</v>
-      </c>
-      <c r="R95">
-        <v>0.79564000000000001</v>
-      </c>
-      <c r="S95">
-        <v>0.83855999999999997</v>
-      </c>
-      <c r="T95">
-        <v>0.62429999999999997</v>
-      </c>
-      <c r="U95">
-        <v>0.69708000000000003</v>
-      </c>
-      <c r="V95">
-        <v>0.65627999999999997</v>
-      </c>
-      <c r="W95">
-        <v>0.65461999999999998</v>
-      </c>
-    </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="O96" t="s">
-        <v>440</v>
-      </c>
-      <c r="P96">
-        <v>0.87961</v>
-      </c>
-      <c r="Q96">
-        <v>0.88932999999999995</v>
-      </c>
-      <c r="R96">
-        <v>0.89678000000000002</v>
-      </c>
-      <c r="S96">
-        <v>0.83272999999999997</v>
-      </c>
-      <c r="T96">
-        <v>0.64132</v>
-      </c>
-      <c r="U96">
-        <v>0.74800999999999995</v>
-      </c>
-      <c r="V96">
-        <v>0.68098000000000003</v>
-      </c>
-      <c r="W96">
-        <v>0.64800000000000002</v>
-      </c>
-    </row>
-    <row r="97" spans="15:23" x14ac:dyDescent="0.25">
-      <c r="O97" t="s">
-        <v>439</v>
-      </c>
-      <c r="P97">
-        <v>0.83104999999999996</v>
-      </c>
-      <c r="Q97">
-        <v>0.69803999999999999</v>
-      </c>
-      <c r="R97">
-        <v>0.89527000000000001</v>
-      </c>
-      <c r="S97">
-        <v>0.77902000000000005</v>
-      </c>
-      <c r="T97">
-        <v>0.65622000000000003</v>
-      </c>
-      <c r="U97">
-        <v>0.60480999999999996</v>
-      </c>
-      <c r="V97">
-        <v>0.70894000000000001</v>
-      </c>
-      <c r="W97">
-        <v>0.63865000000000005</v>
-      </c>
-    </row>
-    <row r="98" spans="15:23" x14ac:dyDescent="0.25">
-      <c r="O98" t="s">
+      <c r="P98" t="s">
         <v>438</v>
       </c>
-      <c r="P98">
+      <c r="Q98">
         <v>0.76309000000000005</v>
       </c>
-      <c r="Q98">
+      <c r="R98">
         <v>0.82884000000000002</v>
       </c>
-      <c r="R98">
+      <c r="S98">
         <v>0.86336000000000002</v>
       </c>
-      <c r="S98">
+      <c r="T98">
         <v>0.78298999999999996</v>
       </c>
-      <c r="T98">
+      <c r="U98">
         <v>0.63395000000000001</v>
       </c>
-      <c r="U98">
+      <c r="V98">
         <v>0.73675000000000002</v>
       </c>
-      <c r="V98">
+      <c r="W98">
         <v>0.70867000000000002</v>
       </c>
-      <c r="W98">
+      <c r="X98">
         <v>0.64681</v>
       </c>
     </row>
-    <row r="99" spans="15:23" x14ac:dyDescent="0.25">
-      <c r="O99" t="s">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>522</v>
+      </c>
+      <c r="B99" s="1">
+        <v>5</v>
+      </c>
+      <c r="C99">
+        <v>2.0011688069696598</v>
+      </c>
+      <c r="D99">
+        <v>1.2733159046692599</v>
+      </c>
+      <c r="E99">
+        <v>1.01504810575062</v>
+      </c>
+      <c r="P99" t="s">
         <v>437</v>
       </c>
-      <c r="P99">
+      <c r="Q99">
         <v>0.75012000000000001</v>
       </c>
-      <c r="Q99">
+      <c r="R99">
         <v>0.87512000000000001</v>
       </c>
-      <c r="R99">
+      <c r="S99">
         <v>0.84270999999999996</v>
       </c>
-      <c r="S99">
+      <c r="T99">
         <v>0.71062000000000003</v>
       </c>
-      <c r="T99">
+      <c r="U99">
         <v>0.63066</v>
       </c>
-      <c r="U99">
+      <c r="V99">
         <v>0.77141999999999999</v>
       </c>
-      <c r="V99">
+      <c r="W99">
         <v>0.71165</v>
       </c>
-      <c r="W99">
+      <c r="X99">
         <v>0.60973999999999995</v>
       </c>
     </row>
-    <row r="100" spans="15:23" x14ac:dyDescent="0.25">
-      <c r="O100" s="6" t="s">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A100" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="P100" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="P100" s="6"/>
       <c r="Q100" s="6"/>
       <c r="R100" s="6"/>
       <c r="S100" s="6"/>
@@ -17055,12 +17165,19 @@
       <c r="U100" s="6"/>
       <c r="V100" s="6"/>
       <c r="W100" s="6"/>
-    </row>
-    <row r="101" spans="15:23" x14ac:dyDescent="0.25">
-      <c r="O101" s="6" t="s">
+      <c r="X100" s="6"/>
+    </row>
+    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A101" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="P101" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="P101" s="6"/>
       <c r="Q101" s="6"/>
       <c r="R101" s="6"/>
       <c r="S101" s="6"/>
@@ -17068,8 +17185,22 @@
       <c r="U101" s="6"/>
       <c r="V101" s="6"/>
       <c r="W101" s="6"/>
-    </row>
-    <row r="102" spans="15:23" x14ac:dyDescent="0.25">
+      <c r="X101" s="6"/>
+    </row>
+    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>406</v>
+      </c>
       <c r="O102" s="1" t="s">
         <v>441</v>
       </c>
@@ -17098,7 +17229,22 @@
         <v>406</v>
       </c>
     </row>
-    <row r="103" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>517</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>2.78505026958993</v>
+      </c>
+      <c r="D103">
+        <v>1.30844375293801</v>
+      </c>
+      <c r="E103">
+        <v>0.85228251538491795</v>
+      </c>
       <c r="O103" t="s">
         <v>436</v>
       </c>
@@ -17127,7 +17273,22 @@
         <v>0.65786999999999995</v>
       </c>
     </row>
-    <row r="104" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B104" s="1">
+        <v>2</v>
+      </c>
+      <c r="C104">
+        <v>2.9676932518666002</v>
+      </c>
+      <c r="D104">
+        <v>2.1121583964685402</v>
+      </c>
+      <c r="E104">
+        <v>2.1519952155883</v>
+      </c>
       <c r="O104" t="s">
         <v>440</v>
       </c>
@@ -17156,7 +17317,22 @@
         <v>0.66286</v>
       </c>
     </row>
-    <row r="105" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B105" s="1">
+        <v>3</v>
+      </c>
+      <c r="C105">
+        <v>1.5569445865201099</v>
+      </c>
+      <c r="D105">
+        <v>1.2366490216722701</v>
+      </c>
+      <c r="E105">
+        <v>0.92008788908361305</v>
+      </c>
       <c r="O105" t="s">
         <v>439</v>
       </c>
@@ -17185,7 +17361,22 @@
         <v>0.67813000000000001</v>
       </c>
     </row>
-    <row r="106" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B106" s="1">
+        <v>4</v>
+      </c>
+      <c r="C106">
+        <v>2.4727588192535799</v>
+      </c>
+      <c r="D106">
+        <v>1.2563488860087699</v>
+      </c>
+      <c r="E106">
+        <v>0.86331435631249198</v>
+      </c>
       <c r="O106" t="s">
         <v>438</v>
       </c>
@@ -17214,7 +17405,22 @@
         <v>0.68750999999999995</v>
       </c>
     </row>
-    <row r="107" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>522</v>
+      </c>
+      <c r="B107" s="1">
+        <v>5</v>
+      </c>
+      <c r="C107">
+        <v>2.0187858017292699</v>
+      </c>
+      <c r="D107">
+        <v>1.33325163311965</v>
+      </c>
+      <c r="E107">
+        <v>1.2319600955542001</v>
+      </c>
       <c r="O107" t="s">
         <v>437</v>
       </c>
@@ -17243,7 +17449,7 @@
         <v>0.67691999999999997</v>
       </c>
     </row>
-    <row r="108" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
       <c r="O108" s="6" t="s">
         <v>434</v>
       </c>
@@ -17256,7 +17462,7 @@
       <c r="V108" s="2"/>
       <c r="W108" s="2"/>
     </row>
-    <row r="109" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
       <c r="O109" s="6" t="s">
         <v>456</v>
       </c>
@@ -17267,7 +17473,7 @@
       <c r="T109" s="6"/>
       <c r="U109" s="6"/>
     </row>
-    <row r="110" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
       <c r="O110" s="1" t="s">
         <v>472</v>
       </c>
@@ -17290,7 +17496,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="111" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
       <c r="O111" s="1" t="s">
         <v>457</v>
       </c>
@@ -17313,7 +17519,7 @@
         <v>0.29899999999999999</v>
       </c>
     </row>
-    <row r="112" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="O112" s="1" t="s">
         <v>458</v>
       </c>
@@ -17566,7 +17772,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="63">
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A92:E92"/>
+    <mergeCell ref="A93:E93"/>
+    <mergeCell ref="A100:E100"/>
     <mergeCell ref="A77:F77"/>
     <mergeCell ref="A78:F78"/>
     <mergeCell ref="G77:L77"/>
@@ -17612,12 +17824,12 @@
     <mergeCell ref="V59:Z59"/>
     <mergeCell ref="O43:U43"/>
     <mergeCell ref="O117:U117"/>
-    <mergeCell ref="O85:W85"/>
-    <mergeCell ref="O84:W84"/>
-    <mergeCell ref="O92:W92"/>
-    <mergeCell ref="O93:W93"/>
-    <mergeCell ref="O100:W100"/>
-    <mergeCell ref="O101:W101"/>
+    <mergeCell ref="P85:X85"/>
+    <mergeCell ref="P84:X84"/>
+    <mergeCell ref="P92:X92"/>
+    <mergeCell ref="P93:X93"/>
+    <mergeCell ref="P100:X100"/>
+    <mergeCell ref="P101:X101"/>
     <mergeCell ref="O109:U109"/>
     <mergeCell ref="O108:U108"/>
     <mergeCell ref="O116:U116"/>

--- a/plotting/617_temp.xlsx
+++ b/plotting/617_temp.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="532">
   <si>
     <t>.\vgg_unet2_0_3_640_640_64_256_rot_15_345_4_flip_5K\training_32_49_640_640_640_640_max_val_acc\vis\vis_log_181022_0927.txt</t>
   </si>
@@ -1603,6 +1603,18 @@
   </si>
   <si>
     <t>Mean Frazil Ice Concentration Difference Between Consecutive Frames</t>
+  </si>
+  <si>
+    <t>Selective pixel ablation recall for frazil Ice</t>
+  </si>
+  <si>
+    <t>Selective pixel ablation precision for frazil Ice</t>
+  </si>
+  <si>
+    <t>Selective pixel ablation recall for anchor Ice</t>
+  </si>
+  <si>
+    <t>Selective pixel ablation precision for anchor Ice</t>
   </si>
 </sst>
 </file>
@@ -13267,10 +13279,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z123"/>
+  <dimension ref="A1:Z139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99"/>
+    <sheetView tabSelected="1" topLeftCell="I109" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="V128" sqref="V128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17542,7 +17554,7 @@
         <v>0.32988000000000001</v>
       </c>
     </row>
-    <row r="113" spans="15:21" x14ac:dyDescent="0.25">
+    <row r="113" spans="15:22" x14ac:dyDescent="0.25">
       <c r="O113" s="1" t="s">
         <v>459</v>
       </c>
@@ -17565,7 +17577,7 @@
         <v>0.35004999999999997</v>
       </c>
     </row>
-    <row r="114" spans="15:21" x14ac:dyDescent="0.25">
+    <row r="114" spans="15:22" x14ac:dyDescent="0.25">
       <c r="O114" s="1" t="s">
         <v>460</v>
       </c>
@@ -17588,7 +17600,7 @@
         <v>0.37895000000000001</v>
       </c>
     </row>
-    <row r="115" spans="15:21" x14ac:dyDescent="0.25">
+    <row r="115" spans="15:22" x14ac:dyDescent="0.25">
       <c r="O115" s="1" t="s">
         <v>463</v>
       </c>
@@ -17611,7 +17623,7 @@
         <v>0.41599999999999998</v>
       </c>
     </row>
-    <row r="116" spans="15:21" x14ac:dyDescent="0.25">
+    <row r="116" spans="15:22" x14ac:dyDescent="0.25">
       <c r="O116" s="6" t="s">
         <v>434</v>
       </c>
@@ -17622,7 +17634,7 @@
       <c r="T116" s="6"/>
       <c r="U116" s="6"/>
     </row>
-    <row r="117" spans="15:21" x14ac:dyDescent="0.25">
+    <row r="117" spans="15:22" x14ac:dyDescent="0.25">
       <c r="O117" s="6" t="s">
         <v>461</v>
       </c>
@@ -17633,7 +17645,7 @@
       <c r="T117" s="6"/>
       <c r="U117" s="6"/>
     </row>
-    <row r="118" spans="15:21" x14ac:dyDescent="0.25">
+    <row r="118" spans="15:22" x14ac:dyDescent="0.25">
       <c r="O118" s="1" t="s">
         <v>472</v>
       </c>
@@ -17656,7 +17668,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="119" spans="15:21" x14ac:dyDescent="0.25">
+    <row r="119" spans="15:22" x14ac:dyDescent="0.25">
       <c r="O119" s="1" t="s">
         <v>457</v>
       </c>
@@ -17679,7 +17691,7 @@
         <v>0.49303000000000002</v>
       </c>
     </row>
-    <row r="120" spans="15:21" x14ac:dyDescent="0.25">
+    <row r="120" spans="15:22" x14ac:dyDescent="0.25">
       <c r="O120" s="1" t="s">
         <v>458</v>
       </c>
@@ -17702,7 +17714,7 @@
         <v>0.53398000000000001</v>
       </c>
     </row>
-    <row r="121" spans="15:21" x14ac:dyDescent="0.25">
+    <row r="121" spans="15:22" x14ac:dyDescent="0.25">
       <c r="O121" s="1" t="s">
         <v>459</v>
       </c>
@@ -17725,7 +17737,7 @@
         <v>0.56057999999999997</v>
       </c>
     </row>
-    <row r="122" spans="15:21" x14ac:dyDescent="0.25">
+    <row r="122" spans="15:22" x14ac:dyDescent="0.25">
       <c r="O122" s="1" t="s">
         <v>460</v>
       </c>
@@ -17748,7 +17760,7 @@
         <v>0.59784000000000004</v>
       </c>
     </row>
-    <row r="123" spans="15:21" x14ac:dyDescent="0.25">
+    <row r="123" spans="15:22" x14ac:dyDescent="0.25">
       <c r="O123" s="1" t="s">
         <v>463</v>
       </c>
@@ -17771,9 +17783,385 @@
         <v>0.65461999999999998</v>
       </c>
     </row>
+    <row r="124" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O124" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="P124" s="6"/>
+      <c r="Q124" s="6"/>
+      <c r="R124" s="6"/>
+      <c r="S124" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="T124" s="6"/>
+      <c r="U124" s="6"/>
+      <c r="V124" s="6"/>
+    </row>
+    <row r="125" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O125" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="P125" s="6"/>
+      <c r="Q125" s="6"/>
+      <c r="R125" s="6"/>
+      <c r="S125" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="T125" s="6"/>
+      <c r="U125" s="6"/>
+      <c r="V125" s="6"/>
+    </row>
+    <row r="126" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O126" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="P126" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q126" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="R126" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="S126" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="T126" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="U126" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="V126" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="127" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O127" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="P127">
+        <v>0.63119000000000003</v>
+      </c>
+      <c r="Q127">
+        <v>0.47465000000000002</v>
+      </c>
+      <c r="R127">
+        <v>0.47305999999999998</v>
+      </c>
+      <c r="S127" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="T127">
+        <v>0.40679999999999999</v>
+      </c>
+      <c r="U127">
+        <v>0.31435999999999997</v>
+      </c>
+      <c r="V127">
+        <v>0.29899999999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O128" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="P128">
+        <v>0.62795000000000001</v>
+      </c>
+      <c r="Q128">
+        <v>0.46004</v>
+      </c>
+      <c r="R128">
+        <v>0.49720999999999999</v>
+      </c>
+      <c r="S128" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="T128">
+        <v>0.46440999999999999</v>
+      </c>
+      <c r="U128">
+        <v>0.32845999999999997</v>
+      </c>
+      <c r="V128">
+        <v>0.32988000000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O129" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="P129">
+        <v>0.67910999999999999</v>
+      </c>
+      <c r="Q129">
+        <v>0.54901999999999995</v>
+      </c>
+      <c r="R129">
+        <v>0.54895000000000005</v>
+      </c>
+      <c r="S129" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="T129">
+        <v>0.48081000000000002</v>
+      </c>
+      <c r="U129">
+        <v>0.38762000000000002</v>
+      </c>
+      <c r="V129">
+        <v>0.35004999999999997</v>
+      </c>
+    </row>
+    <row r="130" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O130" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="P130">
+        <v>0.70355999999999996</v>
+      </c>
+      <c r="Q130">
+        <v>0.54766999999999999</v>
+      </c>
+      <c r="R130">
+        <v>0.57962000000000002</v>
+      </c>
+      <c r="S130" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="T130">
+        <v>0.55174000000000001</v>
+      </c>
+      <c r="U130">
+        <v>0.40284999999999999</v>
+      </c>
+      <c r="V130">
+        <v>0.37895000000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O131" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="P131">
+        <v>0.70960000000000001</v>
+      </c>
+      <c r="Q131">
+        <v>0.70609999999999995</v>
+      </c>
+      <c r="R131">
+        <v>0.57425999999999999</v>
+      </c>
+      <c r="S131" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="T131">
+        <v>0.49764999999999998</v>
+      </c>
+      <c r="U131">
+        <v>0.46243000000000001</v>
+      </c>
+      <c r="V131">
+        <v>0.41599999999999998</v>
+      </c>
+    </row>
+    <row r="132" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O132" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="P132" s="6"/>
+      <c r="Q132" s="6"/>
+      <c r="R132" s="6"/>
+      <c r="S132" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="T132" s="6"/>
+      <c r="U132" s="6"/>
+      <c r="V132" s="6"/>
+    </row>
+    <row r="133" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O133" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="P133" s="6"/>
+      <c r="Q133" s="6"/>
+      <c r="R133" s="6"/>
+      <c r="S133" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="T133" s="6"/>
+      <c r="U133" s="6"/>
+      <c r="V133" s="6"/>
+    </row>
+    <row r="134" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O134" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="P134" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q134" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="R134" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="S134" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="T134" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="U134" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="V134" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="135" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O135" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="P135">
+        <v>0.54512000000000005</v>
+      </c>
+      <c r="Q135">
+        <v>0.80683000000000005</v>
+      </c>
+      <c r="R135">
+        <v>0.79849000000000003</v>
+      </c>
+      <c r="S135" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="T135">
+        <v>0.43414000000000003</v>
+      </c>
+      <c r="U135">
+        <v>0.53859000000000001</v>
+      </c>
+      <c r="V135">
+        <v>0.49303000000000002</v>
+      </c>
+    </row>
+    <row r="136" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O136" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="P136">
+        <v>0.74899000000000004</v>
+      </c>
+      <c r="Q136">
+        <v>0.83272000000000002</v>
+      </c>
+      <c r="R136">
+        <v>0.83160999999999996</v>
+      </c>
+      <c r="S136" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="T136">
+        <v>0.57515000000000005</v>
+      </c>
+      <c r="U136">
+        <v>0.57806999999999997</v>
+      </c>
+      <c r="V136">
+        <v>0.53398000000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O137" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="P137">
+        <v>0.86838000000000004</v>
+      </c>
+      <c r="Q137">
+        <v>0.85431000000000001</v>
+      </c>
+      <c r="R137">
+        <v>0.85296000000000005</v>
+      </c>
+      <c r="S137" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="T137">
+        <v>0.62158999999999998</v>
+      </c>
+      <c r="U137">
+        <v>0.60536999999999996</v>
+      </c>
+      <c r="V137">
+        <v>0.56057999999999997</v>
+      </c>
+    </row>
+    <row r="138" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O138" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="P138">
+        <v>0.88729999999999998</v>
+      </c>
+      <c r="Q138">
+        <v>0.88104000000000005</v>
+      </c>
+      <c r="R138">
+        <v>0.86944999999999995</v>
+      </c>
+      <c r="S138" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="T138">
+        <v>0.67498000000000002</v>
+      </c>
+      <c r="U138">
+        <v>0.62228000000000006</v>
+      </c>
+      <c r="V138">
+        <v>0.59784000000000004</v>
+      </c>
+    </row>
+    <row r="139" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O139" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="P139">
+        <v>0.82057000000000002</v>
+      </c>
+      <c r="Q139">
+        <v>0.79564000000000001</v>
+      </c>
+      <c r="R139">
+        <v>0.83855999999999997</v>
+      </c>
+      <c r="S139" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="T139">
+        <v>0.69708000000000003</v>
+      </c>
+      <c r="U139">
+        <v>0.65627999999999997</v>
+      </c>
+      <c r="V139">
+        <v>0.65461999999999998</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="63">
+  <mergeCells count="71">
+    <mergeCell ref="O132:R132"/>
+    <mergeCell ref="S132:V132"/>
+    <mergeCell ref="O133:R133"/>
+    <mergeCell ref="S133:V133"/>
     <mergeCell ref="A101:E101"/>
+    <mergeCell ref="O124:R124"/>
+    <mergeCell ref="O125:R125"/>
+    <mergeCell ref="S124:V124"/>
+    <mergeCell ref="S125:V125"/>
     <mergeCell ref="A85:E85"/>
     <mergeCell ref="A84:E84"/>
     <mergeCell ref="A92:E92"/>

--- a/plotting/617_temp.xlsx
+++ b/plotting/617_temp.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="535">
   <si>
     <t>.\vgg_unet2_0_3_640_640_64_256_rot_15_345_4_flip_5K\training_32_49_640_640_640_640_max_val_acc\vis\vis_log_181022_0927.txt</t>
   </si>
@@ -1615,6 +1615,15 @@
   </si>
   <si>
     <t>Selective pixel ablation precision for anchor Ice</t>
+  </si>
+  <si>
+    <t>20160121_YUN00001_3600</t>
+  </si>
+  <si>
+    <t>video_name</t>
+  </si>
+  <si>
+    <t>n_frames</t>
   </si>
 </sst>
 </file>
@@ -13281,13 +13290,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I109" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="V128" sqref="V128"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J90" sqref="J90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" customWidth="1"/>
+    <col min="1" max="1" width="43" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="4" width="10.42578125" customWidth="1"/>
   </cols>
@@ -16581,6 +16590,15 @@
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
+      <c r="F85" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="H85" t="s">
+        <v>534</v>
+      </c>
       <c r="P85" s="6" t="s">
         <v>454</v>
       </c>
@@ -16609,6 +16627,15 @@
       <c r="E86" s="1" t="s">
         <v>406</v>
       </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86" t="s">
+        <v>517</v>
+      </c>
+      <c r="H86">
+        <v>1800</v>
+      </c>
       <c r="P86" s="1" t="s">
         <v>441</v>
       </c>
@@ -16653,6 +16680,15 @@
       <c r="E87">
         <v>0.63810396770711098</v>
       </c>
+      <c r="F87" s="1">
+        <v>2</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="H87">
+        <v>1800</v>
+      </c>
       <c r="P87" t="s">
         <v>436</v>
       </c>
@@ -16697,6 +16733,15 @@
       <c r="E88">
         <v>2.1350182315256498</v>
       </c>
+      <c r="F88" s="1">
+        <v>3</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="H88">
+        <v>1800</v>
+      </c>
       <c r="P88" t="s">
         <v>440</v>
       </c>
@@ -16741,6 +16786,15 @@
       <c r="E89">
         <v>0.650672310126853</v>
       </c>
+      <c r="F89" s="1">
+        <v>4</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="H89">
+        <v>1800</v>
+      </c>
       <c r="P89" t="s">
         <v>439</v>
       </c>
@@ -16785,6 +16839,15 @@
       <c r="E90">
         <v>0.62264071952053202</v>
       </c>
+      <c r="F90" s="1">
+        <v>5</v>
+      </c>
+      <c r="G90" t="s">
+        <v>532</v>
+      </c>
+      <c r="H90">
+        <v>3600</v>
+      </c>
       <c r="P90" t="s">
         <v>438</v>
       </c>
@@ -16815,7 +16878,7 @@
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="B91" s="1">
         <v>5</v>
@@ -17425,13 +17488,13 @@
         <v>5</v>
       </c>
       <c r="C107">
-        <v>2.0187858017292699</v>
+        <v>1.7417025334862299</v>
       </c>
       <c r="D107">
-        <v>1.33325163311965</v>
+        <v>1.21986798901293</v>
       </c>
       <c r="E107">
-        <v>1.2319600955542001</v>
+        <v>1.07715163331442</v>
       </c>
       <c r="O107" t="s">
         <v>437</v>

--- a/plotting/617_temp.xlsx
+++ b/plotting/617_temp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="unet" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="540">
   <si>
     <t>.\vgg_unet2_0_3_640_640_64_256_rot_15_345_4_flip_5K\training_32_49_640_640_640_640_max_val_acc\vis\vis_log_181022_0927.txt</t>
   </si>
@@ -1624,13 +1624,28 @@
   </si>
   <si>
     <t>n_frames</t>
+  </si>
+  <si>
+    <t>start_frame</t>
+  </si>
+  <si>
+    <t>end_frame</t>
+  </si>
+  <si>
+    <t>_1</t>
+  </si>
+  <si>
+    <t>_3</t>
+  </si>
+  <si>
+    <t>_5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1670,6 +1685,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1691,7 +1714,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1709,6 +1732,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13290,8 +13314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J90" sqref="J90"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101:E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13299,6 +13323,8 @@
     <col min="1" max="1" width="43" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -16561,10 +16587,9 @@
       </c>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A84" s="6" t="s">
+      <c r="B84" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="B84" s="6"/>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
@@ -16583,10 +16608,9 @@
       <c r="X84" s="6"/>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A85" s="6" t="s">
+      <c r="B85" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="B85" s="6"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
@@ -16598,6 +16622,12 @@
       </c>
       <c r="H85" t="s">
         <v>534</v>
+      </c>
+      <c r="I85" t="s">
+        <v>535</v>
+      </c>
+      <c r="J85" t="s">
+        <v>536</v>
       </c>
       <c r="P85" s="6" t="s">
         <v>454</v>
@@ -16611,8 +16641,8 @@
       <c r="W85" s="6"/>
       <c r="X85" s="6"/>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+    <row r="86" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A86" s="9" t="s">
         <v>521</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -16634,6 +16664,12 @@
         <v>517</v>
       </c>
       <c r="H86">
+        <v>1800</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
         <v>1800</v>
       </c>
       <c r="P86" s="1" t="s">
@@ -16668,8 +16704,8 @@
       <c r="A87" t="s">
         <v>517</v>
       </c>
-      <c r="B87">
-        <v>1</v>
+      <c r="B87" t="s">
+        <v>537</v>
       </c>
       <c r="C87">
         <v>2.5178015658025799</v>
@@ -16688,6 +16724,12 @@
       </c>
       <c r="H87">
         <v>1800</v>
+      </c>
+      <c r="I87">
+        <v>701</v>
+      </c>
+      <c r="J87">
+        <v>2500</v>
       </c>
       <c r="P87" t="s">
         <v>436</v>
@@ -16721,8 +16763,8 @@
       <c r="A88" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="B88" s="1">
-        <v>2</v>
+      <c r="B88" s="1" t="s">
+        <v>457</v>
       </c>
       <c r="C88">
         <v>3.6073240237310298</v>
@@ -16741,6 +16783,12 @@
       </c>
       <c r="H88">
         <v>1800</v>
+      </c>
+      <c r="I88">
+        <v>2001</v>
+      </c>
+      <c r="J88">
+        <v>3800</v>
       </c>
       <c r="P88" t="s">
         <v>440</v>
@@ -16774,8 +16822,8 @@
       <c r="A89" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="B89" s="1">
-        <v>3</v>
+      <c r="B89" s="1" t="s">
+        <v>538</v>
       </c>
       <c r="C89">
         <v>1.2235413881447299</v>
@@ -16794,6 +16842,12 @@
       </c>
       <c r="H89">
         <v>1800</v>
+      </c>
+      <c r="I89">
+        <v>901</v>
+      </c>
+      <c r="J89">
+        <v>2700</v>
       </c>
       <c r="P89" t="s">
         <v>439</v>
@@ -16827,8 +16881,8 @@
       <c r="A90" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="B90" s="1">
-        <v>4</v>
+      <c r="B90" s="1" t="s">
+        <v>436</v>
       </c>
       <c r="C90">
         <v>2.4806143105480398</v>
@@ -16846,6 +16900,12 @@
         <v>532</v>
       </c>
       <c r="H90">
+        <v>3600</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
         <v>3600</v>
       </c>
       <c r="P90" t="s">
@@ -16880,8 +16940,8 @@
       <c r="A91" t="s">
         <v>532</v>
       </c>
-      <c r="B91" s="1">
-        <v>5</v>
+      <c r="B91" s="1" t="s">
+        <v>539</v>
       </c>
       <c r="C91">
         <v>1.4617734433154399</v>
@@ -16921,10 +16981,9 @@
       </c>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A92" s="6" t="s">
+      <c r="B92" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="B92" s="6"/>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
       <c r="E92" s="6"/>
@@ -16941,10 +17000,9 @@
       <c r="X92" s="6"/>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A93" s="6" t="s">
+      <c r="B93" s="6" t="s">
         <v>527</v>
       </c>
-      <c r="B93" s="6"/>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
@@ -16960,11 +17018,13 @@
       <c r="W93" s="6"/>
       <c r="X93" s="6"/>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+    <row r="94" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A94" s="9" t="s">
         <v>452</v>
       </c>
-      <c r="B94" s="1"/>
+      <c r="B94" s="1" t="s">
+        <v>523</v>
+      </c>
       <c r="C94" s="1" t="s">
         <v>405</v>
       </c>
@@ -17006,8 +17066,8 @@
       <c r="A95" t="s">
         <v>517</v>
       </c>
-      <c r="B95">
-        <v>1</v>
+      <c r="B95" t="s">
+        <v>537</v>
       </c>
       <c r="C95">
         <v>2.8450692597460598</v>
@@ -17050,8 +17110,8 @@
       <c r="A96" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="B96" s="1">
-        <v>2</v>
+      <c r="B96" s="1" t="s">
+        <v>457</v>
       </c>
       <c r="C96">
         <v>2.8446595054629902</v>
@@ -17094,8 +17154,8 @@
       <c r="A97" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="B97" s="1">
-        <v>3</v>
+      <c r="B97" s="1" t="s">
+        <v>538</v>
       </c>
       <c r="C97">
         <v>1.6576068159758599</v>
@@ -17138,8 +17198,8 @@
       <c r="A98" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="B98" s="1">
-        <v>4</v>
+      <c r="B98" s="1" t="s">
+        <v>436</v>
       </c>
       <c r="C98">
         <v>2.54269492594694</v>
@@ -17182,8 +17242,8 @@
       <c r="A99" t="s">
         <v>522</v>
       </c>
-      <c r="B99" s="1">
-        <v>5</v>
+      <c r="B99" s="1" t="s">
+        <v>539</v>
       </c>
       <c r="C99">
         <v>2.0011688069696598</v>
@@ -17223,10 +17283,12 @@
       </c>
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A100" s="6" t="s">
+      <c r="A100" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="B100" s="6"/>
+      <c r="B100" s="6" t="s">
+        <v>524</v>
+      </c>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
@@ -17243,10 +17305,10 @@
       <c r="X100" s="6"/>
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A101" s="6" t="s">
+      <c r="A101" s="2"/>
+      <c r="B101" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="B101" s="6"/>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
       <c r="E101" s="6"/>
@@ -17262,8 +17324,8 @@
       <c r="W101" s="6"/>
       <c r="X101" s="6"/>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
+    <row r="102" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A102" s="9" t="s">
         <v>451</v>
       </c>
       <c r="B102" s="1"/>
@@ -17308,8 +17370,8 @@
       <c r="A103" t="s">
         <v>517</v>
       </c>
-      <c r="B103">
-        <v>1</v>
+      <c r="B103" t="s">
+        <v>537</v>
       </c>
       <c r="C103">
         <v>2.78505026958993</v>
@@ -17352,8 +17414,8 @@
       <c r="A104" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="B104" s="1">
-        <v>2</v>
+      <c r="B104" s="1" t="s">
+        <v>457</v>
       </c>
       <c r="C104">
         <v>2.9676932518666002</v>
@@ -17396,8 +17458,8 @@
       <c r="A105" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="B105" s="1">
-        <v>3</v>
+      <c r="B105" s="1" t="s">
+        <v>538</v>
       </c>
       <c r="C105">
         <v>1.5569445865201099</v>
@@ -17440,8 +17502,8 @@
       <c r="A106" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="B106" s="1">
-        <v>4</v>
+      <c r="B106" s="1" t="s">
+        <v>436</v>
       </c>
       <c r="C106">
         <v>2.4727588192535799</v>
@@ -17484,8 +17546,8 @@
       <c r="A107" t="s">
         <v>522</v>
       </c>
-      <c r="B107" s="1">
-        <v>5</v>
+      <c r="B107" s="1" t="s">
+        <v>539</v>
       </c>
       <c r="C107">
         <v>1.7417025334862299</v>
@@ -18220,16 +18282,16 @@
     <mergeCell ref="S132:V132"/>
     <mergeCell ref="O133:R133"/>
     <mergeCell ref="S133:V133"/>
-    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="B100:E100"/>
+    <mergeCell ref="B101:E101"/>
     <mergeCell ref="O124:R124"/>
     <mergeCell ref="O125:R125"/>
     <mergeCell ref="S124:V124"/>
     <mergeCell ref="S125:V125"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="A84:E84"/>
-    <mergeCell ref="A92:E92"/>
-    <mergeCell ref="A93:E93"/>
-    <mergeCell ref="A100:E100"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="B85:E85"/>
     <mergeCell ref="A77:F77"/>
     <mergeCell ref="A78:F78"/>
     <mergeCell ref="G77:L77"/>

--- a/plotting/617_temp.xlsx
+++ b/plotting/617_temp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="unet" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="540">
   <si>
     <t>.\vgg_unet2_0_3_640_640_64_256_rot_15_345_4_flip_5K\training_32_49_640_640_640_640_max_val_acc\vis\vis_log_181022_0927.txt</t>
   </si>
@@ -1720,6 +1720,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1732,7 +1733,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7474,13 +7474,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -7819,13 +7819,13 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -8098,13 +8098,13 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -8377,13 +8377,13 @@
       </c>
     </row>
     <row r="71" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
@@ -8611,13 +8611,13 @@
       </c>
     </row>
     <row r="89" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
@@ -8845,13 +8845,13 @@
       </c>
     </row>
     <row r="108" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A108" s="5" t="s">
+      <c r="A108" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="B108" s="5"/>
-      <c r="C108" s="5"/>
-      <c r="D108" s="5"/>
-      <c r="E108" s="5"/>
+      <c r="B108" s="6"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
@@ -9079,13 +9079,13 @@
       </c>
     </row>
     <row r="126" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A126" s="5" t="s">
+      <c r="A126" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="B126" s="5"/>
-      <c r="C126" s="5"/>
-      <c r="D126" s="5"/>
-      <c r="E126" s="5"/>
+      <c r="B126" s="6"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
@@ -9538,13 +9538,13 @@
       </c>
     </row>
     <row r="162" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A162" s="5" t="s">
+      <c r="A162" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="B162" s="5"/>
-      <c r="C162" s="5"/>
-      <c r="D162" s="5"/>
-      <c r="E162" s="5"/>
+      <c r="B162" s="6"/>
+      <c r="C162" s="6"/>
+      <c r="D162" s="6"/>
+      <c r="E162" s="6"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
@@ -10042,13 +10042,13 @@
       </c>
     </row>
     <row r="199" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A199" s="5" t="s">
+      <c r="A199" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="B199" s="5"/>
-      <c r="C199" s="5"/>
-      <c r="D199" s="5"/>
-      <c r="E199" s="5"/>
+      <c r="B199" s="6"/>
+      <c r="C199" s="6"/>
+      <c r="D199" s="6"/>
+      <c r="E199" s="6"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
@@ -10546,13 +10546,13 @@
       </c>
     </row>
     <row r="238" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A238" s="5" t="s">
+      <c r="A238" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="B238" s="5"/>
-      <c r="C238" s="5"/>
-      <c r="D238" s="5"/>
-      <c r="E238" s="5"/>
+      <c r="B238" s="6"/>
+      <c r="C238" s="6"/>
+      <c r="D238" s="6"/>
+      <c r="E238" s="6"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
@@ -11365,13 +11365,13 @@
       </c>
     </row>
     <row r="300" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A300" s="5" t="s">
+      <c r="A300" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="B300" s="5"/>
-      <c r="C300" s="5"/>
-      <c r="D300" s="5"/>
-      <c r="E300" s="5"/>
+      <c r="B300" s="6"/>
+      <c r="C300" s="6"/>
+      <c r="D300" s="6"/>
+      <c r="E300" s="6"/>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
@@ -12735,17 +12735,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A300:E300"/>
+    <mergeCell ref="A238:E238"/>
+    <mergeCell ref="A199:E199"/>
+    <mergeCell ref="A162:E162"/>
+    <mergeCell ref="A126:E126"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A52:E52"/>
     <mergeCell ref="A71:E71"/>
     <mergeCell ref="A89:E89"/>
     <mergeCell ref="A108:E108"/>
     <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A300:E300"/>
-    <mergeCell ref="A238:E238"/>
-    <mergeCell ref="A199:E199"/>
-    <mergeCell ref="A162:E162"/>
-    <mergeCell ref="A126:E126"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
@@ -13312,10 +13312,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z139"/>
+  <dimension ref="A1:Z141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101:E101"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13328,13 +13328,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -13448,22 +13448,22 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -13616,14 +13616,14 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
       <c r="J17">
         <v>0.67832000000000003</v>
       </c>
@@ -13638,14 +13638,14 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -13856,14 +13856,14 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
       <c r="J24">
         <v>0.43318000000000001</v>
       </c>
@@ -13890,14 +13890,14 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -14074,72 +14074,72 @@
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="H34" s="6" t="s">
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="H34" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="O34" s="6" t="s">
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="O34" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
-      <c r="U34" s="6"/>
-      <c r="V34" s="6" t="s">
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="W34" s="6"/>
-      <c r="X34" s="6"/>
-      <c r="Y34" s="6"/>
-      <c r="Z34" s="6"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="7"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="H35" s="6" t="s">
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="H35" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="O35" s="6" t="s">
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="O35" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
-      <c r="U35" s="6"/>
-      <c r="V35" s="6" t="s">
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+      <c r="V35" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="W35" s="6"/>
-      <c r="X35" s="6"/>
-      <c r="Y35" s="6"/>
-      <c r="Z35" s="6"/>
+      <c r="W35" s="7"/>
+      <c r="X35" s="7"/>
+      <c r="Y35" s="7"/>
+      <c r="Z35" s="7"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -14512,14 +14512,14 @@
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
       <c r="H41" s="1" t="s">
         <v>416</v>
       </c>
@@ -14576,14 +14576,14 @@
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
       <c r="H42" s="1" t="s">
         <v>417</v>
       </c>
@@ -14602,22 +14602,22 @@
       <c r="M42">
         <v>0.63066</v>
       </c>
-      <c r="O42" s="6" t="s">
+      <c r="O42" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="6"/>
-      <c r="S42" s="6"/>
-      <c r="T42" s="6"/>
-      <c r="U42" s="6"/>
-      <c r="V42" s="6" t="s">
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
+      <c r="V42" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="W42" s="6"/>
-      <c r="X42" s="6"/>
-      <c r="Y42" s="6"/>
-      <c r="Z42" s="6"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7"/>
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="7"/>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
@@ -14656,22 +14656,22 @@
       <c r="M43">
         <v>0.65837000000000001</v>
       </c>
-      <c r="O43" s="6" t="s">
+      <c r="O43" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
-      <c r="S43" s="6"/>
-      <c r="T43" s="6"/>
-      <c r="U43" s="6"/>
-      <c r="V43" s="6" t="s">
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="W43" s="6"/>
-      <c r="X43" s="6"/>
-      <c r="Y43" s="6"/>
-      <c r="Z43" s="6"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="7"/>
+      <c r="Y43" s="7"/>
+      <c r="Z43" s="7"/>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
@@ -14920,13 +14920,13 @@
       </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
       <c r="F48" s="2"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
@@ -14968,13 +14968,13 @@
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
       <c r="O49" s="1" t="s">
         <v>437</v>
       </c>
@@ -15028,22 +15028,22 @@
       <c r="E50" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="O50" s="6" t="s">
+      <c r="O50" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="P50" s="6"/>
-      <c r="Q50" s="6"/>
-      <c r="R50" s="6"/>
-      <c r="S50" s="6"/>
-      <c r="T50" s="6"/>
-      <c r="U50" s="6"/>
-      <c r="V50" s="6" t="s">
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="7"/>
+      <c r="U50" s="7"/>
+      <c r="V50" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="W50" s="6"/>
-      <c r="X50" s="6"/>
-      <c r="Y50" s="6"/>
-      <c r="Z50" s="6"/>
+      <c r="W50" s="7"/>
+      <c r="X50" s="7"/>
+      <c r="Y50" s="7"/>
+      <c r="Z50" s="7"/>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
@@ -15061,22 +15061,22 @@
       <c r="E51">
         <v>0.63066</v>
       </c>
-      <c r="O51" s="6" t="s">
+      <c r="O51" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="6"/>
-      <c r="R51" s="6"/>
-      <c r="S51" s="6"/>
-      <c r="T51" s="6"/>
-      <c r="U51" s="6"/>
-      <c r="V51" s="6" t="s">
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="7"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7"/>
+      <c r="V51" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="W51" s="6"/>
-      <c r="X51" s="6"/>
-      <c r="Y51" s="6"/>
-      <c r="Z51" s="6"/>
+      <c r="W51" s="7"/>
+      <c r="X51" s="7"/>
+      <c r="Y51" s="7"/>
+      <c r="Z51" s="7"/>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -15291,20 +15291,20 @@
       </c>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6" t="s">
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
       <c r="O56" s="1" t="s">
         <v>438</v>
       </c>
@@ -15343,20 +15343,20 @@
       </c>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6" t="s">
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
       <c r="O57" s="1" t="s">
         <v>437</v>
       </c>
@@ -15425,22 +15425,22 @@
       <c r="J58" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="O58" s="6" t="s">
+      <c r="O58" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="P58" s="6"/>
-      <c r="Q58" s="6"/>
-      <c r="R58" s="6"/>
-      <c r="S58" s="6"/>
-      <c r="T58" s="6"/>
-      <c r="U58" s="6"/>
-      <c r="V58" s="6" t="s">
+      <c r="P58" s="7"/>
+      <c r="Q58" s="7"/>
+      <c r="R58" s="7"/>
+      <c r="S58" s="7"/>
+      <c r="T58" s="7"/>
+      <c r="U58" s="7"/>
+      <c r="V58" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="W58" s="6"/>
-      <c r="X58" s="6"/>
-      <c r="Y58" s="6"/>
-      <c r="Z58" s="6"/>
+      <c r="W58" s="7"/>
+      <c r="X58" s="7"/>
+      <c r="Y58" s="7"/>
+      <c r="Z58" s="7"/>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
@@ -15473,22 +15473,22 @@
       <c r="J59">
         <v>0.76844000000000001</v>
       </c>
-      <c r="O59" s="6" t="s">
+      <c r="O59" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="P59" s="6"/>
-      <c r="Q59" s="6"/>
-      <c r="R59" s="6"/>
-      <c r="S59" s="6"/>
-      <c r="T59" s="6"/>
-      <c r="U59" s="6"/>
-      <c r="V59" s="6" t="s">
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7"/>
+      <c r="R59" s="7"/>
+      <c r="S59" s="7"/>
+      <c r="T59" s="7"/>
+      <c r="U59" s="7"/>
+      <c r="V59" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="W59" s="6"/>
-      <c r="X59" s="6"/>
-      <c r="Y59" s="6"/>
-      <c r="Z59" s="6"/>
+      <c r="W59" s="7"/>
+      <c r="X59" s="7"/>
+      <c r="Y59" s="7"/>
+      <c r="Z59" s="7"/>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
@@ -15801,10 +15801,10 @@
       </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="7" t="s">
         <v>444</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -15860,8 +15860,8 @@
       </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A66" s="6"/>
-      <c r="B66" s="6"/>
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
       <c r="C66" s="1" t="s">
         <v>412</v>
       </c>
@@ -15877,19 +15877,19 @@
       <c r="G66">
         <v>0.84930000000000005</v>
       </c>
-      <c r="O66" s="6" t="s">
+      <c r="O66" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="P66" s="6"/>
-      <c r="Q66" s="6"/>
-      <c r="R66" s="6"/>
-      <c r="S66" s="6"/>
-      <c r="T66" s="6"/>
-      <c r="U66" s="6"/>
+      <c r="P66" s="7"/>
+      <c r="Q66" s="7"/>
+      <c r="R66" s="7"/>
+      <c r="S66" s="7"/>
+      <c r="T66" s="7"/>
+      <c r="U66" s="7"/>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
       <c r="C67" s="1" t="s">
         <v>405</v>
       </c>
@@ -15905,19 +15905,19 @@
       <c r="G67">
         <v>0.90871000000000002</v>
       </c>
-      <c r="O67" s="6" t="s">
+      <c r="O67" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="P67" s="6"/>
-      <c r="Q67" s="6"/>
-      <c r="R67" s="6"/>
-      <c r="S67" s="6"/>
-      <c r="T67" s="6"/>
-      <c r="U67" s="6"/>
+      <c r="P67" s="7"/>
+      <c r="Q67" s="7"/>
+      <c r="R67" s="7"/>
+      <c r="S67" s="7"/>
+      <c r="T67" s="7"/>
+      <c r="U67" s="7"/>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A68" s="6"/>
-      <c r="B68" s="6"/>
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
       <c r="C68" s="1" t="s">
         <v>404</v>
       </c>
@@ -15956,8 +15956,8 @@
       </c>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A69" s="6"/>
-      <c r="B69" s="6"/>
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
       <c r="C69" s="1" t="s">
         <v>406</v>
       </c>
@@ -15996,8 +15996,8 @@
       </c>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A70" s="6"/>
-      <c r="B70" s="6"/>
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
       <c r="C70" s="1" t="s">
         <v>403</v>
       </c>
@@ -16036,10 +16036,10 @@
       </c>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A71" s="7" t="s">
+      <c r="A71" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="7" t="s">
         <v>445</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -16080,8 +16080,8 @@
       </c>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A72" s="6"/>
-      <c r="B72" s="6"/>
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
       <c r="C72" s="1" t="s">
         <v>412</v>
       </c>
@@ -16120,8 +16120,8 @@
       </c>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A73" s="6"/>
-      <c r="B73" s="6"/>
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
       <c r="C73" s="1" t="s">
         <v>405</v>
       </c>
@@ -16160,8 +16160,8 @@
       </c>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A74" s="6"/>
-      <c r="B74" s="6"/>
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
       <c r="C74" s="1" t="s">
         <v>404</v>
       </c>
@@ -16177,19 +16177,19 @@
       <c r="G74">
         <v>0.81733</v>
       </c>
-      <c r="O74" s="6" t="s">
+      <c r="O74" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="P74" s="6"/>
-      <c r="Q74" s="6"/>
-      <c r="R74" s="6"/>
-      <c r="S74" s="6"/>
-      <c r="T74" s="6"/>
-      <c r="U74" s="6"/>
+      <c r="P74" s="7"/>
+      <c r="Q74" s="7"/>
+      <c r="R74" s="7"/>
+      <c r="S74" s="7"/>
+      <c r="T74" s="7"/>
+      <c r="U74" s="7"/>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A75" s="6"/>
-      <c r="B75" s="6"/>
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
       <c r="C75" s="1" t="s">
         <v>406</v>
       </c>
@@ -16205,19 +16205,19 @@
       <c r="G75">
         <v>0.77490000000000003</v>
       </c>
-      <c r="O75" s="6" t="s">
+      <c r="O75" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="P75" s="6"/>
-      <c r="Q75" s="6"/>
-      <c r="R75" s="6"/>
-      <c r="S75" s="6"/>
-      <c r="T75" s="6"/>
-      <c r="U75" s="6"/>
+      <c r="P75" s="7"/>
+      <c r="Q75" s="7"/>
+      <c r="R75" s="7"/>
+      <c r="S75" s="7"/>
+      <c r="T75" s="7"/>
+      <c r="U75" s="7"/>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A76" s="6"/>
-      <c r="B76" s="6"/>
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
       <c r="C76" s="1" t="s">
         <v>403</v>
       </c>
@@ -16256,22 +16256,22 @@
       </c>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A77" s="6" t="s">
+      <c r="A77" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="B77" s="6"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6" t="s">
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="6"/>
-      <c r="K77" s="6"/>
-      <c r="L77" s="6"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
       <c r="O77" t="s">
         <v>436</v>
       </c>
@@ -16295,22 +16295,22 @@
       </c>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A78" s="6" t="s">
+      <c r="A78" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="B78" s="6"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6" t="s">
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
-      <c r="K78" s="6"/>
-      <c r="L78" s="6"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="7"/>
       <c r="O78" t="s">
         <v>440</v>
       </c>
@@ -16587,33 +16587,33 @@
       </c>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B84" s="6" t="s">
+      <c r="B84" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
-      <c r="P84" s="6" t="s">
+      <c r="P84" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="Q84" s="6"/>
-      <c r="R84" s="6"/>
-      <c r="S84" s="6"/>
-      <c r="T84" s="6"/>
-      <c r="U84" s="6"/>
-      <c r="V84" s="6"/>
-      <c r="W84" s="6"/>
-      <c r="X84" s="6"/>
+      <c r="Q84" s="7"/>
+      <c r="R84" s="7"/>
+      <c r="S84" s="7"/>
+      <c r="T84" s="7"/>
+      <c r="U84" s="7"/>
+      <c r="V84" s="7"/>
+      <c r="W84" s="7"/>
+      <c r="X84" s="7"/>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
       <c r="F85" s="1" t="s">
         <v>523</v>
       </c>
@@ -16629,20 +16629,20 @@
       <c r="J85" t="s">
         <v>536</v>
       </c>
-      <c r="P85" s="6" t="s">
+      <c r="P85" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="Q85" s="6"/>
-      <c r="R85" s="6"/>
-      <c r="S85" s="6"/>
-      <c r="T85" s="6"/>
-      <c r="U85" s="6"/>
-      <c r="V85" s="6"/>
-      <c r="W85" s="6"/>
-      <c r="X85" s="6"/>
+      <c r="Q85" s="7"/>
+      <c r="R85" s="7"/>
+      <c r="S85" s="7"/>
+      <c r="T85" s="7"/>
+      <c r="U85" s="7"/>
+      <c r="V85" s="7"/>
+      <c r="W85" s="7"/>
+      <c r="X85" s="7"/>
     </row>
     <row r="86" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A86" s="9" t="s">
+      <c r="A86" s="5" t="s">
         <v>521</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -16981,45 +16981,45 @@
       </c>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B92" s="6" t="s">
+      <c r="B92" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="P92" s="6" t="s">
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="P92" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="Q92" s="6"/>
-      <c r="R92" s="6"/>
-      <c r="S92" s="6"/>
-      <c r="T92" s="6"/>
-      <c r="U92" s="6"/>
-      <c r="V92" s="6"/>
-      <c r="W92" s="6"/>
-      <c r="X92" s="6"/>
+      <c r="Q92" s="7"/>
+      <c r="R92" s="7"/>
+      <c r="S92" s="7"/>
+      <c r="T92" s="7"/>
+      <c r="U92" s="7"/>
+      <c r="V92" s="7"/>
+      <c r="W92" s="7"/>
+      <c r="X92" s="7"/>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B93" s="6" t="s">
+      <c r="B93" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="P93" s="6" t="s">
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="P93" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="Q93" s="6"/>
-      <c r="R93" s="6"/>
-      <c r="S93" s="6"/>
-      <c r="T93" s="6"/>
-      <c r="U93" s="6"/>
-      <c r="V93" s="6"/>
-      <c r="W93" s="6"/>
-      <c r="X93" s="6"/>
+      <c r="Q93" s="7"/>
+      <c r="R93" s="7"/>
+      <c r="S93" s="7"/>
+      <c r="T93" s="7"/>
+      <c r="U93" s="7"/>
+      <c r="V93" s="7"/>
+      <c r="W93" s="7"/>
+      <c r="X93" s="7"/>
     </row>
     <row r="94" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A94" s="9" t="s">
+      <c r="A94" s="5" t="s">
         <v>452</v>
       </c>
       <c r="B94" s="1" t="s">
@@ -17286,46 +17286,46 @@
       <c r="A100" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="B100" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
-      <c r="P100" s="6" t="s">
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="P100" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="Q100" s="6"/>
-      <c r="R100" s="6"/>
-      <c r="S100" s="6"/>
-      <c r="T100" s="6"/>
-      <c r="U100" s="6"/>
-      <c r="V100" s="6"/>
-      <c r="W100" s="6"/>
-      <c r="X100" s="6"/>
+      <c r="Q100" s="7"/>
+      <c r="R100" s="7"/>
+      <c r="S100" s="7"/>
+      <c r="T100" s="7"/>
+      <c r="U100" s="7"/>
+      <c r="V100" s="7"/>
+      <c r="W100" s="7"/>
+      <c r="X100" s="7"/>
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
-      <c r="B101" s="6" t="s">
+      <c r="B101" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
-      <c r="P101" s="6" t="s">
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="P101" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="Q101" s="6"/>
-      <c r="R101" s="6"/>
-      <c r="S101" s="6"/>
-      <c r="T101" s="6"/>
-      <c r="U101" s="6"/>
-      <c r="V101" s="6"/>
-      <c r="W101" s="6"/>
-      <c r="X101" s="6"/>
+      <c r="Q101" s="7"/>
+      <c r="R101" s="7"/>
+      <c r="S101" s="7"/>
+      <c r="T101" s="7"/>
+      <c r="U101" s="7"/>
+      <c r="V101" s="7"/>
+      <c r="W101" s="7"/>
+      <c r="X101" s="7"/>
     </row>
     <row r="102" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A102" s="9" t="s">
+      <c r="A102" s="5" t="s">
         <v>451</v>
       </c>
       <c r="B102" s="1"/>
@@ -17587,734 +17587,828 @@
       </c>
     </row>
     <row r="108" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="O108" s="6" t="s">
+      <c r="B108" s="1"/>
+    </row>
+    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A109" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
+    </row>
+    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A110" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
+      <c r="O110" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="P108" s="6"/>
-      <c r="Q108" s="6"/>
-      <c r="R108" s="6"/>
-      <c r="S108" s="6"/>
-      <c r="T108" s="6"/>
-      <c r="U108" s="6"/>
-      <c r="V108" s="2"/>
-      <c r="W108" s="2"/>
-    </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="O109" s="6" t="s">
+      <c r="P110" s="7"/>
+      <c r="Q110" s="7"/>
+      <c r="R110" s="7"/>
+      <c r="S110" s="7"/>
+      <c r="T110" s="7"/>
+      <c r="U110" s="7"/>
+      <c r="V110" s="2"/>
+      <c r="W110" s="2"/>
+    </row>
+    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="O111" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="P109" s="6"/>
-      <c r="Q109" s="6"/>
-      <c r="R109" s="6"/>
-      <c r="S109" s="6"/>
-      <c r="T109" s="6"/>
-      <c r="U109" s="6"/>
-    </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="O110" s="1" t="s">
+      <c r="P111" s="7"/>
+      <c r="Q111" s="7"/>
+      <c r="R111" s="7"/>
+      <c r="S111" s="7"/>
+      <c r="T111" s="7"/>
+      <c r="U111" s="7"/>
+    </row>
+    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B112">
+        <v>0.61538000000000004</v>
+      </c>
+      <c r="C112">
+        <v>0.74461999999999995</v>
+      </c>
+      <c r="D112">
+        <v>0.73751999999999995</v>
+      </c>
+      <c r="E112">
+        <v>0.76958000000000004</v>
+      </c>
+      <c r="F112">
+        <v>0.82310000000000005</v>
+      </c>
+      <c r="O112" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="P110" s="1" t="s">
+      <c r="P112" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="Q110" s="1" t="s">
+      <c r="Q112" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="R110" s="1" t="s">
+      <c r="R112" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="S110" s="1" t="s">
+      <c r="S112" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="T110" s="1" t="s">
+      <c r="T112" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="U110" s="1" t="s">
+      <c r="U112" s="1" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="O111" s="1" t="s">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B113">
+        <v>0.75410999999999995</v>
+      </c>
+      <c r="C113">
+        <v>0.87512000000000001</v>
+      </c>
+      <c r="D113">
+        <v>0.84270999999999996</v>
+      </c>
+      <c r="E113">
+        <v>0.71062000000000003</v>
+      </c>
+      <c r="F113">
+        <v>0.68991999999999998</v>
+      </c>
+      <c r="O113" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="P111">
+      <c r="P113">
         <v>0.63119000000000003</v>
       </c>
-      <c r="Q111">
+      <c r="Q113">
         <v>0.47465000000000002</v>
       </c>
-      <c r="R111">
+      <c r="R113">
         <v>0.47305999999999998</v>
       </c>
-      <c r="S111">
+      <c r="S113">
         <v>0.40679999999999999</v>
       </c>
-      <c r="T111">
+      <c r="T113">
         <v>0.31435999999999997</v>
       </c>
-      <c r="U111">
+      <c r="U113">
         <v>0.29899999999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="O112" s="1" t="s">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B114">
+        <v>0.78120999999999996</v>
+      </c>
+      <c r="C114">
+        <v>0.86380000000000001</v>
+      </c>
+      <c r="D114">
+        <v>0.85128999999999999</v>
+      </c>
+      <c r="E114">
+        <v>0.81420999999999999</v>
+      </c>
+      <c r="F114">
+        <v>0.8306</v>
+      </c>
+      <c r="O114" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="P112">
+      <c r="P114">
         <v>0.62795000000000001</v>
       </c>
-      <c r="Q112">
+      <c r="Q114">
         <v>0.46004</v>
       </c>
-      <c r="R112">
+      <c r="R114">
         <v>0.49720999999999999</v>
       </c>
-      <c r="S112">
+      <c r="S114">
         <v>0.46440999999999999</v>
       </c>
-      <c r="T112">
+      <c r="T114">
         <v>0.32845999999999997</v>
       </c>
-      <c r="U112">
+      <c r="U114">
         <v>0.32988000000000001</v>
       </c>
     </row>
-    <row r="113" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O113" s="1" t="s">
+    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B115">
+        <v>0.84930000000000005</v>
+      </c>
+      <c r="C115">
+        <v>0.90871000000000002</v>
+      </c>
+      <c r="D115">
+        <v>0.88688</v>
+      </c>
+      <c r="E115">
+        <v>0.85023000000000004</v>
+      </c>
+      <c r="F115">
+        <v>0.85895999999999995</v>
+      </c>
+      <c r="O115" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="P113">
+      <c r="P115">
         <v>0.67910999999999999</v>
       </c>
-      <c r="Q113">
+      <c r="Q115">
         <v>0.54901999999999995</v>
       </c>
-      <c r="R113">
+      <c r="R115">
         <v>0.54895000000000005</v>
       </c>
-      <c r="S113">
+      <c r="S115">
         <v>0.48081000000000002</v>
       </c>
-      <c r="T113">
+      <c r="T115">
         <v>0.38762000000000002</v>
       </c>
-      <c r="U113">
+      <c r="U115">
         <v>0.35004999999999997</v>
       </c>
     </row>
-    <row r="114" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O114" s="1" t="s">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O116" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="P114">
+      <c r="P116">
         <v>0.70355999999999996</v>
       </c>
-      <c r="Q114">
+      <c r="Q116">
         <v>0.54766999999999999</v>
       </c>
-      <c r="R114">
+      <c r="R116">
         <v>0.57962000000000002</v>
       </c>
-      <c r="S114">
+      <c r="S116">
         <v>0.55174000000000001</v>
       </c>
-      <c r="T114">
+      <c r="T116">
         <v>0.40284999999999999</v>
       </c>
-      <c r="U114">
+      <c r="U116">
         <v>0.37895000000000001</v>
       </c>
     </row>
-    <row r="115" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O115" s="1" t="s">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O117" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="P115">
+      <c r="P117">
         <v>0.70960000000000001</v>
       </c>
-      <c r="Q115">
+      <c r="Q117">
         <v>0.70609999999999995</v>
       </c>
-      <c r="R115">
+      <c r="R117">
         <v>0.57425999999999999</v>
       </c>
-      <c r="S115">
+      <c r="S117">
         <v>0.49764999999999998</v>
       </c>
-      <c r="T115">
+      <c r="T117">
         <v>0.46243000000000001</v>
       </c>
-      <c r="U115">
+      <c r="U117">
         <v>0.41599999999999998</v>
       </c>
     </row>
-    <row r="116" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O116" s="6" t="s">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O118" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="P116" s="6"/>
-      <c r="Q116" s="6"/>
-      <c r="R116" s="6"/>
-      <c r="S116" s="6"/>
-      <c r="T116" s="6"/>
-      <c r="U116" s="6"/>
-    </row>
-    <row r="117" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O117" s="6" t="s">
+      <c r="P118" s="7"/>
+      <c r="Q118" s="7"/>
+      <c r="R118" s="7"/>
+      <c r="S118" s="7"/>
+      <c r="T118" s="7"/>
+      <c r="U118" s="7"/>
+    </row>
+    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O119" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="P117" s="6"/>
-      <c r="Q117" s="6"/>
-      <c r="R117" s="6"/>
-      <c r="S117" s="6"/>
-      <c r="T117" s="6"/>
-      <c r="U117" s="6"/>
-    </row>
-    <row r="118" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O118" s="1" t="s">
+      <c r="P119" s="7"/>
+      <c r="Q119" s="7"/>
+      <c r="R119" s="7"/>
+      <c r="S119" s="7"/>
+      <c r="T119" s="7"/>
+      <c r="U119" s="7"/>
+    </row>
+    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O120" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="P118" s="1" t="s">
+      <c r="P120" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="Q118" s="1" t="s">
+      <c r="Q120" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="R118" s="1" t="s">
+      <c r="R120" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="S118" s="1" t="s">
+      <c r="S120" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="T118" s="1" t="s">
+      <c r="T120" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="U118" s="1" t="s">
+      <c r="U120" s="1" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="119" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O119" s="1" t="s">
+    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O121" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="P119">
+      <c r="P121">
         <v>0.54512000000000005</v>
       </c>
-      <c r="Q119">
+      <c r="Q121">
         <v>0.80683000000000005</v>
       </c>
-      <c r="R119">
+      <c r="R121">
         <v>0.79849000000000003</v>
       </c>
-      <c r="S119">
+      <c r="S121">
         <v>0.43414000000000003</v>
       </c>
-      <c r="T119">
+      <c r="T121">
         <v>0.53859000000000001</v>
       </c>
-      <c r="U119">
+      <c r="U121">
         <v>0.49303000000000002</v>
       </c>
     </row>
-    <row r="120" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O120" s="1" t="s">
+    <row r="122" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O122" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="P120">
+      <c r="P122">
         <v>0.74899000000000004</v>
       </c>
-      <c r="Q120">
+      <c r="Q122">
         <v>0.83272000000000002</v>
       </c>
-      <c r="R120">
+      <c r="R122">
         <v>0.83160999999999996</v>
       </c>
-      <c r="S120">
+      <c r="S122">
         <v>0.57515000000000005</v>
       </c>
-      <c r="T120">
+      <c r="T122">
         <v>0.57806999999999997</v>
       </c>
-      <c r="U120">
+      <c r="U122">
         <v>0.53398000000000001</v>
       </c>
     </row>
-    <row r="121" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O121" s="1" t="s">
+    <row r="123" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O123" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="P121">
+      <c r="P123">
         <v>0.86838000000000004</v>
       </c>
-      <c r="Q121">
+      <c r="Q123">
         <v>0.85431000000000001</v>
       </c>
-      <c r="R121">
+      <c r="R123">
         <v>0.85296000000000005</v>
       </c>
-      <c r="S121">
+      <c r="S123">
         <v>0.62158999999999998</v>
       </c>
-      <c r="T121">
+      <c r="T123">
         <v>0.60536999999999996</v>
       </c>
-      <c r="U121">
+      <c r="U123">
         <v>0.56057999999999997</v>
       </c>
     </row>
-    <row r="122" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O122" s="1" t="s">
+    <row r="124" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O124" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="P122">
+      <c r="P124">
         <v>0.88729999999999998</v>
       </c>
-      <c r="Q122">
+      <c r="Q124">
         <v>0.88104000000000005</v>
       </c>
-      <c r="R122">
+      <c r="R124">
         <v>0.86944999999999995</v>
       </c>
-      <c r="S122">
+      <c r="S124">
         <v>0.67498000000000002</v>
       </c>
-      <c r="T122">
+      <c r="T124">
         <v>0.62228000000000006</v>
       </c>
-      <c r="U122">
+      <c r="U124">
         <v>0.59784000000000004</v>
       </c>
     </row>
-    <row r="123" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O123" s="1" t="s">
+    <row r="125" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O125" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="P123">
+      <c r="P125">
         <v>0.82057000000000002</v>
       </c>
-      <c r="Q123">
+      <c r="Q125">
         <v>0.79564000000000001</v>
       </c>
-      <c r="R123">
+      <c r="R125">
         <v>0.83855999999999997</v>
       </c>
-      <c r="S123">
+      <c r="S125">
         <v>0.69708000000000003</v>
       </c>
-      <c r="T123">
+      <c r="T125">
         <v>0.65627999999999997</v>
       </c>
-      <c r="U123">
+      <c r="U125">
         <v>0.65461999999999998</v>
       </c>
     </row>
-    <row r="124" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O124" s="6" t="s">
+    <row r="126" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O126" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="P124" s="6"/>
-      <c r="Q124" s="6"/>
-      <c r="R124" s="6"/>
-      <c r="S124" s="6" t="s">
+      <c r="P126" s="7"/>
+      <c r="Q126" s="7"/>
+      <c r="R126" s="7"/>
+      <c r="S126" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="T124" s="6"/>
-      <c r="U124" s="6"/>
-      <c r="V124" s="6"/>
-    </row>
-    <row r="125" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O125" s="6" t="s">
+      <c r="T126" s="7"/>
+      <c r="U126" s="7"/>
+      <c r="V126" s="7"/>
+    </row>
+    <row r="127" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O127" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="P125" s="6"/>
-      <c r="Q125" s="6"/>
-      <c r="R125" s="6"/>
-      <c r="S125" s="6" t="s">
+      <c r="P127" s="7"/>
+      <c r="Q127" s="7"/>
+      <c r="R127" s="7"/>
+      <c r="S127" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="T125" s="6"/>
-      <c r="U125" s="6"/>
-      <c r="V125" s="6"/>
-    </row>
-    <row r="126" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O126" s="1" t="s">
+      <c r="T127" s="7"/>
+      <c r="U127" s="7"/>
+      <c r="V127" s="7"/>
+    </row>
+    <row r="128" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O128" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="P126" s="1" t="s">
+      <c r="P128" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="Q126" s="1" t="s">
+      <c r="Q128" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="R126" s="1" t="s">
+      <c r="R128" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="S126" s="1" t="s">
+      <c r="S128" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="T126" s="1" t="s">
+      <c r="T128" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="U126" s="1" t="s">
+      <c r="U128" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="V126" s="1" t="s">
+      <c r="V128" s="1" t="s">
         <v>406</v>
-      </c>
-    </row>
-    <row r="127" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O127" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="P127">
-        <v>0.63119000000000003</v>
-      </c>
-      <c r="Q127">
-        <v>0.47465000000000002</v>
-      </c>
-      <c r="R127">
-        <v>0.47305999999999998</v>
-      </c>
-      <c r="S127" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="T127">
-        <v>0.40679999999999999</v>
-      </c>
-      <c r="U127">
-        <v>0.31435999999999997</v>
-      </c>
-      <c r="V127">
-        <v>0.29899999999999999</v>
-      </c>
-    </row>
-    <row r="128" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O128" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="P128">
-        <v>0.62795000000000001</v>
-      </c>
-      <c r="Q128">
-        <v>0.46004</v>
-      </c>
-      <c r="R128">
-        <v>0.49720999999999999</v>
-      </c>
-      <c r="S128" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="T128">
-        <v>0.46440999999999999</v>
-      </c>
-      <c r="U128">
-        <v>0.32845999999999997</v>
-      </c>
-      <c r="V128">
-        <v>0.32988000000000001</v>
       </c>
     </row>
     <row r="129" spans="15:22" x14ac:dyDescent="0.25">
       <c r="O129" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="P129">
-        <v>0.67910999999999999</v>
+        <v>0.63119000000000003</v>
       </c>
       <c r="Q129">
-        <v>0.54901999999999995</v>
+        <v>0.47465000000000002</v>
       </c>
       <c r="R129">
-        <v>0.54895000000000005</v>
+        <v>0.47305999999999998</v>
       </c>
       <c r="S129" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="T129">
-        <v>0.48081000000000002</v>
+        <v>0.40679999999999999</v>
       </c>
       <c r="U129">
-        <v>0.38762000000000002</v>
+        <v>0.31435999999999997</v>
       </c>
       <c r="V129">
-        <v>0.35004999999999997</v>
+        <v>0.29899999999999999</v>
       </c>
     </row>
     <row r="130" spans="15:22" x14ac:dyDescent="0.25">
       <c r="O130" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="P130">
-        <v>0.70355999999999996</v>
+        <v>0.62795000000000001</v>
       </c>
       <c r="Q130">
-        <v>0.54766999999999999</v>
+        <v>0.46004</v>
       </c>
       <c r="R130">
-        <v>0.57962000000000002</v>
+        <v>0.49720999999999999</v>
       </c>
       <c r="S130" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="T130">
-        <v>0.55174000000000001</v>
+        <v>0.46440999999999999</v>
       </c>
       <c r="U130">
-        <v>0.40284999999999999</v>
+        <v>0.32845999999999997</v>
       </c>
       <c r="V130">
-        <v>0.37895000000000001</v>
+        <v>0.32988000000000001</v>
       </c>
     </row>
     <row r="131" spans="15:22" x14ac:dyDescent="0.25">
       <c r="O131" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="P131">
+        <v>0.67910999999999999</v>
+      </c>
+      <c r="Q131">
+        <v>0.54901999999999995</v>
+      </c>
+      <c r="R131">
+        <v>0.54895000000000005</v>
+      </c>
+      <c r="S131" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="T131">
+        <v>0.48081000000000002</v>
+      </c>
+      <c r="U131">
+        <v>0.38762000000000002</v>
+      </c>
+      <c r="V131">
+        <v>0.35004999999999997</v>
+      </c>
+    </row>
+    <row r="132" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O132" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="P132">
+        <v>0.70355999999999996</v>
+      </c>
+      <c r="Q132">
+        <v>0.54766999999999999</v>
+      </c>
+      <c r="R132">
+        <v>0.57962000000000002</v>
+      </c>
+      <c r="S132" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="T132">
+        <v>0.55174000000000001</v>
+      </c>
+      <c r="U132">
+        <v>0.40284999999999999</v>
+      </c>
+      <c r="V132">
+        <v>0.37895000000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O133" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="P131">
+      <c r="P133">
         <v>0.70960000000000001</v>
       </c>
-      <c r="Q131">
+      <c r="Q133">
         <v>0.70609999999999995</v>
       </c>
-      <c r="R131">
+      <c r="R133">
         <v>0.57425999999999999</v>
       </c>
-      <c r="S131" s="1" t="s">
+      <c r="S133" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="T131">
+      <c r="T133">
         <v>0.49764999999999998</v>
       </c>
-      <c r="U131">
+      <c r="U133">
         <v>0.46243000000000001</v>
       </c>
-      <c r="V131">
+      <c r="V133">
         <v>0.41599999999999998</v>
       </c>
     </row>
-    <row r="132" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O132" s="6" t="s">
+    <row r="134" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O134" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="P132" s="6"/>
-      <c r="Q132" s="6"/>
-      <c r="R132" s="6"/>
-      <c r="S132" s="6" t="s">
+      <c r="P134" s="7"/>
+      <c r="Q134" s="7"/>
+      <c r="R134" s="7"/>
+      <c r="S134" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="T132" s="6"/>
-      <c r="U132" s="6"/>
-      <c r="V132" s="6"/>
-    </row>
-    <row r="133" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O133" s="6" t="s">
+      <c r="T134" s="7"/>
+      <c r="U134" s="7"/>
+      <c r="V134" s="7"/>
+    </row>
+    <row r="135" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O135" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="P133" s="6"/>
-      <c r="Q133" s="6"/>
-      <c r="R133" s="6"/>
-      <c r="S133" s="6" t="s">
+      <c r="P135" s="7"/>
+      <c r="Q135" s="7"/>
+      <c r="R135" s="7"/>
+      <c r="S135" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="T133" s="6"/>
-      <c r="U133" s="6"/>
-      <c r="V133" s="6"/>
-    </row>
-    <row r="134" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O134" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="P134" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="Q134" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="R134" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="S134" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="T134" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="U134" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="V134" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="135" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O135" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="P135">
-        <v>0.54512000000000005</v>
-      </c>
-      <c r="Q135">
-        <v>0.80683000000000005</v>
-      </c>
-      <c r="R135">
-        <v>0.79849000000000003</v>
-      </c>
-      <c r="S135" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="T135">
-        <v>0.43414000000000003</v>
-      </c>
-      <c r="U135">
-        <v>0.53859000000000001</v>
-      </c>
-      <c r="V135">
-        <v>0.49303000000000002</v>
-      </c>
+      <c r="T135" s="7"/>
+      <c r="U135" s="7"/>
+      <c r="V135" s="7"/>
     </row>
     <row r="136" spans="15:22" x14ac:dyDescent="0.25">
       <c r="O136" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="P136">
-        <v>0.74899000000000004</v>
-      </c>
-      <c r="Q136">
-        <v>0.83272000000000002</v>
-      </c>
-      <c r="R136">
-        <v>0.83160999999999996</v>
+        <v>472</v>
+      </c>
+      <c r="P136" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q136" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="R136" s="1" t="s">
+        <v>406</v>
       </c>
       <c r="S136" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="T136">
-        <v>0.57515000000000005</v>
-      </c>
-      <c r="U136">
-        <v>0.57806999999999997</v>
-      </c>
-      <c r="V136">
-        <v>0.53398000000000001</v>
+        <v>472</v>
+      </c>
+      <c r="T136" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="U136" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="V136" s="1" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="137" spans="15:22" x14ac:dyDescent="0.25">
       <c r="O137" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="P137">
-        <v>0.86838000000000004</v>
+        <v>0.54512000000000005</v>
       </c>
       <c r="Q137">
-        <v>0.85431000000000001</v>
+        <v>0.80683000000000005</v>
       </c>
       <c r="R137">
-        <v>0.85296000000000005</v>
+        <v>0.79849000000000003</v>
       </c>
       <c r="S137" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="T137">
-        <v>0.62158999999999998</v>
+        <v>0.43414000000000003</v>
       </c>
       <c r="U137">
-        <v>0.60536999999999996</v>
+        <v>0.53859000000000001</v>
       </c>
       <c r="V137">
-        <v>0.56057999999999997</v>
+        <v>0.49303000000000002</v>
       </c>
     </row>
     <row r="138" spans="15:22" x14ac:dyDescent="0.25">
       <c r="O138" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="P138">
-        <v>0.88729999999999998</v>
+        <v>0.74899000000000004</v>
       </c>
       <c r="Q138">
-        <v>0.88104000000000005</v>
+        <v>0.83272000000000002</v>
       </c>
       <c r="R138">
-        <v>0.86944999999999995</v>
+        <v>0.83160999999999996</v>
       </c>
       <c r="S138" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="T138">
-        <v>0.67498000000000002</v>
+        <v>0.57515000000000005</v>
       </c>
       <c r="U138">
-        <v>0.62228000000000006</v>
+        <v>0.57806999999999997</v>
       </c>
       <c r="V138">
-        <v>0.59784000000000004</v>
+        <v>0.53398000000000001</v>
       </c>
     </row>
     <row r="139" spans="15:22" x14ac:dyDescent="0.25">
       <c r="O139" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="P139">
+        <v>0.86838000000000004</v>
+      </c>
+      <c r="Q139">
+        <v>0.85431000000000001</v>
+      </c>
+      <c r="R139">
+        <v>0.85296000000000005</v>
+      </c>
+      <c r="S139" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="T139">
+        <v>0.62158999999999998</v>
+      </c>
+      <c r="U139">
+        <v>0.60536999999999996</v>
+      </c>
+      <c r="V139">
+        <v>0.56057999999999997</v>
+      </c>
+    </row>
+    <row r="140" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O140" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="P140">
+        <v>0.88729999999999998</v>
+      </c>
+      <c r="Q140">
+        <v>0.88104000000000005</v>
+      </c>
+      <c r="R140">
+        <v>0.86944999999999995</v>
+      </c>
+      <c r="S140" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="T140">
+        <v>0.67498000000000002</v>
+      </c>
+      <c r="U140">
+        <v>0.62228000000000006</v>
+      </c>
+      <c r="V140">
+        <v>0.59784000000000004</v>
+      </c>
+    </row>
+    <row r="141" spans="15:22" x14ac:dyDescent="0.25">
+      <c r="O141" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="P139">
+      <c r="P141">
         <v>0.82057000000000002</v>
       </c>
-      <c r="Q139">
+      <c r="Q141">
         <v>0.79564000000000001</v>
       </c>
-      <c r="R139">
+      <c r="R141">
         <v>0.83855999999999997</v>
       </c>
-      <c r="S139" s="1" t="s">
+      <c r="S141" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="T139">
+      <c r="T141">
         <v>0.69708000000000003</v>
       </c>
-      <c r="U139">
+      <c r="U141">
         <v>0.65627999999999997</v>
       </c>
-      <c r="V139">
+      <c r="V141">
         <v>0.65461999999999998</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="71">
-    <mergeCell ref="O132:R132"/>
-    <mergeCell ref="S132:V132"/>
-    <mergeCell ref="O133:R133"/>
-    <mergeCell ref="S133:V133"/>
-    <mergeCell ref="B92:E92"/>
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="B100:E100"/>
-    <mergeCell ref="B101:E101"/>
-    <mergeCell ref="O124:R124"/>
-    <mergeCell ref="O125:R125"/>
-    <mergeCell ref="S124:V124"/>
-    <mergeCell ref="S125:V125"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="G77:L77"/>
-    <mergeCell ref="G78:L78"/>
-    <mergeCell ref="V51:Z51"/>
-    <mergeCell ref="A71:A76"/>
-    <mergeCell ref="B71:B76"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="A65:A70"/>
-    <mergeCell ref="B65:B70"/>
-    <mergeCell ref="V35:Z35"/>
-    <mergeCell ref="V34:Z34"/>
-    <mergeCell ref="V43:Z43"/>
-    <mergeCell ref="V42:Z42"/>
-    <mergeCell ref="V50:Z50"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="A48:E48"/>
+  <mergeCells count="73">
+    <mergeCell ref="O43:U43"/>
+    <mergeCell ref="O119:U119"/>
+    <mergeCell ref="P85:X85"/>
+    <mergeCell ref="P84:X84"/>
+    <mergeCell ref="P92:X92"/>
+    <mergeCell ref="P93:X93"/>
+    <mergeCell ref="P100:X100"/>
+    <mergeCell ref="P101:X101"/>
+    <mergeCell ref="O111:U111"/>
+    <mergeCell ref="O110:U110"/>
+    <mergeCell ref="O118:U118"/>
+    <mergeCell ref="O75:U75"/>
+    <mergeCell ref="O74:U74"/>
+    <mergeCell ref="O67:U67"/>
+    <mergeCell ref="O50:U50"/>
+    <mergeCell ref="O51:U51"/>
+    <mergeCell ref="O58:U58"/>
+    <mergeCell ref="O59:U59"/>
+    <mergeCell ref="V58:Z58"/>
+    <mergeCell ref="V59:Z59"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="A10:E10"/>
@@ -18328,27 +18422,46 @@
     <mergeCell ref="A24:F24"/>
     <mergeCell ref="O35:U35"/>
     <mergeCell ref="O34:U34"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="V35:Z35"/>
+    <mergeCell ref="V34:Z34"/>
+    <mergeCell ref="V43:Z43"/>
+    <mergeCell ref="V42:Z42"/>
+    <mergeCell ref="V50:Z50"/>
+    <mergeCell ref="V51:Z51"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A65:A70"/>
+    <mergeCell ref="B65:B70"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
     <mergeCell ref="O66:U66"/>
-    <mergeCell ref="O50:U50"/>
-    <mergeCell ref="O51:U51"/>
-    <mergeCell ref="O58:U58"/>
-    <mergeCell ref="O59:U59"/>
-    <mergeCell ref="V58:Z58"/>
-    <mergeCell ref="V59:Z59"/>
-    <mergeCell ref="O43:U43"/>
-    <mergeCell ref="O117:U117"/>
-    <mergeCell ref="P85:X85"/>
-    <mergeCell ref="P84:X84"/>
-    <mergeCell ref="P92:X92"/>
-    <mergeCell ref="P93:X93"/>
-    <mergeCell ref="P100:X100"/>
-    <mergeCell ref="P101:X101"/>
-    <mergeCell ref="O109:U109"/>
-    <mergeCell ref="O108:U108"/>
-    <mergeCell ref="O116:U116"/>
-    <mergeCell ref="O75:U75"/>
-    <mergeCell ref="O74:U74"/>
-    <mergeCell ref="O67:U67"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="G77:L77"/>
+    <mergeCell ref="G78:L78"/>
+    <mergeCell ref="O134:R134"/>
+    <mergeCell ref="S134:V134"/>
+    <mergeCell ref="O135:R135"/>
+    <mergeCell ref="S135:V135"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="B100:E100"/>
+    <mergeCell ref="B101:E101"/>
+    <mergeCell ref="O126:R126"/>
+    <mergeCell ref="O127:R127"/>
+    <mergeCell ref="S126:V126"/>
+    <mergeCell ref="S127:V127"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="A110:F110"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
@@ -18489,13 +18602,13 @@
       <c r="A7" t="s">
         <v>504</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -18601,12 +18714,12 @@
       <c r="A14" t="s">
         <v>504</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">

--- a/plotting/617_temp.xlsx
+++ b/plotting/617_temp.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="549">
   <si>
     <t>.\vgg_unet2_0_3_640_640_64_256_rot_15_345_4_flip_5K\training_32_49_640_640_640_640_max_val_acc\vis\vis_log_181022_0927.txt</t>
   </si>
@@ -1639,6 +1639,33 @@
   </si>
   <si>
     <t>_5</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>ice_concentration_difference</t>
+  </si>
+  <si>
+    <t>combined</t>
+  </si>
+  <si>
+    <t>frazil</t>
+  </si>
+  <si>
+    <t>anchor</t>
+  </si>
+  <si>
+    <t>training_images_ablation</t>
+  </si>
+  <si>
+    <t>selective_pixel_ablation</t>
+  </si>
+  <si>
+    <t>densenet_unet</t>
+  </si>
+  <si>
+    <t>deeplab_unet</t>
   </si>
 </sst>
 </file>
@@ -1714,7 +1741,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1733,6 +1760,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13314,8 +13342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D114" sqref="D114"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G118" sqref="G118:L118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17860,6 +17888,26 @@
       </c>
     </row>
     <row r="118" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="C118" s="9"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="H118" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c r="L118" s="9"/>
       <c r="O118" s="7" t="s">
         <v>434</v>
       </c>
@@ -17871,6 +17919,22 @@
       <c r="U118" s="7"/>
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A119" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c r="C119" s="7"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7"/>
+      <c r="G119" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="H119" s="7"/>
+      <c r="I119" s="7"/>
+      <c r="J119" s="7"/>
+      <c r="K119" s="7"/>
+      <c r="L119" s="7"/>
       <c r="O119" s="7" t="s">
         <v>461</v>
       </c>
@@ -17882,6 +17946,36 @@
       <c r="U119" s="7"/>
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120">
+        <v>2</v>
+      </c>
+      <c r="D120">
+        <v>3</v>
+      </c>
+      <c r="E120">
+        <v>4</v>
+      </c>
+      <c r="F120">
+        <v>5</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="H120" s="9">
+        <v>1</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9">
+        <v>2</v>
+      </c>
+      <c r="L120" s="9"/>
       <c r="O120" s="1" t="s">
         <v>472</v>
       </c>
@@ -17905,6 +17999,36 @@
       </c>
     </row>
     <row r="121" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <v>2</v>
+      </c>
+      <c r="D121">
+        <v>3</v>
+      </c>
+      <c r="E121">
+        <v>4</v>
+      </c>
+      <c r="F121">
+        <v>5</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H121" s="9">
+        <v>1</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9">
+        <v>2</v>
+      </c>
+      <c r="L121" s="9"/>
       <c r="O121" s="1" t="s">
         <v>457</v>
       </c>
@@ -17928,6 +18052,36 @@
       </c>
     </row>
     <row r="122" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>2</v>
+      </c>
+      <c r="D122">
+        <v>3</v>
+      </c>
+      <c r="E122">
+        <v>4</v>
+      </c>
+      <c r="F122">
+        <v>5</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="H122" s="9">
+        <v>1</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9">
+        <v>2</v>
+      </c>
+      <c r="L122" s="9"/>
       <c r="O122" s="1" t="s">
         <v>458</v>
       </c>
@@ -17951,6 +18105,22 @@
       </c>
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A123" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c r="C123" s="7"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="7"/>
+      <c r="G123" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="H123" s="7"/>
+      <c r="I123" s="7"/>
+      <c r="J123" s="7"/>
+      <c r="K123" s="7"/>
+      <c r="L123" s="7"/>
       <c r="O123" s="1" t="s">
         <v>459</v>
       </c>
@@ -17974,6 +18144,38 @@
       </c>
     </row>
     <row r="124" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124">
+        <v>2</v>
+      </c>
+      <c r="D124">
+        <v>3</v>
+      </c>
+      <c r="E124">
+        <v>4</v>
+      </c>
+      <c r="F124">
+        <v>5</v>
+      </c>
+      <c r="G124" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="H124">
+        <v>1</v>
+      </c>
+      <c r="I124" s="9">
+        <v>2</v>
+      </c>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9">
+        <v>3</v>
+      </c>
+      <c r="L124" s="9"/>
       <c r="O124" s="1" t="s">
         <v>460</v>
       </c>
@@ -17997,6 +18199,40 @@
       </c>
     </row>
     <row r="125" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="C125">
+        <v>2</v>
+      </c>
+      <c r="D125">
+        <v>3</v>
+      </c>
+      <c r="E125">
+        <v>4</v>
+      </c>
+      <c r="F125">
+        <v>5</v>
+      </c>
+      <c r="G125" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="H125">
+        <v>1</v>
+      </c>
+      <c r="I125">
+        <v>2</v>
+      </c>
+      <c r="J125">
+        <v>3</v>
+      </c>
+      <c r="K125" s="9">
+        <v>4</v>
+      </c>
+      <c r="L125" s="9"/>
       <c r="O125" s="1" t="s">
         <v>463</v>
       </c>
@@ -18388,7 +18624,22 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="73">
+  <mergeCells count="88">
+    <mergeCell ref="G123:L123"/>
+    <mergeCell ref="K125:L125"/>
+    <mergeCell ref="K124:L124"/>
+    <mergeCell ref="I124:J124"/>
+    <mergeCell ref="H118:L118"/>
+    <mergeCell ref="H121:J121"/>
+    <mergeCell ref="K121:L121"/>
+    <mergeCell ref="H122:J122"/>
+    <mergeCell ref="K122:L122"/>
+    <mergeCell ref="G119:L119"/>
+    <mergeCell ref="B118:F118"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="K120:L120"/>
+    <mergeCell ref="H120:J120"/>
     <mergeCell ref="O43:U43"/>
     <mergeCell ref="O119:U119"/>
     <mergeCell ref="P85:X85"/>

--- a/plotting/617_temp.xlsx
+++ b/plotting/617_temp.xlsx
@@ -1605,18 +1605,6 @@
     <t>Mean Frazil Ice Concentration Difference Between Consecutive Frames</t>
   </si>
   <si>
-    <t>Selective pixel ablation recall for frazil Ice</t>
-  </si>
-  <si>
-    <t>Selective pixel ablation precision for frazil Ice</t>
-  </si>
-  <si>
-    <t>Selective pixel ablation recall for anchor Ice</t>
-  </si>
-  <si>
-    <t>Selective pixel ablation precision for anchor Ice</t>
-  </si>
-  <si>
     <t>20160121_YUN00001_3600</t>
   </si>
   <si>
@@ -1666,6 +1654,18 @@
   </si>
   <si>
     <t>deeplab_unet</t>
+  </si>
+  <si>
+    <t>(a) Anchor Ice Recall</t>
+  </si>
+  <si>
+    <t>(b) Anchor Ice Precision</t>
+  </si>
+  <si>
+    <t>(c) Frazil Ice Recall</t>
+  </si>
+  <si>
+    <t>(d) Frazil Ice Precision</t>
   </si>
 </sst>
 </file>
@@ -1729,7 +1729,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1737,18 +1737,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1760,7 +1784,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7502,13 +7525,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -7847,13 +7870,13 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -8126,13 +8149,13 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -8405,13 +8428,13 @@
       </c>
     </row>
     <row r="71" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="6" t="s">
+      <c r="A71" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
@@ -8639,13 +8662,13 @@
       </c>
     </row>
     <row r="89" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" s="6" t="s">
+      <c r="A89" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
@@ -8873,13 +8896,13 @@
       </c>
     </row>
     <row r="108" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A108" s="6" t="s">
+      <c r="A108" s="9" t="s">
         <v>410</v>
       </c>
-      <c r="B108" s="6"/>
-      <c r="C108" s="6"/>
-      <c r="D108" s="6"/>
-      <c r="E108" s="6"/>
+      <c r="B108" s="9"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
@@ -9107,13 +9130,13 @@
       </c>
     </row>
     <row r="126" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A126" s="6" t="s">
+      <c r="A126" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="B126" s="6"/>
-      <c r="C126" s="6"/>
-      <c r="D126" s="6"/>
-      <c r="E126" s="6"/>
+      <c r="B126" s="9"/>
+      <c r="C126" s="9"/>
+      <c r="D126" s="9"/>
+      <c r="E126" s="9"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
@@ -9566,13 +9589,13 @@
       </c>
     </row>
     <row r="162" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A162" s="6" t="s">
+      <c r="A162" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="B162" s="6"/>
-      <c r="C162" s="6"/>
-      <c r="D162" s="6"/>
-      <c r="E162" s="6"/>
+      <c r="B162" s="9"/>
+      <c r="C162" s="9"/>
+      <c r="D162" s="9"/>
+      <c r="E162" s="9"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
@@ -10070,13 +10093,13 @@
       </c>
     </row>
     <row r="199" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A199" s="6" t="s">
+      <c r="A199" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="B199" s="6"/>
-      <c r="C199" s="6"/>
-      <c r="D199" s="6"/>
-      <c r="E199" s="6"/>
+      <c r="B199" s="9"/>
+      <c r="C199" s="9"/>
+      <c r="D199" s="9"/>
+      <c r="E199" s="9"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
@@ -10574,13 +10597,13 @@
       </c>
     </row>
     <row r="238" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A238" s="6" t="s">
+      <c r="A238" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="B238" s="6"/>
-      <c r="C238" s="6"/>
-      <c r="D238" s="6"/>
-      <c r="E238" s="6"/>
+      <c r="B238" s="9"/>
+      <c r="C238" s="9"/>
+      <c r="D238" s="9"/>
+      <c r="E238" s="9"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
@@ -11393,13 +11416,13 @@
       </c>
     </row>
     <row r="300" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A300" s="6" t="s">
+      <c r="A300" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="B300" s="6"/>
-      <c r="C300" s="6"/>
-      <c r="D300" s="6"/>
-      <c r="E300" s="6"/>
+      <c r="B300" s="9"/>
+      <c r="C300" s="9"/>
+      <c r="D300" s="9"/>
+      <c r="E300" s="9"/>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
@@ -12763,17 +12786,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A300:E300"/>
-    <mergeCell ref="A238:E238"/>
-    <mergeCell ref="A199:E199"/>
-    <mergeCell ref="A162:E162"/>
-    <mergeCell ref="A126:E126"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A52:E52"/>
     <mergeCell ref="A71:E71"/>
     <mergeCell ref="A89:E89"/>
     <mergeCell ref="A108:E108"/>
     <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A300:E300"/>
+    <mergeCell ref="A238:E238"/>
+    <mergeCell ref="A199:E199"/>
+    <mergeCell ref="A162:E162"/>
+    <mergeCell ref="A126:E126"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
@@ -13342,8 +13365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G118" sqref="G118:L118"/>
+    <sheetView tabSelected="1" topLeftCell="I121" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="T136" sqref="T136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13356,13 +13379,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="12" t="s">
         <v>413</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -13476,22 +13499,22 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="12" t="s">
         <v>420</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="12" t="s">
         <v>421</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -13644,14 +13667,14 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="12" t="s">
         <v>413</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
       <c r="J17">
         <v>0.67832000000000003</v>
       </c>
@@ -13666,14 +13689,14 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="12" t="s">
         <v>444</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -13884,14 +13907,14 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="13" t="s">
         <v>420</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
       <c r="J24">
         <v>0.43318000000000001</v>
       </c>
@@ -13918,14 +13941,14 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="12" t="s">
         <v>445</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -14102,72 +14125,72 @@
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="12" t="s">
         <v>413</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="H34" s="7" t="s">
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="H34" s="12" t="s">
         <v>434</v>
       </c>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="O34" s="7" t="s">
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="O34" s="12" t="s">
         <v>434</v>
       </c>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="7"/>
-      <c r="T34" s="7"/>
-      <c r="U34" s="7"/>
-      <c r="V34" s="7" t="s">
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12" t="s">
         <v>507</v>
       </c>
-      <c r="W34" s="7"/>
-      <c r="X34" s="7"/>
-      <c r="Y34" s="7"/>
-      <c r="Z34" s="7"/>
+      <c r="W34" s="12"/>
+      <c r="X34" s="12"/>
+      <c r="Y34" s="12"/>
+      <c r="Z34" s="12"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="12" t="s">
         <v>432</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="H35" s="7" t="s">
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="H35" s="12" t="s">
         <v>435</v>
       </c>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="O35" s="7" t="s">
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="O35" s="12" t="s">
         <v>435</v>
       </c>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
-      <c r="S35" s="7"/>
-      <c r="T35" s="7"/>
-      <c r="U35" s="7"/>
-      <c r="V35" s="7" t="s">
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="12" t="s">
         <v>513</v>
       </c>
-      <c r="W35" s="7"/>
-      <c r="X35" s="7"/>
-      <c r="Y35" s="7"/>
-      <c r="Z35" s="7"/>
+      <c r="W35" s="12"/>
+      <c r="X35" s="12"/>
+      <c r="Y35" s="12"/>
+      <c r="Z35" s="12"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -14540,14 +14563,14 @@
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="12" t="s">
         <v>424</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
       <c r="H41" s="1" t="s">
         <v>416</v>
       </c>
@@ -14604,14 +14627,14 @@
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="12" t="s">
         <v>433</v>
       </c>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
       <c r="H42" s="1" t="s">
         <v>417</v>
       </c>
@@ -14630,22 +14653,22 @@
       <c r="M42">
         <v>0.63066</v>
       </c>
-      <c r="O42" s="7" t="s">
+      <c r="O42" s="12" t="s">
         <v>434</v>
       </c>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="7"/>
-      <c r="R42" s="7"/>
-      <c r="S42" s="7"/>
-      <c r="T42" s="7"/>
-      <c r="U42" s="7"/>
-      <c r="V42" s="7" t="s">
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="12" t="s">
         <v>511</v>
       </c>
-      <c r="W42" s="7"/>
-      <c r="X42" s="7"/>
-      <c r="Y42" s="7"/>
-      <c r="Z42" s="7"/>
+      <c r="W42" s="12"/>
+      <c r="X42" s="12"/>
+      <c r="Y42" s="12"/>
+      <c r="Z42" s="12"/>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
@@ -14684,22 +14707,22 @@
       <c r="M43">
         <v>0.65837000000000001</v>
       </c>
-      <c r="O43" s="7" t="s">
+      <c r="O43" s="12" t="s">
         <v>442</v>
       </c>
-      <c r="P43" s="7"/>
-      <c r="Q43" s="7"/>
-      <c r="R43" s="7"/>
-      <c r="S43" s="7"/>
-      <c r="T43" s="7"/>
-      <c r="U43" s="7"/>
-      <c r="V43" s="7" t="s">
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="12" t="s">
         <v>514</v>
       </c>
-      <c r="W43" s="7"/>
-      <c r="X43" s="7"/>
-      <c r="Y43" s="7"/>
-      <c r="Z43" s="7"/>
+      <c r="W43" s="12"/>
+      <c r="X43" s="12"/>
+      <c r="Y43" s="12"/>
+      <c r="Z43" s="12"/>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
@@ -14948,13 +14971,13 @@
       </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="12" t="s">
         <v>506</v>
       </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
       <c r="F48" s="2"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
@@ -14996,13 +15019,13 @@
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="12" t="s">
         <v>505</v>
       </c>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
       <c r="O49" s="1" t="s">
         <v>437</v>
       </c>
@@ -15056,22 +15079,22 @@
       <c r="E50" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="O50" s="7" t="s">
+      <c r="O50" s="12" t="s">
         <v>434</v>
       </c>
-      <c r="P50" s="7"/>
-      <c r="Q50" s="7"/>
-      <c r="R50" s="7"/>
-      <c r="S50" s="7"/>
-      <c r="T50" s="7"/>
-      <c r="U50" s="7"/>
-      <c r="V50" s="7" t="s">
+      <c r="P50" s="12"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="12"/>
+      <c r="S50" s="12"/>
+      <c r="T50" s="12"/>
+      <c r="U50" s="12"/>
+      <c r="V50" s="12" t="s">
         <v>507</v>
       </c>
-      <c r="W50" s="7"/>
-      <c r="X50" s="7"/>
-      <c r="Y50" s="7"/>
-      <c r="Z50" s="7"/>
+      <c r="W50" s="12"/>
+      <c r="X50" s="12"/>
+      <c r="Y50" s="12"/>
+      <c r="Z50" s="12"/>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
@@ -15089,22 +15112,22 @@
       <c r="E51">
         <v>0.63066</v>
       </c>
-      <c r="O51" s="7" t="s">
+      <c r="O51" s="12" t="s">
         <v>446</v>
       </c>
-      <c r="P51" s="7"/>
-      <c r="Q51" s="7"/>
-      <c r="R51" s="7"/>
-      <c r="S51" s="7"/>
-      <c r="T51" s="7"/>
-      <c r="U51" s="7"/>
-      <c r="V51" s="7" t="s">
+      <c r="P51" s="12"/>
+      <c r="Q51" s="12"/>
+      <c r="R51" s="12"/>
+      <c r="S51" s="12"/>
+      <c r="T51" s="12"/>
+      <c r="U51" s="12"/>
+      <c r="V51" s="12" t="s">
         <v>515</v>
       </c>
-      <c r="W51" s="7"/>
-      <c r="X51" s="7"/>
-      <c r="Y51" s="7"/>
-      <c r="Z51" s="7"/>
+      <c r="W51" s="12"/>
+      <c r="X51" s="12"/>
+      <c r="Y51" s="12"/>
+      <c r="Z51" s="12"/>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -15319,20 +15342,20 @@
       </c>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="12" t="s">
         <v>507</v>
       </c>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7" t="s">
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12" t="s">
         <v>511</v>
       </c>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
       <c r="O56" s="1" t="s">
         <v>438</v>
       </c>
@@ -15371,20 +15394,20 @@
       </c>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="12" t="s">
         <v>508</v>
       </c>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7" t="s">
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12" t="s">
         <v>512</v>
       </c>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
       <c r="O57" s="1" t="s">
         <v>437</v>
       </c>
@@ -15453,22 +15476,22 @@
       <c r="J58" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="O58" s="7" t="s">
+      <c r="O58" s="12" t="s">
         <v>434</v>
       </c>
-      <c r="P58" s="7"/>
-      <c r="Q58" s="7"/>
-      <c r="R58" s="7"/>
-      <c r="S58" s="7"/>
-      <c r="T58" s="7"/>
-      <c r="U58" s="7"/>
-      <c r="V58" s="7" t="s">
+      <c r="P58" s="12"/>
+      <c r="Q58" s="12"/>
+      <c r="R58" s="12"/>
+      <c r="S58" s="12"/>
+      <c r="T58" s="12"/>
+      <c r="U58" s="12"/>
+      <c r="V58" s="12" t="s">
         <v>511</v>
       </c>
-      <c r="W58" s="7"/>
-      <c r="X58" s="7"/>
-      <c r="Y58" s="7"/>
-      <c r="Z58" s="7"/>
+      <c r="W58" s="12"/>
+      <c r="X58" s="12"/>
+      <c r="Y58" s="12"/>
+      <c r="Z58" s="12"/>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
@@ -15501,22 +15524,22 @@
       <c r="J59">
         <v>0.76844000000000001</v>
       </c>
-      <c r="O59" s="7" t="s">
+      <c r="O59" s="12" t="s">
         <v>447</v>
       </c>
-      <c r="P59" s="7"/>
-      <c r="Q59" s="7"/>
-      <c r="R59" s="7"/>
-      <c r="S59" s="7"/>
-      <c r="T59" s="7"/>
-      <c r="U59" s="7"/>
-      <c r="V59" s="7" t="s">
+      <c r="P59" s="12"/>
+      <c r="Q59" s="12"/>
+      <c r="R59" s="12"/>
+      <c r="S59" s="12"/>
+      <c r="T59" s="12"/>
+      <c r="U59" s="12"/>
+      <c r="V59" s="12" t="s">
         <v>516</v>
       </c>
-      <c r="W59" s="7"/>
-      <c r="X59" s="7"/>
-      <c r="Y59" s="7"/>
-      <c r="Z59" s="7"/>
+      <c r="W59" s="12"/>
+      <c r="X59" s="12"/>
+      <c r="Y59" s="12"/>
+      <c r="Z59" s="12"/>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
@@ -15829,10 +15852,10 @@
       </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="12" t="s">
         <v>413</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="12" t="s">
         <v>444</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -15888,8 +15911,8 @@
       </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
+      <c r="A66" s="12"/>
+      <c r="B66" s="12"/>
       <c r="C66" s="1" t="s">
         <v>412</v>
       </c>
@@ -15905,19 +15928,19 @@
       <c r="G66">
         <v>0.84930000000000005</v>
       </c>
-      <c r="O66" s="7" t="s">
+      <c r="O66" s="12" t="s">
         <v>434</v>
       </c>
-      <c r="P66" s="7"/>
-      <c r="Q66" s="7"/>
-      <c r="R66" s="7"/>
-      <c r="S66" s="7"/>
-      <c r="T66" s="7"/>
-      <c r="U66" s="7"/>
+      <c r="P66" s="12"/>
+      <c r="Q66" s="12"/>
+      <c r="R66" s="12"/>
+      <c r="S66" s="12"/>
+      <c r="T66" s="12"/>
+      <c r="U66" s="12"/>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A67" s="7"/>
-      <c r="B67" s="7"/>
+      <c r="A67" s="12"/>
+      <c r="B67" s="12"/>
       <c r="C67" s="1" t="s">
         <v>405</v>
       </c>
@@ -15933,19 +15956,19 @@
       <c r="G67">
         <v>0.90871000000000002</v>
       </c>
-      <c r="O67" s="7" t="s">
+      <c r="O67" s="12" t="s">
         <v>448</v>
       </c>
-      <c r="P67" s="7"/>
-      <c r="Q67" s="7"/>
-      <c r="R67" s="7"/>
-      <c r="S67" s="7"/>
-      <c r="T67" s="7"/>
-      <c r="U67" s="7"/>
+      <c r="P67" s="12"/>
+      <c r="Q67" s="12"/>
+      <c r="R67" s="12"/>
+      <c r="S67" s="12"/>
+      <c r="T67" s="12"/>
+      <c r="U67" s="12"/>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A68" s="7"/>
-      <c r="B68" s="7"/>
+      <c r="A68" s="12"/>
+      <c r="B68" s="12"/>
       <c r="C68" s="1" t="s">
         <v>404</v>
       </c>
@@ -15984,8 +16007,8 @@
       </c>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A69" s="7"/>
-      <c r="B69" s="7"/>
+      <c r="A69" s="12"/>
+      <c r="B69" s="12"/>
       <c r="C69" s="1" t="s">
         <v>406</v>
       </c>
@@ -16024,8 +16047,8 @@
       </c>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A70" s="7"/>
-      <c r="B70" s="7"/>
+      <c r="A70" s="12"/>
+      <c r="B70" s="12"/>
       <c r="C70" s="1" t="s">
         <v>403</v>
       </c>
@@ -16064,10 +16087,10 @@
       </c>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A71" s="8" t="s">
+      <c r="A71" s="13" t="s">
         <v>420</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="12" t="s">
         <v>445</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -16108,8 +16131,8 @@
       </c>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A72" s="7"/>
-      <c r="B72" s="7"/>
+      <c r="A72" s="12"/>
+      <c r="B72" s="12"/>
       <c r="C72" s="1" t="s">
         <v>412</v>
       </c>
@@ -16148,8 +16171,8 @@
       </c>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A73" s="7"/>
-      <c r="B73" s="7"/>
+      <c r="A73" s="12"/>
+      <c r="B73" s="12"/>
       <c r="C73" s="1" t="s">
         <v>405</v>
       </c>
@@ -16188,8 +16211,8 @@
       </c>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A74" s="7"/>
-      <c r="B74" s="7"/>
+      <c r="A74" s="12"/>
+      <c r="B74" s="12"/>
       <c r="C74" s="1" t="s">
         <v>404</v>
       </c>
@@ -16205,19 +16228,19 @@
       <c r="G74">
         <v>0.81733</v>
       </c>
-      <c r="O74" s="7" t="s">
+      <c r="O74" s="12" t="s">
         <v>434</v>
       </c>
-      <c r="P74" s="7"/>
-      <c r="Q74" s="7"/>
-      <c r="R74" s="7"/>
-      <c r="S74" s="7"/>
-      <c r="T74" s="7"/>
-      <c r="U74" s="7"/>
+      <c r="P74" s="12"/>
+      <c r="Q74" s="12"/>
+      <c r="R74" s="12"/>
+      <c r="S74" s="12"/>
+      <c r="T74" s="12"/>
+      <c r="U74" s="12"/>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A75" s="7"/>
-      <c r="B75" s="7"/>
+      <c r="A75" s="12"/>
+      <c r="B75" s="12"/>
       <c r="C75" s="1" t="s">
         <v>406</v>
       </c>
@@ -16233,19 +16256,19 @@
       <c r="G75">
         <v>0.77490000000000003</v>
       </c>
-      <c r="O75" s="7" t="s">
+      <c r="O75" s="12" t="s">
         <v>449</v>
       </c>
-      <c r="P75" s="7"/>
-      <c r="Q75" s="7"/>
-      <c r="R75" s="7"/>
-      <c r="S75" s="7"/>
-      <c r="T75" s="7"/>
-      <c r="U75" s="7"/>
+      <c r="P75" s="12"/>
+      <c r="Q75" s="12"/>
+      <c r="R75" s="12"/>
+      <c r="S75" s="12"/>
+      <c r="T75" s="12"/>
+      <c r="U75" s="12"/>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A76" s="7"/>
-      <c r="B76" s="7"/>
+      <c r="A76" s="12"/>
+      <c r="B76" s="12"/>
       <c r="C76" s="1" t="s">
         <v>403</v>
       </c>
@@ -16284,22 +16307,22 @@
       </c>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A77" s="7" t="s">
+      <c r="A77" s="12" t="s">
         <v>507</v>
       </c>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7" t="s">
+      <c r="B77" s="12"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12" t="s">
         <v>511</v>
       </c>
-      <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="7"/>
-      <c r="K77" s="7"/>
-      <c r="L77" s="7"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="12"/>
+      <c r="L77" s="12"/>
       <c r="O77" t="s">
         <v>436</v>
       </c>
@@ -16323,22 +16346,22 @@
       </c>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A78" s="7" t="s">
+      <c r="A78" s="12" t="s">
         <v>508</v>
       </c>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7" t="s">
+      <c r="B78" s="12"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12" t="s">
         <v>512</v>
       </c>
-      <c r="H78" s="7"/>
-      <c r="I78" s="7"/>
-      <c r="J78" s="7"/>
-      <c r="K78" s="7"/>
-      <c r="L78" s="7"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="12"/>
+      <c r="L78" s="12"/>
       <c r="O78" t="s">
         <v>440</v>
       </c>
@@ -16615,59 +16638,59 @@
       </c>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B84" s="7" t="s">
+      <c r="B84" s="12" t="s">
         <v>524</v>
       </c>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
-      <c r="P84" s="7" t="s">
+      <c r="P84" s="12" t="s">
         <v>434</v>
       </c>
-      <c r="Q84" s="7"/>
-      <c r="R84" s="7"/>
-      <c r="S84" s="7"/>
-      <c r="T84" s="7"/>
-      <c r="U84" s="7"/>
-      <c r="V84" s="7"/>
-      <c r="W84" s="7"/>
-      <c r="X84" s="7"/>
+      <c r="Q84" s="12"/>
+      <c r="R84" s="12"/>
+      <c r="S84" s="12"/>
+      <c r="T84" s="12"/>
+      <c r="U84" s="12"/>
+      <c r="V84" s="12"/>
+      <c r="W84" s="12"/>
+      <c r="X84" s="12"/>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B85" s="7" t="s">
+      <c r="B85" s="12" t="s">
         <v>525</v>
       </c>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
       <c r="F85" s="1" t="s">
         <v>523</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="H85" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I85" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="J85" t="s">
-        <v>536</v>
-      </c>
-      <c r="P85" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="P85" s="12" t="s">
         <v>454</v>
       </c>
-      <c r="Q85" s="7"/>
-      <c r="R85" s="7"/>
-      <c r="S85" s="7"/>
-      <c r="T85" s="7"/>
-      <c r="U85" s="7"/>
-      <c r="V85" s="7"/>
-      <c r="W85" s="7"/>
-      <c r="X85" s="7"/>
+      <c r="Q85" s="12"/>
+      <c r="R85" s="12"/>
+      <c r="S85" s="12"/>
+      <c r="T85" s="12"/>
+      <c r="U85" s="12"/>
+      <c r="V85" s="12"/>
+      <c r="W85" s="12"/>
+      <c r="X85" s="12"/>
     </row>
     <row r="86" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
@@ -16733,7 +16756,7 @@
         <v>517</v>
       </c>
       <c r="B87" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C87">
         <v>2.5178015658025799</v>
@@ -16851,7 +16874,7 @@
         <v>519</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C89">
         <v>1.2235413881447299</v>
@@ -16925,7 +16948,7 @@
         <v>5</v>
       </c>
       <c r="G90" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="H90">
         <v>3600</v>
@@ -16966,10 +16989,10 @@
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C91">
         <v>1.4617734433154399</v>
@@ -17009,42 +17032,42 @@
       </c>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B92" s="7" t="s">
+      <c r="B92" s="12" t="s">
         <v>524</v>
       </c>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="P92" s="7" t="s">
+      <c r="C92" s="12"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12"/>
+      <c r="P92" s="12" t="s">
         <v>434</v>
       </c>
-      <c r="Q92" s="7"/>
-      <c r="R92" s="7"/>
-      <c r="S92" s="7"/>
-      <c r="T92" s="7"/>
-      <c r="U92" s="7"/>
-      <c r="V92" s="7"/>
-      <c r="W92" s="7"/>
-      <c r="X92" s="7"/>
+      <c r="Q92" s="12"/>
+      <c r="R92" s="12"/>
+      <c r="S92" s="12"/>
+      <c r="T92" s="12"/>
+      <c r="U92" s="12"/>
+      <c r="V92" s="12"/>
+      <c r="W92" s="12"/>
+      <c r="X92" s="12"/>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B93" s="7" t="s">
+      <c r="B93" s="12" t="s">
         <v>527</v>
       </c>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="P93" s="7" t="s">
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+      <c r="P93" s="12" t="s">
         <v>462</v>
       </c>
-      <c r="Q93" s="7"/>
-      <c r="R93" s="7"/>
-      <c r="S93" s="7"/>
-      <c r="T93" s="7"/>
-      <c r="U93" s="7"/>
-      <c r="V93" s="7"/>
-      <c r="W93" s="7"/>
-      <c r="X93" s="7"/>
+      <c r="Q93" s="12"/>
+      <c r="R93" s="12"/>
+      <c r="S93" s="12"/>
+      <c r="T93" s="12"/>
+      <c r="U93" s="12"/>
+      <c r="V93" s="12"/>
+      <c r="W93" s="12"/>
+      <c r="X93" s="12"/>
     </row>
     <row r="94" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
@@ -17095,7 +17118,7 @@
         <v>517</v>
       </c>
       <c r="B95" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C95">
         <v>2.8450692597460598</v>
@@ -17183,7 +17206,7 @@
         <v>519</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C97">
         <v>1.6576068159758599</v>
@@ -17271,7 +17294,7 @@
         <v>522</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C99">
         <v>2.0011688069696598</v>
@@ -17314,43 +17337,43 @@
       <c r="A100" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="B100" s="7" t="s">
+      <c r="B100" s="12" t="s">
         <v>524</v>
       </c>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="7"/>
-      <c r="P100" s="7" t="s">
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="P100" s="12" t="s">
         <v>434</v>
       </c>
-      <c r="Q100" s="7"/>
-      <c r="R100" s="7"/>
-      <c r="S100" s="7"/>
-      <c r="T100" s="7"/>
-      <c r="U100" s="7"/>
-      <c r="V100" s="7"/>
-      <c r="W100" s="7"/>
-      <c r="X100" s="7"/>
+      <c r="Q100" s="12"/>
+      <c r="R100" s="12"/>
+      <c r="S100" s="12"/>
+      <c r="T100" s="12"/>
+      <c r="U100" s="12"/>
+      <c r="V100" s="12"/>
+      <c r="W100" s="12"/>
+      <c r="X100" s="12"/>
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
-      <c r="B101" s="7" t="s">
+      <c r="B101" s="12" t="s">
         <v>526</v>
       </c>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
-      <c r="P101" s="7" t="s">
+      <c r="C101" s="12"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="12"/>
+      <c r="P101" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="Q101" s="7"/>
-      <c r="R101" s="7"/>
-      <c r="S101" s="7"/>
-      <c r="T101" s="7"/>
-      <c r="U101" s="7"/>
-      <c r="V101" s="7"/>
-      <c r="W101" s="7"/>
-      <c r="X101" s="7"/>
+      <c r="Q101" s="12"/>
+      <c r="R101" s="12"/>
+      <c r="S101" s="12"/>
+      <c r="T101" s="12"/>
+      <c r="U101" s="12"/>
+      <c r="V101" s="12"/>
+      <c r="W101" s="12"/>
+      <c r="X101" s="12"/>
     </row>
     <row r="102" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
@@ -17399,7 +17422,7 @@
         <v>517</v>
       </c>
       <c r="B103" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C103">
         <v>2.78505026958993</v>
@@ -17487,7 +17510,7 @@
         <v>519</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C105">
         <v>1.5569445865201099</v>
@@ -17575,7 +17598,7 @@
         <v>522</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C107">
         <v>1.7417025334862299</v>
@@ -17618,33 +17641,33 @@
       <c r="B108" s="1"/>
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A109" s="7" t="s">
+      <c r="A109" s="12" t="s">
         <v>507</v>
       </c>
-      <c r="B109" s="7"/>
-      <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="7"/>
-      <c r="F109" s="7"/>
+      <c r="B109" s="12"/>
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="12"/>
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A110" s="7" t="s">
+      <c r="A110" s="12" t="s">
         <v>508</v>
       </c>
-      <c r="B110" s="7"/>
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="7"/>
-      <c r="O110" s="7" t="s">
+      <c r="B110" s="12"/>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="12"/>
+      <c r="O110" s="12" t="s">
         <v>434</v>
       </c>
-      <c r="P110" s="7"/>
-      <c r="Q110" s="7"/>
-      <c r="R110" s="7"/>
-      <c r="S110" s="7"/>
-      <c r="T110" s="7"/>
-      <c r="U110" s="7"/>
+      <c r="P110" s="12"/>
+      <c r="Q110" s="12"/>
+      <c r="R110" s="12"/>
+      <c r="S110" s="12"/>
+      <c r="T110" s="12"/>
+      <c r="U110" s="12"/>
       <c r="V110" s="2"/>
       <c r="W110" s="2"/>
     </row>
@@ -17667,15 +17690,15 @@
       <c r="F111" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="O111" s="7" t="s">
+      <c r="O111" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="P111" s="7"/>
-      <c r="Q111" s="7"/>
-      <c r="R111" s="7"/>
-      <c r="S111" s="7"/>
-      <c r="T111" s="7"/>
-      <c r="U111" s="7"/>
+      <c r="P111" s="12"/>
+      <c r="Q111" s="12"/>
+      <c r="R111" s="12"/>
+      <c r="S111" s="12"/>
+      <c r="T111" s="12"/>
+      <c r="U111" s="12"/>
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
@@ -17888,94 +17911,94 @@
       </c>
     </row>
     <row r="118" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="B118" s="9" t="s">
+      <c r="A118" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="B118" s="10" t="s">
         <v>523</v>
       </c>
-      <c r="C118" s="9"/>
-      <c r="D118" s="9"/>
-      <c r="E118" s="9"/>
-      <c r="F118" s="9"/>
-      <c r="G118" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="H118" s="9" t="s">
+      <c r="C118" s="10"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="10"/>
+      <c r="F118" s="10"/>
+      <c r="G118" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="H118" s="11" t="s">
         <v>523</v>
       </c>
-      <c r="I118" s="9"/>
-      <c r="J118" s="9"/>
-      <c r="K118" s="9"/>
-      <c r="L118" s="9"/>
-      <c r="O118" s="7" t="s">
+      <c r="I118" s="11"/>
+      <c r="J118" s="11"/>
+      <c r="K118" s="11"/>
+      <c r="L118" s="11"/>
+      <c r="O118" s="12" t="s">
         <v>434</v>
       </c>
-      <c r="P118" s="7"/>
-      <c r="Q118" s="7"/>
-      <c r="R118" s="7"/>
-      <c r="S118" s="7"/>
-      <c r="T118" s="7"/>
-      <c r="U118" s="7"/>
+      <c r="P118" s="12"/>
+      <c r="Q118" s="12"/>
+      <c r="R118" s="12"/>
+      <c r="S118" s="12"/>
+      <c r="T118" s="12"/>
+      <c r="U118" s="12"/>
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A119" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="B119" s="7"/>
-      <c r="C119" s="7"/>
-      <c r="D119" s="7"/>
-      <c r="E119" s="7"/>
-      <c r="F119" s="7"/>
-      <c r="G119" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="H119" s="7"/>
-      <c r="I119" s="7"/>
-      <c r="J119" s="7"/>
-      <c r="K119" s="7"/>
-      <c r="L119" s="7"/>
-      <c r="O119" s="7" t="s">
+      <c r="A119" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="B119" s="10"/>
+      <c r="C119" s="10"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="10"/>
+      <c r="F119" s="10"/>
+      <c r="G119" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="H119" s="10"/>
+      <c r="I119" s="10"/>
+      <c r="J119" s="10"/>
+      <c r="K119" s="10"/>
+      <c r="L119" s="10"/>
+      <c r="O119" s="12" t="s">
         <v>461</v>
       </c>
-      <c r="P119" s="7"/>
-      <c r="Q119" s="7"/>
-      <c r="R119" s="7"/>
-      <c r="S119" s="7"/>
-      <c r="T119" s="7"/>
-      <c r="U119" s="7"/>
+      <c r="P119" s="12"/>
+      <c r="Q119" s="12"/>
+      <c r="R119" s="12"/>
+      <c r="S119" s="12"/>
+      <c r="T119" s="12"/>
+      <c r="U119" s="12"/>
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="B120">
+      <c r="A120" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="B120" s="7">
         <v>1</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="7">
         <v>2</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="7">
         <v>3</v>
       </c>
-      <c r="E120">
+      <c r="E120" s="7">
         <v>4</v>
       </c>
-      <c r="F120">
+      <c r="F120" s="7">
         <v>5</v>
       </c>
-      <c r="G120" s="1" t="s">
+      <c r="G120" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="H120" s="9">
+      <c r="H120" s="11">
         <v>1</v>
       </c>
-      <c r="I120" s="9"/>
-      <c r="J120" s="9"/>
-      <c r="K120" s="9">
+      <c r="I120" s="11"/>
+      <c r="J120" s="11"/>
+      <c r="K120" s="11">
         <v>2</v>
       </c>
-      <c r="L120" s="9"/>
+      <c r="L120" s="11"/>
       <c r="O120" s="1" t="s">
         <v>472</v>
       </c>
@@ -17999,36 +18022,36 @@
       </c>
     </row>
     <row r="121" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="B121">
+      <c r="A121" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="B121" s="7">
         <v>1</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="7">
         <v>2</v>
       </c>
-      <c r="D121">
+      <c r="D121" s="7">
         <v>3</v>
       </c>
-      <c r="E121">
+      <c r="E121" s="7">
         <v>4</v>
       </c>
-      <c r="F121">
+      <c r="F121" s="7">
         <v>5</v>
       </c>
-      <c r="G121" s="1" t="s">
+      <c r="G121" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="H121" s="9">
+      <c r="H121" s="11">
         <v>1</v>
       </c>
-      <c r="I121" s="9"/>
-      <c r="J121" s="9"/>
-      <c r="K121" s="9">
+      <c r="I121" s="11"/>
+      <c r="J121" s="11"/>
+      <c r="K121" s="11">
         <v>2</v>
       </c>
-      <c r="L121" s="9"/>
+      <c r="L121" s="11"/>
       <c r="O121" s="1" t="s">
         <v>457</v>
       </c>
@@ -18052,36 +18075,36 @@
       </c>
     </row>
     <row r="122" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="B122">
+      <c r="A122" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B122" s="7">
         <v>1</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="7">
         <v>2</v>
       </c>
-      <c r="D122">
+      <c r="D122" s="7">
         <v>3</v>
       </c>
-      <c r="E122">
+      <c r="E122" s="7">
         <v>4</v>
       </c>
-      <c r="F122">
+      <c r="F122" s="7">
         <v>5</v>
       </c>
-      <c r="G122" s="1" t="s">
+      <c r="G122" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="H122" s="9">
+      <c r="H122" s="11">
         <v>1</v>
       </c>
-      <c r="I122" s="9"/>
-      <c r="J122" s="9"/>
-      <c r="K122" s="9">
+      <c r="I122" s="11"/>
+      <c r="J122" s="11"/>
+      <c r="K122" s="11">
         <v>2</v>
       </c>
-      <c r="L122" s="9"/>
+      <c r="L122" s="11"/>
       <c r="O122" s="1" t="s">
         <v>458</v>
       </c>
@@ -18105,22 +18128,22 @@
       </c>
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A123" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="B123" s="7"/>
-      <c r="C123" s="7"/>
-      <c r="D123" s="7"/>
-      <c r="E123" s="7"/>
-      <c r="F123" s="7"/>
-      <c r="G123" s="7" t="s">
+      <c r="A123" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="H123" s="7"/>
-      <c r="I123" s="7"/>
-      <c r="J123" s="7"/>
-      <c r="K123" s="7"/>
-      <c r="L123" s="7"/>
+      <c r="B123" s="10"/>
+      <c r="C123" s="10"/>
+      <c r="D123" s="10"/>
+      <c r="E123" s="10"/>
+      <c r="F123" s="10"/>
+      <c r="G123" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="H123" s="10"/>
+      <c r="I123" s="10"/>
+      <c r="J123" s="10"/>
+      <c r="K123" s="10"/>
+      <c r="L123" s="10"/>
       <c r="O123" s="1" t="s">
         <v>459</v>
       </c>
@@ -18144,38 +18167,38 @@
       </c>
     </row>
     <row r="124" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
+      <c r="A124" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="B124" s="7">
+        <v>1</v>
+      </c>
+      <c r="C124" s="11">
+        <v>2</v>
+      </c>
+      <c r="D124" s="11"/>
+      <c r="E124" s="11">
+        <v>3</v>
+      </c>
+      <c r="F124" s="11"/>
+      <c r="G124" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="B124">
+      <c r="H124" s="7">
         <v>1</v>
       </c>
-      <c r="C124">
+      <c r="I124" s="7">
         <v>2</v>
       </c>
-      <c r="D124">
+      <c r="J124" s="7">
         <v>3</v>
       </c>
-      <c r="E124">
+      <c r="K124" s="7">
         <v>4</v>
       </c>
-      <c r="F124">
+      <c r="L124" s="7">
         <v>5</v>
       </c>
-      <c r="G124" s="10" t="s">
-        <v>547</v>
-      </c>
-      <c r="H124">
-        <v>1</v>
-      </c>
-      <c r="I124" s="9">
-        <v>2</v>
-      </c>
-      <c r="J124" s="9"/>
-      <c r="K124" s="9">
-        <v>3</v>
-      </c>
-      <c r="L124" s="9"/>
       <c r="O124" s="1" t="s">
         <v>460</v>
       </c>
@@ -18199,40 +18222,40 @@
       </c>
     </row>
     <row r="125" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
+      <c r="A125" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="B125" s="7">
+        <v>1</v>
+      </c>
+      <c r="C125" s="7">
+        <v>2</v>
+      </c>
+      <c r="D125" s="7">
+        <v>3</v>
+      </c>
+      <c r="E125" s="11">
+        <v>4</v>
+      </c>
+      <c r="F125" s="11"/>
+      <c r="G125" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="B125">
+      <c r="H125" s="7">
         <v>1</v>
       </c>
-      <c r="C125">
+      <c r="I125" s="7">
         <v>2</v>
       </c>
-      <c r="D125">
+      <c r="J125" s="7">
         <v>3</v>
       </c>
-      <c r="E125">
+      <c r="K125" s="7">
         <v>4</v>
       </c>
-      <c r="F125">
+      <c r="L125" s="7">
         <v>5</v>
       </c>
-      <c r="G125" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="H125">
-        <v>1</v>
-      </c>
-      <c r="I125">
-        <v>2</v>
-      </c>
-      <c r="J125">
-        <v>3</v>
-      </c>
-      <c r="K125" s="9">
-        <v>4</v>
-      </c>
-      <c r="L125" s="9"/>
       <c r="O125" s="1" t="s">
         <v>463</v>
       </c>
@@ -18256,32 +18279,32 @@
       </c>
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="O126" s="7" t="s">
+      <c r="O126" s="12" t="s">
         <v>507</v>
       </c>
-      <c r="P126" s="7"/>
-      <c r="Q126" s="7"/>
-      <c r="R126" s="7"/>
-      <c r="S126" s="7" t="s">
+      <c r="P126" s="12"/>
+      <c r="Q126" s="12"/>
+      <c r="R126" s="12"/>
+      <c r="S126" s="12" t="s">
         <v>511</v>
       </c>
-      <c r="T126" s="7"/>
-      <c r="U126" s="7"/>
-      <c r="V126" s="7"/>
+      <c r="T126" s="12"/>
+      <c r="U126" s="12"/>
+      <c r="V126" s="12"/>
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="O127" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="P127" s="7"/>
-      <c r="Q127" s="7"/>
-      <c r="R127" s="7"/>
-      <c r="S127" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="T127" s="7"/>
-      <c r="U127" s="7"/>
-      <c r="V127" s="7"/>
+      <c r="O127" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="P127" s="12"/>
+      <c r="Q127" s="12"/>
+      <c r="R127" s="12"/>
+      <c r="S127" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="T127" s="12"/>
+      <c r="U127" s="12"/>
+      <c r="V127" s="12"/>
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O128" s="1" t="s">
@@ -18440,32 +18463,32 @@
       </c>
     </row>
     <row r="134" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O134" s="7" t="s">
+      <c r="O134" s="12" t="s">
         <v>507</v>
       </c>
-      <c r="P134" s="7"/>
-      <c r="Q134" s="7"/>
-      <c r="R134" s="7"/>
-      <c r="S134" s="7" t="s">
+      <c r="P134" s="12"/>
+      <c r="Q134" s="12"/>
+      <c r="R134" s="12"/>
+      <c r="S134" s="12" t="s">
         <v>511</v>
       </c>
-      <c r="T134" s="7"/>
-      <c r="U134" s="7"/>
-      <c r="V134" s="7"/>
+      <c r="T134" s="12"/>
+      <c r="U134" s="12"/>
+      <c r="V134" s="12"/>
     </row>
     <row r="135" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O135" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="P135" s="7"/>
-      <c r="Q135" s="7"/>
-      <c r="R135" s="7"/>
-      <c r="S135" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="T135" s="7"/>
-      <c r="U135" s="7"/>
-      <c r="V135" s="7"/>
+      <c r="O135" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="P135" s="12"/>
+      <c r="Q135" s="12"/>
+      <c r="R135" s="12"/>
+      <c r="S135" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="T135" s="12"/>
+      <c r="U135" s="12"/>
+      <c r="V135" s="12"/>
     </row>
     <row r="136" spans="15:22" x14ac:dyDescent="0.25">
       <c r="O136" s="1" t="s">
@@ -18625,21 +18648,63 @@
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="G123:L123"/>
-    <mergeCell ref="K125:L125"/>
-    <mergeCell ref="K124:L124"/>
-    <mergeCell ref="I124:J124"/>
-    <mergeCell ref="H118:L118"/>
-    <mergeCell ref="H121:J121"/>
-    <mergeCell ref="K121:L121"/>
-    <mergeCell ref="H122:J122"/>
-    <mergeCell ref="K122:L122"/>
-    <mergeCell ref="G119:L119"/>
-    <mergeCell ref="B118:F118"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="K120:L120"/>
-    <mergeCell ref="H120:J120"/>
+    <mergeCell ref="O134:R134"/>
+    <mergeCell ref="S134:V134"/>
+    <mergeCell ref="O135:R135"/>
+    <mergeCell ref="S135:V135"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="B100:E100"/>
+    <mergeCell ref="B101:E101"/>
+    <mergeCell ref="O126:R126"/>
+    <mergeCell ref="O127:R127"/>
+    <mergeCell ref="S126:V126"/>
+    <mergeCell ref="S127:V127"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="G77:L77"/>
+    <mergeCell ref="G78:L78"/>
+    <mergeCell ref="V51:Z51"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A65:A70"/>
+    <mergeCell ref="B65:B70"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="O66:U66"/>
+    <mergeCell ref="V35:Z35"/>
+    <mergeCell ref="V34:Z34"/>
+    <mergeCell ref="V43:Z43"/>
+    <mergeCell ref="V42:Z42"/>
+    <mergeCell ref="V50:Z50"/>
+    <mergeCell ref="O34:U34"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="O58:U58"/>
+    <mergeCell ref="O59:U59"/>
+    <mergeCell ref="V58:Z58"/>
+    <mergeCell ref="V59:Z59"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="O42:U42"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="O35:U35"/>
     <mergeCell ref="O43:U43"/>
     <mergeCell ref="O119:U119"/>
     <mergeCell ref="P85:X85"/>
@@ -18656,63 +18721,21 @@
     <mergeCell ref="O67:U67"/>
     <mergeCell ref="O50:U50"/>
     <mergeCell ref="O51:U51"/>
-    <mergeCell ref="O58:U58"/>
-    <mergeCell ref="O59:U59"/>
-    <mergeCell ref="V58:Z58"/>
-    <mergeCell ref="V59:Z59"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="O42:U42"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="O35:U35"/>
-    <mergeCell ref="O34:U34"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="V35:Z35"/>
-    <mergeCell ref="V34:Z34"/>
-    <mergeCell ref="V43:Z43"/>
-    <mergeCell ref="V42:Z42"/>
-    <mergeCell ref="V50:Z50"/>
-    <mergeCell ref="V51:Z51"/>
-    <mergeCell ref="A71:A76"/>
-    <mergeCell ref="B71:B76"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="A65:A70"/>
-    <mergeCell ref="B65:B70"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="O66:U66"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="G77:L77"/>
-    <mergeCell ref="G78:L78"/>
-    <mergeCell ref="O134:R134"/>
-    <mergeCell ref="S134:V134"/>
-    <mergeCell ref="O135:R135"/>
-    <mergeCell ref="S135:V135"/>
-    <mergeCell ref="B92:E92"/>
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="B100:E100"/>
-    <mergeCell ref="B101:E101"/>
-    <mergeCell ref="O126:R126"/>
-    <mergeCell ref="O127:R127"/>
-    <mergeCell ref="S126:V126"/>
-    <mergeCell ref="S127:V127"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="G123:L123"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="H118:L118"/>
+    <mergeCell ref="H121:J121"/>
+    <mergeCell ref="K121:L121"/>
+    <mergeCell ref="H122:J122"/>
+    <mergeCell ref="K122:L122"/>
+    <mergeCell ref="G119:L119"/>
+    <mergeCell ref="B118:F118"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="K120:L120"/>
+    <mergeCell ref="H120:J120"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
@@ -18853,13 +18876,13 @@
       <c r="A7" t="s">
         <v>504</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="14" t="s">
         <v>441</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -18965,12 +18988,12 @@
       <c r="A14" t="s">
         <v>504</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="14" t="s">
         <v>472</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">

--- a/plotting/617_temp.xlsx
+++ b/plotting/617_temp.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="547">
   <si>
     <t>.\vgg_unet2_0_3_640_640_64_256_rot_15_345_4_flip_5K\training_32_49_640_640_640_640_max_val_acc\vis\vis_log_181022_0927.txt</t>
   </si>
@@ -1596,15 +1596,6 @@
     <t>Concentration Difference (%)</t>
   </si>
   <si>
-    <t>Mean Ice Concentration Difference Between Consecutive Frames</t>
-  </si>
-  <si>
-    <t>Mean Anchor Ice Concentration Difference Between Consecutive Frames</t>
-  </si>
-  <si>
-    <t>Mean Frazil Ice Concentration Difference Between Consecutive Frames</t>
-  </si>
-  <si>
     <t>20160121_YUN00001_3600</t>
   </si>
   <si>
@@ -1666,6 +1657,9 @@
   </si>
   <si>
     <t>(d) Frazil Ice Precision</t>
+  </si>
+  <si>
+    <t>(a) Combined Ice</t>
   </si>
 </sst>
 </file>
@@ -13365,8 +13359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I121" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="T136" sqref="T136"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101:E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16660,7 +16654,7 @@
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B85" s="12" t="s">
-        <v>525</v>
+        <v>546</v>
       </c>
       <c r="C85" s="12"/>
       <c r="D85" s="12"/>
@@ -16669,16 +16663,16 @@
         <v>523</v>
       </c>
       <c r="G85" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="H85" t="s">
+        <v>527</v>
+      </c>
+      <c r="I85" t="s">
+        <v>528</v>
+      </c>
+      <c r="J85" t="s">
         <v>529</v>
-      </c>
-      <c r="H85" t="s">
-        <v>530</v>
-      </c>
-      <c r="I85" t="s">
-        <v>531</v>
-      </c>
-      <c r="J85" t="s">
-        <v>532</v>
       </c>
       <c r="P85" s="12" t="s">
         <v>454</v>
@@ -16756,7 +16750,7 @@
         <v>517</v>
       </c>
       <c r="B87" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C87">
         <v>2.5178015658025799</v>
@@ -16874,7 +16868,7 @@
         <v>519</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C89">
         <v>1.2235413881447299</v>
@@ -16948,7 +16942,7 @@
         <v>5</v>
       </c>
       <c r="G90" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="H90">
         <v>3600</v>
@@ -16989,10 +16983,10 @@
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C91">
         <v>1.4617734433154399</v>
@@ -17052,7 +17046,7 @@
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B93" s="12" t="s">
-        <v>527</v>
+        <v>546</v>
       </c>
       <c r="C93" s="12"/>
       <c r="D93" s="12"/>
@@ -17118,7 +17112,7 @@
         <v>517</v>
       </c>
       <c r="B95" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C95">
         <v>2.8450692597460598</v>
@@ -17206,7 +17200,7 @@
         <v>519</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C97">
         <v>1.6576068159758599</v>
@@ -17294,7 +17288,7 @@
         <v>522</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C99">
         <v>2.0011688069696598</v>
@@ -17358,7 +17352,7 @@
     <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="12" t="s">
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="C101" s="12"/>
       <c r="D101" s="12"/>
@@ -17422,7 +17416,7 @@
         <v>517</v>
       </c>
       <c r="B103" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C103">
         <v>2.78505026958993</v>
@@ -17510,7 +17504,7 @@
         <v>519</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C105">
         <v>1.5569445865201099</v>
@@ -17598,7 +17592,7 @@
         <v>522</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C107">
         <v>1.7417025334862299</v>
@@ -17912,7 +17906,7 @@
     </row>
     <row r="118" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B118" s="10" t="s">
         <v>523</v>
@@ -17922,7 +17916,7 @@
       <c r="E118" s="10"/>
       <c r="F118" s="10"/>
       <c r="G118" s="6" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="H118" s="11" t="s">
         <v>523</v>
@@ -17943,7 +17937,7 @@
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
@@ -17951,7 +17945,7 @@
       <c r="E119" s="10"/>
       <c r="F119" s="10"/>
       <c r="G119" s="10" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="H119" s="10"/>
       <c r="I119" s="10"/>
@@ -17970,7 +17964,7 @@
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B120" s="7">
         <v>1</v>
@@ -18023,7 +18017,7 @@
     </row>
     <row r="121" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B121" s="7">
         <v>1</v>
@@ -18076,7 +18070,7 @@
     </row>
     <row r="122" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B122" s="7">
         <v>1</v>
@@ -18137,7 +18131,7 @@
       <c r="E123" s="10"/>
       <c r="F123" s="10"/>
       <c r="G123" s="10" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="H123" s="10"/>
       <c r="I123" s="10"/>
@@ -18168,7 +18162,7 @@
     </row>
     <row r="124" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B124" s="7">
         <v>1</v>
@@ -18223,7 +18217,7 @@
     </row>
     <row r="125" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B125" s="7">
         <v>1</v>
@@ -18294,13 +18288,13 @@
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O127" s="12" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="P127" s="12"/>
       <c r="Q127" s="12"/>
       <c r="R127" s="12"/>
       <c r="S127" s="12" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="T127" s="12"/>
       <c r="U127" s="12"/>
@@ -18478,13 +18472,13 @@
     </row>
     <row r="135" spans="15:22" x14ac:dyDescent="0.25">
       <c r="O135" s="12" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="P135" s="12"/>
       <c r="Q135" s="12"/>
       <c r="R135" s="12"/>
       <c r="S135" s="12" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="T135" s="12"/>
       <c r="U135" s="12"/>

--- a/plotting/617_temp.xlsx
+++ b/plotting/617_temp.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="550">
   <si>
     <t>.\vgg_unet2_0_3_640_640_64_256_rot_15_345_4_flip_5K\training_32_49_640_640_640_640_max_val_acc\vis\vis_log_181022_0927.txt</t>
   </si>
@@ -1660,6 +1660,15 @@
   </si>
   <si>
     <t>(a) Combined Ice</t>
+  </si>
+  <si>
+    <t>(c) Frazil Ice</t>
+  </si>
+  <si>
+    <t>(b) Anchor Ice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(d) SVM </t>
   </si>
 </sst>
 </file>
@@ -13359,8 +13368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101:E101"/>
+    <sheetView tabSelected="1" topLeftCell="B82" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G95" sqref="G95:G99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17032,6 +17041,12 @@
       <c r="C92" s="12"/>
       <c r="D92" s="12"/>
       <c r="E92" s="12"/>
+      <c r="F92" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="G92" s="12"/>
+      <c r="H92" s="12"/>
+      <c r="I92" s="12"/>
       <c r="P92" s="12" t="s">
         <v>434</v>
       </c>
@@ -17046,11 +17061,17 @@
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B93" s="12" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C93" s="12"/>
       <c r="D93" s="12"/>
       <c r="E93" s="12"/>
+      <c r="F93" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="G93" s="12"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="12"/>
       <c r="P93" s="12" t="s">
         <v>462</v>
       </c>
@@ -17079,6 +17100,18 @@
       <c r="E94" s="1" t="s">
         <v>406</v>
       </c>
+      <c r="F94" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>406</v>
+      </c>
       <c r="P94" s="1" t="s">
         <v>441</v>
       </c>
@@ -17123,6 +17156,15 @@
       <c r="E95">
         <v>0.81001445981863995</v>
       </c>
+      <c r="F95" t="s">
+        <v>530</v>
+      </c>
+      <c r="H95">
+        <v>1.2697443702112401</v>
+      </c>
+      <c r="I95">
+        <v>0.81001445981863995</v>
+      </c>
       <c r="P95" t="s">
         <v>436</v>
       </c>
@@ -17167,6 +17209,15 @@
       <c r="E96">
         <v>1.7041987033906001</v>
       </c>
+      <c r="F96" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="H96">
+        <v>1.90135349596226</v>
+      </c>
+      <c r="I96">
+        <v>1.7041987033906001</v>
+      </c>
       <c r="P96" t="s">
         <v>440</v>
       </c>
@@ -17211,6 +17262,15 @@
       <c r="E97">
         <v>0.81725156004450294</v>
       </c>
+      <c r="F97" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="H97">
+        <v>1.2432031668185</v>
+      </c>
+      <c r="I97">
+        <v>0.81725156004450294</v>
+      </c>
       <c r="P97" t="s">
         <v>439</v>
       </c>
@@ -17255,6 +17315,15 @@
       <c r="E98">
         <v>0.69840204943890205</v>
       </c>
+      <c r="F98" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="H98">
+        <v>1.2320490000767701</v>
+      </c>
+      <c r="I98">
+        <v>0.69840204943890205</v>
+      </c>
       <c r="P98" t="s">
         <v>438</v>
       </c>
@@ -17297,6 +17366,15 @@
         <v>1.2733159046692599</v>
       </c>
       <c r="E99">
+        <v>1.01504810575062</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="H99">
+        <v>1.2733159046692599</v>
+      </c>
+      <c r="I99">
         <v>1.01504810575062</v>
       </c>
       <c r="P99" t="s">
@@ -17352,7 +17430,7 @@
     <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="12" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C101" s="12"/>
       <c r="D101" s="12"/>
@@ -17373,7 +17451,9 @@
       <c r="A102" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="B102" s="1"/>
+      <c r="B102" s="1" t="s">
+        <v>523</v>
+      </c>
       <c r="C102" s="1" t="s">
         <v>405</v>
       </c>
@@ -18641,7 +18721,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="88">
+  <mergeCells count="90">
     <mergeCell ref="O134:R134"/>
     <mergeCell ref="S134:V134"/>
     <mergeCell ref="O135:R135"/>
@@ -18656,6 +18736,8 @@
     <mergeCell ref="S127:V127"/>
     <mergeCell ref="A109:F109"/>
     <mergeCell ref="A110:F110"/>
+    <mergeCell ref="F92:I92"/>
+    <mergeCell ref="F93:I93"/>
     <mergeCell ref="B84:E84"/>
     <mergeCell ref="B85:E85"/>
     <mergeCell ref="A77:F77"/>

--- a/plotting/617_temp.xlsx
+++ b/plotting/617_temp.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="559">
   <si>
     <t>.\vgg_unet2_0_3_640_640_64_256_rot_15_345_4_flip_5K\training_32_49_640_640_640_640_max_val_acc\vis\vis_log_181022_0927.txt</t>
   </si>
@@ -1669,6 +1669,33 @@
   </si>
   <si>
     <t xml:space="preserve">(d) SVM </t>
+  </si>
+  <si>
+    <t>_1a</t>
+  </si>
+  <si>
+    <t>_3a</t>
+  </si>
+  <si>
+    <t>_1c</t>
+  </si>
+  <si>
+    <t>_3c</t>
+  </si>
+  <si>
+    <t>_4c</t>
+  </si>
+  <si>
+    <t>_4a</t>
+  </si>
+  <si>
+    <t>_1f</t>
+  </si>
+  <si>
+    <t>_3f</t>
+  </si>
+  <si>
+    <t>_4f</t>
   </si>
 </sst>
 </file>
@@ -13369,7 +13396,7 @@
   <dimension ref="A1:Z141"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B82" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G95" sqref="G95:G99"/>
+      <selection activeCell="J98" sqref="J98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13378,7 +13405,7 @@
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="4" width="10.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -17107,9 +17134,12 @@
         <v>412</v>
       </c>
       <c r="H94" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="I94" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="I94" s="1" t="s">
+      <c r="J94" s="1" t="s">
         <v>406</v>
       </c>
       <c r="P94" s="1" t="s">
@@ -17156,14 +17186,20 @@
       <c r="E95">
         <v>0.81001445981863995</v>
       </c>
-      <c r="F95" t="s">
-        <v>530</v>
+      <c r="F95" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="G95">
+        <v>1.7754991721769</v>
       </c>
       <c r="H95">
-        <v>1.2697443702112401</v>
+        <v>2.79174430190352</v>
       </c>
       <c r="I95">
-        <v>0.81001445981863995</v>
+        <v>1.2143895925814301</v>
+      </c>
+      <c r="J95">
+        <v>1.1644850078834099</v>
       </c>
       <c r="P95" t="s">
         <v>436</v>
@@ -17210,13 +17246,19 @@
         <v>1.7041987033906001</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>457</v>
+        <v>553</v>
+      </c>
+      <c r="G96">
+        <v>1.9690115698805599</v>
       </c>
       <c r="H96">
-        <v>1.90135349596226</v>
+        <v>2.0939417722139599</v>
       </c>
       <c r="I96">
-        <v>1.7041987033906001</v>
+        <v>1.3369086593299599</v>
+      </c>
+      <c r="J96">
+        <v>1.2528681558771</v>
       </c>
       <c r="P96" t="s">
         <v>440</v>
@@ -17263,13 +17305,19 @@
         <v>0.81725156004450294</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>531</v>
+        <v>554</v>
+      </c>
+      <c r="G97">
+        <v>0.99771385424408499</v>
       </c>
       <c r="H97">
-        <v>1.2432031668185</v>
+        <v>3.2872616718150001</v>
       </c>
       <c r="I97">
-        <v>0.81725156004450294</v>
+        <v>0.47365930416202101</v>
+      </c>
+      <c r="J97">
+        <v>0.53001626273535196</v>
       </c>
       <c r="P97" t="s">
         <v>439</v>
@@ -17316,13 +17364,19 @@
         <v>0.69840204943890205</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>436</v>
+        <v>550</v>
+      </c>
+      <c r="G98">
+        <v>2.6455090462954298</v>
       </c>
       <c r="H98">
-        <v>1.2320490000767701</v>
+        <v>2.75694245964308</v>
       </c>
       <c r="I98">
-        <v>0.69840204943890205</v>
+        <v>1.6808763289586099</v>
+      </c>
+      <c r="J98">
+        <v>1.5024560575708199</v>
       </c>
       <c r="P98" t="s">
         <v>438</v>
@@ -17369,13 +17423,19 @@
         <v>1.01504810575062</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>532</v>
+        <v>551</v>
+      </c>
+      <c r="G99">
+        <v>2.3296605083431299</v>
       </c>
       <c r="H99">
-        <v>1.2733159046692599</v>
+        <v>2.0232656872574202</v>
       </c>
       <c r="I99">
-        <v>1.01504810575062</v>
+        <v>1.5856755672199501</v>
+      </c>
+      <c r="J99">
+        <v>1.42649874259362</v>
       </c>
       <c r="P99" t="s">
         <v>437</v>
@@ -17415,6 +17475,21 @@
       <c r="C100" s="12"/>
       <c r="D100" s="12"/>
       <c r="E100" s="12"/>
+      <c r="F100" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="G100">
+        <v>1.3565935367763899</v>
+      </c>
+      <c r="H100">
+        <v>2.6716779052603301</v>
+      </c>
+      <c r="I100">
+        <v>1.3001772642992</v>
+      </c>
+      <c r="J100">
+        <v>0.77887333098497002</v>
+      </c>
       <c r="P100" s="12" t="s">
         <v>434</v>
       </c>
@@ -17435,6 +17510,21 @@
       <c r="C101" s="12"/>
       <c r="D101" s="12"/>
       <c r="E101" s="12"/>
+      <c r="F101" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G101">
+        <v>2.0697812840098302</v>
+      </c>
+      <c r="H101">
+        <v>2.9704192581735098</v>
+      </c>
+      <c r="I101">
+        <v>1.4949640493466601</v>
+      </c>
+      <c r="J101">
+        <v>1.27434722297322</v>
+      </c>
       <c r="P101" s="12" t="s">
         <v>455</v>
       </c>
@@ -17463,6 +17553,21 @@
       <c r="E102" s="1" t="s">
         <v>406</v>
       </c>
+      <c r="F102" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="G102">
+        <v>1.2306995540691099</v>
+      </c>
+      <c r="H102">
+        <v>2.1557053685252199</v>
+      </c>
+      <c r="I102">
+        <v>1.4686379447050799</v>
+      </c>
+      <c r="J102">
+        <v>1.17690732708565</v>
+      </c>
       <c r="O102" s="1" t="s">
         <v>441</v>
       </c>
@@ -17506,6 +17611,21 @@
       </c>
       <c r="E103">
         <v>0.85228251538491795</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="G103">
+        <v>1.0469770150759701</v>
+      </c>
+      <c r="H103">
+        <v>2.7396475665412399</v>
+      </c>
+      <c r="I103">
+        <v>1.2579670548562001</v>
+      </c>
+      <c r="J103">
+        <v>0.67464420528562197</v>
       </c>
       <c r="O103" t="s">
         <v>436</v>

--- a/plotting/617_temp.xlsx
+++ b/plotting/617_temp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="unet" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="561">
   <si>
     <t>.\vgg_unet2_0_3_640_640_64_256_rot_15_345_4_flip_5K\training_32_49_640_640_640_640_max_val_acc\vis\vis_log_181022_0927.txt</t>
   </si>
@@ -1696,6 +1696,12 @@
   </si>
   <si>
     <t>_4f</t>
+  </si>
+  <si>
+    <t>ice+water(fw)</t>
+  </si>
+  <si>
+    <t>deeplab/sel/32_49_640</t>
   </si>
 </sst>
 </file>
@@ -1759,7 +1765,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1782,11 +1788,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1799,10 +1842,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7542,8 +7600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E396"/>
   <sheetViews>
-    <sheetView topLeftCell="A237" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C251" sqref="C251:D251"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8459,7 +8517,7 @@
     </row>
     <row r="71" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="9" t="s">
-        <v>408</v>
+        <v>560</v>
       </c>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
@@ -13395,8 +13453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B82" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J98" sqref="J98"/>
+    <sheetView topLeftCell="F114" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P133" sqref="P133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13409,13 +13467,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="17" t="s">
         <v>413</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -13529,22 +13587,22 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="17" t="s">
         <v>421</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -13697,14 +13755,14 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="17" t="s">
         <v>413</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
       <c r="J17">
         <v>0.67832000000000003</v>
       </c>
@@ -13719,14 +13777,14 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="17" t="s">
         <v>444</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -13937,14 +13995,14 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="18" t="s">
         <v>420</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
       <c r="J24">
         <v>0.43318000000000001</v>
       </c>
@@ -13971,14 +14029,14 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="17" t="s">
         <v>445</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -14155,72 +14213,72 @@
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="17" t="s">
         <v>413</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="H34" s="12" t="s">
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="H34" s="17" t="s">
         <v>434</v>
       </c>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="O34" s="12" t="s">
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="O34" s="17" t="s">
         <v>434</v>
       </c>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="12"/>
-      <c r="S34" s="12"/>
-      <c r="T34" s="12"/>
-      <c r="U34" s="12"/>
-      <c r="V34" s="12" t="s">
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="17"/>
+      <c r="V34" s="17" t="s">
         <v>507</v>
       </c>
-      <c r="W34" s="12"/>
-      <c r="X34" s="12"/>
-      <c r="Y34" s="12"/>
-      <c r="Z34" s="12"/>
+      <c r="W34" s="17"/>
+      <c r="X34" s="17"/>
+      <c r="Y34" s="17"/>
+      <c r="Z34" s="17"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="17" t="s">
         <v>432</v>
       </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="H35" s="12" t="s">
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="H35" s="17" t="s">
         <v>435</v>
       </c>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="O35" s="12" t="s">
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="O35" s="17" t="s">
         <v>435</v>
       </c>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="12"/>
-      <c r="R35" s="12"/>
-      <c r="S35" s="12"/>
-      <c r="T35" s="12"/>
-      <c r="U35" s="12"/>
-      <c r="V35" s="12" t="s">
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="17"/>
+      <c r="U35" s="17"/>
+      <c r="V35" s="17" t="s">
         <v>513</v>
       </c>
-      <c r="W35" s="12"/>
-      <c r="X35" s="12"/>
-      <c r="Y35" s="12"/>
-      <c r="Z35" s="12"/>
+      <c r="W35" s="17"/>
+      <c r="X35" s="17"/>
+      <c r="Y35" s="17"/>
+      <c r="Z35" s="17"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -14593,14 +14651,14 @@
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="17" t="s">
         <v>424</v>
       </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
       <c r="H41" s="1" t="s">
         <v>416</v>
       </c>
@@ -14657,14 +14715,14 @@
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="17" t="s">
         <v>433</v>
       </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
       <c r="H42" s="1" t="s">
         <v>417</v>
       </c>
@@ -14683,22 +14741,22 @@
       <c r="M42">
         <v>0.63066</v>
       </c>
-      <c r="O42" s="12" t="s">
+      <c r="O42" s="17" t="s">
         <v>434</v>
       </c>
-      <c r="P42" s="12"/>
-      <c r="Q42" s="12"/>
-      <c r="R42" s="12"/>
-      <c r="S42" s="12"/>
-      <c r="T42" s="12"/>
-      <c r="U42" s="12"/>
-      <c r="V42" s="12" t="s">
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="17"/>
+      <c r="T42" s="17"/>
+      <c r="U42" s="17"/>
+      <c r="V42" s="17" t="s">
         <v>511</v>
       </c>
-      <c r="W42" s="12"/>
-      <c r="X42" s="12"/>
-      <c r="Y42" s="12"/>
-      <c r="Z42" s="12"/>
+      <c r="W42" s="17"/>
+      <c r="X42" s="17"/>
+      <c r="Y42" s="17"/>
+      <c r="Z42" s="17"/>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
@@ -14737,22 +14795,22 @@
       <c r="M43">
         <v>0.65837000000000001</v>
       </c>
-      <c r="O43" s="12" t="s">
+      <c r="O43" s="17" t="s">
         <v>442</v>
       </c>
-      <c r="P43" s="12"/>
-      <c r="Q43" s="12"/>
-      <c r="R43" s="12"/>
-      <c r="S43" s="12"/>
-      <c r="T43" s="12"/>
-      <c r="U43" s="12"/>
-      <c r="V43" s="12" t="s">
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="17"/>
+      <c r="S43" s="17"/>
+      <c r="T43" s="17"/>
+      <c r="U43" s="17"/>
+      <c r="V43" s="17" t="s">
         <v>514</v>
       </c>
-      <c r="W43" s="12"/>
-      <c r="X43" s="12"/>
-      <c r="Y43" s="12"/>
-      <c r="Z43" s="12"/>
+      <c r="W43" s="17"/>
+      <c r="X43" s="17"/>
+      <c r="Y43" s="17"/>
+      <c r="Z43" s="17"/>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
@@ -15001,13 +15059,13 @@
       </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="17" t="s">
         <v>506</v>
       </c>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
       <c r="F48" s="2"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
@@ -15049,13 +15107,13 @@
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="17" t="s">
         <v>505</v>
       </c>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
       <c r="O49" s="1" t="s">
         <v>437</v>
       </c>
@@ -15109,22 +15167,22 @@
       <c r="E50" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="O50" s="12" t="s">
+      <c r="O50" s="17" t="s">
         <v>434</v>
       </c>
-      <c r="P50" s="12"/>
-      <c r="Q50" s="12"/>
-      <c r="R50" s="12"/>
-      <c r="S50" s="12"/>
-      <c r="T50" s="12"/>
-      <c r="U50" s="12"/>
-      <c r="V50" s="12" t="s">
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
+      <c r="R50" s="17"/>
+      <c r="S50" s="17"/>
+      <c r="T50" s="17"/>
+      <c r="U50" s="17"/>
+      <c r="V50" s="17" t="s">
         <v>507</v>
       </c>
-      <c r="W50" s="12"/>
-      <c r="X50" s="12"/>
-      <c r="Y50" s="12"/>
-      <c r="Z50" s="12"/>
+      <c r="W50" s="17"/>
+      <c r="X50" s="17"/>
+      <c r="Y50" s="17"/>
+      <c r="Z50" s="17"/>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
@@ -15142,22 +15200,22 @@
       <c r="E51">
         <v>0.63066</v>
       </c>
-      <c r="O51" s="12" t="s">
+      <c r="O51" s="17" t="s">
         <v>446</v>
       </c>
-      <c r="P51" s="12"/>
-      <c r="Q51" s="12"/>
-      <c r="R51" s="12"/>
-      <c r="S51" s="12"/>
-      <c r="T51" s="12"/>
-      <c r="U51" s="12"/>
-      <c r="V51" s="12" t="s">
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
+      <c r="R51" s="17"/>
+      <c r="S51" s="17"/>
+      <c r="T51" s="17"/>
+      <c r="U51" s="17"/>
+      <c r="V51" s="17" t="s">
         <v>515</v>
       </c>
-      <c r="W51" s="12"/>
-      <c r="X51" s="12"/>
-      <c r="Y51" s="12"/>
-      <c r="Z51" s="12"/>
+      <c r="W51" s="17"/>
+      <c r="X51" s="17"/>
+      <c r="Y51" s="17"/>
+      <c r="Z51" s="17"/>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -15372,20 +15430,20 @@
       </c>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A56" s="12" t="s">
+      <c r="A56" s="17" t="s">
         <v>507</v>
       </c>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12" t="s">
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17" t="s">
         <v>511</v>
       </c>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17"/>
       <c r="O56" s="1" t="s">
         <v>438</v>
       </c>
@@ -15424,20 +15482,20 @@
       </c>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A57" s="12" t="s">
+      <c r="A57" s="17" t="s">
         <v>508</v>
       </c>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12" t="s">
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
       <c r="O57" s="1" t="s">
         <v>437</v>
       </c>
@@ -15489,7 +15547,7 @@
         <v>509</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>510</v>
+        <v>559</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>411</v>
@@ -15504,24 +15562,24 @@
         <v>509</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="O58" s="12" t="s">
+        <v>559</v>
+      </c>
+      <c r="O58" s="17" t="s">
         <v>434</v>
       </c>
-      <c r="P58" s="12"/>
-      <c r="Q58" s="12"/>
-      <c r="R58" s="12"/>
-      <c r="S58" s="12"/>
-      <c r="T58" s="12"/>
-      <c r="U58" s="12"/>
-      <c r="V58" s="12" t="s">
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
+      <c r="R58" s="17"/>
+      <c r="S58" s="17"/>
+      <c r="T58" s="17"/>
+      <c r="U58" s="17"/>
+      <c r="V58" s="17" t="s">
         <v>511</v>
       </c>
-      <c r="W58" s="12"/>
-      <c r="X58" s="12"/>
-      <c r="Y58" s="12"/>
-      <c r="Z58" s="12"/>
+      <c r="W58" s="17"/>
+      <c r="X58" s="17"/>
+      <c r="Y58" s="17"/>
+      <c r="Z58" s="17"/>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
@@ -15554,22 +15612,22 @@
       <c r="J59">
         <v>0.76844000000000001</v>
       </c>
-      <c r="O59" s="12" t="s">
+      <c r="O59" s="17" t="s">
         <v>447</v>
       </c>
-      <c r="P59" s="12"/>
-      <c r="Q59" s="12"/>
-      <c r="R59" s="12"/>
-      <c r="S59" s="12"/>
-      <c r="T59" s="12"/>
-      <c r="U59" s="12"/>
-      <c r="V59" s="12" t="s">
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
+      <c r="R59" s="17"/>
+      <c r="S59" s="17"/>
+      <c r="T59" s="17"/>
+      <c r="U59" s="17"/>
+      <c r="V59" s="17" t="s">
         <v>516</v>
       </c>
-      <c r="W59" s="12"/>
-      <c r="X59" s="12"/>
-      <c r="Y59" s="12"/>
-      <c r="Z59" s="12"/>
+      <c r="W59" s="17"/>
+      <c r="X59" s="17"/>
+      <c r="Y59" s="17"/>
+      <c r="Z59" s="17"/>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
@@ -15882,10 +15940,10 @@
       </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A65" s="12" t="s">
+      <c r="A65" s="17" t="s">
         <v>413</v>
       </c>
-      <c r="B65" s="12" t="s">
+      <c r="B65" s="17" t="s">
         <v>444</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -15941,8 +15999,8 @@
       </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A66" s="12"/>
-      <c r="B66" s="12"/>
+      <c r="A66" s="17"/>
+      <c r="B66" s="17"/>
       <c r="C66" s="1" t="s">
         <v>412</v>
       </c>
@@ -15958,19 +16016,19 @@
       <c r="G66">
         <v>0.84930000000000005</v>
       </c>
-      <c r="O66" s="12" t="s">
+      <c r="O66" s="17" t="s">
         <v>434</v>
       </c>
-      <c r="P66" s="12"/>
-      <c r="Q66" s="12"/>
-      <c r="R66" s="12"/>
-      <c r="S66" s="12"/>
-      <c r="T66" s="12"/>
-      <c r="U66" s="12"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
+      <c r="R66" s="17"/>
+      <c r="S66" s="17"/>
+      <c r="T66" s="17"/>
+      <c r="U66" s="17"/>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A67" s="12"/>
-      <c r="B67" s="12"/>
+      <c r="A67" s="17"/>
+      <c r="B67" s="17"/>
       <c r="C67" s="1" t="s">
         <v>405</v>
       </c>
@@ -15986,19 +16044,19 @@
       <c r="G67">
         <v>0.90871000000000002</v>
       </c>
-      <c r="O67" s="12" t="s">
+      <c r="O67" s="17" t="s">
         <v>448</v>
       </c>
-      <c r="P67" s="12"/>
-      <c r="Q67" s="12"/>
-      <c r="R67" s="12"/>
-      <c r="S67" s="12"/>
-      <c r="T67" s="12"/>
-      <c r="U67" s="12"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
+      <c r="R67" s="17"/>
+      <c r="S67" s="17"/>
+      <c r="T67" s="17"/>
+      <c r="U67" s="17"/>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A68" s="12"/>
-      <c r="B68" s="12"/>
+      <c r="A68" s="17"/>
+      <c r="B68" s="17"/>
       <c r="C68" s="1" t="s">
         <v>404</v>
       </c>
@@ -16037,8 +16095,8 @@
       </c>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A69" s="12"/>
-      <c r="B69" s="12"/>
+      <c r="A69" s="17"/>
+      <c r="B69" s="17"/>
       <c r="C69" s="1" t="s">
         <v>406</v>
       </c>
@@ -16077,8 +16135,8 @@
       </c>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A70" s="12"/>
-      <c r="B70" s="12"/>
+      <c r="A70" s="17"/>
+      <c r="B70" s="17"/>
       <c r="C70" s="1" t="s">
         <v>403</v>
       </c>
@@ -16117,10 +16175,10 @@
       </c>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A71" s="13" t="s">
+      <c r="A71" s="18" t="s">
         <v>420</v>
       </c>
-      <c r="B71" s="12" t="s">
+      <c r="B71" s="17" t="s">
         <v>445</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -16161,8 +16219,8 @@
       </c>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A72" s="12"/>
-      <c r="B72" s="12"/>
+      <c r="A72" s="17"/>
+      <c r="B72" s="17"/>
       <c r="C72" s="1" t="s">
         <v>412</v>
       </c>
@@ -16201,8 +16259,8 @@
       </c>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A73" s="12"/>
-      <c r="B73" s="12"/>
+      <c r="A73" s="17"/>
+      <c r="B73" s="17"/>
       <c r="C73" s="1" t="s">
         <v>405</v>
       </c>
@@ -16241,8 +16299,8 @@
       </c>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A74" s="12"/>
-      <c r="B74" s="12"/>
+      <c r="A74" s="17"/>
+      <c r="B74" s="17"/>
       <c r="C74" s="1" t="s">
         <v>404</v>
       </c>
@@ -16258,19 +16316,19 @@
       <c r="G74">
         <v>0.81733</v>
       </c>
-      <c r="O74" s="12" t="s">
+      <c r="O74" s="17" t="s">
         <v>434</v>
       </c>
-      <c r="P74" s="12"/>
-      <c r="Q74" s="12"/>
-      <c r="R74" s="12"/>
-      <c r="S74" s="12"/>
-      <c r="T74" s="12"/>
-      <c r="U74" s="12"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
+      <c r="R74" s="17"/>
+      <c r="S74" s="17"/>
+      <c r="T74" s="17"/>
+      <c r="U74" s="17"/>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A75" s="12"/>
-      <c r="B75" s="12"/>
+      <c r="A75" s="17"/>
+      <c r="B75" s="17"/>
       <c r="C75" s="1" t="s">
         <v>406</v>
       </c>
@@ -16286,19 +16344,19 @@
       <c r="G75">
         <v>0.77490000000000003</v>
       </c>
-      <c r="O75" s="12" t="s">
+      <c r="O75" s="17" t="s">
         <v>449</v>
       </c>
-      <c r="P75" s="12"/>
-      <c r="Q75" s="12"/>
-      <c r="R75" s="12"/>
-      <c r="S75" s="12"/>
-      <c r="T75" s="12"/>
-      <c r="U75" s="12"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
+      <c r="R75" s="17"/>
+      <c r="S75" s="17"/>
+      <c r="T75" s="17"/>
+      <c r="U75" s="17"/>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A76" s="12"/>
-      <c r="B76" s="12"/>
+      <c r="A76" s="17"/>
+      <c r="B76" s="17"/>
       <c r="C76" s="1" t="s">
         <v>403</v>
       </c>
@@ -16337,22 +16395,22 @@
       </c>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A77" s="12" t="s">
+      <c r="A77" s="17" t="s">
         <v>507</v>
       </c>
-      <c r="B77" s="12"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="12" t="s">
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17" t="s">
         <v>511</v>
       </c>
-      <c r="H77" s="12"/>
-      <c r="I77" s="12"/>
-      <c r="J77" s="12"/>
-      <c r="K77" s="12"/>
-      <c r="L77" s="12"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="17"/>
+      <c r="J77" s="17"/>
+      <c r="K77" s="17"/>
+      <c r="L77" s="17"/>
       <c r="O77" t="s">
         <v>436</v>
       </c>
@@ -16376,22 +16434,22 @@
       </c>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A78" s="12" t="s">
+      <c r="A78" s="17" t="s">
         <v>508</v>
       </c>
-      <c r="B78" s="12"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="12" t="s">
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="H78" s="12"/>
-      <c r="I78" s="12"/>
-      <c r="J78" s="12"/>
-      <c r="K78" s="12"/>
-      <c r="L78" s="12"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="17"/>
+      <c r="J78" s="17"/>
+      <c r="K78" s="17"/>
+      <c r="L78" s="17"/>
       <c r="O78" t="s">
         <v>440</v>
       </c>
@@ -16668,33 +16726,33 @@
       </c>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B84" s="12" t="s">
+      <c r="B84" s="17" t="s">
         <v>524</v>
       </c>
-      <c r="C84" s="12"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="12"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
-      <c r="P84" s="12" t="s">
+      <c r="P84" s="17" t="s">
         <v>434</v>
       </c>
-      <c r="Q84" s="12"/>
-      <c r="R84" s="12"/>
-      <c r="S84" s="12"/>
-      <c r="T84" s="12"/>
-      <c r="U84" s="12"/>
-      <c r="V84" s="12"/>
-      <c r="W84" s="12"/>
-      <c r="X84" s="12"/>
+      <c r="Q84" s="17"/>
+      <c r="R84" s="17"/>
+      <c r="S84" s="17"/>
+      <c r="T84" s="17"/>
+      <c r="U84" s="17"/>
+      <c r="V84" s="17"/>
+      <c r="W84" s="17"/>
+      <c r="X84" s="17"/>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B85" s="12" t="s">
+      <c r="B85" s="17" t="s">
         <v>546</v>
       </c>
-      <c r="C85" s="12"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="12"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
       <c r="F85" s="1" t="s">
         <v>523</v>
       </c>
@@ -16710,17 +16768,17 @@
       <c r="J85" t="s">
         <v>529</v>
       </c>
-      <c r="P85" s="12" t="s">
+      <c r="P85" s="17" t="s">
         <v>454</v>
       </c>
-      <c r="Q85" s="12"/>
-      <c r="R85" s="12"/>
-      <c r="S85" s="12"/>
-      <c r="T85" s="12"/>
-      <c r="U85" s="12"/>
-      <c r="V85" s="12"/>
-      <c r="W85" s="12"/>
-      <c r="X85" s="12"/>
+      <c r="Q85" s="17"/>
+      <c r="R85" s="17"/>
+      <c r="S85" s="17"/>
+      <c r="T85" s="17"/>
+      <c r="U85" s="17"/>
+      <c r="V85" s="17"/>
+      <c r="W85" s="17"/>
+      <c r="X85" s="17"/>
     </row>
     <row r="86" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
@@ -17062,54 +17120,54 @@
       </c>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B92" s="12" t="s">
+      <c r="B92" s="17" t="s">
         <v>524</v>
       </c>
-      <c r="C92" s="12"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12" t="s">
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="17" t="s">
         <v>524</v>
       </c>
-      <c r="G92" s="12"/>
-      <c r="H92" s="12"/>
-      <c r="I92" s="12"/>
-      <c r="P92" s="12" t="s">
+      <c r="G92" s="17"/>
+      <c r="H92" s="17"/>
+      <c r="I92" s="17"/>
+      <c r="P92" s="17" t="s">
         <v>434</v>
       </c>
-      <c r="Q92" s="12"/>
-      <c r="R92" s="12"/>
-      <c r="S92" s="12"/>
-      <c r="T92" s="12"/>
-      <c r="U92" s="12"/>
-      <c r="V92" s="12"/>
-      <c r="W92" s="12"/>
-      <c r="X92" s="12"/>
+      <c r="Q92" s="17"/>
+      <c r="R92" s="17"/>
+      <c r="S92" s="17"/>
+      <c r="T92" s="17"/>
+      <c r="U92" s="17"/>
+      <c r="V92" s="17"/>
+      <c r="W92" s="17"/>
+      <c r="X92" s="17"/>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B93" s="12" t="s">
+      <c r="B93" s="17" t="s">
         <v>547</v>
       </c>
-      <c r="C93" s="12"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12" t="s">
+      <c r="C93" s="17"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="17" t="s">
         <v>549</v>
       </c>
-      <c r="G93" s="12"/>
-      <c r="H93" s="12"/>
-      <c r="I93" s="12"/>
-      <c r="P93" s="12" t="s">
+      <c r="G93" s="17"/>
+      <c r="H93" s="17"/>
+      <c r="I93" s="17"/>
+      <c r="P93" s="17" t="s">
         <v>462</v>
       </c>
-      <c r="Q93" s="12"/>
-      <c r="R93" s="12"/>
-      <c r="S93" s="12"/>
-      <c r="T93" s="12"/>
-      <c r="U93" s="12"/>
-      <c r="V93" s="12"/>
-      <c r="W93" s="12"/>
-      <c r="X93" s="12"/>
+      <c r="Q93" s="17"/>
+      <c r="R93" s="17"/>
+      <c r="S93" s="17"/>
+      <c r="T93" s="17"/>
+      <c r="U93" s="17"/>
+      <c r="V93" s="17"/>
+      <c r="W93" s="17"/>
+      <c r="X93" s="17"/>
     </row>
     <row r="94" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
@@ -17469,12 +17527,12 @@
       <c r="A100" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="B100" s="12" t="s">
+      <c r="B100" s="17" t="s">
         <v>524</v>
       </c>
-      <c r="C100" s="12"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="12"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="17"/>
       <c r="F100" s="1" t="s">
         <v>555</v>
       </c>
@@ -17490,26 +17548,26 @@
       <c r="J100">
         <v>0.77887333098497002</v>
       </c>
-      <c r="P100" s="12" t="s">
+      <c r="P100" s="17" t="s">
         <v>434</v>
       </c>
-      <c r="Q100" s="12"/>
-      <c r="R100" s="12"/>
-      <c r="S100" s="12"/>
-      <c r="T100" s="12"/>
-      <c r="U100" s="12"/>
-      <c r="V100" s="12"/>
-      <c r="W100" s="12"/>
-      <c r="X100" s="12"/>
+      <c r="Q100" s="17"/>
+      <c r="R100" s="17"/>
+      <c r="S100" s="17"/>
+      <c r="T100" s="17"/>
+      <c r="U100" s="17"/>
+      <c r="V100" s="17"/>
+      <c r="W100" s="17"/>
+      <c r="X100" s="17"/>
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
-      <c r="B101" s="12" t="s">
+      <c r="B101" s="17" t="s">
         <v>548</v>
       </c>
-      <c r="C101" s="12"/>
-      <c r="D101" s="12"/>
-      <c r="E101" s="12"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="17"/>
+      <c r="E101" s="17"/>
       <c r="F101" s="1" t="s">
         <v>556</v>
       </c>
@@ -17525,17 +17583,17 @@
       <c r="J101">
         <v>1.27434722297322</v>
       </c>
-      <c r="P101" s="12" t="s">
+      <c r="P101" s="17" t="s">
         <v>455</v>
       </c>
-      <c r="Q101" s="12"/>
-      <c r="R101" s="12"/>
-      <c r="S101" s="12"/>
-      <c r="T101" s="12"/>
-      <c r="U101" s="12"/>
-      <c r="V101" s="12"/>
-      <c r="W101" s="12"/>
-      <c r="X101" s="12"/>
+      <c r="Q101" s="17"/>
+      <c r="R101" s="17"/>
+      <c r="S101" s="17"/>
+      <c r="T101" s="17"/>
+      <c r="U101" s="17"/>
+      <c r="V101" s="17"/>
+      <c r="W101" s="17"/>
+      <c r="X101" s="17"/>
     </row>
     <row r="102" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
@@ -17835,33 +17893,49 @@
       <c r="B108" s="1"/>
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A109" s="12" t="s">
+      <c r="A109" s="17" t="s">
         <v>507</v>
       </c>
-      <c r="B109" s="12"/>
-      <c r="C109" s="12"/>
-      <c r="D109" s="12"/>
-      <c r="E109" s="12"/>
-      <c r="F109" s="12"/>
+      <c r="B109" s="17"/>
+      <c r="C109" s="17"/>
+      <c r="D109" s="17"/>
+      <c r="E109" s="17"/>
+      <c r="F109" s="17"/>
+      <c r="G109" s="17" t="s">
+        <v>511</v>
+      </c>
+      <c r="H109" s="17"/>
+      <c r="I109" s="17"/>
+      <c r="J109" s="17"/>
+      <c r="K109" s="17"/>
+      <c r="L109" s="17"/>
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A110" s="12" t="s">
+      <c r="A110" s="17" t="s">
         <v>508</v>
       </c>
-      <c r="B110" s="12"/>
-      <c r="C110" s="12"/>
-      <c r="D110" s="12"/>
-      <c r="E110" s="12"/>
-      <c r="F110" s="12"/>
-      <c r="O110" s="12" t="s">
+      <c r="B110" s="17"/>
+      <c r="C110" s="17"/>
+      <c r="D110" s="17"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="17"/>
+      <c r="G110" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="H110" s="17"/>
+      <c r="I110" s="17"/>
+      <c r="J110" s="17"/>
+      <c r="K110" s="17"/>
+      <c r="L110" s="17"/>
+      <c r="O110" s="17" t="s">
         <v>434</v>
       </c>
-      <c r="P110" s="12"/>
-      <c r="Q110" s="12"/>
-      <c r="R110" s="12"/>
-      <c r="S110" s="12"/>
-      <c r="T110" s="12"/>
-      <c r="U110" s="12"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
+      <c r="R110" s="17"/>
+      <c r="S110" s="17"/>
+      <c r="T110" s="17"/>
+      <c r="U110" s="17"/>
       <c r="V110" s="2"/>
       <c r="W110" s="2"/>
     </row>
@@ -17884,15 +17958,33 @@
       <c r="F111" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="O111" s="12" t="s">
+      <c r="G111" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="L111" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="O111" s="17" t="s">
         <v>456</v>
       </c>
-      <c r="P111" s="12"/>
-      <c r="Q111" s="12"/>
-      <c r="R111" s="12"/>
-      <c r="S111" s="12"/>
-      <c r="T111" s="12"/>
-      <c r="U111" s="12"/>
+      <c r="P111" s="17"/>
+      <c r="Q111" s="17"/>
+      <c r="R111" s="17"/>
+      <c r="S111" s="17"/>
+      <c r="T111" s="17"/>
+      <c r="U111" s="17"/>
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
@@ -17913,6 +18005,24 @@
       <c r="F112">
         <v>0.82310000000000005</v>
       </c>
+      <c r="G112" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="H112">
+        <v>0.43318000000000001</v>
+      </c>
+      <c r="I112">
+        <v>0.62388999999999994</v>
+      </c>
+      <c r="J112">
+        <v>0.54891000000000001</v>
+      </c>
+      <c r="K112">
+        <v>0.48977999999999999</v>
+      </c>
+      <c r="L112">
+        <v>0.52803</v>
+      </c>
       <c r="O112" s="1" t="s">
         <v>472</v>
       </c>
@@ -17954,6 +18064,24 @@
       <c r="F113">
         <v>0.68991999999999998</v>
       </c>
+      <c r="G113" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="H113">
+        <v>0.63066</v>
+      </c>
+      <c r="I113">
+        <v>0.77141999999999999</v>
+      </c>
+      <c r="J113">
+        <v>0.71165</v>
+      </c>
+      <c r="K113">
+        <v>0.60973999999999995</v>
+      </c>
+      <c r="L113">
+        <v>0.62604000000000004</v>
+      </c>
       <c r="O113" s="1" t="s">
         <v>457</v>
       </c>
@@ -17995,6 +18123,24 @@
       <c r="F114">
         <v>0.8306</v>
       </c>
+      <c r="G114" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="H114">
+        <v>0.65837000000000001</v>
+      </c>
+      <c r="I114">
+        <v>0.77244999999999997</v>
+      </c>
+      <c r="J114">
+        <v>0.73194000000000004</v>
+      </c>
+      <c r="K114">
+        <v>0.67691999999999997</v>
+      </c>
+      <c r="L114">
+        <v>0.69601000000000002</v>
+      </c>
       <c r="O114" s="1" t="s">
         <v>458</v>
       </c>
@@ -18019,7 +18165,7 @@
     </row>
     <row r="115" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>510</v>
+        <v>559</v>
       </c>
       <c r="B115">
         <v>0.84930000000000005</v>
@@ -18035,6 +18181,24 @@
       </c>
       <c r="F115">
         <v>0.85895999999999995</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="H115">
+        <v>0.76844000000000001</v>
+      </c>
+      <c r="I115">
+        <v>0.84316999999999998</v>
+      </c>
+      <c r="J115">
+        <v>0.81733</v>
+      </c>
+      <c r="K115">
+        <v>0.77490000000000003</v>
+      </c>
+      <c r="L115">
+        <v>0.78456999999999999</v>
       </c>
       <c r="O115" s="1" t="s">
         <v>459</v>
@@ -18108,59 +18272,59 @@
       <c r="A118" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="B118" s="10" t="s">
+      <c r="B118" s="14" t="s">
         <v>523</v>
       </c>
-      <c r="C118" s="10"/>
-      <c r="D118" s="10"/>
-      <c r="E118" s="10"/>
-      <c r="F118" s="10"/>
+      <c r="C118" s="15"/>
+      <c r="D118" s="15"/>
+      <c r="E118" s="15"/>
+      <c r="F118" s="16"/>
       <c r="G118" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="H118" s="11" t="s">
+      <c r="H118" s="10" t="s">
         <v>523</v>
       </c>
-      <c r="I118" s="11"/>
-      <c r="J118" s="11"/>
-      <c r="K118" s="11"/>
+      <c r="I118" s="12"/>
+      <c r="J118" s="12"/>
+      <c r="K118" s="12"/>
       <c r="L118" s="11"/>
-      <c r="O118" s="12" t="s">
+      <c r="O118" s="17" t="s">
         <v>434</v>
       </c>
-      <c r="P118" s="12"/>
-      <c r="Q118" s="12"/>
-      <c r="R118" s="12"/>
-      <c r="S118" s="12"/>
-      <c r="T118" s="12"/>
-      <c r="U118" s="12"/>
+      <c r="P118" s="17"/>
+      <c r="Q118" s="17"/>
+      <c r="R118" s="17"/>
+      <c r="S118" s="17"/>
+      <c r="T118" s="17"/>
+      <c r="U118" s="17"/>
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A119" s="10" t="s">
+      <c r="A119" s="14" t="s">
         <v>534</v>
       </c>
-      <c r="B119" s="10"/>
-      <c r="C119" s="10"/>
-      <c r="D119" s="10"/>
-      <c r="E119" s="10"/>
-      <c r="F119" s="10"/>
-      <c r="G119" s="10" t="s">
+      <c r="B119" s="15"/>
+      <c r="C119" s="15"/>
+      <c r="D119" s="15"/>
+      <c r="E119" s="15"/>
+      <c r="F119" s="16"/>
+      <c r="G119" s="14" t="s">
         <v>539</v>
       </c>
-      <c r="H119" s="10"/>
-      <c r="I119" s="10"/>
-      <c r="J119" s="10"/>
-      <c r="K119" s="10"/>
-      <c r="L119" s="10"/>
-      <c r="O119" s="12" t="s">
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="15"/>
+      <c r="K119" s="15"/>
+      <c r="L119" s="16"/>
+      <c r="O119" s="17" t="s">
         <v>461</v>
       </c>
-      <c r="P119" s="12"/>
-      <c r="Q119" s="12"/>
-      <c r="R119" s="12"/>
-      <c r="S119" s="12"/>
-      <c r="T119" s="12"/>
-      <c r="U119" s="12"/>
+      <c r="P119" s="17"/>
+      <c r="Q119" s="17"/>
+      <c r="R119" s="17"/>
+      <c r="S119" s="17"/>
+      <c r="T119" s="17"/>
+      <c r="U119" s="17"/>
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
@@ -18184,15 +18348,15 @@
       <c r="G120" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="H120" s="11">
+      <c r="H120" s="13">
         <v>1</v>
       </c>
-      <c r="I120" s="11"/>
-      <c r="J120" s="11"/>
-      <c r="K120" s="11">
+      <c r="I120" s="13"/>
+      <c r="J120" s="13"/>
+      <c r="K120" s="13">
         <v>2</v>
       </c>
-      <c r="L120" s="11"/>
+      <c r="L120" s="13"/>
       <c r="O120" s="1" t="s">
         <v>472</v>
       </c>
@@ -18237,15 +18401,15 @@
       <c r="G121" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="H121" s="11">
+      <c r="H121" s="13">
         <v>1</v>
       </c>
-      <c r="I121" s="11"/>
-      <c r="J121" s="11"/>
-      <c r="K121" s="11">
+      <c r="I121" s="13"/>
+      <c r="J121" s="13"/>
+      <c r="K121" s="13">
         <v>2</v>
       </c>
-      <c r="L121" s="11"/>
+      <c r="L121" s="13"/>
       <c r="O121" s="1" t="s">
         <v>457</v>
       </c>
@@ -18290,15 +18454,15 @@
       <c r="G122" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="H122" s="11">
+      <c r="H122" s="13">
         <v>1</v>
       </c>
-      <c r="I122" s="11"/>
-      <c r="J122" s="11"/>
-      <c r="K122" s="11">
+      <c r="I122" s="13"/>
+      <c r="J122" s="13"/>
+      <c r="K122" s="13">
         <v>2</v>
       </c>
-      <c r="L122" s="11"/>
+      <c r="L122" s="13"/>
       <c r="O122" s="1" t="s">
         <v>458</v>
       </c>
@@ -18322,22 +18486,22 @@
       </c>
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A123" s="10" t="s">
+      <c r="A123" s="14" t="s">
         <v>412</v>
       </c>
-      <c r="B123" s="10"/>
-      <c r="C123" s="10"/>
-      <c r="D123" s="10"/>
-      <c r="E123" s="10"/>
-      <c r="F123" s="10"/>
-      <c r="G123" s="10" t="s">
+      <c r="B123" s="15"/>
+      <c r="C123" s="15"/>
+      <c r="D123" s="15"/>
+      <c r="E123" s="15"/>
+      <c r="F123" s="16"/>
+      <c r="G123" s="14" t="s">
         <v>538</v>
       </c>
-      <c r="H123" s="10"/>
-      <c r="I123" s="10"/>
-      <c r="J123" s="10"/>
-      <c r="K123" s="10"/>
-      <c r="L123" s="10"/>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="15"/>
+      <c r="K123" s="15"/>
+      <c r="L123" s="16"/>
       <c r="O123" s="1" t="s">
         <v>459</v>
       </c>
@@ -18367,11 +18531,11 @@
       <c r="B124" s="7">
         <v>1</v>
       </c>
-      <c r="C124" s="11">
+      <c r="C124" s="13">
         <v>2</v>
       </c>
-      <c r="D124" s="11"/>
-      <c r="E124" s="11">
+      <c r="D124" s="13"/>
+      <c r="E124" s="10">
         <v>3</v>
       </c>
       <c r="F124" s="11"/>
@@ -18428,7 +18592,7 @@
       <c r="D125" s="7">
         <v>3</v>
       </c>
-      <c r="E125" s="11">
+      <c r="E125" s="10">
         <v>4</v>
       </c>
       <c r="F125" s="11"/>
@@ -18473,32 +18637,32 @@
       </c>
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="O126" s="12" t="s">
+      <c r="O126" s="17" t="s">
         <v>507</v>
       </c>
-      <c r="P126" s="12"/>
-      <c r="Q126" s="12"/>
-      <c r="R126" s="12"/>
-      <c r="S126" s="12" t="s">
+      <c r="P126" s="17"/>
+      <c r="Q126" s="17"/>
+      <c r="R126" s="17"/>
+      <c r="S126" s="17" t="s">
         <v>511</v>
       </c>
-      <c r="T126" s="12"/>
-      <c r="U126" s="12"/>
-      <c r="V126" s="12"/>
+      <c r="T126" s="17"/>
+      <c r="U126" s="17"/>
+      <c r="V126" s="17"/>
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="O127" s="12" t="s">
+      <c r="O127" s="17" t="s">
         <v>542</v>
       </c>
-      <c r="P127" s="12"/>
-      <c r="Q127" s="12"/>
-      <c r="R127" s="12"/>
-      <c r="S127" s="12" t="s">
+      <c r="P127" s="17"/>
+      <c r="Q127" s="17"/>
+      <c r="R127" s="17"/>
+      <c r="S127" s="17" t="s">
         <v>543</v>
       </c>
-      <c r="T127" s="12"/>
-      <c r="U127" s="12"/>
-      <c r="V127" s="12"/>
+      <c r="T127" s="17"/>
+      <c r="U127" s="17"/>
+      <c r="V127" s="17"/>
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O128" s="1" t="s">
@@ -18657,32 +18821,32 @@
       </c>
     </row>
     <row r="134" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O134" s="12" t="s">
+      <c r="O134" s="17" t="s">
         <v>507</v>
       </c>
-      <c r="P134" s="12"/>
-      <c r="Q134" s="12"/>
-      <c r="R134" s="12"/>
-      <c r="S134" s="12" t="s">
+      <c r="P134" s="17"/>
+      <c r="Q134" s="17"/>
+      <c r="R134" s="17"/>
+      <c r="S134" s="17" t="s">
         <v>511</v>
       </c>
-      <c r="T134" s="12"/>
-      <c r="U134" s="12"/>
-      <c r="V134" s="12"/>
+      <c r="T134" s="17"/>
+      <c r="U134" s="17"/>
+      <c r="V134" s="17"/>
     </row>
     <row r="135" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O135" s="12" t="s">
+      <c r="O135" s="17" t="s">
         <v>544</v>
       </c>
-      <c r="P135" s="12"/>
-      <c r="Q135" s="12"/>
-      <c r="R135" s="12"/>
-      <c r="S135" s="12" t="s">
+      <c r="P135" s="17"/>
+      <c r="Q135" s="17"/>
+      <c r="R135" s="17"/>
+      <c r="S135" s="17" t="s">
         <v>545</v>
       </c>
-      <c r="T135" s="12"/>
-      <c r="U135" s="12"/>
-      <c r="V135" s="12"/>
+      <c r="T135" s="17"/>
+      <c r="U135" s="17"/>
+      <c r="V135" s="17"/>
     </row>
     <row r="136" spans="15:22" x14ac:dyDescent="0.25">
       <c r="O136" s="1" t="s">
@@ -18841,29 +19005,23 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="90">
-    <mergeCell ref="O134:R134"/>
-    <mergeCell ref="S134:V134"/>
+  <mergeCells count="92">
     <mergeCell ref="O135:R135"/>
     <mergeCell ref="S135:V135"/>
-    <mergeCell ref="B92:E92"/>
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="B100:E100"/>
-    <mergeCell ref="B101:E101"/>
     <mergeCell ref="O126:R126"/>
     <mergeCell ref="O127:R127"/>
     <mergeCell ref="S126:V126"/>
     <mergeCell ref="S127:V127"/>
+    <mergeCell ref="O74:U74"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="O134:R134"/>
+    <mergeCell ref="S134:V134"/>
     <mergeCell ref="A109:F109"/>
     <mergeCell ref="A110:F110"/>
     <mergeCell ref="F92:I92"/>
     <mergeCell ref="F93:I93"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="G77:L77"/>
-    <mergeCell ref="G78:L78"/>
+    <mergeCell ref="V50:Z50"/>
     <mergeCell ref="V51:Z51"/>
     <mergeCell ref="A71:A76"/>
     <mergeCell ref="B71:B76"/>
@@ -18874,21 +19032,18 @@
     <mergeCell ref="F56:J56"/>
     <mergeCell ref="F57:J57"/>
     <mergeCell ref="O66:U66"/>
+    <mergeCell ref="O58:U58"/>
+    <mergeCell ref="O59:U59"/>
+    <mergeCell ref="V58:Z58"/>
+    <mergeCell ref="V59:Z59"/>
+    <mergeCell ref="O75:U75"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="O43:U43"/>
     <mergeCell ref="V35:Z35"/>
     <mergeCell ref="V34:Z34"/>
     <mergeCell ref="V43:Z43"/>
     <mergeCell ref="V42:Z42"/>
-    <mergeCell ref="V50:Z50"/>
-    <mergeCell ref="O34:U34"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="O58:U58"/>
-    <mergeCell ref="O59:U59"/>
-    <mergeCell ref="V58:Z58"/>
-    <mergeCell ref="V59:Z59"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="A10:E10"/>
@@ -18901,7 +19056,10 @@
     <mergeCell ref="A25:F25"/>
     <mergeCell ref="A24:F24"/>
     <mergeCell ref="O35:U35"/>
-    <mergeCell ref="O43:U43"/>
+    <mergeCell ref="O34:U34"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A41:F41"/>
     <mergeCell ref="O119:U119"/>
     <mergeCell ref="P85:X85"/>
     <mergeCell ref="P84:X84"/>
@@ -18912,14 +19070,22 @@
     <mergeCell ref="O111:U111"/>
     <mergeCell ref="O110:U110"/>
     <mergeCell ref="O118:U118"/>
-    <mergeCell ref="O75:U75"/>
-    <mergeCell ref="O74:U74"/>
     <mergeCell ref="O67:U67"/>
     <mergeCell ref="O50:U50"/>
     <mergeCell ref="O51:U51"/>
     <mergeCell ref="G123:L123"/>
     <mergeCell ref="C124:D124"/>
     <mergeCell ref="E124:F124"/>
+    <mergeCell ref="G109:L109"/>
+    <mergeCell ref="G110:L110"/>
+    <mergeCell ref="B101:E101"/>
+    <mergeCell ref="B100:E100"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="G78:L78"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="G77:L77"/>
+    <mergeCell ref="A77:F77"/>
     <mergeCell ref="E125:F125"/>
     <mergeCell ref="H118:L118"/>
     <mergeCell ref="H121:J121"/>
@@ -19072,13 +19238,13 @@
       <c r="A7" t="s">
         <v>504</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="19" t="s">
         <v>441</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -19184,12 +19350,12 @@
       <c r="A14" t="s">
         <v>504</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="19" t="s">
         <v>472</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">

--- a/plotting/617_temp.xlsx
+++ b/plotting/617_temp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="unet" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="561">
   <si>
     <t>.\vgg_unet2_0_3_640_640_64_256_rot_15_345_4_flip_5K\training_32_49_640_640_640_640_max_val_acc\vis\vis_log_181022_0927.txt</t>
   </si>
@@ -7598,10 +7598,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E396"/>
+  <dimension ref="A1:I389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8208,7 +8208,7 @@
         <v>0.63865000000000005</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>343</v>
       </c>
@@ -8222,7 +8222,7 @@
         <v>0.64681</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>344</v>
       </c>
@@ -8236,7 +8236,7 @@
         <v>0.60973999999999995</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="9" t="s">
         <v>405</v>
       </c>
@@ -8245,7 +8245,7 @@
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>326</v>
       </c>
@@ -8261,8 +8261,20 @@
       <c r="E53" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53" t="s">
+        <v>327</v>
+      </c>
+      <c r="G53" t="s">
+        <v>328</v>
+      </c>
+      <c r="H53" t="s">
+        <v>329</v>
+      </c>
+      <c r="I53" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>347</v>
       </c>
@@ -8278,8 +8290,11 @@
       <c r="E54">
         <v>0.77403999999999995</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I54">
+        <v>0.80845</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>348</v>
       </c>
@@ -8296,7 +8311,7 @@
         <v>0.83321000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>349</v>
       </c>
@@ -8312,8 +8327,17 @@
       <c r="E56">
         <v>0.70574999999999999</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <v>0.88705000000000001</v>
+      </c>
+      <c r="G56">
+        <v>0.83133000000000001</v>
+      </c>
+      <c r="H56">
+        <v>0.73011999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>350</v>
       </c>
@@ -8330,7 +8354,7 @@
         <v>0.81328999999999996</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>351</v>
       </c>
@@ -8347,7 +8371,7 @@
         <v>0.84316999999999998</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>326</v>
       </c>
@@ -8360,8 +8384,17 @@
       <c r="D59" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E59" t="s">
+        <v>331</v>
+      </c>
+      <c r="F59" t="s">
+        <v>332</v>
+      </c>
+      <c r="G59" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>347</v>
       </c>
@@ -8375,7 +8408,7 @@
         <v>0.82057000000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>348</v>
       </c>
@@ -8389,7 +8422,7 @@
         <v>0.88932999999999995</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>349</v>
       </c>
@@ -8402,8 +8435,17 @@
       <c r="D62">
         <v>0.69803999999999999</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E62">
+        <v>0.76243000000000005</v>
+      </c>
+      <c r="F62">
+        <v>0.68574000000000002</v>
+      </c>
+      <c r="G62">
+        <v>0.83911000000000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>350</v>
       </c>
@@ -8417,7 +8459,7 @@
         <v>0.82884000000000002</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>351</v>
       </c>
@@ -8431,7 +8473,7 @@
         <v>0.87512000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>326</v>
       </c>
@@ -8444,8 +8486,17 @@
       <c r="D65" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E65" t="s">
+        <v>334</v>
+      </c>
+      <c r="F65" t="s">
+        <v>335</v>
+      </c>
+      <c r="G65" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>347</v>
       </c>
@@ -8459,7 +8510,7 @@
         <v>0.69708000000000003</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>348</v>
       </c>
@@ -8473,7 +8524,7 @@
         <v>0.74800999999999995</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>349</v>
       </c>
@@ -8486,8 +8537,17 @@
       <c r="D68">
         <v>0.60480999999999996</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E68">
+        <v>0.64646999999999999</v>
+      </c>
+      <c r="F68">
+        <v>0.56706999999999996</v>
+      </c>
+      <c r="G68">
+        <v>0.72585999999999995</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>350</v>
       </c>
@@ -8501,7 +8561,7 @@
         <v>0.73675000000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>351</v>
       </c>
@@ -8515,16 +8575,16 @@
         <v>0.77141999999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:7" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="9" t="s">
-        <v>560</v>
+        <v>408</v>
       </c>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>326</v>
       </c>
@@ -8541,75 +8601,75 @@
         <v>330</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="B73">
-        <v>0.75665000000000004</v>
+        <v>0.78349999999999997</v>
       </c>
       <c r="C73">
-        <v>0.70316000000000001</v>
+        <v>0.70330000000000004</v>
       </c>
       <c r="D73">
-        <v>0.53307000000000004</v>
+        <v>0.55049999999999999</v>
       </c>
       <c r="E73">
-        <v>0.63429000000000002</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.66713</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="B74">
-        <v>0.81969999999999998</v>
+        <v>0.84292999999999996</v>
       </c>
       <c r="C74">
-        <v>0.76273000000000002</v>
+        <v>0.77654000000000001</v>
       </c>
       <c r="D74">
-        <v>0.61377000000000004</v>
+        <v>0.63722999999999996</v>
       </c>
       <c r="E74">
-        <v>0.71289000000000002</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.74658000000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="B75">
-        <v>0.84330000000000005</v>
+        <v>0.85211000000000003</v>
       </c>
       <c r="C75">
-        <v>0.81427000000000005</v>
+        <v>0.81479000000000001</v>
       </c>
       <c r="D75">
-        <v>0.66700000000000004</v>
+        <v>0.66393000000000002</v>
       </c>
       <c r="E75">
-        <v>0.75982000000000005</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.77188999999999997</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="B76">
-        <v>0.70186000000000004</v>
+        <v>0.68052000000000001</v>
       </c>
       <c r="C76">
-        <v>0.69220000000000004</v>
+        <v>0.68174999999999997</v>
       </c>
       <c r="D76">
-        <v>0.51175000000000004</v>
+        <v>0.48126000000000002</v>
       </c>
       <c r="E76">
-        <v>0.58694999999999997</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.56818000000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>326</v>
       </c>
@@ -8623,60 +8683,60 @@
         <v>333</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="B78">
-        <v>0.60331999999999997</v>
+        <v>0.59250000000000003</v>
       </c>
       <c r="C78">
-        <v>0.66396999999999995</v>
+        <v>0.63119000000000003</v>
       </c>
       <c r="D78">
-        <v>0.54266999999999999</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.54512000000000005</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="B79">
-        <v>0.67427999999999999</v>
+        <v>0.69084999999999996</v>
       </c>
       <c r="C79">
-        <v>0.61560999999999999</v>
+        <v>0.62795000000000001</v>
       </c>
       <c r="D79">
-        <v>0.73295999999999994</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.74899000000000004</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="B80">
-        <v>0.77910999999999997</v>
+        <v>0.7742</v>
       </c>
       <c r="C80">
-        <v>0.70916000000000001</v>
+        <v>0.67910999999999999</v>
       </c>
       <c r="D80">
-        <v>0.84906000000000004</v>
+        <v>0.86838000000000004</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="B81">
-        <v>0.69045999999999996</v>
+        <v>0.69211999999999996</v>
       </c>
       <c r="C81">
-        <v>0.49553999999999998</v>
+        <v>0.47805999999999998</v>
       </c>
       <c r="D81">
-        <v>0.88536999999999999</v>
+        <v>0.90880000000000005</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -8695,1219 +8755,1259 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="B83">
-        <v>0.41750999999999999</v>
+        <v>0.42047000000000001</v>
       </c>
       <c r="C83">
-        <v>0.37974999999999998</v>
+        <v>0.40679999999999999</v>
       </c>
       <c r="D83">
-        <v>0.45526</v>
+        <v>0.43414000000000003</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="B84">
-        <v>0.50958000000000003</v>
+        <v>0.51978000000000002</v>
       </c>
       <c r="C84">
-        <v>0.42936000000000002</v>
+        <v>0.46440999999999999</v>
       </c>
       <c r="D84">
-        <v>0.58979000000000004</v>
+        <v>0.57515000000000005</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="B85">
-        <v>0.57264999999999999</v>
+        <v>0.55120000000000002</v>
       </c>
       <c r="C85">
-        <v>0.48163</v>
+        <v>0.48081000000000002</v>
       </c>
       <c r="D85">
-        <v>0.66366999999999998</v>
+        <v>0.62158999999999998</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="B86">
-        <v>0.43225999999999998</v>
+        <v>0.39344000000000001</v>
       </c>
       <c r="C86">
-        <v>0.36031999999999997</v>
+        <v>0.35421000000000002</v>
       </c>
       <c r="D86">
-        <v>0.50421000000000005</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="B89" s="9"/>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9"/>
+        <v>0.43267</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>326</v>
+      </c>
+      <c r="B87" t="s">
+        <v>327</v>
+      </c>
+      <c r="C87" t="s">
+        <v>328</v>
+      </c>
+      <c r="D87" t="s">
+        <v>329</v>
+      </c>
+      <c r="E87" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>368</v>
+      </c>
+      <c r="B88">
+        <v>0.89100999999999997</v>
+      </c>
+      <c r="C88">
+        <v>0.84675</v>
+      </c>
+      <c r="D88">
+        <v>0.72382000000000002</v>
+      </c>
+      <c r="E88">
+        <v>0.82352000000000003</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>326</v>
+      </c>
+      <c r="B89" t="s">
+        <v>331</v>
+      </c>
+      <c r="C89" t="s">
+        <v>332</v>
+      </c>
+      <c r="D89" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>326</v>
-      </c>
-      <c r="B90" t="s">
-        <v>327</v>
-      </c>
-      <c r="C90" t="s">
-        <v>328</v>
-      </c>
-      <c r="D90" t="s">
-        <v>329</v>
-      </c>
-      <c r="E90" t="s">
-        <v>330</v>
+        <v>368</v>
+      </c>
+      <c r="B90">
+        <v>0.79335</v>
+      </c>
+      <c r="C90">
+        <v>0.70355999999999996</v>
+      </c>
+      <c r="D90">
+        <v>0.88729999999999998</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>356</v>
-      </c>
-      <c r="B91">
-        <v>0.81962000000000002</v>
-      </c>
-      <c r="C91">
-        <v>0.73504000000000003</v>
-      </c>
-      <c r="D91">
-        <v>0.58623999999999998</v>
-      </c>
-      <c r="E91">
-        <v>0.73487999999999998</v>
+        <v>326</v>
+      </c>
+      <c r="B91" t="s">
+        <v>334</v>
+      </c>
+      <c r="C91" t="s">
+        <v>335</v>
+      </c>
+      <c r="D91" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="B92">
-        <v>0.81411999999999995</v>
+        <v>0.61336000000000002</v>
       </c>
       <c r="C92">
-        <v>0.71357000000000004</v>
+        <v>0.55174000000000001</v>
       </c>
       <c r="D92">
-        <v>0.56237000000000004</v>
-      </c>
-      <c r="E92">
-        <v>0.72353000000000001</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>358</v>
-      </c>
-      <c r="B93">
-        <v>0.84953999999999996</v>
-      </c>
-      <c r="C93">
-        <v>0.78174999999999994</v>
-      </c>
-      <c r="D93">
-        <v>0.63836000000000004</v>
-      </c>
-      <c r="E93">
-        <v>0.76995999999999998</v>
+        <v>0.67498000000000002</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>359</v>
-      </c>
-      <c r="B94">
-        <v>0.85692000000000002</v>
-      </c>
-      <c r="C94">
-        <v>0.79176000000000002</v>
-      </c>
-      <c r="D94">
-        <v>0.65083999999999997</v>
-      </c>
-      <c r="E94">
-        <v>0.77676000000000001</v>
+        <v>326</v>
+      </c>
+      <c r="B94" t="s">
+        <v>327</v>
+      </c>
+      <c r="C94" t="s">
+        <v>328</v>
+      </c>
+      <c r="D94" t="s">
+        <v>329</v>
+      </c>
+      <c r="E94" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>326</v>
-      </c>
-      <c r="B95" t="s">
-        <v>331</v>
-      </c>
-      <c r="C95" t="s">
-        <v>332</v>
-      </c>
-      <c r="D95" t="s">
-        <v>333</v>
+        <v>369</v>
+      </c>
+      <c r="B95">
+        <v>0.79908999999999997</v>
+      </c>
+      <c r="C95">
+        <v>0.78071000000000002</v>
+      </c>
+      <c r="D95">
+        <v>0.60584000000000005</v>
+      </c>
+      <c r="E95">
+        <v>0.70316000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>356</v>
-      </c>
-      <c r="B96">
-        <v>0.63861999999999997</v>
-      </c>
-      <c r="C96">
-        <v>0.47465000000000002</v>
-      </c>
-      <c r="D96">
-        <v>0.80683000000000005</v>
+        <v>326</v>
+      </c>
+      <c r="B96" t="s">
+        <v>331</v>
+      </c>
+      <c r="C96" t="s">
+        <v>332</v>
+      </c>
+      <c r="D96" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="B97">
-        <v>0.60709999999999997</v>
+        <v>0.76398999999999995</v>
       </c>
       <c r="C97">
-        <v>0.29876999999999998</v>
+        <v>0.63022</v>
       </c>
       <c r="D97">
-        <v>0.92940999999999996</v>
+        <v>0.89809000000000005</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>358</v>
-      </c>
-      <c r="B98">
-        <v>0.69986000000000004</v>
-      </c>
-      <c r="C98">
-        <v>0.54901999999999995</v>
-      </c>
-      <c r="D98">
-        <v>0.85431000000000001</v>
+        <v>326</v>
+      </c>
+      <c r="B98" t="s">
+        <v>334</v>
+      </c>
+      <c r="C98" t="s">
+        <v>335</v>
+      </c>
+      <c r="D98" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="B99">
-        <v>0.71292999999999995</v>
+        <v>0.50363000000000002</v>
       </c>
       <c r="C99">
-        <v>0.54766999999999999</v>
+        <v>0.46076</v>
       </c>
       <c r="D99">
-        <v>0.88104000000000005</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>326</v>
-      </c>
-      <c r="B100" t="s">
-        <v>334</v>
-      </c>
-      <c r="C100" t="s">
-        <v>335</v>
-      </c>
-      <c r="D100" t="s">
-        <v>336</v>
-      </c>
+        <v>0.54651000000000005</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>356</v>
-      </c>
-      <c r="B101">
-        <v>0.42648000000000003</v>
-      </c>
-      <c r="C101">
-        <v>0.31435999999999997</v>
-      </c>
-      <c r="D101">
-        <v>0.53859000000000001</v>
+        <v>326</v>
+      </c>
+      <c r="B101" t="s">
+        <v>327</v>
+      </c>
+      <c r="C101" t="s">
+        <v>328</v>
+      </c>
+      <c r="D101" t="s">
+        <v>329</v>
+      </c>
+      <c r="E101" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B102">
-        <v>0.39287</v>
+        <v>0.75665000000000004</v>
       </c>
       <c r="C102">
-        <v>0.22614000000000001</v>
+        <v>0.70316000000000001</v>
       </c>
       <c r="D102">
-        <v>0.55961000000000005</v>
+        <v>0.53307000000000004</v>
+      </c>
+      <c r="E102">
+        <v>0.63429000000000002</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B103">
-        <v>0.4965</v>
+        <v>0.81969999999999998</v>
       </c>
       <c r="C103">
-        <v>0.38762000000000002</v>
+        <v>0.76273000000000002</v>
       </c>
       <c r="D103">
-        <v>0.60536999999999996</v>
+        <v>0.61377000000000004</v>
+      </c>
+      <c r="E103">
+        <v>0.71289000000000002</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B104">
-        <v>0.51256999999999997</v>
+        <v>0.84330000000000005</v>
       </c>
       <c r="C104">
-        <v>0.40284999999999999</v>
+        <v>0.81427000000000005</v>
       </c>
       <c r="D104">
-        <v>0.62228000000000006</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A108" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="B108" s="9"/>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9"/>
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="E104">
+        <v>0.75982000000000005</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>355</v>
+      </c>
+      <c r="B105">
+        <v>0.70186000000000004</v>
+      </c>
+      <c r="C105">
+        <v>0.69220000000000004</v>
+      </c>
+      <c r="D105">
+        <v>0.51175000000000004</v>
+      </c>
+      <c r="E105">
+        <v>0.58694999999999997</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>326</v>
+      </c>
+      <c r="B106" t="s">
+        <v>331</v>
+      </c>
+      <c r="C106" t="s">
+        <v>332</v>
+      </c>
+      <c r="D106" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>352</v>
+      </c>
+      <c r="B107">
+        <v>0.60331999999999997</v>
+      </c>
+      <c r="C107">
+        <v>0.66396999999999995</v>
+      </c>
+      <c r="D107">
+        <v>0.54266999999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>353</v>
+      </c>
+      <c r="B108">
+        <v>0.67427999999999999</v>
+      </c>
+      <c r="C108">
+        <v>0.61560999999999999</v>
+      </c>
+      <c r="D108">
+        <v>0.73295999999999994</v>
+      </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>326</v>
-      </c>
-      <c r="B109" t="s">
-        <v>327</v>
-      </c>
-      <c r="C109" t="s">
-        <v>328</v>
-      </c>
-      <c r="D109" t="s">
-        <v>329</v>
-      </c>
-      <c r="E109" t="s">
-        <v>330</v>
+        <v>354</v>
+      </c>
+      <c r="B109">
+        <v>0.77910999999999997</v>
+      </c>
+      <c r="C109">
+        <v>0.70916000000000001</v>
+      </c>
+      <c r="D109">
+        <v>0.84906000000000004</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B110">
-        <v>0.73880999999999997</v>
+        <v>0.69045999999999996</v>
       </c>
       <c r="C110">
-        <v>0.61875999999999998</v>
+        <v>0.49553999999999998</v>
       </c>
       <c r="D110">
-        <v>0.46059</v>
-      </c>
-      <c r="E110">
-        <v>0.63285999999999998</v>
+        <v>0.88536999999999999</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>361</v>
-      </c>
-      <c r="B111">
-        <v>0.77190999999999999</v>
-      </c>
-      <c r="C111">
-        <v>0.68562999999999996</v>
-      </c>
-      <c r="D111">
-        <v>0.52927999999999997</v>
-      </c>
-      <c r="E111">
-        <v>0.67601</v>
+        <v>326</v>
+      </c>
+      <c r="B111" t="s">
+        <v>334</v>
+      </c>
+      <c r="C111" t="s">
+        <v>335</v>
+      </c>
+      <c r="D111" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="B112">
-        <v>0.85150999999999999</v>
+        <v>0.41750999999999999</v>
       </c>
       <c r="C112">
-        <v>0.79642999999999997</v>
+        <v>0.37974999999999998</v>
       </c>
       <c r="D112">
-        <v>0.65163000000000004</v>
-      </c>
-      <c r="E112">
-        <v>0.77164999999999995</v>
+        <v>0.45526</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="B113">
-        <v>0.84323000000000004</v>
+        <v>0.50958000000000003</v>
       </c>
       <c r="C113">
-        <v>0.78925999999999996</v>
+        <v>0.42936000000000002</v>
       </c>
       <c r="D113">
-        <v>0.64076</v>
-      </c>
-      <c r="E113">
-        <v>0.76354</v>
+        <v>0.58979000000000004</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>326</v>
-      </c>
-      <c r="B114" t="s">
-        <v>331</v>
-      </c>
-      <c r="C114" t="s">
-        <v>332</v>
-      </c>
-      <c r="D114" t="s">
-        <v>333</v>
+        <v>354</v>
+      </c>
+      <c r="B114">
+        <v>0.57264999999999999</v>
+      </c>
+      <c r="C114">
+        <v>0.48163</v>
+      </c>
+      <c r="D114">
+        <v>0.66366999999999998</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B115">
-        <v>0.50844</v>
+        <v>0.43225999999999998</v>
       </c>
       <c r="C115">
-        <v>0.17022999999999999</v>
+        <v>0.36031999999999997</v>
       </c>
       <c r="D115">
-        <v>0.86138000000000003</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>361</v>
-      </c>
-      <c r="B116">
-        <v>0.59592999999999996</v>
-      </c>
-      <c r="C116">
-        <v>0.39867000000000002</v>
-      </c>
-      <c r="D116">
-        <v>0.80130999999999997</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>362</v>
-      </c>
-      <c r="B117">
-        <v>0.72714999999999996</v>
-      </c>
-      <c r="C117">
-        <v>0.59404000000000001</v>
-      </c>
-      <c r="D117">
-        <v>0.86197000000000001</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>363</v>
-      </c>
-      <c r="B118">
-        <v>0.72304999999999997</v>
-      </c>
-      <c r="C118">
-        <v>0.53310000000000002</v>
-      </c>
-      <c r="D118">
-        <v>0.91722000000000004</v>
-      </c>
+        <v>0.50421000000000005</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="B118" s="9"/>
+      <c r="C118" s="9"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>326</v>
       </c>
       <c r="B119" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C119" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="D119" t="s">
-        <v>336</v>
+        <v>329</v>
+      </c>
+      <c r="E119" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B120">
-        <v>0.28942000000000001</v>
+        <v>0.81962000000000002</v>
       </c>
       <c r="C120">
-        <v>0.11826</v>
+        <v>0.73504000000000003</v>
       </c>
       <c r="D120">
-        <v>0.46057999999999999</v>
+        <v>0.58623999999999998</v>
+      </c>
+      <c r="E120">
+        <v>0.73487999999999998</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B121">
-        <v>0.38246999999999998</v>
+        <v>0.81411999999999995</v>
       </c>
       <c r="C121">
-        <v>0.23729</v>
+        <v>0.71357000000000004</v>
       </c>
       <c r="D121">
-        <v>0.52764</v>
+        <v>0.56237000000000004</v>
+      </c>
+      <c r="E121">
+        <v>0.72353000000000001</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B122">
-        <v>0.52188999999999997</v>
+        <v>0.84953999999999996</v>
       </c>
       <c r="C122">
-        <v>0.42347000000000001</v>
+        <v>0.78174999999999994</v>
       </c>
       <c r="D122">
-        <v>0.62029999999999996</v>
+        <v>0.63836000000000004</v>
+      </c>
+      <c r="E122">
+        <v>0.76995999999999998</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B123">
-        <v>0.50846999999999998</v>
+        <v>0.85692000000000002</v>
       </c>
       <c r="C123">
-        <v>0.3891</v>
+        <v>0.79176000000000002</v>
       </c>
       <c r="D123">
-        <v>0.62785000000000002</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A126" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="B126" s="9"/>
-      <c r="C126" s="9"/>
-      <c r="D126" s="9"/>
-      <c r="E126" s="9"/>
+        <v>0.65083999999999997</v>
+      </c>
+      <c r="E123">
+        <v>0.77676000000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>326</v>
+      </c>
+      <c r="B124" t="s">
+        <v>331</v>
+      </c>
+      <c r="C124" t="s">
+        <v>332</v>
+      </c>
+      <c r="D124" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>356</v>
+      </c>
+      <c r="B125">
+        <v>0.63861999999999997</v>
+      </c>
+      <c r="C125">
+        <v>0.47465000000000002</v>
+      </c>
+      <c r="D125">
+        <v>0.80683000000000005</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>357</v>
+      </c>
+      <c r="B126">
+        <v>0.60709999999999997</v>
+      </c>
+      <c r="C126">
+        <v>0.29876999999999998</v>
+      </c>
+      <c r="D126">
+        <v>0.92940999999999996</v>
+      </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>326</v>
-      </c>
-      <c r="B127" t="s">
-        <v>327</v>
-      </c>
-      <c r="C127" t="s">
-        <v>328</v>
-      </c>
-      <c r="D127" t="s">
-        <v>329</v>
-      </c>
-      <c r="E127" t="s">
-        <v>330</v>
+        <v>358</v>
+      </c>
+      <c r="B127">
+        <v>0.69986000000000004</v>
+      </c>
+      <c r="C127">
+        <v>0.54901999999999995</v>
+      </c>
+      <c r="D127">
+        <v>0.85431000000000001</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>313</v>
+        <v>359</v>
       </c>
       <c r="B128">
-        <v>0.81688000000000005</v>
+        <v>0.71292999999999995</v>
       </c>
       <c r="C128">
-        <v>0.72336999999999996</v>
+        <v>0.54766999999999999</v>
       </c>
       <c r="D128">
-        <v>0.58450000000000002</v>
-      </c>
-      <c r="E128">
-        <v>0.72872000000000003</v>
+        <v>0.88104000000000005</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>314</v>
-      </c>
-      <c r="B129">
-        <v>0.83616000000000001</v>
-      </c>
-      <c r="C129">
-        <v>0.75777000000000005</v>
-      </c>
-      <c r="D129">
-        <v>0.61704000000000003</v>
-      </c>
-      <c r="E129">
-        <v>0.74802000000000002</v>
+        <v>326</v>
+      </c>
+      <c r="B129" t="s">
+        <v>334</v>
+      </c>
+      <c r="C129" t="s">
+        <v>335</v>
+      </c>
+      <c r="D129" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>315</v>
+        <v>356</v>
       </c>
       <c r="B130">
-        <v>0.82662000000000002</v>
+        <v>0.42648000000000003</v>
       </c>
       <c r="C130">
-        <v>0.77014000000000005</v>
+        <v>0.31435999999999997</v>
       </c>
       <c r="D130">
-        <v>0.61861999999999995</v>
-      </c>
-      <c r="E130">
-        <v>0.74290999999999996</v>
+        <v>0.53859000000000001</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
       <c r="B131">
-        <v>0.83028999999999997</v>
+        <v>0.39287</v>
       </c>
       <c r="C131">
-        <v>0.76678999999999997</v>
+        <v>0.22614000000000001</v>
       </c>
       <c r="D131">
-        <v>0.61736999999999997</v>
-      </c>
-      <c r="E131">
-        <v>0.74683999999999995</v>
+        <v>0.55961000000000005</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>326</v>
-      </c>
-      <c r="B132" t="s">
-        <v>331</v>
-      </c>
-      <c r="C132" t="s">
-        <v>332</v>
-      </c>
-      <c r="D132" t="s">
-        <v>333</v>
+        <v>358</v>
+      </c>
+      <c r="B132">
+        <v>0.4965</v>
+      </c>
+      <c r="C132">
+        <v>0.38762000000000002</v>
+      </c>
+      <c r="D132">
+        <v>0.60536999999999996</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>313</v>
+        <v>359</v>
       </c>
       <c r="B133">
-        <v>0.61875000000000002</v>
+        <v>0.51256999999999997</v>
       </c>
       <c r="C133">
-        <v>0.40262999999999999</v>
+        <v>0.40284999999999999</v>
       </c>
       <c r="D133">
-        <v>0.84050999999999998</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>314</v>
-      </c>
-      <c r="B134">
-        <v>0.66317999999999999</v>
-      </c>
-      <c r="C134">
-        <v>0.48426000000000002</v>
-      </c>
-      <c r="D134">
-        <v>0.84555000000000002</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>315</v>
-      </c>
-      <c r="B135">
-        <v>0.7006</v>
-      </c>
-      <c r="C135">
-        <v>0.53861000000000003</v>
-      </c>
-      <c r="D135">
-        <v>0.86504000000000003</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>316</v>
-      </c>
-      <c r="B136">
-        <v>0.69418999999999997</v>
-      </c>
-      <c r="C136">
-        <v>0.49009999999999998</v>
-      </c>
-      <c r="D136">
-        <v>0.90249000000000001</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>326</v>
-      </c>
-      <c r="B137" t="s">
-        <v>334</v>
-      </c>
-      <c r="C137" t="s">
-        <v>335</v>
-      </c>
-      <c r="D137" t="s">
-        <v>336</v>
-      </c>
+        <v>0.62228000000000006</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A137" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="B137" s="9"/>
+      <c r="C137" s="9"/>
+      <c r="D137" s="9"/>
+      <c r="E137" s="9"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>313</v>
-      </c>
-      <c r="B138">
-        <v>0.43375999999999998</v>
-      </c>
-      <c r="C138">
-        <v>0.28355000000000002</v>
-      </c>
-      <c r="D138">
-        <v>0.58396999999999999</v>
+        <v>326</v>
+      </c>
+      <c r="B138" t="s">
+        <v>327</v>
+      </c>
+      <c r="C138" t="s">
+        <v>328</v>
+      </c>
+      <c r="D138" t="s">
+        <v>329</v>
+      </c>
+      <c r="E138" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>314</v>
+        <v>360</v>
       </c>
       <c r="B139">
-        <v>0.47763</v>
+        <v>0.73880999999999997</v>
       </c>
       <c r="C139">
-        <v>0.35178999999999999</v>
+        <v>0.61875999999999998</v>
       </c>
       <c r="D139">
-        <v>0.60346</v>
+        <v>0.46059</v>
+      </c>
+      <c r="E139">
+        <v>0.63285999999999998</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>315</v>
+        <v>361</v>
       </c>
       <c r="B140">
-        <v>0.48580000000000001</v>
+        <v>0.77190999999999999</v>
       </c>
       <c r="C140">
-        <v>0.37679000000000001</v>
+        <v>0.68562999999999996</v>
       </c>
       <c r="D140">
-        <v>0.59480999999999995</v>
+        <v>0.52927999999999997</v>
+      </c>
+      <c r="E140">
+        <v>0.67601</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>316</v>
+        <v>362</v>
       </c>
       <c r="B141">
-        <v>0.48031000000000001</v>
+        <v>0.85150999999999999</v>
       </c>
       <c r="C141">
-        <v>0.35871999999999998</v>
+        <v>0.79642999999999997</v>
       </c>
       <c r="D141">
-        <v>0.60189000000000004</v>
+        <v>0.65163000000000004</v>
+      </c>
+      <c r="E141">
+        <v>0.77164999999999995</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>363</v>
+      </c>
+      <c r="B142">
+        <v>0.84323000000000004</v>
+      </c>
+      <c r="C142">
+        <v>0.78925999999999996</v>
+      </c>
+      <c r="D142">
+        <v>0.64076</v>
+      </c>
+      <c r="E142">
+        <v>0.76354</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>326</v>
+      </c>
+      <c r="B143" t="s">
+        <v>331</v>
+      </c>
+      <c r="C143" t="s">
+        <v>332</v>
+      </c>
+      <c r="D143" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>360</v>
+      </c>
+      <c r="B144">
+        <v>0.50844</v>
+      </c>
+      <c r="C144">
+        <v>0.17022999999999999</v>
+      </c>
+      <c r="D144">
+        <v>0.86138000000000003</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>326</v>
-      </c>
-      <c r="B145" t="s">
-        <v>327</v>
-      </c>
-      <c r="C145" t="s">
-        <v>328</v>
-      </c>
-      <c r="D145" t="s">
-        <v>329</v>
-      </c>
-      <c r="E145" t="s">
-        <v>330</v>
+        <v>361</v>
+      </c>
+      <c r="B145">
+        <v>0.59592999999999996</v>
+      </c>
+      <c r="C145">
+        <v>0.39867000000000002</v>
+      </c>
+      <c r="D145">
+        <v>0.80130999999999997</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>317</v>
+        <v>362</v>
       </c>
       <c r="B146">
-        <v>0.77725999999999995</v>
+        <v>0.72714999999999996</v>
       </c>
       <c r="C146">
-        <v>0.71187</v>
+        <v>0.59404000000000001</v>
       </c>
       <c r="D146">
-        <v>0.54569999999999996</v>
-      </c>
-      <c r="E146">
-        <v>0.68638999999999994</v>
+        <v>0.86197000000000001</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>318</v>
+        <v>363</v>
       </c>
       <c r="B147">
-        <v>0.80839000000000005</v>
+        <v>0.72304999999999997</v>
       </c>
       <c r="C147">
-        <v>0.74253000000000002</v>
+        <v>0.53310000000000002</v>
       </c>
       <c r="D147">
-        <v>0.58170999999999995</v>
-      </c>
-      <c r="E147">
-        <v>0.72148000000000001</v>
+        <v>0.91722000000000004</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>319</v>
-      </c>
-      <c r="B148">
-        <v>0.79132000000000002</v>
-      </c>
-      <c r="C148">
-        <v>0.75441000000000003</v>
-      </c>
-      <c r="D148">
-        <v>0.58547000000000005</v>
-      </c>
-      <c r="E148">
-        <v>0.70548</v>
+        <v>326</v>
+      </c>
+      <c r="B148" t="s">
+        <v>334</v>
+      </c>
+      <c r="C148" t="s">
+        <v>335</v>
+      </c>
+      <c r="D148" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="B149">
-        <v>0.81359999999999999</v>
+        <v>0.28942000000000001</v>
       </c>
       <c r="C149">
-        <v>0.77532999999999996</v>
+        <v>0.11826</v>
       </c>
       <c r="D149">
-        <v>0.61485000000000001</v>
-      </c>
-      <c r="E149">
-        <v>0.73241000000000001</v>
+        <v>0.46057999999999999</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>326</v>
-      </c>
-      <c r="B150" t="s">
-        <v>331</v>
-      </c>
-      <c r="C150" t="s">
-        <v>332</v>
-      </c>
-      <c r="D150" t="s">
-        <v>333</v>
+        <v>361</v>
+      </c>
+      <c r="B150">
+        <v>0.38246999999999998</v>
+      </c>
+      <c r="C150">
+        <v>0.23729</v>
+      </c>
+      <c r="D150">
+        <v>0.52764</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>317</v>
+        <v>362</v>
       </c>
       <c r="B151">
-        <v>0.63382000000000005</v>
+        <v>0.52188999999999997</v>
       </c>
       <c r="C151">
-        <v>0.47305999999999998</v>
+        <v>0.42347000000000001</v>
       </c>
       <c r="D151">
-        <v>0.79849000000000003</v>
+        <v>0.62029999999999996</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>318</v>
+        <v>363</v>
       </c>
       <c r="B152">
-        <v>0.66308999999999996</v>
+        <v>0.50846999999999998</v>
       </c>
       <c r="C152">
-        <v>0.49720999999999999</v>
+        <v>0.3891</v>
       </c>
       <c r="D152">
-        <v>0.83160999999999996</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>319</v>
-      </c>
-      <c r="B153">
-        <v>0.69972999999999996</v>
-      </c>
-      <c r="C153">
-        <v>0.54895000000000005</v>
-      </c>
-      <c r="D153">
-        <v>0.85296000000000005</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>320</v>
-      </c>
-      <c r="B154">
-        <v>0.72335000000000005</v>
-      </c>
-      <c r="C154">
-        <v>0.57962000000000002</v>
-      </c>
-      <c r="D154">
-        <v>0.86944999999999995</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>326</v>
-      </c>
-      <c r="B155" t="s">
-        <v>334</v>
-      </c>
-      <c r="C155" t="s">
-        <v>335</v>
-      </c>
-      <c r="D155" t="s">
-        <v>336</v>
-      </c>
+        <v>0.62785000000000002</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A155" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="B155" s="9"/>
+      <c r="C155" s="9"/>
+      <c r="D155" s="9"/>
+      <c r="E155" s="9"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>317</v>
-      </c>
-      <c r="B156">
-        <v>0.39601999999999998</v>
-      </c>
-      <c r="C156">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="D156">
-        <v>0.49303000000000002</v>
+        <v>326</v>
+      </c>
+      <c r="B156" t="s">
+        <v>327</v>
+      </c>
+      <c r="C156" t="s">
+        <v>328</v>
+      </c>
+      <c r="D156" t="s">
+        <v>329</v>
+      </c>
+      <c r="E156" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B157">
-        <v>0.43192999999999998</v>
+        <v>0.81688000000000005</v>
       </c>
       <c r="C157">
-        <v>0.32988000000000001</v>
+        <v>0.72336999999999996</v>
       </c>
       <c r="D157">
-        <v>0.53398000000000001</v>
+        <v>0.58450000000000002</v>
+      </c>
+      <c r="E157">
+        <v>0.72872000000000003</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B158">
-        <v>0.45530999999999999</v>
+        <v>0.83616000000000001</v>
       </c>
       <c r="C158">
-        <v>0.35004999999999997</v>
+        <v>0.75777000000000005</v>
       </c>
       <c r="D158">
-        <v>0.56057999999999997</v>
+        <v>0.61704000000000003</v>
+      </c>
+      <c r="E158">
+        <v>0.74802000000000002</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B159">
-        <v>0.4884</v>
+        <v>0.82662000000000002</v>
       </c>
       <c r="C159">
-        <v>0.37895000000000001</v>
+        <v>0.77014000000000005</v>
       </c>
       <c r="D159">
-        <v>0.59784000000000004</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A162" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="B162" s="9"/>
-      <c r="C162" s="9"/>
-      <c r="D162" s="9"/>
-      <c r="E162" s="9"/>
+        <v>0.61861999999999995</v>
+      </c>
+      <c r="E159">
+        <v>0.74290999999999996</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>316</v>
+      </c>
+      <c r="B160">
+        <v>0.83028999999999997</v>
+      </c>
+      <c r="C160">
+        <v>0.76678999999999997</v>
+      </c>
+      <c r="D160">
+        <v>0.61736999999999997</v>
+      </c>
+      <c r="E160">
+        <v>0.74683999999999995</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>326</v>
+      </c>
+      <c r="B161" t="s">
+        <v>331</v>
+      </c>
+      <c r="C161" t="s">
+        <v>332</v>
+      </c>
+      <c r="D161" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>313</v>
+      </c>
+      <c r="B162">
+        <v>0.61875000000000002</v>
+      </c>
+      <c r="C162">
+        <v>0.40262999999999999</v>
+      </c>
+      <c r="D162">
+        <v>0.84050999999999998</v>
+      </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>326</v>
-      </c>
-      <c r="B163" t="s">
-        <v>327</v>
-      </c>
-      <c r="C163" t="s">
-        <v>328</v>
-      </c>
-      <c r="D163" t="s">
-        <v>329</v>
-      </c>
-      <c r="E163" t="s">
-        <v>330</v>
+        <v>314</v>
+      </c>
+      <c r="B163">
+        <v>0.66317999999999999</v>
+      </c>
+      <c r="C163">
+        <v>0.48426000000000002</v>
+      </c>
+      <c r="D163">
+        <v>0.84555000000000002</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>364</v>
+        <v>315</v>
       </c>
       <c r="B164">
-        <v>0.78349999999999997</v>
+        <v>0.7006</v>
       </c>
       <c r="C164">
-        <v>0.70330000000000004</v>
+        <v>0.53861000000000003</v>
       </c>
       <c r="D164">
-        <v>0.55049999999999999</v>
-      </c>
-      <c r="E164">
-        <v>0.66713</v>
+        <v>0.86504000000000003</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>365</v>
+        <v>316</v>
       </c>
       <c r="B165">
-        <v>0.84292999999999996</v>
+        <v>0.69418999999999997</v>
       </c>
       <c r="C165">
-        <v>0.77654000000000001</v>
+        <v>0.49009999999999998</v>
       </c>
       <c r="D165">
-        <v>0.63722999999999996</v>
-      </c>
-      <c r="E165">
-        <v>0.74658000000000002</v>
+        <v>0.90249000000000001</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>366</v>
-      </c>
-      <c r="B166">
-        <v>0.85211000000000003</v>
-      </c>
-      <c r="C166">
-        <v>0.81479000000000001</v>
-      </c>
-      <c r="D166">
-        <v>0.66393000000000002</v>
-      </c>
-      <c r="E166">
-        <v>0.77188999999999997</v>
+        <v>326</v>
+      </c>
+      <c r="B166" t="s">
+        <v>334</v>
+      </c>
+      <c r="C166" t="s">
+        <v>335</v>
+      </c>
+      <c r="D166" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>367</v>
+        <v>313</v>
       </c>
       <c r="B167">
-        <v>0.68052000000000001</v>
+        <v>0.43375999999999998</v>
       </c>
       <c r="C167">
-        <v>0.68174999999999997</v>
+        <v>0.28355000000000002</v>
       </c>
       <c r="D167">
-        <v>0.48126000000000002</v>
-      </c>
-      <c r="E167">
-        <v>0.56818000000000002</v>
+        <v>0.58396999999999999</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>326</v>
-      </c>
-      <c r="B168" t="s">
-        <v>331</v>
-      </c>
-      <c r="C168" t="s">
-        <v>332</v>
-      </c>
-      <c r="D168" t="s">
-        <v>333</v>
+        <v>314</v>
+      </c>
+      <c r="B168">
+        <v>0.47763</v>
+      </c>
+      <c r="C168">
+        <v>0.35178999999999999</v>
+      </c>
+      <c r="D168">
+        <v>0.60346</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>364</v>
+        <v>315</v>
       </c>
       <c r="B169">
-        <v>0.59250000000000003</v>
+        <v>0.48580000000000001</v>
       </c>
       <c r="C169">
-        <v>0.63119000000000003</v>
+        <v>0.37679000000000001</v>
       </c>
       <c r="D169">
-        <v>0.54512000000000005</v>
+        <v>0.59480999999999995</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>365</v>
+        <v>316</v>
       </c>
       <c r="B170">
-        <v>0.69084999999999996</v>
+        <v>0.48031000000000001</v>
       </c>
       <c r="C170">
-        <v>0.62795000000000001</v>
+        <v>0.35871999999999998</v>
       </c>
       <c r="D170">
-        <v>0.74899000000000004</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>366</v>
-      </c>
-      <c r="B171">
-        <v>0.7742</v>
-      </c>
-      <c r="C171">
-        <v>0.67910999999999999</v>
-      </c>
-      <c r="D171">
-        <v>0.86838000000000004</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>367</v>
-      </c>
-      <c r="B172">
-        <v>0.69211999999999996</v>
-      </c>
-      <c r="C172">
-        <v>0.47805999999999998</v>
-      </c>
-      <c r="D172">
-        <v>0.90880000000000005</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>326</v>
-      </c>
-      <c r="B173" t="s">
-        <v>334</v>
-      </c>
-      <c r="C173" t="s">
-        <v>335</v>
-      </c>
-      <c r="D173" t="s">
-        <v>336</v>
+        <v>0.60189000000000004</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>364</v>
-      </c>
-      <c r="B174">
-        <v>0.42047000000000001</v>
-      </c>
-      <c r="C174">
-        <v>0.40679999999999999</v>
-      </c>
-      <c r="D174">
-        <v>0.43414000000000003</v>
+        <v>326</v>
+      </c>
+      <c r="B174" t="s">
+        <v>327</v>
+      </c>
+      <c r="C174" t="s">
+        <v>328</v>
+      </c>
+      <c r="D174" t="s">
+        <v>329</v>
+      </c>
+      <c r="E174" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>365</v>
+        <v>317</v>
       </c>
       <c r="B175">
-        <v>0.51978000000000002</v>
+        <v>0.77725999999999995</v>
       </c>
       <c r="C175">
-        <v>0.46440999999999999</v>
+        <v>0.71187</v>
       </c>
       <c r="D175">
-        <v>0.57515000000000005</v>
+        <v>0.54569999999999996</v>
+      </c>
+      <c r="E175">
+        <v>0.68638999999999994</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>366</v>
+        <v>318</v>
       </c>
       <c r="B176">
-        <v>0.55120000000000002</v>
+        <v>0.80839000000000005</v>
       </c>
       <c r="C176">
-        <v>0.48081000000000002</v>
+        <v>0.74253000000000002</v>
       </c>
       <c r="D176">
-        <v>0.62158999999999998</v>
+        <v>0.58170999999999995</v>
+      </c>
+      <c r="E176">
+        <v>0.72148000000000001</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>367</v>
+        <v>319</v>
       </c>
       <c r="B177">
-        <v>0.39344000000000001</v>
+        <v>0.79132000000000002</v>
       </c>
       <c r="C177">
-        <v>0.35421000000000002</v>
+        <v>0.75441000000000003</v>
       </c>
       <c r="D177">
-        <v>0.43267</v>
+        <v>0.58547000000000005</v>
+      </c>
+      <c r="E177">
+        <v>0.70548</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>320</v>
+      </c>
+      <c r="B178">
+        <v>0.81359999999999999</v>
+      </c>
+      <c r="C178">
+        <v>0.77532999999999996</v>
+      </c>
+      <c r="D178">
+        <v>0.61485000000000001</v>
+      </c>
+      <c r="E178">
+        <v>0.73241000000000001</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -9915,433 +10015,373 @@
         <v>326</v>
       </c>
       <c r="B179" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C179" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D179" t="s">
-        <v>329</v>
-      </c>
-      <c r="E179" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>368</v>
+        <v>317</v>
       </c>
       <c r="B180">
-        <v>0.89100999999999997</v>
+        <v>0.63382000000000005</v>
       </c>
       <c r="C180">
-        <v>0.84675</v>
+        <v>0.47305999999999998</v>
       </c>
       <c r="D180">
-        <v>0.72382000000000002</v>
-      </c>
-      <c r="E180">
-        <v>0.82352000000000003</v>
+        <v>0.79849000000000003</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>326</v>
-      </c>
-      <c r="B181" t="s">
-        <v>331</v>
-      </c>
-      <c r="C181" t="s">
-        <v>332</v>
-      </c>
-      <c r="D181" t="s">
-        <v>333</v>
+        <v>318</v>
+      </c>
+      <c r="B181">
+        <v>0.66308999999999996</v>
+      </c>
+      <c r="C181">
+        <v>0.49720999999999999</v>
+      </c>
+      <c r="D181">
+        <v>0.83160999999999996</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>368</v>
+        <v>319</v>
       </c>
       <c r="B182">
-        <v>0.79335</v>
+        <v>0.69972999999999996</v>
       </c>
       <c r="C182">
-        <v>0.70355999999999996</v>
+        <v>0.54895000000000005</v>
       </c>
       <c r="D182">
-        <v>0.88729999999999998</v>
+        <v>0.85296000000000005</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>326</v>
-      </c>
-      <c r="B183" t="s">
-        <v>334</v>
-      </c>
-      <c r="C183" t="s">
-        <v>335</v>
-      </c>
-      <c r="D183" t="s">
-        <v>336</v>
+        <v>320</v>
+      </c>
+      <c r="B183">
+        <v>0.72335000000000005</v>
+      </c>
+      <c r="C183">
+        <v>0.57962000000000002</v>
+      </c>
+      <c r="D183">
+        <v>0.86944999999999995</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>368</v>
-      </c>
-      <c r="B184">
-        <v>0.61336000000000002</v>
-      </c>
-      <c r="C184">
-        <v>0.55174000000000001</v>
-      </c>
-      <c r="D184">
-        <v>0.67498000000000002</v>
+        <v>326</v>
+      </c>
+      <c r="B184" t="s">
+        <v>334</v>
+      </c>
+      <c r="C184" t="s">
+        <v>335</v>
+      </c>
+      <c r="D184" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>317</v>
+      </c>
+      <c r="B185">
+        <v>0.39601999999999998</v>
+      </c>
+      <c r="C185">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="D185">
+        <v>0.49303000000000002</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>326</v>
-      </c>
-      <c r="B186" t="s">
-        <v>327</v>
-      </c>
-      <c r="C186" t="s">
-        <v>328</v>
-      </c>
-      <c r="D186" t="s">
-        <v>329</v>
-      </c>
-      <c r="E186" t="s">
-        <v>330</v>
+        <v>318</v>
+      </c>
+      <c r="B186">
+        <v>0.43192999999999998</v>
+      </c>
+      <c r="C186">
+        <v>0.32988000000000001</v>
+      </c>
+      <c r="D186">
+        <v>0.53398000000000001</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>368</v>
+        <v>319</v>
       </c>
       <c r="B187">
-        <v>0.89100999999999997</v>
+        <v>0.45530999999999999</v>
       </c>
       <c r="C187">
-        <v>0.84675</v>
+        <v>0.35004999999999997</v>
       </c>
       <c r="D187">
-        <v>0.72382000000000002</v>
-      </c>
-      <c r="E187">
-        <v>0.82352000000000003</v>
+        <v>0.56057999999999997</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>326</v>
-      </c>
-      <c r="B188" t="s">
-        <v>331</v>
-      </c>
-      <c r="C188" t="s">
-        <v>332</v>
-      </c>
-      <c r="D188" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>368</v>
-      </c>
-      <c r="B189">
-        <v>0.79335</v>
-      </c>
-      <c r="C189">
-        <v>0.70355999999999996</v>
-      </c>
-      <c r="D189">
-        <v>0.88729999999999998</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>326</v>
-      </c>
-      <c r="B190" t="s">
-        <v>334</v>
-      </c>
-      <c r="C190" t="s">
-        <v>335</v>
-      </c>
-      <c r="D190" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>368</v>
-      </c>
-      <c r="B191">
-        <v>0.61336000000000002</v>
-      </c>
-      <c r="C191">
-        <v>0.55174000000000001</v>
-      </c>
-      <c r="D191">
-        <v>0.67498000000000002</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>326</v>
-      </c>
-      <c r="B193" t="s">
-        <v>327</v>
-      </c>
-      <c r="C193" t="s">
-        <v>328</v>
-      </c>
-      <c r="D193" t="s">
-        <v>329</v>
-      </c>
-      <c r="E193" t="s">
-        <v>330</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="B188">
+        <v>0.4884</v>
+      </c>
+      <c r="C188">
+        <v>0.37895000000000001</v>
+      </c>
+      <c r="D188">
+        <v>0.59784000000000004</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A192" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="B192" s="9"/>
+      <c r="C192" s="9"/>
+      <c r="D192" s="9"/>
+      <c r="E192" s="9"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>369</v>
-      </c>
-      <c r="B194">
-        <v>0.79908999999999997</v>
-      </c>
-      <c r="C194">
-        <v>0.78071000000000002</v>
-      </c>
-      <c r="D194">
-        <v>0.60584000000000005</v>
-      </c>
-      <c r="E194">
-        <v>0.70316000000000001</v>
+        <v>326</v>
+      </c>
+      <c r="B194" t="s">
+        <v>327</v>
+      </c>
+      <c r="C194" t="s">
+        <v>328</v>
+      </c>
+      <c r="D194" t="s">
+        <v>329</v>
+      </c>
+      <c r="E194" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>326</v>
-      </c>
-      <c r="B195" t="s">
-        <v>331</v>
-      </c>
-      <c r="C195" t="s">
-        <v>332</v>
-      </c>
-      <c r="D195" t="s">
-        <v>333</v>
+        <v>356</v>
+      </c>
+      <c r="B195">
+        <v>0.81962000000000002</v>
+      </c>
+      <c r="C195">
+        <v>0.73504000000000003</v>
+      </c>
+      <c r="D195">
+        <v>0.58623999999999998</v>
+      </c>
+      <c r="E195">
+        <v>0.73487999999999998</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="B196">
-        <v>0.76398999999999995</v>
+        <v>0.81411999999999995</v>
       </c>
       <c r="C196">
-        <v>0.63022</v>
+        <v>0.71357000000000004</v>
       </c>
       <c r="D196">
-        <v>0.89809000000000005</v>
+        <v>0.56237000000000004</v>
+      </c>
+      <c r="E196">
+        <v>0.72353000000000001</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>326</v>
-      </c>
-      <c r="B197" t="s">
-        <v>334</v>
-      </c>
-      <c r="C197" t="s">
-        <v>335</v>
-      </c>
-      <c r="D197" t="s">
-        <v>336</v>
+        <v>358</v>
+      </c>
+      <c r="B197">
+        <v>0.84953999999999996</v>
+      </c>
+      <c r="C197">
+        <v>0.78174999999999994</v>
+      </c>
+      <c r="D197">
+        <v>0.63836000000000004</v>
+      </c>
+      <c r="E197">
+        <v>0.76995999999999998</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="B198">
-        <v>0.50363000000000002</v>
+        <v>0.85692000000000002</v>
       </c>
       <c r="C198">
-        <v>0.46076</v>
+        <v>0.79176000000000002</v>
       </c>
       <c r="D198">
-        <v>0.54651000000000005</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A199" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="B199" s="9"/>
-      <c r="C199" s="9"/>
-      <c r="D199" s="9"/>
-      <c r="E199" s="9"/>
+        <v>0.65083999999999997</v>
+      </c>
+      <c r="E198">
+        <v>0.77676000000000001</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>326</v>
+      </c>
+      <c r="B199" t="s">
+        <v>331</v>
+      </c>
+      <c r="C199" t="s">
+        <v>332</v>
+      </c>
+      <c r="D199" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>356</v>
+      </c>
+      <c r="B200">
+        <v>0.63861999999999997</v>
+      </c>
+      <c r="C200">
+        <v>0.47465000000000002</v>
+      </c>
+      <c r="D200">
+        <v>0.80683000000000005</v>
+      </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>326</v>
-      </c>
-      <c r="B201" t="s">
-        <v>327</v>
-      </c>
-      <c r="C201" t="s">
-        <v>328</v>
-      </c>
-      <c r="D201" t="s">
-        <v>329</v>
-      </c>
-      <c r="E201" t="s">
-        <v>330</v>
+        <v>357</v>
+      </c>
+      <c r="B201">
+        <v>0.60709999999999997</v>
+      </c>
+      <c r="C201">
+        <v>0.29876999999999998</v>
+      </c>
+      <c r="D201">
+        <v>0.92940999999999996</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B202">
-        <v>0.81962000000000002</v>
+        <v>0.69986000000000004</v>
       </c>
       <c r="C202">
-        <v>0.73504000000000003</v>
+        <v>0.54901999999999995</v>
       </c>
       <c r="D202">
-        <v>0.58623999999999998</v>
-      </c>
-      <c r="E202">
-        <v>0.73487999999999998</v>
+        <v>0.85431000000000001</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B203">
-        <v>0.81411999999999995</v>
+        <v>0.71292999999999995</v>
       </c>
       <c r="C203">
-        <v>0.71357000000000004</v>
+        <v>0.54766999999999999</v>
       </c>
       <c r="D203">
-        <v>0.56237000000000004</v>
-      </c>
-      <c r="E203">
-        <v>0.72353000000000001</v>
+        <v>0.88104000000000005</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>358</v>
-      </c>
-      <c r="B204">
-        <v>0.84953999999999996</v>
-      </c>
-      <c r="C204">
-        <v>0.78174999999999994</v>
-      </c>
-      <c r="D204">
-        <v>0.63836000000000004</v>
-      </c>
-      <c r="E204">
-        <v>0.76995999999999998</v>
+        <v>326</v>
+      </c>
+      <c r="B204" t="s">
+        <v>334</v>
+      </c>
+      <c r="C204" t="s">
+        <v>335</v>
+      </c>
+      <c r="D204" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B205">
-        <v>0.85692000000000002</v>
+        <v>0.42648000000000003</v>
       </c>
       <c r="C205">
-        <v>0.79176000000000002</v>
+        <v>0.31435999999999997</v>
       </c>
       <c r="D205">
-        <v>0.65083999999999997</v>
-      </c>
-      <c r="E205">
-        <v>0.77676000000000001</v>
+        <v>0.53859000000000001</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>326</v>
-      </c>
-      <c r="B206" t="s">
-        <v>331</v>
-      </c>
-      <c r="C206" t="s">
-        <v>332</v>
-      </c>
-      <c r="D206" t="s">
-        <v>333</v>
+        <v>357</v>
+      </c>
+      <c r="B206">
+        <v>0.39287</v>
+      </c>
+      <c r="C206">
+        <v>0.22614000000000001</v>
+      </c>
+      <c r="D206">
+        <v>0.55961000000000005</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B207">
-        <v>0.63861999999999997</v>
+        <v>0.4965</v>
       </c>
       <c r="C207">
-        <v>0.47465000000000002</v>
+        <v>0.38762000000000002</v>
       </c>
       <c r="D207">
-        <v>0.80683000000000005</v>
+        <v>0.60536999999999996</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B208">
-        <v>0.60709999999999997</v>
+        <v>0.51256999999999997</v>
       </c>
       <c r="C208">
-        <v>0.29876999999999998</v>
+        <v>0.40284999999999999</v>
       </c>
       <c r="D208">
-        <v>0.92940999999999996</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>358</v>
-      </c>
-      <c r="B209">
-        <v>0.69986000000000004</v>
-      </c>
-      <c r="C209">
-        <v>0.54901999999999995</v>
-      </c>
-      <c r="D209">
-        <v>0.85431000000000001</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>359</v>
-      </c>
-      <c r="B210">
-        <v>0.71292999999999995</v>
-      </c>
-      <c r="C210">
-        <v>0.54766999999999999</v>
-      </c>
-      <c r="D210">
-        <v>0.88104000000000005</v>
+        <v>0.62228000000000006</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -10349,69 +10389,89 @@
         <v>326</v>
       </c>
       <c r="B211" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C211" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="D211" t="s">
-        <v>336</v>
+        <v>329</v>
+      </c>
+      <c r="E211" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="B212">
-        <v>0.42648000000000003</v>
+        <v>0.83909999999999996</v>
       </c>
       <c r="C212">
-        <v>0.31435999999999997</v>
+        <v>0.74790999999999996</v>
       </c>
       <c r="D212">
-        <v>0.53859000000000001</v>
+        <v>0.60843000000000003</v>
+      </c>
+      <c r="E212">
+        <v>0.75241999999999998</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>357</v>
-      </c>
-      <c r="B213">
-        <v>0.39287</v>
-      </c>
-      <c r="C213">
-        <v>0.22614000000000001</v>
-      </c>
-      <c r="D213">
-        <v>0.55961000000000005</v>
+        <v>326</v>
+      </c>
+      <c r="B213" t="s">
+        <v>331</v>
+      </c>
+      <c r="C213" t="s">
+        <v>332</v>
+      </c>
+      <c r="D213" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="B214">
-        <v>0.4965</v>
+        <v>0.64402000000000004</v>
       </c>
       <c r="C214">
-        <v>0.38762000000000002</v>
+        <v>0.46004</v>
       </c>
       <c r="D214">
-        <v>0.60536999999999996</v>
+        <v>0.83272000000000002</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>359</v>
-      </c>
-      <c r="B215">
-        <v>0.51256999999999997</v>
-      </c>
-      <c r="C215">
-        <v>0.40284999999999999</v>
-      </c>
-      <c r="D215">
-        <v>0.62228000000000006</v>
+        <v>326</v>
+      </c>
+      <c r="B215" t="s">
+        <v>334</v>
+      </c>
+      <c r="C215" t="s">
+        <v>335</v>
+      </c>
+      <c r="D215" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>370</v>
+      </c>
+      <c r="B216">
+        <v>0.45327000000000001</v>
+      </c>
+      <c r="C216">
+        <v>0.32845999999999997</v>
+      </c>
+      <c r="D216">
+        <v>0.57806999999999997</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -10433,19 +10493,19 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B219">
-        <v>0.83909999999999996</v>
+        <v>0.79379999999999995</v>
       </c>
       <c r="C219">
-        <v>0.74790999999999996</v>
+        <v>0.73892999999999998</v>
       </c>
       <c r="D219">
-        <v>0.60843000000000003</v>
+        <v>0.57276000000000005</v>
       </c>
       <c r="E219">
-        <v>0.75241999999999998</v>
+        <v>0.71050999999999997</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -10464,16 +10524,16 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B221">
-        <v>0.64402000000000004</v>
+        <v>0.67988000000000004</v>
       </c>
       <c r="C221">
-        <v>0.46004</v>
+        <v>0.52712000000000003</v>
       </c>
       <c r="D221">
-        <v>0.83272000000000002</v>
+        <v>0.83672000000000002</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
@@ -10492,16 +10552,16 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B223">
-        <v>0.45327000000000001</v>
+        <v>0.43231000000000003</v>
       </c>
       <c r="C223">
-        <v>0.32845999999999997</v>
+        <v>0.30696000000000001</v>
       </c>
       <c r="D223">
-        <v>0.57806999999999997</v>
+        <v>0.55766000000000004</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
@@ -10523,19 +10583,19 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B226">
-        <v>0.79379999999999995</v>
+        <v>0.78744999999999998</v>
       </c>
       <c r="C226">
-        <v>0.73892999999999998</v>
+        <v>0.73258999999999996</v>
       </c>
       <c r="D226">
-        <v>0.57276000000000005</v>
+        <v>0.56705000000000005</v>
       </c>
       <c r="E226">
-        <v>0.71050999999999997</v>
+        <v>0.70354000000000005</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
@@ -10554,16 +10614,16 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B228">
-        <v>0.67988000000000004</v>
+        <v>0.67357</v>
       </c>
       <c r="C228">
-        <v>0.52712000000000003</v>
+        <v>0.51536999999999999</v>
       </c>
       <c r="D228">
-        <v>0.83672000000000002</v>
+        <v>0.83640000000000003</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -10582,1120 +10642,1114 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B230">
-        <v>0.43231000000000003</v>
+        <v>0.42799999999999999</v>
       </c>
       <c r="C230">
-        <v>0.30696000000000001</v>
+        <v>0.29863000000000001</v>
       </c>
       <c r="D230">
-        <v>0.55766000000000004</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>326</v>
-      </c>
-      <c r="B232" t="s">
-        <v>327</v>
-      </c>
-      <c r="C232" t="s">
-        <v>328</v>
-      </c>
-      <c r="D232" t="s">
-        <v>329</v>
-      </c>
-      <c r="E232" t="s">
-        <v>330</v>
-      </c>
+        <v>0.55737999999999999</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A231" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="B231" s="9"/>
+      <c r="C231" s="9"/>
+      <c r="D231" s="9"/>
+      <c r="E231" s="9"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>372</v>
-      </c>
-      <c r="B233">
-        <v>0.78744999999999998</v>
-      </c>
-      <c r="C233">
-        <v>0.73258999999999996</v>
-      </c>
-      <c r="D233">
-        <v>0.56705000000000005</v>
-      </c>
-      <c r="E233">
-        <v>0.70354000000000005</v>
+        <v>326</v>
+      </c>
+      <c r="B233" t="s">
+        <v>327</v>
+      </c>
+      <c r="C233" t="s">
+        <v>328</v>
+      </c>
+      <c r="D233" t="s">
+        <v>329</v>
+      </c>
+      <c r="E233" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>326</v>
-      </c>
-      <c r="B234" t="s">
-        <v>331</v>
-      </c>
-      <c r="C234" t="s">
-        <v>332</v>
-      </c>
-      <c r="D234" t="s">
-        <v>333</v>
+        <v>373</v>
+      </c>
+      <c r="B234">
+        <v>0.85048999999999997</v>
+      </c>
+      <c r="C234">
+        <v>0.81715000000000004</v>
+      </c>
+      <c r="D234">
+        <v>0.67840999999999996</v>
+      </c>
+      <c r="E234">
+        <v>0.77444999999999997</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B235">
-        <v>0.67357</v>
+        <v>0.86007</v>
       </c>
       <c r="C235">
-        <v>0.51536999999999999</v>
+        <v>0.81862999999999997</v>
       </c>
       <c r="D235">
-        <v>0.83640000000000003</v>
+        <v>0.67893000000000003</v>
+      </c>
+      <c r="E235">
+        <v>0.78125999999999995</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>326</v>
-      </c>
-      <c r="B236" t="s">
-        <v>334</v>
-      </c>
-      <c r="C236" t="s">
-        <v>335</v>
-      </c>
-      <c r="D236" t="s">
-        <v>336</v>
+        <v>375</v>
+      </c>
+      <c r="B236">
+        <v>0.878</v>
+      </c>
+      <c r="C236">
+        <v>0.82918999999999998</v>
+      </c>
+      <c r="D236">
+        <v>0.70433000000000001</v>
+      </c>
+      <c r="E236">
+        <v>0.80337000000000003</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B237">
-        <v>0.42799999999999999</v>
+        <v>0.88305999999999996</v>
       </c>
       <c r="C237">
-        <v>0.29863000000000001</v>
+        <v>0.84258999999999995</v>
       </c>
       <c r="D237">
-        <v>0.55737999999999999</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A238" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="B238" s="9"/>
-      <c r="C238" s="9"/>
-      <c r="D238" s="9"/>
-      <c r="E238" s="9"/>
+        <v>0.71987000000000001</v>
+      </c>
+      <c r="E237">
+        <v>0.81322000000000005</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>377</v>
+      </c>
+      <c r="B238">
+        <v>0.88688</v>
+      </c>
+      <c r="C238">
+        <v>0.85128999999999999</v>
+      </c>
+      <c r="D238">
+        <v>0.73194000000000004</v>
+      </c>
+      <c r="E238">
+        <v>0.81733</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>326</v>
+      </c>
+      <c r="B239" t="s">
+        <v>331</v>
+      </c>
+      <c r="C239" t="s">
+        <v>332</v>
+      </c>
+      <c r="D239" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>326</v>
-      </c>
-      <c r="B240" t="s">
-        <v>327</v>
-      </c>
-      <c r="C240" t="s">
-        <v>328</v>
-      </c>
-      <c r="D240" t="s">
-        <v>329</v>
-      </c>
-      <c r="E240" t="s">
-        <v>330</v>
+        <v>373</v>
+      </c>
+      <c r="B240">
+        <v>0.75087000000000004</v>
+      </c>
+      <c r="C240">
+        <v>0.70609999999999995</v>
+      </c>
+      <c r="D240">
+        <v>0.79564000000000001</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B241">
-        <v>0.85048999999999997</v>
+        <v>0.75665000000000004</v>
       </c>
       <c r="C241">
-        <v>0.81715000000000004</v>
+        <v>0.61651999999999996</v>
       </c>
       <c r="D241">
-        <v>0.67840999999999996</v>
-      </c>
-      <c r="E241">
-        <v>0.77444999999999997</v>
+        <v>0.89678000000000002</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B242">
-        <v>0.86007</v>
+        <v>0.76476</v>
       </c>
       <c r="C242">
-        <v>0.81862999999999997</v>
+        <v>0.63424000000000003</v>
       </c>
       <c r="D242">
-        <v>0.67893000000000003</v>
-      </c>
-      <c r="E242">
-        <v>0.78125999999999995</v>
+        <v>0.89527000000000001</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B243">
-        <v>0.878</v>
+        <v>0.78147</v>
       </c>
       <c r="C243">
-        <v>0.82918999999999998</v>
+        <v>0.69957000000000003</v>
       </c>
       <c r="D243">
-        <v>0.70433000000000001</v>
-      </c>
-      <c r="E243">
-        <v>0.80337000000000003</v>
+        <v>0.86336000000000002</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B244">
-        <v>0.88305999999999996</v>
+        <v>0.79010999999999998</v>
       </c>
       <c r="C244">
-        <v>0.84258999999999995</v>
+        <v>0.73751999999999995</v>
       </c>
       <c r="D244">
-        <v>0.71987000000000001</v>
-      </c>
-      <c r="E244">
-        <v>0.81322000000000005</v>
+        <v>0.84270999999999996</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>377</v>
-      </c>
-      <c r="B245">
-        <v>0.88688</v>
-      </c>
-      <c r="C245">
-        <v>0.85128999999999999</v>
-      </c>
-      <c r="D245">
-        <v>0.73194000000000004</v>
-      </c>
-      <c r="E245">
-        <v>0.81733</v>
+        <v>326</v>
+      </c>
+      <c r="B245" t="s">
+        <v>334</v>
+      </c>
+      <c r="C245" t="s">
+        <v>335</v>
+      </c>
+      <c r="D245" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>326</v>
-      </c>
-      <c r="B246" t="s">
-        <v>331</v>
-      </c>
-      <c r="C246" t="s">
-        <v>332</v>
-      </c>
-      <c r="D246" t="s">
-        <v>333</v>
+        <v>373</v>
+      </c>
+      <c r="B246">
+        <v>0.55935999999999997</v>
+      </c>
+      <c r="C246">
+        <v>0.46243000000000001</v>
+      </c>
+      <c r="D246">
+        <v>0.65627999999999997</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B247">
-        <v>0.75087000000000004</v>
+        <v>0.56023000000000001</v>
       </c>
       <c r="C247">
-        <v>0.70609999999999995</v>
+        <v>0.43947999999999998</v>
       </c>
       <c r="D247">
-        <v>0.79564000000000001</v>
+        <v>0.68098000000000003</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B248">
-        <v>0.75665000000000004</v>
+        <v>0.59172000000000002</v>
       </c>
       <c r="C248">
-        <v>0.61651999999999996</v>
+        <v>0.47449999999999998</v>
       </c>
       <c r="D248">
-        <v>0.89678000000000002</v>
+        <v>0.70894000000000001</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B249">
-        <v>0.76476</v>
+        <v>0.61053000000000002</v>
       </c>
       <c r="C249">
-        <v>0.63424000000000003</v>
+        <v>0.51239000000000001</v>
       </c>
       <c r="D249">
-        <v>0.89527000000000001</v>
+        <v>0.70867000000000002</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B250">
-        <v>0.78147</v>
+        <v>0.63027999999999995</v>
       </c>
       <c r="C250">
-        <v>0.69957000000000003</v>
+        <v>0.54891000000000001</v>
       </c>
       <c r="D250">
-        <v>0.86336000000000002</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>377</v>
-      </c>
-      <c r="B251">
-        <v>0.79010999999999998</v>
-      </c>
-      <c r="C251">
-        <v>0.73751999999999995</v>
-      </c>
-      <c r="D251">
-        <v>0.84270999999999996</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>326</v>
-      </c>
-      <c r="B252" t="s">
-        <v>334</v>
-      </c>
-      <c r="C252" t="s">
-        <v>335</v>
-      </c>
-      <c r="D252" t="s">
-        <v>336</v>
+        <v>0.71165</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>373</v>
-      </c>
-      <c r="B253">
-        <v>0.55935999999999997</v>
-      </c>
-      <c r="C253">
-        <v>0.46243000000000001</v>
-      </c>
-      <c r="D253">
-        <v>0.65627999999999997</v>
+        <v>326</v>
+      </c>
+      <c r="B253" t="s">
+        <v>327</v>
+      </c>
+      <c r="C253" t="s">
+        <v>328</v>
+      </c>
+      <c r="D253" t="s">
+        <v>329</v>
+      </c>
+      <c r="E253" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B254">
-        <v>0.56023000000000001</v>
+        <v>0.84723999999999999</v>
       </c>
       <c r="C254">
-        <v>0.43947999999999998</v>
+        <v>0.79942999999999997</v>
       </c>
       <c r="D254">
-        <v>0.68098000000000003</v>
+        <v>0.66180000000000005</v>
+      </c>
+      <c r="E254">
+        <v>0.76639000000000002</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B255">
-        <v>0.59172000000000002</v>
+        <v>0.84869000000000006</v>
       </c>
       <c r="C255">
-        <v>0.47449999999999998</v>
+        <v>0.81908000000000003</v>
       </c>
       <c r="D255">
-        <v>0.70894000000000001</v>
+        <v>0.67584</v>
+      </c>
+      <c r="E255">
+        <v>0.77192000000000005</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B256">
-        <v>0.61053000000000002</v>
+        <v>0.86312999999999995</v>
       </c>
       <c r="C256">
-        <v>0.51239000000000001</v>
+        <v>0.82906999999999997</v>
       </c>
       <c r="D256">
-        <v>0.70867000000000002</v>
+        <v>0.69801000000000002</v>
+      </c>
+      <c r="E256">
+        <v>0.78683999999999998</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B257">
-        <v>0.63027999999999995</v>
+        <v>0.83125000000000004</v>
       </c>
       <c r="C257">
-        <v>0.54891000000000001</v>
+        <v>0.81254999999999999</v>
       </c>
       <c r="D257">
-        <v>0.71165</v>
+        <v>0.65820999999999996</v>
+      </c>
+      <c r="E257">
+        <v>0.75439999999999996</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>382</v>
+      </c>
+      <c r="B258">
+        <v>0.85807</v>
+      </c>
+      <c r="C258">
+        <v>0.83650000000000002</v>
+      </c>
+      <c r="D258">
+        <v>0.69647999999999999</v>
+      </c>
+      <c r="E258">
+        <v>0.78529000000000004</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>326</v>
+      </c>
+      <c r="B259" t="s">
+        <v>331</v>
+      </c>
+      <c r="C259" t="s">
+        <v>332</v>
+      </c>
+      <c r="D259" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>326</v>
-      </c>
-      <c r="B260" t="s">
-        <v>327</v>
-      </c>
-      <c r="C260" t="s">
-        <v>328</v>
-      </c>
-      <c r="D260" t="s">
-        <v>329</v>
-      </c>
-      <c r="E260" t="s">
-        <v>330</v>
+        <v>378</v>
+      </c>
+      <c r="B260">
+        <v>0.72677999999999998</v>
+      </c>
+      <c r="C260">
+        <v>0.58404999999999996</v>
+      </c>
+      <c r="D260">
+        <v>0.86951000000000001</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B261">
-        <v>0.84723999999999999</v>
+        <v>0.76639000000000002</v>
       </c>
       <c r="C261">
-        <v>0.79942999999999997</v>
+        <v>0.64861999999999997</v>
       </c>
       <c r="D261">
-        <v>0.66180000000000005</v>
-      </c>
-      <c r="E261">
-        <v>0.76639000000000002</v>
+        <v>0.88414999999999999</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B262">
-        <v>0.84869000000000006</v>
+        <v>0.75497999999999998</v>
       </c>
       <c r="C262">
-        <v>0.81908000000000003</v>
+        <v>0.77822999999999998</v>
       </c>
       <c r="D262">
-        <v>0.67584</v>
-      </c>
-      <c r="E262">
-        <v>0.77192000000000005</v>
+        <v>0.73173999999999995</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B263">
-        <v>0.86312999999999995</v>
+        <v>0.73899000000000004</v>
       </c>
       <c r="C263">
-        <v>0.82906999999999997</v>
+        <v>0.89951999999999999</v>
       </c>
       <c r="D263">
-        <v>0.69801000000000002</v>
-      </c>
-      <c r="E263">
-        <v>0.78683999999999998</v>
+        <v>0.57847000000000004</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B264">
-        <v>0.83125000000000004</v>
+        <v>0.77322000000000002</v>
       </c>
       <c r="C264">
-        <v>0.81254999999999999</v>
+        <v>0.87216000000000005</v>
       </c>
       <c r="D264">
-        <v>0.65820999999999996</v>
-      </c>
-      <c r="E264">
-        <v>0.75439999999999996</v>
+        <v>0.67427000000000004</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>382</v>
-      </c>
-      <c r="B265">
-        <v>0.85807</v>
-      </c>
-      <c r="C265">
-        <v>0.83650000000000002</v>
-      </c>
-      <c r="D265">
-        <v>0.69647999999999999</v>
-      </c>
-      <c r="E265">
-        <v>0.78529000000000004</v>
+        <v>326</v>
+      </c>
+      <c r="B265" t="s">
+        <v>334</v>
+      </c>
+      <c r="C265" t="s">
+        <v>335</v>
+      </c>
+      <c r="D265" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>326</v>
-      </c>
-      <c r="B266" t="s">
-        <v>331</v>
-      </c>
-      <c r="C266" t="s">
-        <v>332</v>
-      </c>
-      <c r="D266" t="s">
-        <v>333</v>
+        <v>378</v>
+      </c>
+      <c r="B266">
+        <v>0.53820000000000001</v>
+      </c>
+      <c r="C266">
+        <v>0.40271000000000001</v>
+      </c>
+      <c r="D266">
+        <v>0.67369999999999997</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B267">
-        <v>0.72677999999999998</v>
+        <v>0.56161000000000005</v>
       </c>
       <c r="C267">
-        <v>0.58404999999999996</v>
+        <v>0.44790000000000002</v>
       </c>
       <c r="D267">
-        <v>0.86951000000000001</v>
+        <v>0.67530999999999997</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B268">
-        <v>0.76639000000000002</v>
+        <v>0.58331999999999995</v>
       </c>
       <c r="C268">
-        <v>0.64861999999999997</v>
+        <v>0.51476</v>
       </c>
       <c r="D268">
-        <v>0.88414999999999999</v>
+        <v>0.65188999999999997</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B269">
-        <v>0.75497999999999998</v>
+        <v>0.52163000000000004</v>
       </c>
       <c r="C269">
-        <v>0.77822999999999998</v>
+        <v>0.49773000000000001</v>
       </c>
       <c r="D269">
-        <v>0.73173999999999995</v>
+        <v>0.54554000000000002</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B270">
-        <v>0.73899000000000004</v>
+        <v>0.57891000000000004</v>
       </c>
       <c r="C270">
-        <v>0.89951999999999999</v>
+        <v>0.52805999999999997</v>
       </c>
       <c r="D270">
-        <v>0.57847000000000004</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>382</v>
-      </c>
-      <c r="B271">
-        <v>0.77322000000000002</v>
-      </c>
-      <c r="C271">
-        <v>0.87216000000000005</v>
-      </c>
-      <c r="D271">
-        <v>0.67427000000000004</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>326</v>
-      </c>
-      <c r="B272" t="s">
-        <v>334</v>
-      </c>
-      <c r="C272" t="s">
-        <v>335</v>
-      </c>
-      <c r="D272" t="s">
-        <v>336</v>
+        <v>0.62977000000000005</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>378</v>
-      </c>
-      <c r="B273">
-        <v>0.53820000000000001</v>
-      </c>
-      <c r="C273">
-        <v>0.40271000000000001</v>
-      </c>
-      <c r="D273">
-        <v>0.67369999999999997</v>
+        <v>326</v>
+      </c>
+      <c r="B273" t="s">
+        <v>327</v>
+      </c>
+      <c r="C273" t="s">
+        <v>328</v>
+      </c>
+      <c r="D273" t="s">
+        <v>329</v>
+      </c>
+      <c r="E273" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B274">
-        <v>0.56161000000000005</v>
+        <v>0.84723999999999999</v>
       </c>
       <c r="C274">
-        <v>0.44790000000000002</v>
+        <v>0.79942999999999997</v>
       </c>
       <c r="D274">
-        <v>0.67530999999999997</v>
+        <v>0.66180000000000005</v>
+      </c>
+      <c r="E274">
+        <v>0.76639000000000002</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B275">
-        <v>0.58331999999999995</v>
+        <v>0.84809000000000001</v>
       </c>
       <c r="C275">
-        <v>0.51476</v>
+        <v>0.81262000000000001</v>
       </c>
       <c r="D275">
-        <v>0.65188999999999997</v>
+        <v>0.67052</v>
+      </c>
+      <c r="E275">
+        <v>0.76966999999999997</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B276">
-        <v>0.52163000000000004</v>
+        <v>0.87602000000000002</v>
       </c>
       <c r="C276">
-        <v>0.49773000000000001</v>
+        <v>0.83150999999999997</v>
       </c>
       <c r="D276">
-        <v>0.54554000000000002</v>
+        <v>0.70360999999999996</v>
+      </c>
+      <c r="E276">
+        <v>0.80196000000000001</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B277">
-        <v>0.57891000000000004</v>
+        <v>0.83125000000000004</v>
       </c>
       <c r="C277">
-        <v>0.52805999999999997</v>
+        <v>0.81254999999999999</v>
       </c>
       <c r="D277">
-        <v>0.62977000000000005</v>
+        <v>0.65820999999999996</v>
+      </c>
+      <c r="E277">
+        <v>0.75439999999999996</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>387</v>
+      </c>
+      <c r="B278">
+        <v>0.85807</v>
+      </c>
+      <c r="C278">
+        <v>0.83650000000000002</v>
+      </c>
+      <c r="D278">
+        <v>0.69647999999999999</v>
+      </c>
+      <c r="E278">
+        <v>0.78529000000000004</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>326</v>
+      </c>
+      <c r="B279" t="s">
+        <v>331</v>
+      </c>
+      <c r="C279" t="s">
+        <v>332</v>
+      </c>
+      <c r="D279" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>326</v>
-      </c>
-      <c r="B280" t="s">
-        <v>327</v>
-      </c>
-      <c r="C280" t="s">
-        <v>328</v>
-      </c>
-      <c r="D280" t="s">
-        <v>329</v>
-      </c>
-      <c r="E280" t="s">
-        <v>330</v>
+        <v>383</v>
+      </c>
+      <c r="B280">
+        <v>0.72677999999999998</v>
+      </c>
+      <c r="C280">
+        <v>0.58404999999999996</v>
+      </c>
+      <c r="D280">
+        <v>0.86951000000000001</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B281">
-        <v>0.84723999999999999</v>
+        <v>0.75470999999999999</v>
       </c>
       <c r="C281">
-        <v>0.79942999999999997</v>
+        <v>0.61236000000000002</v>
       </c>
       <c r="D281">
-        <v>0.66180000000000005</v>
-      </c>
-      <c r="E281">
-        <v>0.76639000000000002</v>
+        <v>0.89705999999999997</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B282">
-        <v>0.84809000000000001</v>
+        <v>0.77254999999999996</v>
       </c>
       <c r="C282">
-        <v>0.81262000000000001</v>
+        <v>0.64548000000000005</v>
       </c>
       <c r="D282">
-        <v>0.67052</v>
-      </c>
-      <c r="E282">
-        <v>0.76966999999999997</v>
+        <v>0.89963000000000004</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B283">
-        <v>0.87602000000000002</v>
+        <v>0.73899000000000004</v>
       </c>
       <c r="C283">
-        <v>0.83150999999999997</v>
+        <v>0.89951999999999999</v>
       </c>
       <c r="D283">
-        <v>0.70360999999999996</v>
-      </c>
-      <c r="E283">
-        <v>0.80196000000000001</v>
+        <v>0.57847000000000004</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B284">
-        <v>0.83125000000000004</v>
+        <v>0.77322000000000002</v>
       </c>
       <c r="C284">
-        <v>0.81254999999999999</v>
+        <v>0.87216000000000005</v>
       </c>
       <c r="D284">
-        <v>0.65820999999999996</v>
-      </c>
-      <c r="E284">
-        <v>0.75439999999999996</v>
+        <v>0.67427000000000004</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>387</v>
-      </c>
-      <c r="B285">
-        <v>0.85807</v>
-      </c>
-      <c r="C285">
-        <v>0.83650000000000002</v>
-      </c>
-      <c r="D285">
-        <v>0.69647999999999999</v>
-      </c>
-      <c r="E285">
-        <v>0.78529000000000004</v>
+        <v>326</v>
+      </c>
+      <c r="B285" t="s">
+        <v>334</v>
+      </c>
+      <c r="C285" t="s">
+        <v>335</v>
+      </c>
+      <c r="D285" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>326</v>
-      </c>
-      <c r="B286" t="s">
-        <v>331</v>
-      </c>
-      <c r="C286" t="s">
-        <v>332</v>
-      </c>
-      <c r="D286" t="s">
-        <v>333</v>
+        <v>383</v>
+      </c>
+      <c r="B286">
+        <v>0.53820000000000001</v>
+      </c>
+      <c r="C286">
+        <v>0.40271000000000001</v>
+      </c>
+      <c r="D286">
+        <v>0.67369999999999997</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B287">
-        <v>0.72677999999999998</v>
+        <v>0.55254000000000003</v>
       </c>
       <c r="C287">
-        <v>0.58404999999999996</v>
+        <v>0.43237999999999999</v>
       </c>
       <c r="D287">
-        <v>0.86951000000000001</v>
+        <v>0.67269000000000001</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B288">
-        <v>0.75470999999999999</v>
+        <v>0.59155000000000002</v>
       </c>
       <c r="C288">
-        <v>0.61236000000000002</v>
+        <v>0.47427999999999998</v>
       </c>
       <c r="D288">
-        <v>0.89705999999999997</v>
+        <v>0.70882000000000001</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B289">
-        <v>0.77254999999999996</v>
+        <v>0.52163000000000004</v>
       </c>
       <c r="C289">
-        <v>0.64548000000000005</v>
+        <v>0.49773000000000001</v>
       </c>
       <c r="D289">
-        <v>0.89963000000000004</v>
+        <v>0.54554000000000002</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B290">
-        <v>0.73899000000000004</v>
+        <v>0.57891000000000004</v>
       </c>
       <c r="C290">
-        <v>0.89951999999999999</v>
+        <v>0.52805999999999997</v>
       </c>
       <c r="D290">
-        <v>0.57847000000000004</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
-        <v>387</v>
-      </c>
-      <c r="B291">
-        <v>0.77322000000000002</v>
-      </c>
-      <c r="C291">
-        <v>0.87216000000000005</v>
-      </c>
-      <c r="D291">
-        <v>0.67427000000000004</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
-        <v>326</v>
-      </c>
-      <c r="B292" t="s">
-        <v>334</v>
-      </c>
-      <c r="C292" t="s">
-        <v>335</v>
-      </c>
-      <c r="D292" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
-        <v>383</v>
-      </c>
-      <c r="B293">
-        <v>0.53820000000000001</v>
-      </c>
-      <c r="C293">
-        <v>0.40271000000000001</v>
-      </c>
-      <c r="D293">
-        <v>0.67369999999999997</v>
-      </c>
+        <v>0.62977000000000005</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A293" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="B293" s="9"/>
+      <c r="C293" s="9"/>
+      <c r="D293" s="9"/>
+      <c r="E293" s="9"/>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>384</v>
-      </c>
-      <c r="B294">
-        <v>0.55254000000000003</v>
-      </c>
-      <c r="C294">
-        <v>0.43237999999999999</v>
-      </c>
-      <c r="D294">
-        <v>0.67269000000000001</v>
+        <v>326</v>
+      </c>
+      <c r="B294" t="s">
+        <v>327</v>
+      </c>
+      <c r="C294" t="s">
+        <v>328</v>
+      </c>
+      <c r="D294" t="s">
+        <v>329</v>
+      </c>
+      <c r="E294" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B295">
-        <v>0.59155000000000002</v>
+        <v>0.85811999999999999</v>
       </c>
       <c r="C295">
-        <v>0.47427999999999998</v>
+        <v>0.78907000000000005</v>
       </c>
       <c r="D295">
-        <v>0.70882000000000001</v>
+        <v>0.66130999999999995</v>
+      </c>
+      <c r="E295">
+        <v>0.77324999999999999</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B296">
-        <v>0.52163000000000004</v>
+        <v>0.87822</v>
       </c>
       <c r="C296">
-        <v>0.49773000000000001</v>
+        <v>0.84641</v>
       </c>
       <c r="D296">
-        <v>0.54554000000000002</v>
+        <v>0.71901000000000004</v>
+      </c>
+      <c r="E296">
+        <v>0.80776000000000003</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B297">
-        <v>0.57891000000000004</v>
+        <v>0.85736000000000001</v>
       </c>
       <c r="C297">
-        <v>0.52805999999999997</v>
+        <v>0.82362999999999997</v>
       </c>
       <c r="D297">
-        <v>0.62977000000000005</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A300" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="B300" s="9"/>
-      <c r="C300" s="9"/>
-      <c r="D300" s="9"/>
-      <c r="E300" s="9"/>
+        <v>0.69059999999999999</v>
+      </c>
+      <c r="E297">
+        <v>0.7802</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>391</v>
+      </c>
+      <c r="B298">
+        <v>0.88458000000000003</v>
+      </c>
+      <c r="C298">
+        <v>0.85240000000000005</v>
+      </c>
+      <c r="D298">
+        <v>0.72760000000000002</v>
+      </c>
+      <c r="E298">
+        <v>0.81508999999999998</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>392</v>
+      </c>
+      <c r="B299">
+        <v>0.85895999999999995</v>
+      </c>
+      <c r="C299">
+        <v>0.8306</v>
+      </c>
+      <c r="D299">
+        <v>0.69601000000000002</v>
+      </c>
+      <c r="E299">
+        <v>0.78456999999999999</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>326</v>
+      </c>
+      <c r="B300" t="s">
+        <v>331</v>
+      </c>
+      <c r="C300" t="s">
+        <v>332</v>
+      </c>
+      <c r="D300" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>326</v>
-      </c>
-      <c r="B301" t="s">
-        <v>327</v>
-      </c>
-      <c r="C301" t="s">
-        <v>328</v>
-      </c>
-      <c r="D301" t="s">
-        <v>329</v>
-      </c>
-      <c r="E301" t="s">
-        <v>330</v>
+        <v>388</v>
+      </c>
+      <c r="B301">
+        <v>0.70809999999999995</v>
+      </c>
+      <c r="C301">
+        <v>0.49003000000000002</v>
+      </c>
+      <c r="D301">
+        <v>0.92615999999999998</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B302">
-        <v>0.85811999999999999</v>
+        <v>0.78996</v>
       </c>
       <c r="C302">
-        <v>0.78907000000000005</v>
+        <v>0.72850000000000004</v>
       </c>
       <c r="D302">
-        <v>0.66130999999999995</v>
-      </c>
-      <c r="E302">
-        <v>0.77324999999999999</v>
+        <v>0.85141999999999995</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B303">
-        <v>0.87822</v>
+        <v>0.75024000000000002</v>
       </c>
       <c r="C303">
-        <v>0.84641</v>
+        <v>0.75812000000000002</v>
       </c>
       <c r="D303">
-        <v>0.71901000000000004</v>
-      </c>
-      <c r="E303">
-        <v>0.80776000000000003</v>
+        <v>0.74236000000000002</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B304">
-        <v>0.85736000000000001</v>
+        <v>0.80245</v>
       </c>
       <c r="C304">
-        <v>0.82362999999999997</v>
+        <v>0.71474000000000004</v>
       </c>
       <c r="D304">
-        <v>0.69059999999999999</v>
-      </c>
-      <c r="E304">
-        <v>0.7802</v>
+        <v>0.89017000000000002</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B305">
-        <v>0.88458000000000003</v>
+        <v>0.75651000000000002</v>
       </c>
       <c r="C305">
-        <v>0.85240000000000005</v>
+        <v>0.82310000000000005</v>
       </c>
       <c r="D305">
-        <v>0.72760000000000002</v>
-      </c>
-      <c r="E305">
-        <v>0.81508999999999998</v>
+        <v>0.68991999999999998</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>392</v>
-      </c>
-      <c r="B306">
-        <v>0.85895999999999995</v>
-      </c>
-      <c r="C306">
-        <v>0.8306</v>
-      </c>
-      <c r="D306">
-        <v>0.69601000000000002</v>
-      </c>
-      <c r="E306">
-        <v>0.78456999999999999</v>
+        <v>326</v>
+      </c>
+      <c r="B306" t="s">
+        <v>334</v>
+      </c>
+      <c r="C306" t="s">
+        <v>335</v>
+      </c>
+      <c r="D306" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>326</v>
-      </c>
-      <c r="B307" t="s">
-        <v>331</v>
-      </c>
-      <c r="C307" t="s">
-        <v>332</v>
-      </c>
-      <c r="D307" t="s">
-        <v>333</v>
+        <v>388</v>
+      </c>
+      <c r="B307">
+        <v>0.53342999999999996</v>
+      </c>
+      <c r="C307">
+        <v>0.38908999999999999</v>
+      </c>
+      <c r="D307">
+        <v>0.67776999999999998</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B308">
-        <v>0.70809999999999995</v>
+        <v>0.61124999999999996</v>
       </c>
       <c r="C308">
-        <v>0.49003000000000002</v>
+        <v>0.52237</v>
       </c>
       <c r="D308">
-        <v>0.92615999999999998</v>
+        <v>0.70011999999999996</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B309">
-        <v>0.78996</v>
+        <v>0.57340999999999998</v>
       </c>
       <c r="C309">
-        <v>0.72850000000000004</v>
+        <v>0.50073000000000001</v>
       </c>
       <c r="D309">
-        <v>0.85141999999999995</v>
+        <v>0.64610000000000001</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B310">
-        <v>0.75024000000000002</v>
+        <v>0.62502000000000002</v>
       </c>
       <c r="C310">
-        <v>0.75812000000000002</v>
+        <v>0.53102000000000005</v>
       </c>
       <c r="D310">
-        <v>0.74236000000000002</v>
+        <v>0.71901999999999999</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B311">
-        <v>0.80245</v>
+        <v>0.57704</v>
       </c>
       <c r="C311">
-        <v>0.71474000000000004</v>
+        <v>0.52803</v>
       </c>
       <c r="D311">
-        <v>0.89017000000000002</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
-        <v>392</v>
-      </c>
-      <c r="B312">
-        <v>0.75651000000000002</v>
-      </c>
-      <c r="C312">
-        <v>0.82310000000000005</v>
-      </c>
-      <c r="D312">
-        <v>0.68991999999999998</v>
+        <v>0.62604000000000004</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
@@ -11703,269 +11757,269 @@
         <v>326</v>
       </c>
       <c r="B313" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C313" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="D313" t="s">
-        <v>336</v>
+        <v>329</v>
+      </c>
+      <c r="E313" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="B314">
-        <v>0.53342999999999996</v>
+        <v>0.86202999999999996</v>
       </c>
       <c r="C314">
-        <v>0.38908999999999999</v>
+        <v>0.81882999999999995</v>
       </c>
       <c r="D314">
-        <v>0.67776999999999998</v>
+        <v>0.68874999999999997</v>
+      </c>
+      <c r="E314">
+        <v>0.78447999999999996</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="B315">
-        <v>0.61124999999999996</v>
+        <v>0.86094999999999999</v>
       </c>
       <c r="C315">
-        <v>0.52237</v>
+        <v>0.83301999999999998</v>
       </c>
       <c r="D315">
-        <v>0.70011999999999996</v>
+        <v>0.70045000000000002</v>
+      </c>
+      <c r="E315">
+        <v>0.78839999999999999</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="B316">
-        <v>0.57340999999999998</v>
+        <v>0.87350000000000005</v>
       </c>
       <c r="C316">
-        <v>0.50073000000000001</v>
+        <v>0.83006999999999997</v>
       </c>
       <c r="D316">
-        <v>0.64610000000000001</v>
+        <v>0.70245000000000002</v>
+      </c>
+      <c r="E316">
+        <v>0.79947000000000001</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="B317">
-        <v>0.62502000000000002</v>
+        <v>0.85841999999999996</v>
       </c>
       <c r="C317">
-        <v>0.53102000000000005</v>
+        <v>0.83906999999999998</v>
       </c>
       <c r="D317">
-        <v>0.71901999999999999</v>
+        <v>0.69874999999999998</v>
+      </c>
+      <c r="E317">
+        <v>0.78625</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="B318">
-        <v>0.57704</v>
+        <v>0.85895999999999995</v>
       </c>
       <c r="C318">
-        <v>0.52803</v>
+        <v>0.8306</v>
       </c>
       <c r="D318">
-        <v>0.62604000000000004</v>
+        <v>0.69601000000000002</v>
+      </c>
+      <c r="E318">
+        <v>0.78456999999999999</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>326</v>
+      </c>
+      <c r="B319" t="s">
+        <v>331</v>
+      </c>
+      <c r="C319" t="s">
+        <v>332</v>
+      </c>
+      <c r="D319" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>326</v>
-      </c>
-      <c r="B320" t="s">
-        <v>327</v>
-      </c>
-      <c r="C320" t="s">
-        <v>328</v>
-      </c>
-      <c r="D320" t="s">
-        <v>329</v>
-      </c>
-      <c r="E320" t="s">
-        <v>330</v>
+        <v>393</v>
+      </c>
+      <c r="B320">
+        <v>0.75180000000000002</v>
+      </c>
+      <c r="C320">
+        <v>0.67061999999999999</v>
+      </c>
+      <c r="D320">
+        <v>0.83298000000000005</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B321">
-        <v>0.86202999999999996</v>
+        <v>0.78332000000000002</v>
       </c>
       <c r="C321">
-        <v>0.81882999999999995</v>
+        <v>0.69369999999999998</v>
       </c>
       <c r="D321">
-        <v>0.68874999999999997</v>
-      </c>
-      <c r="E321">
-        <v>0.78447999999999996</v>
+        <v>0.87295</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B322">
-        <v>0.86094999999999999</v>
+        <v>0.76783999999999997</v>
       </c>
       <c r="C322">
-        <v>0.83301999999999998</v>
+        <v>0.66957</v>
       </c>
       <c r="D322">
-        <v>0.70045000000000002</v>
-      </c>
-      <c r="E322">
-        <v>0.78839999999999999</v>
+        <v>0.86609999999999998</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B323">
-        <v>0.87350000000000005</v>
+        <v>0.77968999999999999</v>
       </c>
       <c r="C323">
-        <v>0.83006999999999997</v>
+        <v>0.85524</v>
       </c>
       <c r="D323">
-        <v>0.70245000000000002</v>
-      </c>
-      <c r="E323">
-        <v>0.79947000000000001</v>
+        <v>0.70413999999999999</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B324">
-        <v>0.85841999999999996</v>
+        <v>0.75651000000000002</v>
       </c>
       <c r="C324">
-        <v>0.83906999999999998</v>
+        <v>0.82310000000000005</v>
       </c>
       <c r="D324">
-        <v>0.69874999999999998</v>
-      </c>
-      <c r="E324">
-        <v>0.78625</v>
+        <v>0.68991999999999998</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>397</v>
-      </c>
-      <c r="B325">
-        <v>0.85895999999999995</v>
-      </c>
-      <c r="C325">
-        <v>0.8306</v>
-      </c>
-      <c r="D325">
-        <v>0.69601000000000002</v>
-      </c>
-      <c r="E325">
-        <v>0.78456999999999999</v>
+        <v>326</v>
+      </c>
+      <c r="B325" t="s">
+        <v>334</v>
+      </c>
+      <c r="C325" t="s">
+        <v>335</v>
+      </c>
+      <c r="D325" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>326</v>
-      </c>
-      <c r="B326" t="s">
-        <v>331</v>
-      </c>
-      <c r="C326" t="s">
-        <v>332</v>
-      </c>
-      <c r="D326" t="s">
-        <v>333</v>
+        <v>393</v>
+      </c>
+      <c r="B326">
+        <v>0.57389999999999997</v>
+      </c>
+      <c r="C326">
+        <v>0.47099000000000002</v>
+      </c>
+      <c r="D326">
+        <v>0.67681999999999998</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B327">
-        <v>0.75180000000000002</v>
+        <v>0.59587000000000001</v>
       </c>
       <c r="C327">
-        <v>0.67061999999999999</v>
+        <v>0.48503000000000002</v>
       </c>
       <c r="D327">
-        <v>0.83298000000000005</v>
+        <v>0.70672000000000001</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B328">
-        <v>0.78332000000000002</v>
+        <v>0.58955000000000002</v>
       </c>
       <c r="C328">
-        <v>0.69369999999999998</v>
+        <v>0.48198999999999997</v>
       </c>
       <c r="D328">
-        <v>0.87295</v>
+        <v>0.69711000000000001</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B329">
-        <v>0.76783999999999997</v>
+        <v>0.58331</v>
       </c>
       <c r="C329">
-        <v>0.66957</v>
+        <v>0.52646000000000004</v>
       </c>
       <c r="D329">
-        <v>0.86609999999999998</v>
+        <v>0.64015999999999995</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B330">
-        <v>0.77968999999999999</v>
+        <v>0.57704</v>
       </c>
       <c r="C330">
-        <v>0.85524</v>
+        <v>0.52803</v>
       </c>
       <c r="D330">
-        <v>0.70413999999999999</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A331" t="s">
-        <v>397</v>
-      </c>
-      <c r="B331">
-        <v>0.75651000000000002</v>
-      </c>
-      <c r="C331">
-        <v>0.82310000000000005</v>
-      </c>
-      <c r="D331">
-        <v>0.68991999999999998</v>
+        <v>0.62604000000000004</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
@@ -11973,902 +12027,818 @@
         <v>326</v>
       </c>
       <c r="B332" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C332" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="D332" t="s">
-        <v>336</v>
+        <v>329</v>
+      </c>
+      <c r="E332" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="B333">
-        <v>0.57389999999999997</v>
+        <v>0.86150000000000004</v>
       </c>
       <c r="C333">
-        <v>0.47099000000000002</v>
+        <v>0.82138999999999995</v>
       </c>
       <c r="D333">
-        <v>0.67681999999999998</v>
+        <v>0.68967000000000001</v>
+      </c>
+      <c r="E333">
+        <v>0.78452999999999995</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="B334">
-        <v>0.59587000000000001</v>
+        <v>0.86201000000000005</v>
       </c>
       <c r="C334">
-        <v>0.48503000000000002</v>
+        <v>0.82723999999999998</v>
       </c>
       <c r="D334">
-        <v>0.70672000000000001</v>
+        <v>0.69501999999999997</v>
+      </c>
+      <c r="E334">
+        <v>0.78763000000000005</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="B335">
-        <v>0.58955000000000002</v>
+        <v>0.87187000000000003</v>
       </c>
       <c r="C335">
-        <v>0.48198999999999997</v>
+        <v>0.82806999999999997</v>
       </c>
       <c r="D335">
-        <v>0.69711000000000001</v>
+        <v>0.69767999999999997</v>
+      </c>
+      <c r="E335">
+        <v>0.79751000000000005</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="B336">
-        <v>0.58331</v>
+        <v>0.83919999999999995</v>
       </c>
       <c r="C336">
-        <v>0.52646000000000004</v>
+        <v>0.81701999999999997</v>
       </c>
       <c r="D336">
-        <v>0.64015999999999995</v>
+        <v>0.66785000000000005</v>
+      </c>
+      <c r="E336">
+        <v>0.76214999999999999</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="B337">
-        <v>0.57704</v>
+        <v>0.85895999999999995</v>
       </c>
       <c r="C337">
-        <v>0.52803</v>
+        <v>0.8306</v>
       </c>
       <c r="D337">
-        <v>0.62604000000000004</v>
+        <v>0.69601000000000002</v>
+      </c>
+      <c r="E337">
+        <v>0.78456999999999999</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>326</v>
+      </c>
+      <c r="B338" t="s">
+        <v>331</v>
+      </c>
+      <c r="C338" t="s">
+        <v>332</v>
+      </c>
+      <c r="D338" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>326</v>
-      </c>
-      <c r="B339" t="s">
-        <v>327</v>
-      </c>
-      <c r="C339" t="s">
-        <v>328</v>
-      </c>
-      <c r="D339" t="s">
-        <v>329</v>
-      </c>
-      <c r="E339" t="s">
-        <v>330</v>
+        <v>398</v>
+      </c>
+      <c r="B339">
+        <v>0.75531000000000004</v>
+      </c>
+      <c r="C339">
+        <v>0.69240000000000002</v>
+      </c>
+      <c r="D339">
+        <v>0.81821999999999995</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B340">
-        <v>0.86150000000000004</v>
+        <v>0.77383999999999997</v>
       </c>
       <c r="C340">
-        <v>0.82138999999999995</v>
+        <v>0.65917999999999999</v>
       </c>
       <c r="D340">
-        <v>0.68967000000000001</v>
-      </c>
-      <c r="E340">
-        <v>0.78452999999999995</v>
+        <v>0.88849999999999996</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B341">
-        <v>0.86201000000000005</v>
+        <v>0.76961000000000002</v>
       </c>
       <c r="C341">
-        <v>0.82723999999999998</v>
+        <v>0.65473000000000003</v>
       </c>
       <c r="D341">
-        <v>0.69501999999999997</v>
-      </c>
-      <c r="E341">
-        <v>0.78763000000000005</v>
+        <v>0.88448000000000004</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B342">
-        <v>0.87187000000000003</v>
+        <v>0.74743000000000004</v>
       </c>
       <c r="C342">
-        <v>0.82806999999999997</v>
+        <v>0.87309000000000003</v>
       </c>
       <c r="D342">
-        <v>0.69767999999999997</v>
-      </c>
-      <c r="E342">
-        <v>0.79751000000000005</v>
+        <v>0.62178</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B343">
-        <v>0.83919999999999995</v>
+        <v>0.75651000000000002</v>
       </c>
       <c r="C343">
-        <v>0.81701999999999997</v>
+        <v>0.82310000000000005</v>
       </c>
       <c r="D343">
-        <v>0.66785000000000005</v>
-      </c>
-      <c r="E343">
-        <v>0.76214999999999999</v>
+        <v>0.68991999999999998</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>402</v>
-      </c>
-      <c r="B344">
-        <v>0.85895999999999995</v>
-      </c>
-      <c r="C344">
-        <v>0.8306</v>
-      </c>
-      <c r="D344">
-        <v>0.69601000000000002</v>
-      </c>
-      <c r="E344">
-        <v>0.78456999999999999</v>
+        <v>326</v>
+      </c>
+      <c r="B344" t="s">
+        <v>334</v>
+      </c>
+      <c r="C344" t="s">
+        <v>335</v>
+      </c>
+      <c r="D344" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>326</v>
-      </c>
-      <c r="B345" t="s">
-        <v>331</v>
-      </c>
-      <c r="C345" t="s">
-        <v>332</v>
-      </c>
-      <c r="D345" t="s">
-        <v>333</v>
+        <v>398</v>
+      </c>
+      <c r="B345">
+        <v>0.57482999999999995</v>
+      </c>
+      <c r="C345">
+        <v>0.47754999999999997</v>
+      </c>
+      <c r="D345">
+        <v>0.67212000000000005</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B346">
-        <v>0.75531000000000004</v>
+        <v>0.58662999999999998</v>
       </c>
       <c r="C346">
-        <v>0.69240000000000002</v>
+        <v>0.46931</v>
       </c>
       <c r="D346">
-        <v>0.81821999999999995</v>
+        <v>0.70394000000000001</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B347">
-        <v>0.77383999999999997</v>
+        <v>0.58384999999999998</v>
       </c>
       <c r="C347">
-        <v>0.65917999999999999</v>
+        <v>0.46949000000000002</v>
       </c>
       <c r="D347">
-        <v>0.88849999999999996</v>
+        <v>0.69821999999999995</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B348">
-        <v>0.76961000000000002</v>
+        <v>0.53881999999999997</v>
       </c>
       <c r="C348">
-        <v>0.65473000000000003</v>
+        <v>0.50019000000000002</v>
       </c>
       <c r="D348">
-        <v>0.88448000000000004</v>
+        <v>0.57745000000000002</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B349">
-        <v>0.74743000000000004</v>
+        <v>0.57704</v>
       </c>
       <c r="C349">
-        <v>0.87309000000000003</v>
+        <v>0.52803</v>
       </c>
       <c r="D349">
-        <v>0.62178</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A350" t="s">
-        <v>402</v>
-      </c>
-      <c r="B350">
-        <v>0.75651000000000002</v>
-      </c>
-      <c r="C350">
-        <v>0.82310000000000005</v>
-      </c>
-      <c r="D350">
-        <v>0.68991999999999998</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A351" t="s">
-        <v>326</v>
-      </c>
-      <c r="B351" t="s">
-        <v>334</v>
-      </c>
-      <c r="C351" t="s">
-        <v>335</v>
-      </c>
-      <c r="D351" t="s">
-        <v>336</v>
+        <v>0.62604000000000004</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="A351" s="3" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>398</v>
-      </c>
-      <c r="B352">
-        <v>0.57482999999999995</v>
-      </c>
-      <c r="C352">
-        <v>0.47754999999999997</v>
-      </c>
-      <c r="D352">
-        <v>0.67212000000000005</v>
+        <v>326</v>
+      </c>
+      <c r="B352" t="s">
+        <v>327</v>
+      </c>
+      <c r="C352" t="s">
+        <v>328</v>
+      </c>
+      <c r="D352" t="s">
+        <v>329</v>
+      </c>
+      <c r="E352" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>399</v>
+        <v>464</v>
       </c>
       <c r="B353">
-        <v>0.58662999999999998</v>
+        <v>0.85426000000000002</v>
       </c>
       <c r="C353">
-        <v>0.46931</v>
+        <v>0.79044000000000003</v>
       </c>
       <c r="D353">
-        <v>0.70394000000000001</v>
+        <v>0.65169999999999995</v>
+      </c>
+      <c r="E353">
+        <v>0.77351000000000003</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>400</v>
-      </c>
-      <c r="B354">
-        <v>0.58384999999999998</v>
-      </c>
-      <c r="C354">
-        <v>0.46949000000000002</v>
-      </c>
-      <c r="D354">
-        <v>0.69821999999999995</v>
+        <v>326</v>
+      </c>
+      <c r="B354" t="s">
+        <v>331</v>
+      </c>
+      <c r="C354" t="s">
+        <v>332</v>
+      </c>
+      <c r="D354" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>401</v>
+        <v>464</v>
       </c>
       <c r="B355">
-        <v>0.53881999999999997</v>
+        <v>0.71364000000000005</v>
       </c>
       <c r="C355">
-        <v>0.50019000000000002</v>
+        <v>0.55449999999999999</v>
       </c>
       <c r="D355">
-        <v>0.57745000000000002</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>402</v>
-      </c>
-      <c r="B356">
-        <v>0.57704</v>
-      </c>
-      <c r="C356">
-        <v>0.52803</v>
-      </c>
-      <c r="D356">
-        <v>0.62604000000000004</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A358" s="3" t="s">
-        <v>471</v>
+        <v>326</v>
+      </c>
+      <c r="B356" t="s">
+        <v>334</v>
+      </c>
+      <c r="C356" t="s">
+        <v>335</v>
+      </c>
+      <c r="D356" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>464</v>
+      </c>
+      <c r="B357">
+        <v>0.52154</v>
+      </c>
+      <c r="C357">
+        <v>0.41139999999999999</v>
+      </c>
+      <c r="D357">
+        <v>0.63166999999999995</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>326</v>
+      </c>
+      <c r="B358" t="s">
+        <v>327</v>
+      </c>
+      <c r="C358" t="s">
+        <v>328</v>
+      </c>
+      <c r="D358" t="s">
+        <v>329</v>
+      </c>
+      <c r="E358" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>326</v>
-      </c>
-      <c r="B359" t="s">
-        <v>327</v>
-      </c>
-      <c r="C359" t="s">
-        <v>328</v>
-      </c>
-      <c r="D359" t="s">
-        <v>329</v>
-      </c>
-      <c r="E359" t="s">
-        <v>330</v>
+        <v>465</v>
+      </c>
+      <c r="B359">
+        <v>0.82296000000000002</v>
+      </c>
+      <c r="C359">
+        <v>0.78688999999999998</v>
+      </c>
+      <c r="D359">
+        <v>0.62644999999999995</v>
+      </c>
+      <c r="E359">
+        <v>0.74321000000000004</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>464</v>
-      </c>
-      <c r="B360">
-        <v>0.85426000000000002</v>
-      </c>
-      <c r="C360">
-        <v>0.79044000000000003</v>
-      </c>
-      <c r="D360">
-        <v>0.65169999999999995</v>
-      </c>
-      <c r="E360">
-        <v>0.77351000000000003</v>
+        <v>326</v>
+      </c>
+      <c r="B360" t="s">
+        <v>331</v>
+      </c>
+      <c r="C360" t="s">
+        <v>332</v>
+      </c>
+      <c r="D360" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>326</v>
-      </c>
-      <c r="B361" t="s">
-        <v>331</v>
-      </c>
-      <c r="C361" t="s">
-        <v>332</v>
-      </c>
-      <c r="D361" t="s">
-        <v>333</v>
+        <v>465</v>
+      </c>
+      <c r="B361">
+        <v>0.73738000000000004</v>
+      </c>
+      <c r="C361">
+        <v>0.58762000000000003</v>
+      </c>
+      <c r="D361">
+        <v>0.88917000000000002</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>464</v>
-      </c>
-      <c r="B362">
-        <v>0.71364000000000005</v>
-      </c>
-      <c r="C362">
-        <v>0.55449999999999999</v>
-      </c>
-      <c r="D362">
-        <v>0.875</v>
+        <v>326</v>
+      </c>
+      <c r="B362" t="s">
+        <v>334</v>
+      </c>
+      <c r="C362" t="s">
+        <v>335</v>
+      </c>
+      <c r="D362" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>326</v>
-      </c>
-      <c r="B363" t="s">
-        <v>334</v>
-      </c>
-      <c r="C363" t="s">
-        <v>335</v>
-      </c>
-      <c r="D363" t="s">
-        <v>336</v>
+        <v>465</v>
+      </c>
+      <c r="B363">
+        <v>0.50095000000000001</v>
+      </c>
+      <c r="C363">
+        <v>0.39395000000000002</v>
+      </c>
+      <c r="D363">
+        <v>0.60795999999999994</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>464</v>
-      </c>
-      <c r="B364">
-        <v>0.52154</v>
-      </c>
-      <c r="C364">
-        <v>0.41139999999999999</v>
-      </c>
-      <c r="D364">
-        <v>0.63166999999999995</v>
+        <v>326</v>
+      </c>
+      <c r="B364" t="s">
+        <v>327</v>
+      </c>
+      <c r="C364" t="s">
+        <v>328</v>
+      </c>
+      <c r="D364" t="s">
+        <v>329</v>
+      </c>
+      <c r="E364" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>326</v>
-      </c>
-      <c r="B365" t="s">
-        <v>327</v>
-      </c>
-      <c r="C365" t="s">
-        <v>328</v>
-      </c>
-      <c r="D365" t="s">
-        <v>329</v>
-      </c>
-      <c r="E365" t="s">
-        <v>330</v>
+        <v>466</v>
+      </c>
+      <c r="B365">
+        <v>0.82293000000000005</v>
+      </c>
+      <c r="C365">
+        <v>0.78678000000000003</v>
+      </c>
+      <c r="D365">
+        <v>0.62633000000000005</v>
+      </c>
+      <c r="E365">
+        <v>0.74314999999999998</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>465</v>
-      </c>
-      <c r="B366">
-        <v>0.82296000000000002</v>
-      </c>
-      <c r="C366">
-        <v>0.78688999999999998</v>
-      </c>
-      <c r="D366">
-        <v>0.62644999999999995</v>
-      </c>
-      <c r="E366">
-        <v>0.74321000000000004</v>
+        <v>326</v>
+      </c>
+      <c r="B366" t="s">
+        <v>331</v>
+      </c>
+      <c r="C366" t="s">
+        <v>332</v>
+      </c>
+      <c r="D366" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>326</v>
-      </c>
-      <c r="B367" t="s">
-        <v>331</v>
-      </c>
-      <c r="C367" t="s">
-        <v>332</v>
-      </c>
-      <c r="D367" t="s">
-        <v>333</v>
+        <v>466</v>
+      </c>
+      <c r="B367">
+        <v>0.73721000000000003</v>
+      </c>
+      <c r="C367">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="D367">
+        <v>0.88946999999999998</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>465</v>
-      </c>
-      <c r="B368">
-        <v>0.73738000000000004</v>
-      </c>
-      <c r="C368">
-        <v>0.58762000000000003</v>
-      </c>
-      <c r="D368">
-        <v>0.88917000000000002</v>
+        <v>326</v>
+      </c>
+      <c r="B368" t="s">
+        <v>334</v>
+      </c>
+      <c r="C368" t="s">
+        <v>335</v>
+      </c>
+      <c r="D368" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>326</v>
-      </c>
-      <c r="B369" t="s">
-        <v>334</v>
-      </c>
-      <c r="C369" t="s">
-        <v>335</v>
-      </c>
-      <c r="D369" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A370" t="s">
-        <v>465</v>
-      </c>
-      <c r="B370">
-        <v>0.50095000000000001</v>
-      </c>
-      <c r="C370">
-        <v>0.39395000000000002</v>
-      </c>
-      <c r="D370">
-        <v>0.60795999999999994</v>
-      </c>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A371" t="s">
-        <v>326</v>
-      </c>
-      <c r="B371" t="s">
-        <v>327</v>
-      </c>
-      <c r="C371" t="s">
-        <v>328</v>
-      </c>
-      <c r="D371" t="s">
-        <v>329</v>
-      </c>
-      <c r="E371" t="s">
-        <v>330</v>
+        <v>466</v>
+      </c>
+      <c r="B369">
+        <v>0.50078</v>
+      </c>
+      <c r="C369">
+        <v>0.39367000000000002</v>
+      </c>
+      <c r="D369">
+        <v>0.60787999999999998</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="A371" s="3" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>466</v>
-      </c>
-      <c r="B372">
-        <v>0.82293000000000005</v>
-      </c>
-      <c r="C372">
-        <v>0.78678000000000003</v>
-      </c>
-      <c r="D372">
-        <v>0.62633000000000005</v>
-      </c>
-      <c r="E372">
-        <v>0.74314999999999998</v>
+        <v>326</v>
+      </c>
+      <c r="B372" t="s">
+        <v>327</v>
+      </c>
+      <c r="C372" t="s">
+        <v>328</v>
+      </c>
+      <c r="D372" t="s">
+        <v>329</v>
+      </c>
+      <c r="E372" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>326</v>
-      </c>
-      <c r="B373" t="s">
-        <v>331</v>
-      </c>
-      <c r="C373" t="s">
-        <v>332</v>
-      </c>
-      <c r="D373" t="s">
-        <v>333</v>
+        <v>467</v>
+      </c>
+      <c r="B373">
+        <v>0.87039</v>
+      </c>
+      <c r="C373">
+        <v>0.82564000000000004</v>
+      </c>
+      <c r="D373">
+        <v>0.69074999999999998</v>
+      </c>
+      <c r="E373">
+        <v>0.79981000000000002</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>466</v>
-      </c>
-      <c r="B374">
-        <v>0.73721000000000003</v>
-      </c>
-      <c r="C374">
-        <v>0.58699999999999997</v>
-      </c>
-      <c r="D374">
-        <v>0.88946999999999998</v>
+        <v>326</v>
+      </c>
+      <c r="B374" t="s">
+        <v>331</v>
+      </c>
+      <c r="C374" t="s">
+        <v>332</v>
+      </c>
+      <c r="D374" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>326</v>
-      </c>
-      <c r="B375" t="s">
-        <v>334</v>
-      </c>
-      <c r="C375" t="s">
-        <v>335</v>
-      </c>
-      <c r="D375" t="s">
-        <v>336</v>
+        <v>467</v>
+      </c>
+      <c r="B375">
+        <v>0.76429999999999998</v>
+      </c>
+      <c r="C375">
+        <v>0.67432000000000003</v>
+      </c>
+      <c r="D375">
+        <v>0.85474000000000006</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>466</v>
-      </c>
-      <c r="B376">
-        <v>0.50078</v>
-      </c>
-      <c r="C376">
-        <v>0.39367000000000002</v>
-      </c>
-      <c r="D376">
-        <v>0.60787999999999998</v>
-      </c>
-    </row>
-    <row r="378" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A378" s="3" t="s">
-        <v>470</v>
+        <v>326</v>
+      </c>
+      <c r="B376" t="s">
+        <v>334</v>
+      </c>
+      <c r="C376" t="s">
+        <v>335</v>
+      </c>
+      <c r="D376" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>467</v>
+      </c>
+      <c r="B377">
+        <v>0.56966000000000006</v>
+      </c>
+      <c r="C377">
+        <v>0.47792000000000001</v>
+      </c>
+      <c r="D377">
+        <v>0.66139999999999999</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>326</v>
+      </c>
+      <c r="B378" t="s">
+        <v>327</v>
+      </c>
+      <c r="C378" t="s">
+        <v>328</v>
+      </c>
+      <c r="D378" t="s">
+        <v>329</v>
+      </c>
+      <c r="E378" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>326</v>
-      </c>
-      <c r="B379" t="s">
-        <v>327</v>
-      </c>
-      <c r="C379" t="s">
-        <v>328</v>
-      </c>
-      <c r="D379" t="s">
-        <v>329</v>
-      </c>
-      <c r="E379" t="s">
-        <v>330</v>
+        <v>468</v>
+      </c>
+      <c r="B379">
+        <v>0.85692000000000002</v>
+      </c>
+      <c r="C379">
+        <v>0.79781999999999997</v>
+      </c>
+      <c r="D379">
+        <v>0.65769</v>
+      </c>
+      <c r="E379">
+        <v>0.78029000000000004</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>467</v>
-      </c>
-      <c r="B380">
-        <v>0.87039</v>
-      </c>
-      <c r="C380">
-        <v>0.82564000000000004</v>
-      </c>
-      <c r="D380">
-        <v>0.69074999999999998</v>
-      </c>
-      <c r="E380">
-        <v>0.79981000000000002</v>
+        <v>326</v>
+      </c>
+      <c r="B380" t="s">
+        <v>331</v>
+      </c>
+      <c r="C380" t="s">
+        <v>332</v>
+      </c>
+      <c r="D380" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>326</v>
-      </c>
-      <c r="B381" t="s">
-        <v>331</v>
-      </c>
-      <c r="C381" t="s">
-        <v>332</v>
-      </c>
-      <c r="D381" t="s">
-        <v>333</v>
+        <v>468</v>
+      </c>
+      <c r="B381">
+        <v>0.72541</v>
+      </c>
+      <c r="C381">
+        <v>0.54439000000000004</v>
+      </c>
+      <c r="D381">
+        <v>0.91061000000000003</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>467</v>
-      </c>
-      <c r="B382">
-        <v>0.76429999999999998</v>
-      </c>
-      <c r="C382">
-        <v>0.67432000000000003</v>
-      </c>
-      <c r="D382">
-        <v>0.85474000000000006</v>
+        <v>326</v>
+      </c>
+      <c r="B382" t="s">
+        <v>334</v>
+      </c>
+      <c r="C382" t="s">
+        <v>335</v>
+      </c>
+      <c r="D382" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>326</v>
-      </c>
-      <c r="B383" t="s">
-        <v>334</v>
-      </c>
-      <c r="C383" t="s">
-        <v>335</v>
-      </c>
-      <c r="D383" t="s">
-        <v>336</v>
+        <v>468</v>
+      </c>
+      <c r="B383">
+        <v>0.52422000000000002</v>
+      </c>
+      <c r="C383">
+        <v>0.39843000000000001</v>
+      </c>
+      <c r="D383">
+        <v>0.65000999999999998</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>467</v>
-      </c>
-      <c r="B384">
-        <v>0.56966000000000006</v>
-      </c>
-      <c r="C384">
-        <v>0.47792000000000001</v>
-      </c>
-      <c r="D384">
-        <v>0.66139999999999999</v>
+        <v>326</v>
+      </c>
+      <c r="B384" t="s">
+        <v>327</v>
+      </c>
+      <c r="C384" t="s">
+        <v>328</v>
+      </c>
+      <c r="D384" t="s">
+        <v>329</v>
+      </c>
+      <c r="E384" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>326</v>
-      </c>
-      <c r="B385" t="s">
-        <v>327</v>
-      </c>
-      <c r="C385" t="s">
-        <v>328</v>
-      </c>
-      <c r="D385" t="s">
-        <v>329</v>
-      </c>
-      <c r="E385" t="s">
-        <v>330</v>
+        <v>469</v>
+      </c>
+      <c r="B385">
+        <v>0.85692000000000002</v>
+      </c>
+      <c r="C385">
+        <v>0.79781999999999997</v>
+      </c>
+      <c r="D385">
+        <v>0.65769</v>
+      </c>
+      <c r="E385">
+        <v>0.78029000000000004</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>468</v>
-      </c>
-      <c r="B386">
-        <v>0.85692000000000002</v>
-      </c>
-      <c r="C386">
-        <v>0.79781999999999997</v>
-      </c>
-      <c r="D386">
-        <v>0.65769</v>
-      </c>
-      <c r="E386">
-        <v>0.78029000000000004</v>
+        <v>326</v>
+      </c>
+      <c r="B386" t="s">
+        <v>331</v>
+      </c>
+      <c r="C386" t="s">
+        <v>332</v>
+      </c>
+      <c r="D386" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>326</v>
-      </c>
-      <c r="B387" t="s">
-        <v>331</v>
-      </c>
-      <c r="C387" t="s">
-        <v>332</v>
-      </c>
-      <c r="D387" t="s">
-        <v>333</v>
+        <v>469</v>
+      </c>
+      <c r="B387">
+        <v>0.72541</v>
+      </c>
+      <c r="C387">
+        <v>0.54439000000000004</v>
+      </c>
+      <c r="D387">
+        <v>0.91061000000000003</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>468</v>
-      </c>
-      <c r="B388">
-        <v>0.72541</v>
-      </c>
-      <c r="C388">
-        <v>0.54439000000000004</v>
-      </c>
-      <c r="D388">
-        <v>0.91061000000000003</v>
+        <v>326</v>
+      </c>
+      <c r="B388" t="s">
+        <v>334</v>
+      </c>
+      <c r="C388" t="s">
+        <v>335</v>
+      </c>
+      <c r="D388" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>326</v>
-      </c>
-      <c r="B389" t="s">
-        <v>334</v>
-      </c>
-      <c r="C389" t="s">
-        <v>335</v>
-      </c>
-      <c r="D389" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A390" t="s">
-        <v>468</v>
-      </c>
-      <c r="B390">
+        <v>469</v>
+      </c>
+      <c r="B389">
         <v>0.52422000000000002</v>
       </c>
-      <c r="C390">
+      <c r="C389">
         <v>0.39843000000000001</v>
       </c>
-      <c r="D390">
-        <v>0.65000999999999998</v>
-      </c>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A391" t="s">
-        <v>326</v>
-      </c>
-      <c r="B391" t="s">
-        <v>327</v>
-      </c>
-      <c r="C391" t="s">
-        <v>328</v>
-      </c>
-      <c r="D391" t="s">
-        <v>329</v>
-      </c>
-      <c r="E391" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A392" t="s">
-        <v>469</v>
-      </c>
-      <c r="B392">
-        <v>0.85692000000000002</v>
-      </c>
-      <c r="C392">
-        <v>0.79781999999999997</v>
-      </c>
-      <c r="D392">
-        <v>0.65769</v>
-      </c>
-      <c r="E392">
-        <v>0.78029000000000004</v>
-      </c>
-    </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A393" t="s">
-        <v>326</v>
-      </c>
-      <c r="B393" t="s">
-        <v>331</v>
-      </c>
-      <c r="C393" t="s">
-        <v>332</v>
-      </c>
-      <c r="D393" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A394" t="s">
-        <v>469</v>
-      </c>
-      <c r="B394">
-        <v>0.72541</v>
-      </c>
-      <c r="C394">
-        <v>0.54439000000000004</v>
-      </c>
-      <c r="D394">
-        <v>0.91061000000000003</v>
-      </c>
-    </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A395" t="s">
-        <v>326</v>
-      </c>
-      <c r="B395" t="s">
-        <v>334</v>
-      </c>
-      <c r="C395" t="s">
-        <v>335</v>
-      </c>
-      <c r="D395" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A396" t="s">
-        <v>469</v>
-      </c>
-      <c r="B396">
-        <v>0.52422000000000002</v>
-      </c>
-      <c r="C396">
-        <v>0.39843000000000001</v>
-      </c>
-      <c r="D396">
+      <c r="D389">
         <v>0.65000999999999998</v>
       </c>
     </row>
@@ -12876,15 +12846,15 @@
   <mergeCells count="11">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A100:E100"/>
+    <mergeCell ref="A118:E118"/>
+    <mergeCell ref="A137:E137"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A293:E293"/>
+    <mergeCell ref="A231:E231"/>
+    <mergeCell ref="A192:E192"/>
     <mergeCell ref="A71:E71"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="A108:E108"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A300:E300"/>
-    <mergeCell ref="A238:E238"/>
-    <mergeCell ref="A199:E199"/>
-    <mergeCell ref="A162:E162"/>
-    <mergeCell ref="A126:E126"/>
+    <mergeCell ref="A155:E155"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
@@ -13451,10 +13421,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z141"/>
+  <dimension ref="A1:AD141"/>
   <sheetViews>
-    <sheetView topLeftCell="F114" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P133" sqref="P133"/>
+    <sheetView tabSelected="1" topLeftCell="I36" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="X65" sqref="X65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14212,7 +14182,7 @@
         <v>0.78456999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>413</v>
       </c>
@@ -14245,8 +14215,20 @@
       <c r="X34" s="17"/>
       <c r="Y34" s="17"/>
       <c r="Z34" s="17"/>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA34" t="s">
+        <v>327</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>328</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>329</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>432</v>
       </c>
@@ -14279,8 +14261,20 @@
       <c r="X35" s="17"/>
       <c r="Y35" s="17"/>
       <c r="Z35" s="17"/>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA35">
+        <v>0.88705000000000001</v>
+      </c>
+      <c r="AB35">
+        <v>0.83133000000000001</v>
+      </c>
+      <c r="AC35">
+        <v>0.73011999999999999</v>
+      </c>
+      <c r="AD35">
+        <v>0.80845</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>423</v>
       </c>
@@ -14353,8 +14347,17 @@
       <c r="Z36" s="1" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA36" t="s">
+        <v>331</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>332</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>422</v>
       </c>
@@ -14427,8 +14430,17 @@
       <c r="Z37">
         <v>0.57425999999999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA37">
+        <v>0.76243000000000005</v>
+      </c>
+      <c r="AB37">
+        <v>0.68574000000000002</v>
+      </c>
+      <c r="AC37">
+        <v>0.83911000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>415</v>
       </c>
@@ -14501,8 +14513,17 @@
       <c r="Z38">
         <v>0.63683000000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA38" t="s">
+        <v>334</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>335</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>328</v>
       </c>
@@ -14567,7 +14588,7 @@
         <v>0.56130999999999998</v>
       </c>
       <c r="X39">
-        <v>0.52280000000000004</v>
+        <v>0.68574000000000002</v>
       </c>
       <c r="Y39">
         <v>0.63424000000000003</v>
@@ -14575,8 +14596,17 @@
       <c r="Z39">
         <v>0.73395999999999995</v>
       </c>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA39">
+        <v>0.64646999999999999</v>
+      </c>
+      <c r="AB39">
+        <v>0.56706999999999996</v>
+      </c>
+      <c r="AC39">
+        <v>0.72585999999999995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>327</v>
       </c>
@@ -14650,7 +14680,7 @@
         <v>0.70833999999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
         <v>424</v>
       </c>
@@ -14714,7 +14744,7 @@
         <v>0.76958000000000004</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
         <v>433</v>
       </c>
@@ -14758,7 +14788,7 @@
       <c r="Y42" s="17"/>
       <c r="Z42" s="17"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>423</v>
       </c>
@@ -14812,7 +14842,7 @@
       <c r="Y43" s="17"/>
       <c r="Z43" s="17"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>416</v>
       </c>
@@ -14886,7 +14916,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>417</v>
       </c>
@@ -14942,7 +14972,7 @@
         <v>0.41599999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>418</v>
       </c>
@@ -15000,7 +15030,7 @@
         <v>0.42425000000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>419</v>
       </c>
@@ -15049,7 +15079,7 @@
         <v>0.40035999999999999</v>
       </c>
       <c r="X47">
-        <v>0.42759000000000003</v>
+        <v>0.56706999999999996</v>
       </c>
       <c r="Y47">
         <v>0.47449999999999998</v>
@@ -15058,7 +15088,7 @@
         <v>0.47498000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
         <v>506</v>
       </c>
@@ -15420,7 +15450,7 @@
         <v>0.83104999999999996</v>
       </c>
       <c r="X55">
-        <v>0.69803999999999999</v>
+        <v>0.83911000000000002</v>
       </c>
       <c r="Y55">
         <v>0.89527000000000001</v>
@@ -15892,7 +15922,7 @@
         <v>0.65622000000000003</v>
       </c>
       <c r="X63">
-        <v>0.60480999999999996</v>
+        <v>0.72585999999999995</v>
       </c>
       <c r="Y63">
         <v>0.70894000000000001</v>

--- a/plotting/617_temp.xlsx
+++ b/plotting/617_temp.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="565">
   <si>
     <t>.\vgg_unet2_0_3_640_640_64_256_rot_15_345_4_flip_5K\training_32_49_640_640_640_640_max_val_acc\vis\vis_log_181022_0927.txt</t>
   </si>
@@ -1569,9 +1569,6 @@
     <t>Frazil Ice Recall</t>
   </si>
   <si>
-    <t>Frazil Ice Precision</t>
-  </si>
-  <si>
     <t>20161203_Deployment_1_YUN00002_1800</t>
   </si>
   <si>
@@ -1702,6 +1699,21 @@
   </si>
   <si>
     <t>deeplab/sel/32_49_640</t>
+  </si>
+  <si>
+    <t>traning images</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>anchor ice</t>
+  </si>
+  <si>
+    <t>frazil ice</t>
+  </si>
+  <si>
+    <t>test images</t>
   </si>
 </sst>
 </file>
@@ -8991,7 +9003,7 @@
     </row>
     <row r="100" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
@@ -13423,8 +13435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I36" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="X65" sqref="X65"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B138" sqref="B138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15577,7 +15589,7 @@
         <v>509</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>411</v>
@@ -15592,7 +15604,7 @@
         <v>509</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="O58" s="17" t="s">
         <v>434</v>
@@ -15652,7 +15664,7 @@
       <c r="T59" s="17"/>
       <c r="U59" s="17"/>
       <c r="V59" s="17" t="s">
-        <v>516</v>
+        <v>544</v>
       </c>
       <c r="W59" s="17"/>
       <c r="X59" s="17"/>
@@ -16757,7 +16769,7 @@
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B84" s="17" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C84" s="17"/>
       <c r="D84" s="17"/>
@@ -16778,25 +16790,25 @@
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B85" s="17" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C85" s="17"/>
       <c r="D85" s="17"/>
       <c r="E85" s="17"/>
       <c r="F85" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G85" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="H85" t="s">
         <v>526</v>
       </c>
-      <c r="H85" t="s">
+      <c r="I85" t="s">
         <v>527</v>
       </c>
-      <c r="I85" t="s">
+      <c r="J85" t="s">
         <v>528</v>
-      </c>
-      <c r="J85" t="s">
-        <v>529</v>
       </c>
       <c r="P85" s="17" t="s">
         <v>454</v>
@@ -16812,10 +16824,10 @@
     </row>
     <row r="86" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>405</v>
@@ -16830,7 +16842,7 @@
         <v>1</v>
       </c>
       <c r="G86" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H86">
         <v>1800</v>
@@ -16871,10 +16883,10 @@
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B87" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C87">
         <v>2.5178015658025799</v>
@@ -16889,7 +16901,7 @@
         <v>2</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H87">
         <v>1800</v>
@@ -16930,7 +16942,7 @@
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>457</v>
@@ -16948,7 +16960,7 @@
         <v>3</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H88">
         <v>1800</v>
@@ -16989,10 +17001,10 @@
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C89">
         <v>1.2235413881447299</v>
@@ -17007,7 +17019,7 @@
         <v>4</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H89">
         <v>1800</v>
@@ -17048,7 +17060,7 @@
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>436</v>
@@ -17066,7 +17078,7 @@
         <v>5</v>
       </c>
       <c r="G90" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H90">
         <v>3600</v>
@@ -17107,10 +17119,10 @@
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C91">
         <v>1.4617734433154399</v>
@@ -17151,13 +17163,13 @@
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B92" s="17" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C92" s="17"/>
       <c r="D92" s="17"/>
       <c r="E92" s="17"/>
       <c r="F92" s="17" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G92" s="17"/>
       <c r="H92" s="17"/>
@@ -17176,13 +17188,13 @@
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B93" s="17" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C93" s="17"/>
       <c r="D93" s="17"/>
       <c r="E93" s="17"/>
       <c r="F93" s="17" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G93" s="17"/>
       <c r="H93" s="17"/>
@@ -17204,7 +17216,7 @@
         <v>452</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>405</v>
@@ -17216,7 +17228,7 @@
         <v>406</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>412</v>
@@ -17260,10 +17272,10 @@
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B95" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C95">
         <v>2.8450692597460598</v>
@@ -17275,7 +17287,7 @@
         <v>0.81001445981863995</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G95">
         <v>1.7754991721769</v>
@@ -17319,7 +17331,7 @@
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>457</v>
@@ -17334,7 +17346,7 @@
         <v>1.7041987033906001</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G96">
         <v>1.9690115698805599</v>
@@ -17378,10 +17390,10 @@
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C97">
         <v>1.6576068159758599</v>
@@ -17393,7 +17405,7 @@
         <v>0.81725156004450294</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G97">
         <v>0.99771385424408499</v>
@@ -17437,7 +17449,7 @@
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>436</v>
@@ -17452,7 +17464,7 @@
         <v>0.69840204943890205</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G98">
         <v>2.6455090462954298</v>
@@ -17496,10 +17508,10 @@
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C99">
         <v>2.0011688069696598</v>
@@ -17511,7 +17523,7 @@
         <v>1.01504810575062</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G99">
         <v>2.3296605083431299</v>
@@ -17555,16 +17567,16 @@
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B100" s="17" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C100" s="17"/>
       <c r="D100" s="17"/>
       <c r="E100" s="17"/>
       <c r="F100" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G100">
         <v>1.3565935367763899</v>
@@ -17593,13 +17605,13 @@
     <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="17" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C101" s="17"/>
       <c r="D101" s="17"/>
       <c r="E101" s="17"/>
       <c r="F101" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G101">
         <v>2.0697812840098302</v>
@@ -17630,7 +17642,7 @@
         <v>451</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>405</v>
@@ -17642,7 +17654,7 @@
         <v>406</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G102">
         <v>1.2306995540691099</v>
@@ -17686,10 +17698,10 @@
     </row>
     <row r="103" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B103" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C103">
         <v>2.78505026958993</v>
@@ -17701,7 +17713,7 @@
         <v>0.85228251538491795</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G103">
         <v>1.0469770150759701</v>
@@ -17745,7 +17757,7 @@
     </row>
     <row r="104" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>457</v>
@@ -17789,10 +17801,10 @@
     </row>
     <row r="105" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C105">
         <v>1.5569445865201099</v>
@@ -17833,7 +17845,7 @@
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>436</v>
@@ -17877,10 +17889,10 @@
     </row>
     <row r="107" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C107">
         <v>1.7417025334862299</v>
@@ -18195,7 +18207,7 @@
     </row>
     <row r="115" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B115">
         <v>0.84930000000000005</v>
@@ -18213,7 +18225,7 @@
         <v>0.85895999999999995</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H115">
         <v>0.76844000000000001</v>
@@ -18300,20 +18312,20 @@
     </row>
     <row r="118" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C118" s="15"/>
       <c r="D118" s="15"/>
       <c r="E118" s="15"/>
       <c r="F118" s="16"/>
       <c r="G118" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H118" s="10" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I118" s="12"/>
       <c r="J118" s="12"/>
@@ -18331,7 +18343,7 @@
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A119" s="14" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B119" s="15"/>
       <c r="C119" s="15"/>
@@ -18339,7 +18351,7 @@
       <c r="E119" s="15"/>
       <c r="F119" s="16"/>
       <c r="G119" s="14" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H119" s="15"/>
       <c r="I119" s="15"/>
@@ -18358,7 +18370,7 @@
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B120" s="7">
         <v>1</v>
@@ -18411,7 +18423,7 @@
     </row>
     <row r="121" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B121" s="7">
         <v>1</v>
@@ -18464,7 +18476,7 @@
     </row>
     <row r="122" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B122" s="7">
         <v>1</v>
@@ -18525,7 +18537,7 @@
       <c r="E123" s="15"/>
       <c r="F123" s="16"/>
       <c r="G123" s="14" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H123" s="15"/>
       <c r="I123" s="15"/>
@@ -18556,7 +18568,7 @@
     </row>
     <row r="124" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B124" s="7">
         <v>1</v>
@@ -18611,7 +18623,7 @@
     </row>
     <row r="125" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B125" s="7">
         <v>1</v>
@@ -18682,19 +18694,31 @@
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O127" s="17" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="P127" s="17"/>
       <c r="Q127" s="17"/>
       <c r="R127" s="17"/>
       <c r="S127" s="17" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="T127" s="17"/>
       <c r="U127" s="17"/>
       <c r="V127" s="17"/>
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>560</v>
+      </c>
+      <c r="B128" t="s">
+        <v>561</v>
+      </c>
+      <c r="C128" t="s">
+        <v>562</v>
+      </c>
+      <c r="D128" t="s">
+        <v>563</v>
+      </c>
       <c r="O128" s="1" t="s">
         <v>472</v>
       </c>
@@ -18720,7 +18744,19 @@
         <v>406</v>
       </c>
     </row>
-    <row r="129" spans="15:22" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>4</v>
+      </c>
+      <c r="B129">
+        <v>0.64835642000000004</v>
+      </c>
+      <c r="C129">
+        <v>0.14667698000000001</v>
+      </c>
+      <c r="D129">
+        <v>0.2049666</v>
+      </c>
       <c r="O129" s="1" t="s">
         <v>457</v>
       </c>
@@ -18746,7 +18782,19 @@
         <v>0.29899999999999999</v>
       </c>
     </row>
-    <row r="130" spans="15:22" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>8</v>
+      </c>
+      <c r="B130">
+        <v>0.63248784999999996</v>
+      </c>
+      <c r="C130">
+        <v>0.14353888000000001</v>
+      </c>
+      <c r="D130">
+        <v>0.22397327</v>
+      </c>
       <c r="O130" s="1" t="s">
         <v>458</v>
       </c>
@@ -18772,7 +18820,19 @@
         <v>0.32988000000000001</v>
       </c>
     </row>
-    <row r="131" spans="15:22" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>16</v>
+      </c>
+      <c r="B131">
+        <v>0.65330102999999995</v>
+      </c>
+      <c r="C131">
+        <v>0.13894444</v>
+      </c>
+      <c r="D131">
+        <v>0.20775452999999999</v>
+      </c>
       <c r="O131" s="1" t="s">
         <v>459</v>
       </c>
@@ -18798,7 +18858,19 @@
         <v>0.35004999999999997</v>
       </c>
     </row>
-    <row r="132" spans="15:22" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>24</v>
+      </c>
+      <c r="B132">
+        <v>0.64966250999999997</v>
+      </c>
+      <c r="C132">
+        <v>0.14933899</v>
+      </c>
+      <c r="D132">
+        <v>0.2009985</v>
+      </c>
       <c r="O132" s="1" t="s">
         <v>460</v>
       </c>
@@ -18824,7 +18896,19 @@
         <v>0.37895000000000001</v>
       </c>
     </row>
-    <row r="133" spans="15:22" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>32</v>
+      </c>
+      <c r="B133">
+        <v>0.64406554000000005</v>
+      </c>
+      <c r="C133">
+        <v>0.15804376000000001</v>
+      </c>
+      <c r="D133">
+        <v>0.19789069000000001</v>
+      </c>
       <c r="O133" s="1" t="s">
         <v>463</v>
       </c>
@@ -18850,7 +18934,19 @@
         <v>0.41599999999999998</v>
       </c>
     </row>
-    <row r="134" spans="15:22" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>564</v>
+      </c>
+      <c r="B134" t="s">
+        <v>561</v>
+      </c>
+      <c r="C134" t="s">
+        <v>562</v>
+      </c>
+      <c r="D134" t="s">
+        <v>563</v>
+      </c>
       <c r="O134" s="17" t="s">
         <v>507</v>
       </c>
@@ -18864,21 +18960,45 @@
       <c r="U134" s="17"/>
       <c r="V134" s="17"/>
     </row>
-    <row r="135" spans="15:22" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>18</v>
+      </c>
+      <c r="B135">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="C135">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="D135">
+        <v>0.26800000000000002</v>
+      </c>
       <c r="O135" s="17" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="P135" s="17"/>
       <c r="Q135" s="17"/>
       <c r="R135" s="17"/>
       <c r="S135" s="17" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="T135" s="17"/>
       <c r="U135" s="17"/>
       <c r="V135" s="17"/>
     </row>
-    <row r="136" spans="15:22" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>46</v>
+      </c>
+      <c r="B136">
+        <v>0.61</v>
+      </c>
+      <c r="C136">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="D136">
+        <v>0.224</v>
+      </c>
       <c r="O136" s="1" t="s">
         <v>472</v>
       </c>
@@ -18904,7 +19024,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="137" spans="15:22" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O137" s="1" t="s">
         <v>457</v>
       </c>
@@ -18930,7 +19050,7 @@
         <v>0.49303000000000002</v>
       </c>
     </row>
-    <row r="138" spans="15:22" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O138" s="1" t="s">
         <v>458</v>
       </c>
@@ -18956,7 +19076,7 @@
         <v>0.53398000000000001</v>
       </c>
     </row>
-    <row r="139" spans="15:22" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O139" s="1" t="s">
         <v>459</v>
       </c>
@@ -18982,7 +19102,7 @@
         <v>0.56057999999999997</v>
       </c>
     </row>
-    <row r="140" spans="15:22" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O140" s="1" t="s">
         <v>460</v>
       </c>
@@ -19008,7 +19128,7 @@
         <v>0.59784000000000004</v>
       </c>
     </row>
-    <row r="141" spans="15:22" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O141" s="1" t="s">
         <v>463</v>
       </c>

--- a/plotting/617_temp.xlsx
+++ b/plotting/617_temp.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="568">
   <si>
     <t>.\vgg_unet2_0_3_640_640_64_256_rot_15_345_4_flip_5K\training_32_49_640_640_640_640_max_val_acc\vis\vis_log_181022_0927.txt</t>
   </si>
@@ -1714,6 +1714,15 @@
   </si>
   <si>
     <t>test images</t>
+  </si>
+  <si>
+    <t>RT3/200K</t>
+  </si>
+  <si>
+    <t>RT/200K</t>
+  </si>
+  <si>
+    <t>RT3/85K</t>
   </si>
 </sst>
 </file>
@@ -1854,16 +1863,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1875,10 +1878,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -12856,17 +12865,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A293:E293"/>
+    <mergeCell ref="A231:E231"/>
+    <mergeCell ref="A192:E192"/>
+    <mergeCell ref="A71:E71"/>
+    <mergeCell ref="A155:E155"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A52:E52"/>
     <mergeCell ref="A100:E100"/>
     <mergeCell ref="A118:E118"/>
     <mergeCell ref="A137:E137"/>
     <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A293:E293"/>
-    <mergeCell ref="A231:E231"/>
-    <mergeCell ref="A192:E192"/>
-    <mergeCell ref="A71:E71"/>
-    <mergeCell ref="A155:E155"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
@@ -13435,8 +13444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B138" sqref="B138"/>
+    <sheetView tabSelected="1" topLeftCell="I28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AA47" sqref="AA47:AD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13449,13 +13458,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -13569,22 +13578,22 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -13737,14 +13746,14 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
       <c r="J17">
         <v>0.67832000000000003</v>
       </c>
@@ -13759,14 +13768,14 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="10" t="s">
         <v>444</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -13977,14 +13986,14 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
       <c r="J24">
         <v>0.43318000000000001</v>
       </c>
@@ -14011,14 +14020,14 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -14194,39 +14203,47 @@
         <v>0.78456999999999999</v>
       </c>
     </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AA33" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="AB33" s="10"/>
+      <c r="AC33" s="10"/>
+      <c r="AD33" s="10"/>
+    </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="H34" s="17" t="s">
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="H34" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="O34" s="17" t="s">
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="O34" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="17"/>
-      <c r="S34" s="17"/>
-      <c r="T34" s="17"/>
-      <c r="U34" s="17"/>
-      <c r="V34" s="17" t="s">
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="W34" s="17"/>
-      <c r="X34" s="17"/>
-      <c r="Y34" s="17"/>
-      <c r="Z34" s="17"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="10"/>
+      <c r="Y34" s="10"/>
+      <c r="Z34" s="10"/>
       <c r="AA34" t="s">
         <v>327</v>
       </c>
@@ -14241,38 +14258,38 @@
       </c>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="H35" s="17" t="s">
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="H35" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="O35" s="17" t="s">
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="O35" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="17"/>
-      <c r="S35" s="17"/>
-      <c r="T35" s="17"/>
-      <c r="U35" s="17"/>
-      <c r="V35" s="17" t="s">
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="W35" s="17"/>
-      <c r="X35" s="17"/>
-      <c r="Y35" s="17"/>
-      <c r="Z35" s="17"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="10"/>
+      <c r="Y35" s="10"/>
+      <c r="Z35" s="10"/>
       <c r="AA35">
         <v>0.88705000000000001</v>
       </c>
@@ -14691,16 +14708,22 @@
       <c r="Z40">
         <v>0.70833999999999997</v>
       </c>
+      <c r="AA40" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="AB40" s="10"/>
+      <c r="AC40" s="10"/>
+      <c r="AD40" s="10"/>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
       <c r="H41" s="1" t="s">
         <v>416</v>
       </c>
@@ -14755,16 +14778,28 @@
       <c r="Z41">
         <v>0.76958000000000004</v>
       </c>
+      <c r="AA41" t="s">
+        <v>327</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>328</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>329</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
       <c r="H42" s="1" t="s">
         <v>417</v>
       </c>
@@ -14783,22 +14818,34 @@
       <c r="M42">
         <v>0.63066</v>
       </c>
-      <c r="O42" s="17" t="s">
+      <c r="O42" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
-      <c r="R42" s="17"/>
-      <c r="S42" s="17"/>
-      <c r="T42" s="17"/>
-      <c r="U42" s="17"/>
-      <c r="V42" s="17" t="s">
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="W42" s="17"/>
-      <c r="X42" s="17"/>
-      <c r="Y42" s="17"/>
-      <c r="Z42" s="17"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="10"/>
+      <c r="Y42" s="10"/>
+      <c r="Z42" s="10"/>
+      <c r="AA42">
+        <v>0.87365000000000004</v>
+      </c>
+      <c r="AB42">
+        <v>0.80084</v>
+      </c>
+      <c r="AC42">
+        <v>0.70496999999999999</v>
+      </c>
+      <c r="AD42">
+        <v>0.78817000000000004</v>
+      </c>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
@@ -14837,22 +14884,31 @@
       <c r="M43">
         <v>0.65837000000000001</v>
       </c>
-      <c r="O43" s="17" t="s">
+      <c r="O43" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
-      <c r="R43" s="17"/>
-      <c r="S43" s="17"/>
-      <c r="T43" s="17"/>
-      <c r="U43" s="17"/>
-      <c r="V43" s="17" t="s">
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="10" t="s">
         <v>514</v>
       </c>
-      <c r="W43" s="17"/>
-      <c r="X43" s="17"/>
-      <c r="Y43" s="17"/>
-      <c r="Z43" s="17"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="10"/>
+      <c r="Y43" s="10"/>
+      <c r="Z43" s="10"/>
+      <c r="AA43" t="s">
+        <v>331</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>332</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
@@ -14927,6 +14983,15 @@
       <c r="Z44" s="1" t="s">
         <v>406</v>
       </c>
+      <c r="AA44">
+        <v>0.71865999999999997</v>
+      </c>
+      <c r="AB44">
+        <v>0.59760999999999997</v>
+      </c>
+      <c r="AC44">
+        <v>0.83970999999999996</v>
+      </c>
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
@@ -14982,6 +15047,15 @@
       </c>
       <c r="Z45">
         <v>0.41599999999999998</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>334</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>335</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.25">
@@ -15041,6 +15115,15 @@
       <c r="Z46">
         <v>0.42425000000000002</v>
       </c>
+      <c r="AA46">
+        <v>0.61821999999999999</v>
+      </c>
+      <c r="AB46">
+        <v>0.51787000000000005</v>
+      </c>
+      <c r="AC46">
+        <v>0.71855999999999998</v>
+      </c>
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
@@ -15099,15 +15182,21 @@
       <c r="Z47">
         <v>0.47498000000000001</v>
       </c>
+      <c r="AA47" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="AB47" s="10"/>
+      <c r="AC47" s="10"/>
+      <c r="AD47" s="10"/>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
       <c r="F48" s="2"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
@@ -15147,15 +15236,27 @@
       <c r="Z48">
         <v>0.48705999999999999</v>
       </c>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A49" s="17" t="s">
+      <c r="AA48" t="s">
+        <v>327</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>328</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>329</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
         <v>505</v>
       </c>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
       <c r="O49" s="1" t="s">
         <v>437</v>
       </c>
@@ -15192,8 +15293,20 @@
       <c r="Z49">
         <v>0.48977999999999999</v>
       </c>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA49">
+        <v>0.89254999999999995</v>
+      </c>
+      <c r="AB49">
+        <v>0.84009</v>
+      </c>
+      <c r="AC49">
+        <v>0.74145000000000005</v>
+      </c>
+      <c r="AD49">
+        <v>0.81732000000000005</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>411</v>
       </c>
@@ -15209,24 +15322,33 @@
       <c r="E50" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="O50" s="17" t="s">
+      <c r="O50" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
-      <c r="R50" s="17"/>
-      <c r="S50" s="17"/>
-      <c r="T50" s="17"/>
-      <c r="U50" s="17"/>
-      <c r="V50" s="17" t="s">
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="10"/>
+      <c r="T50" s="10"/>
+      <c r="U50" s="10"/>
+      <c r="V50" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="W50" s="17"/>
-      <c r="X50" s="17"/>
-      <c r="Y50" s="17"/>
-      <c r="Z50" s="17"/>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="W50" s="10"/>
+      <c r="X50" s="10"/>
+      <c r="Y50" s="10"/>
+      <c r="Z50" s="10"/>
+      <c r="AA50" t="s">
+        <v>331</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>332</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>412</v>
       </c>
@@ -15242,24 +15364,33 @@
       <c r="E51">
         <v>0.63066</v>
       </c>
-      <c r="O51" s="17" t="s">
+      <c r="O51" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
-      <c r="R51" s="17"/>
-      <c r="S51" s="17"/>
-      <c r="T51" s="17"/>
-      <c r="U51" s="17"/>
-      <c r="V51" s="17" t="s">
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="10"/>
+      <c r="U51" s="10"/>
+      <c r="V51" s="10" t="s">
         <v>515</v>
       </c>
-      <c r="W51" s="17"/>
-      <c r="X51" s="17"/>
-      <c r="Y51" s="17"/>
-      <c r="Z51" s="17"/>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="W51" s="10"/>
+      <c r="X51" s="10"/>
+      <c r="Y51" s="10"/>
+      <c r="Z51" s="10"/>
+      <c r="AA51">
+        <v>0.77363000000000004</v>
+      </c>
+      <c r="AB51">
+        <v>0.69821999999999995</v>
+      </c>
+      <c r="AC51">
+        <v>0.84904000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>405</v>
       </c>
@@ -15311,8 +15442,17 @@
       <c r="Z52" s="1" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA52" t="s">
+        <v>334</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>335</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>404</v>
       </c>
@@ -15364,8 +15504,17 @@
       <c r="Z53">
         <v>0.83855999999999997</v>
       </c>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA53">
+        <v>0.65929000000000004</v>
+      </c>
+      <c r="AB53">
+        <v>0.58204999999999996</v>
+      </c>
+      <c r="AC53">
+        <v>0.73653000000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>406</v>
       </c>
@@ -15418,7 +15567,7 @@
         <v>0.83272999999999997</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>403</v>
       </c>
@@ -15471,21 +15620,21 @@
         <v>0.77902000000000005</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A56" s="17" t="s">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17" t="s">
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="17"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
       <c r="O56" s="1" t="s">
         <v>438</v>
       </c>
@@ -15523,21 +15672,21 @@
         <v>0.78298999999999996</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A57" s="17" t="s">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
         <v>508</v>
       </c>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17" t="s">
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="17"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
       <c r="O57" s="1" t="s">
         <v>437</v>
       </c>
@@ -15575,7 +15724,7 @@
         <v>0.71062000000000003</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>411</v>
       </c>
@@ -15606,24 +15755,24 @@
       <c r="J58" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="O58" s="17" t="s">
+      <c r="O58" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="17"/>
-      <c r="R58" s="17"/>
-      <c r="S58" s="17"/>
-      <c r="T58" s="17"/>
-      <c r="U58" s="17"/>
-      <c r="V58" s="17" t="s">
+      <c r="P58" s="10"/>
+      <c r="Q58" s="10"/>
+      <c r="R58" s="10"/>
+      <c r="S58" s="10"/>
+      <c r="T58" s="10"/>
+      <c r="U58" s="10"/>
+      <c r="V58" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="W58" s="17"/>
-      <c r="X58" s="17"/>
-      <c r="Y58" s="17"/>
-      <c r="Z58" s="17"/>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="W58" s="10"/>
+      <c r="X58" s="10"/>
+      <c r="Y58" s="10"/>
+      <c r="Z58" s="10"/>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>412</v>
       </c>
@@ -15654,24 +15803,24 @@
       <c r="J59">
         <v>0.76844000000000001</v>
       </c>
-      <c r="O59" s="17" t="s">
+      <c r="O59" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
-      <c r="R59" s="17"/>
-      <c r="S59" s="17"/>
-      <c r="T59" s="17"/>
-      <c r="U59" s="17"/>
-      <c r="V59" s="17" t="s">
+      <c r="P59" s="10"/>
+      <c r="Q59" s="10"/>
+      <c r="R59" s="10"/>
+      <c r="S59" s="10"/>
+      <c r="T59" s="10"/>
+      <c r="U59" s="10"/>
+      <c r="V59" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="W59" s="17"/>
-      <c r="X59" s="17"/>
-      <c r="Y59" s="17"/>
-      <c r="Z59" s="17"/>
-    </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="W59" s="10"/>
+      <c r="X59" s="10"/>
+      <c r="Y59" s="10"/>
+      <c r="Z59" s="10"/>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>405</v>
       </c>
@@ -15739,7 +15888,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>404</v>
       </c>
@@ -15807,7 +15956,7 @@
         <v>0.65461999999999998</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>406</v>
       </c>
@@ -15875,7 +16024,7 @@
         <v>0.64800000000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>403</v>
       </c>
@@ -15943,7 +16092,7 @@
         <v>0.63865000000000005</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
       <c r="O64" s="1" t="s">
         <v>438</v>
       </c>
@@ -15982,10 +16131,10 @@
       </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A65" s="17" t="s">
+      <c r="A65" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="B65" s="17" t="s">
+      <c r="B65" s="10" t="s">
         <v>444</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -16041,8 +16190,8 @@
       </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A66" s="17"/>
-      <c r="B66" s="17"/>
+      <c r="A66" s="10"/>
+      <c r="B66" s="10"/>
       <c r="C66" s="1" t="s">
         <v>412</v>
       </c>
@@ -16058,19 +16207,19 @@
       <c r="G66">
         <v>0.84930000000000005</v>
       </c>
-      <c r="O66" s="17" t="s">
+      <c r="O66" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="17"/>
-      <c r="R66" s="17"/>
-      <c r="S66" s="17"/>
-      <c r="T66" s="17"/>
-      <c r="U66" s="17"/>
+      <c r="P66" s="10"/>
+      <c r="Q66" s="10"/>
+      <c r="R66" s="10"/>
+      <c r="S66" s="10"/>
+      <c r="T66" s="10"/>
+      <c r="U66" s="10"/>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A67" s="17"/>
-      <c r="B67" s="17"/>
+      <c r="A67" s="10"/>
+      <c r="B67" s="10"/>
       <c r="C67" s="1" t="s">
         <v>405</v>
       </c>
@@ -16086,19 +16235,19 @@
       <c r="G67">
         <v>0.90871000000000002</v>
       </c>
-      <c r="O67" s="17" t="s">
+      <c r="O67" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="P67" s="17"/>
-      <c r="Q67" s="17"/>
-      <c r="R67" s="17"/>
-      <c r="S67" s="17"/>
-      <c r="T67" s="17"/>
-      <c r="U67" s="17"/>
+      <c r="P67" s="10"/>
+      <c r="Q67" s="10"/>
+      <c r="R67" s="10"/>
+      <c r="S67" s="10"/>
+      <c r="T67" s="10"/>
+      <c r="U67" s="10"/>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A68" s="17"/>
-      <c r="B68" s="17"/>
+      <c r="A68" s="10"/>
+      <c r="B68" s="10"/>
       <c r="C68" s="1" t="s">
         <v>404</v>
       </c>
@@ -16137,8 +16286,8 @@
       </c>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A69" s="17"/>
-      <c r="B69" s="17"/>
+      <c r="A69" s="10"/>
+      <c r="B69" s="10"/>
       <c r="C69" s="1" t="s">
         <v>406</v>
       </c>
@@ -16177,8 +16326,8 @@
       </c>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A70" s="17"/>
-      <c r="B70" s="17"/>
+      <c r="A70" s="10"/>
+      <c r="B70" s="10"/>
       <c r="C70" s="1" t="s">
         <v>403</v>
       </c>
@@ -16217,10 +16366,10 @@
       </c>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A71" s="18" t="s">
+      <c r="A71" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="B71" s="17" t="s">
+      <c r="B71" s="10" t="s">
         <v>445</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -16261,8 +16410,8 @@
       </c>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A72" s="17"/>
-      <c r="B72" s="17"/>
+      <c r="A72" s="10"/>
+      <c r="B72" s="10"/>
       <c r="C72" s="1" t="s">
         <v>412</v>
       </c>
@@ -16301,8 +16450,8 @@
       </c>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A73" s="17"/>
-      <c r="B73" s="17"/>
+      <c r="A73" s="10"/>
+      <c r="B73" s="10"/>
       <c r="C73" s="1" t="s">
         <v>405</v>
       </c>
@@ -16341,8 +16490,8 @@
       </c>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A74" s="17"/>
-      <c r="B74" s="17"/>
+      <c r="A74" s="10"/>
+      <c r="B74" s="10"/>
       <c r="C74" s="1" t="s">
         <v>404</v>
       </c>
@@ -16358,19 +16507,19 @@
       <c r="G74">
         <v>0.81733</v>
       </c>
-      <c r="O74" s="17" t="s">
+      <c r="O74" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="P74" s="17"/>
-      <c r="Q74" s="17"/>
-      <c r="R74" s="17"/>
-      <c r="S74" s="17"/>
-      <c r="T74" s="17"/>
-      <c r="U74" s="17"/>
+      <c r="P74" s="10"/>
+      <c r="Q74" s="10"/>
+      <c r="R74" s="10"/>
+      <c r="S74" s="10"/>
+      <c r="T74" s="10"/>
+      <c r="U74" s="10"/>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A75" s="17"/>
-      <c r="B75" s="17"/>
+      <c r="A75" s="10"/>
+      <c r="B75" s="10"/>
       <c r="C75" s="1" t="s">
         <v>406</v>
       </c>
@@ -16386,19 +16535,19 @@
       <c r="G75">
         <v>0.77490000000000003</v>
       </c>
-      <c r="O75" s="17" t="s">
+      <c r="O75" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="17"/>
-      <c r="R75" s="17"/>
-      <c r="S75" s="17"/>
-      <c r="T75" s="17"/>
-      <c r="U75" s="17"/>
+      <c r="P75" s="10"/>
+      <c r="Q75" s="10"/>
+      <c r="R75" s="10"/>
+      <c r="S75" s="10"/>
+      <c r="T75" s="10"/>
+      <c r="U75" s="10"/>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A76" s="17"/>
-      <c r="B76" s="17"/>
+      <c r="A76" s="10"/>
+      <c r="B76" s="10"/>
       <c r="C76" s="1" t="s">
         <v>403</v>
       </c>
@@ -16437,22 +16586,22 @@
       </c>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A77" s="17" t="s">
+      <c r="A77" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="B77" s="17"/>
-      <c r="C77" s="17"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="17"/>
-      <c r="F77" s="17"/>
-      <c r="G77" s="17" t="s">
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="H77" s="17"/>
-      <c r="I77" s="17"/>
-      <c r="J77" s="17"/>
-      <c r="K77" s="17"/>
-      <c r="L77" s="17"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="10"/>
+      <c r="L77" s="10"/>
       <c r="O77" t="s">
         <v>436</v>
       </c>
@@ -16476,22 +16625,22 @@
       </c>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A78" s="17" t="s">
+      <c r="A78" s="10" t="s">
         <v>508</v>
       </c>
-      <c r="B78" s="17"/>
-      <c r="C78" s="17"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="17"/>
-      <c r="G78" s="17" t="s">
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="H78" s="17"/>
-      <c r="I78" s="17"/>
-      <c r="J78" s="17"/>
-      <c r="K78" s="17"/>
-      <c r="L78" s="17"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="10"/>
+      <c r="K78" s="10"/>
+      <c r="L78" s="10"/>
       <c r="O78" t="s">
         <v>440</v>
       </c>
@@ -16768,33 +16917,33 @@
       </c>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B84" s="17" t="s">
+      <c r="B84" s="10" t="s">
         <v>523</v>
       </c>
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
-      <c r="P84" s="17" t="s">
+      <c r="P84" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="Q84" s="17"/>
-      <c r="R84" s="17"/>
-      <c r="S84" s="17"/>
-      <c r="T84" s="17"/>
-      <c r="U84" s="17"/>
-      <c r="V84" s="17"/>
-      <c r="W84" s="17"/>
-      <c r="X84" s="17"/>
+      <c r="Q84" s="10"/>
+      <c r="R84" s="10"/>
+      <c r="S84" s="10"/>
+      <c r="T84" s="10"/>
+      <c r="U84" s="10"/>
+      <c r="V84" s="10"/>
+      <c r="W84" s="10"/>
+      <c r="X84" s="10"/>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B85" s="17" t="s">
+      <c r="B85" s="10" t="s">
         <v>545</v>
       </c>
-      <c r="C85" s="17"/>
-      <c r="D85" s="17"/>
-      <c r="E85" s="17"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
       <c r="F85" s="1" t="s">
         <v>522</v>
       </c>
@@ -16810,17 +16959,17 @@
       <c r="J85" t="s">
         <v>528</v>
       </c>
-      <c r="P85" s="17" t="s">
+      <c r="P85" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="Q85" s="17"/>
-      <c r="R85" s="17"/>
-      <c r="S85" s="17"/>
-      <c r="T85" s="17"/>
-      <c r="U85" s="17"/>
-      <c r="V85" s="17"/>
-      <c r="W85" s="17"/>
-      <c r="X85" s="17"/>
+      <c r="Q85" s="10"/>
+      <c r="R85" s="10"/>
+      <c r="S85" s="10"/>
+      <c r="T85" s="10"/>
+      <c r="U85" s="10"/>
+      <c r="V85" s="10"/>
+      <c r="W85" s="10"/>
+      <c r="X85" s="10"/>
     </row>
     <row r="86" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
@@ -17162,54 +17311,54 @@
       </c>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B92" s="17" t="s">
+      <c r="B92" s="10" t="s">
         <v>523</v>
       </c>
-      <c r="C92" s="17"/>
-      <c r="D92" s="17"/>
-      <c r="E92" s="17"/>
-      <c r="F92" s="17" t="s">
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10" t="s">
         <v>523</v>
       </c>
-      <c r="G92" s="17"/>
-      <c r="H92" s="17"/>
-      <c r="I92" s="17"/>
-      <c r="P92" s="17" t="s">
+      <c r="G92" s="10"/>
+      <c r="H92" s="10"/>
+      <c r="I92" s="10"/>
+      <c r="P92" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="Q92" s="17"/>
-      <c r="R92" s="17"/>
-      <c r="S92" s="17"/>
-      <c r="T92" s="17"/>
-      <c r="U92" s="17"/>
-      <c r="V92" s="17"/>
-      <c r="W92" s="17"/>
-      <c r="X92" s="17"/>
+      <c r="Q92" s="10"/>
+      <c r="R92" s="10"/>
+      <c r="S92" s="10"/>
+      <c r="T92" s="10"/>
+      <c r="U92" s="10"/>
+      <c r="V92" s="10"/>
+      <c r="W92" s="10"/>
+      <c r="X92" s="10"/>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B93" s="17" t="s">
+      <c r="B93" s="10" t="s">
         <v>546</v>
       </c>
-      <c r="C93" s="17"/>
-      <c r="D93" s="17"/>
-      <c r="E93" s="17"/>
-      <c r="F93" s="17" t="s">
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10" t="s">
         <v>548</v>
       </c>
-      <c r="G93" s="17"/>
-      <c r="H93" s="17"/>
-      <c r="I93" s="17"/>
-      <c r="P93" s="17" t="s">
+      <c r="G93" s="10"/>
+      <c r="H93" s="10"/>
+      <c r="I93" s="10"/>
+      <c r="P93" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="Q93" s="17"/>
-      <c r="R93" s="17"/>
-      <c r="S93" s="17"/>
-      <c r="T93" s="17"/>
-      <c r="U93" s="17"/>
-      <c r="V93" s="17"/>
-      <c r="W93" s="17"/>
-      <c r="X93" s="17"/>
+      <c r="Q93" s="10"/>
+      <c r="R93" s="10"/>
+      <c r="S93" s="10"/>
+      <c r="T93" s="10"/>
+      <c r="U93" s="10"/>
+      <c r="V93" s="10"/>
+      <c r="W93" s="10"/>
+      <c r="X93" s="10"/>
     </row>
     <row r="94" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
@@ -17569,12 +17718,12 @@
       <c r="A100" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="B100" s="17" t="s">
+      <c r="B100" s="10" t="s">
         <v>523</v>
       </c>
-      <c r="C100" s="17"/>
-      <c r="D100" s="17"/>
-      <c r="E100" s="17"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
       <c r="F100" s="1" t="s">
         <v>554</v>
       </c>
@@ -17590,26 +17739,26 @@
       <c r="J100">
         <v>0.77887333098497002</v>
       </c>
-      <c r="P100" s="17" t="s">
+      <c r="P100" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="Q100" s="17"/>
-      <c r="R100" s="17"/>
-      <c r="S100" s="17"/>
-      <c r="T100" s="17"/>
-      <c r="U100" s="17"/>
-      <c r="V100" s="17"/>
-      <c r="W100" s="17"/>
-      <c r="X100" s="17"/>
+      <c r="Q100" s="10"/>
+      <c r="R100" s="10"/>
+      <c r="S100" s="10"/>
+      <c r="T100" s="10"/>
+      <c r="U100" s="10"/>
+      <c r="V100" s="10"/>
+      <c r="W100" s="10"/>
+      <c r="X100" s="10"/>
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
-      <c r="B101" s="17" t="s">
+      <c r="B101" s="10" t="s">
         <v>547</v>
       </c>
-      <c r="C101" s="17"/>
-      <c r="D101" s="17"/>
-      <c r="E101" s="17"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10"/>
       <c r="F101" s="1" t="s">
         <v>555</v>
       </c>
@@ -17625,17 +17774,17 @@
       <c r="J101">
         <v>1.27434722297322</v>
       </c>
-      <c r="P101" s="17" t="s">
+      <c r="P101" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="Q101" s="17"/>
-      <c r="R101" s="17"/>
-      <c r="S101" s="17"/>
-      <c r="T101" s="17"/>
-      <c r="U101" s="17"/>
-      <c r="V101" s="17"/>
-      <c r="W101" s="17"/>
-      <c r="X101" s="17"/>
+      <c r="Q101" s="10"/>
+      <c r="R101" s="10"/>
+      <c r="S101" s="10"/>
+      <c r="T101" s="10"/>
+      <c r="U101" s="10"/>
+      <c r="V101" s="10"/>
+      <c r="W101" s="10"/>
+      <c r="X101" s="10"/>
     </row>
     <row r="102" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
@@ -17935,49 +18084,49 @@
       <c r="B108" s="1"/>
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A109" s="17" t="s">
+      <c r="A109" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="B109" s="17"/>
-      <c r="C109" s="17"/>
-      <c r="D109" s="17"/>
-      <c r="E109" s="17"/>
-      <c r="F109" s="17"/>
-      <c r="G109" s="17" t="s">
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="H109" s="17"/>
-      <c r="I109" s="17"/>
-      <c r="J109" s="17"/>
-      <c r="K109" s="17"/>
-      <c r="L109" s="17"/>
+      <c r="H109" s="10"/>
+      <c r="I109" s="10"/>
+      <c r="J109" s="10"/>
+      <c r="K109" s="10"/>
+      <c r="L109" s="10"/>
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A110" s="17" t="s">
+      <c r="A110" s="10" t="s">
         <v>508</v>
       </c>
-      <c r="B110" s="17"/>
-      <c r="C110" s="17"/>
-      <c r="D110" s="17"/>
-      <c r="E110" s="17"/>
-      <c r="F110" s="17"/>
-      <c r="G110" s="17" t="s">
+      <c r="B110" s="10"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="H110" s="17"/>
-      <c r="I110" s="17"/>
-      <c r="J110" s="17"/>
-      <c r="K110" s="17"/>
-      <c r="L110" s="17"/>
-      <c r="O110" s="17" t="s">
+      <c r="H110" s="10"/>
+      <c r="I110" s="10"/>
+      <c r="J110" s="10"/>
+      <c r="K110" s="10"/>
+      <c r="L110" s="10"/>
+      <c r="O110" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="P110" s="17"/>
-      <c r="Q110" s="17"/>
-      <c r="R110" s="17"/>
-      <c r="S110" s="17"/>
-      <c r="T110" s="17"/>
-      <c r="U110" s="17"/>
+      <c r="P110" s="10"/>
+      <c r="Q110" s="10"/>
+      <c r="R110" s="10"/>
+      <c r="S110" s="10"/>
+      <c r="T110" s="10"/>
+      <c r="U110" s="10"/>
       <c r="V110" s="2"/>
       <c r="W110" s="2"/>
     </row>
@@ -18018,15 +18167,15 @@
       <c r="L111" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="O111" s="17" t="s">
+      <c r="O111" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="P111" s="17"/>
-      <c r="Q111" s="17"/>
-      <c r="R111" s="17"/>
-      <c r="S111" s="17"/>
-      <c r="T111" s="17"/>
-      <c r="U111" s="17"/>
+      <c r="P111" s="10"/>
+      <c r="Q111" s="10"/>
+      <c r="R111" s="10"/>
+      <c r="S111" s="10"/>
+      <c r="T111" s="10"/>
+      <c r="U111" s="10"/>
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
@@ -18314,59 +18463,59 @@
       <c r="A118" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="B118" s="14" t="s">
+      <c r="B118" s="12" t="s">
         <v>522</v>
       </c>
-      <c r="C118" s="15"/>
-      <c r="D118" s="15"/>
-      <c r="E118" s="15"/>
-      <c r="F118" s="16"/>
+      <c r="C118" s="13"/>
+      <c r="D118" s="13"/>
+      <c r="E118" s="13"/>
+      <c r="F118" s="14"/>
       <c r="G118" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="H118" s="10" t="s">
+      <c r="H118" s="16" t="s">
         <v>522</v>
       </c>
-      <c r="I118" s="12"/>
-      <c r="J118" s="12"/>
-      <c r="K118" s="12"/>
-      <c r="L118" s="11"/>
-      <c r="O118" s="17" t="s">
+      <c r="I118" s="18"/>
+      <c r="J118" s="18"/>
+      <c r="K118" s="18"/>
+      <c r="L118" s="17"/>
+      <c r="O118" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="P118" s="17"/>
-      <c r="Q118" s="17"/>
-      <c r="R118" s="17"/>
-      <c r="S118" s="17"/>
-      <c r="T118" s="17"/>
-      <c r="U118" s="17"/>
+      <c r="P118" s="10"/>
+      <c r="Q118" s="10"/>
+      <c r="R118" s="10"/>
+      <c r="S118" s="10"/>
+      <c r="T118" s="10"/>
+      <c r="U118" s="10"/>
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A119" s="14" t="s">
+      <c r="A119" s="12" t="s">
         <v>533</v>
       </c>
-      <c r="B119" s="15"/>
-      <c r="C119" s="15"/>
-      <c r="D119" s="15"/>
-      <c r="E119" s="15"/>
-      <c r="F119" s="16"/>
-      <c r="G119" s="14" t="s">
+      <c r="B119" s="13"/>
+      <c r="C119" s="13"/>
+      <c r="D119" s="13"/>
+      <c r="E119" s="13"/>
+      <c r="F119" s="14"/>
+      <c r="G119" s="12" t="s">
         <v>538</v>
       </c>
-      <c r="H119" s="15"/>
-      <c r="I119" s="15"/>
-      <c r="J119" s="15"/>
-      <c r="K119" s="15"/>
-      <c r="L119" s="16"/>
-      <c r="O119" s="17" t="s">
+      <c r="H119" s="13"/>
+      <c r="I119" s="13"/>
+      <c r="J119" s="13"/>
+      <c r="K119" s="13"/>
+      <c r="L119" s="14"/>
+      <c r="O119" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="P119" s="17"/>
-      <c r="Q119" s="17"/>
-      <c r="R119" s="17"/>
-      <c r="S119" s="17"/>
-      <c r="T119" s="17"/>
-      <c r="U119" s="17"/>
+      <c r="P119" s="10"/>
+      <c r="Q119" s="10"/>
+      <c r="R119" s="10"/>
+      <c r="S119" s="10"/>
+      <c r="T119" s="10"/>
+      <c r="U119" s="10"/>
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
@@ -18390,15 +18539,15 @@
       <c r="G120" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="H120" s="13">
+      <c r="H120" s="15">
         <v>1</v>
       </c>
-      <c r="I120" s="13"/>
-      <c r="J120" s="13"/>
-      <c r="K120" s="13">
+      <c r="I120" s="15"/>
+      <c r="J120" s="15"/>
+      <c r="K120" s="15">
         <v>2</v>
       </c>
-      <c r="L120" s="13"/>
+      <c r="L120" s="15"/>
       <c r="O120" s="1" t="s">
         <v>472</v>
       </c>
@@ -18443,15 +18592,15 @@
       <c r="G121" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="H121" s="13">
+      <c r="H121" s="15">
         <v>1</v>
       </c>
-      <c r="I121" s="13"/>
-      <c r="J121" s="13"/>
-      <c r="K121" s="13">
+      <c r="I121" s="15"/>
+      <c r="J121" s="15"/>
+      <c r="K121" s="15">
         <v>2</v>
       </c>
-      <c r="L121" s="13"/>
+      <c r="L121" s="15"/>
       <c r="O121" s="1" t="s">
         <v>457</v>
       </c>
@@ -18496,15 +18645,15 @@
       <c r="G122" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="H122" s="13">
+      <c r="H122" s="15">
         <v>1</v>
       </c>
-      <c r="I122" s="13"/>
-      <c r="J122" s="13"/>
-      <c r="K122" s="13">
+      <c r="I122" s="15"/>
+      <c r="J122" s="15"/>
+      <c r="K122" s="15">
         <v>2</v>
       </c>
-      <c r="L122" s="13"/>
+      <c r="L122" s="15"/>
       <c r="O122" s="1" t="s">
         <v>458</v>
       </c>
@@ -18528,22 +18677,22 @@
       </c>
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A123" s="14" t="s">
+      <c r="A123" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="B123" s="15"/>
-      <c r="C123" s="15"/>
-      <c r="D123" s="15"/>
-      <c r="E123" s="15"/>
-      <c r="F123" s="16"/>
-      <c r="G123" s="14" t="s">
+      <c r="B123" s="13"/>
+      <c r="C123" s="13"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="13"/>
+      <c r="F123" s="14"/>
+      <c r="G123" s="12" t="s">
         <v>537</v>
       </c>
-      <c r="H123" s="15"/>
-      <c r="I123" s="15"/>
-      <c r="J123" s="15"/>
-      <c r="K123" s="15"/>
-      <c r="L123" s="16"/>
+      <c r="H123" s="13"/>
+      <c r="I123" s="13"/>
+      <c r="J123" s="13"/>
+      <c r="K123" s="13"/>
+      <c r="L123" s="14"/>
       <c r="O123" s="1" t="s">
         <v>459</v>
       </c>
@@ -18573,14 +18722,14 @@
       <c r="B124" s="7">
         <v>1</v>
       </c>
-      <c r="C124" s="13">
+      <c r="C124" s="15">
         <v>2</v>
       </c>
-      <c r="D124" s="13"/>
-      <c r="E124" s="10">
+      <c r="D124" s="15"/>
+      <c r="E124" s="16">
         <v>3</v>
       </c>
-      <c r="F124" s="11"/>
+      <c r="F124" s="17"/>
       <c r="G124" s="6" t="s">
         <v>406</v>
       </c>
@@ -18634,10 +18783,10 @@
       <c r="D125" s="7">
         <v>3</v>
       </c>
-      <c r="E125" s="10">
+      <c r="E125" s="16">
         <v>4</v>
       </c>
-      <c r="F125" s="11"/>
+      <c r="F125" s="17"/>
       <c r="G125" s="6" t="s">
         <v>405</v>
       </c>
@@ -18679,32 +18828,32 @@
       </c>
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="O126" s="17" t="s">
+      <c r="O126" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="P126" s="17"/>
-      <c r="Q126" s="17"/>
-      <c r="R126" s="17"/>
-      <c r="S126" s="17" t="s">
+      <c r="P126" s="10"/>
+      <c r="Q126" s="10"/>
+      <c r="R126" s="10"/>
+      <c r="S126" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="T126" s="17"/>
-      <c r="U126" s="17"/>
-      <c r="V126" s="17"/>
+      <c r="T126" s="10"/>
+      <c r="U126" s="10"/>
+      <c r="V126" s="10"/>
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="O127" s="17" t="s">
+      <c r="O127" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="P127" s="17"/>
-      <c r="Q127" s="17"/>
-      <c r="R127" s="17"/>
-      <c r="S127" s="17" t="s">
+      <c r="P127" s="10"/>
+      <c r="Q127" s="10"/>
+      <c r="R127" s="10"/>
+      <c r="S127" s="10" t="s">
         <v>542</v>
       </c>
-      <c r="T127" s="17"/>
-      <c r="U127" s="17"/>
-      <c r="V127" s="17"/>
+      <c r="T127" s="10"/>
+      <c r="U127" s="10"/>
+      <c r="V127" s="10"/>
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
@@ -18947,18 +19096,18 @@
       <c r="D134" t="s">
         <v>563</v>
       </c>
-      <c r="O134" s="17" t="s">
+      <c r="O134" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="P134" s="17"/>
-      <c r="Q134" s="17"/>
-      <c r="R134" s="17"/>
-      <c r="S134" s="17" t="s">
+      <c r="P134" s="10"/>
+      <c r="Q134" s="10"/>
+      <c r="R134" s="10"/>
+      <c r="S134" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="T134" s="17"/>
-      <c r="U134" s="17"/>
-      <c r="V134" s="17"/>
+      <c r="T134" s="10"/>
+      <c r="U134" s="10"/>
+      <c r="V134" s="10"/>
     </row>
     <row r="135" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A135">
@@ -18973,18 +19122,18 @@
       <c r="D135">
         <v>0.26800000000000002</v>
       </c>
-      <c r="O135" s="17" t="s">
+      <c r="O135" s="10" t="s">
         <v>543</v>
       </c>
-      <c r="P135" s="17"/>
-      <c r="Q135" s="17"/>
-      <c r="R135" s="17"/>
-      <c r="S135" s="17" t="s">
+      <c r="P135" s="10"/>
+      <c r="Q135" s="10"/>
+      <c r="R135" s="10"/>
+      <c r="S135" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="T135" s="17"/>
-      <c r="U135" s="17"/>
-      <c r="V135" s="17"/>
+      <c r="T135" s="10"/>
+      <c r="U135" s="10"/>
+      <c r="V135" s="10"/>
     </row>
     <row r="136" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A136">
@@ -19155,22 +19304,64 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="92">
-    <mergeCell ref="O135:R135"/>
-    <mergeCell ref="S135:V135"/>
-    <mergeCell ref="O126:R126"/>
-    <mergeCell ref="O127:R127"/>
-    <mergeCell ref="S126:V126"/>
-    <mergeCell ref="S127:V127"/>
-    <mergeCell ref="O74:U74"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="O134:R134"/>
-    <mergeCell ref="S134:V134"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="F92:I92"/>
-    <mergeCell ref="F93:I93"/>
+  <mergeCells count="95">
+    <mergeCell ref="AA47:AD47"/>
+    <mergeCell ref="AA40:AD40"/>
+    <mergeCell ref="AA33:AD33"/>
+    <mergeCell ref="G77:L77"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="H118:L118"/>
+    <mergeCell ref="H121:J121"/>
+    <mergeCell ref="K121:L121"/>
+    <mergeCell ref="H122:J122"/>
+    <mergeCell ref="K122:L122"/>
+    <mergeCell ref="G119:L119"/>
+    <mergeCell ref="B118:F118"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="K120:L120"/>
+    <mergeCell ref="H120:J120"/>
+    <mergeCell ref="B101:E101"/>
+    <mergeCell ref="B100:E100"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="G78:L78"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="G123:L123"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="G109:L109"/>
+    <mergeCell ref="G110:L110"/>
+    <mergeCell ref="O111:U111"/>
+    <mergeCell ref="O110:U110"/>
+    <mergeCell ref="O118:U118"/>
+    <mergeCell ref="O67:U67"/>
+    <mergeCell ref="O50:U50"/>
+    <mergeCell ref="O51:U51"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="O42:U42"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="O35:U35"/>
+    <mergeCell ref="O34:U34"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="O43:U43"/>
+    <mergeCell ref="V35:Z35"/>
+    <mergeCell ref="V34:Z34"/>
+    <mergeCell ref="V43:Z43"/>
+    <mergeCell ref="V42:Z42"/>
     <mergeCell ref="V50:Z50"/>
     <mergeCell ref="V51:Z51"/>
     <mergeCell ref="A71:A76"/>
@@ -19187,29 +19378,15 @@
     <mergeCell ref="V58:Z58"/>
     <mergeCell ref="V59:Z59"/>
     <mergeCell ref="O75:U75"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="O43:U43"/>
-    <mergeCell ref="V35:Z35"/>
-    <mergeCell ref="V34:Z34"/>
-    <mergeCell ref="V43:Z43"/>
-    <mergeCell ref="V42:Z42"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="O42:U42"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="O35:U35"/>
-    <mergeCell ref="O34:U34"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="O74:U74"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="O134:R134"/>
+    <mergeCell ref="S134:V134"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="F92:I92"/>
+    <mergeCell ref="F93:I93"/>
     <mergeCell ref="O119:U119"/>
     <mergeCell ref="P85:X85"/>
     <mergeCell ref="P84:X84"/>
@@ -19217,37 +19394,12 @@
     <mergeCell ref="P93:X93"/>
     <mergeCell ref="P100:X100"/>
     <mergeCell ref="P101:X101"/>
-    <mergeCell ref="O111:U111"/>
-    <mergeCell ref="O110:U110"/>
-    <mergeCell ref="O118:U118"/>
-    <mergeCell ref="O67:U67"/>
-    <mergeCell ref="O50:U50"/>
-    <mergeCell ref="O51:U51"/>
-    <mergeCell ref="G123:L123"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="G109:L109"/>
-    <mergeCell ref="G110:L110"/>
-    <mergeCell ref="B101:E101"/>
-    <mergeCell ref="B100:E100"/>
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="B92:E92"/>
-    <mergeCell ref="G78:L78"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="G77:L77"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="H118:L118"/>
-    <mergeCell ref="H121:J121"/>
-    <mergeCell ref="K121:L121"/>
-    <mergeCell ref="H122:J122"/>
-    <mergeCell ref="K122:L122"/>
-    <mergeCell ref="G119:L119"/>
-    <mergeCell ref="B118:F118"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="K120:L120"/>
-    <mergeCell ref="H120:J120"/>
+    <mergeCell ref="O135:R135"/>
+    <mergeCell ref="S135:V135"/>
+    <mergeCell ref="O126:R126"/>
+    <mergeCell ref="O127:R127"/>
+    <mergeCell ref="S126:V126"/>
+    <mergeCell ref="S127:V127"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>

--- a/plotting/617_temp.xlsx
+++ b/plotting/617_temp.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="588">
   <si>
     <t>.\vgg_unet2_0_3_640_640_64_256_rot_15_345_4_flip_5K\training_32_49_640_640_640_640_max_val_acc\vis\vis_log_181022_0927.txt</t>
   </si>
@@ -1723,13 +1723,73 @@
   </si>
   <si>
     <t>RT3/85K</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>_6</t>
+  </si>
+  <si>
+    <t>_7</t>
+  </si>
+  <si>
+    <t>_9</t>
+  </si>
+  <si>
+    <t>_11</t>
+  </si>
+  <si>
+    <t>_12</t>
+  </si>
+  <si>
+    <t>_13</t>
+  </si>
+  <si>
+    <t>_14</t>
+  </si>
+  <si>
+    <t>_15</t>
+  </si>
+  <si>
+    <t>_17</t>
+  </si>
+  <si>
+    <t>_18</t>
+  </si>
+  <si>
+    <t>Mean Absolute Error in Frazil Ice Concentration</t>
+  </si>
+  <si>
+    <t>Mean Absolute Error (%)</t>
+  </si>
+  <si>
+    <t>Anchor Ice Concentration MAE</t>
+  </si>
+  <si>
+    <t>Combined Ice Concentration MAE</t>
+  </si>
+  <si>
+    <t>Frazil Ice Concentration MAE</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>dec_mean %</t>
+  </si>
+  <si>
+    <t>dec_median %</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1773,6 +1833,14 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1850,7 +1918,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1866,7 +1934,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1878,21 +1955,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12865,17 +12934,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A293:E293"/>
-    <mergeCell ref="A231:E231"/>
-    <mergeCell ref="A192:E192"/>
-    <mergeCell ref="A71:E71"/>
-    <mergeCell ref="A155:E155"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A52:E52"/>
     <mergeCell ref="A100:E100"/>
     <mergeCell ref="A118:E118"/>
     <mergeCell ref="A137:E137"/>
     <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A293:E293"/>
+    <mergeCell ref="A231:E231"/>
+    <mergeCell ref="A192:E192"/>
+    <mergeCell ref="A71:E71"/>
+    <mergeCell ref="A155:E155"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
@@ -13442,10 +13511,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD141"/>
+  <dimension ref="A1:AG189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AA47" sqref="AA47:AD47"/>
+    <sheetView tabSelected="1" topLeftCell="O167" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AC186" sqref="AC186:AG186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13455,6 +13524,9 @@
     <col min="3" max="4" width="10.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
     <col min="7" max="7" width="10.140625" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" customWidth="1"/>
+    <col min="22" max="22" width="16.28515625" customWidth="1"/>
+    <col min="28" max="28" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -13986,7 +14058,7 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="18" t="s">
         <v>420</v>
       </c>
       <c r="B24" s="10"/>
@@ -16366,7 +16438,7 @@
       </c>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A71" s="11" t="s">
+      <c r="A71" s="18" t="s">
         <v>420</v>
       </c>
       <c r="B71" s="10" t="s">
@@ -18463,23 +18535,23 @@
       <c r="A118" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="B118" s="12" t="s">
+      <c r="B118" s="15" t="s">
         <v>522</v>
       </c>
-      <c r="C118" s="13"/>
-      <c r="D118" s="13"/>
-      <c r="E118" s="13"/>
-      <c r="F118" s="14"/>
+      <c r="C118" s="16"/>
+      <c r="D118" s="16"/>
+      <c r="E118" s="16"/>
+      <c r="F118" s="17"/>
       <c r="G118" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="H118" s="16" t="s">
+      <c r="H118" s="11" t="s">
         <v>522</v>
       </c>
-      <c r="I118" s="18"/>
-      <c r="J118" s="18"/>
-      <c r="K118" s="18"/>
-      <c r="L118" s="17"/>
+      <c r="I118" s="13"/>
+      <c r="J118" s="13"/>
+      <c r="K118" s="13"/>
+      <c r="L118" s="12"/>
       <c r="O118" s="10" t="s">
         <v>434</v>
       </c>
@@ -18491,22 +18563,22 @@
       <c r="U118" s="10"/>
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A119" s="12" t="s">
+      <c r="A119" s="15" t="s">
         <v>533</v>
       </c>
-      <c r="B119" s="13"/>
-      <c r="C119" s="13"/>
-      <c r="D119" s="13"/>
-      <c r="E119" s="13"/>
-      <c r="F119" s="14"/>
-      <c r="G119" s="12" t="s">
+      <c r="B119" s="16"/>
+      <c r="C119" s="16"/>
+      <c r="D119" s="16"/>
+      <c r="E119" s="16"/>
+      <c r="F119" s="17"/>
+      <c r="G119" s="15" t="s">
         <v>538</v>
       </c>
-      <c r="H119" s="13"/>
-      <c r="I119" s="13"/>
-      <c r="J119" s="13"/>
-      <c r="K119" s="13"/>
-      <c r="L119" s="14"/>
+      <c r="H119" s="16"/>
+      <c r="I119" s="16"/>
+      <c r="J119" s="16"/>
+      <c r="K119" s="16"/>
+      <c r="L119" s="17"/>
       <c r="O119" s="10" t="s">
         <v>461</v>
       </c>
@@ -18539,15 +18611,15 @@
       <c r="G120" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="H120" s="15">
+      <c r="H120" s="14">
         <v>1</v>
       </c>
-      <c r="I120" s="15"/>
-      <c r="J120" s="15"/>
-      <c r="K120" s="15">
+      <c r="I120" s="14"/>
+      <c r="J120" s="14"/>
+      <c r="K120" s="14">
         <v>2</v>
       </c>
-      <c r="L120" s="15"/>
+      <c r="L120" s="14"/>
       <c r="O120" s="1" t="s">
         <v>472</v>
       </c>
@@ -18592,15 +18664,15 @@
       <c r="G121" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="H121" s="15">
+      <c r="H121" s="14">
         <v>1</v>
       </c>
-      <c r="I121" s="15"/>
-      <c r="J121" s="15"/>
-      <c r="K121" s="15">
+      <c r="I121" s="14"/>
+      <c r="J121" s="14"/>
+      <c r="K121" s="14">
         <v>2</v>
       </c>
-      <c r="L121" s="15"/>
+      <c r="L121" s="14"/>
       <c r="O121" s="1" t="s">
         <v>457</v>
       </c>
@@ -18645,15 +18717,15 @@
       <c r="G122" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="H122" s="15">
+      <c r="H122" s="14">
         <v>1</v>
       </c>
-      <c r="I122" s="15"/>
-      <c r="J122" s="15"/>
-      <c r="K122" s="15">
+      <c r="I122" s="14"/>
+      <c r="J122" s="14"/>
+      <c r="K122" s="14">
         <v>2</v>
       </c>
-      <c r="L122" s="15"/>
+      <c r="L122" s="14"/>
       <c r="O122" s="1" t="s">
         <v>458</v>
       </c>
@@ -18677,22 +18749,22 @@
       </c>
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A123" s="12" t="s">
+      <c r="A123" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="B123" s="13"/>
-      <c r="C123" s="13"/>
-      <c r="D123" s="13"/>
-      <c r="E123" s="13"/>
-      <c r="F123" s="14"/>
-      <c r="G123" s="12" t="s">
+      <c r="B123" s="16"/>
+      <c r="C123" s="16"/>
+      <c r="D123" s="16"/>
+      <c r="E123" s="16"/>
+      <c r="F123" s="17"/>
+      <c r="G123" s="15" t="s">
         <v>537</v>
       </c>
-      <c r="H123" s="13"/>
-      <c r="I123" s="13"/>
-      <c r="J123" s="13"/>
-      <c r="K123" s="13"/>
-      <c r="L123" s="14"/>
+      <c r="H123" s="16"/>
+      <c r="I123" s="16"/>
+      <c r="J123" s="16"/>
+      <c r="K123" s="16"/>
+      <c r="L123" s="17"/>
       <c r="O123" s="1" t="s">
         <v>459</v>
       </c>
@@ -18722,14 +18794,14 @@
       <c r="B124" s="7">
         <v>1</v>
       </c>
-      <c r="C124" s="15">
+      <c r="C124" s="14">
         <v>2</v>
       </c>
-      <c r="D124" s="15"/>
-      <c r="E124" s="16">
+      <c r="D124" s="14"/>
+      <c r="E124" s="11">
         <v>3</v>
       </c>
-      <c r="F124" s="17"/>
+      <c r="F124" s="12"/>
       <c r="G124" s="6" t="s">
         <v>406</v>
       </c>
@@ -18783,10 +18855,10 @@
       <c r="D125" s="7">
         <v>3</v>
       </c>
-      <c r="E125" s="16">
+      <c r="E125" s="11">
         <v>4</v>
       </c>
-      <c r="F125" s="17"/>
+      <c r="F125" s="12"/>
       <c r="G125" s="6" t="s">
         <v>405</v>
       </c>
@@ -18893,7 +18965,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>4</v>
       </c>
@@ -18931,7 +19003,7 @@
         <v>0.29899999999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>8</v>
       </c>
@@ -18969,7 +19041,7 @@
         <v>0.32988000000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>16</v>
       </c>
@@ -19007,7 +19079,7 @@
         <v>0.35004999999999997</v>
       </c>
     </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>24</v>
       </c>
@@ -19045,7 +19117,7 @@
         <v>0.37895000000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>32</v>
       </c>
@@ -19083,7 +19155,7 @@
         <v>0.41599999999999998</v>
       </c>
     </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>564</v>
       </c>
@@ -19109,7 +19181,7 @@
       <c r="U134" s="10"/>
       <c r="V134" s="10"/>
     </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>18</v>
       </c>
@@ -19135,7 +19207,7 @@
       <c r="U135" s="10"/>
       <c r="V135" s="10"/>
     </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>46</v>
       </c>
@@ -19173,7 +19245,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:29" x14ac:dyDescent="0.25">
       <c r="O137" s="1" t="s">
         <v>457</v>
       </c>
@@ -19199,7 +19271,7 @@
         <v>0.49303000000000002</v>
       </c>
     </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:29" x14ac:dyDescent="0.25">
       <c r="O138" s="1" t="s">
         <v>458</v>
       </c>
@@ -19225,7 +19297,7 @@
         <v>0.53398000000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:29" x14ac:dyDescent="0.25">
       <c r="O139" s="1" t="s">
         <v>459</v>
       </c>
@@ -19251,7 +19323,7 @@
         <v>0.56057999999999997</v>
       </c>
     </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:29" x14ac:dyDescent="0.25">
       <c r="O140" s="1" t="s">
         <v>460</v>
       </c>
@@ -19277,7 +19349,7 @@
         <v>0.59784000000000004</v>
       </c>
     </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:29" x14ac:dyDescent="0.25">
       <c r="O141" s="1" t="s">
         <v>463</v>
       </c>
@@ -19303,42 +19375,2476 @@
         <v>0.65461999999999998</v>
       </c>
     </row>
+    <row r="142" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="O142" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="P142" s="10"/>
+      <c r="Q142" s="10"/>
+      <c r="R142" s="10"/>
+      <c r="S142" s="10"/>
+      <c r="T142" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="U142" s="10"/>
+      <c r="V142" s="10"/>
+      <c r="W142" s="10"/>
+      <c r="X142" s="10"/>
+      <c r="Y142" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="Z142" s="10"/>
+      <c r="AA142" s="10"/>
+      <c r="AB142" s="10"/>
+      <c r="AC142" s="10"/>
+    </row>
+    <row r="143" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="O143" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="P143" s="10"/>
+      <c r="Q143" s="10"/>
+      <c r="R143" s="10"/>
+      <c r="S143" s="10"/>
+      <c r="T143" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="U143" s="10"/>
+      <c r="V143" s="10"/>
+      <c r="W143" s="10"/>
+      <c r="X143" s="10"/>
+      <c r="Y143" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="Z143" s="10"/>
+      <c r="AA143" s="10"/>
+      <c r="AB143" s="10"/>
+      <c r="AC143" s="10"/>
+    </row>
+    <row r="144" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="O144" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="P144" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q144" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="R144" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="S144" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="T144" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="U144" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="V144" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="W144" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="X144" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y144" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="Z144" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="AA144" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="AB144" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="AC144" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="145" spans="15:29" x14ac:dyDescent="0.25">
+      <c r="O145" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="P145">
+        <v>3.0935302192941601</v>
+      </c>
+      <c r="Q145">
+        <v>1.8326628205155999</v>
+      </c>
+      <c r="R145">
+        <v>1.6611530798455501</v>
+      </c>
+      <c r="S145">
+        <v>1.9890074893790399</v>
+      </c>
+      <c r="T145" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="U145">
+        <v>13.2364357459518</v>
+      </c>
+      <c r="V145">
+        <v>6.2596361393771298</v>
+      </c>
+      <c r="W145">
+        <v>11.158315406051999</v>
+      </c>
+      <c r="X145">
+        <v>8.4729422622387407</v>
+      </c>
+      <c r="Y145" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="Z145">
+        <v>10.8071356717874</v>
+      </c>
+      <c r="AA145">
+        <v>5.4906947841541101</v>
+      </c>
+      <c r="AB145">
+        <v>10.9096804430511</v>
+      </c>
+      <c r="AC145">
+        <v>8.4696926039944902</v>
+      </c>
+    </row>
+    <row r="146" spans="15:29" x14ac:dyDescent="0.25">
+      <c r="O146" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="P146">
+        <v>1.69689932053257</v>
+      </c>
+      <c r="Q146">
+        <v>1.2423804541000201</v>
+      </c>
+      <c r="R146">
+        <v>1.22815417245287</v>
+      </c>
+      <c r="S146">
+        <v>1.22714316766576</v>
+      </c>
+      <c r="T146" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="U146">
+        <v>4.3924547268445702</v>
+      </c>
+      <c r="V146">
+        <v>1.7937391362119599</v>
+      </c>
+      <c r="W146">
+        <v>1.7311290540389299</v>
+      </c>
+      <c r="X146">
+        <v>2.9142212988378602</v>
+      </c>
+      <c r="Y146" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="Z146">
+        <v>3.7545107061796399</v>
+      </c>
+      <c r="AA146">
+        <v>1.5565862990075601</v>
+      </c>
+      <c r="AB146">
+        <v>1.6296675021899101</v>
+      </c>
+      <c r="AC146">
+        <v>2.5890388305274401</v>
+      </c>
+    </row>
+    <row r="147" spans="15:29" x14ac:dyDescent="0.25">
+      <c r="O147" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="P147">
+        <v>2.5623194182967399</v>
+      </c>
+      <c r="Q147">
+        <v>1.7301902638794699</v>
+      </c>
+      <c r="R147">
+        <v>1.81641452929422</v>
+      </c>
+      <c r="S147">
+        <v>2.3597573877369502</v>
+      </c>
+      <c r="T147" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="U147">
+        <v>6.5388178898741396</v>
+      </c>
+      <c r="V147">
+        <v>5.04751361426269</v>
+      </c>
+      <c r="W147">
+        <v>6.6482952653923597</v>
+      </c>
+      <c r="X147">
+        <v>6.1856161460353096</v>
+      </c>
+      <c r="Y147" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="Z147">
+        <v>5.4860730479844602</v>
+      </c>
+      <c r="AA147">
+        <v>4.4964437906613597</v>
+      </c>
+      <c r="AB147">
+        <v>5.7738483391718898</v>
+      </c>
+      <c r="AC147">
+        <v>4.7400959443542998</v>
+      </c>
+    </row>
+    <row r="148" spans="15:29" x14ac:dyDescent="0.25">
+      <c r="O148" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="P148">
+        <v>1.96734310108387</v>
+      </c>
+      <c r="Q148">
+        <v>1.25768995516194</v>
+      </c>
+      <c r="R148">
+        <v>1.4273943301407299</v>
+      </c>
+      <c r="S148">
+        <v>3.55815913359779</v>
+      </c>
+      <c r="T148" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="U148">
+        <v>7.30299307967225</v>
+      </c>
+      <c r="V148">
+        <v>2.9453458033552402</v>
+      </c>
+      <c r="W148">
+        <v>2.82221986321106</v>
+      </c>
+      <c r="X148">
+        <v>6.6144988196519199</v>
+      </c>
+      <c r="Y148" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="Z148">
+        <v>6.6654101321455697</v>
+      </c>
+      <c r="AA148">
+        <v>2.8433787491126701</v>
+      </c>
+      <c r="AB148">
+        <v>2.4856996983594999</v>
+      </c>
+      <c r="AC148">
+        <v>4.58136819277839</v>
+      </c>
+    </row>
+    <row r="149" spans="15:29" x14ac:dyDescent="0.25">
+      <c r="O149" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="P149">
+        <v>2.8160094052331099</v>
+      </c>
+      <c r="Q149">
+        <v>1.3370538309498901</v>
+      </c>
+      <c r="R149">
+        <v>1.36528975036126</v>
+      </c>
+      <c r="S149">
+        <v>1.72087457691256</v>
+      </c>
+      <c r="T149" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="U149">
+        <v>10.944993395972199</v>
+      </c>
+      <c r="V149">
+        <v>4.3660241731244698</v>
+      </c>
+      <c r="W149">
+        <v>7.7852423631225998</v>
+      </c>
+      <c r="X149">
+        <v>6.0223388729174196</v>
+      </c>
+      <c r="Y149" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="Z149">
+        <v>9.7633454437264007</v>
+      </c>
+      <c r="AA149">
+        <v>3.9124440968513801</v>
+      </c>
+      <c r="AB149">
+        <v>7.3921059301930097</v>
+      </c>
+      <c r="AC149">
+        <v>6.7554617728258002</v>
+      </c>
+    </row>
+    <row r="150" spans="15:29" x14ac:dyDescent="0.25">
+      <c r="O150" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="P150">
+        <v>3.5815566729565602</v>
+      </c>
+      <c r="Q150">
+        <v>3.0406691118539602</v>
+      </c>
+      <c r="R150">
+        <v>2.24594713455968</v>
+      </c>
+      <c r="S150">
+        <v>2.3630070459812198</v>
+      </c>
+      <c r="T150" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="U150">
+        <v>6.3254236651667801</v>
+      </c>
+      <c r="V150">
+        <v>7.7800429099317601</v>
+      </c>
+      <c r="W150">
+        <v>11.2707535813039</v>
+      </c>
+      <c r="X150">
+        <v>5.4213687416095704</v>
+      </c>
+      <c r="Y150" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="Z150">
+        <v>4.1176780686342198</v>
+      </c>
+      <c r="AA150">
+        <v>6.1879992287477803</v>
+      </c>
+      <c r="AB150">
+        <v>10.566877605594</v>
+      </c>
+      <c r="AC150">
+        <v>4.0185273848700396</v>
+      </c>
+    </row>
+    <row r="151" spans="15:29" x14ac:dyDescent="0.25">
+      <c r="O151" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="P151">
+        <v>2.60499826323821</v>
+      </c>
+      <c r="Q151">
+        <v>1.1338418687412499</v>
+      </c>
+      <c r="R151">
+        <v>0.83768968074634997</v>
+      </c>
+      <c r="S151">
+        <v>0.90997652302455001</v>
+      </c>
+      <c r="T151" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="U151">
+        <v>8.3085817697061408</v>
+      </c>
+      <c r="V151">
+        <v>4.0695831266189701</v>
+      </c>
+      <c r="W151">
+        <v>7.67944793361454</v>
+      </c>
+      <c r="X151">
+        <v>3.5640085184374901</v>
+      </c>
+      <c r="Y151" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z151">
+        <v>6.18005561970622</v>
+      </c>
+      <c r="AA151">
+        <v>3.3307552711262201</v>
+      </c>
+      <c r="AB151">
+        <v>7.5971232580929398</v>
+      </c>
+      <c r="AC151">
+        <v>3.4628358250990701</v>
+      </c>
+    </row>
+    <row r="152" spans="15:29" x14ac:dyDescent="0.25">
+      <c r="O152" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="P152">
+        <v>2.0031615563985499</v>
+      </c>
+      <c r="Q152">
+        <v>1.18973599054277</v>
+      </c>
+      <c r="R152">
+        <v>1.4282609056725399</v>
+      </c>
+      <c r="S152">
+        <v>1.6020815144274001</v>
+      </c>
+      <c r="T152" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="U152">
+        <v>8.9964983127052705</v>
+      </c>
+      <c r="V152">
+        <v>5.3866335057096704</v>
+      </c>
+      <c r="W152">
+        <v>5.3701685706053404</v>
+      </c>
+      <c r="X152">
+        <v>7.9348710716145296</v>
+      </c>
+      <c r="Y152" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="Z152">
+        <v>7.6893413376026798</v>
+      </c>
+      <c r="AA152">
+        <v>5.0719943730362296</v>
+      </c>
+      <c r="AB152">
+        <v>5.4864341211227199</v>
+      </c>
+      <c r="AC152">
+        <v>7.6430517612786701</v>
+      </c>
+    </row>
+    <row r="153" spans="15:29" x14ac:dyDescent="0.25">
+      <c r="O153" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="P153">
+        <v>3.3446926942627702</v>
+      </c>
+      <c r="Q153">
+        <v>1.02855294162675</v>
+      </c>
+      <c r="R153">
+        <v>0.91524819084303999</v>
+      </c>
+      <c r="S153">
+        <v>1.4871158272077301</v>
+      </c>
+      <c r="T153" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="U153">
+        <v>10.6892813994617</v>
+      </c>
+      <c r="V153">
+        <v>9.5420798246051408</v>
+      </c>
+      <c r="W153">
+        <v>8.7268488930581203</v>
+      </c>
+      <c r="X153">
+        <v>7.8650395266764903</v>
+      </c>
+      <c r="Y153" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="Z153">
+        <v>8.7617285582133295</v>
+      </c>
+      <c r="AA153">
+        <v>9.6110447940114003</v>
+      </c>
+      <c r="AB153">
+        <v>8.5031279765967103</v>
+      </c>
+      <c r="AC153">
+        <v>7.7130277354720702</v>
+      </c>
+    </row>
+    <row r="154" spans="15:29" x14ac:dyDescent="0.25">
+      <c r="O154" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="P154">
+        <v>2.37564460582007</v>
+      </c>
+      <c r="Q154">
+        <v>1.8853794987005099</v>
+      </c>
+      <c r="R154">
+        <v>0.99677850546050994</v>
+      </c>
+      <c r="S154">
+        <v>1.1245983964019799</v>
+      </c>
+      <c r="T154" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="U154">
+        <v>4.5740745153856901</v>
+      </c>
+      <c r="V154">
+        <v>3.2392593378929702</v>
+      </c>
+      <c r="W154">
+        <v>2.3009024662017499</v>
+      </c>
+      <c r="X154">
+        <v>6.06884509312437</v>
+      </c>
+      <c r="Y154" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="Z154">
+        <v>5.2354882900370603</v>
+      </c>
+      <c r="AA154">
+        <v>3.0727324065308101</v>
+      </c>
+      <c r="AB154">
+        <v>2.5696130956894399</v>
+      </c>
+      <c r="AC154">
+        <v>6.14763125189112</v>
+      </c>
+    </row>
+    <row r="155" spans="15:29" x14ac:dyDescent="0.25">
+      <c r="O155" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="P155">
+        <v>1.146912716346</v>
+      </c>
+      <c r="Q155">
+        <v>0.92095314642742998</v>
+      </c>
+      <c r="R155">
+        <v>1.0258087857760301</v>
+      </c>
+      <c r="S155">
+        <v>1.42609446684301</v>
+      </c>
+      <c r="T155" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="U155">
+        <v>4.94323569193529</v>
+      </c>
+      <c r="V155">
+        <v>1.8345404008345101</v>
+      </c>
+      <c r="W155">
+        <v>2.0637496289973498</v>
+      </c>
+      <c r="X155">
+        <v>3.72056983118387</v>
+      </c>
+      <c r="Y155" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="Z155">
+        <v>5.0501133408580996</v>
+      </c>
+      <c r="AA155">
+        <v>2.55257044356392</v>
+      </c>
+      <c r="AB155">
+        <v>2.4045304568802899</v>
+      </c>
+      <c r="AC155">
+        <v>3.0353974440354698</v>
+      </c>
+    </row>
+    <row r="156" spans="15:29" x14ac:dyDescent="0.25">
+      <c r="O156" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="P156">
+        <v>1.4082574538133299</v>
+      </c>
+      <c r="Q156">
+        <v>0.66473564752328995</v>
+      </c>
+      <c r="R156">
+        <v>1.1450351360270801</v>
+      </c>
+      <c r="S156">
+        <v>1.3125008575487001</v>
+      </c>
+      <c r="T156" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="U156">
+        <v>2.3708784403951402</v>
+      </c>
+      <c r="V156">
+        <v>0.92362508765050999</v>
+      </c>
+      <c r="W156">
+        <v>1.60395909474632</v>
+      </c>
+      <c r="X156">
+        <v>1.8075321300932099</v>
+      </c>
+      <c r="Y156" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="Z156">
+        <v>1.78976733169117</v>
+      </c>
+      <c r="AA156">
+        <v>1.1315310006564301</v>
+      </c>
+      <c r="AB156">
+        <v>1.6659192452704901</v>
+      </c>
+      <c r="AC156">
+        <v>1.4224115208328401</v>
+      </c>
+    </row>
+    <row r="157" spans="15:29" x14ac:dyDescent="0.25">
+      <c r="O157" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="P157">
+        <v>7.0113904132193197</v>
+      </c>
+      <c r="Q157">
+        <v>2.2536740997183</v>
+      </c>
+      <c r="R157">
+        <v>2.9188430350074901</v>
+      </c>
+      <c r="S157">
+        <v>1.92516975853595</v>
+      </c>
+      <c r="T157" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="U157">
+        <v>8.4404456797960101</v>
+      </c>
+      <c r="V157">
+        <v>5.0508354871346102</v>
+      </c>
+      <c r="W157">
+        <v>5.8917026114975899</v>
+      </c>
+      <c r="X157">
+        <v>10.544129997884101</v>
+      </c>
+      <c r="Y157" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="Z157">
+        <v>8.3922785231531201</v>
+      </c>
+      <c r="AA157">
+        <v>5.3269842232703004</v>
+      </c>
+      <c r="AB157">
+        <v>7.0629516573618201</v>
+      </c>
+      <c r="AC157">
+        <v>10.962613765119</v>
+      </c>
+    </row>
+    <row r="158" spans="15:29" x14ac:dyDescent="0.25">
+      <c r="O158" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="P158">
+        <v>2.1023844547903998</v>
+      </c>
+      <c r="Q158">
+        <v>2.02034863777937</v>
+      </c>
+      <c r="R158">
+        <v>1.9303692117267901</v>
+      </c>
+      <c r="S158">
+        <v>2.1005068744714901</v>
+      </c>
+      <c r="T158" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="U158">
+        <v>10.131784473999501</v>
+      </c>
+      <c r="V158">
+        <v>5.67404772375885</v>
+      </c>
+      <c r="W158">
+        <v>6.3673803638317601</v>
+      </c>
+      <c r="X158">
+        <v>7.8578902785390596</v>
+      </c>
+      <c r="Y158" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="Z158">
+        <v>9.6436858057094597</v>
+      </c>
+      <c r="AA158">
+        <v>4.5455497374637401</v>
+      </c>
+      <c r="AB158">
+        <v>6.5427896943949202</v>
+      </c>
+      <c r="AC158">
+        <v>7.7509404149886096</v>
+      </c>
+    </row>
+    <row r="159" spans="15:29" x14ac:dyDescent="0.25">
+      <c r="O159" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="P159">
+        <v>5.8586283120336402</v>
+      </c>
+      <c r="Q159">
+        <v>2.8300190429973102</v>
+      </c>
+      <c r="R159">
+        <v>2.1113390686190598</v>
+      </c>
+      <c r="S159">
+        <v>1.73011804925182</v>
+      </c>
+      <c r="T159" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="U159">
+        <v>8.1138189189325995</v>
+      </c>
+      <c r="V159">
+        <v>3.8892632013755599</v>
+      </c>
+      <c r="W159">
+        <v>4.7650099908937404</v>
+      </c>
+      <c r="X159">
+        <v>9.0389605137637492</v>
+      </c>
+      <c r="Y159" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="Z159">
+        <v>5.9216716819725503</v>
+      </c>
+      <c r="AA159">
+        <v>3.9671827846104901</v>
+      </c>
+      <c r="AB159">
+        <v>5.1384318304747199</v>
+      </c>
+      <c r="AC159">
+        <v>9.2531490993752694</v>
+      </c>
+    </row>
+    <row r="160" spans="15:29" x14ac:dyDescent="0.25">
+      <c r="O160" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="P160">
+        <v>6.06292349365705</v>
+      </c>
+      <c r="Q160">
+        <v>2.1335089593077901</v>
+      </c>
+      <c r="R160">
+        <v>4.0568733521524596</v>
+      </c>
+      <c r="S160">
+        <v>3.83560773303119</v>
+      </c>
+      <c r="T160" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="U160">
+        <v>14.1261921732342</v>
+      </c>
+      <c r="V160">
+        <v>8.8332210395873503</v>
+      </c>
+      <c r="W160">
+        <v>15.0252642874835</v>
+      </c>
+      <c r="X160">
+        <v>22.1831059655781</v>
+      </c>
+      <c r="Y160" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="Z160">
+        <v>19.0546238665011</v>
+      </c>
+      <c r="AA160">
+        <v>9.6905530990546591</v>
+      </c>
+      <c r="AB160">
+        <v>18.9667386646503</v>
+      </c>
+      <c r="AC160">
+        <v>25.762929487471101</v>
+      </c>
+    </row>
+    <row r="161" spans="15:33" x14ac:dyDescent="0.25">
+      <c r="O161" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="P161">
+        <v>4.7826303600404598</v>
+      </c>
+      <c r="Q161">
+        <v>2.5805897190923202</v>
+      </c>
+      <c r="R161">
+        <v>2.0807200664952301</v>
+      </c>
+      <c r="S161">
+        <v>2.1860812082373799</v>
+      </c>
+      <c r="T161" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="U161">
+        <v>11.534409186856101</v>
+      </c>
+      <c r="V161">
+        <v>5.86931607692593</v>
+      </c>
+      <c r="W161">
+        <v>11.6823047442844</v>
+      </c>
+      <c r="X161">
+        <v>21.487679101303399</v>
+      </c>
+      <c r="Y161" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="Z161">
+        <v>14.976013911425801</v>
+      </c>
+      <c r="AA161">
+        <v>7.1617412679877797</v>
+      </c>
+      <c r="AB161">
+        <v>12.1149425785388</v>
+      </c>
+      <c r="AC161">
+        <v>19.83353084034</v>
+      </c>
+    </row>
+    <row r="162" spans="15:33" x14ac:dyDescent="0.25">
+      <c r="O162" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="P162">
+        <v>4.3489093063712803</v>
+      </c>
+      <c r="Q162">
+        <v>13.613107243777</v>
+      </c>
+      <c r="R162">
+        <v>2.68082362227128</v>
+      </c>
+      <c r="S162">
+        <v>1.3846432705716001</v>
+      </c>
+      <c r="T162" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="U162">
+        <v>13.988334449049299</v>
+      </c>
+      <c r="V162">
+        <v>4.1533520946935996</v>
+      </c>
+      <c r="W162">
+        <v>18.536411698480698</v>
+      </c>
+      <c r="X162">
+        <v>26.460811649086001</v>
+      </c>
+      <c r="Y162" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="Z162">
+        <v>16.948412036445198</v>
+      </c>
+      <c r="AA162">
+        <v>14.776773753737899</v>
+      </c>
+      <c r="AB162">
+        <v>20.376657054899699</v>
+      </c>
+      <c r="AC162">
+        <v>26.3416575134626</v>
+      </c>
+    </row>
+    <row r="163" spans="15:33" x14ac:dyDescent="0.25">
+      <c r="P163">
+        <f>AVERAGE(P145:P162)</f>
+        <v>3.2648995426326719</v>
+      </c>
+      <c r="Q163">
+        <f t="shared" ref="Q163:S163" si="0">AVERAGE(Q145:Q162)</f>
+        <v>2.3719496240386095</v>
+      </c>
+      <c r="R163">
+        <f t="shared" si="0"/>
+        <v>1.7706745865251208</v>
+      </c>
+      <c r="S163">
+        <f t="shared" si="0"/>
+        <v>1.9023579600458957</v>
+      </c>
+      <c r="U163">
+        <f t="shared" ref="U163:X163" si="1">AVERAGE(U145:U162)</f>
+        <v>8.6088140841632601</v>
+      </c>
+      <c r="V163">
+        <f t="shared" si="1"/>
+        <v>4.8143365935028282</v>
+      </c>
+      <c r="W163">
+        <f t="shared" si="1"/>
+        <v>7.3016169898231089</v>
+      </c>
+      <c r="X163">
+        <f t="shared" si="1"/>
+        <v>9.120246101031956</v>
+      </c>
+      <c r="Z163">
+        <f>AVERAGE(Z145:Z162)</f>
+        <v>8.3465185207651942</v>
+      </c>
+      <c r="AA163">
+        <f t="shared" ref="AA163" si="2">AVERAGE(AA145:AA162)</f>
+        <v>5.2626088946435967</v>
+      </c>
+      <c r="AB163">
+        <f t="shared" ref="AB163" si="3">AVERAGE(AB145:AB162)</f>
+        <v>7.6215077306962371</v>
+      </c>
+      <c r="AC163">
+        <f t="shared" ref="AC163" si="4">AVERAGE(AC145:AC162)</f>
+        <v>8.9157422993731252</v>
+      </c>
+    </row>
+    <row r="164" spans="15:33" x14ac:dyDescent="0.25">
+      <c r="P164">
+        <f>MEDIAN(P145:P162)</f>
+        <v>2.7105038342356602</v>
+      </c>
+      <c r="Q164">
+        <f t="shared" ref="Q164:S164" si="5">MEDIAN(Q145:Q162)</f>
+        <v>1.781426542197535</v>
+      </c>
+      <c r="R164">
+        <f t="shared" si="5"/>
+        <v>1.5447069927590449</v>
+      </c>
+      <c r="S164">
+        <f t="shared" si="5"/>
+        <v>1.7254963130821901</v>
+      </c>
+      <c r="U164">
+        <f t="shared" ref="U164:X164" si="6">MEDIAN(U145:U162)</f>
+        <v>8.3745137247510755</v>
+      </c>
+      <c r="V164">
+        <f t="shared" si="6"/>
+        <v>4.7067688936935799</v>
+      </c>
+      <c r="W164">
+        <f t="shared" si="6"/>
+        <v>6.5078378146120599</v>
+      </c>
+      <c r="X164">
+        <f t="shared" si="6"/>
+        <v>7.2361945490954902</v>
+      </c>
+      <c r="Z164">
+        <f>MEDIAN(Z145:Z162)</f>
+        <v>7.1773757348741247</v>
+      </c>
+      <c r="AA164">
+        <f t="shared" ref="AA164:AC164" si="7">MEDIAN(AA145:AA162)</f>
+        <v>4.5209967640625504</v>
+      </c>
+      <c r="AB164">
+        <f t="shared" si="7"/>
+        <v>6.8028706758783706</v>
+      </c>
+      <c r="AC164">
+        <f t="shared" si="7"/>
+        <v>7.1992567670522352</v>
+      </c>
+    </row>
+    <row r="165" spans="15:33" x14ac:dyDescent="0.25">
+      <c r="P165" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="Q165" s="10"/>
+      <c r="R165" s="10"/>
+      <c r="S165" s="10"/>
+      <c r="T165" s="10"/>
+      <c r="U165" s="10"/>
+      <c r="V165" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="W165" s="10"/>
+      <c r="X165" s="10"/>
+      <c r="Y165" s="10"/>
+      <c r="Z165" s="10"/>
+      <c r="AA165" s="10"/>
+      <c r="AB165" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="AC165" s="10"/>
+      <c r="AD165" s="10"/>
+      <c r="AE165" s="10"/>
+      <c r="AF165" s="10"/>
+      <c r="AG165" s="10"/>
+    </row>
+    <row r="166" spans="15:33" x14ac:dyDescent="0.25">
+      <c r="P166" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="Q166" s="10"/>
+      <c r="R166" s="10"/>
+      <c r="S166" s="10"/>
+      <c r="T166" s="10"/>
+      <c r="U166" s="10"/>
+      <c r="V166" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="W166" s="10"/>
+      <c r="X166" s="10"/>
+      <c r="Y166" s="10"/>
+      <c r="Z166" s="10"/>
+      <c r="AA166" s="10"/>
+      <c r="AB166" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="AC166" s="10"/>
+      <c r="AD166" s="10"/>
+      <c r="AE166" s="10"/>
+      <c r="AF166" s="10"/>
+      <c r="AG166" s="10"/>
+    </row>
+    <row r="167" spans="15:33" x14ac:dyDescent="0.25">
+      <c r="P167" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="Q167" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="R167" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="S167" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="T167" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="U167" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="V167" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="W167" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="X167" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y167" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="Z167" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AA167" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="AB167" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="AC167" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="AD167" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="AE167" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="AF167" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AG167" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="168" spans="15:33" x14ac:dyDescent="0.25">
+      <c r="P168" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="Q168">
+        <v>3.0935302192941601</v>
+      </c>
+      <c r="R168">
+        <v>1.8326628205155999</v>
+      </c>
+      <c r="S168">
+        <v>1.6611530798455501</v>
+      </c>
+      <c r="T168">
+        <v>1.9890074893790399</v>
+      </c>
+      <c r="U168">
+        <v>1.79547228727557</v>
+      </c>
+      <c r="V168" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="W168">
+        <v>13.2364357459518</v>
+      </c>
+      <c r="X168">
+        <v>6.2596361393771298</v>
+      </c>
+      <c r="Y168">
+        <v>11.158315406051999</v>
+      </c>
+      <c r="Z168">
+        <v>8.4729422622387407</v>
+      </c>
+      <c r="AA168">
+        <v>6.8346812193584299</v>
+      </c>
+      <c r="AB168" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="AC168">
+        <v>10.8071356717874</v>
+      </c>
+      <c r="AD168">
+        <v>5.4906947841541101</v>
+      </c>
+      <c r="AE168">
+        <v>10.9096804430511</v>
+      </c>
+      <c r="AF168">
+        <v>8.4696926039944902</v>
+      </c>
+      <c r="AG168">
+        <v>6.60987708348227</v>
+      </c>
+    </row>
+    <row r="169" spans="15:33" x14ac:dyDescent="0.25">
+      <c r="P169" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="Q169">
+        <v>1.69689932053257</v>
+      </c>
+      <c r="R169">
+        <v>1.2423804541000201</v>
+      </c>
+      <c r="S169">
+        <v>1.22815417245287</v>
+      </c>
+      <c r="T169">
+        <v>1.22714316766576</v>
+      </c>
+      <c r="U169">
+        <v>1.7179859918065301</v>
+      </c>
+      <c r="V169" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="W169">
+        <v>4.3924547268445702</v>
+      </c>
+      <c r="X169">
+        <v>1.7937391362119599</v>
+      </c>
+      <c r="Y169">
+        <v>1.7311290540389299</v>
+      </c>
+      <c r="Z169">
+        <v>2.9142212988378602</v>
+      </c>
+      <c r="AA169">
+        <v>2.4878661371890201</v>
+      </c>
+      <c r="AB169" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="AC169">
+        <v>3.7545107061796399</v>
+      </c>
+      <c r="AD169">
+        <v>1.5565862990075601</v>
+      </c>
+      <c r="AE169">
+        <v>1.6296675021899101</v>
+      </c>
+      <c r="AF169">
+        <v>2.5890388305274401</v>
+      </c>
+      <c r="AG169">
+        <v>3.1750605339116298</v>
+      </c>
+    </row>
+    <row r="170" spans="15:33" x14ac:dyDescent="0.25">
+      <c r="P170" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q170">
+        <v>2.5623194182967399</v>
+      </c>
+      <c r="R170">
+        <v>1.7301902638794699</v>
+      </c>
+      <c r="S170">
+        <v>1.81641452929422</v>
+      </c>
+      <c r="T170">
+        <v>2.3597573877369502</v>
+      </c>
+      <c r="U170">
+        <v>1.5952211248006001</v>
+      </c>
+      <c r="V170" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="W170">
+        <v>6.5388178898741396</v>
+      </c>
+      <c r="X170">
+        <v>5.04751361426269</v>
+      </c>
+      <c r="Y170">
+        <v>6.6482952653923597</v>
+      </c>
+      <c r="Z170">
+        <v>6.1856161460353096</v>
+      </c>
+      <c r="AA170">
+        <v>4.5360174066138601</v>
+      </c>
+      <c r="AB170" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="AC170">
+        <v>5.4860730479844602</v>
+      </c>
+      <c r="AD170">
+        <v>4.4964437906613597</v>
+      </c>
+      <c r="AE170">
+        <v>5.7738483391718898</v>
+      </c>
+      <c r="AF170">
+        <v>4.7400959443542998</v>
+      </c>
+      <c r="AG170">
+        <v>4.1007076311363599</v>
+      </c>
+    </row>
+    <row r="171" spans="15:33" x14ac:dyDescent="0.25">
+      <c r="P171" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q171">
+        <v>1.96734310108387</v>
+      </c>
+      <c r="R171">
+        <v>1.25768995516194</v>
+      </c>
+      <c r="S171">
+        <v>1.4273943301407299</v>
+      </c>
+      <c r="T171">
+        <v>3.55815913359779</v>
+      </c>
+      <c r="U171">
+        <v>1.43981524609662</v>
+      </c>
+      <c r="V171" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="W171">
+        <v>7.30299307967225</v>
+      </c>
+      <c r="X171">
+        <v>2.9453458033552402</v>
+      </c>
+      <c r="Y171">
+        <v>2.82221986321106</v>
+      </c>
+      <c r="Z171">
+        <v>6.6144988196519199</v>
+      </c>
+      <c r="AA171">
+        <v>5.1406704839319</v>
+      </c>
+      <c r="AB171" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="AC171">
+        <v>6.6654101321455697</v>
+      </c>
+      <c r="AD171">
+        <v>2.8433787491126701</v>
+      </c>
+      <c r="AE171">
+        <v>2.4856996983594999</v>
+      </c>
+      <c r="AF171">
+        <v>4.58136819277839</v>
+      </c>
+      <c r="AG171">
+        <v>5.3076307030599601</v>
+      </c>
+    </row>
+    <row r="172" spans="15:33" x14ac:dyDescent="0.25">
+      <c r="P172" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q172">
+        <v>2.8160094052331099</v>
+      </c>
+      <c r="R172">
+        <v>1.3370538309498901</v>
+      </c>
+      <c r="S172">
+        <v>1.36528975036126</v>
+      </c>
+      <c r="T172">
+        <v>1.72087457691256</v>
+      </c>
+      <c r="U172">
+        <v>1.54416538305166</v>
+      </c>
+      <c r="V172" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="W172">
+        <v>10.944993395972199</v>
+      </c>
+      <c r="X172">
+        <v>4.3660241731244698</v>
+      </c>
+      <c r="Y172">
+        <v>7.7852423631225998</v>
+      </c>
+      <c r="Z172">
+        <v>6.0223388729174196</v>
+      </c>
+      <c r="AA172">
+        <v>5.9132225705374504</v>
+      </c>
+      <c r="AB172" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="AC172">
+        <v>9.7633454437264007</v>
+      </c>
+      <c r="AD172">
+        <v>3.9124440968513801</v>
+      </c>
+      <c r="AE172">
+        <v>7.3921059301930097</v>
+      </c>
+      <c r="AF172">
+        <v>6.7554617728258002</v>
+      </c>
+      <c r="AG172">
+        <v>5.6500002527511999</v>
+      </c>
+    </row>
+    <row r="173" spans="15:33" x14ac:dyDescent="0.25">
+      <c r="P173" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="Q173">
+        <v>3.5815566729565602</v>
+      </c>
+      <c r="R173">
+        <v>3.0406691118539602</v>
+      </c>
+      <c r="S173">
+        <v>2.24594713455968</v>
+      </c>
+      <c r="T173">
+        <v>2.3630070459812198</v>
+      </c>
+      <c r="U173">
+        <v>2.38546579518054</v>
+      </c>
+      <c r="V173" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="W173">
+        <v>6.3254236651667801</v>
+      </c>
+      <c r="X173">
+        <v>7.7800429099317601</v>
+      </c>
+      <c r="Y173">
+        <v>11.2707535813039</v>
+      </c>
+      <c r="Z173">
+        <v>5.4213687416095704</v>
+      </c>
+      <c r="AA173">
+        <v>6.1943541159810396</v>
+      </c>
+      <c r="AB173" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="AC173">
+        <v>4.1176780686342198</v>
+      </c>
+      <c r="AD173">
+        <v>6.1879992287477803</v>
+      </c>
+      <c r="AE173">
+        <v>10.566877605594</v>
+      </c>
+      <c r="AF173">
+        <v>4.0185273848700396</v>
+      </c>
+      <c r="AG173">
+        <v>4.7453676121727897</v>
+      </c>
+    </row>
+    <row r="174" spans="15:33" x14ac:dyDescent="0.25">
+      <c r="P174" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="Q174">
+        <v>2.60499826323821</v>
+      </c>
+      <c r="R174">
+        <v>1.1338418687412499</v>
+      </c>
+      <c r="S174">
+        <v>0.83768968074634997</v>
+      </c>
+      <c r="T174">
+        <v>0.90997652302455001</v>
+      </c>
+      <c r="U174">
+        <v>0.84729422622387995</v>
+      </c>
+      <c r="V174" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="W174">
+        <v>8.3085817697061408</v>
+      </c>
+      <c r="X174">
+        <v>4.0695831266189701</v>
+      </c>
+      <c r="Y174">
+        <v>7.67944793361454</v>
+      </c>
+      <c r="Z174">
+        <v>3.5640085184374901</v>
+      </c>
+      <c r="AA174">
+        <v>2.9610885921830499</v>
+      </c>
+      <c r="AB174" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="AC174">
+        <v>6.18005561970622</v>
+      </c>
+      <c r="AD174">
+        <v>3.3307552711262201</v>
+      </c>
+      <c r="AE174">
+        <v>7.5971232580929398</v>
+      </c>
+      <c r="AF174">
+        <v>3.4628358250990701</v>
+      </c>
+      <c r="AG174">
+        <v>2.8308856185291198</v>
+      </c>
+    </row>
+    <row r="175" spans="15:33" x14ac:dyDescent="0.25">
+      <c r="P175" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q175">
+        <v>2.0031615563985499</v>
+      </c>
+      <c r="R175">
+        <v>1.18973599054277</v>
+      </c>
+      <c r="S175">
+        <v>1.4282609056725399</v>
+      </c>
+      <c r="T175">
+        <v>1.6020815144274001</v>
+      </c>
+      <c r="U175">
+        <v>1.5544920748056901</v>
+      </c>
+      <c r="V175" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="W175">
+        <v>8.9964983127052705</v>
+      </c>
+      <c r="X175">
+        <v>5.3866335057096704</v>
+      </c>
+      <c r="Y175">
+        <v>5.3701685706053404</v>
+      </c>
+      <c r="Z175">
+        <v>7.9348710716145296</v>
+      </c>
+      <c r="AA175">
+        <v>10.5962689590478</v>
+      </c>
+      <c r="AB175" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC175">
+        <v>7.6893413376026798</v>
+      </c>
+      <c r="AD175">
+        <v>5.0719943730362296</v>
+      </c>
+      <c r="AE175">
+        <v>5.4864341211227199</v>
+      </c>
+      <c r="AF175">
+        <v>7.6430517612786701</v>
+      </c>
+      <c r="AG175">
+        <v>11.7171844094396</v>
+      </c>
+    </row>
+    <row r="176" spans="15:33" x14ac:dyDescent="0.25">
+      <c r="P176" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="Q176">
+        <v>3.3446926942627702</v>
+      </c>
+      <c r="R176">
+        <v>1.02855294162675</v>
+      </c>
+      <c r="S176">
+        <v>0.91524819084303999</v>
+      </c>
+      <c r="T176">
+        <v>1.4871158272077301</v>
+      </c>
+      <c r="U176">
+        <v>1.0060219777997801</v>
+      </c>
+      <c r="V176" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="W176">
+        <v>10.6892813994617</v>
+      </c>
+      <c r="X176">
+        <v>9.5420798246051408</v>
+      </c>
+      <c r="Y176">
+        <v>8.7268488930581203</v>
+      </c>
+      <c r="Z176">
+        <v>7.8650395266764903</v>
+      </c>
+      <c r="AA176">
+        <v>8.8629012515517598</v>
+      </c>
+      <c r="AB176" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="AC176">
+        <v>8.7617285582133295</v>
+      </c>
+      <c r="AD176">
+        <v>9.6110447940114003</v>
+      </c>
+      <c r="AE176">
+        <v>8.5031279765967103</v>
+      </c>
+      <c r="AF176">
+        <v>7.7130277354720702</v>
+      </c>
+      <c r="AG176">
+        <v>8.6951466715195096</v>
+      </c>
+    </row>
+    <row r="177" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P177" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q177">
+        <v>2.37564460582007</v>
+      </c>
+      <c r="R177">
+        <v>1.8853794987005099</v>
+      </c>
+      <c r="S177">
+        <v>0.99677850546050994</v>
+      </c>
+      <c r="T177">
+        <v>1.1245983964019799</v>
+      </c>
+      <c r="U177">
+        <v>1.6831785412789699</v>
+      </c>
+      <c r="V177" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="W177">
+        <v>4.5740745153856901</v>
+      </c>
+      <c r="X177">
+        <v>3.2392593378929702</v>
+      </c>
+      <c r="Y177">
+        <v>2.3009024662017499</v>
+      </c>
+      <c r="Z177">
+        <v>6.06884509312437</v>
+      </c>
+      <c r="AA177">
+        <v>6.2302447859233503</v>
+      </c>
+      <c r="AB177" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="AC177">
+        <v>5.2354882900370603</v>
+      </c>
+      <c r="AD177">
+        <v>3.0727324065308101</v>
+      </c>
+      <c r="AE177">
+        <v>2.5696130956894399</v>
+      </c>
+      <c r="AF177">
+        <v>6.14763125189112</v>
+      </c>
+      <c r="AG177">
+        <v>7.26074752249664</v>
+      </c>
+    </row>
+    <row r="178" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P178" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="Q178">
+        <v>1.146912716346</v>
+      </c>
+      <c r="R178">
+        <v>0.92095314642742998</v>
+      </c>
+      <c r="S178">
+        <v>1.0258087857760301</v>
+      </c>
+      <c r="T178">
+        <v>1.42609446684301</v>
+      </c>
+      <c r="U178">
+        <v>1.2417305224511701</v>
+      </c>
+      <c r="V178" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="W178">
+        <v>4.94323569193529</v>
+      </c>
+      <c r="X178">
+        <v>1.8345404008345101</v>
+      </c>
+      <c r="Y178">
+        <v>2.0637496289973498</v>
+      </c>
+      <c r="Z178">
+        <v>3.72056983118387</v>
+      </c>
+      <c r="AA178">
+        <v>2.9104661382000301</v>
+      </c>
+      <c r="AB178" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="AC178">
+        <v>5.0501133408580996</v>
+      </c>
+      <c r="AD178">
+        <v>2.55257044356392</v>
+      </c>
+      <c r="AE178">
+        <v>2.4045304568802899</v>
+      </c>
+      <c r="AF178">
+        <v>3.0353974440354698</v>
+      </c>
+      <c r="AG178">
+        <v>3.3926432070227301</v>
+      </c>
+    </row>
+    <row r="179" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P179" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q179">
+        <v>1.4082574538133299</v>
+      </c>
+      <c r="R179">
+        <v>0.66473564752328995</v>
+      </c>
+      <c r="S179">
+        <v>1.1450351360270801</v>
+      </c>
+      <c r="T179">
+        <v>1.3125008575487001</v>
+      </c>
+      <c r="U179">
+        <v>0.80237672782524005</v>
+      </c>
+      <c r="V179" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="W179">
+        <v>2.3708784403951402</v>
+      </c>
+      <c r="X179">
+        <v>0.92362508765050999</v>
+      </c>
+      <c r="Y179">
+        <v>1.60395909474632</v>
+      </c>
+      <c r="Z179">
+        <v>1.8075321300932099</v>
+      </c>
+      <c r="AA179">
+        <v>2.1236155553196601</v>
+      </c>
+      <c r="AB179" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="AC179">
+        <v>1.78976733169117</v>
+      </c>
+      <c r="AD179">
+        <v>1.1315310006564301</v>
+      </c>
+      <c r="AE179">
+        <v>1.6659192452704901</v>
+      </c>
+      <c r="AF179">
+        <v>1.4224115208328401</v>
+      </c>
+      <c r="AG179">
+        <v>1.7660809338218</v>
+      </c>
+    </row>
+    <row r="180" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P180" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="Q180">
+        <v>7.0113904132193197</v>
+      </c>
+      <c r="R180">
+        <v>2.2536740997183</v>
+      </c>
+      <c r="S180">
+        <v>2.9188430350074901</v>
+      </c>
+      <c r="T180">
+        <v>1.92516975853595</v>
+      </c>
+      <c r="U180">
+        <v>2.9977736230295302</v>
+      </c>
+      <c r="V180" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="W180">
+        <v>8.4404456797960101</v>
+      </c>
+      <c r="X180">
+        <v>5.0508354871346102</v>
+      </c>
+      <c r="Y180">
+        <v>5.8917026114975899</v>
+      </c>
+      <c r="Z180">
+        <v>10.544129997884101</v>
+      </c>
+      <c r="AA180">
+        <v>9.6649169062386999</v>
+      </c>
+      <c r="AB180" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="AC180">
+        <v>8.3922785231531201</v>
+      </c>
+      <c r="AD180">
+        <v>5.3269842232703004</v>
+      </c>
+      <c r="AE180">
+        <v>7.0629516573618201</v>
+      </c>
+      <c r="AF180">
+        <v>10.962613765119</v>
+      </c>
+      <c r="AG180">
+        <v>11.2159426789171</v>
+      </c>
+    </row>
+    <row r="181" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P181" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q181">
+        <v>2.1023844547903998</v>
+      </c>
+      <c r="R181">
+        <v>2.02034863777937</v>
+      </c>
+      <c r="S181">
+        <v>1.9303692117267901</v>
+      </c>
+      <c r="T181">
+        <v>2.1005068744714901</v>
+      </c>
+      <c r="U181">
+        <v>1.61363585485149</v>
+      </c>
+      <c r="V181" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="W181">
+        <v>10.131784473999501</v>
+      </c>
+      <c r="X181">
+        <v>5.67404772375885</v>
+      </c>
+      <c r="Y181">
+        <v>6.3673803638317601</v>
+      </c>
+      <c r="Z181">
+        <v>7.8578902785390596</v>
+      </c>
+      <c r="AA181">
+        <v>6.7324975212329301</v>
+      </c>
+      <c r="AB181" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="AC181">
+        <v>9.6436858057094597</v>
+      </c>
+      <c r="AD181">
+        <v>4.5455497374637401</v>
+      </c>
+      <c r="AE181">
+        <v>6.5427896943949202</v>
+      </c>
+      <c r="AF181">
+        <v>7.7509404149886096</v>
+      </c>
+      <c r="AG181">
+        <v>6.6674321417197797</v>
+      </c>
+    </row>
+    <row r="182" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P182" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="Q182">
+        <v>5.8586283120336402</v>
+      </c>
+      <c r="R182">
+        <v>2.8300190429973102</v>
+      </c>
+      <c r="S182">
+        <v>2.1113390686190598</v>
+      </c>
+      <c r="T182">
+        <v>1.73011804925182</v>
+      </c>
+      <c r="U182">
+        <v>2.2655172986529899</v>
+      </c>
+      <c r="V182" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="W182">
+        <v>8.1138189189325995</v>
+      </c>
+      <c r="X182">
+        <v>3.8892632013755599</v>
+      </c>
+      <c r="Y182">
+        <v>4.7650099908937404</v>
+      </c>
+      <c r="Z182">
+        <v>9.0389605137637492</v>
+      </c>
+      <c r="AA182">
+        <v>13.338113941683799</v>
+      </c>
+      <c r="AB182" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="AC182">
+        <v>5.9216716819725503</v>
+      </c>
+      <c r="AD182">
+        <v>3.9671827846104901</v>
+      </c>
+      <c r="AE182">
+        <v>5.1384318304747199</v>
+      </c>
+      <c r="AF182">
+        <v>9.2531490993752694</v>
+      </c>
+      <c r="AG182">
+        <v>14.9148481218058</v>
+      </c>
+    </row>
+    <row r="183" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P183" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q183">
+        <v>6.06292349365705</v>
+      </c>
+      <c r="R183">
+        <v>2.1335089593077901</v>
+      </c>
+      <c r="S183">
+        <v>4.0568733521524596</v>
+      </c>
+      <c r="T183">
+        <v>3.83560773303119</v>
+      </c>
+      <c r="U183">
+        <v>5.4834733213890399</v>
+      </c>
+      <c r="V183" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="W183">
+        <v>14.1261921732342</v>
+      </c>
+      <c r="X183">
+        <v>8.8332210395873503</v>
+      </c>
+      <c r="Y183">
+        <v>15.0252642874835</v>
+      </c>
+      <c r="Z183">
+        <v>22.1831059655781</v>
+      </c>
+      <c r="AA183">
+        <v>26.386791655744201</v>
+      </c>
+      <c r="AB183" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="AC183">
+        <v>19.0546238665011</v>
+      </c>
+      <c r="AD183">
+        <v>9.6905530990546591</v>
+      </c>
+      <c r="AE183">
+        <v>18.9667386646503</v>
+      </c>
+      <c r="AF183">
+        <v>25.762929487471101</v>
+      </c>
+      <c r="AG183">
+        <v>31.855244334581901</v>
+      </c>
+    </row>
+    <row r="184" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P184" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="Q184">
+        <v>4.7826303600404598</v>
+      </c>
+      <c r="R184">
+        <v>2.5805897190923202</v>
+      </c>
+      <c r="S184">
+        <v>2.0807200664952301</v>
+      </c>
+      <c r="T184">
+        <v>2.1860812082373799</v>
+      </c>
+      <c r="U184">
+        <v>2.43139429836629</v>
+      </c>
+      <c r="V184" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="W184">
+        <v>11.534409186856101</v>
+      </c>
+      <c r="X184">
+        <v>5.86931607692593</v>
+      </c>
+      <c r="Y184">
+        <v>11.6823047442844</v>
+      </c>
+      <c r="Z184">
+        <v>21.487679101303399</v>
+      </c>
+      <c r="AA184">
+        <v>20.825976468141501</v>
+      </c>
+      <c r="AB184" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="AC184">
+        <v>14.976013911425801</v>
+      </c>
+      <c r="AD184">
+        <v>7.1617412679877797</v>
+      </c>
+      <c r="AE184">
+        <v>12.1149425785388</v>
+      </c>
+      <c r="AF184">
+        <v>19.83353084034</v>
+      </c>
+      <c r="AG184">
+        <v>22.991620936753701</v>
+      </c>
+    </row>
+    <row r="185" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P185" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="Q185">
+        <v>4.3489093063712803</v>
+      </c>
+      <c r="R185">
+        <v>13.613107243777</v>
+      </c>
+      <c r="S185">
+        <v>2.68082362227128</v>
+      </c>
+      <c r="T185">
+        <v>1.3846432705716001</v>
+      </c>
+      <c r="U185">
+        <v>3.0989463163679498</v>
+      </c>
+      <c r="V185" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="W185">
+        <v>13.988334449049299</v>
+      </c>
+      <c r="X185">
+        <v>4.1533520946935996</v>
+      </c>
+      <c r="Y185">
+        <v>18.536411698480698</v>
+      </c>
+      <c r="Z185">
+        <v>26.460811649086001</v>
+      </c>
+      <c r="AA185">
+        <v>31.626035106419</v>
+      </c>
+      <c r="AB185" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="AC185">
+        <v>16.948412036445198</v>
+      </c>
+      <c r="AD185">
+        <v>14.776773753737899</v>
+      </c>
+      <c r="AE185">
+        <v>20.376657054899699</v>
+      </c>
+      <c r="AF185">
+        <v>26.3416575134626</v>
+      </c>
+      <c r="AG185">
+        <v>34.604238565355203</v>
+      </c>
+    </row>
+    <row r="186" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P186" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="Q186" s="1">
+        <f>AVERAGE(Q168:Q185)</f>
+        <v>3.2648995426326719</v>
+      </c>
+      <c r="R186" s="1">
+        <f>AVERAGE(R168:R185)</f>
+        <v>2.3719496240386095</v>
+      </c>
+      <c r="S186" s="1">
+        <f>AVERAGE(S168:S185)</f>
+        <v>1.7706745865251208</v>
+      </c>
+      <c r="T186" s="1">
+        <f>AVERAGE(T168:T185)</f>
+        <v>1.9023579600458957</v>
+      </c>
+      <c r="U186" s="1">
+        <f>AVERAGE(U168:U185)</f>
+        <v>1.9724422561807526</v>
+      </c>
+      <c r="V186" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="W186" s="1">
+        <f>AVERAGE(W168:W185)</f>
+        <v>8.6088140841632601</v>
+      </c>
+      <c r="X186" s="1">
+        <f>AVERAGE(X168:X185)</f>
+        <v>4.8143365935028282</v>
+      </c>
+      <c r="Y186" s="1">
+        <f>AVERAGE(Y168:Y185)</f>
+        <v>7.3016169898231089</v>
+      </c>
+      <c r="Z186" s="1">
+        <f>AVERAGE(Z168:Z185)</f>
+        <v>9.120246101031956</v>
+      </c>
+      <c r="AA186" s="1">
+        <f>AVERAGE(AA168:AA185)</f>
+        <v>9.6314293786276384</v>
+      </c>
+      <c r="AB186" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="AC186" s="1">
+        <f>AVERAGE(AC168:AC185)</f>
+        <v>8.3465185207651942</v>
+      </c>
+      <c r="AD186" s="1">
+        <f>AVERAGE(AD168:AD185)</f>
+        <v>5.2626088946435967</v>
+      </c>
+      <c r="AE186" s="1">
+        <f>AVERAGE(AE168:AE185)</f>
+        <v>7.6215077306962371</v>
+      </c>
+      <c r="AF186" s="1">
+        <f>AVERAGE(AF168:AF185)</f>
+        <v>8.9157422993731252</v>
+      </c>
+      <c r="AG186" s="1">
+        <f>AVERAGE(AG168:AG185)</f>
+        <v>10.416703275470951</v>
+      </c>
+    </row>
+    <row r="187" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P187" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="Q187" s="1">
+        <f>MEDIAN(Q168:Q185)</f>
+        <v>2.7105038342356602</v>
+      </c>
+      <c r="R187" s="1">
+        <f>MEDIAN(R168:R185)</f>
+        <v>1.781426542197535</v>
+      </c>
+      <c r="S187" s="1">
+        <f>MEDIAN(S168:S185)</f>
+        <v>1.5447069927590449</v>
+      </c>
+      <c r="T187" s="1">
+        <f>MEDIAN(T168:T185)</f>
+        <v>1.7254963130821901</v>
+      </c>
+      <c r="U187" s="1">
+        <f>MEDIAN(U168:U185)</f>
+        <v>1.64840719806523</v>
+      </c>
+      <c r="V187" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="W187" s="1">
+        <f>MEDIAN(W168:W185)</f>
+        <v>8.3745137247510755</v>
+      </c>
+      <c r="X187" s="1">
+        <f>MEDIAN(X168:X185)</f>
+        <v>4.7067688936935799</v>
+      </c>
+      <c r="Y187" s="1">
+        <f>MEDIAN(Y168:Y185)</f>
+        <v>6.5078378146120599</v>
+      </c>
+      <c r="Z187" s="1">
+        <f>MEDIAN(Z168:Z185)</f>
+        <v>7.2361945490954902</v>
+      </c>
+      <c r="AA187" s="1">
+        <f>MEDIAN(AA168:AA185)</f>
+        <v>6.4813711535781398</v>
+      </c>
+      <c r="AB187" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="AC187" s="1">
+        <f>MEDIAN(AC168:AC185)</f>
+        <v>7.1773757348741247</v>
+      </c>
+      <c r="AD187" s="1">
+        <f>MEDIAN(AD168:AD185)</f>
+        <v>4.5209967640625504</v>
+      </c>
+      <c r="AE187" s="1">
+        <f>MEDIAN(AE168:AE185)</f>
+        <v>6.8028706758783706</v>
+      </c>
+      <c r="AF187" s="1">
+        <f>MEDIAN(AF168:AF185)</f>
+        <v>7.1992567670522352</v>
+      </c>
+      <c r="AG187" s="1">
+        <f>MEDIAN(AG168:AG185)</f>
+        <v>6.6386546126010249</v>
+      </c>
+    </row>
+    <row r="188" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P188" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="Q188" s="20">
+        <v>0</v>
+      </c>
+      <c r="R188" s="20">
+        <f>(Q186-R186)/Q186*100</f>
+        <v>27.349996743667855</v>
+      </c>
+      <c r="S188" s="20">
+        <f>(Q186-S186)/Q186*100</f>
+        <v>45.766337879500988</v>
+      </c>
+      <c r="T188" s="20">
+        <f>(Q186-T186)/Q186*100</f>
+        <v>41.733032358113</v>
+      </c>
+      <c r="U188" s="20">
+        <f>(Q186-U186)/Q186*100</f>
+        <v>39.586433505079249</v>
+      </c>
+      <c r="V188" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="W188" s="20">
+        <v>0</v>
+      </c>
+      <c r="X188" s="20">
+        <f>(W186-X186)/W186*100</f>
+        <v>44.076657406747088</v>
+      </c>
+      <c r="Y188" s="20">
+        <f>(W186-Y186)/W186*100</f>
+        <v>15.184403816373102</v>
+      </c>
+      <c r="Z188" s="20">
+        <f>(W186-Z186)/W186*100</f>
+        <v>-5.9407952346133737</v>
+      </c>
+      <c r="AA188" s="20">
+        <f>(W186-AA186)/W186*100</f>
+        <v>-11.87870111338073</v>
+      </c>
+      <c r="AB188" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="AC188" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD188" s="20">
+        <f>(AC186-AD186)/AC186*100</f>
+        <v>36.948454837177671</v>
+      </c>
+      <c r="AE188" s="20">
+        <f>(AC186-AE186)/AC186*100</f>
+        <v>8.6863856860224082</v>
+      </c>
+      <c r="AF188" s="20">
+        <f>(AC186-AF186)/AC186*100</f>
+        <v>-6.8198947524260163</v>
+      </c>
+      <c r="AG188" s="20">
+        <f>(AC186-AG186)/AC186*100</f>
+        <v>-24.802973234353594</v>
+      </c>
+    </row>
+    <row r="189" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P189" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="Q189" s="20">
+        <v>0</v>
+      </c>
+      <c r="R189" s="20">
+        <v>34.276922257153615</v>
+      </c>
+      <c r="S189" s="20">
+        <v>43.010337294186506</v>
+      </c>
+      <c r="T189" s="20">
+        <v>36.340384717855756</v>
+      </c>
+      <c r="U189" s="20">
+        <v>39.184472744711421</v>
+      </c>
+      <c r="V189" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="W189" s="20">
+        <v>0</v>
+      </c>
+      <c r="X189" s="20">
+        <v>43.796511076426896</v>
+      </c>
+      <c r="Y189" s="20">
+        <v>22.289961799477506</v>
+      </c>
+      <c r="Z189" s="20">
+        <v>13.592659980856627</v>
+      </c>
+      <c r="AA189" s="20">
+        <v>22.605999982753715</v>
+      </c>
+      <c r="AB189" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="AC189" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD189" s="20">
+        <v>37.010448789862075</v>
+      </c>
+      <c r="AE189" s="20">
+        <v>5.2178550048045125</v>
+      </c>
+      <c r="AF189" s="20">
+        <v>-0.30486117748849023</v>
+      </c>
+      <c r="AG189" s="20">
+        <v>7.5058230497187131</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="95">
-    <mergeCell ref="AA47:AD47"/>
-    <mergeCell ref="AA40:AD40"/>
-    <mergeCell ref="AA33:AD33"/>
-    <mergeCell ref="G77:L77"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="H118:L118"/>
-    <mergeCell ref="H121:J121"/>
-    <mergeCell ref="K121:L121"/>
-    <mergeCell ref="H122:J122"/>
-    <mergeCell ref="K122:L122"/>
-    <mergeCell ref="G119:L119"/>
-    <mergeCell ref="B118:F118"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="K120:L120"/>
-    <mergeCell ref="H120:J120"/>
-    <mergeCell ref="B101:E101"/>
-    <mergeCell ref="B100:E100"/>
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="B92:E92"/>
-    <mergeCell ref="G78:L78"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="G123:L123"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="G109:L109"/>
-    <mergeCell ref="G110:L110"/>
-    <mergeCell ref="O111:U111"/>
-    <mergeCell ref="O110:U110"/>
-    <mergeCell ref="O118:U118"/>
-    <mergeCell ref="O67:U67"/>
-    <mergeCell ref="O50:U50"/>
-    <mergeCell ref="O51:U51"/>
+  <mergeCells count="107">
+    <mergeCell ref="AB165:AG165"/>
+    <mergeCell ref="AB166:AG166"/>
+    <mergeCell ref="P165:U165"/>
+    <mergeCell ref="P166:U166"/>
+    <mergeCell ref="V165:AA165"/>
+    <mergeCell ref="V166:AA166"/>
+    <mergeCell ref="O142:S142"/>
+    <mergeCell ref="O143:S143"/>
+    <mergeCell ref="T142:X142"/>
+    <mergeCell ref="T143:X143"/>
+    <mergeCell ref="Y142:AC142"/>
+    <mergeCell ref="Y143:AC143"/>
+    <mergeCell ref="O135:R135"/>
+    <mergeCell ref="S135:V135"/>
+    <mergeCell ref="O126:R126"/>
+    <mergeCell ref="O127:R127"/>
+    <mergeCell ref="S126:V126"/>
+    <mergeCell ref="S127:V127"/>
+    <mergeCell ref="P85:X85"/>
+    <mergeCell ref="P84:X84"/>
+    <mergeCell ref="P92:X92"/>
+    <mergeCell ref="P93:X93"/>
+    <mergeCell ref="P100:X100"/>
+    <mergeCell ref="O134:R134"/>
+    <mergeCell ref="S134:V134"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="F92:I92"/>
+    <mergeCell ref="F93:I93"/>
+    <mergeCell ref="O119:U119"/>
+    <mergeCell ref="P101:X101"/>
+    <mergeCell ref="V51:Z51"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A65:A70"/>
+    <mergeCell ref="B65:B70"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="O66:U66"/>
+    <mergeCell ref="O58:U58"/>
+    <mergeCell ref="O59:U59"/>
+    <mergeCell ref="V58:Z58"/>
+    <mergeCell ref="V59:Z59"/>
+    <mergeCell ref="O75:U75"/>
+    <mergeCell ref="O74:U74"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="A10:E10"/>
@@ -19355,6 +21861,42 @@
     <mergeCell ref="A34:F34"/>
     <mergeCell ref="A35:F35"/>
     <mergeCell ref="A41:F41"/>
+    <mergeCell ref="G109:L109"/>
+    <mergeCell ref="G110:L110"/>
+    <mergeCell ref="O111:U111"/>
+    <mergeCell ref="O110:U110"/>
+    <mergeCell ref="O118:U118"/>
+    <mergeCell ref="B101:E101"/>
+    <mergeCell ref="B100:E100"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="G78:L78"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="H118:L118"/>
+    <mergeCell ref="H121:J121"/>
+    <mergeCell ref="K121:L121"/>
+    <mergeCell ref="H122:J122"/>
+    <mergeCell ref="K122:L122"/>
+    <mergeCell ref="G119:L119"/>
+    <mergeCell ref="B118:F118"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="K120:L120"/>
+    <mergeCell ref="H120:J120"/>
+    <mergeCell ref="G123:L123"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="AA47:AD47"/>
+    <mergeCell ref="AA40:AD40"/>
+    <mergeCell ref="AA33:AD33"/>
+    <mergeCell ref="G77:L77"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="O67:U67"/>
+    <mergeCell ref="O50:U50"/>
+    <mergeCell ref="O51:U51"/>
     <mergeCell ref="A49:E49"/>
     <mergeCell ref="A48:E48"/>
     <mergeCell ref="O43:U43"/>
@@ -19363,43 +21905,6 @@
     <mergeCell ref="V43:Z43"/>
     <mergeCell ref="V42:Z42"/>
     <mergeCell ref="V50:Z50"/>
-    <mergeCell ref="V51:Z51"/>
-    <mergeCell ref="A71:A76"/>
-    <mergeCell ref="B71:B76"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="A65:A70"/>
-    <mergeCell ref="B65:B70"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="O66:U66"/>
-    <mergeCell ref="O58:U58"/>
-    <mergeCell ref="O59:U59"/>
-    <mergeCell ref="V58:Z58"/>
-    <mergeCell ref="V59:Z59"/>
-    <mergeCell ref="O75:U75"/>
-    <mergeCell ref="O74:U74"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="O134:R134"/>
-    <mergeCell ref="S134:V134"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="F92:I92"/>
-    <mergeCell ref="F93:I93"/>
-    <mergeCell ref="O119:U119"/>
-    <mergeCell ref="P85:X85"/>
-    <mergeCell ref="P84:X84"/>
-    <mergeCell ref="P92:X92"/>
-    <mergeCell ref="P93:X93"/>
-    <mergeCell ref="P100:X100"/>
-    <mergeCell ref="P101:X101"/>
-    <mergeCell ref="O135:R135"/>
-    <mergeCell ref="S135:V135"/>
-    <mergeCell ref="O126:R126"/>
-    <mergeCell ref="O127:R127"/>
-    <mergeCell ref="S126:V126"/>
-    <mergeCell ref="S127:V127"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>

--- a/plotting/617_temp.xlsx
+++ b/plotting/617_temp.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1971" uniqueCount="614">
   <si>
     <t>.\vgg_unet2_0_3_640_640_64_256_rot_15_345_4_flip_5K\training_32_49_640_640_640_640_max_val_acc\vis\vis_log_181022_0927.txt</t>
   </si>
@@ -1783,13 +1783,91 @@
   </si>
   <si>
     <t>dec_median %</t>
+  </si>
+  <si>
+    <t>_19</t>
+  </si>
+  <si>
+    <t>_20</t>
+  </si>
+  <si>
+    <t>_21</t>
+  </si>
+  <si>
+    <t>_22</t>
+  </si>
+  <si>
+    <t>_23</t>
+  </si>
+  <si>
+    <t>_25</t>
+  </si>
+  <si>
+    <t>_26</t>
+  </si>
+  <si>
+    <t>_27</t>
+  </si>
+  <si>
+    <t>_28</t>
+  </si>
+  <si>
+    <t>_29</t>
+  </si>
+  <si>
+    <t>_30</t>
+  </si>
+  <si>
+    <t>_31</t>
+  </si>
+  <si>
+    <t>_33</t>
+  </si>
+  <si>
+    <t>_34</t>
+  </si>
+  <si>
+    <t>_35</t>
+  </si>
+  <si>
+    <t>_36</t>
+  </si>
+  <si>
+    <t>_37</t>
+  </si>
+  <si>
+    <t>_38</t>
+  </si>
+  <si>
+    <t>_39</t>
+  </si>
+  <si>
+    <t>_40</t>
+  </si>
+  <si>
+    <t>_41</t>
+  </si>
+  <si>
+    <t>_42</t>
+  </si>
+  <si>
+    <t>_43</t>
+  </si>
+  <si>
+    <t>_44</t>
+  </si>
+  <si>
+    <t>_45</t>
+  </si>
+  <si>
+    <t>_46</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1841,6 +1919,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1918,7 +2002,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1961,7 +2045,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13511,10 +13599,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG189"/>
+  <dimension ref="A1:AG241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O167" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AC186" sqref="AC186:AG186"/>
+    <sheetView tabSelected="1" topLeftCell="N165" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AE242" sqref="AE242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20415,1391 +20503,4342 @@
       </c>
     </row>
     <row r="165" spans="15:33" x14ac:dyDescent="0.25">
-      <c r="P165" s="10" t="s">
+      <c r="P165" s="20" t="s">
         <v>580</v>
       </c>
-      <c r="Q165" s="10"/>
-      <c r="R165" s="10"/>
-      <c r="S165" s="10"/>
-      <c r="T165" s="10"/>
-      <c r="U165" s="10"/>
-      <c r="V165" s="10" t="s">
+      <c r="Q165" s="20"/>
+      <c r="R165" s="20"/>
+      <c r="S165" s="20"/>
+      <c r="T165" s="20"/>
+      <c r="U165" s="20"/>
+      <c r="V165" s="20" t="s">
         <v>580</v>
       </c>
-      <c r="W165" s="10"/>
-      <c r="X165" s="10"/>
-      <c r="Y165" s="10"/>
-      <c r="Z165" s="10"/>
-      <c r="AA165" s="10"/>
-      <c r="AB165" s="10" t="s">
+      <c r="W165" s="20"/>
+      <c r="X165" s="20"/>
+      <c r="Y165" s="20"/>
+      <c r="Z165" s="20"/>
+      <c r="AA165" s="20"/>
+      <c r="AB165" s="20" t="s">
         <v>580</v>
       </c>
-      <c r="AC165" s="10"/>
-      <c r="AD165" s="10"/>
-      <c r="AE165" s="10"/>
-      <c r="AF165" s="10"/>
-      <c r="AG165" s="10"/>
+      <c r="AC165" s="20"/>
+      <c r="AD165" s="20"/>
+      <c r="AE165" s="20"/>
+      <c r="AF165" s="20"/>
+      <c r="AG165" s="20"/>
     </row>
     <row r="166" spans="15:33" x14ac:dyDescent="0.25">
-      <c r="P166" s="10" t="s">
+      <c r="P166" s="20" t="s">
         <v>582</v>
       </c>
-      <c r="Q166" s="10"/>
-      <c r="R166" s="10"/>
-      <c r="S166" s="10"/>
-      <c r="T166" s="10"/>
-      <c r="U166" s="10"/>
-      <c r="V166" s="10" t="s">
+      <c r="Q166" s="20"/>
+      <c r="R166" s="20"/>
+      <c r="S166" s="20"/>
+      <c r="T166" s="20"/>
+      <c r="U166" s="20"/>
+      <c r="V166" s="20" t="s">
         <v>581</v>
       </c>
-      <c r="W166" s="10"/>
-      <c r="X166" s="10"/>
-      <c r="Y166" s="10"/>
-      <c r="Z166" s="10"/>
-      <c r="AA166" s="10"/>
-      <c r="AB166" s="10" t="s">
+      <c r="W166" s="20"/>
+      <c r="X166" s="20"/>
+      <c r="Y166" s="20"/>
+      <c r="Z166" s="20"/>
+      <c r="AA166" s="20"/>
+      <c r="AB166" s="20" t="s">
         <v>583</v>
       </c>
-      <c r="AC166" s="10"/>
-      <c r="AD166" s="10"/>
-      <c r="AE166" s="10"/>
-      <c r="AF166" s="10"/>
-      <c r="AG166" s="10"/>
+      <c r="AC166" s="20"/>
+      <c r="AD166" s="20"/>
+      <c r="AE166" s="20"/>
+      <c r="AF166" s="20"/>
+      <c r="AG166" s="20"/>
     </row>
     <row r="167" spans="15:33" x14ac:dyDescent="0.25">
-      <c r="P167" s="1" t="s">
+      <c r="P167" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="Q167" s="1" t="s">
+      <c r="Q167" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="R167" s="1" t="s">
+      <c r="R167" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="S167" s="1" t="s">
+      <c r="S167" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="T167" s="1" t="s">
+      <c r="T167" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="U167" s="1" t="s">
+      <c r="U167" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="V167" s="1" t="s">
+      <c r="V167" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="W167" s="1" t="s">
+      <c r="W167" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="X167" s="1" t="s">
+      <c r="X167" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="Y167" s="1" t="s">
+      <c r="Y167" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="Z167" s="1" t="s">
+      <c r="Z167" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="AA167" s="1" t="s">
+      <c r="AA167" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="AB167" s="1" t="s">
+      <c r="AB167" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="AC167" s="1" t="s">
+      <c r="AC167" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="AD167" s="1" t="s">
+      <c r="AD167" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="AE167" s="1" t="s">
+      <c r="AE167" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="AF167" s="1" t="s">
+      <c r="AF167" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="AG167" s="1" t="s">
+      <c r="AG167" s="6" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="168" spans="15:33" x14ac:dyDescent="0.25">
-      <c r="P168" s="1" t="s">
+      <c r="P168" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="Q168">
+      <c r="Q168" s="7">
         <v>3.0935302192941601</v>
       </c>
-      <c r="R168">
+      <c r="R168" s="7">
         <v>1.8326628205155999</v>
       </c>
-      <c r="S168">
+      <c r="S168" s="7">
         <v>1.6611530798455501</v>
       </c>
-      <c r="T168">
+      <c r="T168" s="7">
         <v>1.9890074893790399</v>
       </c>
-      <c r="U168">
+      <c r="U168" s="7">
         <v>1.79547228727557</v>
       </c>
-      <c r="V168" s="1" t="s">
+      <c r="V168" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="W168">
+      <c r="W168" s="7">
         <v>13.2364357459518</v>
       </c>
-      <c r="X168">
+      <c r="X168" s="7">
         <v>6.2596361393771298</v>
       </c>
-      <c r="Y168">
+      <c r="Y168" s="7">
         <v>11.158315406051999</v>
       </c>
-      <c r="Z168">
+      <c r="Z168" s="7">
         <v>8.4729422622387407</v>
       </c>
-      <c r="AA168">
+      <c r="AA168" s="7">
         <v>6.8346812193584299</v>
       </c>
-      <c r="AB168" s="1" t="s">
+      <c r="AB168" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="AC168">
+      <c r="AC168" s="7">
         <v>10.8071356717874</v>
       </c>
-      <c r="AD168">
+      <c r="AD168" s="7">
         <v>5.4906947841541101</v>
       </c>
-      <c r="AE168">
+      <c r="AE168" s="7">
         <v>10.9096804430511</v>
       </c>
-      <c r="AF168">
+      <c r="AF168" s="7">
         <v>8.4696926039944902</v>
       </c>
-      <c r="AG168">
+      <c r="AG168" s="7">
         <v>6.60987708348227</v>
       </c>
     </row>
     <row r="169" spans="15:33" x14ac:dyDescent="0.25">
-      <c r="P169" s="1" t="s">
+      <c r="P169" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="Q169">
+      <c r="Q169" s="7">
         <v>1.69689932053257</v>
       </c>
-      <c r="R169">
+      <c r="R169" s="7">
         <v>1.2423804541000201</v>
       </c>
-      <c r="S169">
+      <c r="S169" s="7">
         <v>1.22815417245287</v>
       </c>
-      <c r="T169">
+      <c r="T169" s="7">
         <v>1.22714316766576</v>
       </c>
-      <c r="U169">
+      <c r="U169" s="7">
         <v>1.7179859918065301</v>
       </c>
-      <c r="V169" s="1" t="s">
+      <c r="V169" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="W169">
+      <c r="W169" s="7">
         <v>4.3924547268445702</v>
       </c>
-      <c r="X169">
+      <c r="X169" s="7">
         <v>1.7937391362119599</v>
       </c>
-      <c r="Y169">
+      <c r="Y169" s="7">
         <v>1.7311290540389299</v>
       </c>
-      <c r="Z169">
+      <c r="Z169" s="7">
         <v>2.9142212988378602</v>
       </c>
-      <c r="AA169">
+      <c r="AA169" s="7">
         <v>2.4878661371890201</v>
       </c>
-      <c r="AB169" s="1" t="s">
+      <c r="AB169" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="AC169">
+      <c r="AC169" s="7">
         <v>3.7545107061796399</v>
       </c>
-      <c r="AD169">
+      <c r="AD169" s="7">
         <v>1.5565862990075601</v>
       </c>
-      <c r="AE169">
+      <c r="AE169" s="7">
         <v>1.6296675021899101</v>
       </c>
-      <c r="AF169">
+      <c r="AF169" s="7">
         <v>2.5890388305274401</v>
       </c>
-      <c r="AG169">
+      <c r="AG169" s="7">
         <v>3.1750605339116298</v>
       </c>
     </row>
     <row r="170" spans="15:33" x14ac:dyDescent="0.25">
-      <c r="P170" s="1" t="s">
+      <c r="P170" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="Q170">
+      <c r="Q170" s="7">
         <v>2.5623194182967399</v>
       </c>
-      <c r="R170">
+      <c r="R170" s="7">
         <v>1.7301902638794699</v>
       </c>
-      <c r="S170">
+      <c r="S170" s="7">
         <v>1.81641452929422</v>
       </c>
-      <c r="T170">
+      <c r="T170" s="7">
         <v>2.3597573877369502</v>
       </c>
-      <c r="U170">
+      <c r="U170" s="7">
         <v>1.5952211248006001</v>
       </c>
-      <c r="V170" s="1" t="s">
+      <c r="V170" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="W170">
+      <c r="W170" s="7">
         <v>6.5388178898741396</v>
       </c>
-      <c r="X170">
+      <c r="X170" s="7">
         <v>5.04751361426269</v>
       </c>
-      <c r="Y170">
+      <c r="Y170" s="7">
         <v>6.6482952653923597</v>
       </c>
-      <c r="Z170">
+      <c r="Z170" s="7">
         <v>6.1856161460353096</v>
       </c>
-      <c r="AA170">
+      <c r="AA170" s="7">
         <v>4.5360174066138601</v>
       </c>
-      <c r="AB170" s="1" t="s">
+      <c r="AB170" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="AC170">
+      <c r="AC170" s="7">
         <v>5.4860730479844602</v>
       </c>
-      <c r="AD170">
+      <c r="AD170" s="7">
         <v>4.4964437906613597</v>
       </c>
-      <c r="AE170">
+      <c r="AE170" s="7">
         <v>5.7738483391718898</v>
       </c>
-      <c r="AF170">
+      <c r="AF170" s="7">
         <v>4.7400959443542998</v>
       </c>
-      <c r="AG170">
+      <c r="AG170" s="7">
         <v>4.1007076311363599</v>
       </c>
     </row>
     <row r="171" spans="15:33" x14ac:dyDescent="0.25">
-      <c r="P171" s="1" t="s">
+      <c r="P171" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="Q171">
+      <c r="Q171" s="7">
         <v>1.96734310108387</v>
       </c>
-      <c r="R171">
+      <c r="R171" s="7">
         <v>1.25768995516194</v>
       </c>
-      <c r="S171">
+      <c r="S171" s="7">
         <v>1.4273943301407299</v>
       </c>
-      <c r="T171">
+      <c r="T171" s="7">
         <v>3.55815913359779</v>
       </c>
-      <c r="U171">
+      <c r="U171" s="7">
         <v>1.43981524609662</v>
       </c>
-      <c r="V171" s="1" t="s">
+      <c r="V171" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="W171">
+      <c r="W171" s="7">
         <v>7.30299307967225</v>
       </c>
-      <c r="X171">
+      <c r="X171" s="7">
         <v>2.9453458033552402</v>
       </c>
-      <c r="Y171">
+      <c r="Y171" s="7">
         <v>2.82221986321106</v>
       </c>
-      <c r="Z171">
+      <c r="Z171" s="7">
         <v>6.6144988196519199</v>
       </c>
-      <c r="AA171">
+      <c r="AA171" s="7">
         <v>5.1406704839319</v>
       </c>
-      <c r="AB171" s="1" t="s">
+      <c r="AB171" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="AC171">
+      <c r="AC171" s="7">
         <v>6.6654101321455697</v>
       </c>
-      <c r="AD171">
+      <c r="AD171" s="7">
         <v>2.8433787491126701</v>
       </c>
-      <c r="AE171">
+      <c r="AE171" s="7">
         <v>2.4856996983594999</v>
       </c>
-      <c r="AF171">
+      <c r="AF171" s="7">
         <v>4.58136819277839</v>
       </c>
-      <c r="AG171">
+      <c r="AG171" s="7">
         <v>5.3076307030599601</v>
       </c>
     </row>
     <row r="172" spans="15:33" x14ac:dyDescent="0.25">
-      <c r="P172" s="1" t="s">
+      <c r="P172" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="Q172">
+      <c r="Q172" s="7">
         <v>2.8160094052331099</v>
       </c>
-      <c r="R172">
+      <c r="R172" s="7">
         <v>1.3370538309498901</v>
       </c>
-      <c r="S172">
+      <c r="S172" s="7">
         <v>1.36528975036126</v>
       </c>
-      <c r="T172">
+      <c r="T172" s="7">
         <v>1.72087457691256</v>
       </c>
-      <c r="U172">
+      <c r="U172" s="7">
         <v>1.54416538305166</v>
       </c>
-      <c r="V172" s="1" t="s">
+      <c r="V172" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="W172">
+      <c r="W172" s="7">
         <v>10.944993395972199</v>
       </c>
-      <c r="X172">
+      <c r="X172" s="7">
         <v>4.3660241731244698</v>
       </c>
-      <c r="Y172">
+      <c r="Y172" s="7">
         <v>7.7852423631225998</v>
       </c>
-      <c r="Z172">
+      <c r="Z172" s="7">
         <v>6.0223388729174196</v>
       </c>
-      <c r="AA172">
+      <c r="AA172" s="7">
         <v>5.9132225705374504</v>
       </c>
-      <c r="AB172" s="1" t="s">
+      <c r="AB172" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="AC172">
+      <c r="AC172" s="7">
         <v>9.7633454437264007</v>
       </c>
-      <c r="AD172">
+      <c r="AD172" s="7">
         <v>3.9124440968513801</v>
       </c>
-      <c r="AE172">
+      <c r="AE172" s="7">
         <v>7.3921059301930097</v>
       </c>
-      <c r="AF172">
+      <c r="AF172" s="7">
         <v>6.7554617728258002</v>
       </c>
-      <c r="AG172">
+      <c r="AG172" s="7">
         <v>5.6500002527511999</v>
       </c>
     </row>
     <row r="173" spans="15:33" x14ac:dyDescent="0.25">
-      <c r="P173" s="1" t="s">
+      <c r="P173" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="Q173">
+      <c r="Q173" s="7">
         <v>3.5815566729565602</v>
       </c>
-      <c r="R173">
+      <c r="R173" s="7">
         <v>3.0406691118539602</v>
       </c>
-      <c r="S173">
+      <c r="S173" s="7">
         <v>2.24594713455968</v>
       </c>
-      <c r="T173">
+      <c r="T173" s="7">
         <v>2.3630070459812198</v>
       </c>
-      <c r="U173">
+      <c r="U173" s="7">
         <v>2.38546579518054</v>
       </c>
-      <c r="V173" s="1" t="s">
+      <c r="V173" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="W173">
+      <c r="W173" s="7">
         <v>6.3254236651667801</v>
       </c>
-      <c r="X173">
+      <c r="X173" s="7">
         <v>7.7800429099317601</v>
       </c>
-      <c r="Y173">
+      <c r="Y173" s="7">
         <v>11.2707535813039</v>
       </c>
-      <c r="Z173">
+      <c r="Z173" s="7">
         <v>5.4213687416095704</v>
       </c>
-      <c r="AA173">
+      <c r="AA173" s="7">
         <v>6.1943541159810396</v>
       </c>
-      <c r="AB173" s="1" t="s">
+      <c r="AB173" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="AC173">
+      <c r="AC173" s="7">
         <v>4.1176780686342198</v>
       </c>
-      <c r="AD173">
+      <c r="AD173" s="7">
         <v>6.1879992287477803</v>
       </c>
-      <c r="AE173">
+      <c r="AE173" s="7">
         <v>10.566877605594</v>
       </c>
-      <c r="AF173">
+      <c r="AF173" s="7">
         <v>4.0185273848700396</v>
       </c>
-      <c r="AG173">
+      <c r="AG173" s="7">
         <v>4.7453676121727897</v>
       </c>
     </row>
     <row r="174" spans="15:33" x14ac:dyDescent="0.25">
-      <c r="P174" s="1" t="s">
+      <c r="P174" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="Q174">
+      <c r="Q174" s="7">
         <v>2.60499826323821</v>
       </c>
-      <c r="R174">
+      <c r="R174" s="7">
         <v>1.1338418687412499</v>
       </c>
-      <c r="S174">
+      <c r="S174" s="7">
         <v>0.83768968074634997</v>
       </c>
-      <c r="T174">
+      <c r="T174" s="7">
         <v>0.90997652302455001</v>
       </c>
-      <c r="U174">
+      <c r="U174" s="7">
         <v>0.84729422622387995</v>
       </c>
-      <c r="V174" s="1" t="s">
+      <c r="V174" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="W174">
+      <c r="W174" s="7">
         <v>8.3085817697061408</v>
       </c>
-      <c r="X174">
+      <c r="X174" s="7">
         <v>4.0695831266189701</v>
       </c>
-      <c r="Y174">
+      <c r="Y174" s="7">
         <v>7.67944793361454</v>
       </c>
-      <c r="Z174">
+      <c r="Z174" s="7">
         <v>3.5640085184374901</v>
       </c>
-      <c r="AA174">
+      <c r="AA174" s="7">
         <v>2.9610885921830499</v>
       </c>
-      <c r="AB174" s="1" t="s">
+      <c r="AB174" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="AC174">
+      <c r="AC174" s="7">
         <v>6.18005561970622</v>
       </c>
-      <c r="AD174">
+      <c r="AD174" s="7">
         <v>3.3307552711262201</v>
       </c>
-      <c r="AE174">
+      <c r="AE174" s="7">
         <v>7.5971232580929398</v>
       </c>
-      <c r="AF174">
+      <c r="AF174" s="7">
         <v>3.4628358250990701</v>
       </c>
-      <c r="AG174">
+      <c r="AG174" s="7">
         <v>2.8308856185291198</v>
       </c>
     </row>
     <row r="175" spans="15:33" x14ac:dyDescent="0.25">
-      <c r="P175" s="1" t="s">
+      <c r="P175" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="Q175">
+      <c r="Q175" s="7">
         <v>2.0031615563985499</v>
       </c>
-      <c r="R175">
+      <c r="R175" s="7">
         <v>1.18973599054277</v>
       </c>
-      <c r="S175">
+      <c r="S175" s="7">
         <v>1.4282609056725399</v>
       </c>
-      <c r="T175">
+      <c r="T175" s="7">
         <v>1.6020815144274001</v>
       </c>
-      <c r="U175">
+      <c r="U175" s="7">
         <v>1.5544920748056901</v>
       </c>
-      <c r="V175" s="1" t="s">
+      <c r="V175" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="W175">
+      <c r="W175" s="7">
         <v>8.9964983127052705</v>
       </c>
-      <c r="X175">
+      <c r="X175" s="7">
         <v>5.3866335057096704</v>
       </c>
-      <c r="Y175">
+      <c r="Y175" s="7">
         <v>5.3701685706053404</v>
       </c>
-      <c r="Z175">
+      <c r="Z175" s="7">
         <v>7.9348710716145296</v>
       </c>
-      <c r="AA175">
+      <c r="AA175" s="7">
         <v>10.5962689590478</v>
       </c>
-      <c r="AB175" s="1" t="s">
+      <c r="AB175" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="AC175">
+      <c r="AC175" s="7">
         <v>7.6893413376026798</v>
       </c>
-      <c r="AD175">
+      <c r="AD175" s="7">
         <v>5.0719943730362296</v>
       </c>
-      <c r="AE175">
+      <c r="AE175" s="7">
         <v>5.4864341211227199</v>
       </c>
-      <c r="AF175">
+      <c r="AF175" s="7">
         <v>7.6430517612786701</v>
       </c>
-      <c r="AG175">
+      <c r="AG175" s="7">
         <v>11.7171844094396</v>
       </c>
     </row>
     <row r="176" spans="15:33" x14ac:dyDescent="0.25">
-      <c r="P176" s="1" t="s">
+      <c r="P176" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="Q176">
+      <c r="Q176" s="7">
         <v>3.3446926942627702</v>
       </c>
-      <c r="R176">
+      <c r="R176" s="7">
         <v>1.02855294162675</v>
       </c>
-      <c r="S176">
+      <c r="S176" s="7">
         <v>0.91524819084303999</v>
       </c>
-      <c r="T176">
+      <c r="T176" s="7">
         <v>1.4871158272077301</v>
       </c>
-      <c r="U176">
+      <c r="U176" s="7">
         <v>1.0060219777997801</v>
       </c>
-      <c r="V176" s="1" t="s">
+      <c r="V176" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="W176">
+      <c r="W176" s="7">
         <v>10.6892813994617</v>
       </c>
-      <c r="X176">
+      <c r="X176" s="7">
         <v>9.5420798246051408</v>
       </c>
-      <c r="Y176">
+      <c r="Y176" s="7">
         <v>8.7268488930581203</v>
       </c>
-      <c r="Z176">
+      <c r="Z176" s="7">
         <v>7.8650395266764903</v>
       </c>
-      <c r="AA176">
+      <c r="AA176" s="7">
         <v>8.8629012515517598</v>
       </c>
-      <c r="AB176" s="1" t="s">
+      <c r="AB176" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="AC176">
+      <c r="AC176" s="7">
         <v>8.7617285582133295</v>
       </c>
-      <c r="AD176">
+      <c r="AD176" s="7">
         <v>9.6110447940114003</v>
       </c>
-      <c r="AE176">
+      <c r="AE176" s="7">
         <v>8.5031279765967103</v>
       </c>
-      <c r="AF176">
+      <c r="AF176" s="7">
         <v>7.7130277354720702</v>
       </c>
-      <c r="AG176">
+      <c r="AG176" s="7">
         <v>8.6951466715195096</v>
       </c>
     </row>
     <row r="177" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P177" s="1" t="s">
+      <c r="P177" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="Q177">
+      <c r="Q177" s="7">
         <v>2.37564460582007</v>
       </c>
-      <c r="R177">
+      <c r="R177" s="7">
         <v>1.8853794987005099</v>
       </c>
-      <c r="S177">
+      <c r="S177" s="7">
         <v>0.99677850546050994</v>
       </c>
-      <c r="T177">
+      <c r="T177" s="7">
         <v>1.1245983964019799</v>
       </c>
-      <c r="U177">
+      <c r="U177" s="7">
         <v>1.6831785412789699</v>
       </c>
-      <c r="V177" s="1" t="s">
+      <c r="V177" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="W177">
+      <c r="W177" s="7">
         <v>4.5740745153856901</v>
       </c>
-      <c r="X177">
+      <c r="X177" s="7">
         <v>3.2392593378929702</v>
       </c>
-      <c r="Y177">
+      <c r="Y177" s="7">
         <v>2.3009024662017499</v>
       </c>
-      <c r="Z177">
+      <c r="Z177" s="7">
         <v>6.06884509312437</v>
       </c>
-      <c r="AA177">
+      <c r="AA177" s="7">
         <v>6.2302447859233503</v>
       </c>
-      <c r="AB177" s="1" t="s">
+      <c r="AB177" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="AC177">
+      <c r="AC177" s="7">
         <v>5.2354882900370603</v>
       </c>
-      <c r="AD177">
+      <c r="AD177" s="7">
         <v>3.0727324065308101</v>
       </c>
-      <c r="AE177">
+      <c r="AE177" s="7">
         <v>2.5696130956894399</v>
       </c>
-      <c r="AF177">
+      <c r="AF177" s="7">
         <v>6.14763125189112</v>
       </c>
-      <c r="AG177">
+      <c r="AG177" s="7">
         <v>7.26074752249664</v>
       </c>
     </row>
     <row r="178" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P178" s="1" t="s">
+      <c r="P178" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="Q178">
+      <c r="Q178" s="7">
         <v>1.146912716346</v>
       </c>
-      <c r="R178">
+      <c r="R178" s="7">
         <v>0.92095314642742998</v>
       </c>
-      <c r="S178">
+      <c r="S178" s="7">
         <v>1.0258087857760301</v>
       </c>
-      <c r="T178">
+      <c r="T178" s="7">
         <v>1.42609446684301</v>
       </c>
-      <c r="U178">
+      <c r="U178" s="7">
         <v>1.2417305224511701</v>
       </c>
-      <c r="V178" s="1" t="s">
+      <c r="V178" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="W178">
+      <c r="W178" s="7">
         <v>4.94323569193529</v>
       </c>
-      <c r="X178">
+      <c r="X178" s="7">
         <v>1.8345404008345101</v>
       </c>
-      <c r="Y178">
+      <c r="Y178" s="7">
         <v>2.0637496289973498</v>
       </c>
-      <c r="Z178">
+      <c r="Z178" s="7">
         <v>3.72056983118387</v>
       </c>
-      <c r="AA178">
+      <c r="AA178" s="7">
         <v>2.9104661382000301</v>
       </c>
-      <c r="AB178" s="1" t="s">
+      <c r="AB178" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="AC178">
+      <c r="AC178" s="7">
         <v>5.0501133408580996</v>
       </c>
-      <c r="AD178">
+      <c r="AD178" s="7">
         <v>2.55257044356392</v>
       </c>
-      <c r="AE178">
+      <c r="AE178" s="7">
         <v>2.4045304568802899</v>
       </c>
-      <c r="AF178">
+      <c r="AF178" s="7">
         <v>3.0353974440354698</v>
       </c>
-      <c r="AG178">
+      <c r="AG178" s="7">
         <v>3.3926432070227301</v>
       </c>
     </row>
     <row r="179" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P179" s="1" t="s">
+      <c r="P179" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="Q179">
+      <c r="Q179" s="7">
         <v>1.4082574538133299</v>
       </c>
-      <c r="R179">
+      <c r="R179" s="7">
         <v>0.66473564752328995</v>
       </c>
-      <c r="S179">
+      <c r="S179" s="7">
         <v>1.1450351360270801</v>
       </c>
-      <c r="T179">
+      <c r="T179" s="7">
         <v>1.3125008575487001</v>
       </c>
-      <c r="U179">
+      <c r="U179" s="7">
         <v>0.80237672782524005</v>
       </c>
-      <c r="V179" s="1" t="s">
+      <c r="V179" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="W179">
+      <c r="W179" s="7">
         <v>2.3708784403951402</v>
       </c>
-      <c r="X179">
+      <c r="X179" s="7">
         <v>0.92362508765050999</v>
       </c>
-      <c r="Y179">
+      <c r="Y179" s="7">
         <v>1.60395909474632</v>
       </c>
-      <c r="Z179">
+      <c r="Z179" s="7">
         <v>1.8075321300932099</v>
       </c>
-      <c r="AA179">
+      <c r="AA179" s="7">
         <v>2.1236155553196601</v>
       </c>
-      <c r="AB179" s="1" t="s">
+      <c r="AB179" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="AC179">
+      <c r="AC179" s="7">
         <v>1.78976733169117</v>
       </c>
-      <c r="AD179">
+      <c r="AD179" s="7">
         <v>1.1315310006564301</v>
       </c>
-      <c r="AE179">
+      <c r="AE179" s="7">
         <v>1.6659192452704901</v>
       </c>
-      <c r="AF179">
+      <c r="AF179" s="7">
         <v>1.4224115208328401</v>
       </c>
-      <c r="AG179">
+      <c r="AG179" s="7">
         <v>1.7660809338218</v>
       </c>
     </row>
     <row r="180" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P180" s="1" t="s">
+      <c r="P180" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="Q180">
+      <c r="Q180" s="7">
         <v>7.0113904132193197</v>
       </c>
-      <c r="R180">
+      <c r="R180" s="7">
         <v>2.2536740997183</v>
       </c>
-      <c r="S180">
+      <c r="S180" s="7">
         <v>2.9188430350074901</v>
       </c>
-      <c r="T180">
+      <c r="T180" s="7">
         <v>1.92516975853595</v>
       </c>
-      <c r="U180">
+      <c r="U180" s="7">
         <v>2.9977736230295302</v>
       </c>
-      <c r="V180" s="1" t="s">
+      <c r="V180" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="W180">
+      <c r="W180" s="7">
         <v>8.4404456797960101</v>
       </c>
-      <c r="X180">
+      <c r="X180" s="7">
         <v>5.0508354871346102</v>
       </c>
-      <c r="Y180">
+      <c r="Y180" s="7">
         <v>5.8917026114975899</v>
       </c>
-      <c r="Z180">
+      <c r="Z180" s="7">
         <v>10.544129997884101</v>
       </c>
-      <c r="AA180">
+      <c r="AA180" s="7">
         <v>9.6649169062386999</v>
       </c>
-      <c r="AB180" s="1" t="s">
+      <c r="AB180" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="AC180">
+      <c r="AC180" s="7">
         <v>8.3922785231531201</v>
       </c>
-      <c r="AD180">
+      <c r="AD180" s="7">
         <v>5.3269842232703004</v>
       </c>
-      <c r="AE180">
+      <c r="AE180" s="7">
         <v>7.0629516573618201</v>
       </c>
-      <c r="AF180">
+      <c r="AF180" s="7">
         <v>10.962613765119</v>
       </c>
-      <c r="AG180">
+      <c r="AG180" s="7">
         <v>11.2159426789171</v>
       </c>
     </row>
     <row r="181" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P181" s="1" t="s">
+      <c r="P181" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="Q181">
+      <c r="Q181" s="7">
         <v>2.1023844547903998</v>
       </c>
-      <c r="R181">
+      <c r="R181" s="7">
         <v>2.02034863777937</v>
       </c>
-      <c r="S181">
+      <c r="S181" s="7">
         <v>1.9303692117267901</v>
       </c>
-      <c r="T181">
+      <c r="T181" s="7">
         <v>2.1005068744714901</v>
       </c>
-      <c r="U181">
+      <c r="U181" s="7">
         <v>1.61363585485149</v>
       </c>
-      <c r="V181" s="1" t="s">
+      <c r="V181" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="W181">
+      <c r="W181" s="7">
         <v>10.131784473999501</v>
       </c>
-      <c r="X181">
+      <c r="X181" s="7">
         <v>5.67404772375885</v>
       </c>
-      <c r="Y181">
+      <c r="Y181" s="7">
         <v>6.3673803638317601</v>
       </c>
-      <c r="Z181">
+      <c r="Z181" s="7">
         <v>7.8578902785390596</v>
       </c>
-      <c r="AA181">
+      <c r="AA181" s="7">
         <v>6.7324975212329301</v>
       </c>
-      <c r="AB181" s="1" t="s">
+      <c r="AB181" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="AC181">
+      <c r="AC181" s="7">
         <v>9.6436858057094597</v>
       </c>
-      <c r="AD181">
+      <c r="AD181" s="7">
         <v>4.5455497374637401</v>
       </c>
-      <c r="AE181">
+      <c r="AE181" s="7">
         <v>6.5427896943949202</v>
       </c>
-      <c r="AF181">
+      <c r="AF181" s="7">
         <v>7.7509404149886096</v>
       </c>
-      <c r="AG181">
+      <c r="AG181" s="7">
         <v>6.6674321417197797</v>
       </c>
     </row>
     <row r="182" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P182" s="1" t="s">
+      <c r="P182" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="Q182">
+      <c r="Q182" s="7">
         <v>5.8586283120336402</v>
       </c>
-      <c r="R182">
+      <c r="R182" s="7">
         <v>2.8300190429973102</v>
       </c>
-      <c r="S182">
+      <c r="S182" s="7">
         <v>2.1113390686190598</v>
       </c>
-      <c r="T182">
+      <c r="T182" s="7">
         <v>1.73011804925182</v>
       </c>
-      <c r="U182">
+      <c r="U182" s="7">
         <v>2.2655172986529899</v>
       </c>
-      <c r="V182" s="1" t="s">
+      <c r="V182" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="W182">
+      <c r="W182" s="7">
         <v>8.1138189189325995</v>
       </c>
-      <c r="X182">
+      <c r="X182" s="7">
         <v>3.8892632013755599</v>
       </c>
-      <c r="Y182">
+      <c r="Y182" s="7">
         <v>4.7650099908937404</v>
       </c>
-      <c r="Z182">
+      <c r="Z182" s="7">
         <v>9.0389605137637492</v>
       </c>
-      <c r="AA182">
+      <c r="AA182" s="7">
         <v>13.338113941683799</v>
       </c>
-      <c r="AB182" s="1" t="s">
+      <c r="AB182" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="AC182">
+      <c r="AC182" s="7">
         <v>5.9216716819725503</v>
       </c>
-      <c r="AD182">
+      <c r="AD182" s="7">
         <v>3.9671827846104901</v>
       </c>
-      <c r="AE182">
+      <c r="AE182" s="7">
         <v>5.1384318304747199</v>
       </c>
-      <c r="AF182">
+      <c r="AF182" s="7">
         <v>9.2531490993752694</v>
       </c>
-      <c r="AG182">
+      <c r="AG182" s="7">
         <v>14.9148481218058</v>
       </c>
     </row>
     <row r="183" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P183" s="1" t="s">
+      <c r="P183" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="Q183">
+      <c r="Q183" s="7">
         <v>6.06292349365705</v>
       </c>
-      <c r="R183">
+      <c r="R183" s="7">
         <v>2.1335089593077901</v>
       </c>
-      <c r="S183">
+      <c r="S183" s="7">
         <v>4.0568733521524596</v>
       </c>
-      <c r="T183">
+      <c r="T183" s="7">
         <v>3.83560773303119</v>
       </c>
-      <c r="U183">
+      <c r="U183" s="7">
         <v>5.4834733213890399</v>
       </c>
-      <c r="V183" s="1" t="s">
+      <c r="V183" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="W183">
+      <c r="W183" s="7">
         <v>14.1261921732342</v>
       </c>
-      <c r="X183">
+      <c r="X183" s="7">
         <v>8.8332210395873503</v>
       </c>
-      <c r="Y183">
+      <c r="Y183" s="7">
         <v>15.0252642874835</v>
       </c>
-      <c r="Z183">
+      <c r="Z183" s="7">
         <v>22.1831059655781</v>
       </c>
-      <c r="AA183">
+      <c r="AA183" s="7">
         <v>26.386791655744201</v>
       </c>
-      <c r="AB183" s="1" t="s">
+      <c r="AB183" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="AC183">
+      <c r="AC183" s="7">
         <v>19.0546238665011</v>
       </c>
-      <c r="AD183">
+      <c r="AD183" s="7">
         <v>9.6905530990546591</v>
       </c>
-      <c r="AE183">
+      <c r="AE183" s="7">
         <v>18.9667386646503</v>
       </c>
-      <c r="AF183">
+      <c r="AF183" s="7">
         <v>25.762929487471101</v>
       </c>
-      <c r="AG183">
+      <c r="AG183" s="7">
         <v>31.855244334581901</v>
       </c>
     </row>
     <row r="184" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P184" s="1" t="s">
+      <c r="P184" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="Q184">
+      <c r="Q184" s="7">
         <v>4.7826303600404598</v>
       </c>
-      <c r="R184">
+      <c r="R184" s="7">
         <v>2.5805897190923202</v>
       </c>
-      <c r="S184">
+      <c r="S184" s="7">
         <v>2.0807200664952301</v>
       </c>
-      <c r="T184">
+      <c r="T184" s="7">
         <v>2.1860812082373799</v>
       </c>
-      <c r="U184">
+      <c r="U184" s="7">
         <v>2.43139429836629</v>
       </c>
-      <c r="V184" s="1" t="s">
+      <c r="V184" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="W184">
+      <c r="W184" s="7">
         <v>11.534409186856101</v>
       </c>
-      <c r="X184">
+      <c r="X184" s="7">
         <v>5.86931607692593</v>
       </c>
-      <c r="Y184">
+      <c r="Y184" s="7">
         <v>11.6823047442844</v>
       </c>
-      <c r="Z184">
+      <c r="Z184" s="7">
         <v>21.487679101303399</v>
       </c>
-      <c r="AA184">
+      <c r="AA184" s="7">
         <v>20.825976468141501</v>
       </c>
-      <c r="AB184" s="1" t="s">
+      <c r="AB184" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="AC184">
+      <c r="AC184" s="7">
         <v>14.976013911425801</v>
       </c>
-      <c r="AD184">
+      <c r="AD184" s="7">
         <v>7.1617412679877797</v>
       </c>
-      <c r="AE184">
+      <c r="AE184" s="7">
         <v>12.1149425785388</v>
       </c>
-      <c r="AF184">
+      <c r="AF184" s="7">
         <v>19.83353084034</v>
       </c>
-      <c r="AG184">
+      <c r="AG184" s="7">
         <v>22.991620936753701</v>
       </c>
     </row>
     <row r="185" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P185" s="1" t="s">
+      <c r="P185" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="Q185">
+      <c r="Q185" s="7">
         <v>4.3489093063712803</v>
       </c>
-      <c r="R185">
+      <c r="R185" s="7">
         <v>13.613107243777</v>
       </c>
-      <c r="S185">
+      <c r="S185" s="7">
         <v>2.68082362227128</v>
       </c>
-      <c r="T185">
+      <c r="T185" s="7">
         <v>1.3846432705716001</v>
       </c>
-      <c r="U185">
+      <c r="U185" s="7">
         <v>3.0989463163679498</v>
       </c>
-      <c r="V185" s="1" t="s">
+      <c r="V185" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="W185">
+      <c r="W185" s="7">
         <v>13.988334449049299</v>
       </c>
-      <c r="X185">
+      <c r="X185" s="7">
         <v>4.1533520946935996</v>
       </c>
-      <c r="Y185">
+      <c r="Y185" s="7">
         <v>18.536411698480698</v>
       </c>
-      <c r="Z185">
+      <c r="Z185" s="7">
         <v>26.460811649086001</v>
       </c>
-      <c r="AA185">
+      <c r="AA185" s="7">
         <v>31.626035106419</v>
       </c>
-      <c r="AB185" s="1" t="s">
+      <c r="AB185" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="AC185">
+      <c r="AC185" s="7">
         <v>16.948412036445198</v>
       </c>
-      <c r="AD185">
+      <c r="AD185" s="7">
         <v>14.776773753737899</v>
       </c>
-      <c r="AE185">
+      <c r="AE185" s="7">
         <v>20.376657054899699</v>
       </c>
-      <c r="AF185">
+      <c r="AF185" s="7">
         <v>26.3416575134626</v>
       </c>
-      <c r="AG185">
+      <c r="AG185" s="7">
         <v>34.604238565355203</v>
       </c>
     </row>
     <row r="186" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P186" s="1" t="s">
+      <c r="P186" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="Q186" s="1">
+      <c r="Q186" s="6">
         <f>AVERAGE(Q168:Q185)</f>
         <v>3.2648995426326719</v>
       </c>
-      <c r="R186" s="1">
+      <c r="R186" s="6">
         <f>AVERAGE(R168:R185)</f>
         <v>2.3719496240386095</v>
       </c>
-      <c r="S186" s="1">
+      <c r="S186" s="6">
         <f>AVERAGE(S168:S185)</f>
         <v>1.7706745865251208</v>
       </c>
-      <c r="T186" s="1">
+      <c r="T186" s="6">
         <f>AVERAGE(T168:T185)</f>
         <v>1.9023579600458957</v>
       </c>
-      <c r="U186" s="1">
+      <c r="U186" s="6">
         <f>AVERAGE(U168:U185)</f>
         <v>1.9724422561807526</v>
       </c>
-      <c r="V186" s="1" t="s">
+      <c r="V186" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="W186" s="1">
+      <c r="W186" s="6">
         <f>AVERAGE(W168:W185)</f>
         <v>8.6088140841632601</v>
       </c>
-      <c r="X186" s="1">
+      <c r="X186" s="6">
         <f>AVERAGE(X168:X185)</f>
         <v>4.8143365935028282</v>
       </c>
-      <c r="Y186" s="1">
+      <c r="Y186" s="6">
         <f>AVERAGE(Y168:Y185)</f>
         <v>7.3016169898231089</v>
       </c>
-      <c r="Z186" s="1">
+      <c r="Z186" s="6">
         <f>AVERAGE(Z168:Z185)</f>
         <v>9.120246101031956</v>
       </c>
-      <c r="AA186" s="1">
+      <c r="AA186" s="6">
         <f>AVERAGE(AA168:AA185)</f>
         <v>9.6314293786276384</v>
       </c>
-      <c r="AB186" s="1" t="s">
+      <c r="AB186" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="AC186" s="1">
+      <c r="AC186" s="6">
         <f>AVERAGE(AC168:AC185)</f>
         <v>8.3465185207651942</v>
       </c>
-      <c r="AD186" s="1">
+      <c r="AD186" s="6">
         <f>AVERAGE(AD168:AD185)</f>
         <v>5.2626088946435967</v>
       </c>
-      <c r="AE186" s="1">
+      <c r="AE186" s="6">
         <f>AVERAGE(AE168:AE185)</f>
         <v>7.6215077306962371</v>
       </c>
-      <c r="AF186" s="1">
+      <c r="AF186" s="6">
         <f>AVERAGE(AF168:AF185)</f>
         <v>8.9157422993731252</v>
       </c>
-      <c r="AG186" s="1">
+      <c r="AG186" s="6">
         <f>AVERAGE(AG168:AG185)</f>
         <v>10.416703275470951</v>
       </c>
     </row>
     <row r="187" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P187" s="1" t="s">
+      <c r="P187" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="Q187" s="1">
+      <c r="Q187" s="6">
         <f>MEDIAN(Q168:Q185)</f>
         <v>2.7105038342356602</v>
       </c>
-      <c r="R187" s="1">
+      <c r="R187" s="6">
         <f>MEDIAN(R168:R185)</f>
         <v>1.781426542197535</v>
       </c>
-      <c r="S187" s="1">
+      <c r="S187" s="6">
         <f>MEDIAN(S168:S185)</f>
         <v>1.5447069927590449</v>
       </c>
-      <c r="T187" s="1">
+      <c r="T187" s="6">
         <f>MEDIAN(T168:T185)</f>
         <v>1.7254963130821901</v>
       </c>
-      <c r="U187" s="1">
+      <c r="U187" s="6">
         <f>MEDIAN(U168:U185)</f>
         <v>1.64840719806523</v>
       </c>
-      <c r="V187" s="1" t="s">
+      <c r="V187" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="W187" s="1">
+      <c r="W187" s="6">
         <f>MEDIAN(W168:W185)</f>
         <v>8.3745137247510755</v>
       </c>
-      <c r="X187" s="1">
+      <c r="X187" s="6">
         <f>MEDIAN(X168:X185)</f>
         <v>4.7067688936935799</v>
       </c>
-      <c r="Y187" s="1">
+      <c r="Y187" s="6">
         <f>MEDIAN(Y168:Y185)</f>
         <v>6.5078378146120599</v>
       </c>
-      <c r="Z187" s="1">
+      <c r="Z187" s="6">
         <f>MEDIAN(Z168:Z185)</f>
         <v>7.2361945490954902</v>
       </c>
-      <c r="AA187" s="1">
+      <c r="AA187" s="6">
         <f>MEDIAN(AA168:AA185)</f>
         <v>6.4813711535781398</v>
       </c>
-      <c r="AB187" s="1" t="s">
+      <c r="AB187" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="AC187" s="1">
+      <c r="AC187" s="6">
         <f>MEDIAN(AC168:AC185)</f>
         <v>7.1773757348741247</v>
       </c>
-      <c r="AD187" s="1">
+      <c r="AD187" s="6">
         <f>MEDIAN(AD168:AD185)</f>
         <v>4.5209967640625504</v>
       </c>
-      <c r="AE187" s="1">
+      <c r="AE187" s="6">
         <f>MEDIAN(AE168:AE185)</f>
         <v>6.8028706758783706</v>
       </c>
-      <c r="AF187" s="1">
+      <c r="AF187" s="6">
         <f>MEDIAN(AF168:AF185)</f>
         <v>7.1992567670522352</v>
       </c>
-      <c r="AG187" s="1">
+      <c r="AG187" s="6">
         <f>MEDIAN(AG168:AG185)</f>
         <v>6.6386546126010249</v>
       </c>
     </row>
     <row r="188" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P188" s="1" t="s">
+      <c r="P188" s="21" t="s">
         <v>586</v>
       </c>
-      <c r="Q188" s="20">
+      <c r="Q188" s="21">
         <v>0</v>
       </c>
-      <c r="R188" s="20">
+      <c r="R188" s="21">
         <f>(Q186-R186)/Q186*100</f>
         <v>27.349996743667855</v>
       </c>
-      <c r="S188" s="20">
+      <c r="S188" s="21">
         <f>(Q186-S186)/Q186*100</f>
         <v>45.766337879500988</v>
       </c>
-      <c r="T188" s="20">
+      <c r="T188" s="21">
         <f>(Q186-T186)/Q186*100</f>
         <v>41.733032358113</v>
       </c>
-      <c r="U188" s="20">
+      <c r="U188" s="21">
         <f>(Q186-U186)/Q186*100</f>
         <v>39.586433505079249</v>
       </c>
-      <c r="V188" s="1" t="s">
+      <c r="V188" s="21" t="s">
         <v>586</v>
       </c>
-      <c r="W188" s="20">
+      <c r="W188" s="21">
         <v>0</v>
       </c>
-      <c r="X188" s="20">
+      <c r="X188" s="21">
         <f>(W186-X186)/W186*100</f>
         <v>44.076657406747088</v>
       </c>
-      <c r="Y188" s="20">
+      <c r="Y188" s="21">
         <f>(W186-Y186)/W186*100</f>
         <v>15.184403816373102</v>
       </c>
-      <c r="Z188" s="20">
+      <c r="Z188" s="21">
         <f>(W186-Z186)/W186*100</f>
         <v>-5.9407952346133737</v>
       </c>
-      <c r="AA188" s="20">
+      <c r="AA188" s="21">
         <f>(W186-AA186)/W186*100</f>
         <v>-11.87870111338073</v>
       </c>
-      <c r="AB188" s="1" t="s">
+      <c r="AB188" s="21" t="s">
         <v>586</v>
       </c>
-      <c r="AC188" s="20">
+      <c r="AC188" s="21">
         <v>0</v>
       </c>
-      <c r="AD188" s="20">
+      <c r="AD188" s="21">
         <f>(AC186-AD186)/AC186*100</f>
         <v>36.948454837177671</v>
       </c>
-      <c r="AE188" s="20">
+      <c r="AE188" s="21">
         <f>(AC186-AE186)/AC186*100</f>
         <v>8.6863856860224082</v>
       </c>
-      <c r="AF188" s="20">
+      <c r="AF188" s="21">
         <f>(AC186-AF186)/AC186*100</f>
         <v>-6.8198947524260163</v>
       </c>
-      <c r="AG188" s="20">
+      <c r="AG188" s="21">
         <f>(AC186-AG186)/AC186*100</f>
         <v>-24.802973234353594</v>
       </c>
     </row>
     <row r="189" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P189" s="1" t="s">
+      <c r="P189" s="21" t="s">
         <v>587</v>
       </c>
-      <c r="Q189" s="20">
+      <c r="Q189" s="21">
         <v>0</v>
       </c>
-      <c r="R189" s="20">
+      <c r="R189" s="21">
+        <f>(Q187-R187)/Q187*100</f>
         <v>34.276922257153615</v>
       </c>
-      <c r="S189" s="20">
+      <c r="S189" s="21">
+        <f>(Q187-S187)/Q187*100</f>
         <v>43.010337294186506</v>
       </c>
-      <c r="T189" s="20">
+      <c r="T189" s="21">
+        <f>(Q187-T187)/Q187*100</f>
         <v>36.340384717855756</v>
       </c>
-      <c r="U189" s="20">
+      <c r="U189" s="21">
+        <f>(Q187-U187)/Q187*100</f>
         <v>39.184472744711421</v>
       </c>
-      <c r="V189" s="1" t="s">
+      <c r="V189" s="21" t="s">
         <v>587</v>
       </c>
-      <c r="W189" s="20">
+      <c r="W189" s="21">
         <v>0</v>
       </c>
-      <c r="X189" s="20">
+      <c r="X189" s="21">
+        <f>(W187-X187)/W187*100</f>
         <v>43.796511076426896</v>
       </c>
-      <c r="Y189" s="20">
+      <c r="Y189" s="21">
+        <f>(W187-Y187)/W187*100</f>
         <v>22.289961799477506</v>
       </c>
-      <c r="Z189" s="20">
+      <c r="Z189" s="21">
+        <f>(W187-Z187)/W187*100</f>
         <v>13.592659980856627</v>
       </c>
-      <c r="AA189" s="20">
+      <c r="AA189" s="21">
+        <f>(W187-AA187)/W187*100</f>
         <v>22.605999982753715</v>
       </c>
-      <c r="AB189" s="1" t="s">
+      <c r="AB189" s="21" t="s">
         <v>587</v>
       </c>
-      <c r="AC189" s="20">
+      <c r="AC189" s="21">
         <v>0</v>
       </c>
-      <c r="AD189" s="20">
+      <c r="AD189" s="21">
+        <f>(AC187-AD187)/AC187*100</f>
         <v>37.010448789862075</v>
       </c>
-      <c r="AE189" s="20">
+      <c r="AE189" s="21">
+        <f>(AC187-AE187)/AC187*100</f>
         <v>5.2178550048045125</v>
       </c>
-      <c r="AF189" s="20">
+      <c r="AF189" s="21">
+        <f>(AC187-AF187)/AC187*100</f>
         <v>-0.30486117748849023</v>
       </c>
-      <c r="AG189" s="20">
+      <c r="AG189" s="21">
+        <f>(AC187-AG187)/AC187*100</f>
         <v>7.5058230497187131</v>
       </c>
     </row>
+    <row r="190" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P190" s="20" t="s">
+        <v>582</v>
+      </c>
+      <c r="Q190" s="20"/>
+      <c r="R190" s="20"/>
+      <c r="S190" s="20"/>
+      <c r="T190" s="20"/>
+      <c r="U190" s="20"/>
+      <c r="V190" s="20" t="s">
+        <v>581</v>
+      </c>
+      <c r="W190" s="20"/>
+      <c r="X190" s="20"/>
+      <c r="Y190" s="20"/>
+      <c r="Z190" s="20"/>
+      <c r="AA190" s="20"/>
+      <c r="AB190" s="20" t="s">
+        <v>583</v>
+      </c>
+      <c r="AC190" s="20"/>
+      <c r="AD190" s="20"/>
+      <c r="AE190" s="20"/>
+      <c r="AF190" s="20"/>
+      <c r="AG190" s="20"/>
+    </row>
+    <row r="191" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P191" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="Q191" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="R191" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="S191" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="T191" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="U191" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="V191" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="W191" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="X191" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y191" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="Z191" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="AA191" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="AB191" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="AC191" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="AD191" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="AE191" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="AF191" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AG191" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="192" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P192" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="Q192" s="7">
+        <v>4.172488971021</v>
+      </c>
+      <c r="R192" s="7">
+        <v>6.1833774925781402</v>
+      </c>
+      <c r="S192" s="7">
+        <v>2.6646475456775498</v>
+      </c>
+      <c r="T192" s="7">
+        <v>3.5181522298793899</v>
+      </c>
+      <c r="U192" s="7">
+        <v>2.2640730060999701</v>
+      </c>
+      <c r="V192" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="W192" s="7">
+        <v>8.7671446552870798</v>
+      </c>
+      <c r="X192" s="7">
+        <v>5.6203922554144903</v>
+      </c>
+      <c r="Y192" s="7">
+        <v>6.6794919845374103</v>
+      </c>
+      <c r="Z192" s="7">
+        <v>9.6997965713939092</v>
+      </c>
+      <c r="AA192" s="7">
+        <v>4.7751200387648201</v>
+      </c>
+      <c r="AB192" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="AC192">
+        <v>5.3917607442728501</v>
+      </c>
+      <c r="AD192">
+        <v>4.3571417739234404</v>
+      </c>
+      <c r="AE192">
+        <v>5.2872661780624899</v>
+      </c>
+      <c r="AF192">
+        <v>6.8301316978164701</v>
+      </c>
+      <c r="AG192">
+        <v>4.6231804621880697</v>
+      </c>
+    </row>
+    <row r="193" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P193" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="Q193" s="7">
+        <v>1.13188116691742</v>
+      </c>
+      <c r="R193" s="7">
+        <v>18.916622994607099</v>
+      </c>
+      <c r="S193" s="7">
+        <v>0.87893541606793002</v>
+      </c>
+      <c r="T193" s="7">
+        <v>0.73707166162324</v>
+      </c>
+      <c r="U193" s="7">
+        <v>1.3619343059523501</v>
+      </c>
+      <c r="V193" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="W193" s="7">
+        <v>3.15720814385296</v>
+      </c>
+      <c r="X193" s="7">
+        <v>19.623476408635199</v>
+      </c>
+      <c r="Y193" s="7">
+        <v>3.8460996624572599</v>
+      </c>
+      <c r="Z193" s="7">
+        <v>3.3708490411869798</v>
+      </c>
+      <c r="AA193" s="7">
+        <v>3.3066088504950502</v>
+      </c>
+      <c r="AB193" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="AC193">
+        <v>3.3329529637831898</v>
+      </c>
+      <c r="AD193">
+        <v>4.0318467927803301</v>
+      </c>
+      <c r="AE193">
+        <v>3.4271296468480101</v>
+      </c>
+      <c r="AF193">
+        <v>3.4191700618171001</v>
+      </c>
+      <c r="AG193">
+        <v>2.3320879752506198</v>
+      </c>
+    </row>
+    <row r="194" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P194" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q194" s="7">
+        <v>5.6769436469138901</v>
+      </c>
+      <c r="R194" s="7">
+        <v>19.069043234766401</v>
+      </c>
+      <c r="S194" s="7">
+        <v>2.0728205963397999</v>
+      </c>
+      <c r="T194" s="7">
+        <v>3.1194754773581699</v>
+      </c>
+      <c r="U194" s="7">
+        <v>1.7365881336208899</v>
+      </c>
+      <c r="V194" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="W194" s="7">
+        <v>5.9434341417797896</v>
+      </c>
+      <c r="X194" s="7">
+        <v>31.4893522008778</v>
+      </c>
+      <c r="Y194" s="7">
+        <v>9.4462277607180507</v>
+      </c>
+      <c r="Z194" s="7">
+        <v>6.2951648195771304</v>
+      </c>
+      <c r="AA194" s="7">
+        <v>6.2293630758966101</v>
+      </c>
+      <c r="AB194" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="AC194" s="22">
+        <v>9.0397936373259995</v>
+      </c>
+      <c r="AD194" s="22">
+        <v>15.157188676321001</v>
+      </c>
+      <c r="AE194" s="22">
+        <v>9.5033610112191003</v>
+      </c>
+      <c r="AF194" s="22">
+        <v>8.3597109451547098</v>
+      </c>
+      <c r="AG194">
+        <v>6.91496208190937</v>
+      </c>
+    </row>
+    <row r="195" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P195" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q195" s="7">
+        <v>3.8283316116153898</v>
+      </c>
+      <c r="R195" s="7">
+        <v>4.6362280917946599</v>
+      </c>
+      <c r="S195" s="7">
+        <v>2.69846513652262</v>
+      </c>
+      <c r="T195" s="7">
+        <v>3.06911517681257</v>
+      </c>
+      <c r="U195" s="7">
+        <v>3.04245913760285</v>
+      </c>
+      <c r="V195" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="W195" s="7">
+        <v>7.5359681735631501</v>
+      </c>
+      <c r="X195" s="7">
+        <v>6.6335956986766202</v>
+      </c>
+      <c r="Y195" s="7">
+        <v>5.43040326654467</v>
+      </c>
+      <c r="Z195" s="7">
+        <v>6.1346470827805497</v>
+      </c>
+      <c r="AA195" s="7">
+        <v>5.05180011291674</v>
+      </c>
+      <c r="AB195" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="AC195">
+        <v>4.7453867572797304</v>
+      </c>
+      <c r="AD195">
+        <v>5.3855686825623996</v>
+      </c>
+      <c r="AE195">
+        <v>5.0934010134538701</v>
+      </c>
+      <c r="AF195">
+        <v>5.0036444486395002</v>
+      </c>
+      <c r="AG195">
+        <v>4.9243755058092802</v>
+      </c>
+    </row>
+    <row r="196" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P196" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q196" s="7">
+        <v>6.9307915144771997</v>
+      </c>
+      <c r="R196" s="7">
+        <v>4.8414768679470201</v>
+      </c>
+      <c r="S196" s="7">
+        <v>3.8414634449480598</v>
+      </c>
+      <c r="T196" s="7">
+        <v>4.9420002157622802</v>
+      </c>
+      <c r="U196" s="7">
+        <v>4.0438027256642304</v>
+      </c>
+      <c r="V196" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="W196" s="7">
+        <v>19.0296364902735</v>
+      </c>
+      <c r="X196" s="7">
+        <v>10.6137144271884</v>
+      </c>
+      <c r="Y196" s="7">
+        <v>13.4852419097845</v>
+      </c>
+      <c r="Z196" s="7">
+        <v>16.198179145332801</v>
+      </c>
+      <c r="AA196" s="7">
+        <v>11.8663288048112</v>
+      </c>
+      <c r="AB196" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="AC196">
+        <v>13.412906859798699</v>
+      </c>
+      <c r="AD196">
+        <v>10.483610766836</v>
+      </c>
+      <c r="AE196">
+        <v>11.984252336471799</v>
+      </c>
+      <c r="AF196">
+        <v>12.288656124143801</v>
+      </c>
+      <c r="AG196">
+        <v>11.9454747839021</v>
+      </c>
+    </row>
+    <row r="197" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P197" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="Q197" s="7">
+        <v>3.0325810735570999</v>
+      </c>
+      <c r="R197" s="7">
+        <v>1.58872180831205</v>
+      </c>
+      <c r="S197" s="7">
+        <v>2.7034990153535601</v>
+      </c>
+      <c r="T197" s="7">
+        <v>2.73808982199817</v>
+      </c>
+      <c r="U197" s="7">
+        <v>3.5000985729667602</v>
+      </c>
+      <c r="V197" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="W197" s="7">
+        <v>5.4258460485239102</v>
+      </c>
+      <c r="X197" s="7">
+        <v>2.2640007914723199</v>
+      </c>
+      <c r="Y197" s="7">
+        <v>3.0958410873789801</v>
+      </c>
+      <c r="Z197" s="7">
+        <v>3.1271100211516698</v>
+      </c>
+      <c r="AA197" s="7">
+        <v>3.7589880130939699</v>
+      </c>
+      <c r="AB197" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="AC197">
+        <v>5.19966983472239</v>
+      </c>
+      <c r="AD197">
+        <v>1.8912288835402</v>
+      </c>
+      <c r="AE197">
+        <v>1.9443788494909999</v>
+      </c>
+      <c r="AF197">
+        <v>3.4273784429226399</v>
+      </c>
+      <c r="AG197">
+        <v>1.55225342134852</v>
+      </c>
+    </row>
+    <row r="198" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P198" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="Q198" s="7">
+        <v>2.3641624800236398</v>
+      </c>
+      <c r="R198" s="7">
+        <v>2.3886432387971701</v>
+      </c>
+      <c r="S198" s="7">
+        <v>25.586581366748501</v>
+      </c>
+      <c r="T198" s="7">
+        <v>39.099165848835902</v>
+      </c>
+      <c r="U198" s="7">
+        <v>16.829402330077201</v>
+      </c>
+      <c r="V198" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="W198" s="7">
+        <v>7.3803349458860001</v>
+      </c>
+      <c r="X198" s="7">
+        <v>2.6154693842475401</v>
+      </c>
+      <c r="Y198" s="7">
+        <v>25.4379636630436</v>
+      </c>
+      <c r="Z198" s="7">
+        <v>37.958969092861501</v>
+      </c>
+      <c r="AA198" s="7">
+        <v>15.9967676732663</v>
+      </c>
+      <c r="AB198" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="AC198">
+        <v>8.7215050106119705</v>
+      </c>
+      <c r="AD198">
+        <v>2.1260708526597698</v>
+      </c>
+      <c r="AE198">
+        <v>2.6283235879693398</v>
+      </c>
+      <c r="AF198">
+        <v>3.4851501450430802</v>
+      </c>
+      <c r="AG198">
+        <v>2.90663876293454</v>
+      </c>
+    </row>
+    <row r="199" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P199" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q199" s="7">
+        <v>0.91777570281081</v>
+      </c>
+      <c r="R199" s="7">
+        <v>17.543171709775201</v>
+      </c>
+      <c r="S199" s="7">
+        <v>0.92167529270394</v>
+      </c>
+      <c r="T199" s="7">
+        <v>1.12900348868866</v>
+      </c>
+      <c r="U199" s="7">
+        <v>1.1344918003900999</v>
+      </c>
+      <c r="V199" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="W199" s="7">
+        <v>4.2535137832448999</v>
+      </c>
+      <c r="X199" s="7">
+        <v>20.847207568670601</v>
+      </c>
+      <c r="Y199" s="7">
+        <v>1.7059261489888899</v>
+      </c>
+      <c r="Z199" s="7">
+        <v>2.6661640528582198</v>
+      </c>
+      <c r="AA199" s="7">
+        <v>1.70802037319075</v>
+      </c>
+      <c r="AB199" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC199">
+        <v>4.3624856563695902</v>
+      </c>
+      <c r="AD199">
+        <v>5.0535074283576797</v>
+      </c>
+      <c r="AE199">
+        <v>1.2524905019710999</v>
+      </c>
+      <c r="AF199">
+        <v>2.7814185985885</v>
+      </c>
+      <c r="AG199">
+        <v>1.32268312004743</v>
+      </c>
+    </row>
+    <row r="200" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P200" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="Q200" s="7">
+        <v>1.8713809040681999</v>
+      </c>
+      <c r="R200" s="7">
+        <v>11.4885393352139</v>
+      </c>
+      <c r="S200" s="7">
+        <v>2.6395771408943198</v>
+      </c>
+      <c r="T200" s="7">
+        <v>2.4548808170974099</v>
+      </c>
+      <c r="U200" s="7">
+        <v>3.4961159449554402</v>
+      </c>
+      <c r="V200" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="W200" s="7">
+        <v>9.1745676564143501</v>
+      </c>
+      <c r="X200" s="7">
+        <v>10.9103619246827</v>
+      </c>
+      <c r="Y200" s="7">
+        <v>4.1856818098264403</v>
+      </c>
+      <c r="Z200" s="7">
+        <v>6.5825089398837102</v>
+      </c>
+      <c r="AA200" s="7">
+        <v>4.4343030347592398</v>
+      </c>
+      <c r="AB200" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="AC200">
+        <v>9.0283360156185299</v>
+      </c>
+      <c r="AD200">
+        <v>4.7765893294250601</v>
+      </c>
+      <c r="AE200">
+        <v>5.5905481135021002</v>
+      </c>
+      <c r="AF200">
+        <v>7.5745246374250899</v>
+      </c>
+      <c r="AG200">
+        <v>5.1131141523146502</v>
+      </c>
+    </row>
+    <row r="201" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P201" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q201" s="7">
+        <v>1.38356005115684</v>
+      </c>
+      <c r="R201" s="7">
+        <v>1.1012730716708501</v>
+      </c>
+      <c r="S201" s="7">
+        <v>2.9288086536232698</v>
+      </c>
+      <c r="T201" s="7">
+        <v>4.7487616996723698</v>
+      </c>
+      <c r="U201" s="7">
+        <v>9.0362163579130197</v>
+      </c>
+      <c r="V201" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="W201" s="7">
+        <v>4.2380598529276901</v>
+      </c>
+      <c r="X201" s="7">
+        <v>1.8561325745020301</v>
+      </c>
+      <c r="Y201" s="7">
+        <v>2.8003388310329398</v>
+      </c>
+      <c r="Z201" s="7">
+        <v>4.6340126563356501</v>
+      </c>
+      <c r="AA201" s="7">
+        <v>7.9972645099045998</v>
+      </c>
+      <c r="AB201" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="AC201">
+        <v>4.8236482685459796</v>
+      </c>
+      <c r="AD201">
+        <v>1.14871808203726</v>
+      </c>
+      <c r="AE201">
+        <v>0.9824800091857</v>
+      </c>
+      <c r="AF201">
+        <v>2.2790214340236399</v>
+      </c>
+      <c r="AG201">
+        <v>1.46891774103979</v>
+      </c>
+    </row>
+    <row r="202" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P202" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="Q202" s="7">
+        <v>1.6439659984647199</v>
+      </c>
+      <c r="R202" s="7">
+        <v>21.468181151837602</v>
+      </c>
+      <c r="S202" s="7">
+        <v>1.9965900252823401</v>
+      </c>
+      <c r="T202" s="7">
+        <v>1.51592946364029</v>
+      </c>
+      <c r="U202" s="7">
+        <v>2.0690935114434899</v>
+      </c>
+      <c r="V202" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="W202" s="7">
+        <v>5.5928062676519703</v>
+      </c>
+      <c r="X202" s="7">
+        <v>18.129987774063402</v>
+      </c>
+      <c r="Y202" s="7">
+        <v>2.6520099858387098</v>
+      </c>
+      <c r="Z202" s="7">
+        <v>3.13851993232046</v>
+      </c>
+      <c r="AA202" s="7">
+        <v>2.62752922706518</v>
+      </c>
+      <c r="AB202" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="AC202">
+        <v>6.2943713752770396</v>
+      </c>
+      <c r="AD202">
+        <v>6.2289449226256401</v>
+      </c>
+      <c r="AE202">
+        <v>2.87009816134336</v>
+      </c>
+      <c r="AF202">
+        <v>4.1157282736876697</v>
+      </c>
+      <c r="AG202">
+        <v>2.7734027749192798</v>
+      </c>
+    </row>
+    <row r="203" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P203" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q203" s="7">
+        <v>2.7296407105630598</v>
+      </c>
+      <c r="R203" s="7">
+        <v>2.1369752614350102</v>
+      </c>
+      <c r="S203" s="7">
+        <v>1.3945366745597301</v>
+      </c>
+      <c r="T203" s="7">
+        <v>1.9659710231585199</v>
+      </c>
+      <c r="U203" s="7">
+        <v>1.3911425870601499</v>
+      </c>
+      <c r="V203" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="W203" s="7">
+        <v>7.2366278368613903</v>
+      </c>
+      <c r="X203" s="7">
+        <v>3.8173374322356102</v>
+      </c>
+      <c r="Y203" s="7">
+        <v>5.7314583527410203</v>
+      </c>
+      <c r="Z203" s="7">
+        <v>7.29425510972652</v>
+      </c>
+      <c r="AA203" s="7">
+        <v>5.8197768423576397</v>
+      </c>
+      <c r="AB203" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="AC203">
+        <v>5.4397112570328296</v>
+      </c>
+      <c r="AD203">
+        <v>2.99654597435948</v>
+      </c>
+      <c r="AE203">
+        <v>5.9099006976655204</v>
+      </c>
+      <c r="AF203">
+        <v>6.3534429406951904</v>
+      </c>
+      <c r="AG203">
+        <v>5.8018676147003001</v>
+      </c>
+    </row>
+    <row r="204" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P204" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="Q204" s="7">
+        <v>4.2437648085120898</v>
+      </c>
+      <c r="R204" s="7">
+        <v>6.2714071236841598</v>
+      </c>
+      <c r="S204" s="7">
+        <v>2.7520994597623698</v>
+      </c>
+      <c r="T204" s="7">
+        <v>3.57614057588277</v>
+      </c>
+      <c r="U204" s="7">
+        <v>2.3161397526360199</v>
+      </c>
+      <c r="V204" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="W204" s="7">
+        <v>9.6584898043777905</v>
+      </c>
+      <c r="X204" s="7">
+        <v>4.8044391775909503</v>
+      </c>
+      <c r="Y204" s="7">
+        <v>7.7525291367969</v>
+      </c>
+      <c r="Z204" s="7">
+        <v>10.559656142828899</v>
+      </c>
+      <c r="AA204" s="7">
+        <v>5.7880746208190503</v>
+      </c>
+      <c r="AB204" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="AC204">
+        <v>6.0165617027053901</v>
+      </c>
+      <c r="AD204">
+        <v>4.2388542138318597</v>
+      </c>
+      <c r="AE204">
+        <v>6.2198458795416798</v>
+      </c>
+      <c r="AF204">
+        <v>7.6416796833533196</v>
+      </c>
+      <c r="AG204">
+        <v>5.5119980993110103</v>
+      </c>
+    </row>
+    <row r="205" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P205" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q205" s="7">
+        <v>3.06421108046804</v>
+      </c>
+      <c r="R205" s="7">
+        <v>1.5962321295877</v>
+      </c>
+      <c r="S205" s="7">
+        <v>2.29859159811694</v>
+      </c>
+      <c r="T205" s="7">
+        <v>2.9727873618624501</v>
+      </c>
+      <c r="U205" s="7">
+        <v>2.23598151594391</v>
+      </c>
+      <c r="V205" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="W205" s="7">
+        <v>14.2504735474208</v>
+      </c>
+      <c r="X205" s="7">
+        <v>6.9172947533906797</v>
+      </c>
+      <c r="Y205" s="7">
+        <v>8.6827257555636095</v>
+      </c>
+      <c r="Z205" s="7">
+        <v>12.703058506124901</v>
+      </c>
+      <c r="AA205" s="7">
+        <v>7.8386811875840001</v>
+      </c>
+      <c r="AB205" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="AC205">
+        <v>14.503658031963599</v>
+      </c>
+      <c r="AD205">
+        <v>6.4938281768478703</v>
+      </c>
+      <c r="AE205">
+        <v>9.5634553543896796</v>
+      </c>
+      <c r="AF205">
+        <v>13.580610661334299</v>
+      </c>
+      <c r="AG205">
+        <v>8.4937400750021208</v>
+      </c>
+    </row>
+    <row r="206" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P206" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="Q206" s="7">
+        <v>0.42787166882949002</v>
+      </c>
+      <c r="R206" s="7">
+        <v>0.53778233211363002</v>
+      </c>
+      <c r="S206" s="7">
+        <v>1.53817156895667</v>
+      </c>
+      <c r="T206" s="7">
+        <v>2.2390867449328899</v>
+      </c>
+      <c r="U206" s="7">
+        <v>3.73884013197946</v>
+      </c>
+      <c r="V206" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="W206" s="7">
+        <v>2.4366659661847798</v>
+      </c>
+      <c r="X206" s="7">
+        <v>1.48574374928237</v>
+      </c>
+      <c r="Y206" s="7">
+        <v>2.8695926589498102</v>
+      </c>
+      <c r="Z206" s="7">
+        <v>2.88244686267161</v>
+      </c>
+      <c r="AA206" s="7">
+        <v>4.2807386978691602</v>
+      </c>
+      <c r="AB206" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="AC206">
+        <v>2.64486073770132</v>
+      </c>
+      <c r="AD206">
+        <v>1.3878929288158699</v>
+      </c>
+      <c r="AE206">
+        <v>1.80803763248676</v>
+      </c>
+      <c r="AF206">
+        <v>1.5984707830448699</v>
+      </c>
+      <c r="AG206">
+        <v>1.55434764555039</v>
+      </c>
+    </row>
+    <row r="207" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P207" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q207" s="7">
+        <v>3.0430521945664299</v>
+      </c>
+      <c r="R207" s="7">
+        <v>0.94976678286000005</v>
+      </c>
+      <c r="S207" s="7">
+        <v>13.449180039010299</v>
+      </c>
+      <c r="T207" s="7">
+        <v>19.591178549944701</v>
+      </c>
+      <c r="U207" s="7">
+        <v>20.1547415041296</v>
+      </c>
+      <c r="V207" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="W207" s="7">
+        <v>2.49537645846467</v>
+      </c>
+      <c r="X207" s="7">
+        <v>1.04602888151818</v>
+      </c>
+      <c r="Y207" s="7">
+        <v>12.5210054298178</v>
+      </c>
+      <c r="Z207" s="7">
+        <v>18.2639459083553</v>
+      </c>
+      <c r="AA207" s="7">
+        <v>17.5627418738685</v>
+      </c>
+      <c r="AB207" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AC207">
+        <v>1.6421606327734499</v>
+      </c>
+      <c r="AD207">
+        <v>0.36764466936894002</v>
+      </c>
+      <c r="AE207">
+        <v>0.92817460919248995</v>
+      </c>
+      <c r="AF207">
+        <v>1.32723264158942</v>
+      </c>
+      <c r="AG207">
+        <v>2.5919996302611099</v>
+      </c>
+    </row>
+    <row r="208" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P208" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="Q208" s="7">
+        <v>2.6222575592466999</v>
+      </c>
+      <c r="R208" s="7">
+        <v>7.3219133121166697</v>
+      </c>
+      <c r="S208" s="7">
+        <v>1.4058743711008601</v>
+      </c>
+      <c r="T208" s="7">
+        <v>1.5910326763968701</v>
+      </c>
+      <c r="U208" s="7">
+        <v>1.5615691083154399</v>
+      </c>
+      <c r="V208" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="W208" s="7">
+        <v>24.179551561605201</v>
+      </c>
+      <c r="X208" s="7">
+        <v>18.597938561239001</v>
+      </c>
+      <c r="Y208" s="7">
+        <v>15.3385313422315</v>
+      </c>
+      <c r="Z208" s="7">
+        <v>18.092797240823401</v>
+      </c>
+      <c r="AA208" s="7">
+        <v>15.1549617587438</v>
+      </c>
+      <c r="AB208" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="AC208">
+        <v>22.4071157405501</v>
+      </c>
+      <c r="AD208">
+        <v>17.273016787734399</v>
+      </c>
+      <c r="AE208">
+        <v>15.7097145283554</v>
+      </c>
+      <c r="AF208">
+        <v>18.306119250903201</v>
+      </c>
+      <c r="AG208">
+        <v>15.667252327296801</v>
+      </c>
+    </row>
+    <row r="209" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P209" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="Q209" s="7">
+        <v>3.1697888660931501</v>
+      </c>
+      <c r="R209" s="7">
+        <v>4.1825268042644197</v>
+      </c>
+      <c r="S209" s="7">
+        <v>2.2026905725970001</v>
+      </c>
+      <c r="T209" s="7">
+        <v>3.2240220514587001</v>
+      </c>
+      <c r="U209" s="7">
+        <v>2.3371542092823199</v>
+      </c>
+      <c r="V209" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="W209" s="7">
+        <v>16.102056600380799</v>
+      </c>
+      <c r="X209" s="7">
+        <v>7.3510158070598699</v>
+      </c>
+      <c r="Y209" s="7">
+        <v>7.3877008379063298</v>
+      </c>
+      <c r="Z209" s="7">
+        <v>13.1484061148458</v>
+      </c>
+      <c r="AA209" s="7">
+        <v>5.6413344974331396</v>
+      </c>
+      <c r="AB209" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="AC209">
+        <v>13.9698475043707</v>
+      </c>
+      <c r="AD209">
+        <v>5.1191505248920199</v>
+      </c>
+      <c r="AE209">
+        <v>6.49686119120918</v>
+      </c>
+      <c r="AF209">
+        <v>11.241723300988401</v>
+      </c>
+      <c r="AG209">
+        <v>5.4173247224611503</v>
+      </c>
+    </row>
+    <row r="210" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P210" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="Q210" s="7">
+        <v>1.5898050277268101</v>
+      </c>
+      <c r="R210" s="7">
+        <v>4.0504462502915901</v>
+      </c>
+      <c r="S210" s="7">
+        <v>0.86982519005085002</v>
+      </c>
+      <c r="T210" s="7">
+        <v>1.2740104610109599</v>
+      </c>
+      <c r="U210" s="7">
+        <v>1.26996644186253</v>
+      </c>
+      <c r="V210" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="W210" s="7">
+        <v>3.7184756069820102</v>
+      </c>
+      <c r="X210" s="7">
+        <v>4.5550820683135997</v>
+      </c>
+      <c r="Y210" s="7">
+        <v>1.7233298742526699</v>
+      </c>
+      <c r="Z210" s="7">
+        <v>2.4651185294791</v>
+      </c>
+      <c r="AA210" s="7">
+        <v>1.5157850343849999</v>
+      </c>
+      <c r="AB210" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="AC210">
+        <v>2.80575492810673</v>
+      </c>
+      <c r="AD210">
+        <v>2.38784887789302</v>
+      </c>
+      <c r="AE210">
+        <v>1.50632491816277</v>
+      </c>
+      <c r="AF210">
+        <v>1.963804584329</v>
+      </c>
+      <c r="AG210">
+        <v>1.3102622040915399</v>
+      </c>
+    </row>
+    <row r="211" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P211" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q211" s="7">
+        <v>2.5096749547394901</v>
+      </c>
+      <c r="R211" s="7">
+        <v>1.02884180013735</v>
+      </c>
+      <c r="S211" s="7">
+        <v>1.8542549941831199</v>
+      </c>
+      <c r="T211" s="7">
+        <v>2.14260800239175</v>
+      </c>
+      <c r="U211" s="7">
+        <v>2.0373912899049</v>
+      </c>
+      <c r="V211" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="W211" s="7">
+        <v>10.1669529976653</v>
+      </c>
+      <c r="X211" s="7">
+        <v>4.2864436534535697</v>
+      </c>
+      <c r="Y211" s="7">
+        <v>5.9883257832940302</v>
+      </c>
+      <c r="Z211" s="7">
+        <v>6.3256403090497297</v>
+      </c>
+      <c r="AA211" s="7">
+        <v>5.06686713447304</v>
+      </c>
+      <c r="AB211" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="AC211">
+        <v>9.6836204948002198</v>
+      </c>
+      <c r="AD211">
+        <v>4.1493080755451901</v>
+      </c>
+      <c r="AE211">
+        <v>5.9798766718589196</v>
+      </c>
+      <c r="AF211">
+        <v>6.9401867903558996</v>
+      </c>
+      <c r="AG211">
+        <v>5.1983699714246798</v>
+      </c>
+    </row>
+    <row r="212" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P212" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="Q212" s="7">
+        <v>1.34615287403386</v>
+      </c>
+      <c r="R212" s="7">
+        <v>2.0028726978879501</v>
+      </c>
+      <c r="S212" s="7">
+        <v>1.62439583437142</v>
+      </c>
+      <c r="T212" s="7">
+        <v>1.9648155891161001</v>
+      </c>
+      <c r="U212" s="7">
+        <v>2.0783369837827599</v>
+      </c>
+      <c r="V212" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="W212" s="7">
+        <v>12.2563388194786</v>
+      </c>
+      <c r="X212" s="7">
+        <v>8.1601084952566296</v>
+      </c>
+      <c r="Y212" s="7">
+        <v>7.8868483442269399</v>
+      </c>
+      <c r="Z212" s="7">
+        <v>8.6460407247171798</v>
+      </c>
+      <c r="AA212" s="7">
+        <v>7.7058062727070604</v>
+      </c>
+      <c r="AB212" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="AC212">
+        <v>12.3241483548424</v>
+      </c>
+      <c r="AD212">
+        <v>8.9464535757434405</v>
+      </c>
+      <c r="AE212">
+        <v>8.2899503957723102</v>
+      </c>
+      <c r="AF212">
+        <v>9.7737443501081191</v>
+      </c>
+      <c r="AG212">
+        <v>7.9389150907629897</v>
+      </c>
+    </row>
+    <row r="213" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P213" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="Q213" s="7">
+        <v>2.1581341473366198</v>
+      </c>
+      <c r="R213" s="7">
+        <v>15.7333287115971</v>
+      </c>
+      <c r="S213" s="7">
+        <v>1.5895161692162001</v>
+      </c>
+      <c r="T213" s="7">
+        <v>2.4851941959659398</v>
+      </c>
+      <c r="U213" s="7">
+        <v>1.51210208837482</v>
+      </c>
+      <c r="V213" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="W213" s="7">
+        <v>13.4211607634819</v>
+      </c>
+      <c r="X213" s="7">
+        <v>20.599078108063299</v>
+      </c>
+      <c r="Y213" s="7">
+        <v>8.4306244904355392</v>
+      </c>
+      <c r="Z213" s="7">
+        <v>10.8510421653989</v>
+      </c>
+      <c r="AA213" s="7">
+        <v>5.8974797817096203</v>
+      </c>
+      <c r="AB213" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="AC213">
+        <v>12.6060742611902</v>
+      </c>
+      <c r="AD213">
+        <v>7.8409920556688197</v>
+      </c>
+      <c r="AE213">
+        <v>8.2488602726390905</v>
+      </c>
+      <c r="AF213">
+        <v>12.2863801045812</v>
+      </c>
+      <c r="AG213">
+        <v>5.90116272771981</v>
+      </c>
+    </row>
+    <row r="214" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P214" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="Q214" s="7">
+        <v>1.96192700401008</v>
+      </c>
+      <c r="R214" s="7">
+        <v>15.1254259760347</v>
+      </c>
+      <c r="S214" s="7">
+        <v>1.23140383069714</v>
+      </c>
+      <c r="T214" s="7">
+        <v>1.8076043447208701</v>
+      </c>
+      <c r="U214" s="7">
+        <v>1.4757059160389401</v>
+      </c>
+      <c r="V214" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="W214" s="7">
+        <v>3.4021755378726</v>
+      </c>
+      <c r="X214" s="7">
+        <v>18.1245716769896</v>
+      </c>
+      <c r="Y214" s="7">
+        <v>3.8231146024476401</v>
+      </c>
+      <c r="Z214" s="7">
+        <v>3.9596724633348299</v>
+      </c>
+      <c r="AA214" s="7">
+        <v>3.3342937878810899</v>
+      </c>
+      <c r="AB214" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="AC214">
+        <v>3.5874782724238998</v>
+      </c>
+      <c r="AD214">
+        <v>6.5812800909326699</v>
+      </c>
+      <c r="AE214">
+        <v>3.7942287513874202</v>
+      </c>
+      <c r="AF214">
+        <v>3.95266764445274</v>
+      </c>
+      <c r="AG214">
+        <v>3.2836713338980599</v>
+      </c>
+    </row>
+    <row r="215" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P215" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q215" s="7">
+        <v>1.1144161339032499</v>
+      </c>
+      <c r="R215" s="7">
+        <v>7.2902833052057501</v>
+      </c>
+      <c r="S215" s="7">
+        <v>1.3291824365359799</v>
+      </c>
+      <c r="T215" s="7">
+        <v>1.1955131607548199</v>
+      </c>
+      <c r="U215" s="7">
+        <v>1.5781062580474201</v>
+      </c>
+      <c r="V215" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="W215" s="7">
+        <v>12.225792031982399</v>
+      </c>
+      <c r="X215" s="7">
+        <v>7.2402385682438997</v>
+      </c>
+      <c r="Y215" s="7">
+        <v>5.5153921868105797</v>
+      </c>
+      <c r="Z215" s="7">
+        <v>6.8400973164322396</v>
+      </c>
+      <c r="AA215" s="7">
+        <v>5.3321114618334997</v>
+      </c>
+      <c r="AB215" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="AC215">
+        <v>11.9350559410613</v>
+      </c>
+      <c r="AD215">
+        <v>4.5276405098063899</v>
+      </c>
+      <c r="AE215">
+        <v>5.5166920501082899</v>
+      </c>
+      <c r="AF215">
+        <v>6.7935188815976497</v>
+      </c>
+      <c r="AG215">
+        <v>5.5301961854789496</v>
+      </c>
+    </row>
+    <row r="216" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P216" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="Q216" s="7">
+        <v>4.56497547230172</v>
+      </c>
+      <c r="R216" s="7">
+        <v>4.14251990054602</v>
+      </c>
+      <c r="S216" s="7">
+        <v>3.55671484104478</v>
+      </c>
+      <c r="T216" s="7">
+        <v>4.5343564701778796</v>
+      </c>
+      <c r="U216" s="7">
+        <v>3.74237864873434</v>
+      </c>
+      <c r="V216" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="W216" s="7">
+        <v>28.6496370131741</v>
+      </c>
+      <c r="X216" s="7">
+        <v>11.319787313478599</v>
+      </c>
+      <c r="Y216" s="7">
+        <v>16.749244093384998</v>
+      </c>
+      <c r="Z216" s="7">
+        <v>23.0249118801005</v>
+      </c>
+      <c r="AA216" s="7">
+        <v>14.881773822341801</v>
+      </c>
+      <c r="AB216" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="AC216">
+        <v>25.754841449174201</v>
+      </c>
+      <c r="AD216">
+        <v>9.8331769886644906</v>
+      </c>
+      <c r="AE216">
+        <v>15.9899794982672</v>
+      </c>
+      <c r="AF216">
+        <v>21.140976673953102</v>
+      </c>
+      <c r="AG216">
+        <v>15.3441640831883</v>
+      </c>
+    </row>
+    <row r="217" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P217" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="Q217" s="7">
+        <v>2.2865317552992899</v>
+      </c>
+      <c r="R217" s="7">
+        <v>8.1894998487103798</v>
+      </c>
+      <c r="S217" s="7">
+        <v>1.76210912930102</v>
+      </c>
+      <c r="T217" s="7">
+        <v>1.79446128248846</v>
+      </c>
+      <c r="U217" s="7">
+        <v>1.8177143925919399</v>
+      </c>
+      <c r="V217" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="W217" s="7">
+        <v>6.2110356949683103</v>
+      </c>
+      <c r="X217" s="7">
+        <v>11.319426240340301</v>
+      </c>
+      <c r="Y217" s="7">
+        <v>4.5797072563424503</v>
+      </c>
+      <c r="Z217" s="7">
+        <v>4.3376438244577997</v>
+      </c>
+      <c r="AA217" s="7">
+        <v>4.2592909534569596</v>
+      </c>
+      <c r="AB217" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="AC217">
+        <v>5.9606675809038601</v>
+      </c>
+      <c r="AD217">
+        <v>6.2087248268834898</v>
+      </c>
+      <c r="AE217">
+        <v>4.6163200725612796</v>
+      </c>
+      <c r="AF217">
+        <v>4.6020215762864698</v>
+      </c>
+      <c r="AG217">
+        <v>3.9281868856792101</v>
+      </c>
+    </row>
+    <row r="218" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P218" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q218" s="7">
+        <v>1.4699287458268999</v>
+      </c>
+      <c r="R218" s="7">
+        <v>1.1952243022442199</v>
+      </c>
+      <c r="S218" s="7">
+        <v>2.11170014175732</v>
+      </c>
+      <c r="T218" s="7">
+        <v>2.0105996630465501</v>
+      </c>
+      <c r="U218" s="7">
+        <v>2.3648846263001402</v>
+      </c>
+      <c r="V218" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="W218" s="7">
+        <v>9.1589812249189606</v>
+      </c>
+      <c r="X218" s="7">
+        <v>5.5026824123440798</v>
+      </c>
+      <c r="Y218" s="7">
+        <v>5.5951171357367899</v>
+      </c>
+      <c r="Z218" s="7">
+        <v>6.0759221266341301</v>
+      </c>
+      <c r="AA218" s="7">
+        <v>5.9353924612261597</v>
+      </c>
+      <c r="AB218" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="AC218">
+        <v>8.9348992353193299</v>
+      </c>
+      <c r="AD218">
+        <v>5.0634008323458097</v>
+      </c>
+      <c r="AE218">
+        <v>6.0146841223864698</v>
+      </c>
+      <c r="AF218">
+        <v>7.3014043578639196</v>
+      </c>
+      <c r="AG218">
+        <v>6.4495606100980698</v>
+      </c>
+    </row>
+    <row r="219" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P219" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="Q219" s="7">
+        <v>1.29394169824251</v>
+      </c>
+      <c r="R219" s="7">
+        <v>7.3120199081285699</v>
+      </c>
+      <c r="S219" s="7">
+        <v>1.5085635716199399</v>
+      </c>
+      <c r="T219" s="7">
+        <v>2.0534951518709699</v>
+      </c>
+      <c r="U219" s="7">
+        <v>1.7785018497776901</v>
+      </c>
+      <c r="V219" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="W219" s="7">
+        <v>13.9051431979958</v>
+      </c>
+      <c r="X219" s="7">
+        <v>9.0298614706797906</v>
+      </c>
+      <c r="Y219" s="7">
+        <v>8.36570354017773</v>
+      </c>
+      <c r="Z219" s="7">
+        <v>10.792331673119</v>
+      </c>
+      <c r="AA219" s="7">
+        <v>7.0776834414025602</v>
+      </c>
+      <c r="AB219" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="AC219">
+        <v>13.520528091129</v>
+      </c>
+      <c r="AD219">
+        <v>6.7215931124576898</v>
+      </c>
+      <c r="AE219">
+        <v>9.0943491331717805</v>
+      </c>
+      <c r="AF219">
+        <v>11.4632055639926</v>
+      </c>
+      <c r="AG219">
+        <v>7.8485023769445199</v>
+      </c>
+    </row>
+    <row r="220" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P220" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="Q220" s="7">
+        <v>3.5910167891787999</v>
+      </c>
+      <c r="R220" s="7">
+        <v>3.4010201038301999</v>
+      </c>
+      <c r="S220" s="7">
+        <v>2.5791454265393199</v>
+      </c>
+      <c r="T220" s="7">
+        <v>2.8487226315588101</v>
+      </c>
+      <c r="U220" s="7">
+        <v>3.3445482650074698</v>
+      </c>
+      <c r="V220" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="W220" s="7">
+        <v>24.115858260017401</v>
+      </c>
+      <c r="X220" s="7">
+        <v>10.1064371396941</v>
+      </c>
+      <c r="Y220" s="7">
+        <v>10.982328358467599</v>
+      </c>
+      <c r="Z220" s="7">
+        <v>18.323234117656401</v>
+      </c>
+      <c r="AA220" s="7">
+        <v>10.6242882345762</v>
+      </c>
+      <c r="AB220" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="AC220">
+        <v>21.596217686662101</v>
+      </c>
+      <c r="AD220">
+        <v>7.9183339218825601</v>
+      </c>
+      <c r="AE220">
+        <v>11.9448771304217</v>
+      </c>
+      <c r="AF220">
+        <v>17.570757697537701</v>
+      </c>
+      <c r="AG220">
+        <v>11.3627550169307</v>
+      </c>
+    </row>
+    <row r="221" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P221" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="Q221" s="7">
+        <v>1.34976360541639</v>
+      </c>
+      <c r="R221" s="7">
+        <v>4.32385083057655</v>
+      </c>
+      <c r="S221" s="7">
+        <v>1.0703652110364199</v>
+      </c>
+      <c r="T221" s="7">
+        <v>1.5712458684206201</v>
+      </c>
+      <c r="U221" s="7">
+        <v>1.2073563596895001</v>
+      </c>
+      <c r="V221" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="W221" s="7">
+        <v>3.7800024697402801</v>
+      </c>
+      <c r="X221" s="7">
+        <v>3.8057108771838699</v>
+      </c>
+      <c r="Y221" s="7">
+        <v>2.2902147013094698</v>
+      </c>
+      <c r="Z221" s="7">
+        <v>2.8344963499116602</v>
+      </c>
+      <c r="AA221" s="7">
+        <v>2.3096404361474701</v>
+      </c>
+      <c r="AB221" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="AC221">
+        <v>3.5551983338641202</v>
+      </c>
+      <c r="AD221">
+        <v>2.6100532871737401</v>
+      </c>
+      <c r="AE221">
+        <v>2.0058334976216101</v>
+      </c>
+      <c r="AF221">
+        <v>2.4404933414502601</v>
+      </c>
+      <c r="AG221">
+        <v>1.97391463220007</v>
+      </c>
+    </row>
+    <row r="222" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P222" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="Q222" s="7">
+        <v>2.22998770184891</v>
+      </c>
+      <c r="R222" s="7">
+        <v>3.02832041052572</v>
+      </c>
+      <c r="S222" s="7">
+        <v>1.6847672630872801</v>
+      </c>
+      <c r="T222" s="7">
+        <v>3.4100469322865101</v>
+      </c>
+      <c r="U222" s="7">
+        <v>2.2536740997183</v>
+      </c>
+      <c r="V222" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="W222" s="7">
+        <v>8.4016664247476793</v>
+      </c>
+      <c r="X222" s="7">
+        <v>6.2555199056010498</v>
+      </c>
+      <c r="Y222" s="7">
+        <v>5.34973183098022</v>
+      </c>
+      <c r="Z222" s="7">
+        <v>9.1917666658723203</v>
+      </c>
+      <c r="AA222" s="7">
+        <v>6.9823601329037999</v>
+      </c>
+      <c r="AB222" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="AC222">
+        <v>7.2092584929818297</v>
+      </c>
+      <c r="AD222">
+        <v>4.3972208922695097</v>
+      </c>
+      <c r="AE222">
+        <v>4.5812237635230897</v>
+      </c>
+      <c r="AF222">
+        <v>6.8318648488800697</v>
+      </c>
+      <c r="AG222">
+        <v>5.9805988181354</v>
+      </c>
+    </row>
+    <row r="223" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P223" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q223" s="7">
+        <v>1.48184415938924</v>
+      </c>
+      <c r="R223" s="7">
+        <v>1.28830895728577</v>
+      </c>
+      <c r="S223" s="7">
+        <v>2.3449533890685901</v>
+      </c>
+      <c r="T223" s="7">
+        <v>2.6727355839744198</v>
+      </c>
+      <c r="U223" s="7">
+        <v>2.9345136092076598</v>
+      </c>
+      <c r="V223" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="W223" s="7">
+        <v>9.0532590100385697</v>
+      </c>
+      <c r="X223" s="7">
+        <v>3.2401259134247802</v>
+      </c>
+      <c r="Y223" s="7">
+        <v>3.8021001458013401</v>
+      </c>
+      <c r="Z223" s="7">
+        <v>4.6992224651040901</v>
+      </c>
+      <c r="AA223" s="7">
+        <v>3.4242009993060201</v>
+      </c>
+      <c r="AB223" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC223">
+        <v>8.9447926393074404</v>
+      </c>
+      <c r="AD223">
+        <v>3.07923172301936</v>
+      </c>
+      <c r="AE223">
+        <v>3.1879869522610802</v>
+      </c>
+      <c r="AF223">
+        <v>4.5851955680438801</v>
+      </c>
+      <c r="AG223">
+        <v>3.33436600250874</v>
+      </c>
+    </row>
+    <row r="224" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P224" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="Q224" s="7">
+        <v>2.1818927598336502</v>
+      </c>
+      <c r="R224" s="7">
+        <v>1.9381683915130601</v>
+      </c>
+      <c r="S224" s="7">
+        <v>1.8863905034876101</v>
+      </c>
+      <c r="T224" s="7">
+        <v>1.97781422209321</v>
+      </c>
+      <c r="U224" s="7">
+        <v>1.9809916657098301</v>
+      </c>
+      <c r="V224" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="W224" s="7">
+        <v>14.3472411484725</v>
+      </c>
+      <c r="X224" s="7">
+        <v>8.4605213462828708</v>
+      </c>
+      <c r="Y224" s="7">
+        <v>10.9393606550155</v>
+      </c>
+      <c r="Z224" s="7">
+        <v>11.950654300633801</v>
+      </c>
+      <c r="AA224" s="7">
+        <v>10.0386276043302</v>
+      </c>
+      <c r="AB224" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="AC224">
+        <v>13.281353244350401</v>
+      </c>
+      <c r="AD224">
+        <v>7.3168582881811304</v>
+      </c>
+      <c r="AE224">
+        <v>11.478803923565099</v>
+      </c>
+      <c r="AF224">
+        <v>11.8918715937263</v>
+      </c>
+      <c r="AG224">
+        <v>10.6335317069155</v>
+      </c>
+    </row>
+    <row r="225" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P225" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="Q225" s="7">
+        <v>4.2888267361660297</v>
+      </c>
+      <c r="R225" s="7">
+        <v>6.6094437957163796</v>
+      </c>
+      <c r="S225" s="7">
+        <v>3.0637777927021301</v>
+      </c>
+      <c r="T225" s="7">
+        <v>4.1290157651753603</v>
+      </c>
+      <c r="U225" s="7">
+        <v>2.6354006214790902</v>
+      </c>
+      <c r="V225" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="W225" s="7">
+        <v>13.5501360884658</v>
+      </c>
+      <c r="X225" s="7">
+        <v>7.5394959852277799</v>
+      </c>
+      <c r="Y225" s="7">
+        <v>10.33709066041</v>
+      </c>
+      <c r="Z225" s="7">
+        <v>13.572667052292701</v>
+      </c>
+      <c r="AA225" s="7">
+        <v>8.6916081547645998</v>
+      </c>
+      <c r="AB225" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="AC225">
+        <v>9.6746658809714905</v>
+      </c>
+      <c r="AD225">
+        <v>5.0912034639912598</v>
+      </c>
+      <c r="AE225">
+        <v>8.3770412367188101</v>
+      </c>
+      <c r="AF225">
+        <v>10.5190715220893</v>
+      </c>
+      <c r="AG225">
+        <v>7.7718826570072501</v>
+      </c>
+    </row>
+    <row r="226" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P226" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="Q226" s="7">
+        <v>1.3249939881322499</v>
+      </c>
+      <c r="R226" s="7">
+        <v>1.8801078308820101</v>
+      </c>
+      <c r="S226" s="7">
+        <v>0.89250058313311997</v>
+      </c>
+      <c r="T226" s="7">
+        <v>1.0997565644901901</v>
+      </c>
+      <c r="U226" s="7">
+        <v>1.12741476688035</v>
+      </c>
+      <c r="V226" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="W226" s="7">
+        <v>9.0713126669512096</v>
+      </c>
+      <c r="X226" s="7">
+        <v>6.6576831669869403</v>
+      </c>
+      <c r="Y226" s="7">
+        <v>6.8243545276044202</v>
+      </c>
+      <c r="Z226" s="7">
+        <v>7.2819064083982701</v>
+      </c>
+      <c r="AA226" s="7">
+        <v>5.6164204508937097</v>
+      </c>
+      <c r="AB226" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="AC226">
+        <v>8.1800397324881793</v>
+      </c>
+      <c r="AD226">
+        <v>5.1766333685018502</v>
+      </c>
+      <c r="AE226">
+        <v>7.0895988549648701</v>
+      </c>
+      <c r="AF226">
+        <v>7.6696267442540798</v>
+      </c>
+      <c r="AG226">
+        <v>6.1984703497571099</v>
+      </c>
+    </row>
+    <row r="227" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P227" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q227" s="7">
+        <v>1.6483710907514</v>
+      </c>
+      <c r="R227" s="7">
+        <v>1.83916213700415</v>
+      </c>
+      <c r="S227" s="7">
+        <v>1.84688910216276</v>
+      </c>
+      <c r="T227" s="7">
+        <v>2.58680017707028</v>
+      </c>
+      <c r="U227" s="7">
+        <v>1.79186155589305</v>
+      </c>
+      <c r="V227" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="W227" s="7">
+        <v>5.99309194871896</v>
+      </c>
+      <c r="X227" s="7">
+        <v>5.7562279700251597</v>
+      </c>
+      <c r="Y227" s="7">
+        <v>7.6284644064932898</v>
+      </c>
+      <c r="Z227" s="7">
+        <v>4.9589784807631103</v>
+      </c>
+      <c r="AA227" s="7">
+        <v>5.7765924950226202</v>
+      </c>
+      <c r="AB227" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="AC227">
+        <v>5.5115648115451199</v>
+      </c>
+      <c r="AD227">
+        <v>6.2158018603932401</v>
+      </c>
+      <c r="AE227">
+        <v>7.2585088690395301</v>
+      </c>
+      <c r="AF227">
+        <v>5.19966983472239</v>
+      </c>
+      <c r="AG227">
+        <v>5.7682878128428001</v>
+      </c>
+    </row>
+    <row r="228" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P228" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="Q228" s="7">
+        <v>2.5467210587242199</v>
+      </c>
+      <c r="R228" s="7">
+        <v>1.21465003708221</v>
+      </c>
+      <c r="S228" s="7">
+        <v>1.8320851034943999</v>
+      </c>
+      <c r="T228" s="7">
+        <v>2.19944091435273</v>
+      </c>
+      <c r="U228" s="7">
+        <v>2.00482249283451</v>
+      </c>
+      <c r="V228" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="W228" s="7">
+        <v>14.4063849285183</v>
+      </c>
+      <c r="X228" s="7">
+        <v>7.7608338189767503</v>
+      </c>
+      <c r="Y228" s="7">
+        <v>8.1824950298282904</v>
+      </c>
+      <c r="Z228" s="7">
+        <v>8.3883789332600092</v>
+      </c>
+      <c r="AA228" s="7">
+        <v>8.7155834111446406</v>
+      </c>
+      <c r="AB228" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="AC228">
+        <v>12.5104620941808</v>
+      </c>
+      <c r="AD228">
+        <v>7.7930415429088997</v>
+      </c>
+      <c r="AE228">
+        <v>8.7981969451768496</v>
+      </c>
+      <c r="AF228">
+        <v>9.5762373434838306</v>
+      </c>
+      <c r="AG228">
+        <v>9.3315741850038201</v>
+      </c>
+    </row>
+    <row r="229" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P229" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q229" s="7">
+        <v>2.1091004151619002</v>
+      </c>
+      <c r="R229" s="7">
+        <v>15.0926405350813</v>
+      </c>
+      <c r="S229" s="7">
+        <v>1.2426693126106301</v>
+      </c>
+      <c r="T229" s="7">
+        <v>1.8260912893993999</v>
+      </c>
+      <c r="U229" s="7">
+        <v>1.4819163740168899</v>
+      </c>
+      <c r="V229" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="W229" s="7">
+        <v>3.91916005722288</v>
+      </c>
+      <c r="X229" s="7">
+        <v>17.620008073595301</v>
+      </c>
+      <c r="Y229" s="7">
+        <v>3.67586897666818</v>
+      </c>
+      <c r="Z229" s="7">
+        <v>4.5911893821388698</v>
+      </c>
+      <c r="AA229" s="7">
+        <v>3.6019934125816699</v>
+      </c>
+      <c r="AB229" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="AC229">
+        <v>3.5651639524798902</v>
+      </c>
+      <c r="AD229">
+        <v>5.2983872307206896</v>
+      </c>
+      <c r="AE229">
+        <v>3.5754906442339198</v>
+      </c>
+      <c r="AF229">
+        <v>4.2140123819200603</v>
+      </c>
+      <c r="AG229">
+        <v>3.3756005548972099</v>
+      </c>
+    </row>
+    <row r="230" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P230" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q230" s="7">
+        <v>1.1854031128837399</v>
+      </c>
+      <c r="R230" s="7">
+        <v>3.5296343556758201</v>
+      </c>
+      <c r="S230" s="7">
+        <v>1.2488797705885699</v>
+      </c>
+      <c r="T230" s="7">
+        <v>1.2906198253705901</v>
+      </c>
+      <c r="U230" s="7">
+        <v>1.3208055397285201</v>
+      </c>
+      <c r="V230" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="W230" s="7">
+        <v>3.8275196947343302</v>
+      </c>
+      <c r="X230" s="7">
+        <v>5.0082288568207796</v>
+      </c>
+      <c r="Y230" s="7">
+        <v>2.0930687678234801</v>
+      </c>
+      <c r="Z230" s="7">
+        <v>2.0142826090567301</v>
+      </c>
+      <c r="AA230" s="7">
+        <v>2.1714938534519699</v>
+      </c>
+      <c r="AB230" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="AC230">
+        <v>3.4577085865358801</v>
+      </c>
+      <c r="AD230">
+        <v>3.33349942697693</v>
+      </c>
+      <c r="AE230">
+        <v>1.95990499443587</v>
+      </c>
+      <c r="AF230">
+        <v>1.9614215016165299</v>
+      </c>
+      <c r="AG230">
+        <v>2.02157628644943</v>
+      </c>
+    </row>
+    <row r="231" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P231" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="Q231" s="7">
+        <v>2.1127111465444299</v>
+      </c>
+      <c r="R231" s="7">
+        <v>1.1419299070381099</v>
+      </c>
+      <c r="S231" s="7">
+        <v>2.63619498238325</v>
+      </c>
+      <c r="T231" s="7">
+        <v>2.3806996297556098</v>
+      </c>
+      <c r="U231" s="7">
+        <v>1.5475594705512401</v>
+      </c>
+      <c r="V231" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="W231" s="7">
+        <v>2.1017345231415399</v>
+      </c>
+      <c r="X231" s="7">
+        <v>1.4046467224307999</v>
+      </c>
+      <c r="Y231" s="7">
+        <v>2.7514495281135201</v>
+      </c>
+      <c r="Z231" s="7">
+        <v>2.1426802170194001</v>
+      </c>
+      <c r="AA231" s="7">
+        <v>1.97391463220007</v>
+      </c>
+      <c r="AB231" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="AC231">
+        <v>2.3960813454451801</v>
+      </c>
+      <c r="AD231">
+        <v>1.6931441598947401</v>
+      </c>
+      <c r="AE231">
+        <v>1.16482194400334</v>
+      </c>
+      <c r="AF231">
+        <v>1.7399392386123</v>
+      </c>
+      <c r="AG231">
+        <v>1.3443475083426</v>
+      </c>
+    </row>
+    <row r="232" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P232" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="Q232" s="7">
+        <v>6.2532090375162097</v>
+      </c>
+      <c r="R232" s="7">
+        <v>3.74295636575554</v>
+      </c>
+      <c r="S232" s="7">
+        <v>2.9776257419150398</v>
+      </c>
+      <c r="T232" s="7">
+        <v>3.7748752311770799</v>
+      </c>
+      <c r="U232" s="7">
+        <v>2.15640099627301</v>
+      </c>
+      <c r="V232" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="W232" s="7">
+        <v>10.687187175259799</v>
+      </c>
+      <c r="X232" s="7">
+        <v>5.4987106078233001</v>
+      </c>
+      <c r="Y232" s="7">
+        <v>8.7836095903914408</v>
+      </c>
+      <c r="Z232" s="7">
+        <v>6.24533764310232</v>
+      </c>
+      <c r="AA232" s="7">
+        <v>6.5793302959861197</v>
+      </c>
+      <c r="AB232" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="AC232">
+        <v>9.7520077471852709</v>
+      </c>
+      <c r="AD232">
+        <v>5.7594776282694404</v>
+      </c>
+      <c r="AE232">
+        <v>8.4982895965441507</v>
+      </c>
+      <c r="AF232">
+        <v>6.27703986464092</v>
+      </c>
+      <c r="AG232">
+        <v>7.1718513158588504</v>
+      </c>
+    </row>
+    <row r="233" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P233" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="Q233" s="7">
+        <v>2.2679003813654499</v>
+      </c>
+      <c r="R233" s="7">
+        <v>4.6301130664425196</v>
+      </c>
+      <c r="S233" s="7">
+        <v>3.0936746485494599</v>
+      </c>
+      <c r="T233" s="7">
+        <v>2.7357789539133499</v>
+      </c>
+      <c r="U233" s="7">
+        <v>3.4216734873382499</v>
+      </c>
+      <c r="V233" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="W233" s="7">
+        <v>16.123432130165401</v>
+      </c>
+      <c r="X233" s="7">
+        <v>8.2610645447120508</v>
+      </c>
+      <c r="Y233" s="7">
+        <v>8.3649813939012105</v>
+      </c>
+      <c r="Z233" s="7">
+        <v>9.5032283549291403</v>
+      </c>
+      <c r="AA233" s="7">
+        <v>8.7708276012972899</v>
+      </c>
+      <c r="AB233" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="AC233">
+        <v>15.954810974601299</v>
+      </c>
+      <c r="AD233">
+        <v>6.6756646092719496</v>
+      </c>
+      <c r="AE233">
+        <v>8.68561434066965</v>
+      </c>
+      <c r="AF233">
+        <v>10.741998077646601</v>
+      </c>
+      <c r="AG233">
+        <v>8.6069003965305395</v>
+      </c>
+    </row>
+    <row r="234" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P234" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="Q234" s="7">
+        <v>5.3243122820472299</v>
+      </c>
+      <c r="R234" s="7">
+        <v>4.1752331268717402</v>
+      </c>
+      <c r="S234" s="7">
+        <v>1.96221586252068</v>
+      </c>
+      <c r="T234" s="7">
+        <v>3.1917421128989001</v>
+      </c>
+      <c r="U234" s="7">
+        <v>2.1350976811161</v>
+      </c>
+      <c r="V234" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="W234" s="7">
+        <v>12.7135296271342</v>
+      </c>
+      <c r="X234" s="7">
+        <v>7.1481649179894804</v>
+      </c>
+      <c r="Y234" s="7">
+        <v>6.2384050388478798</v>
+      </c>
+      <c r="Z234" s="7">
+        <v>6.1011250316841696</v>
+      </c>
+      <c r="AA234" s="7">
+        <v>7.0146400714635897</v>
+      </c>
+      <c r="AB234" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="AC234">
+        <v>8.6957243885406896</v>
+      </c>
+      <c r="AD234">
+        <v>5.6847354886511301</v>
+      </c>
+      <c r="AE234">
+        <v>5.5704197330802998</v>
+      </c>
+      <c r="AF234">
+        <v>5.13850404510237</v>
+      </c>
+      <c r="AG234">
+        <v>6.0336765694585601</v>
+      </c>
+    </row>
+    <row r="235" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P235" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="Q235" s="7">
+        <v>6.2628135829937399</v>
+      </c>
+      <c r="R235" s="7">
+        <v>6.93780370764342</v>
+      </c>
+      <c r="S235" s="7">
+        <v>4.2712785816469498</v>
+      </c>
+      <c r="T235" s="7">
+        <v>8.6602670063642702</v>
+      </c>
+      <c r="U235" s="7">
+        <v>4.5040985411922998</v>
+      </c>
+      <c r="V235" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="W235" s="7">
+        <v>9.3646484844677005</v>
+      </c>
+      <c r="X235" s="7">
+        <v>8.3165975933753202</v>
+      </c>
+      <c r="Y235" s="7">
+        <v>21.295299333242301</v>
+      </c>
+      <c r="Z235" s="7">
+        <v>8.1071751731887591</v>
+      </c>
+      <c r="AA235" s="7">
+        <v>15.6948383150594</v>
+      </c>
+      <c r="AB235" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="AC235">
+        <v>14.265927477738</v>
+      </c>
+      <c r="AD235">
+        <v>8.7406418869393701</v>
+      </c>
+      <c r="AE235">
+        <v>24.623454877773099</v>
+      </c>
+      <c r="AF235">
+        <v>14.5293664394072</v>
+      </c>
+      <c r="AG235">
+        <v>19.601144168560499</v>
+      </c>
+    </row>
+    <row r="236" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P236" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="Q236" s="7">
+        <v>3.2077737602373202</v>
+      </c>
+      <c r="R236" s="7">
+        <v>11.951665305420899</v>
+      </c>
+      <c r="S236" s="7">
+        <v>3.2800606025155301</v>
+      </c>
+      <c r="T236" s="7">
+        <v>2.3734059523629099</v>
+      </c>
+      <c r="U236" s="7">
+        <v>1.95087816597955</v>
+      </c>
+      <c r="V236" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="W236" s="7">
+        <v>11.993260930947599</v>
+      </c>
+      <c r="X236" s="7">
+        <v>21.608927461128602</v>
+      </c>
+      <c r="Y236" s="7">
+        <v>19.920982754424699</v>
+      </c>
+      <c r="Z236" s="7">
+        <v>12.0082815734989</v>
+      </c>
+      <c r="AA236" s="7">
+        <v>11.209082289290301</v>
+      </c>
+      <c r="AB236" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="AC236">
+        <v>14.6048307253019</v>
+      </c>
+      <c r="AD236">
+        <v>14.913620473135699</v>
+      </c>
+      <c r="AE236">
+        <v>16.9505784752747</v>
+      </c>
+      <c r="AF236">
+        <v>12.475943502163901</v>
+      </c>
+      <c r="AG236">
+        <v>11.682160315029</v>
+      </c>
+    </row>
+    <row r="237" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P237" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="Q237" s="7">
+        <v>3.4320001790922801</v>
+      </c>
+      <c r="R237" s="7">
+        <v>7.4463391155585796</v>
+      </c>
+      <c r="S237" s="7">
+        <v>3.8459344247852298</v>
+      </c>
+      <c r="T237" s="7">
+        <v>2.7825740326309099</v>
+      </c>
+      <c r="U237" s="7">
+        <v>1.81728110482603</v>
+      </c>
+      <c r="V237" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="W237" s="7">
+        <v>12.9243241252461</v>
+      </c>
+      <c r="X237" s="7">
+        <v>15.4957425866268</v>
+      </c>
+      <c r="Y237" s="7">
+        <v>31.2137617971621</v>
+      </c>
+      <c r="Z237" s="7">
+        <v>16.3746668197616</v>
+      </c>
+      <c r="AA237" s="7">
+        <v>21.024061191786799</v>
+      </c>
+      <c r="AB237" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="AC237">
+        <v>15.312389647022</v>
+      </c>
+      <c r="AD237">
+        <v>11.7447703972021</v>
+      </c>
+      <c r="AE237">
+        <v>27.691348904251299</v>
+      </c>
+      <c r="AF237">
+        <v>18.250947275378099</v>
+      </c>
+      <c r="AG237">
+        <v>21.350687952650201</v>
+      </c>
+    </row>
+    <row r="238" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P238" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="Q238" s="7">
+        <f>AVERAGE(Q192:Q237)</f>
+        <v>2.7249691219567147</v>
+      </c>
+      <c r="R238" s="7">
+        <f>AVERAGE(R192:R237)</f>
+        <v>6.1405150744358536</v>
+      </c>
+      <c r="S238" s="7">
+        <f>AVERAGE(S192:S237)</f>
+        <v>2.8950278773754463</v>
+      </c>
+      <c r="T238" s="7">
+        <f>AVERAGE(T192:T237)</f>
+        <v>3.8044816499966254</v>
+      </c>
+      <c r="U238" s="7">
+        <f>AVERAGE(U192:U237)</f>
+        <v>3.0765484332367463</v>
+      </c>
+      <c r="V238" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="W238" s="7">
+        <f>AVERAGE(W192:W237)</f>
+        <v>9.9205914025480642</v>
+      </c>
+      <c r="X238" s="7">
+        <f>AVERAGE(X192:X237)</f>
+        <v>9.2327264536047142</v>
+      </c>
+      <c r="Y238" s="7">
+        <f>AVERAGE(Y192:Y237)</f>
+        <v>8.2256466179946255</v>
+      </c>
+      <c r="Z238" s="7">
+        <f>AVERAGE(Z192:Z237)</f>
+        <v>9.0077865180881442</v>
+      </c>
+      <c r="AA238" s="7">
+        <f>AVERAGE(AA192:AA237)</f>
+        <v>7.1970519766622409</v>
+      </c>
+      <c r="AB238" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="AC238" s="7">
+        <f>AVERAGE(AC192:AC237)</f>
+        <v>9.27299998045339</v>
+      </c>
+      <c r="AD238" s="7">
+        <f>AVERAGE(AD192:AD237)</f>
+        <v>5.9613062622226929</v>
+      </c>
+      <c r="AE238" s="7">
+        <f>AVERAGE(AE192:AE237)</f>
+        <v>7.1672386928746326</v>
+      </c>
+      <c r="AF238" s="7">
+        <f>AVERAGE(AF192:AF237)</f>
+        <v>7.7705583786819012</v>
+      </c>
+      <c r="AG238" s="7">
+        <f>AVERAGE(AG192:AG237)</f>
+        <v>6.4606943177089349</v>
+      </c>
+    </row>
+    <row r="239" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P239" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="Q239" s="7">
+        <f>MEDIAN(Q192:Q237)</f>
+        <v>2.2772160683323701</v>
+      </c>
+      <c r="R239" s="7">
+        <f t="shared" ref="R239:U239" si="8">MEDIAN(R192:R237)</f>
+        <v>4.1788799655680799</v>
+      </c>
+      <c r="S239" s="7">
+        <f t="shared" si="8"/>
+        <v>2.03470531081107</v>
+      </c>
+      <c r="T239" s="7">
+        <f t="shared" si="8"/>
+        <v>2.4700375065316749</v>
+      </c>
+      <c r="U239" s="7">
+        <f t="shared" si="8"/>
+        <v>2.0737152476131246</v>
+      </c>
+      <c r="V239" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="W239" s="7">
+        <f>MEDIAN(W192:W237)</f>
+        <v>9.1151469459350842</v>
+      </c>
+      <c r="X239" s="7">
+        <f t="shared" ref="X239:AA239" si="9">MEDIAN(X192:X237)</f>
+        <v>7.2956271876518848</v>
+      </c>
+      <c r="Y239" s="7">
+        <f t="shared" si="9"/>
+        <v>6.7519232560709153</v>
+      </c>
+      <c r="Z239" s="7">
+        <f t="shared" si="9"/>
+        <v>7.0610018624152548</v>
+      </c>
+      <c r="AA239" s="7">
+        <f t="shared" si="9"/>
+        <v>5.8586283120336304</v>
+      </c>
+      <c r="AB239" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="AC239" s="7">
+        <f>MEDIAN(AC192:AC237)</f>
+        <v>8.8282021229656493</v>
+      </c>
+      <c r="AD239" s="7">
+        <f t="shared" ref="AD239:AG239" si="10">MEDIAN(AD192:AD237)</f>
+        <v>5.2375102996112695</v>
+      </c>
+      <c r="AE239" s="7">
+        <f t="shared" si="10"/>
+        <v>5.94488868476222</v>
+      </c>
+      <c r="AF239" s="7">
+        <f t="shared" si="10"/>
+        <v>6.8309982733482695</v>
+      </c>
+      <c r="AG239" s="7">
+        <f t="shared" si="10"/>
+        <v>5.6492419991608749</v>
+      </c>
+    </row>
+    <row r="240" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P240" s="21" t="s">
+        <v>586</v>
+      </c>
+      <c r="Q240" s="21">
+        <v>0</v>
+      </c>
+      <c r="R240" s="21">
+        <f>(Q238-R238)/Q238*100</f>
+        <v>-125.34255617643633</v>
+      </c>
+      <c r="S240" s="21">
+        <f>(Q238-S238)/Q238*100</f>
+        <v>-6.240758988733706</v>
+      </c>
+      <c r="T240" s="21">
+        <f>(Q238-T238)/Q238*100</f>
+        <v>-39.615587543419451</v>
+      </c>
+      <c r="U240" s="21">
+        <f>(Q238-U238)/Q238*100</f>
+        <v>-12.902139273694727</v>
+      </c>
+      <c r="V240" s="21" t="s">
+        <v>586</v>
+      </c>
+      <c r="W240" s="21">
+        <v>0</v>
+      </c>
+      <c r="X240" s="21">
+        <f>(W238-X238)/W238*100</f>
+        <v>6.9337091009178602</v>
+      </c>
+      <c r="Y240" s="21">
+        <f>(W238-Y238)/W238*100</f>
+        <v>17.085118374274529</v>
+      </c>
+      <c r="Z240" s="21">
+        <f>(W238-Z238)/W238*100</f>
+        <v>9.2011135971739524</v>
+      </c>
+      <c r="AA240" s="21">
+        <f>(W238-AA238)/W238*100</f>
+        <v>27.453397840639752</v>
+      </c>
+      <c r="AB240" s="21" t="s">
+        <v>586</v>
+      </c>
+      <c r="AC240" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD240" s="21">
+        <f>(AC238-AD238)/AC238*100</f>
+        <v>35.713293704426135</v>
+      </c>
+      <c r="AE240" s="21">
+        <f>(AC238-AE238)/AC238*100</f>
+        <v>22.70852250638956</v>
+      </c>
+      <c r="AF240" s="21">
+        <f>(AC238-AF238)/AC238*100</f>
+        <v>16.202325082912694</v>
+      </c>
+      <c r="AG240" s="21">
+        <f>(AC238-AG238)/AC238*100</f>
+        <v>30.327894626038287</v>
+      </c>
+    </row>
+    <row r="241" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P241" s="21" t="s">
+        <v>587</v>
+      </c>
+      <c r="Q241" s="21">
+        <v>0</v>
+      </c>
+      <c r="R241" s="21">
+        <f>(Q239-R239)/Q239*100</f>
+        <v>-83.508276780618303</v>
+      </c>
+      <c r="S241" s="21">
+        <f>(Q239-S239)/Q239*100</f>
+        <v>10.649439940887708</v>
+      </c>
+      <c r="T241" s="21">
+        <f>(Q239-T239)/Q239*100</f>
+        <v>-8.4674195339096645</v>
+      </c>
+      <c r="U241" s="21">
+        <f>(Q239-U239)/Q239*100</f>
+        <v>8.9363861229150441</v>
+      </c>
+      <c r="V241" s="21" t="s">
+        <v>587</v>
+      </c>
+      <c r="W241" s="21">
+        <v>0</v>
+      </c>
+      <c r="X241" s="21">
+        <f>(W239-X239)/W239*100</f>
+        <v>19.961496716129382</v>
+      </c>
+      <c r="Y241" s="21">
+        <f>(W239-Y239)/W239*100</f>
+        <v>25.926336721516623</v>
+      </c>
+      <c r="Z241" s="21">
+        <f>(W239-Z239)/W239*100</f>
+        <v>22.535512545257198</v>
+      </c>
+      <c r="AA241" s="21">
+        <f>(W239-AA239)/W239*100</f>
+        <v>35.726452389818071</v>
+      </c>
+      <c r="AB241" s="21" t="s">
+        <v>587</v>
+      </c>
+      <c r="AC241" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD241" s="21">
+        <f>(AC239-AD239)/AC239*100</f>
+        <v>40.672967987599293</v>
+      </c>
+      <c r="AE241" s="21">
+        <f>(AC239-AE239)/AC239*100</f>
+        <v>32.660256279166845</v>
+      </c>
+      <c r="AF241" s="21">
+        <f>(AC239-AF239)/AC239*100</f>
+        <v>22.622996413073302</v>
+      </c>
+      <c r="AG241" s="21">
+        <f>(AC239-AG239)/AC239*100</f>
+        <v>36.009145231677927</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="110">
     <mergeCell ref="AB165:AG165"/>
     <mergeCell ref="AB166:AG166"/>
+    <mergeCell ref="P190:U190"/>
+    <mergeCell ref="V190:AA190"/>
+    <mergeCell ref="AB190:AG190"/>
     <mergeCell ref="P165:U165"/>
     <mergeCell ref="P166:U166"/>
     <mergeCell ref="V165:AA165"/>

--- a/plotting/617_temp.xlsx
+++ b/plotting/617_temp.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1971" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1983" uniqueCount="618">
   <si>
     <t>.\vgg_unet2_0_3_640_640_64_256_rot_15_345_4_flip_5K\training_32_49_640_640_640_640_max_val_acc\vis\vis_log_181022_0927.txt</t>
   </si>
@@ -1861,6 +1861,18 @@
   </si>
   <si>
     <t>_46</t>
+  </si>
+  <si>
+    <t>Anchor Ice</t>
+  </si>
+  <si>
+    <t>Frazil Ice</t>
+  </si>
+  <si>
+    <t>Median MAE</t>
+  </si>
+  <si>
+    <t>% decrease over SVM</t>
   </si>
 </sst>
 </file>
@@ -2002,7 +2014,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2012,10 +2024,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2039,17 +2059,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7791,13 +7821,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -8136,13 +8166,13 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -8415,13 +8445,13 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -8754,13 +8784,13 @@
       </c>
     </row>
     <row r="71" spans="1:7" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
@@ -9168,13 +9198,13 @@
       </c>
     </row>
     <row r="100" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="9" t="s">
+      <c r="A100" s="11" t="s">
         <v>559</v>
       </c>
-      <c r="B100" s="9"/>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
-      <c r="E100" s="9"/>
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
@@ -9402,13 +9432,13 @@
       </c>
     </row>
     <row r="118" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A118" s="9" t="s">
+      <c r="A118" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="B118" s="9"/>
-      <c r="C118" s="9"/>
-      <c r="D118" s="9"/>
-      <c r="E118" s="9"/>
+      <c r="B118" s="11"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
@@ -9636,13 +9666,13 @@
       </c>
     </row>
     <row r="137" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A137" s="9" t="s">
+      <c r="A137" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="B137" s="9"/>
-      <c r="C137" s="9"/>
-      <c r="D137" s="9"/>
-      <c r="E137" s="9"/>
+      <c r="B137" s="11"/>
+      <c r="C137" s="11"/>
+      <c r="D137" s="11"/>
+      <c r="E137" s="11"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
@@ -9870,13 +9900,13 @@
       </c>
     </row>
     <row r="155" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A155" s="9" t="s">
+      <c r="A155" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="B155" s="9"/>
-      <c r="C155" s="9"/>
-      <c r="D155" s="9"/>
-      <c r="E155" s="9"/>
+      <c r="B155" s="11"/>
+      <c r="C155" s="11"/>
+      <c r="D155" s="11"/>
+      <c r="E155" s="11"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
@@ -10329,13 +10359,13 @@
       </c>
     </row>
     <row r="192" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A192" s="9" t="s">
+      <c r="A192" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="B192" s="9"/>
-      <c r="C192" s="9"/>
-      <c r="D192" s="9"/>
-      <c r="E192" s="9"/>
+      <c r="B192" s="11"/>
+      <c r="C192" s="11"/>
+      <c r="D192" s="11"/>
+      <c r="E192" s="11"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
@@ -10833,13 +10863,13 @@
       </c>
     </row>
     <row r="231" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A231" s="9" t="s">
+      <c r="A231" s="11" t="s">
         <v>404</v>
       </c>
-      <c r="B231" s="9"/>
-      <c r="C231" s="9"/>
-      <c r="D231" s="9"/>
-      <c r="E231" s="9"/>
+      <c r="B231" s="11"/>
+      <c r="C231" s="11"/>
+      <c r="D231" s="11"/>
+      <c r="E231" s="11"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
@@ -11652,13 +11682,13 @@
       </c>
     </row>
     <row r="293" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A293" s="9" t="s">
+      <c r="A293" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="B293" s="9"/>
-      <c r="C293" s="9"/>
-      <c r="D293" s="9"/>
-      <c r="E293" s="9"/>
+      <c r="B293" s="11"/>
+      <c r="C293" s="11"/>
+      <c r="D293" s="11"/>
+      <c r="E293" s="11"/>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
@@ -13022,17 +13052,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A293:E293"/>
+    <mergeCell ref="A231:E231"/>
+    <mergeCell ref="A192:E192"/>
+    <mergeCell ref="A71:E71"/>
+    <mergeCell ref="A155:E155"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A52:E52"/>
     <mergeCell ref="A100:E100"/>
     <mergeCell ref="A118:E118"/>
     <mergeCell ref="A137:E137"/>
     <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A293:E293"/>
-    <mergeCell ref="A231:E231"/>
-    <mergeCell ref="A192:E192"/>
-    <mergeCell ref="A71:E71"/>
-    <mergeCell ref="A155:E155"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
@@ -13599,10 +13629,14 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG241"/>
+  <dimension ref="A1:AG255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N165" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AE242" sqref="AE242"/>
+    <sheetView tabSelected="1" topLeftCell="M177" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="14895" ySplit="6225" topLeftCell="AA243" activePane="bottomLeft"/>
+      <selection activeCell="Z137" sqref="Z137"/>
+      <selection pane="topRight" activeCell="AC189" sqref="AC189:AG189"/>
+      <selection pane="bottomLeft" activeCell="P244" sqref="P244:T250"/>
+      <selection pane="bottomRight" activeCell="X240" sqref="X240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13618,13 +13652,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -13738,22 +13772,22 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="13" t="s">
         <v>420</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="13" t="s">
         <v>421</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -13906,14 +13940,14 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
       <c r="J17">
         <v>0.67832000000000003</v>
       </c>
@@ -13928,14 +13962,14 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="13" t="s">
         <v>444</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -14146,14 +14180,14 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="14" t="s">
         <v>420</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
       <c r="J24">
         <v>0.43318000000000001</v>
       </c>
@@ -14180,14 +14214,14 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="13" t="s">
         <v>445</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -14364,46 +14398,46 @@
       </c>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="AA33" s="10" t="s">
+      <c r="AA33" s="13" t="s">
         <v>567</v>
       </c>
-      <c r="AB33" s="10"/>
-      <c r="AC33" s="10"/>
-      <c r="AD33" s="10"/>
+      <c r="AB33" s="13"/>
+      <c r="AC33" s="13"/>
+      <c r="AD33" s="13"/>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="H34" s="10" t="s">
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="H34" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="O34" s="10" t="s">
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="O34" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="10"/>
-      <c r="T34" s="10"/>
-      <c r="U34" s="10"/>
-      <c r="V34" s="10" t="s">
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13" t="s">
         <v>507</v>
       </c>
-      <c r="W34" s="10"/>
-      <c r="X34" s="10"/>
-      <c r="Y34" s="10"/>
-      <c r="Z34" s="10"/>
+      <c r="W34" s="13"/>
+      <c r="X34" s="13"/>
+      <c r="Y34" s="13"/>
+      <c r="Z34" s="13"/>
       <c r="AA34" t="s">
         <v>327</v>
       </c>
@@ -14418,38 +14452,38 @@
       </c>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="13" t="s">
         <v>432</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="H35" s="10" t="s">
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="H35" s="13" t="s">
         <v>435</v>
       </c>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="O35" s="10" t="s">
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="O35" s="13" t="s">
         <v>435</v>
       </c>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="10"/>
-      <c r="T35" s="10"/>
-      <c r="U35" s="10"/>
-      <c r="V35" s="10" t="s">
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="13"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="13"/>
+      <c r="V35" s="13" t="s">
         <v>513</v>
       </c>
-      <c r="W35" s="10"/>
-      <c r="X35" s="10"/>
-      <c r="Y35" s="10"/>
-      <c r="Z35" s="10"/>
+      <c r="W35" s="13"/>
+      <c r="X35" s="13"/>
+      <c r="Y35" s="13"/>
+      <c r="Z35" s="13"/>
       <c r="AA35">
         <v>0.88705000000000001</v>
       </c>
@@ -14868,22 +14902,22 @@
       <c r="Z40">
         <v>0.70833999999999997</v>
       </c>
-      <c r="AA40" s="10" t="s">
+      <c r="AA40" s="13" t="s">
         <v>566</v>
       </c>
-      <c r="AB40" s="10"/>
-      <c r="AC40" s="10"/>
-      <c r="AD40" s="10"/>
+      <c r="AB40" s="13"/>
+      <c r="AC40" s="13"/>
+      <c r="AD40" s="13"/>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
       <c r="H41" s="1" t="s">
         <v>416</v>
       </c>
@@ -14952,14 +14986,14 @@
       </c>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="13" t="s">
         <v>433</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
       <c r="H42" s="1" t="s">
         <v>417</v>
       </c>
@@ -14978,22 +15012,22 @@
       <c r="M42">
         <v>0.63066</v>
       </c>
-      <c r="O42" s="10" t="s">
+      <c r="O42" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="10"/>
-      <c r="S42" s="10"/>
-      <c r="T42" s="10"/>
-      <c r="U42" s="10"/>
-      <c r="V42" s="10" t="s">
+      <c r="P42" s="13"/>
+      <c r="Q42" s="13"/>
+      <c r="R42" s="13"/>
+      <c r="S42" s="13"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="13" t="s">
         <v>511</v>
       </c>
-      <c r="W42" s="10"/>
-      <c r="X42" s="10"/>
-      <c r="Y42" s="10"/>
-      <c r="Z42" s="10"/>
+      <c r="W42" s="13"/>
+      <c r="X42" s="13"/>
+      <c r="Y42" s="13"/>
+      <c r="Z42" s="13"/>
       <c r="AA42">
         <v>0.87365000000000004</v>
       </c>
@@ -15044,22 +15078,22 @@
       <c r="M43">
         <v>0.65837000000000001</v>
       </c>
-      <c r="O43" s="10" t="s">
+      <c r="O43" s="13" t="s">
         <v>442</v>
       </c>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="10"/>
-      <c r="S43" s="10"/>
-      <c r="T43" s="10"/>
-      <c r="U43" s="10"/>
-      <c r="V43" s="10" t="s">
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13"/>
+      <c r="R43" s="13"/>
+      <c r="S43" s="13"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="13" t="s">
         <v>514</v>
       </c>
-      <c r="W43" s="10"/>
-      <c r="X43" s="10"/>
-      <c r="Y43" s="10"/>
-      <c r="Z43" s="10"/>
+      <c r="W43" s="13"/>
+      <c r="X43" s="13"/>
+      <c r="Y43" s="13"/>
+      <c r="Z43" s="13"/>
       <c r="AA43" t="s">
         <v>331</v>
       </c>
@@ -15342,21 +15376,21 @@
       <c r="Z47">
         <v>0.47498000000000001</v>
       </c>
-      <c r="AA47" s="10" t="s">
+      <c r="AA47" s="13" t="s">
         <v>565</v>
       </c>
-      <c r="AB47" s="10"/>
-      <c r="AC47" s="10"/>
-      <c r="AD47" s="10"/>
+      <c r="AB47" s="13"/>
+      <c r="AC47" s="13"/>
+      <c r="AD47" s="13"/>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="13" t="s">
         <v>506</v>
       </c>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
       <c r="F48" s="2"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
@@ -15410,13 +15444,13 @@
       </c>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="13" t="s">
         <v>505</v>
       </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
       <c r="O49" s="1" t="s">
         <v>437</v>
       </c>
@@ -15482,22 +15516,22 @@
       <c r="E50" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="O50" s="10" t="s">
+      <c r="O50" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="P50" s="10"/>
-      <c r="Q50" s="10"/>
-      <c r="R50" s="10"/>
-      <c r="S50" s="10"/>
-      <c r="T50" s="10"/>
-      <c r="U50" s="10"/>
-      <c r="V50" s="10" t="s">
+      <c r="P50" s="13"/>
+      <c r="Q50" s="13"/>
+      <c r="R50" s="13"/>
+      <c r="S50" s="13"/>
+      <c r="T50" s="13"/>
+      <c r="U50" s="13"/>
+      <c r="V50" s="13" t="s">
         <v>507</v>
       </c>
-      <c r="W50" s="10"/>
-      <c r="X50" s="10"/>
-      <c r="Y50" s="10"/>
-      <c r="Z50" s="10"/>
+      <c r="W50" s="13"/>
+      <c r="X50" s="13"/>
+      <c r="Y50" s="13"/>
+      <c r="Z50" s="13"/>
       <c r="AA50" t="s">
         <v>331</v>
       </c>
@@ -15524,22 +15558,22 @@
       <c r="E51">
         <v>0.63066</v>
       </c>
-      <c r="O51" s="10" t="s">
+      <c r="O51" s="13" t="s">
         <v>446</v>
       </c>
-      <c r="P51" s="10"/>
-      <c r="Q51" s="10"/>
-      <c r="R51" s="10"/>
-      <c r="S51" s="10"/>
-      <c r="T51" s="10"/>
-      <c r="U51" s="10"/>
-      <c r="V51" s="10" t="s">
+      <c r="P51" s="13"/>
+      <c r="Q51" s="13"/>
+      <c r="R51" s="13"/>
+      <c r="S51" s="13"/>
+      <c r="T51" s="13"/>
+      <c r="U51" s="13"/>
+      <c r="V51" s="13" t="s">
         <v>515</v>
       </c>
-      <c r="W51" s="10"/>
-      <c r="X51" s="10"/>
-      <c r="Y51" s="10"/>
-      <c r="Z51" s="10"/>
+      <c r="W51" s="13"/>
+      <c r="X51" s="13"/>
+      <c r="Y51" s="13"/>
+      <c r="Z51" s="13"/>
       <c r="AA51">
         <v>0.77363000000000004</v>
       </c>
@@ -15781,20 +15815,20 @@
       </c>
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="13" t="s">
         <v>507</v>
       </c>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10" t="s">
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13" t="s">
         <v>511</v>
       </c>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="10"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
       <c r="O56" s="1" t="s">
         <v>438</v>
       </c>
@@ -15833,20 +15867,20 @@
       </c>
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="13" t="s">
         <v>508</v>
       </c>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10" t="s">
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13" t="s">
         <v>512</v>
       </c>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
       <c r="O57" s="1" t="s">
         <v>437</v>
       </c>
@@ -15915,22 +15949,22 @@
       <c r="J58" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="O58" s="10" t="s">
+      <c r="O58" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="P58" s="10"/>
-      <c r="Q58" s="10"/>
-      <c r="R58" s="10"/>
-      <c r="S58" s="10"/>
-      <c r="T58" s="10"/>
-      <c r="U58" s="10"/>
-      <c r="V58" s="10" t="s">
+      <c r="P58" s="13"/>
+      <c r="Q58" s="13"/>
+      <c r="R58" s="13"/>
+      <c r="S58" s="13"/>
+      <c r="T58" s="13"/>
+      <c r="U58" s="13"/>
+      <c r="V58" s="13" t="s">
         <v>511</v>
       </c>
-      <c r="W58" s="10"/>
-      <c r="X58" s="10"/>
-      <c r="Y58" s="10"/>
-      <c r="Z58" s="10"/>
+      <c r="W58" s="13"/>
+      <c r="X58" s="13"/>
+      <c r="Y58" s="13"/>
+      <c r="Z58" s="13"/>
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
@@ -15963,22 +15997,22 @@
       <c r="J59">
         <v>0.76844000000000001</v>
       </c>
-      <c r="O59" s="10" t="s">
+      <c r="O59" s="13" t="s">
         <v>447</v>
       </c>
-      <c r="P59" s="10"/>
-      <c r="Q59" s="10"/>
-      <c r="R59" s="10"/>
-      <c r="S59" s="10"/>
-      <c r="T59" s="10"/>
-      <c r="U59" s="10"/>
-      <c r="V59" s="10" t="s">
+      <c r="P59" s="13"/>
+      <c r="Q59" s="13"/>
+      <c r="R59" s="13"/>
+      <c r="S59" s="13"/>
+      <c r="T59" s="13"/>
+      <c r="U59" s="13"/>
+      <c r="V59" s="13" t="s">
         <v>544</v>
       </c>
-      <c r="W59" s="10"/>
-      <c r="X59" s="10"/>
-      <c r="Y59" s="10"/>
-      <c r="Z59" s="10"/>
+      <c r="W59" s="13"/>
+      <c r="X59" s="13"/>
+      <c r="Y59" s="13"/>
+      <c r="Z59" s="13"/>
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
@@ -16291,10 +16325,10 @@
       </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="13" t="s">
         <v>444</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -16350,8 +16384,8 @@
       </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A66" s="10"/>
-      <c r="B66" s="10"/>
+      <c r="A66" s="13"/>
+      <c r="B66" s="13"/>
       <c r="C66" s="1" t="s">
         <v>412</v>
       </c>
@@ -16367,19 +16401,19 @@
       <c r="G66">
         <v>0.84930000000000005</v>
       </c>
-      <c r="O66" s="10" t="s">
+      <c r="O66" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="P66" s="10"/>
-      <c r="Q66" s="10"/>
-      <c r="R66" s="10"/>
-      <c r="S66" s="10"/>
-      <c r="T66" s="10"/>
-      <c r="U66" s="10"/>
+      <c r="P66" s="13"/>
+      <c r="Q66" s="13"/>
+      <c r="R66" s="13"/>
+      <c r="S66" s="13"/>
+      <c r="T66" s="13"/>
+      <c r="U66" s="13"/>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A67" s="10"/>
-      <c r="B67" s="10"/>
+      <c r="A67" s="13"/>
+      <c r="B67" s="13"/>
       <c r="C67" s="1" t="s">
         <v>405</v>
       </c>
@@ -16395,19 +16429,19 @@
       <c r="G67">
         <v>0.90871000000000002</v>
       </c>
-      <c r="O67" s="10" t="s">
+      <c r="O67" s="13" t="s">
         <v>448</v>
       </c>
-      <c r="P67" s="10"/>
-      <c r="Q67" s="10"/>
-      <c r="R67" s="10"/>
-      <c r="S67" s="10"/>
-      <c r="T67" s="10"/>
-      <c r="U67" s="10"/>
+      <c r="P67" s="13"/>
+      <c r="Q67" s="13"/>
+      <c r="R67" s="13"/>
+      <c r="S67" s="13"/>
+      <c r="T67" s="13"/>
+      <c r="U67" s="13"/>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A68" s="10"/>
-      <c r="B68" s="10"/>
+      <c r="A68" s="13"/>
+      <c r="B68" s="13"/>
       <c r="C68" s="1" t="s">
         <v>404</v>
       </c>
@@ -16446,8 +16480,8 @@
       </c>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A69" s="10"/>
-      <c r="B69" s="10"/>
+      <c r="A69" s="13"/>
+      <c r="B69" s="13"/>
       <c r="C69" s="1" t="s">
         <v>406</v>
       </c>
@@ -16486,8 +16520,8 @@
       </c>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A70" s="10"/>
-      <c r="B70" s="10"/>
+      <c r="A70" s="13"/>
+      <c r="B70" s="13"/>
       <c r="C70" s="1" t="s">
         <v>403</v>
       </c>
@@ -16526,10 +16560,10 @@
       </c>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A71" s="18" t="s">
+      <c r="A71" s="14" t="s">
         <v>420</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="13" t="s">
         <v>445</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -16570,8 +16604,8 @@
       </c>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A72" s="10"/>
-      <c r="B72" s="10"/>
+      <c r="A72" s="13"/>
+      <c r="B72" s="13"/>
       <c r="C72" s="1" t="s">
         <v>412</v>
       </c>
@@ -16610,8 +16644,8 @@
       </c>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A73" s="10"/>
-      <c r="B73" s="10"/>
+      <c r="A73" s="13"/>
+      <c r="B73" s="13"/>
       <c r="C73" s="1" t="s">
         <v>405</v>
       </c>
@@ -16650,8 +16684,8 @@
       </c>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A74" s="10"/>
-      <c r="B74" s="10"/>
+      <c r="A74" s="13"/>
+      <c r="B74" s="13"/>
       <c r="C74" s="1" t="s">
         <v>404</v>
       </c>
@@ -16667,19 +16701,19 @@
       <c r="G74">
         <v>0.81733</v>
       </c>
-      <c r="O74" s="10" t="s">
+      <c r="O74" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="P74" s="10"/>
-      <c r="Q74" s="10"/>
-      <c r="R74" s="10"/>
-      <c r="S74" s="10"/>
-      <c r="T74" s="10"/>
-      <c r="U74" s="10"/>
+      <c r="P74" s="13"/>
+      <c r="Q74" s="13"/>
+      <c r="R74" s="13"/>
+      <c r="S74" s="13"/>
+      <c r="T74" s="13"/>
+      <c r="U74" s="13"/>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A75" s="10"/>
-      <c r="B75" s="10"/>
+      <c r="A75" s="13"/>
+      <c r="B75" s="13"/>
       <c r="C75" s="1" t="s">
         <v>406</v>
       </c>
@@ -16695,19 +16729,19 @@
       <c r="G75">
         <v>0.77490000000000003</v>
       </c>
-      <c r="O75" s="10" t="s">
+      <c r="O75" s="13" t="s">
         <v>449</v>
       </c>
-      <c r="P75" s="10"/>
-      <c r="Q75" s="10"/>
-      <c r="R75" s="10"/>
-      <c r="S75" s="10"/>
-      <c r="T75" s="10"/>
-      <c r="U75" s="10"/>
+      <c r="P75" s="13"/>
+      <c r="Q75" s="13"/>
+      <c r="R75" s="13"/>
+      <c r="S75" s="13"/>
+      <c r="T75" s="13"/>
+      <c r="U75" s="13"/>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A76" s="10"/>
-      <c r="B76" s="10"/>
+      <c r="A76" s="13"/>
+      <c r="B76" s="13"/>
       <c r="C76" s="1" t="s">
         <v>403</v>
       </c>
@@ -16746,22 +16780,22 @@
       </c>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A77" s="10" t="s">
+      <c r="A77" s="13" t="s">
         <v>507</v>
       </c>
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10" t="s">
+      <c r="B77" s="13"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13" t="s">
         <v>511</v>
       </c>
-      <c r="H77" s="10"/>
-      <c r="I77" s="10"/>
-      <c r="J77" s="10"/>
-      <c r="K77" s="10"/>
-      <c r="L77" s="10"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="13"/>
+      <c r="K77" s="13"/>
+      <c r="L77" s="13"/>
       <c r="O77" t="s">
         <v>436</v>
       </c>
@@ -16785,22 +16819,22 @@
       </c>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A78" s="10" t="s">
+      <c r="A78" s="13" t="s">
         <v>508</v>
       </c>
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10" t="s">
+      <c r="B78" s="13"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13" t="s">
         <v>512</v>
       </c>
-      <c r="H78" s="10"/>
-      <c r="I78" s="10"/>
-      <c r="J78" s="10"/>
-      <c r="K78" s="10"/>
-      <c r="L78" s="10"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="13"/>
+      <c r="K78" s="13"/>
+      <c r="L78" s="13"/>
       <c r="O78" t="s">
         <v>440</v>
       </c>
@@ -17077,33 +17111,33 @@
       </c>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B84" s="10" t="s">
+      <c r="B84" s="13" t="s">
         <v>523</v>
       </c>
-      <c r="C84" s="10"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="10"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
-      <c r="P84" s="10" t="s">
+      <c r="P84" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="Q84" s="10"/>
-      <c r="R84" s="10"/>
-      <c r="S84" s="10"/>
-      <c r="T84" s="10"/>
-      <c r="U84" s="10"/>
-      <c r="V84" s="10"/>
-      <c r="W84" s="10"/>
-      <c r="X84" s="10"/>
+      <c r="Q84" s="13"/>
+      <c r="R84" s="13"/>
+      <c r="S84" s="13"/>
+      <c r="T84" s="13"/>
+      <c r="U84" s="13"/>
+      <c r="V84" s="13"/>
+      <c r="W84" s="13"/>
+      <c r="X84" s="13"/>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B85" s="10" t="s">
+      <c r="B85" s="13" t="s">
         <v>545</v>
       </c>
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="10"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
       <c r="F85" s="1" t="s">
         <v>522</v>
       </c>
@@ -17119,17 +17153,17 @@
       <c r="J85" t="s">
         <v>528</v>
       </c>
-      <c r="P85" s="10" t="s">
+      <c r="P85" s="13" t="s">
         <v>454</v>
       </c>
-      <c r="Q85" s="10"/>
-      <c r="R85" s="10"/>
-      <c r="S85" s="10"/>
-      <c r="T85" s="10"/>
-      <c r="U85" s="10"/>
-      <c r="V85" s="10"/>
-      <c r="W85" s="10"/>
-      <c r="X85" s="10"/>
+      <c r="Q85" s="13"/>
+      <c r="R85" s="13"/>
+      <c r="S85" s="13"/>
+      <c r="T85" s="13"/>
+      <c r="U85" s="13"/>
+      <c r="V85" s="13"/>
+      <c r="W85" s="13"/>
+      <c r="X85" s="13"/>
     </row>
     <row r="86" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
@@ -17471,54 +17505,54 @@
       </c>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B92" s="10" t="s">
+      <c r="B92" s="13" t="s">
         <v>523</v>
       </c>
-      <c r="C92" s="10"/>
-      <c r="D92" s="10"/>
-      <c r="E92" s="10"/>
-      <c r="F92" s="10" t="s">
+      <c r="C92" s="13"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="13" t="s">
         <v>523</v>
       </c>
-      <c r="G92" s="10"/>
-      <c r="H92" s="10"/>
-      <c r="I92" s="10"/>
-      <c r="P92" s="10" t="s">
+      <c r="G92" s="13"/>
+      <c r="H92" s="13"/>
+      <c r="I92" s="13"/>
+      <c r="P92" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="Q92" s="10"/>
-      <c r="R92" s="10"/>
-      <c r="S92" s="10"/>
-      <c r="T92" s="10"/>
-      <c r="U92" s="10"/>
-      <c r="V92" s="10"/>
-      <c r="W92" s="10"/>
-      <c r="X92" s="10"/>
+      <c r="Q92" s="13"/>
+      <c r="R92" s="13"/>
+      <c r="S92" s="13"/>
+      <c r="T92" s="13"/>
+      <c r="U92" s="13"/>
+      <c r="V92" s="13"/>
+      <c r="W92" s="13"/>
+      <c r="X92" s="13"/>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B93" s="10" t="s">
+      <c r="B93" s="13" t="s">
         <v>546</v>
       </c>
-      <c r="C93" s="10"/>
-      <c r="D93" s="10"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="10" t="s">
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="13" t="s">
         <v>548</v>
       </c>
-      <c r="G93" s="10"/>
-      <c r="H93" s="10"/>
-      <c r="I93" s="10"/>
-      <c r="P93" s="10" t="s">
+      <c r="G93" s="13"/>
+      <c r="H93" s="13"/>
+      <c r="I93" s="13"/>
+      <c r="P93" s="13" t="s">
         <v>462</v>
       </c>
-      <c r="Q93" s="10"/>
-      <c r="R93" s="10"/>
-      <c r="S93" s="10"/>
-      <c r="T93" s="10"/>
-      <c r="U93" s="10"/>
-      <c r="V93" s="10"/>
-      <c r="W93" s="10"/>
-      <c r="X93" s="10"/>
+      <c r="Q93" s="13"/>
+      <c r="R93" s="13"/>
+      <c r="S93" s="13"/>
+      <c r="T93" s="13"/>
+      <c r="U93" s="13"/>
+      <c r="V93" s="13"/>
+      <c r="W93" s="13"/>
+      <c r="X93" s="13"/>
     </row>
     <row r="94" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
@@ -17878,12 +17912,12 @@
       <c r="A100" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="B100" s="10" t="s">
+      <c r="B100" s="13" t="s">
         <v>523</v>
       </c>
-      <c r="C100" s="10"/>
-      <c r="D100" s="10"/>
-      <c r="E100" s="10"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="13"/>
       <c r="F100" s="1" t="s">
         <v>554</v>
       </c>
@@ -17899,26 +17933,26 @@
       <c r="J100">
         <v>0.77887333098497002</v>
       </c>
-      <c r="P100" s="10" t="s">
+      <c r="P100" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="Q100" s="10"/>
-      <c r="R100" s="10"/>
-      <c r="S100" s="10"/>
-      <c r="T100" s="10"/>
-      <c r="U100" s="10"/>
-      <c r="V100" s="10"/>
-      <c r="W100" s="10"/>
-      <c r="X100" s="10"/>
+      <c r="Q100" s="13"/>
+      <c r="R100" s="13"/>
+      <c r="S100" s="13"/>
+      <c r="T100" s="13"/>
+      <c r="U100" s="13"/>
+      <c r="V100" s="13"/>
+      <c r="W100" s="13"/>
+      <c r="X100" s="13"/>
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
-      <c r="B101" s="10" t="s">
+      <c r="B101" s="13" t="s">
         <v>547</v>
       </c>
-      <c r="C101" s="10"/>
-      <c r="D101" s="10"/>
-      <c r="E101" s="10"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="13"/>
       <c r="F101" s="1" t="s">
         <v>555</v>
       </c>
@@ -17934,17 +17968,17 @@
       <c r="J101">
         <v>1.27434722297322</v>
       </c>
-      <c r="P101" s="10" t="s">
+      <c r="P101" s="13" t="s">
         <v>455</v>
       </c>
-      <c r="Q101" s="10"/>
-      <c r="R101" s="10"/>
-      <c r="S101" s="10"/>
-      <c r="T101" s="10"/>
-      <c r="U101" s="10"/>
-      <c r="V101" s="10"/>
-      <c r="W101" s="10"/>
-      <c r="X101" s="10"/>
+      <c r="Q101" s="13"/>
+      <c r="R101" s="13"/>
+      <c r="S101" s="13"/>
+      <c r="T101" s="13"/>
+      <c r="U101" s="13"/>
+      <c r="V101" s="13"/>
+      <c r="W101" s="13"/>
+      <c r="X101" s="13"/>
     </row>
     <row r="102" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
@@ -18244,49 +18278,49 @@
       <c r="B108" s="1"/>
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A109" s="10" t="s">
+      <c r="A109" s="13" t="s">
         <v>507</v>
       </c>
-      <c r="B109" s="10"/>
-      <c r="C109" s="10"/>
-      <c r="D109" s="10"/>
-      <c r="E109" s="10"/>
-      <c r="F109" s="10"/>
-      <c r="G109" s="10" t="s">
+      <c r="B109" s="13"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="13"/>
+      <c r="E109" s="13"/>
+      <c r="F109" s="13"/>
+      <c r="G109" s="13" t="s">
         <v>511</v>
       </c>
-      <c r="H109" s="10"/>
-      <c r="I109" s="10"/>
-      <c r="J109" s="10"/>
-      <c r="K109" s="10"/>
-      <c r="L109" s="10"/>
+      <c r="H109" s="13"/>
+      <c r="I109" s="13"/>
+      <c r="J109" s="13"/>
+      <c r="K109" s="13"/>
+      <c r="L109" s="13"/>
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A110" s="10" t="s">
+      <c r="A110" s="13" t="s">
         <v>508</v>
       </c>
-      <c r="B110" s="10"/>
-      <c r="C110" s="10"/>
-      <c r="D110" s="10"/>
-      <c r="E110" s="10"/>
-      <c r="F110" s="10"/>
-      <c r="G110" s="10" t="s">
+      <c r="B110" s="13"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="13"/>
+      <c r="F110" s="13"/>
+      <c r="G110" s="13" t="s">
         <v>512</v>
       </c>
-      <c r="H110" s="10"/>
-      <c r="I110" s="10"/>
-      <c r="J110" s="10"/>
-      <c r="K110" s="10"/>
-      <c r="L110" s="10"/>
-      <c r="O110" s="10" t="s">
+      <c r="H110" s="13"/>
+      <c r="I110" s="13"/>
+      <c r="J110" s="13"/>
+      <c r="K110" s="13"/>
+      <c r="L110" s="13"/>
+      <c r="O110" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="P110" s="10"/>
-      <c r="Q110" s="10"/>
-      <c r="R110" s="10"/>
-      <c r="S110" s="10"/>
-      <c r="T110" s="10"/>
-      <c r="U110" s="10"/>
+      <c r="P110" s="13"/>
+      <c r="Q110" s="13"/>
+      <c r="R110" s="13"/>
+      <c r="S110" s="13"/>
+      <c r="T110" s="13"/>
+      <c r="U110" s="13"/>
       <c r="V110" s="2"/>
       <c r="W110" s="2"/>
     </row>
@@ -18327,15 +18361,15 @@
       <c r="L111" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="O111" s="10" t="s">
+      <c r="O111" s="13" t="s">
         <v>456</v>
       </c>
-      <c r="P111" s="10"/>
-      <c r="Q111" s="10"/>
-      <c r="R111" s="10"/>
-      <c r="S111" s="10"/>
-      <c r="T111" s="10"/>
-      <c r="U111" s="10"/>
+      <c r="P111" s="13"/>
+      <c r="Q111" s="13"/>
+      <c r="R111" s="13"/>
+      <c r="S111" s="13"/>
+      <c r="T111" s="13"/>
+      <c r="U111" s="13"/>
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
@@ -18623,59 +18657,59 @@
       <c r="A118" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="B118" s="15" t="s">
+      <c r="B118" s="19" t="s">
         <v>522</v>
       </c>
-      <c r="C118" s="16"/>
-      <c r="D118" s="16"/>
-      <c r="E118" s="16"/>
-      <c r="F118" s="17"/>
+      <c r="C118" s="20"/>
+      <c r="D118" s="20"/>
+      <c r="E118" s="20"/>
+      <c r="F118" s="21"/>
       <c r="G118" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="H118" s="11" t="s">
+      <c r="H118" s="15" t="s">
         <v>522</v>
       </c>
-      <c r="I118" s="13"/>
-      <c r="J118" s="13"/>
-      <c r="K118" s="13"/>
-      <c r="L118" s="12"/>
-      <c r="O118" s="10" t="s">
+      <c r="I118" s="17"/>
+      <c r="J118" s="17"/>
+      <c r="K118" s="17"/>
+      <c r="L118" s="16"/>
+      <c r="O118" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="P118" s="10"/>
-      <c r="Q118" s="10"/>
-      <c r="R118" s="10"/>
-      <c r="S118" s="10"/>
-      <c r="T118" s="10"/>
-      <c r="U118" s="10"/>
+      <c r="P118" s="13"/>
+      <c r="Q118" s="13"/>
+      <c r="R118" s="13"/>
+      <c r="S118" s="13"/>
+      <c r="T118" s="13"/>
+      <c r="U118" s="13"/>
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A119" s="15" t="s">
+      <c r="A119" s="19" t="s">
         <v>533</v>
       </c>
-      <c r="B119" s="16"/>
-      <c r="C119" s="16"/>
-      <c r="D119" s="16"/>
-      <c r="E119" s="16"/>
-      <c r="F119" s="17"/>
-      <c r="G119" s="15" t="s">
+      <c r="B119" s="20"/>
+      <c r="C119" s="20"/>
+      <c r="D119" s="20"/>
+      <c r="E119" s="20"/>
+      <c r="F119" s="21"/>
+      <c r="G119" s="19" t="s">
         <v>538</v>
       </c>
-      <c r="H119" s="16"/>
-      <c r="I119" s="16"/>
-      <c r="J119" s="16"/>
-      <c r="K119" s="16"/>
-      <c r="L119" s="17"/>
-      <c r="O119" s="10" t="s">
+      <c r="H119" s="20"/>
+      <c r="I119" s="20"/>
+      <c r="J119" s="20"/>
+      <c r="K119" s="20"/>
+      <c r="L119" s="21"/>
+      <c r="O119" s="13" t="s">
         <v>461</v>
       </c>
-      <c r="P119" s="10"/>
-      <c r="Q119" s="10"/>
-      <c r="R119" s="10"/>
-      <c r="S119" s="10"/>
-      <c r="T119" s="10"/>
-      <c r="U119" s="10"/>
+      <c r="P119" s="13"/>
+      <c r="Q119" s="13"/>
+      <c r="R119" s="13"/>
+      <c r="S119" s="13"/>
+      <c r="T119" s="13"/>
+      <c r="U119" s="13"/>
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
@@ -18699,15 +18733,15 @@
       <c r="G120" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="H120" s="14">
+      <c r="H120" s="18">
         <v>1</v>
       </c>
-      <c r="I120" s="14"/>
-      <c r="J120" s="14"/>
-      <c r="K120" s="14">
+      <c r="I120" s="18"/>
+      <c r="J120" s="18"/>
+      <c r="K120" s="18">
         <v>2</v>
       </c>
-      <c r="L120" s="14"/>
+      <c r="L120" s="18"/>
       <c r="O120" s="1" t="s">
         <v>472</v>
       </c>
@@ -18752,15 +18786,15 @@
       <c r="G121" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="H121" s="14">
+      <c r="H121" s="18">
         <v>1</v>
       </c>
-      <c r="I121" s="14"/>
-      <c r="J121" s="14"/>
-      <c r="K121" s="14">
+      <c r="I121" s="18"/>
+      <c r="J121" s="18"/>
+      <c r="K121" s="18">
         <v>2</v>
       </c>
-      <c r="L121" s="14"/>
+      <c r="L121" s="18"/>
       <c r="O121" s="1" t="s">
         <v>457</v>
       </c>
@@ -18805,15 +18839,15 @@
       <c r="G122" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="H122" s="14">
+      <c r="H122" s="18">
         <v>1</v>
       </c>
-      <c r="I122" s="14"/>
-      <c r="J122" s="14"/>
-      <c r="K122" s="14">
+      <c r="I122" s="18"/>
+      <c r="J122" s="18"/>
+      <c r="K122" s="18">
         <v>2</v>
       </c>
-      <c r="L122" s="14"/>
+      <c r="L122" s="18"/>
       <c r="O122" s="1" t="s">
         <v>458</v>
       </c>
@@ -18837,22 +18871,22 @@
       </c>
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A123" s="15" t="s">
+      <c r="A123" s="19" t="s">
         <v>412</v>
       </c>
-      <c r="B123" s="16"/>
-      <c r="C123" s="16"/>
-      <c r="D123" s="16"/>
-      <c r="E123" s="16"/>
-      <c r="F123" s="17"/>
-      <c r="G123" s="15" t="s">
+      <c r="B123" s="20"/>
+      <c r="C123" s="20"/>
+      <c r="D123" s="20"/>
+      <c r="E123" s="20"/>
+      <c r="F123" s="21"/>
+      <c r="G123" s="19" t="s">
         <v>537</v>
       </c>
-      <c r="H123" s="16"/>
-      <c r="I123" s="16"/>
-      <c r="J123" s="16"/>
-      <c r="K123" s="16"/>
-      <c r="L123" s="17"/>
+      <c r="H123" s="20"/>
+      <c r="I123" s="20"/>
+      <c r="J123" s="20"/>
+      <c r="K123" s="20"/>
+      <c r="L123" s="21"/>
       <c r="O123" s="1" t="s">
         <v>459</v>
       </c>
@@ -18882,14 +18916,14 @@
       <c r="B124" s="7">
         <v>1</v>
       </c>
-      <c r="C124" s="14">
+      <c r="C124" s="18">
         <v>2</v>
       </c>
-      <c r="D124" s="14"/>
-      <c r="E124" s="11">
+      <c r="D124" s="18"/>
+      <c r="E124" s="15">
         <v>3</v>
       </c>
-      <c r="F124" s="12"/>
+      <c r="F124" s="16"/>
       <c r="G124" s="6" t="s">
         <v>406</v>
       </c>
@@ -18943,10 +18977,10 @@
       <c r="D125" s="7">
         <v>3</v>
       </c>
-      <c r="E125" s="11">
+      <c r="E125" s="15">
         <v>4</v>
       </c>
-      <c r="F125" s="12"/>
+      <c r="F125" s="16"/>
       <c r="G125" s="6" t="s">
         <v>405</v>
       </c>
@@ -18988,32 +19022,32 @@
       </c>
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="O126" s="10" t="s">
+      <c r="O126" s="13" t="s">
         <v>507</v>
       </c>
-      <c r="P126" s="10"/>
-      <c r="Q126" s="10"/>
-      <c r="R126" s="10"/>
-      <c r="S126" s="10" t="s">
+      <c r="P126" s="13"/>
+      <c r="Q126" s="13"/>
+      <c r="R126" s="13"/>
+      <c r="S126" s="13" t="s">
         <v>511</v>
       </c>
-      <c r="T126" s="10"/>
-      <c r="U126" s="10"/>
-      <c r="V126" s="10"/>
+      <c r="T126" s="13"/>
+      <c r="U126" s="13"/>
+      <c r="V126" s="13"/>
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="O127" s="10" t="s">
+      <c r="O127" s="13" t="s">
         <v>541</v>
       </c>
-      <c r="P127" s="10"/>
-      <c r="Q127" s="10"/>
-      <c r="R127" s="10"/>
-      <c r="S127" s="10" t="s">
+      <c r="P127" s="13"/>
+      <c r="Q127" s="13"/>
+      <c r="R127" s="13"/>
+      <c r="S127" s="13" t="s">
         <v>542</v>
       </c>
-      <c r="T127" s="10"/>
-      <c r="U127" s="10"/>
-      <c r="V127" s="10"/>
+      <c r="T127" s="13"/>
+      <c r="U127" s="13"/>
+      <c r="V127" s="13"/>
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
@@ -19256,18 +19290,18 @@
       <c r="D134" t="s">
         <v>563</v>
       </c>
-      <c r="O134" s="10" t="s">
+      <c r="O134" s="13" t="s">
         <v>507</v>
       </c>
-      <c r="P134" s="10"/>
-      <c r="Q134" s="10"/>
-      <c r="R134" s="10"/>
-      <c r="S134" s="10" t="s">
+      <c r="P134" s="13"/>
+      <c r="Q134" s="13"/>
+      <c r="R134" s="13"/>
+      <c r="S134" s="13" t="s">
         <v>511</v>
       </c>
-      <c r="T134" s="10"/>
-      <c r="U134" s="10"/>
-      <c r="V134" s="10"/>
+      <c r="T134" s="13"/>
+      <c r="U134" s="13"/>
+      <c r="V134" s="13"/>
     </row>
     <row r="135" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A135">
@@ -19282,18 +19316,18 @@
       <c r="D135">
         <v>0.26800000000000002</v>
       </c>
-      <c r="O135" s="10" t="s">
+      <c r="O135" s="13" t="s">
         <v>543</v>
       </c>
-      <c r="P135" s="10"/>
-      <c r="Q135" s="10"/>
-      <c r="R135" s="10"/>
-      <c r="S135" s="10" t="s">
+      <c r="P135" s="13"/>
+      <c r="Q135" s="13"/>
+      <c r="R135" s="13"/>
+      <c r="S135" s="13" t="s">
         <v>544</v>
       </c>
-      <c r="T135" s="10"/>
-      <c r="U135" s="10"/>
-      <c r="V135" s="10"/>
+      <c r="T135" s="13"/>
+      <c r="U135" s="13"/>
+      <c r="V135" s="13"/>
     </row>
     <row r="136" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A136">
@@ -19464,50 +19498,50 @@
       </c>
     </row>
     <row r="142" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="O142" s="10" t="s">
+      <c r="O142" s="13" t="s">
         <v>580</v>
       </c>
-      <c r="P142" s="10"/>
-      <c r="Q142" s="10"/>
-      <c r="R142" s="10"/>
-      <c r="S142" s="10"/>
-      <c r="T142" s="10" t="s">
+      <c r="P142" s="13"/>
+      <c r="Q142" s="13"/>
+      <c r="R142" s="13"/>
+      <c r="S142" s="13"/>
+      <c r="T142" s="13" t="s">
         <v>580</v>
       </c>
-      <c r="U142" s="10"/>
-      <c r="V142" s="10"/>
-      <c r="W142" s="10"/>
-      <c r="X142" s="10"/>
-      <c r="Y142" s="10" t="s">
+      <c r="U142" s="13"/>
+      <c r="V142" s="13"/>
+      <c r="W142" s="13"/>
+      <c r="X142" s="13"/>
+      <c r="Y142" s="13" t="s">
         <v>580</v>
       </c>
-      <c r="Z142" s="10"/>
-      <c r="AA142" s="10"/>
-      <c r="AB142" s="10"/>
-      <c r="AC142" s="10"/>
+      <c r="Z142" s="13"/>
+      <c r="AA142" s="13"/>
+      <c r="AB142" s="13"/>
+      <c r="AC142" s="13"/>
     </row>
     <row r="143" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="O143" s="10" t="s">
+      <c r="O143" s="13" t="s">
         <v>582</v>
       </c>
-      <c r="P143" s="10"/>
-      <c r="Q143" s="10"/>
-      <c r="R143" s="10"/>
-      <c r="S143" s="10"/>
-      <c r="T143" s="10" t="s">
+      <c r="P143" s="13"/>
+      <c r="Q143" s="13"/>
+      <c r="R143" s="13"/>
+      <c r="S143" s="13"/>
+      <c r="T143" s="13" t="s">
         <v>581</v>
       </c>
-      <c r="U143" s="10"/>
-      <c r="V143" s="10"/>
-      <c r="W143" s="10"/>
-      <c r="X143" s="10"/>
-      <c r="Y143" s="10" t="s">
+      <c r="U143" s="13"/>
+      <c r="V143" s="13"/>
+      <c r="W143" s="13"/>
+      <c r="X143" s="13"/>
+      <c r="Y143" s="13" t="s">
         <v>579</v>
       </c>
-      <c r="Z143" s="10"/>
-      <c r="AA143" s="10"/>
-      <c r="AB143" s="10"/>
-      <c r="AC143" s="10"/>
+      <c r="Z143" s="13"/>
+      <c r="AA143" s="13"/>
+      <c r="AB143" s="13"/>
+      <c r="AC143" s="13"/>
     </row>
     <row r="144" spans="1:29" x14ac:dyDescent="0.25">
       <c r="O144" s="1" t="s">
@@ -20503,56 +20537,56 @@
       </c>
     </row>
     <row r="165" spans="15:33" x14ac:dyDescent="0.25">
-      <c r="P165" s="20" t="s">
+      <c r="P165" s="12" t="s">
         <v>580</v>
       </c>
-      <c r="Q165" s="20"/>
-      <c r="R165" s="20"/>
-      <c r="S165" s="20"/>
-      <c r="T165" s="20"/>
-      <c r="U165" s="20"/>
-      <c r="V165" s="20" t="s">
+      <c r="Q165" s="12"/>
+      <c r="R165" s="12"/>
+      <c r="S165" s="12"/>
+      <c r="T165" s="12"/>
+      <c r="U165" s="12"/>
+      <c r="V165" s="12" t="s">
         <v>580</v>
       </c>
-      <c r="W165" s="20"/>
-      <c r="X165" s="20"/>
-      <c r="Y165" s="20"/>
-      <c r="Z165" s="20"/>
-      <c r="AA165" s="20"/>
-      <c r="AB165" s="20" t="s">
+      <c r="W165" s="12"/>
+      <c r="X165" s="12"/>
+      <c r="Y165" s="12"/>
+      <c r="Z165" s="12"/>
+      <c r="AA165" s="12"/>
+      <c r="AB165" s="12" t="s">
         <v>580</v>
       </c>
-      <c r="AC165" s="20"/>
-      <c r="AD165" s="20"/>
-      <c r="AE165" s="20"/>
-      <c r="AF165" s="20"/>
-      <c r="AG165" s="20"/>
+      <c r="AC165" s="12"/>
+      <c r="AD165" s="12"/>
+      <c r="AE165" s="12"/>
+      <c r="AF165" s="12"/>
+      <c r="AG165" s="12"/>
     </row>
     <row r="166" spans="15:33" x14ac:dyDescent="0.25">
-      <c r="P166" s="20" t="s">
+      <c r="P166" s="12" t="s">
         <v>582</v>
       </c>
-      <c r="Q166" s="20"/>
-      <c r="R166" s="20"/>
-      <c r="S166" s="20"/>
-      <c r="T166" s="20"/>
-      <c r="U166" s="20"/>
-      <c r="V166" s="20" t="s">
+      <c r="Q166" s="12"/>
+      <c r="R166" s="12"/>
+      <c r="S166" s="12"/>
+      <c r="T166" s="12"/>
+      <c r="U166" s="12"/>
+      <c r="V166" s="12" t="s">
         <v>581</v>
       </c>
-      <c r="W166" s="20"/>
-      <c r="X166" s="20"/>
-      <c r="Y166" s="20"/>
-      <c r="Z166" s="20"/>
-      <c r="AA166" s="20"/>
-      <c r="AB166" s="20" t="s">
+      <c r="W166" s="12"/>
+      <c r="X166" s="12"/>
+      <c r="Y166" s="12"/>
+      <c r="Z166" s="12"/>
+      <c r="AA166" s="12"/>
+      <c r="AB166" s="12" t="s">
         <v>583</v>
       </c>
-      <c r="AC166" s="20"/>
-      <c r="AD166" s="20"/>
-      <c r="AE166" s="20"/>
-      <c r="AF166" s="20"/>
-      <c r="AG166" s="20"/>
+      <c r="AC166" s="12"/>
+      <c r="AD166" s="12"/>
+      <c r="AE166" s="12"/>
+      <c r="AF166" s="12"/>
+      <c r="AG166" s="12"/>
     </row>
     <row r="167" spans="15:33" x14ac:dyDescent="0.25">
       <c r="P167" s="6" t="s">
@@ -21761,166 +21795,166 @@
       </c>
     </row>
     <row r="188" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P188" s="21" t="s">
+      <c r="P188" s="9" t="s">
         <v>586</v>
       </c>
-      <c r="Q188" s="21">
+      <c r="Q188" s="9">
         <v>0</v>
       </c>
-      <c r="R188" s="21">
+      <c r="R188" s="9">
         <f>(Q186-R186)/Q186*100</f>
         <v>27.349996743667855</v>
       </c>
-      <c r="S188" s="21">
+      <c r="S188" s="9">
         <f>(Q186-S186)/Q186*100</f>
         <v>45.766337879500988</v>
       </c>
-      <c r="T188" s="21">
+      <c r="T188" s="9">
         <f>(Q186-T186)/Q186*100</f>
         <v>41.733032358113</v>
       </c>
-      <c r="U188" s="21">
+      <c r="U188" s="9">
         <f>(Q186-U186)/Q186*100</f>
         <v>39.586433505079249</v>
       </c>
-      <c r="V188" s="21" t="s">
+      <c r="V188" s="9" t="s">
         <v>586</v>
       </c>
-      <c r="W188" s="21">
+      <c r="W188" s="9">
         <v>0</v>
       </c>
-      <c r="X188" s="21">
+      <c r="X188" s="9">
         <f>(W186-X186)/W186*100</f>
         <v>44.076657406747088</v>
       </c>
-      <c r="Y188" s="21">
+      <c r="Y188" s="9">
         <f>(W186-Y186)/W186*100</f>
         <v>15.184403816373102</v>
       </c>
-      <c r="Z188" s="21">
+      <c r="Z188" s="9">
         <f>(W186-Z186)/W186*100</f>
         <v>-5.9407952346133737</v>
       </c>
-      <c r="AA188" s="21">
+      <c r="AA188" s="9">
         <f>(W186-AA186)/W186*100</f>
         <v>-11.87870111338073</v>
       </c>
-      <c r="AB188" s="21" t="s">
+      <c r="AB188" s="9" t="s">
         <v>586</v>
       </c>
-      <c r="AC188" s="21">
+      <c r="AC188" s="9">
         <v>0</v>
       </c>
-      <c r="AD188" s="21">
+      <c r="AD188" s="9">
         <f>(AC186-AD186)/AC186*100</f>
         <v>36.948454837177671</v>
       </c>
-      <c r="AE188" s="21">
+      <c r="AE188" s="9">
         <f>(AC186-AE186)/AC186*100</f>
         <v>8.6863856860224082</v>
       </c>
-      <c r="AF188" s="21">
+      <c r="AF188" s="9">
         <f>(AC186-AF186)/AC186*100</f>
         <v>-6.8198947524260163</v>
       </c>
-      <c r="AG188" s="21">
+      <c r="AG188" s="9">
         <f>(AC186-AG186)/AC186*100</f>
         <v>-24.802973234353594</v>
       </c>
     </row>
     <row r="189" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P189" s="21" t="s">
+      <c r="P189" s="9" t="s">
         <v>587</v>
       </c>
-      <c r="Q189" s="21">
+      <c r="Q189" s="9">
         <v>0</v>
       </c>
-      <c r="R189" s="21">
+      <c r="R189" s="9">
         <f>(Q187-R187)/Q187*100</f>
         <v>34.276922257153615</v>
       </c>
-      <c r="S189" s="21">
+      <c r="S189" s="9">
         <f>(Q187-S187)/Q187*100</f>
         <v>43.010337294186506</v>
       </c>
-      <c r="T189" s="21">
+      <c r="T189" s="9">
         <f>(Q187-T187)/Q187*100</f>
         <v>36.340384717855756</v>
       </c>
-      <c r="U189" s="21">
+      <c r="U189" s="9">
         <f>(Q187-U187)/Q187*100</f>
         <v>39.184472744711421</v>
       </c>
-      <c r="V189" s="21" t="s">
+      <c r="V189" s="9" t="s">
         <v>587</v>
       </c>
-      <c r="W189" s="21">
+      <c r="W189" s="9">
         <v>0</v>
       </c>
-      <c r="X189" s="21">
+      <c r="X189" s="9">
         <f>(W187-X187)/W187*100</f>
         <v>43.796511076426896</v>
       </c>
-      <c r="Y189" s="21">
+      <c r="Y189" s="9">
         <f>(W187-Y187)/W187*100</f>
         <v>22.289961799477506</v>
       </c>
-      <c r="Z189" s="21">
+      <c r="Z189" s="9">
         <f>(W187-Z187)/W187*100</f>
         <v>13.592659980856627</v>
       </c>
-      <c r="AA189" s="21">
+      <c r="AA189" s="9">
         <f>(W187-AA187)/W187*100</f>
         <v>22.605999982753715</v>
       </c>
-      <c r="AB189" s="21" t="s">
+      <c r="AB189" s="9" t="s">
         <v>587</v>
       </c>
-      <c r="AC189" s="21">
+      <c r="AC189" s="9">
         <v>0</v>
       </c>
-      <c r="AD189" s="21">
+      <c r="AD189" s="9">
         <f>(AC187-AD187)/AC187*100</f>
         <v>37.010448789862075</v>
       </c>
-      <c r="AE189" s="21">
+      <c r="AE189" s="9">
         <f>(AC187-AE187)/AC187*100</f>
         <v>5.2178550048045125</v>
       </c>
-      <c r="AF189" s="21">
+      <c r="AF189" s="9">
         <f>(AC187-AF187)/AC187*100</f>
         <v>-0.30486117748849023</v>
       </c>
-      <c r="AG189" s="21">
+      <c r="AG189" s="9">
         <f>(AC187-AG187)/AC187*100</f>
         <v>7.5058230497187131</v>
       </c>
     </row>
     <row r="190" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P190" s="20" t="s">
+      <c r="P190" s="12" t="s">
         <v>582</v>
       </c>
-      <c r="Q190" s="20"/>
-      <c r="R190" s="20"/>
-      <c r="S190" s="20"/>
-      <c r="T190" s="20"/>
-      <c r="U190" s="20"/>
-      <c r="V190" s="20" t="s">
+      <c r="Q190" s="12"/>
+      <c r="R190" s="12"/>
+      <c r="S190" s="12"/>
+      <c r="T190" s="12"/>
+      <c r="U190" s="12"/>
+      <c r="V190" s="12" t="s">
         <v>581</v>
       </c>
-      <c r="W190" s="20"/>
-      <c r="X190" s="20"/>
-      <c r="Y190" s="20"/>
-      <c r="Z190" s="20"/>
-      <c r="AA190" s="20"/>
-      <c r="AB190" s="20" t="s">
+      <c r="W190" s="12"/>
+      <c r="X190" s="12"/>
+      <c r="Y190" s="12"/>
+      <c r="Z190" s="12"/>
+      <c r="AA190" s="12"/>
+      <c r="AB190" s="12" t="s">
         <v>583</v>
       </c>
-      <c r="AC190" s="20"/>
-      <c r="AD190" s="20"/>
-      <c r="AE190" s="20"/>
-      <c r="AF190" s="20"/>
-      <c r="AG190" s="20"/>
+      <c r="AC190" s="12"/>
+      <c r="AD190" s="12"/>
+      <c r="AE190" s="12"/>
+      <c r="AF190" s="12"/>
+      <c r="AG190" s="12"/>
     </row>
     <row r="191" spans="16:33" x14ac:dyDescent="0.25">
       <c r="P191" s="6" t="s">
@@ -22130,16 +22164,16 @@
       <c r="AB194" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="AC194" s="22">
+      <c r="AC194" s="10">
         <v>9.0397936373259995</v>
       </c>
-      <c r="AD194" s="22">
+      <c r="AD194" s="10">
         <v>15.157188676321001</v>
       </c>
-      <c r="AE194" s="22">
+      <c r="AE194" s="10">
         <v>9.5033610112191003</v>
       </c>
-      <c r="AF194" s="22">
+      <c r="AF194" s="10">
         <v>8.3597109451547098</v>
       </c>
       <c r="AG194">
@@ -24697,218 +24731,373 @@
       </c>
     </row>
     <row r="240" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P240" s="21" t="s">
+      <c r="P240" s="9" t="s">
         <v>586</v>
       </c>
-      <c r="Q240" s="21">
+      <c r="Q240" s="9">
         <v>0</v>
       </c>
-      <c r="R240" s="21">
+      <c r="R240" s="9">
         <f>(Q238-R238)/Q238*100</f>
         <v>-125.34255617643633</v>
       </c>
-      <c r="S240" s="21">
+      <c r="S240" s="9">
         <f>(Q238-S238)/Q238*100</f>
         <v>-6.240758988733706</v>
       </c>
-      <c r="T240" s="21">
+      <c r="T240" s="9">
         <f>(Q238-T238)/Q238*100</f>
         <v>-39.615587543419451</v>
       </c>
-      <c r="U240" s="21">
+      <c r="U240" s="9">
         <f>(Q238-U238)/Q238*100</f>
         <v>-12.902139273694727</v>
       </c>
-      <c r="V240" s="21" t="s">
+      <c r="V240" s="9" t="s">
         <v>586</v>
       </c>
-      <c r="W240" s="21">
+      <c r="W240" s="9">
         <v>0</v>
       </c>
-      <c r="X240" s="21">
+      <c r="X240" s="9">
         <f>(W238-X238)/W238*100</f>
         <v>6.9337091009178602</v>
       </c>
-      <c r="Y240" s="21">
+      <c r="Y240" s="9">
         <f>(W238-Y238)/W238*100</f>
         <v>17.085118374274529</v>
       </c>
-      <c r="Z240" s="21">
+      <c r="Z240" s="9">
         <f>(W238-Z238)/W238*100</f>
         <v>9.2011135971739524</v>
       </c>
-      <c r="AA240" s="21">
+      <c r="AA240" s="9">
         <f>(W238-AA238)/W238*100</f>
         <v>27.453397840639752</v>
       </c>
-      <c r="AB240" s="21" t="s">
+      <c r="AB240" s="9" t="s">
         <v>586</v>
       </c>
-      <c r="AC240" s="21">
+      <c r="AC240" s="9">
         <v>0</v>
       </c>
-      <c r="AD240" s="21">
+      <c r="AD240" s="9">
         <f>(AC238-AD238)/AC238*100</f>
         <v>35.713293704426135</v>
       </c>
-      <c r="AE240" s="21">
+      <c r="AE240" s="9">
         <f>(AC238-AE238)/AC238*100</f>
         <v>22.70852250638956</v>
       </c>
-      <c r="AF240" s="21">
+      <c r="AF240" s="9">
         <f>(AC238-AF238)/AC238*100</f>
         <v>16.202325082912694</v>
       </c>
-      <c r="AG240" s="21">
+      <c r="AG240" s="9">
         <f>(AC238-AG238)/AC238*100</f>
         <v>30.327894626038287</v>
       </c>
     </row>
     <row r="241" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P241" s="21" t="s">
+      <c r="P241" s="9" t="s">
         <v>587</v>
       </c>
-      <c r="Q241" s="21">
+      <c r="Q241" s="9">
         <v>0</v>
       </c>
-      <c r="R241" s="21">
+      <c r="R241" s="9">
         <f>(Q239-R239)/Q239*100</f>
         <v>-83.508276780618303</v>
       </c>
-      <c r="S241" s="21">
+      <c r="S241" s="9">
         <f>(Q239-S239)/Q239*100</f>
         <v>10.649439940887708</v>
       </c>
-      <c r="T241" s="21">
+      <c r="T241" s="9">
         <f>(Q239-T239)/Q239*100</f>
         <v>-8.4674195339096645</v>
       </c>
-      <c r="U241" s="21">
+      <c r="U241" s="9">
         <f>(Q239-U239)/Q239*100</f>
         <v>8.9363861229150441</v>
       </c>
-      <c r="V241" s="21" t="s">
+      <c r="V241" s="9" t="s">
         <v>587</v>
       </c>
-      <c r="W241" s="21">
+      <c r="W241" s="9">
         <v>0</v>
       </c>
-      <c r="X241" s="21">
+      <c r="X241" s="9">
         <f>(W239-X239)/W239*100</f>
         <v>19.961496716129382</v>
       </c>
-      <c r="Y241" s="21">
+      <c r="Y241" s="9">
         <f>(W239-Y239)/W239*100</f>
         <v>25.926336721516623</v>
       </c>
-      <c r="Z241" s="21">
+      <c r="Z241" s="9">
         <f>(W239-Z239)/W239*100</f>
         <v>22.535512545257198</v>
       </c>
-      <c r="AA241" s="21">
+      <c r="AA241" s="9">
         <f>(W239-AA239)/W239*100</f>
         <v>35.726452389818071</v>
       </c>
-      <c r="AB241" s="21" t="s">
+      <c r="AB241" s="9" t="s">
         <v>587</v>
       </c>
-      <c r="AC241" s="21">
+      <c r="AC241" s="9">
         <v>0</v>
       </c>
-      <c r="AD241" s="21">
+      <c r="AD241" s="9">
         <f>(AC239-AD239)/AC239*100</f>
         <v>40.672967987599293</v>
       </c>
-      <c r="AE241" s="21">
+      <c r="AE241" s="9">
         <f>(AC239-AE239)/AC239*100</f>
         <v>32.660256279166845</v>
       </c>
-      <c r="AF241" s="21">
+      <c r="AF241" s="9">
         <f>(AC239-AF239)/AC239*100</f>
         <v>22.622996413073302</v>
       </c>
-      <c r="AG241" s="21">
+      <c r="AG241" s="9">
         <f>(AC239-AG239)/AC239*100</f>
         <v>36.009145231677927</v>
       </c>
     </row>
+    <row r="244" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P244" s="23" t="s">
+        <v>504</v>
+      </c>
+      <c r="Q244" s="24" t="s">
+        <v>614</v>
+      </c>
+      <c r="R244" s="24"/>
+      <c r="S244" s="24" t="s">
+        <v>615</v>
+      </c>
+      <c r="T244" s="24"/>
+    </row>
+    <row r="245" spans="16:33" ht="60" x14ac:dyDescent="0.25">
+      <c r="P245" s="23"/>
+      <c r="Q245" s="25" t="s">
+        <v>616</v>
+      </c>
+      <c r="R245" s="25" t="s">
+        <v>617</v>
+      </c>
+      <c r="S245" s="25" t="s">
+        <v>616</v>
+      </c>
+      <c r="T245" s="25" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="246" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P246" s="26" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q246" s="27">
+        <v>8.3745137247510755</v>
+      </c>
+      <c r="R246" s="27">
+        <v>0</v>
+      </c>
+      <c r="S246" s="27">
+        <v>7.1773757348741247</v>
+      </c>
+      <c r="T246" s="27">
+        <v>0</v>
+      </c>
+      <c r="V246">
+        <v>9.1151469459350842</v>
+      </c>
+      <c r="W246">
+        <v>7.2956271876518848</v>
+      </c>
+      <c r="X246">
+        <v>6.7519232560709153</v>
+      </c>
+      <c r="Y246">
+        <v>7.0610018624152548</v>
+      </c>
+      <c r="Z246">
+        <v>5.8586283120336304</v>
+      </c>
+    </row>
+    <row r="247" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P247" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q247" s="28">
+        <v>4.7067688936935799</v>
+      </c>
+      <c r="R247" s="28">
+        <v>43.796511076426896</v>
+      </c>
+      <c r="S247" s="28">
+        <v>4.5209967640625504</v>
+      </c>
+      <c r="T247" s="28">
+        <v>37.010448789862075</v>
+      </c>
+      <c r="V247">
+        <v>0</v>
+      </c>
+      <c r="W247">
+        <v>19.961496716129382</v>
+      </c>
+      <c r="X247">
+        <v>25.926336721516623</v>
+      </c>
+      <c r="Y247">
+        <v>22.535512545257198</v>
+      </c>
+      <c r="Z247">
+        <v>35.726452389818071</v>
+      </c>
+    </row>
+    <row r="248" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P248" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q248" s="27">
+        <v>6.5078378146120599</v>
+      </c>
+      <c r="R248" s="27">
+        <v>22.289961799477506</v>
+      </c>
+      <c r="S248" s="27">
+        <v>6.8028706758783706</v>
+      </c>
+      <c r="T248" s="27">
+        <v>5.2178550048045125</v>
+      </c>
+    </row>
+    <row r="249" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P249" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q249" s="27">
+        <v>7.2361945490954902</v>
+      </c>
+      <c r="R249" s="27">
+        <v>13.592659980856627</v>
+      </c>
+      <c r="S249" s="27">
+        <v>7.1992567670522352</v>
+      </c>
+      <c r="T249" s="27">
+        <v>-0.30486117748849023</v>
+      </c>
+    </row>
+    <row r="250" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P250" s="26" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q250" s="27">
+        <v>6.4813711535781398</v>
+      </c>
+      <c r="R250" s="27">
+        <v>22.605999982753715</v>
+      </c>
+      <c r="S250" s="27">
+        <v>6.6386546126010249</v>
+      </c>
+      <c r="T250" s="27">
+        <v>7.5058230497187131</v>
+      </c>
+    </row>
+    <row r="252" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P252">
+        <v>8.3745137247510755</v>
+      </c>
+      <c r="Q252">
+        <v>4.7067688936935799</v>
+      </c>
+      <c r="R252">
+        <v>6.5078378146120599</v>
+      </c>
+      <c r="S252">
+        <v>7.2361945490954902</v>
+      </c>
+      <c r="T252">
+        <v>6.4813711535781398</v>
+      </c>
+    </row>
+    <row r="253" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P253">
+        <v>0</v>
+      </c>
+      <c r="Q253">
+        <v>43.796511076426896</v>
+      </c>
+      <c r="R253">
+        <v>22.289961799477506</v>
+      </c>
+      <c r="S253">
+        <v>13.592659980856627</v>
+      </c>
+      <c r="T253">
+        <v>22.605999982753715</v>
+      </c>
+    </row>
+    <row r="254" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P254">
+        <v>7.1773757348741247</v>
+      </c>
+      <c r="Q254">
+        <v>4.5209967640625504</v>
+      </c>
+      <c r="R254">
+        <v>6.8028706758783706</v>
+      </c>
+      <c r="S254">
+        <v>7.1992567670522352</v>
+      </c>
+      <c r="T254">
+        <v>6.6386546126010249</v>
+      </c>
+    </row>
+    <row r="255" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P255">
+        <v>0</v>
+      </c>
+      <c r="Q255">
+        <v>37.010448789862075</v>
+      </c>
+      <c r="R255">
+        <v>5.2178550048045125</v>
+      </c>
+      <c r="S255">
+        <v>-0.30486117748849023</v>
+      </c>
+      <c r="T255">
+        <v>7.5058230497187131</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="110">
-    <mergeCell ref="AB165:AG165"/>
-    <mergeCell ref="AB166:AG166"/>
-    <mergeCell ref="P190:U190"/>
-    <mergeCell ref="V190:AA190"/>
-    <mergeCell ref="AB190:AG190"/>
-    <mergeCell ref="P165:U165"/>
-    <mergeCell ref="P166:U166"/>
-    <mergeCell ref="V165:AA165"/>
-    <mergeCell ref="V166:AA166"/>
-    <mergeCell ref="O142:S142"/>
-    <mergeCell ref="O143:S143"/>
-    <mergeCell ref="T142:X142"/>
-    <mergeCell ref="T143:X143"/>
-    <mergeCell ref="Y142:AC142"/>
-    <mergeCell ref="Y143:AC143"/>
-    <mergeCell ref="O135:R135"/>
-    <mergeCell ref="S135:V135"/>
-    <mergeCell ref="O126:R126"/>
-    <mergeCell ref="O127:R127"/>
-    <mergeCell ref="S126:V126"/>
-    <mergeCell ref="S127:V127"/>
-    <mergeCell ref="P85:X85"/>
-    <mergeCell ref="P84:X84"/>
-    <mergeCell ref="P92:X92"/>
-    <mergeCell ref="P93:X93"/>
-    <mergeCell ref="P100:X100"/>
-    <mergeCell ref="O134:R134"/>
-    <mergeCell ref="S134:V134"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="F92:I92"/>
-    <mergeCell ref="F93:I93"/>
-    <mergeCell ref="O119:U119"/>
-    <mergeCell ref="P101:X101"/>
-    <mergeCell ref="V51:Z51"/>
-    <mergeCell ref="A71:A76"/>
-    <mergeCell ref="B71:B76"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="A65:A70"/>
-    <mergeCell ref="B65:B70"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="O66:U66"/>
-    <mergeCell ref="O58:U58"/>
-    <mergeCell ref="O59:U59"/>
-    <mergeCell ref="V58:Z58"/>
-    <mergeCell ref="V59:Z59"/>
-    <mergeCell ref="O75:U75"/>
-    <mergeCell ref="O74:U74"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="O42:U42"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="O35:U35"/>
-    <mergeCell ref="O34:U34"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="G109:L109"/>
-    <mergeCell ref="G110:L110"/>
-    <mergeCell ref="O111:U111"/>
-    <mergeCell ref="O110:U110"/>
-    <mergeCell ref="O118:U118"/>
-    <mergeCell ref="B101:E101"/>
-    <mergeCell ref="B100:E100"/>
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="B92:E92"/>
+  <mergeCells count="113">
+    <mergeCell ref="Q244:R244"/>
+    <mergeCell ref="S244:T244"/>
+    <mergeCell ref="P244:P245"/>
+    <mergeCell ref="AA47:AD47"/>
+    <mergeCell ref="AA40:AD40"/>
+    <mergeCell ref="AA33:AD33"/>
+    <mergeCell ref="G77:L77"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="O67:U67"/>
+    <mergeCell ref="O50:U50"/>
+    <mergeCell ref="O51:U51"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="O43:U43"/>
+    <mergeCell ref="V35:Z35"/>
+    <mergeCell ref="V34:Z34"/>
+    <mergeCell ref="V43:Z43"/>
+    <mergeCell ref="V42:Z42"/>
+    <mergeCell ref="V50:Z50"/>
     <mergeCell ref="G78:L78"/>
     <mergeCell ref="A78:F78"/>
     <mergeCell ref="B84:E84"/>
@@ -24928,22 +25117,81 @@
     <mergeCell ref="G123:L123"/>
     <mergeCell ref="C124:D124"/>
     <mergeCell ref="E124:F124"/>
-    <mergeCell ref="AA47:AD47"/>
-    <mergeCell ref="AA40:AD40"/>
-    <mergeCell ref="AA33:AD33"/>
-    <mergeCell ref="G77:L77"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="O67:U67"/>
-    <mergeCell ref="O50:U50"/>
-    <mergeCell ref="O51:U51"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="O43:U43"/>
-    <mergeCell ref="V35:Z35"/>
-    <mergeCell ref="V34:Z34"/>
-    <mergeCell ref="V43:Z43"/>
-    <mergeCell ref="V42:Z42"/>
-    <mergeCell ref="V50:Z50"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="O42:U42"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="O35:U35"/>
+    <mergeCell ref="O34:U34"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="V51:Z51"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A65:A70"/>
+    <mergeCell ref="B65:B70"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="O66:U66"/>
+    <mergeCell ref="O58:U58"/>
+    <mergeCell ref="O59:U59"/>
+    <mergeCell ref="V58:Z58"/>
+    <mergeCell ref="V59:Z59"/>
+    <mergeCell ref="O75:U75"/>
+    <mergeCell ref="O74:U74"/>
+    <mergeCell ref="P85:X85"/>
+    <mergeCell ref="P84:X84"/>
+    <mergeCell ref="P92:X92"/>
+    <mergeCell ref="P93:X93"/>
+    <mergeCell ref="P100:X100"/>
+    <mergeCell ref="O134:R134"/>
+    <mergeCell ref="S134:V134"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="F92:I92"/>
+    <mergeCell ref="F93:I93"/>
+    <mergeCell ref="O119:U119"/>
+    <mergeCell ref="P101:X101"/>
+    <mergeCell ref="G109:L109"/>
+    <mergeCell ref="G110:L110"/>
+    <mergeCell ref="O111:U111"/>
+    <mergeCell ref="O110:U110"/>
+    <mergeCell ref="O118:U118"/>
+    <mergeCell ref="B101:E101"/>
+    <mergeCell ref="B100:E100"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="O142:S142"/>
+    <mergeCell ref="O143:S143"/>
+    <mergeCell ref="T142:X142"/>
+    <mergeCell ref="T143:X143"/>
+    <mergeCell ref="Y142:AC142"/>
+    <mergeCell ref="Y143:AC143"/>
+    <mergeCell ref="O135:R135"/>
+    <mergeCell ref="S135:V135"/>
+    <mergeCell ref="O126:R126"/>
+    <mergeCell ref="O127:R127"/>
+    <mergeCell ref="S126:V126"/>
+    <mergeCell ref="S127:V127"/>
+    <mergeCell ref="AB165:AG165"/>
+    <mergeCell ref="AB166:AG166"/>
+    <mergeCell ref="P190:U190"/>
+    <mergeCell ref="V190:AA190"/>
+    <mergeCell ref="AB190:AG190"/>
+    <mergeCell ref="P165:U165"/>
+    <mergeCell ref="P166:U166"/>
+    <mergeCell ref="V165:AA165"/>
+    <mergeCell ref="V166:AA166"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
@@ -25084,13 +25332,13 @@
       <c r="A7" t="s">
         <v>504</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="22" t="s">
         <v>441</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -25196,12 +25444,12 @@
       <c r="A14" t="s">
         <v>504</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="22" t="s">
         <v>472</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">

--- a/plotting/617_temp.xlsx
+++ b/plotting/617_temp.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1983" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2053" uniqueCount="620">
   <si>
     <t>.\vgg_unet2_0_3_640_640_64_256_rot_15_345_4_flip_5K\training_32_49_640_640_640_640_max_val_acc\vis\vis_log_181022_0927.txt</t>
   </si>
@@ -1873,6 +1873,12 @@
   </si>
   <si>
     <t>% decrease over SVM</t>
+  </si>
+  <si>
+    <t>Recall (%)</t>
+  </si>
+  <si>
+    <t>Precision (%)</t>
   </si>
 </sst>
 </file>
@@ -2026,16 +2032,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2059,26 +2077,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7821,13 +7827,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="15" t="s">
         <v>407</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -8166,13 +8172,13 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="15" t="s">
         <v>406</v>
       </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -8445,13 +8451,13 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="15" t="s">
         <v>405</v>
       </c>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -8784,13 +8790,13 @@
       </c>
     </row>
     <row r="71" spans="1:7" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="11" t="s">
+      <c r="A71" s="15" t="s">
         <v>408</v>
       </c>
-      <c r="B71" s="11"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="11"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
@@ -9198,13 +9204,13 @@
       </c>
     </row>
     <row r="100" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="11" t="s">
+      <c r="A100" s="15" t="s">
         <v>559</v>
       </c>
-      <c r="B100" s="11"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="11"/>
-      <c r="E100" s="11"/>
+      <c r="B100" s="15"/>
+      <c r="C100" s="15"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="15"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
@@ -9432,13 +9438,13 @@
       </c>
     </row>
     <row r="118" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A118" s="11" t="s">
+      <c r="A118" s="15" t="s">
         <v>409</v>
       </c>
-      <c r="B118" s="11"/>
-      <c r="C118" s="11"/>
-      <c r="D118" s="11"/>
-      <c r="E118" s="11"/>
+      <c r="B118" s="15"/>
+      <c r="C118" s="15"/>
+      <c r="D118" s="15"/>
+      <c r="E118" s="15"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
@@ -9666,13 +9672,13 @@
       </c>
     </row>
     <row r="137" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A137" s="11" t="s">
+      <c r="A137" s="15" t="s">
         <v>410</v>
       </c>
-      <c r="B137" s="11"/>
-      <c r="C137" s="11"/>
-      <c r="D137" s="11"/>
-      <c r="E137" s="11"/>
+      <c r="B137" s="15"/>
+      <c r="C137" s="15"/>
+      <c r="D137" s="15"/>
+      <c r="E137" s="15"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
@@ -9900,13 +9906,13 @@
       </c>
     </row>
     <row r="155" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A155" s="11" t="s">
+      <c r="A155" s="15" t="s">
         <v>407</v>
       </c>
-      <c r="B155" s="11"/>
-      <c r="C155" s="11"/>
-      <c r="D155" s="11"/>
-      <c r="E155" s="11"/>
+      <c r="B155" s="15"/>
+      <c r="C155" s="15"/>
+      <c r="D155" s="15"/>
+      <c r="E155" s="15"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
@@ -10359,13 +10365,13 @@
       </c>
     </row>
     <row r="192" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A192" s="11" t="s">
+      <c r="A192" s="15" t="s">
         <v>409</v>
       </c>
-      <c r="B192" s="11"/>
-      <c r="C192" s="11"/>
-      <c r="D192" s="11"/>
-      <c r="E192" s="11"/>
+      <c r="B192" s="15"/>
+      <c r="C192" s="15"/>
+      <c r="D192" s="15"/>
+      <c r="E192" s="15"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
@@ -10863,13 +10869,13 @@
       </c>
     </row>
     <row r="231" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A231" s="11" t="s">
+      <c r="A231" s="15" t="s">
         <v>404</v>
       </c>
-      <c r="B231" s="11"/>
-      <c r="C231" s="11"/>
-      <c r="D231" s="11"/>
-      <c r="E231" s="11"/>
+      <c r="B231" s="15"/>
+      <c r="C231" s="15"/>
+      <c r="D231" s="15"/>
+      <c r="E231" s="15"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
@@ -11682,13 +11688,13 @@
       </c>
     </row>
     <row r="293" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A293" s="11" t="s">
+      <c r="A293" s="15" t="s">
         <v>403</v>
       </c>
-      <c r="B293" s="11"/>
-      <c r="C293" s="11"/>
-      <c r="D293" s="11"/>
-      <c r="E293" s="11"/>
+      <c r="B293" s="15"/>
+      <c r="C293" s="15"/>
+      <c r="D293" s="15"/>
+      <c r="E293" s="15"/>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
@@ -13052,17 +13058,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A293:E293"/>
-    <mergeCell ref="A231:E231"/>
-    <mergeCell ref="A192:E192"/>
-    <mergeCell ref="A71:E71"/>
-    <mergeCell ref="A155:E155"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A52:E52"/>
     <mergeCell ref="A100:E100"/>
     <mergeCell ref="A118:E118"/>
     <mergeCell ref="A137:E137"/>
     <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A293:E293"/>
+    <mergeCell ref="A231:E231"/>
+    <mergeCell ref="A192:E192"/>
+    <mergeCell ref="A71:E71"/>
+    <mergeCell ref="A155:E155"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
@@ -13629,14 +13635,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG255"/>
+  <dimension ref="A1:AG263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M177" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="14895" ySplit="6225" topLeftCell="AA243" activePane="bottomLeft"/>
-      <selection activeCell="Z137" sqref="Z137"/>
-      <selection pane="topRight" activeCell="AC189" sqref="AC189:AG189"/>
-      <selection pane="bottomLeft" activeCell="P244" sqref="P244:T250"/>
-      <selection pane="bottomRight" activeCell="X240" sqref="X240"/>
+    <sheetView tabSelected="1" topLeftCell="S244" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Z257" sqref="Z257:AG257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13652,13 +13654,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="18" t="s">
         <v>413</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -13772,22 +13774,22 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="18" t="s">
         <v>420</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="18" t="s">
         <v>421</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -13940,14 +13942,14 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="18" t="s">
         <v>413</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
       <c r="J17">
         <v>0.67832000000000003</v>
       </c>
@@ -13962,14 +13964,14 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="18" t="s">
         <v>444</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -14180,14 +14182,14 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="26" t="s">
         <v>420</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
       <c r="J24">
         <v>0.43318000000000001</v>
       </c>
@@ -14214,14 +14216,14 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="18" t="s">
         <v>445</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -14398,46 +14400,46 @@
       </c>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="AA33" s="13" t="s">
+      <c r="AA33" s="18" t="s">
         <v>567</v>
       </c>
-      <c r="AB33" s="13"/>
-      <c r="AC33" s="13"/>
-      <c r="AD33" s="13"/>
+      <c r="AB33" s="18"/>
+      <c r="AC33" s="18"/>
+      <c r="AD33" s="18"/>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="18" t="s">
         <v>413</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="H34" s="13" t="s">
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="H34" s="18" t="s">
         <v>434</v>
       </c>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="O34" s="13" t="s">
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="O34" s="18" t="s">
         <v>434</v>
       </c>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="13"/>
-      <c r="S34" s="13"/>
-      <c r="T34" s="13"/>
-      <c r="U34" s="13"/>
-      <c r="V34" s="13" t="s">
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="18"/>
+      <c r="T34" s="18"/>
+      <c r="U34" s="18"/>
+      <c r="V34" s="18" t="s">
         <v>507</v>
       </c>
-      <c r="W34" s="13"/>
-      <c r="X34" s="13"/>
-      <c r="Y34" s="13"/>
-      <c r="Z34" s="13"/>
+      <c r="W34" s="18"/>
+      <c r="X34" s="18"/>
+      <c r="Y34" s="18"/>
+      <c r="Z34" s="18"/>
       <c r="AA34" t="s">
         <v>327</v>
       </c>
@@ -14452,38 +14454,38 @@
       </c>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="18" t="s">
         <v>432</v>
       </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="H35" s="13" t="s">
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="H35" s="18" t="s">
         <v>435</v>
       </c>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="O35" s="13" t="s">
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="O35" s="18" t="s">
         <v>435</v>
       </c>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="13"/>
-      <c r="S35" s="13"/>
-      <c r="T35" s="13"/>
-      <c r="U35" s="13"/>
-      <c r="V35" s="13" t="s">
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="18"/>
+      <c r="T35" s="18"/>
+      <c r="U35" s="18"/>
+      <c r="V35" s="18" t="s">
         <v>513</v>
       </c>
-      <c r="W35" s="13"/>
-      <c r="X35" s="13"/>
-      <c r="Y35" s="13"/>
-      <c r="Z35" s="13"/>
+      <c r="W35" s="18"/>
+      <c r="X35" s="18"/>
+      <c r="Y35" s="18"/>
+      <c r="Z35" s="18"/>
       <c r="AA35">
         <v>0.88705000000000001</v>
       </c>
@@ -14902,22 +14904,22 @@
       <c r="Z40">
         <v>0.70833999999999997</v>
       </c>
-      <c r="AA40" s="13" t="s">
+      <c r="AA40" s="18" t="s">
         <v>566</v>
       </c>
-      <c r="AB40" s="13"/>
-      <c r="AC40" s="13"/>
-      <c r="AD40" s="13"/>
+      <c r="AB40" s="18"/>
+      <c r="AC40" s="18"/>
+      <c r="AD40" s="18"/>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="18" t="s">
         <v>424</v>
       </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
       <c r="H41" s="1" t="s">
         <v>416</v>
       </c>
@@ -14986,14 +14988,14 @@
       </c>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="18" t="s">
         <v>433</v>
       </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
       <c r="H42" s="1" t="s">
         <v>417</v>
       </c>
@@ -15012,22 +15014,22 @@
       <c r="M42">
         <v>0.63066</v>
       </c>
-      <c r="O42" s="13" t="s">
+      <c r="O42" s="18" t="s">
         <v>434</v>
       </c>
-      <c r="P42" s="13"/>
-      <c r="Q42" s="13"/>
-      <c r="R42" s="13"/>
-      <c r="S42" s="13"/>
-      <c r="T42" s="13"/>
-      <c r="U42" s="13"/>
-      <c r="V42" s="13" t="s">
+      <c r="P42" s="18"/>
+      <c r="Q42" s="18"/>
+      <c r="R42" s="18"/>
+      <c r="S42" s="18"/>
+      <c r="T42" s="18"/>
+      <c r="U42" s="18"/>
+      <c r="V42" s="18" t="s">
         <v>511</v>
       </c>
-      <c r="W42" s="13"/>
-      <c r="X42" s="13"/>
-      <c r="Y42" s="13"/>
-      <c r="Z42" s="13"/>
+      <c r="W42" s="18"/>
+      <c r="X42" s="18"/>
+      <c r="Y42" s="18"/>
+      <c r="Z42" s="18"/>
       <c r="AA42">
         <v>0.87365000000000004</v>
       </c>
@@ -15078,22 +15080,22 @@
       <c r="M43">
         <v>0.65837000000000001</v>
       </c>
-      <c r="O43" s="13" t="s">
+      <c r="O43" s="18" t="s">
         <v>442</v>
       </c>
-      <c r="P43" s="13"/>
-      <c r="Q43" s="13"/>
-      <c r="R43" s="13"/>
-      <c r="S43" s="13"/>
-      <c r="T43" s="13"/>
-      <c r="U43" s="13"/>
-      <c r="V43" s="13" t="s">
+      <c r="P43" s="18"/>
+      <c r="Q43" s="18"/>
+      <c r="R43" s="18"/>
+      <c r="S43" s="18"/>
+      <c r="T43" s="18"/>
+      <c r="U43" s="18"/>
+      <c r="V43" s="18" t="s">
         <v>514</v>
       </c>
-      <c r="W43" s="13"/>
-      <c r="X43" s="13"/>
-      <c r="Y43" s="13"/>
-      <c r="Z43" s="13"/>
+      <c r="W43" s="18"/>
+      <c r="X43" s="18"/>
+      <c r="Y43" s="18"/>
+      <c r="Z43" s="18"/>
       <c r="AA43" t="s">
         <v>331</v>
       </c>
@@ -15376,21 +15378,21 @@
       <c r="Z47">
         <v>0.47498000000000001</v>
       </c>
-      <c r="AA47" s="13" t="s">
+      <c r="AA47" s="18" t="s">
         <v>565</v>
       </c>
-      <c r="AB47" s="13"/>
-      <c r="AC47" s="13"/>
-      <c r="AD47" s="13"/>
+      <c r="AB47" s="18"/>
+      <c r="AC47" s="18"/>
+      <c r="AD47" s="18"/>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="18" t="s">
         <v>506</v>
       </c>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
       <c r="F48" s="2"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
@@ -15444,13 +15446,13 @@
       </c>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="18" t="s">
         <v>505</v>
       </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
       <c r="O49" s="1" t="s">
         <v>437</v>
       </c>
@@ -15516,22 +15518,22 @@
       <c r="E50" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="O50" s="13" t="s">
+      <c r="O50" s="18" t="s">
         <v>434</v>
       </c>
-      <c r="P50" s="13"/>
-      <c r="Q50" s="13"/>
-      <c r="R50" s="13"/>
-      <c r="S50" s="13"/>
-      <c r="T50" s="13"/>
-      <c r="U50" s="13"/>
-      <c r="V50" s="13" t="s">
+      <c r="P50" s="18"/>
+      <c r="Q50" s="18"/>
+      <c r="R50" s="18"/>
+      <c r="S50" s="18"/>
+      <c r="T50" s="18"/>
+      <c r="U50" s="18"/>
+      <c r="V50" s="18" t="s">
         <v>507</v>
       </c>
-      <c r="W50" s="13"/>
-      <c r="X50" s="13"/>
-      <c r="Y50" s="13"/>
-      <c r="Z50" s="13"/>
+      <c r="W50" s="18"/>
+      <c r="X50" s="18"/>
+      <c r="Y50" s="18"/>
+      <c r="Z50" s="18"/>
       <c r="AA50" t="s">
         <v>331</v>
       </c>
@@ -15558,22 +15560,22 @@
       <c r="E51">
         <v>0.63066</v>
       </c>
-      <c r="O51" s="13" t="s">
+      <c r="O51" s="18" t="s">
         <v>446</v>
       </c>
-      <c r="P51" s="13"/>
-      <c r="Q51" s="13"/>
-      <c r="R51" s="13"/>
-      <c r="S51" s="13"/>
-      <c r="T51" s="13"/>
-      <c r="U51" s="13"/>
-      <c r="V51" s="13" t="s">
+      <c r="P51" s="18"/>
+      <c r="Q51" s="18"/>
+      <c r="R51" s="18"/>
+      <c r="S51" s="18"/>
+      <c r="T51" s="18"/>
+      <c r="U51" s="18"/>
+      <c r="V51" s="18" t="s">
         <v>515</v>
       </c>
-      <c r="W51" s="13"/>
-      <c r="X51" s="13"/>
-      <c r="Y51" s="13"/>
-      <c r="Z51" s="13"/>
+      <c r="W51" s="18"/>
+      <c r="X51" s="18"/>
+      <c r="Y51" s="18"/>
+      <c r="Z51" s="18"/>
       <c r="AA51">
         <v>0.77363000000000004</v>
       </c>
@@ -15815,20 +15817,20 @@
       </c>
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A56" s="13" t="s">
+      <c r="A56" s="18" t="s">
         <v>507</v>
       </c>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13" t="s">
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18" t="s">
         <v>511</v>
       </c>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
       <c r="O56" s="1" t="s">
         <v>438</v>
       </c>
@@ -15867,20 +15869,20 @@
       </c>
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="18" t="s">
         <v>508</v>
       </c>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13" t="s">
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18" t="s">
         <v>512</v>
       </c>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="13"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="18"/>
       <c r="O57" s="1" t="s">
         <v>437</v>
       </c>
@@ -15949,22 +15951,22 @@
       <c r="J58" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="O58" s="13" t="s">
+      <c r="O58" s="18" t="s">
         <v>434</v>
       </c>
-      <c r="P58" s="13"/>
-      <c r="Q58" s="13"/>
-      <c r="R58" s="13"/>
-      <c r="S58" s="13"/>
-      <c r="T58" s="13"/>
-      <c r="U58" s="13"/>
-      <c r="V58" s="13" t="s">
+      <c r="P58" s="18"/>
+      <c r="Q58" s="18"/>
+      <c r="R58" s="18"/>
+      <c r="S58" s="18"/>
+      <c r="T58" s="18"/>
+      <c r="U58" s="18"/>
+      <c r="V58" s="18" t="s">
         <v>511</v>
       </c>
-      <c r="W58" s="13"/>
-      <c r="X58" s="13"/>
-      <c r="Y58" s="13"/>
-      <c r="Z58" s="13"/>
+      <c r="W58" s="18"/>
+      <c r="X58" s="18"/>
+      <c r="Y58" s="18"/>
+      <c r="Z58" s="18"/>
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
@@ -15997,22 +15999,22 @@
       <c r="J59">
         <v>0.76844000000000001</v>
       </c>
-      <c r="O59" s="13" t="s">
+      <c r="O59" s="18" t="s">
         <v>447</v>
       </c>
-      <c r="P59" s="13"/>
-      <c r="Q59" s="13"/>
-      <c r="R59" s="13"/>
-      <c r="S59" s="13"/>
-      <c r="T59" s="13"/>
-      <c r="U59" s="13"/>
-      <c r="V59" s="13" t="s">
+      <c r="P59" s="18"/>
+      <c r="Q59" s="18"/>
+      <c r="R59" s="18"/>
+      <c r="S59" s="18"/>
+      <c r="T59" s="18"/>
+      <c r="U59" s="18"/>
+      <c r="V59" s="18" t="s">
         <v>544</v>
       </c>
-      <c r="W59" s="13"/>
-      <c r="X59" s="13"/>
-      <c r="Y59" s="13"/>
-      <c r="Z59" s="13"/>
+      <c r="W59" s="18"/>
+      <c r="X59" s="18"/>
+      <c r="Y59" s="18"/>
+      <c r="Z59" s="18"/>
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
@@ -16325,10 +16327,10 @@
       </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A65" s="13" t="s">
+      <c r="A65" s="18" t="s">
         <v>413</v>
       </c>
-      <c r="B65" s="13" t="s">
+      <c r="B65" s="18" t="s">
         <v>444</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -16384,8 +16386,8 @@
       </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A66" s="13"/>
-      <c r="B66" s="13"/>
+      <c r="A66" s="18"/>
+      <c r="B66" s="18"/>
       <c r="C66" s="1" t="s">
         <v>412</v>
       </c>
@@ -16401,19 +16403,19 @@
       <c r="G66">
         <v>0.84930000000000005</v>
       </c>
-      <c r="O66" s="13" t="s">
+      <c r="O66" s="18" t="s">
         <v>434</v>
       </c>
-      <c r="P66" s="13"/>
-      <c r="Q66" s="13"/>
-      <c r="R66" s="13"/>
-      <c r="S66" s="13"/>
-      <c r="T66" s="13"/>
-      <c r="U66" s="13"/>
+      <c r="P66" s="18"/>
+      <c r="Q66" s="18"/>
+      <c r="R66" s="18"/>
+      <c r="S66" s="18"/>
+      <c r="T66" s="18"/>
+      <c r="U66" s="18"/>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A67" s="13"/>
-      <c r="B67" s="13"/>
+      <c r="A67" s="18"/>
+      <c r="B67" s="18"/>
       <c r="C67" s="1" t="s">
         <v>405</v>
       </c>
@@ -16429,19 +16431,19 @@
       <c r="G67">
         <v>0.90871000000000002</v>
       </c>
-      <c r="O67" s="13" t="s">
+      <c r="O67" s="18" t="s">
         <v>448</v>
       </c>
-      <c r="P67" s="13"/>
-      <c r="Q67" s="13"/>
-      <c r="R67" s="13"/>
-      <c r="S67" s="13"/>
-      <c r="T67" s="13"/>
-      <c r="U67" s="13"/>
+      <c r="P67" s="18"/>
+      <c r="Q67" s="18"/>
+      <c r="R67" s="18"/>
+      <c r="S67" s="18"/>
+      <c r="T67" s="18"/>
+      <c r="U67" s="18"/>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A68" s="13"/>
-      <c r="B68" s="13"/>
+      <c r="A68" s="18"/>
+      <c r="B68" s="18"/>
       <c r="C68" s="1" t="s">
         <v>404</v>
       </c>
@@ -16480,8 +16482,8 @@
       </c>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A69" s="13"/>
-      <c r="B69" s="13"/>
+      <c r="A69" s="18"/>
+      <c r="B69" s="18"/>
       <c r="C69" s="1" t="s">
         <v>406</v>
       </c>
@@ -16520,8 +16522,8 @@
       </c>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A70" s="13"/>
-      <c r="B70" s="13"/>
+      <c r="A70" s="18"/>
+      <c r="B70" s="18"/>
       <c r="C70" s="1" t="s">
         <v>403</v>
       </c>
@@ -16560,10 +16562,10 @@
       </c>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A71" s="14" t="s">
+      <c r="A71" s="26" t="s">
         <v>420</v>
       </c>
-      <c r="B71" s="13" t="s">
+      <c r="B71" s="18" t="s">
         <v>445</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -16604,8 +16606,8 @@
       </c>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A72" s="13"/>
-      <c r="B72" s="13"/>
+      <c r="A72" s="18"/>
+      <c r="B72" s="18"/>
       <c r="C72" s="1" t="s">
         <v>412</v>
       </c>
@@ -16644,8 +16646,8 @@
       </c>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A73" s="13"/>
-      <c r="B73" s="13"/>
+      <c r="A73" s="18"/>
+      <c r="B73" s="18"/>
       <c r="C73" s="1" t="s">
         <v>405</v>
       </c>
@@ -16684,8 +16686,8 @@
       </c>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A74" s="13"/>
-      <c r="B74" s="13"/>
+      <c r="A74" s="18"/>
+      <c r="B74" s="18"/>
       <c r="C74" s="1" t="s">
         <v>404</v>
       </c>
@@ -16701,19 +16703,19 @@
       <c r="G74">
         <v>0.81733</v>
       </c>
-      <c r="O74" s="13" t="s">
+      <c r="O74" s="18" t="s">
         <v>434</v>
       </c>
-      <c r="P74" s="13"/>
-      <c r="Q74" s="13"/>
-      <c r="R74" s="13"/>
-      <c r="S74" s="13"/>
-      <c r="T74" s="13"/>
-      <c r="U74" s="13"/>
+      <c r="P74" s="18"/>
+      <c r="Q74" s="18"/>
+      <c r="R74" s="18"/>
+      <c r="S74" s="18"/>
+      <c r="T74" s="18"/>
+      <c r="U74" s="18"/>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A75" s="13"/>
-      <c r="B75" s="13"/>
+      <c r="A75" s="18"/>
+      <c r="B75" s="18"/>
       <c r="C75" s="1" t="s">
         <v>406</v>
       </c>
@@ -16729,19 +16731,19 @@
       <c r="G75">
         <v>0.77490000000000003</v>
       </c>
-      <c r="O75" s="13" t="s">
+      <c r="O75" s="18" t="s">
         <v>449</v>
       </c>
-      <c r="P75" s="13"/>
-      <c r="Q75" s="13"/>
-      <c r="R75" s="13"/>
-      <c r="S75" s="13"/>
-      <c r="T75" s="13"/>
-      <c r="U75" s="13"/>
+      <c r="P75" s="18"/>
+      <c r="Q75" s="18"/>
+      <c r="R75" s="18"/>
+      <c r="S75" s="18"/>
+      <c r="T75" s="18"/>
+      <c r="U75" s="18"/>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A76" s="13"/>
-      <c r="B76" s="13"/>
+      <c r="A76" s="18"/>
+      <c r="B76" s="18"/>
       <c r="C76" s="1" t="s">
         <v>403</v>
       </c>
@@ -16780,22 +16782,22 @@
       </c>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A77" s="13" t="s">
+      <c r="A77" s="18" t="s">
         <v>507</v>
       </c>
-      <c r="B77" s="13"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="13" t="s">
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18" t="s">
         <v>511</v>
       </c>
-      <c r="H77" s="13"/>
-      <c r="I77" s="13"/>
-      <c r="J77" s="13"/>
-      <c r="K77" s="13"/>
-      <c r="L77" s="13"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="18"/>
+      <c r="J77" s="18"/>
+      <c r="K77" s="18"/>
+      <c r="L77" s="18"/>
       <c r="O77" t="s">
         <v>436</v>
       </c>
@@ -16819,22 +16821,22 @@
       </c>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A78" s="13" t="s">
+      <c r="A78" s="18" t="s">
         <v>508</v>
       </c>
-      <c r="B78" s="13"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="13" t="s">
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="18" t="s">
         <v>512</v>
       </c>
-      <c r="H78" s="13"/>
-      <c r="I78" s="13"/>
-      <c r="J78" s="13"/>
-      <c r="K78" s="13"/>
-      <c r="L78" s="13"/>
+      <c r="H78" s="18"/>
+      <c r="I78" s="18"/>
+      <c r="J78" s="18"/>
+      <c r="K78" s="18"/>
+      <c r="L78" s="18"/>
       <c r="O78" t="s">
         <v>440</v>
       </c>
@@ -17111,33 +17113,33 @@
       </c>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B84" s="13" t="s">
+      <c r="B84" s="18" t="s">
         <v>523</v>
       </c>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="13"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
-      <c r="P84" s="13" t="s">
+      <c r="P84" s="18" t="s">
         <v>434</v>
       </c>
-      <c r="Q84" s="13"/>
-      <c r="R84" s="13"/>
-      <c r="S84" s="13"/>
-      <c r="T84" s="13"/>
-      <c r="U84" s="13"/>
-      <c r="V84" s="13"/>
-      <c r="W84" s="13"/>
-      <c r="X84" s="13"/>
+      <c r="Q84" s="18"/>
+      <c r="R84" s="18"/>
+      <c r="S84" s="18"/>
+      <c r="T84" s="18"/>
+      <c r="U84" s="18"/>
+      <c r="V84" s="18"/>
+      <c r="W84" s="18"/>
+      <c r="X84" s="18"/>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B85" s="13" t="s">
+      <c r="B85" s="18" t="s">
         <v>545</v>
       </c>
-      <c r="C85" s="13"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="18"/>
       <c r="F85" s="1" t="s">
         <v>522</v>
       </c>
@@ -17153,17 +17155,17 @@
       <c r="J85" t="s">
         <v>528</v>
       </c>
-      <c r="P85" s="13" t="s">
+      <c r="P85" s="18" t="s">
         <v>454</v>
       </c>
-      <c r="Q85" s="13"/>
-      <c r="R85" s="13"/>
-      <c r="S85" s="13"/>
-      <c r="T85" s="13"/>
-      <c r="U85" s="13"/>
-      <c r="V85" s="13"/>
-      <c r="W85" s="13"/>
-      <c r="X85" s="13"/>
+      <c r="Q85" s="18"/>
+      <c r="R85" s="18"/>
+      <c r="S85" s="18"/>
+      <c r="T85" s="18"/>
+      <c r="U85" s="18"/>
+      <c r="V85" s="18"/>
+      <c r="W85" s="18"/>
+      <c r="X85" s="18"/>
     </row>
     <row r="86" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
@@ -17505,54 +17507,54 @@
       </c>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B92" s="13" t="s">
+      <c r="B92" s="18" t="s">
         <v>523</v>
       </c>
-      <c r="C92" s="13"/>
-      <c r="D92" s="13"/>
-      <c r="E92" s="13"/>
-      <c r="F92" s="13" t="s">
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="18" t="s">
         <v>523</v>
       </c>
-      <c r="G92" s="13"/>
-      <c r="H92" s="13"/>
-      <c r="I92" s="13"/>
-      <c r="P92" s="13" t="s">
+      <c r="G92" s="18"/>
+      <c r="H92" s="18"/>
+      <c r="I92" s="18"/>
+      <c r="P92" s="18" t="s">
         <v>434</v>
       </c>
-      <c r="Q92" s="13"/>
-      <c r="R92" s="13"/>
-      <c r="S92" s="13"/>
-      <c r="T92" s="13"/>
-      <c r="U92" s="13"/>
-      <c r="V92" s="13"/>
-      <c r="W92" s="13"/>
-      <c r="X92" s="13"/>
+      <c r="Q92" s="18"/>
+      <c r="R92" s="18"/>
+      <c r="S92" s="18"/>
+      <c r="T92" s="18"/>
+      <c r="U92" s="18"/>
+      <c r="V92" s="18"/>
+      <c r="W92" s="18"/>
+      <c r="X92" s="18"/>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B93" s="13" t="s">
+      <c r="B93" s="18" t="s">
         <v>546</v>
       </c>
-      <c r="C93" s="13"/>
-      <c r="D93" s="13"/>
-      <c r="E93" s="13"/>
-      <c r="F93" s="13" t="s">
+      <c r="C93" s="18"/>
+      <c r="D93" s="18"/>
+      <c r="E93" s="18"/>
+      <c r="F93" s="18" t="s">
         <v>548</v>
       </c>
-      <c r="G93" s="13"/>
-      <c r="H93" s="13"/>
-      <c r="I93" s="13"/>
-      <c r="P93" s="13" t="s">
+      <c r="G93" s="18"/>
+      <c r="H93" s="18"/>
+      <c r="I93" s="18"/>
+      <c r="P93" s="18" t="s">
         <v>462</v>
       </c>
-      <c r="Q93" s="13"/>
-      <c r="R93" s="13"/>
-      <c r="S93" s="13"/>
-      <c r="T93" s="13"/>
-      <c r="U93" s="13"/>
-      <c r="V93" s="13"/>
-      <c r="W93" s="13"/>
-      <c r="X93" s="13"/>
+      <c r="Q93" s="18"/>
+      <c r="R93" s="18"/>
+      <c r="S93" s="18"/>
+      <c r="T93" s="18"/>
+      <c r="U93" s="18"/>
+      <c r="V93" s="18"/>
+      <c r="W93" s="18"/>
+      <c r="X93" s="18"/>
     </row>
     <row r="94" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
@@ -17912,12 +17914,12 @@
       <c r="A100" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="B100" s="13" t="s">
+      <c r="B100" s="18" t="s">
         <v>523</v>
       </c>
-      <c r="C100" s="13"/>
-      <c r="D100" s="13"/>
-      <c r="E100" s="13"/>
+      <c r="C100" s="18"/>
+      <c r="D100" s="18"/>
+      <c r="E100" s="18"/>
       <c r="F100" s="1" t="s">
         <v>554</v>
       </c>
@@ -17933,26 +17935,26 @@
       <c r="J100">
         <v>0.77887333098497002</v>
       </c>
-      <c r="P100" s="13" t="s">
+      <c r="P100" s="18" t="s">
         <v>434</v>
       </c>
-      <c r="Q100" s="13"/>
-      <c r="R100" s="13"/>
-      <c r="S100" s="13"/>
-      <c r="T100" s="13"/>
-      <c r="U100" s="13"/>
-      <c r="V100" s="13"/>
-      <c r="W100" s="13"/>
-      <c r="X100" s="13"/>
+      <c r="Q100" s="18"/>
+      <c r="R100" s="18"/>
+      <c r="S100" s="18"/>
+      <c r="T100" s="18"/>
+      <c r="U100" s="18"/>
+      <c r="V100" s="18"/>
+      <c r="W100" s="18"/>
+      <c r="X100" s="18"/>
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
-      <c r="B101" s="13" t="s">
+      <c r="B101" s="18" t="s">
         <v>547</v>
       </c>
-      <c r="C101" s="13"/>
-      <c r="D101" s="13"/>
-      <c r="E101" s="13"/>
+      <c r="C101" s="18"/>
+      <c r="D101" s="18"/>
+      <c r="E101" s="18"/>
       <c r="F101" s="1" t="s">
         <v>555</v>
       </c>
@@ -17968,17 +17970,17 @@
       <c r="J101">
         <v>1.27434722297322</v>
       </c>
-      <c r="P101" s="13" t="s">
+      <c r="P101" s="18" t="s">
         <v>455</v>
       </c>
-      <c r="Q101" s="13"/>
-      <c r="R101" s="13"/>
-      <c r="S101" s="13"/>
-      <c r="T101" s="13"/>
-      <c r="U101" s="13"/>
-      <c r="V101" s="13"/>
-      <c r="W101" s="13"/>
-      <c r="X101" s="13"/>
+      <c r="Q101" s="18"/>
+      <c r="R101" s="18"/>
+      <c r="S101" s="18"/>
+      <c r="T101" s="18"/>
+      <c r="U101" s="18"/>
+      <c r="V101" s="18"/>
+      <c r="W101" s="18"/>
+      <c r="X101" s="18"/>
     </row>
     <row r="102" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
@@ -18278,49 +18280,49 @@
       <c r="B108" s="1"/>
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A109" s="13" t="s">
+      <c r="A109" s="18" t="s">
         <v>507</v>
       </c>
-      <c r="B109" s="13"/>
-      <c r="C109" s="13"/>
-      <c r="D109" s="13"/>
-      <c r="E109" s="13"/>
-      <c r="F109" s="13"/>
-      <c r="G109" s="13" t="s">
+      <c r="B109" s="18"/>
+      <c r="C109" s="18"/>
+      <c r="D109" s="18"/>
+      <c r="E109" s="18"/>
+      <c r="F109" s="18"/>
+      <c r="G109" s="18" t="s">
         <v>511</v>
       </c>
-      <c r="H109" s="13"/>
-      <c r="I109" s="13"/>
-      <c r="J109" s="13"/>
-      <c r="K109" s="13"/>
-      <c r="L109" s="13"/>
+      <c r="H109" s="18"/>
+      <c r="I109" s="18"/>
+      <c r="J109" s="18"/>
+      <c r="K109" s="18"/>
+      <c r="L109" s="18"/>
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A110" s="13" t="s">
+      <c r="A110" s="18" t="s">
         <v>508</v>
       </c>
-      <c r="B110" s="13"/>
-      <c r="C110" s="13"/>
-      <c r="D110" s="13"/>
-      <c r="E110" s="13"/>
-      <c r="F110" s="13"/>
-      <c r="G110" s="13" t="s">
+      <c r="B110" s="18"/>
+      <c r="C110" s="18"/>
+      <c r="D110" s="18"/>
+      <c r="E110" s="18"/>
+      <c r="F110" s="18"/>
+      <c r="G110" s="18" t="s">
         <v>512</v>
       </c>
-      <c r="H110" s="13"/>
-      <c r="I110" s="13"/>
-      <c r="J110" s="13"/>
-      <c r="K110" s="13"/>
-      <c r="L110" s="13"/>
-      <c r="O110" s="13" t="s">
+      <c r="H110" s="18"/>
+      <c r="I110" s="18"/>
+      <c r="J110" s="18"/>
+      <c r="K110" s="18"/>
+      <c r="L110" s="18"/>
+      <c r="O110" s="18" t="s">
         <v>434</v>
       </c>
-      <c r="P110" s="13"/>
-      <c r="Q110" s="13"/>
-      <c r="R110" s="13"/>
-      <c r="S110" s="13"/>
-      <c r="T110" s="13"/>
-      <c r="U110" s="13"/>
+      <c r="P110" s="18"/>
+      <c r="Q110" s="18"/>
+      <c r="R110" s="18"/>
+      <c r="S110" s="18"/>
+      <c r="T110" s="18"/>
+      <c r="U110" s="18"/>
       <c r="V110" s="2"/>
       <c r="W110" s="2"/>
     </row>
@@ -18361,15 +18363,15 @@
       <c r="L111" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="O111" s="13" t="s">
+      <c r="O111" s="18" t="s">
         <v>456</v>
       </c>
-      <c r="P111" s="13"/>
-      <c r="Q111" s="13"/>
-      <c r="R111" s="13"/>
-      <c r="S111" s="13"/>
-      <c r="T111" s="13"/>
-      <c r="U111" s="13"/>
+      <c r="P111" s="18"/>
+      <c r="Q111" s="18"/>
+      <c r="R111" s="18"/>
+      <c r="S111" s="18"/>
+      <c r="T111" s="18"/>
+      <c r="U111" s="18"/>
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
@@ -18657,59 +18659,59 @@
       <c r="A118" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="B118" s="19" t="s">
+      <c r="B118" s="23" t="s">
         <v>522</v>
       </c>
-      <c r="C118" s="20"/>
-      <c r="D118" s="20"/>
-      <c r="E118" s="20"/>
-      <c r="F118" s="21"/>
+      <c r="C118" s="24"/>
+      <c r="D118" s="24"/>
+      <c r="E118" s="24"/>
+      <c r="F118" s="25"/>
       <c r="G118" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="H118" s="15" t="s">
+      <c r="H118" s="19" t="s">
         <v>522</v>
       </c>
-      <c r="I118" s="17"/>
-      <c r="J118" s="17"/>
-      <c r="K118" s="17"/>
-      <c r="L118" s="16"/>
-      <c r="O118" s="13" t="s">
+      <c r="I118" s="21"/>
+      <c r="J118" s="21"/>
+      <c r="K118" s="21"/>
+      <c r="L118" s="20"/>
+      <c r="O118" s="18" t="s">
         <v>434</v>
       </c>
-      <c r="P118" s="13"/>
-      <c r="Q118" s="13"/>
-      <c r="R118" s="13"/>
-      <c r="S118" s="13"/>
-      <c r="T118" s="13"/>
-      <c r="U118" s="13"/>
+      <c r="P118" s="18"/>
+      <c r="Q118" s="18"/>
+      <c r="R118" s="18"/>
+      <c r="S118" s="18"/>
+      <c r="T118" s="18"/>
+      <c r="U118" s="18"/>
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A119" s="19" t="s">
+      <c r="A119" s="23" t="s">
         <v>533</v>
       </c>
-      <c r="B119" s="20"/>
-      <c r="C119" s="20"/>
-      <c r="D119" s="20"/>
-      <c r="E119" s="20"/>
-      <c r="F119" s="21"/>
-      <c r="G119" s="19" t="s">
+      <c r="B119" s="24"/>
+      <c r="C119" s="24"/>
+      <c r="D119" s="24"/>
+      <c r="E119" s="24"/>
+      <c r="F119" s="25"/>
+      <c r="G119" s="23" t="s">
         <v>538</v>
       </c>
-      <c r="H119" s="20"/>
-      <c r="I119" s="20"/>
-      <c r="J119" s="20"/>
-      <c r="K119" s="20"/>
-      <c r="L119" s="21"/>
-      <c r="O119" s="13" t="s">
+      <c r="H119" s="24"/>
+      <c r="I119" s="24"/>
+      <c r="J119" s="24"/>
+      <c r="K119" s="24"/>
+      <c r="L119" s="25"/>
+      <c r="O119" s="18" t="s">
         <v>461</v>
       </c>
-      <c r="P119" s="13"/>
-      <c r="Q119" s="13"/>
-      <c r="R119" s="13"/>
-      <c r="S119" s="13"/>
-      <c r="T119" s="13"/>
-      <c r="U119" s="13"/>
+      <c r="P119" s="18"/>
+      <c r="Q119" s="18"/>
+      <c r="R119" s="18"/>
+      <c r="S119" s="18"/>
+      <c r="T119" s="18"/>
+      <c r="U119" s="18"/>
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
@@ -18733,15 +18735,15 @@
       <c r="G120" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="H120" s="18">
+      <c r="H120" s="22">
         <v>1</v>
       </c>
-      <c r="I120" s="18"/>
-      <c r="J120" s="18"/>
-      <c r="K120" s="18">
+      <c r="I120" s="22"/>
+      <c r="J120" s="22"/>
+      <c r="K120" s="22">
         <v>2</v>
       </c>
-      <c r="L120" s="18"/>
+      <c r="L120" s="22"/>
       <c r="O120" s="1" t="s">
         <v>472</v>
       </c>
@@ -18786,15 +18788,15 @@
       <c r="G121" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="H121" s="18">
+      <c r="H121" s="22">
         <v>1</v>
       </c>
-      <c r="I121" s="18"/>
-      <c r="J121" s="18"/>
-      <c r="K121" s="18">
+      <c r="I121" s="22"/>
+      <c r="J121" s="22"/>
+      <c r="K121" s="22">
         <v>2</v>
       </c>
-      <c r="L121" s="18"/>
+      <c r="L121" s="22"/>
       <c r="O121" s="1" t="s">
         <v>457</v>
       </c>
@@ -18839,15 +18841,15 @@
       <c r="G122" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="H122" s="18">
+      <c r="H122" s="22">
         <v>1</v>
       </c>
-      <c r="I122" s="18"/>
-      <c r="J122" s="18"/>
-      <c r="K122" s="18">
+      <c r="I122" s="22"/>
+      <c r="J122" s="22"/>
+      <c r="K122" s="22">
         <v>2</v>
       </c>
-      <c r="L122" s="18"/>
+      <c r="L122" s="22"/>
       <c r="O122" s="1" t="s">
         <v>458</v>
       </c>
@@ -18871,22 +18873,22 @@
       </c>
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A123" s="19" t="s">
+      <c r="A123" s="23" t="s">
         <v>412</v>
       </c>
-      <c r="B123" s="20"/>
-      <c r="C123" s="20"/>
-      <c r="D123" s="20"/>
-      <c r="E123" s="20"/>
-      <c r="F123" s="21"/>
-      <c r="G123" s="19" t="s">
+      <c r="B123" s="24"/>
+      <c r="C123" s="24"/>
+      <c r="D123" s="24"/>
+      <c r="E123" s="24"/>
+      <c r="F123" s="25"/>
+      <c r="G123" s="23" t="s">
         <v>537</v>
       </c>
-      <c r="H123" s="20"/>
-      <c r="I123" s="20"/>
-      <c r="J123" s="20"/>
-      <c r="K123" s="20"/>
-      <c r="L123" s="21"/>
+      <c r="H123" s="24"/>
+      <c r="I123" s="24"/>
+      <c r="J123" s="24"/>
+      <c r="K123" s="24"/>
+      <c r="L123" s="25"/>
       <c r="O123" s="1" t="s">
         <v>459</v>
       </c>
@@ -18916,14 +18918,14 @@
       <c r="B124" s="7">
         <v>1</v>
       </c>
-      <c r="C124" s="18">
+      <c r="C124" s="22">
         <v>2</v>
       </c>
-      <c r="D124" s="18"/>
-      <c r="E124" s="15">
+      <c r="D124" s="22"/>
+      <c r="E124" s="19">
         <v>3</v>
       </c>
-      <c r="F124" s="16"/>
+      <c r="F124" s="20"/>
       <c r="G124" s="6" t="s">
         <v>406</v>
       </c>
@@ -18977,10 +18979,10 @@
       <c r="D125" s="7">
         <v>3</v>
       </c>
-      <c r="E125" s="15">
+      <c r="E125" s="19">
         <v>4</v>
       </c>
-      <c r="F125" s="16"/>
+      <c r="F125" s="20"/>
       <c r="G125" s="6" t="s">
         <v>405</v>
       </c>
@@ -19022,32 +19024,32 @@
       </c>
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="O126" s="13" t="s">
+      <c r="O126" s="18" t="s">
         <v>507</v>
       </c>
-      <c r="P126" s="13"/>
-      <c r="Q126" s="13"/>
-      <c r="R126" s="13"/>
-      <c r="S126" s="13" t="s">
+      <c r="P126" s="18"/>
+      <c r="Q126" s="18"/>
+      <c r="R126" s="18"/>
+      <c r="S126" s="18" t="s">
         <v>511</v>
       </c>
-      <c r="T126" s="13"/>
-      <c r="U126" s="13"/>
-      <c r="V126" s="13"/>
+      <c r="T126" s="18"/>
+      <c r="U126" s="18"/>
+      <c r="V126" s="18"/>
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="O127" s="13" t="s">
+      <c r="O127" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="P127" s="13"/>
-      <c r="Q127" s="13"/>
-      <c r="R127" s="13"/>
-      <c r="S127" s="13" t="s">
+      <c r="P127" s="18"/>
+      <c r="Q127" s="18"/>
+      <c r="R127" s="18"/>
+      <c r="S127" s="18" t="s">
         <v>542</v>
       </c>
-      <c r="T127" s="13"/>
-      <c r="U127" s="13"/>
-      <c r="V127" s="13"/>
+      <c r="T127" s="18"/>
+      <c r="U127" s="18"/>
+      <c r="V127" s="18"/>
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
@@ -19290,18 +19292,18 @@
       <c r="D134" t="s">
         <v>563</v>
       </c>
-      <c r="O134" s="13" t="s">
+      <c r="O134" s="18" t="s">
         <v>507</v>
       </c>
-      <c r="P134" s="13"/>
-      <c r="Q134" s="13"/>
-      <c r="R134" s="13"/>
-      <c r="S134" s="13" t="s">
+      <c r="P134" s="18"/>
+      <c r="Q134" s="18"/>
+      <c r="R134" s="18"/>
+      <c r="S134" s="18" t="s">
         <v>511</v>
       </c>
-      <c r="T134" s="13"/>
-      <c r="U134" s="13"/>
-      <c r="V134" s="13"/>
+      <c r="T134" s="18"/>
+      <c r="U134" s="18"/>
+      <c r="V134" s="18"/>
     </row>
     <row r="135" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A135">
@@ -19316,18 +19318,18 @@
       <c r="D135">
         <v>0.26800000000000002</v>
       </c>
-      <c r="O135" s="13" t="s">
+      <c r="O135" s="18" t="s">
         <v>543</v>
       </c>
-      <c r="P135" s="13"/>
-      <c r="Q135" s="13"/>
-      <c r="R135" s="13"/>
-      <c r="S135" s="13" t="s">
+      <c r="P135" s="18"/>
+      <c r="Q135" s="18"/>
+      <c r="R135" s="18"/>
+      <c r="S135" s="18" t="s">
         <v>544</v>
       </c>
-      <c r="T135" s="13"/>
-      <c r="U135" s="13"/>
-      <c r="V135" s="13"/>
+      <c r="T135" s="18"/>
+      <c r="U135" s="18"/>
+      <c r="V135" s="18"/>
     </row>
     <row r="136" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A136">
@@ -19394,6 +19396,20 @@
       </c>
     </row>
     <row r="138" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A138" s="18" t="s">
+        <v>507</v>
+      </c>
+      <c r="B138" s="18"/>
+      <c r="C138" s="18"/>
+      <c r="D138" s="18"/>
+      <c r="E138" s="18"/>
+      <c r="F138" s="18" t="s">
+        <v>511</v>
+      </c>
+      <c r="G138" s="18"/>
+      <c r="H138" s="18"/>
+      <c r="I138" s="18"/>
+      <c r="J138" s="18"/>
       <c r="O138" s="1" t="s">
         <v>458</v>
       </c>
@@ -19420,6 +19436,20 @@
       </c>
     </row>
     <row r="139" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A139" s="18" t="s">
+        <v>508</v>
+      </c>
+      <c r="B139" s="18"/>
+      <c r="C139" s="18"/>
+      <c r="D139" s="18"/>
+      <c r="E139" s="18"/>
+      <c r="F139" s="18" t="s">
+        <v>512</v>
+      </c>
+      <c r="G139" s="18"/>
+      <c r="H139" s="18"/>
+      <c r="I139" s="18"/>
+      <c r="J139" s="18"/>
       <c r="O139" s="1" t="s">
         <v>459</v>
       </c>
@@ -19446,6 +19476,36 @@
       </c>
     </row>
     <row r="140" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>558</v>
+      </c>
       <c r="O140" s="1" t="s">
         <v>460</v>
       </c>
@@ -19472,6 +19532,36 @@
       </c>
     </row>
     <row r="141" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B141">
+        <v>0.61538000000000004</v>
+      </c>
+      <c r="C141">
+        <v>0.75410999999999995</v>
+      </c>
+      <c r="D141">
+        <v>0.78120999999999996</v>
+      </c>
+      <c r="E141">
+        <v>0.84930000000000005</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="G141">
+        <v>0.43318000000000001</v>
+      </c>
+      <c r="H141">
+        <v>0.63066</v>
+      </c>
+      <c r="I141">
+        <v>0.65837000000000001</v>
+      </c>
+      <c r="J141">
+        <v>0.76844000000000001</v>
+      </c>
       <c r="O141" s="1" t="s">
         <v>463</v>
       </c>
@@ -19498,52 +19588,142 @@
       </c>
     </row>
     <row r="142" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="O142" s="13" t="s">
+      <c r="A142" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B142">
+        <v>0.74461999999999995</v>
+      </c>
+      <c r="C142">
+        <v>0.87512000000000001</v>
+      </c>
+      <c r="D142">
+        <v>0.86380000000000001</v>
+      </c>
+      <c r="E142">
+        <v>0.90871000000000002</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="G142">
+        <v>0.62388999999999994</v>
+      </c>
+      <c r="H142">
+        <v>0.77141999999999999</v>
+      </c>
+      <c r="I142">
+        <v>0.77244999999999997</v>
+      </c>
+      <c r="J142">
+        <v>0.84316999999999998</v>
+      </c>
+      <c r="O142" s="18" t="s">
         <v>580</v>
       </c>
-      <c r="P142" s="13"/>
-      <c r="Q142" s="13"/>
-      <c r="R142" s="13"/>
-      <c r="S142" s="13"/>
-      <c r="T142" s="13" t="s">
+      <c r="P142" s="18"/>
+      <c r="Q142" s="18"/>
+      <c r="R142" s="18"/>
+      <c r="S142" s="18"/>
+      <c r="T142" s="18" t="s">
         <v>580</v>
       </c>
-      <c r="U142" s="13"/>
-      <c r="V142" s="13"/>
-      <c r="W142" s="13"/>
-      <c r="X142" s="13"/>
-      <c r="Y142" s="13" t="s">
+      <c r="U142" s="18"/>
+      <c r="V142" s="18"/>
+      <c r="W142" s="18"/>
+      <c r="X142" s="18"/>
+      <c r="Y142" s="18" t="s">
         <v>580</v>
       </c>
-      <c r="Z142" s="13"/>
-      <c r="AA142" s="13"/>
-      <c r="AB142" s="13"/>
-      <c r="AC142" s="13"/>
+      <c r="Z142" s="18"/>
+      <c r="AA142" s="18"/>
+      <c r="AB142" s="18"/>
+      <c r="AC142" s="18"/>
     </row>
     <row r="143" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="O143" s="13" t="s">
+      <c r="A143" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B143">
+        <v>0.73751999999999995</v>
+      </c>
+      <c r="C143">
+        <v>0.84270999999999996</v>
+      </c>
+      <c r="D143">
+        <v>0.85128999999999999</v>
+      </c>
+      <c r="E143">
+        <v>0.88688</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="G143">
+        <v>0.54891000000000001</v>
+      </c>
+      <c r="H143">
+        <v>0.71165</v>
+      </c>
+      <c r="I143">
+        <v>0.73194000000000004</v>
+      </c>
+      <c r="J143">
+        <v>0.81733</v>
+      </c>
+      <c r="O143" s="18" t="s">
         <v>582</v>
       </c>
-      <c r="P143" s="13"/>
-      <c r="Q143" s="13"/>
-      <c r="R143" s="13"/>
-      <c r="S143" s="13"/>
-      <c r="T143" s="13" t="s">
+      <c r="P143" s="18"/>
+      <c r="Q143" s="18"/>
+      <c r="R143" s="18"/>
+      <c r="S143" s="18"/>
+      <c r="T143" s="18" t="s">
         <v>581</v>
       </c>
-      <c r="U143" s="13"/>
-      <c r="V143" s="13"/>
-      <c r="W143" s="13"/>
-      <c r="X143" s="13"/>
-      <c r="Y143" s="13" t="s">
+      <c r="U143" s="18"/>
+      <c r="V143" s="18"/>
+      <c r="W143" s="18"/>
+      <c r="X143" s="18"/>
+      <c r="Y143" s="18" t="s">
         <v>579</v>
       </c>
-      <c r="Z143" s="13"/>
-      <c r="AA143" s="13"/>
-      <c r="AB143" s="13"/>
-      <c r="AC143" s="13"/>
+      <c r="Z143" s="18"/>
+      <c r="AA143" s="18"/>
+      <c r="AB143" s="18"/>
+      <c r="AC143" s="18"/>
     </row>
     <row r="144" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B144">
+        <v>0.76958000000000004</v>
+      </c>
+      <c r="C144">
+        <v>0.71062000000000003</v>
+      </c>
+      <c r="D144">
+        <v>0.81420999999999999</v>
+      </c>
+      <c r="E144">
+        <v>0.85023000000000004</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="G144">
+        <v>0.48977999999999999</v>
+      </c>
+      <c r="H144">
+        <v>0.60973999999999995</v>
+      </c>
+      <c r="I144">
+        <v>0.67691999999999997</v>
+      </c>
+      <c r="J144">
+        <v>0.77490000000000003</v>
+      </c>
       <c r="O144" s="1" t="s">
         <v>568</v>
       </c>
@@ -19590,7 +19770,37 @@
         <v>406</v>
       </c>
     </row>
-    <row r="145" spans="15:29" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B145">
+        <v>0.82310000000000005</v>
+      </c>
+      <c r="C145">
+        <v>0.68991999999999998</v>
+      </c>
+      <c r="D145">
+        <v>0.8306</v>
+      </c>
+      <c r="E145">
+        <v>0.85895999999999995</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G145">
+        <v>0.52803</v>
+      </c>
+      <c r="H145">
+        <v>0.62604000000000004</v>
+      </c>
+      <c r="I145">
+        <v>0.69601000000000002</v>
+      </c>
+      <c r="J145">
+        <v>0.78456999999999999</v>
+      </c>
       <c r="O145" s="1" t="s">
         <v>529</v>
       </c>
@@ -19637,7 +19847,21 @@
         <v>8.4696926039944902</v>
       </c>
     </row>
-    <row r="146" spans="15:29" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A146" s="18" t="s">
+        <v>507</v>
+      </c>
+      <c r="B146" s="18"/>
+      <c r="C146" s="18"/>
+      <c r="D146" s="18"/>
+      <c r="E146" s="18"/>
+      <c r="F146" s="18" t="s">
+        <v>511</v>
+      </c>
+      <c r="G146" s="18"/>
+      <c r="H146" s="18"/>
+      <c r="I146" s="18"/>
+      <c r="J146" s="18"/>
       <c r="O146" s="1" t="s">
         <v>457</v>
       </c>
@@ -19684,7 +19908,21 @@
         <v>2.5890388305274401</v>
       </c>
     </row>
-    <row r="147" spans="15:29" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A147" s="18" t="s">
+        <v>508</v>
+      </c>
+      <c r="B147" s="18"/>
+      <c r="C147" s="18"/>
+      <c r="D147" s="18"/>
+      <c r="E147" s="18"/>
+      <c r="F147" s="18" t="s">
+        <v>512</v>
+      </c>
+      <c r="G147" s="18"/>
+      <c r="H147" s="18"/>
+      <c r="I147" s="18"/>
+      <c r="J147" s="18"/>
       <c r="O147" s="1" t="s">
         <v>530</v>
       </c>
@@ -19731,7 +19969,37 @@
         <v>4.7400959443542998</v>
       </c>
     </row>
-    <row r="148" spans="15:29" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>558</v>
+      </c>
       <c r="O148" s="1" t="s">
         <v>436</v>
       </c>
@@ -19778,7 +20046,38 @@
         <v>4.58136819277839</v>
       </c>
     </row>
-    <row r="149" spans="15:29" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B149">
+        <v>0.61538000000000004</v>
+      </c>
+      <c r="C149">
+        <v>0.75410999999999995</v>
+      </c>
+      <c r="D149">
+        <v>0.78120999999999996</v>
+      </c>
+      <c r="E149">
+        <f>E141*100</f>
+        <v>84.93</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="G149">
+        <v>0.43318000000000001</v>
+      </c>
+      <c r="H149">
+        <v>0.63066</v>
+      </c>
+      <c r="I149">
+        <v>0.65837000000000001</v>
+      </c>
+      <c r="J149">
+        <v>0.76844000000000001</v>
+      </c>
       <c r="O149" s="1" t="s">
         <v>531</v>
       </c>
@@ -19825,7 +20124,38 @@
         <v>6.7554617728258002</v>
       </c>
     </row>
-    <row r="150" spans="15:29" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B150">
+        <v>0.74461999999999995</v>
+      </c>
+      <c r="C150">
+        <v>0.87512000000000001</v>
+      </c>
+      <c r="D150">
+        <v>0.86380000000000001</v>
+      </c>
+      <c r="E150">
+        <f t="shared" ref="E150:E153" si="0">E142*100</f>
+        <v>90.870999999999995</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="G150">
+        <v>0.62388999999999994</v>
+      </c>
+      <c r="H150">
+        <v>0.77141999999999999</v>
+      </c>
+      <c r="I150">
+        <v>0.77244999999999997</v>
+      </c>
+      <c r="J150">
+        <v>0.84316999999999998</v>
+      </c>
       <c r="O150" s="1" t="s">
         <v>569</v>
       </c>
@@ -19872,7 +20202,38 @@
         <v>4.0185273848700396</v>
       </c>
     </row>
-    <row r="151" spans="15:29" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B151">
+        <v>0.73751999999999995</v>
+      </c>
+      <c r="C151">
+        <v>0.84270999999999996</v>
+      </c>
+      <c r="D151">
+        <v>0.85128999999999999</v>
+      </c>
+      <c r="E151">
+        <f t="shared" si="0"/>
+        <v>88.688000000000002</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="G151">
+        <v>0.54891000000000001</v>
+      </c>
+      <c r="H151">
+        <v>0.71165</v>
+      </c>
+      <c r="I151">
+        <v>0.73194000000000004</v>
+      </c>
+      <c r="J151">
+        <v>0.81733</v>
+      </c>
       <c r="O151" s="1" t="s">
         <v>570</v>
       </c>
@@ -19919,7 +20280,38 @@
         <v>3.4628358250990701</v>
       </c>
     </row>
-    <row r="152" spans="15:29" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B152">
+        <v>0.76958000000000004</v>
+      </c>
+      <c r="C152">
+        <v>0.71062000000000003</v>
+      </c>
+      <c r="D152">
+        <v>0.81420999999999999</v>
+      </c>
+      <c r="E152">
+        <f t="shared" si="0"/>
+        <v>85.02300000000001</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="G152">
+        <v>0.48977999999999999</v>
+      </c>
+      <c r="H152">
+        <v>0.60973999999999995</v>
+      </c>
+      <c r="I152">
+        <v>0.67691999999999997</v>
+      </c>
+      <c r="J152">
+        <v>0.77490000000000003</v>
+      </c>
       <c r="O152" s="1" t="s">
         <v>440</v>
       </c>
@@ -19966,7 +20358,38 @@
         <v>7.6430517612786701</v>
       </c>
     </row>
-    <row r="153" spans="15:29" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B153">
+        <v>0.82310000000000005</v>
+      </c>
+      <c r="C153">
+        <v>0.68991999999999998</v>
+      </c>
+      <c r="D153">
+        <v>0.8306</v>
+      </c>
+      <c r="E153">
+        <f t="shared" si="0"/>
+        <v>85.896000000000001</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G153">
+        <v>0.52803</v>
+      </c>
+      <c r="H153">
+        <v>0.62604000000000004</v>
+      </c>
+      <c r="I153">
+        <v>0.69601000000000002</v>
+      </c>
+      <c r="J153">
+        <v>0.78456999999999999</v>
+      </c>
       <c r="O153" s="1" t="s">
         <v>571</v>
       </c>
@@ -20013,7 +20436,7 @@
         <v>7.7130277354720702</v>
       </c>
     </row>
-    <row r="154" spans="15:29" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:29" x14ac:dyDescent="0.25">
       <c r="O154" s="1" t="s">
         <v>458</v>
       </c>
@@ -20060,7 +20483,7 @@
         <v>6.14763125189112</v>
       </c>
     </row>
-    <row r="155" spans="15:29" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:29" x14ac:dyDescent="0.25">
       <c r="O155" s="1" t="s">
         <v>572</v>
       </c>
@@ -20107,7 +20530,7 @@
         <v>3.0353974440354698</v>
       </c>
     </row>
-    <row r="156" spans="15:29" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:29" x14ac:dyDescent="0.25">
       <c r="O156" s="1" t="s">
         <v>573</v>
       </c>
@@ -20154,7 +20577,7 @@
         <v>1.4224115208328401</v>
       </c>
     </row>
-    <row r="157" spans="15:29" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:29" x14ac:dyDescent="0.25">
       <c r="O157" s="1" t="s">
         <v>574</v>
       </c>
@@ -20201,7 +20624,7 @@
         <v>10.962613765119</v>
       </c>
     </row>
-    <row r="158" spans="15:29" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:29" x14ac:dyDescent="0.25">
       <c r="O158" s="1" t="s">
         <v>575</v>
       </c>
@@ -20248,7 +20671,7 @@
         <v>7.7509404149886096</v>
       </c>
     </row>
-    <row r="159" spans="15:29" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:29" x14ac:dyDescent="0.25">
       <c r="O159" s="1" t="s">
         <v>576</v>
       </c>
@@ -20295,7 +20718,7 @@
         <v>9.2531490993752694</v>
       </c>
     </row>
-    <row r="160" spans="15:29" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:29" x14ac:dyDescent="0.25">
       <c r="O160" s="1" t="s">
         <v>439</v>
       </c>
@@ -20442,31 +20865,31 @@
         <v>3.2648995426326719</v>
       </c>
       <c r="Q163">
-        <f t="shared" ref="Q163:S163" si="0">AVERAGE(Q145:Q162)</f>
+        <f t="shared" ref="Q163:S163" si="1">AVERAGE(Q145:Q162)</f>
         <v>2.3719496240386095</v>
       </c>
       <c r="R163">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7706745865251208</v>
       </c>
       <c r="S163">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9023579600458957</v>
       </c>
       <c r="U163">
-        <f t="shared" ref="U163:X163" si="1">AVERAGE(U145:U162)</f>
+        <f t="shared" ref="U163:X163" si="2">AVERAGE(U145:U162)</f>
         <v>8.6088140841632601</v>
       </c>
       <c r="V163">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.8143365935028282</v>
       </c>
       <c r="W163">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.3016169898231089</v>
       </c>
       <c r="X163">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.120246101031956</v>
       </c>
       <c r="Z163">
@@ -20474,15 +20897,15 @@
         <v>8.3465185207651942</v>
       </c>
       <c r="AA163">
-        <f t="shared" ref="AA163" si="2">AVERAGE(AA145:AA162)</f>
+        <f t="shared" ref="AA163" si="3">AVERAGE(AA145:AA162)</f>
         <v>5.2626088946435967</v>
       </c>
       <c r="AB163">
-        <f t="shared" ref="AB163" si="3">AVERAGE(AB145:AB162)</f>
+        <f t="shared" ref="AB163" si="4">AVERAGE(AB145:AB162)</f>
         <v>7.6215077306962371</v>
       </c>
       <c r="AC163">
-        <f t="shared" ref="AC163" si="4">AVERAGE(AC145:AC162)</f>
+        <f t="shared" ref="AC163" si="5">AVERAGE(AC145:AC162)</f>
         <v>8.9157422993731252</v>
       </c>
     </row>
@@ -20492,31 +20915,31 @@
         <v>2.7105038342356602</v>
       </c>
       <c r="Q164">
-        <f t="shared" ref="Q164:S164" si="5">MEDIAN(Q145:Q162)</f>
+        <f t="shared" ref="Q164:S164" si="6">MEDIAN(Q145:Q162)</f>
         <v>1.781426542197535</v>
       </c>
       <c r="R164">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.5447069927590449</v>
       </c>
       <c r="S164">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.7254963130821901</v>
       </c>
       <c r="U164">
-        <f t="shared" ref="U164:X164" si="6">MEDIAN(U145:U162)</f>
+        <f t="shared" ref="U164:X164" si="7">MEDIAN(U145:U162)</f>
         <v>8.3745137247510755</v>
       </c>
       <c r="V164">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.7067688936935799</v>
       </c>
       <c r="W164">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.5078378146120599</v>
       </c>
       <c r="X164">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.2361945490954902</v>
       </c>
       <c r="Z164">
@@ -20524,69 +20947,69 @@
         <v>7.1773757348741247</v>
       </c>
       <c r="AA164">
-        <f t="shared" ref="AA164:AC164" si="7">MEDIAN(AA145:AA162)</f>
+        <f t="shared" ref="AA164:AC164" si="8">MEDIAN(AA145:AA162)</f>
         <v>4.5209967640625504</v>
       </c>
       <c r="AB164">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.8028706758783706</v>
       </c>
       <c r="AC164">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7.1992567670522352</v>
       </c>
     </row>
     <row r="165" spans="15:33" x14ac:dyDescent="0.25">
-      <c r="P165" s="12" t="s">
+      <c r="P165" s="27" t="s">
         <v>580</v>
       </c>
-      <c r="Q165" s="12"/>
-      <c r="R165" s="12"/>
-      <c r="S165" s="12"/>
-      <c r="T165" s="12"/>
-      <c r="U165" s="12"/>
-      <c r="V165" s="12" t="s">
+      <c r="Q165" s="27"/>
+      <c r="R165" s="27"/>
+      <c r="S165" s="27"/>
+      <c r="T165" s="27"/>
+      <c r="U165" s="27"/>
+      <c r="V165" s="27" t="s">
         <v>580</v>
       </c>
-      <c r="W165" s="12"/>
-      <c r="X165" s="12"/>
-      <c r="Y165" s="12"/>
-      <c r="Z165" s="12"/>
-      <c r="AA165" s="12"/>
-      <c r="AB165" s="12" t="s">
+      <c r="W165" s="27"/>
+      <c r="X165" s="27"/>
+      <c r="Y165" s="27"/>
+      <c r="Z165" s="27"/>
+      <c r="AA165" s="27"/>
+      <c r="AB165" s="27" t="s">
         <v>580</v>
       </c>
-      <c r="AC165" s="12"/>
-      <c r="AD165" s="12"/>
-      <c r="AE165" s="12"/>
-      <c r="AF165" s="12"/>
-      <c r="AG165" s="12"/>
+      <c r="AC165" s="27"/>
+      <c r="AD165" s="27"/>
+      <c r="AE165" s="27"/>
+      <c r="AF165" s="27"/>
+      <c r="AG165" s="27"/>
     </row>
     <row r="166" spans="15:33" x14ac:dyDescent="0.25">
-      <c r="P166" s="12" t="s">
+      <c r="P166" s="27" t="s">
         <v>582</v>
       </c>
-      <c r="Q166" s="12"/>
-      <c r="R166" s="12"/>
-      <c r="S166" s="12"/>
-      <c r="T166" s="12"/>
-      <c r="U166" s="12"/>
-      <c r="V166" s="12" t="s">
+      <c r="Q166" s="27"/>
+      <c r="R166" s="27"/>
+      <c r="S166" s="27"/>
+      <c r="T166" s="27"/>
+      <c r="U166" s="27"/>
+      <c r="V166" s="27" t="s">
         <v>581</v>
       </c>
-      <c r="W166" s="12"/>
-      <c r="X166" s="12"/>
-      <c r="Y166" s="12"/>
-      <c r="Z166" s="12"/>
-      <c r="AA166" s="12"/>
-      <c r="AB166" s="12" t="s">
+      <c r="W166" s="27"/>
+      <c r="X166" s="27"/>
+      <c r="Y166" s="27"/>
+      <c r="Z166" s="27"/>
+      <c r="AA166" s="27"/>
+      <c r="AB166" s="27" t="s">
         <v>583</v>
       </c>
-      <c r="AC166" s="12"/>
-      <c r="AD166" s="12"/>
-      <c r="AE166" s="12"/>
-      <c r="AF166" s="12"/>
-      <c r="AG166" s="12"/>
+      <c r="AC166" s="27"/>
+      <c r="AD166" s="27"/>
+      <c r="AE166" s="27"/>
+      <c r="AF166" s="27"/>
+      <c r="AG166" s="27"/>
     </row>
     <row r="167" spans="15:33" x14ac:dyDescent="0.25">
       <c r="P167" s="6" t="s">
@@ -21931,30 +22354,30 @@
       </c>
     </row>
     <row r="190" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P190" s="12" t="s">
+      <c r="P190" s="27" t="s">
         <v>582</v>
       </c>
-      <c r="Q190" s="12"/>
-      <c r="R190" s="12"/>
-      <c r="S190" s="12"/>
-      <c r="T190" s="12"/>
-      <c r="U190" s="12"/>
-      <c r="V190" s="12" t="s">
+      <c r="Q190" s="27"/>
+      <c r="R190" s="27"/>
+      <c r="S190" s="27"/>
+      <c r="T190" s="27"/>
+      <c r="U190" s="27"/>
+      <c r="V190" s="27" t="s">
         <v>581</v>
       </c>
-      <c r="W190" s="12"/>
-      <c r="X190" s="12"/>
-      <c r="Y190" s="12"/>
-      <c r="Z190" s="12"/>
-      <c r="AA190" s="12"/>
-      <c r="AB190" s="12" t="s">
+      <c r="W190" s="27"/>
+      <c r="X190" s="27"/>
+      <c r="Y190" s="27"/>
+      <c r="Z190" s="27"/>
+      <c r="AA190" s="27"/>
+      <c r="AB190" s="27" t="s">
         <v>583</v>
       </c>
-      <c r="AC190" s="12"/>
-      <c r="AD190" s="12"/>
-      <c r="AE190" s="12"/>
-      <c r="AF190" s="12"/>
-      <c r="AG190" s="12"/>
+      <c r="AC190" s="27"/>
+      <c r="AD190" s="27"/>
+      <c r="AE190" s="27"/>
+      <c r="AF190" s="27"/>
+      <c r="AG190" s="27"/>
     </row>
     <row r="191" spans="16:33" x14ac:dyDescent="0.25">
       <c r="P191" s="6" t="s">
@@ -24668,19 +25091,19 @@
         <v>2.2772160683323701</v>
       </c>
       <c r="R239" s="7">
-        <f t="shared" ref="R239:U239" si="8">MEDIAN(R192:R237)</f>
+        <f t="shared" ref="R239:U239" si="9">MEDIAN(R192:R237)</f>
         <v>4.1788799655680799</v>
       </c>
       <c r="S239" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.03470531081107</v>
       </c>
       <c r="T239" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.4700375065316749</v>
       </c>
       <c r="U239" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.0737152476131246</v>
       </c>
       <c r="V239" s="6" t="s">
@@ -24691,19 +25114,19 @@
         <v>9.1151469459350842</v>
       </c>
       <c r="X239" s="7">
-        <f t="shared" ref="X239:AA239" si="9">MEDIAN(X192:X237)</f>
+        <f t="shared" ref="X239:AA239" si="10">MEDIAN(X192:X237)</f>
         <v>7.2956271876518848</v>
       </c>
       <c r="Y239" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.7519232560709153</v>
       </c>
       <c r="Z239" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.0610018624152548</v>
       </c>
       <c r="AA239" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.8586283120336304</v>
       </c>
       <c r="AB239" s="6" t="s">
@@ -24714,19 +25137,19 @@
         <v>8.8282021229656493</v>
       </c>
       <c r="AD239" s="7">
-        <f t="shared" ref="AD239:AG239" si="10">MEDIAN(AD192:AD237)</f>
+        <f t="shared" ref="AD239:AG239" si="11">MEDIAN(AD192:AD237)</f>
         <v>5.2375102996112695</v>
       </c>
       <c r="AE239" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.94488868476222</v>
       </c>
       <c r="AF239" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.8309982733482695</v>
       </c>
       <c r="AG239" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.6492419991608749</v>
       </c>
     </row>
@@ -24867,47 +25290,47 @@
       </c>
     </row>
     <row r="244" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P244" s="23" t="s">
+      <c r="P244" s="17" t="s">
         <v>504</v>
       </c>
-      <c r="Q244" s="24" t="s">
+      <c r="Q244" s="16" t="s">
         <v>614</v>
       </c>
-      <c r="R244" s="24"/>
-      <c r="S244" s="24" t="s">
+      <c r="R244" s="16"/>
+      <c r="S244" s="16" t="s">
         <v>615</v>
       </c>
-      <c r="T244" s="24"/>
+      <c r="T244" s="16"/>
     </row>
     <row r="245" spans="16:33" ht="60" x14ac:dyDescent="0.25">
-      <c r="P245" s="23"/>
-      <c r="Q245" s="25" t="s">
+      <c r="P245" s="17"/>
+      <c r="Q245" s="11" t="s">
         <v>616</v>
       </c>
-      <c r="R245" s="25" t="s">
+      <c r="R245" s="11" t="s">
         <v>617</v>
       </c>
-      <c r="S245" s="25" t="s">
+      <c r="S245" s="11" t="s">
         <v>616</v>
       </c>
-      <c r="T245" s="25" t="s">
+      <c r="T245" s="11" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="246" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P246" s="26" t="s">
+      <c r="P246" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="Q246" s="27">
+      <c r="Q246" s="13">
         <v>8.3745137247510755</v>
       </c>
-      <c r="R246" s="27">
+      <c r="R246" s="13">
         <v>0</v>
       </c>
-      <c r="S246" s="27">
+      <c r="S246" s="13">
         <v>7.1773757348741247</v>
       </c>
-      <c r="T246" s="27">
+      <c r="T246" s="13">
         <v>0</v>
       </c>
       <c r="V246">
@@ -24927,19 +25350,19 @@
       </c>
     </row>
     <row r="247" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P247" s="26" t="s">
+      <c r="P247" s="12" t="s">
         <v>405</v>
       </c>
-      <c r="Q247" s="28">
+      <c r="Q247" s="14">
         <v>4.7067688936935799</v>
       </c>
-      <c r="R247" s="28">
+      <c r="R247" s="14">
         <v>43.796511076426896</v>
       </c>
-      <c r="S247" s="28">
+      <c r="S247" s="14">
         <v>4.5209967640625504</v>
       </c>
-      <c r="T247" s="28">
+      <c r="T247" s="14">
         <v>37.010448789862075</v>
       </c>
       <c r="V247">
@@ -24959,53 +25382,53 @@
       </c>
     </row>
     <row r="248" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P248" s="26" t="s">
+      <c r="P248" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="Q248" s="27">
+      <c r="Q248" s="13">
         <v>6.5078378146120599</v>
       </c>
-      <c r="R248" s="27">
+      <c r="R248" s="13">
         <v>22.289961799477506</v>
       </c>
-      <c r="S248" s="27">
+      <c r="S248" s="13">
         <v>6.8028706758783706</v>
       </c>
-      <c r="T248" s="27">
+      <c r="T248" s="13">
         <v>5.2178550048045125</v>
       </c>
     </row>
     <row r="249" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P249" s="26" t="s">
+      <c r="P249" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="Q249" s="27">
+      <c r="Q249" s="13">
         <v>7.2361945490954902</v>
       </c>
-      <c r="R249" s="27">
+      <c r="R249" s="13">
         <v>13.592659980856627</v>
       </c>
-      <c r="S249" s="27">
+      <c r="S249" s="13">
         <v>7.1992567670522352</v>
       </c>
-      <c r="T249" s="27">
+      <c r="T249" s="13">
         <v>-0.30486117748849023</v>
       </c>
     </row>
     <row r="250" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P250" s="26" t="s">
+      <c r="P250" s="12" t="s">
         <v>403</v>
       </c>
-      <c r="Q250" s="27">
+      <c r="Q250" s="13">
         <v>6.4813711535781398</v>
       </c>
-      <c r="R250" s="27">
+      <c r="R250" s="13">
         <v>22.605999982753715</v>
       </c>
-      <c r="S250" s="27">
+      <c r="S250" s="13">
         <v>6.6386546126010249</v>
       </c>
-      <c r="T250" s="27">
+      <c r="T250" s="13">
         <v>7.5058230497187131</v>
       </c>
     </row>
@@ -25077,8 +25500,532 @@
         <v>7.5058230497187131</v>
       </c>
     </row>
+    <row r="256" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P256" s="18"/>
+      <c r="Q256" s="18"/>
+      <c r="R256" s="18"/>
+      <c r="S256" s="18"/>
+      <c r="T256" s="18"/>
+      <c r="U256" s="18"/>
+      <c r="V256" s="18"/>
+      <c r="W256" s="18"/>
+      <c r="X256" s="18"/>
+      <c r="Y256" s="18"/>
+    </row>
+    <row r="257" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P257" s="18" t="s">
+        <v>618</v>
+      </c>
+      <c r="Q257" s="18"/>
+      <c r="R257" s="18"/>
+      <c r="S257" s="18"/>
+      <c r="T257" s="18"/>
+      <c r="U257" s="18"/>
+      <c r="V257" s="18"/>
+      <c r="W257" s="18"/>
+      <c r="X257" s="18"/>
+      <c r="Y257" s="18"/>
+      <c r="Z257" s="18" t="s">
+        <v>619</v>
+      </c>
+      <c r="AA257" s="18"/>
+      <c r="AB257" s="18"/>
+      <c r="AC257" s="18"/>
+      <c r="AD257" s="18"/>
+      <c r="AE257" s="18"/>
+      <c r="AF257" s="18"/>
+      <c r="AG257" s="18"/>
+    </row>
+    <row r="258" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P258" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q258" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="R258" s="18"/>
+      <c r="S258" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="T258" s="18"/>
+      <c r="U258" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="V258" s="18"/>
+      <c r="W258" s="18" t="s">
+        <v>558</v>
+      </c>
+      <c r="X258" s="18"/>
+      <c r="Y258" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="Z258" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="AA258" s="18"/>
+      <c r="AB258" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="AC258" s="18"/>
+      <c r="AD258" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="AE258" s="18"/>
+      <c r="AF258" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="259" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P259" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q259">
+        <f>B141*100</f>
+        <v>61.538000000000004</v>
+      </c>
+      <c r="R259">
+        <v>0</v>
+      </c>
+      <c r="S259">
+        <f>C141*100</f>
+        <v>75.411000000000001</v>
+      </c>
+      <c r="T259">
+        <v>0</v>
+      </c>
+      <c r="U259">
+        <f>D141*100</f>
+        <v>78.120999999999995</v>
+      </c>
+      <c r="V259">
+        <v>0</v>
+      </c>
+      <c r="W259">
+        <v>84.93</v>
+      </c>
+      <c r="Y259" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="Z259">
+        <f>G141*100</f>
+        <v>43.317999999999998</v>
+      </c>
+      <c r="AA259">
+        <v>0</v>
+      </c>
+      <c r="AB259">
+        <f>H141*100</f>
+        <v>63.066000000000003</v>
+      </c>
+      <c r="AC259">
+        <v>0</v>
+      </c>
+      <c r="AD259">
+        <f>I141*100</f>
+        <v>65.837000000000003</v>
+      </c>
+      <c r="AF259">
+        <f>J141*100</f>
+        <v>76.843999999999994</v>
+      </c>
+      <c r="AG259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P260" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q260">
+        <f>B142*100</f>
+        <v>74.461999999999989</v>
+      </c>
+      <c r="R260">
+        <f>(Q260-61.538)/61.538*100</f>
+        <v>21.001657512431333</v>
+      </c>
+      <c r="S260" s="1">
+        <f>C142*100</f>
+        <v>87.512</v>
+      </c>
+      <c r="T260" s="1">
+        <f>(S260-75.411)/75.411*100</f>
+        <v>16.046730583071433</v>
+      </c>
+      <c r="U260" s="1">
+        <f>D142*100</f>
+        <v>86.38</v>
+      </c>
+      <c r="V260" s="1">
+        <f>(U260-78.121)/78.121*100</f>
+        <v>10.572061289538025</v>
+      </c>
+      <c r="W260" s="1">
+        <v>90.870999999999995</v>
+      </c>
+      <c r="X260" s="1">
+        <f>(W260-84.93)/84.93*100</f>
+        <v>6.9951724949958649</v>
+      </c>
+      <c r="Y260" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="Z260" s="1">
+        <f>G142*100</f>
+        <v>62.388999999999996</v>
+      </c>
+      <c r="AA260" s="1">
+        <f>(Z260-43.318)/43.318*100</f>
+        <v>44.025578281545776</v>
+      </c>
+      <c r="AB260" s="1">
+        <f>H142*100</f>
+        <v>77.141999999999996</v>
+      </c>
+      <c r="AC260" s="1">
+        <f>(AB260-63.066)/63.066*100</f>
+        <v>22.319474835886201</v>
+      </c>
+      <c r="AD260" s="1">
+        <f>I142*100</f>
+        <v>77.24499999999999</v>
+      </c>
+      <c r="AE260" s="1">
+        <f>(AD260-65.837)/65.837*100</f>
+        <v>17.327642511049998</v>
+      </c>
+      <c r="AF260" s="1">
+        <f>J142*100</f>
+        <v>84.316999999999993</v>
+      </c>
+      <c r="AG260" s="1">
+        <f>(AF260-76.844)/76.844*100</f>
+        <v>9.7248971943157549</v>
+      </c>
+    </row>
+    <row r="261" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P261" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q261">
+        <f>B143*100</f>
+        <v>73.751999999999995</v>
+      </c>
+      <c r="R261">
+        <f t="shared" ref="R261:R263" si="12">(Q261-61.538)/61.538*100</f>
+        <v>19.847898859241443</v>
+      </c>
+      <c r="S261">
+        <f>C143*100</f>
+        <v>84.271000000000001</v>
+      </c>
+      <c r="T261">
+        <f t="shared" ref="T261:T263" si="13">(S261-75.411)/75.411*100</f>
+        <v>11.748949092307488</v>
+      </c>
+      <c r="U261">
+        <f>D143*100</f>
+        <v>85.129000000000005</v>
+      </c>
+      <c r="V261">
+        <f t="shared" ref="V261:V263" si="14">(U261-78.121)/78.121*100</f>
+        <v>8.9706992998041635</v>
+      </c>
+      <c r="W261">
+        <v>88.688000000000002</v>
+      </c>
+      <c r="X261">
+        <f t="shared" ref="X261:X263" si="15">(W261-84.93)/84.93*100</f>
+        <v>4.4248204403626454</v>
+      </c>
+      <c r="Y261" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="Z261">
+        <f>G143*100</f>
+        <v>54.890999999999998</v>
+      </c>
+      <c r="AA261">
+        <f t="shared" ref="AA261:AA263" si="16">(Z261-43.318)/43.318*100</f>
+        <v>26.716376564014961</v>
+      </c>
+      <c r="AB261">
+        <f>H143*100</f>
+        <v>71.165000000000006</v>
+      </c>
+      <c r="AC261">
+        <f t="shared" ref="AC261:AC263" si="17">(AB261-63.066)/63.066*100</f>
+        <v>12.842101924967499</v>
+      </c>
+      <c r="AD261">
+        <f>I143*100</f>
+        <v>73.194000000000003</v>
+      </c>
+      <c r="AE261">
+        <f t="shared" ref="AE261:AE263" si="18">(AD261-65.837)/65.837*100</f>
+        <v>11.174567492443458</v>
+      </c>
+      <c r="AF261">
+        <f>J143*100</f>
+        <v>81.733000000000004</v>
+      </c>
+      <c r="AG261">
+        <f t="shared" ref="AG261:AG263" si="19">(AF261-76.844)/76.844*100</f>
+        <v>6.3622403831138543</v>
+      </c>
+    </row>
+    <row r="262" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P262" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q262">
+        <f>B144*100</f>
+        <v>76.957999999999998</v>
+      </c>
+      <c r="R262">
+        <f t="shared" si="12"/>
+        <v>25.057687932659501</v>
+      </c>
+      <c r="S262">
+        <f>C144*100</f>
+        <v>71.061999999999998</v>
+      </c>
+      <c r="T262">
+        <f t="shared" si="13"/>
+        <v>-5.7670631605468747</v>
+      </c>
+      <c r="U262">
+        <f>D144*100</f>
+        <v>81.420999999999992</v>
+      </c>
+      <c r="V262">
+        <f t="shared" si="14"/>
+        <v>4.2242162798735254</v>
+      </c>
+      <c r="W262">
+        <v>85.02300000000001</v>
+      </c>
+      <c r="X262">
+        <f t="shared" si="15"/>
+        <v>0.10950194277640825</v>
+      </c>
+      <c r="Y262" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="Z262">
+        <f>G144*100</f>
+        <v>48.978000000000002</v>
+      </c>
+      <c r="AA262">
+        <f t="shared" si="16"/>
+        <v>13.066161872662644</v>
+      </c>
+      <c r="AB262">
+        <f>H144*100</f>
+        <v>60.973999999999997</v>
+      </c>
+      <c r="AC262">
+        <f t="shared" si="17"/>
+        <v>-3.3171598008435699</v>
+      </c>
+      <c r="AD262">
+        <f>I144*100</f>
+        <v>67.691999999999993</v>
+      </c>
+      <c r="AE262">
+        <f t="shared" si="18"/>
+        <v>2.8175645913392007</v>
+      </c>
+      <c r="AF262">
+        <f>J144*100</f>
+        <v>77.490000000000009</v>
+      </c>
+      <c r="AG262">
+        <f t="shared" si="19"/>
+        <v>0.84066420280049847</v>
+      </c>
+    </row>
+    <row r="263" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P263" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q263" s="1">
+        <f>B145*100</f>
+        <v>82.31</v>
+      </c>
+      <c r="R263" s="1">
+        <f t="shared" si="12"/>
+        <v>33.754753160648718</v>
+      </c>
+      <c r="S263">
+        <f>C145*100</f>
+        <v>68.992000000000004</v>
+      </c>
+      <c r="T263">
+        <f t="shared" si="13"/>
+        <v>-8.5120207927225433</v>
+      </c>
+      <c r="U263">
+        <f>D145*100</f>
+        <v>83.06</v>
+      </c>
+      <c r="V263">
+        <f t="shared" si="14"/>
+        <v>6.3222436988773918</v>
+      </c>
+      <c r="W263">
+        <v>85.896000000000001</v>
+      </c>
+      <c r="X263">
+        <f t="shared" si="15"/>
+        <v>1.1374072765807064</v>
+      </c>
+      <c r="Y263" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="Z263">
+        <f>G145*100</f>
+        <v>52.802999999999997</v>
+      </c>
+      <c r="AA263">
+        <f t="shared" si="16"/>
+        <v>21.89620942795143</v>
+      </c>
+      <c r="AB263">
+        <f>H145*100</f>
+        <v>62.604000000000006</v>
+      </c>
+      <c r="AC263">
+        <f t="shared" si="17"/>
+        <v>-0.73256588336028317</v>
+      </c>
+      <c r="AD263">
+        <f>I145*100</f>
+        <v>69.600999999999999</v>
+      </c>
+      <c r="AE263">
+        <f t="shared" si="18"/>
+        <v>5.7171499308899181</v>
+      </c>
+      <c r="AF263">
+        <f>J145*100</f>
+        <v>78.456999999999994</v>
+      </c>
+      <c r="AG263">
+        <f t="shared" si="19"/>
+        <v>2.0990578314507307</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="113">
+  <mergeCells count="132">
+    <mergeCell ref="Z258:AA258"/>
+    <mergeCell ref="AB258:AC258"/>
+    <mergeCell ref="AD258:AE258"/>
+    <mergeCell ref="W258:X258"/>
+    <mergeCell ref="P257:Y257"/>
+    <mergeCell ref="Z257:AG257"/>
+    <mergeCell ref="A138:E138"/>
+    <mergeCell ref="F138:J138"/>
+    <mergeCell ref="A139:E139"/>
+    <mergeCell ref="F139:J139"/>
+    <mergeCell ref="P256:T256"/>
+    <mergeCell ref="U256:Y256"/>
+    <mergeCell ref="Q258:R258"/>
+    <mergeCell ref="S258:T258"/>
+    <mergeCell ref="U258:V258"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="F146:J146"/>
+    <mergeCell ref="A147:E147"/>
+    <mergeCell ref="F147:J147"/>
+    <mergeCell ref="AB165:AG165"/>
+    <mergeCell ref="AB166:AG166"/>
+    <mergeCell ref="P190:U190"/>
+    <mergeCell ref="V190:AA190"/>
+    <mergeCell ref="AB190:AG190"/>
+    <mergeCell ref="P165:U165"/>
+    <mergeCell ref="P166:U166"/>
+    <mergeCell ref="V165:AA165"/>
+    <mergeCell ref="V166:AA166"/>
+    <mergeCell ref="O142:S142"/>
+    <mergeCell ref="O143:S143"/>
+    <mergeCell ref="T142:X142"/>
+    <mergeCell ref="T143:X143"/>
+    <mergeCell ref="Y142:AC142"/>
+    <mergeCell ref="Y143:AC143"/>
+    <mergeCell ref="O135:R135"/>
+    <mergeCell ref="S135:V135"/>
+    <mergeCell ref="O126:R126"/>
+    <mergeCell ref="O127:R127"/>
+    <mergeCell ref="S126:V126"/>
+    <mergeCell ref="S127:V127"/>
+    <mergeCell ref="O134:R134"/>
+    <mergeCell ref="S134:V134"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="F92:I92"/>
+    <mergeCell ref="F93:I93"/>
+    <mergeCell ref="O119:U119"/>
+    <mergeCell ref="P101:X101"/>
+    <mergeCell ref="G109:L109"/>
+    <mergeCell ref="G110:L110"/>
+    <mergeCell ref="O111:U111"/>
+    <mergeCell ref="O110:U110"/>
+    <mergeCell ref="O118:U118"/>
+    <mergeCell ref="B101:E101"/>
+    <mergeCell ref="B100:E100"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="V51:Z51"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A65:A70"/>
+    <mergeCell ref="B65:B70"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="O66:U66"/>
+    <mergeCell ref="O58:U58"/>
+    <mergeCell ref="O59:U59"/>
+    <mergeCell ref="V58:Z58"/>
+    <mergeCell ref="V59:Z59"/>
+    <mergeCell ref="O75:U75"/>
+    <mergeCell ref="O74:U74"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="O42:U42"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="O35:U35"/>
+    <mergeCell ref="O34:U34"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="P85:X85"/>
+    <mergeCell ref="P84:X84"/>
+    <mergeCell ref="P92:X92"/>
+    <mergeCell ref="P93:X93"/>
+    <mergeCell ref="P100:X100"/>
+    <mergeCell ref="H118:L118"/>
+    <mergeCell ref="H121:J121"/>
+    <mergeCell ref="K121:L121"/>
+    <mergeCell ref="H122:J122"/>
+    <mergeCell ref="K122:L122"/>
+    <mergeCell ref="G119:L119"/>
+    <mergeCell ref="B118:F118"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="K120:L120"/>
+    <mergeCell ref="H120:J120"/>
+    <mergeCell ref="G123:L123"/>
     <mergeCell ref="Q244:R244"/>
     <mergeCell ref="S244:T244"/>
     <mergeCell ref="P244:P245"/>
@@ -25103,95 +26050,6 @@
     <mergeCell ref="B84:E84"/>
     <mergeCell ref="B85:E85"/>
     <mergeCell ref="E125:F125"/>
-    <mergeCell ref="H118:L118"/>
-    <mergeCell ref="H121:J121"/>
-    <mergeCell ref="K121:L121"/>
-    <mergeCell ref="H122:J122"/>
-    <mergeCell ref="K122:L122"/>
-    <mergeCell ref="G119:L119"/>
-    <mergeCell ref="B118:F118"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="K120:L120"/>
-    <mergeCell ref="H120:J120"/>
-    <mergeCell ref="G123:L123"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="O42:U42"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="O35:U35"/>
-    <mergeCell ref="O34:U34"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="V51:Z51"/>
-    <mergeCell ref="A71:A76"/>
-    <mergeCell ref="B71:B76"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="A65:A70"/>
-    <mergeCell ref="B65:B70"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="O66:U66"/>
-    <mergeCell ref="O58:U58"/>
-    <mergeCell ref="O59:U59"/>
-    <mergeCell ref="V58:Z58"/>
-    <mergeCell ref="V59:Z59"/>
-    <mergeCell ref="O75:U75"/>
-    <mergeCell ref="O74:U74"/>
-    <mergeCell ref="P85:X85"/>
-    <mergeCell ref="P84:X84"/>
-    <mergeCell ref="P92:X92"/>
-    <mergeCell ref="P93:X93"/>
-    <mergeCell ref="P100:X100"/>
-    <mergeCell ref="O134:R134"/>
-    <mergeCell ref="S134:V134"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="F92:I92"/>
-    <mergeCell ref="F93:I93"/>
-    <mergeCell ref="O119:U119"/>
-    <mergeCell ref="P101:X101"/>
-    <mergeCell ref="G109:L109"/>
-    <mergeCell ref="G110:L110"/>
-    <mergeCell ref="O111:U111"/>
-    <mergeCell ref="O110:U110"/>
-    <mergeCell ref="O118:U118"/>
-    <mergeCell ref="B101:E101"/>
-    <mergeCell ref="B100:E100"/>
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="B92:E92"/>
-    <mergeCell ref="O142:S142"/>
-    <mergeCell ref="O143:S143"/>
-    <mergeCell ref="T142:X142"/>
-    <mergeCell ref="T143:X143"/>
-    <mergeCell ref="Y142:AC142"/>
-    <mergeCell ref="Y143:AC143"/>
-    <mergeCell ref="O135:R135"/>
-    <mergeCell ref="S135:V135"/>
-    <mergeCell ref="O126:R126"/>
-    <mergeCell ref="O127:R127"/>
-    <mergeCell ref="S126:V126"/>
-    <mergeCell ref="S127:V127"/>
-    <mergeCell ref="AB165:AG165"/>
-    <mergeCell ref="AB166:AG166"/>
-    <mergeCell ref="P190:U190"/>
-    <mergeCell ref="V190:AA190"/>
-    <mergeCell ref="AB190:AG190"/>
-    <mergeCell ref="P165:U165"/>
-    <mergeCell ref="P166:U166"/>
-    <mergeCell ref="V165:AA165"/>
-    <mergeCell ref="V166:AA166"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
@@ -25332,13 +26190,13 @@
       <c r="A7" t="s">
         <v>504</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="28" t="s">
         <v>441</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -25444,12 +26302,12 @@
       <c r="A14" t="s">
         <v>504</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="28" t="s">
         <v>472</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">

--- a/plotting/617_temp.xlsx
+++ b/plotting/617_temp.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2053" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2069" uniqueCount="621">
   <si>
     <t>.\vgg_unet2_0_3_640_640_64_256_rot_15_345_4_flip_5K\training_32_49_640_640_640_640_max_val_acc\vis\vis_log_181022_0927.txt</t>
   </si>
@@ -1879,6 +1879,9 @@
   </si>
   <si>
     <t>Precision (%)</t>
+  </si>
+  <si>
+    <t>% increase over SVM</t>
   </si>
 </sst>
 </file>
@@ -2020,7 +2023,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2032,6 +2035,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2086,6 +2092,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7827,13 +7835,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -8172,13 +8180,13 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="16" t="s">
         <v>406</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -8451,13 +8459,13 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -8790,13 +8798,13 @@
       </c>
     </row>
     <row r="71" spans="1:7" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="15" t="s">
+      <c r="A71" s="16" t="s">
         <v>408</v>
       </c>
-      <c r="B71" s="15"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
@@ -9204,13 +9212,13 @@
       </c>
     </row>
     <row r="100" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="15" t="s">
+      <c r="A100" s="16" t="s">
         <v>559</v>
       </c>
-      <c r="B100" s="15"/>
-      <c r="C100" s="15"/>
-      <c r="D100" s="15"/>
-      <c r="E100" s="15"/>
+      <c r="B100" s="16"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="16"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
@@ -9438,13 +9446,13 @@
       </c>
     </row>
     <row r="118" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A118" s="15" t="s">
+      <c r="A118" s="16" t="s">
         <v>409</v>
       </c>
-      <c r="B118" s="15"/>
-      <c r="C118" s="15"/>
-      <c r="D118" s="15"/>
-      <c r="E118" s="15"/>
+      <c r="B118" s="16"/>
+      <c r="C118" s="16"/>
+      <c r="D118" s="16"/>
+      <c r="E118" s="16"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
@@ -9672,13 +9680,13 @@
       </c>
     </row>
     <row r="137" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A137" s="15" t="s">
+      <c r="A137" s="16" t="s">
         <v>410</v>
       </c>
-      <c r="B137" s="15"/>
-      <c r="C137" s="15"/>
-      <c r="D137" s="15"/>
-      <c r="E137" s="15"/>
+      <c r="B137" s="16"/>
+      <c r="C137" s="16"/>
+      <c r="D137" s="16"/>
+      <c r="E137" s="16"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
@@ -9906,13 +9914,13 @@
       </c>
     </row>
     <row r="155" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A155" s="15" t="s">
+      <c r="A155" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="B155" s="15"/>
-      <c r="C155" s="15"/>
-      <c r="D155" s="15"/>
-      <c r="E155" s="15"/>
+      <c r="B155" s="16"/>
+      <c r="C155" s="16"/>
+      <c r="D155" s="16"/>
+      <c r="E155" s="16"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
@@ -10365,13 +10373,13 @@
       </c>
     </row>
     <row r="192" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A192" s="15" t="s">
+      <c r="A192" s="16" t="s">
         <v>409</v>
       </c>
-      <c r="B192" s="15"/>
-      <c r="C192" s="15"/>
-      <c r="D192" s="15"/>
-      <c r="E192" s="15"/>
+      <c r="B192" s="16"/>
+      <c r="C192" s="16"/>
+      <c r="D192" s="16"/>
+      <c r="E192" s="16"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
@@ -10869,13 +10877,13 @@
       </c>
     </row>
     <row r="231" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A231" s="15" t="s">
+      <c r="A231" s="16" t="s">
         <v>404</v>
       </c>
-      <c r="B231" s="15"/>
-      <c r="C231" s="15"/>
-      <c r="D231" s="15"/>
-      <c r="E231" s="15"/>
+      <c r="B231" s="16"/>
+      <c r="C231" s="16"/>
+      <c r="D231" s="16"/>
+      <c r="E231" s="16"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
@@ -11688,13 +11696,13 @@
       </c>
     </row>
     <row r="293" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A293" s="15" t="s">
+      <c r="A293" s="16" t="s">
         <v>403</v>
       </c>
-      <c r="B293" s="15"/>
-      <c r="C293" s="15"/>
-      <c r="D293" s="15"/>
-      <c r="E293" s="15"/>
+      <c r="B293" s="16"/>
+      <c r="C293" s="16"/>
+      <c r="D293" s="16"/>
+      <c r="E293" s="16"/>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
@@ -13635,10 +13643,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG263"/>
+  <dimension ref="A1:AG264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S244" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Z257" sqref="Z257:AG257"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H141" sqref="H141:H142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13654,13 +13662,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>413</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -13774,22 +13782,22 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="19" t="s">
         <v>420</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -13942,14 +13950,14 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="19" t="s">
         <v>413</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
       <c r="J17">
         <v>0.67832000000000003</v>
       </c>
@@ -13964,14 +13972,14 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="19" t="s">
         <v>444</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -14182,14 +14190,14 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="27" t="s">
         <v>420</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
       <c r="J24">
         <v>0.43318000000000001</v>
       </c>
@@ -14216,14 +14224,14 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="19" t="s">
         <v>445</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -14400,46 +14408,46 @@
       </c>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="AA33" s="18" t="s">
+      <c r="AA33" s="19" t="s">
         <v>567</v>
       </c>
-      <c r="AB33" s="18"/>
-      <c r="AC33" s="18"/>
-      <c r="AD33" s="18"/>
+      <c r="AB33" s="19"/>
+      <c r="AC33" s="19"/>
+      <c r="AD33" s="19"/>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="19" t="s">
         <v>413</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="H34" s="18" t="s">
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="H34" s="19" t="s">
         <v>434</v>
       </c>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
-      <c r="O34" s="18" t="s">
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="O34" s="19" t="s">
         <v>434</v>
       </c>
-      <c r="P34" s="18"/>
-      <c r="Q34" s="18"/>
-      <c r="R34" s="18"/>
-      <c r="S34" s="18"/>
-      <c r="T34" s="18"/>
-      <c r="U34" s="18"/>
-      <c r="V34" s="18" t="s">
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="19"/>
+      <c r="V34" s="19" t="s">
         <v>507</v>
       </c>
-      <c r="W34" s="18"/>
-      <c r="X34" s="18"/>
-      <c r="Y34" s="18"/>
-      <c r="Z34" s="18"/>
+      <c r="W34" s="19"/>
+      <c r="X34" s="19"/>
+      <c r="Y34" s="19"/>
+      <c r="Z34" s="19"/>
       <c r="AA34" t="s">
         <v>327</v>
       </c>
@@ -14454,38 +14462,38 @@
       </c>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="19" t="s">
         <v>432</v>
       </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="H35" s="18" t="s">
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="H35" s="19" t="s">
         <v>435</v>
       </c>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
-      <c r="O35" s="18" t="s">
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="O35" s="19" t="s">
         <v>435</v>
       </c>
-      <c r="P35" s="18"/>
-      <c r="Q35" s="18"/>
-      <c r="R35" s="18"/>
-      <c r="S35" s="18"/>
-      <c r="T35" s="18"/>
-      <c r="U35" s="18"/>
-      <c r="V35" s="18" t="s">
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="19"/>
+      <c r="V35" s="19" t="s">
         <v>513</v>
       </c>
-      <c r="W35" s="18"/>
-      <c r="X35" s="18"/>
-      <c r="Y35" s="18"/>
-      <c r="Z35" s="18"/>
+      <c r="W35" s="19"/>
+      <c r="X35" s="19"/>
+      <c r="Y35" s="19"/>
+      <c r="Z35" s="19"/>
       <c r="AA35">
         <v>0.88705000000000001</v>
       </c>
@@ -14904,22 +14912,22 @@
       <c r="Z40">
         <v>0.70833999999999997</v>
       </c>
-      <c r="AA40" s="18" t="s">
+      <c r="AA40" s="19" t="s">
         <v>566</v>
       </c>
-      <c r="AB40" s="18"/>
-      <c r="AC40" s="18"/>
-      <c r="AD40" s="18"/>
+      <c r="AB40" s="19"/>
+      <c r="AC40" s="19"/>
+      <c r="AD40" s="19"/>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="19" t="s">
         <v>424</v>
       </c>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
       <c r="H41" s="1" t="s">
         <v>416</v>
       </c>
@@ -14988,14 +14996,14 @@
       </c>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="19" t="s">
         <v>433</v>
       </c>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
       <c r="H42" s="1" t="s">
         <v>417</v>
       </c>
@@ -15014,22 +15022,22 @@
       <c r="M42">
         <v>0.63066</v>
       </c>
-      <c r="O42" s="18" t="s">
+      <c r="O42" s="19" t="s">
         <v>434</v>
       </c>
-      <c r="P42" s="18"/>
-      <c r="Q42" s="18"/>
-      <c r="R42" s="18"/>
-      <c r="S42" s="18"/>
-      <c r="T42" s="18"/>
-      <c r="U42" s="18"/>
-      <c r="V42" s="18" t="s">
+      <c r="P42" s="19"/>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="19"/>
+      <c r="S42" s="19"/>
+      <c r="T42" s="19"/>
+      <c r="U42" s="19"/>
+      <c r="V42" s="19" t="s">
         <v>511</v>
       </c>
-      <c r="W42" s="18"/>
-      <c r="X42" s="18"/>
-      <c r="Y42" s="18"/>
-      <c r="Z42" s="18"/>
+      <c r="W42" s="19"/>
+      <c r="X42" s="19"/>
+      <c r="Y42" s="19"/>
+      <c r="Z42" s="19"/>
       <c r="AA42">
         <v>0.87365000000000004</v>
       </c>
@@ -15080,22 +15088,22 @@
       <c r="M43">
         <v>0.65837000000000001</v>
       </c>
-      <c r="O43" s="18" t="s">
+      <c r="O43" s="19" t="s">
         <v>442</v>
       </c>
-      <c r="P43" s="18"/>
-      <c r="Q43" s="18"/>
-      <c r="R43" s="18"/>
-      <c r="S43" s="18"/>
-      <c r="T43" s="18"/>
-      <c r="U43" s="18"/>
-      <c r="V43" s="18" t="s">
+      <c r="P43" s="19"/>
+      <c r="Q43" s="19"/>
+      <c r="R43" s="19"/>
+      <c r="S43" s="19"/>
+      <c r="T43" s="19"/>
+      <c r="U43" s="19"/>
+      <c r="V43" s="19" t="s">
         <v>514</v>
       </c>
-      <c r="W43" s="18"/>
-      <c r="X43" s="18"/>
-      <c r="Y43" s="18"/>
-      <c r="Z43" s="18"/>
+      <c r="W43" s="19"/>
+      <c r="X43" s="19"/>
+      <c r="Y43" s="19"/>
+      <c r="Z43" s="19"/>
       <c r="AA43" t="s">
         <v>331</v>
       </c>
@@ -15378,21 +15386,21 @@
       <c r="Z47">
         <v>0.47498000000000001</v>
       </c>
-      <c r="AA47" s="18" t="s">
+      <c r="AA47" s="19" t="s">
         <v>565</v>
       </c>
-      <c r="AB47" s="18"/>
-      <c r="AC47" s="18"/>
-      <c r="AD47" s="18"/>
+      <c r="AB47" s="19"/>
+      <c r="AC47" s="19"/>
+      <c r="AD47" s="19"/>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="19" t="s">
         <v>506</v>
       </c>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
       <c r="F48" s="2"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
@@ -15446,13 +15454,13 @@
       </c>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A49" s="18" t="s">
+      <c r="A49" s="19" t="s">
         <v>505</v>
       </c>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
       <c r="O49" s="1" t="s">
         <v>437</v>
       </c>
@@ -15518,22 +15526,22 @@
       <c r="E50" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="O50" s="18" t="s">
+      <c r="O50" s="19" t="s">
         <v>434</v>
       </c>
-      <c r="P50" s="18"/>
-      <c r="Q50" s="18"/>
-      <c r="R50" s="18"/>
-      <c r="S50" s="18"/>
-      <c r="T50" s="18"/>
-      <c r="U50" s="18"/>
-      <c r="V50" s="18" t="s">
+      <c r="P50" s="19"/>
+      <c r="Q50" s="19"/>
+      <c r="R50" s="19"/>
+      <c r="S50" s="19"/>
+      <c r="T50" s="19"/>
+      <c r="U50" s="19"/>
+      <c r="V50" s="19" t="s">
         <v>507</v>
       </c>
-      <c r="W50" s="18"/>
-      <c r="X50" s="18"/>
-      <c r="Y50" s="18"/>
-      <c r="Z50" s="18"/>
+      <c r="W50" s="19"/>
+      <c r="X50" s="19"/>
+      <c r="Y50" s="19"/>
+      <c r="Z50" s="19"/>
       <c r="AA50" t="s">
         <v>331</v>
       </c>
@@ -15560,22 +15568,22 @@
       <c r="E51">
         <v>0.63066</v>
       </c>
-      <c r="O51" s="18" t="s">
+      <c r="O51" s="19" t="s">
         <v>446</v>
       </c>
-      <c r="P51" s="18"/>
-      <c r="Q51" s="18"/>
-      <c r="R51" s="18"/>
-      <c r="S51" s="18"/>
-      <c r="T51" s="18"/>
-      <c r="U51" s="18"/>
-      <c r="V51" s="18" t="s">
+      <c r="P51" s="19"/>
+      <c r="Q51" s="19"/>
+      <c r="R51" s="19"/>
+      <c r="S51" s="19"/>
+      <c r="T51" s="19"/>
+      <c r="U51" s="19"/>
+      <c r="V51" s="19" t="s">
         <v>515</v>
       </c>
-      <c r="W51" s="18"/>
-      <c r="X51" s="18"/>
-      <c r="Y51" s="18"/>
-      <c r="Z51" s="18"/>
+      <c r="W51" s="19"/>
+      <c r="X51" s="19"/>
+      <c r="Y51" s="19"/>
+      <c r="Z51" s="19"/>
       <c r="AA51">
         <v>0.77363000000000004</v>
       </c>
@@ -15817,20 +15825,20 @@
       </c>
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A56" s="18" t="s">
+      <c r="A56" s="19" t="s">
         <v>507</v>
       </c>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18" t="s">
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19" t="s">
         <v>511</v>
       </c>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="18"/>
-      <c r="J56" s="18"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
       <c r="O56" s="1" t="s">
         <v>438</v>
       </c>
@@ -15869,20 +15877,20 @@
       </c>
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A57" s="18" t="s">
+      <c r="A57" s="19" t="s">
         <v>508</v>
       </c>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18" t="s">
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19" t="s">
         <v>512</v>
       </c>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="18"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
       <c r="O57" s="1" t="s">
         <v>437</v>
       </c>
@@ -15951,22 +15959,22 @@
       <c r="J58" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="O58" s="18" t="s">
+      <c r="O58" s="19" t="s">
         <v>434</v>
       </c>
-      <c r="P58" s="18"/>
-      <c r="Q58" s="18"/>
-      <c r="R58" s="18"/>
-      <c r="S58" s="18"/>
-      <c r="T58" s="18"/>
-      <c r="U58" s="18"/>
-      <c r="V58" s="18" t="s">
+      <c r="P58" s="19"/>
+      <c r="Q58" s="19"/>
+      <c r="R58" s="19"/>
+      <c r="S58" s="19"/>
+      <c r="T58" s="19"/>
+      <c r="U58" s="19"/>
+      <c r="V58" s="19" t="s">
         <v>511</v>
       </c>
-      <c r="W58" s="18"/>
-      <c r="X58" s="18"/>
-      <c r="Y58" s="18"/>
-      <c r="Z58" s="18"/>
+      <c r="W58" s="19"/>
+      <c r="X58" s="19"/>
+      <c r="Y58" s="19"/>
+      <c r="Z58" s="19"/>
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
@@ -15999,22 +16007,22 @@
       <c r="J59">
         <v>0.76844000000000001</v>
       </c>
-      <c r="O59" s="18" t="s">
+      <c r="O59" s="19" t="s">
         <v>447</v>
       </c>
-      <c r="P59" s="18"/>
-      <c r="Q59" s="18"/>
-      <c r="R59" s="18"/>
-      <c r="S59" s="18"/>
-      <c r="T59" s="18"/>
-      <c r="U59" s="18"/>
-      <c r="V59" s="18" t="s">
+      <c r="P59" s="19"/>
+      <c r="Q59" s="19"/>
+      <c r="R59" s="19"/>
+      <c r="S59" s="19"/>
+      <c r="T59" s="19"/>
+      <c r="U59" s="19"/>
+      <c r="V59" s="19" t="s">
         <v>544</v>
       </c>
-      <c r="W59" s="18"/>
-      <c r="X59" s="18"/>
-      <c r="Y59" s="18"/>
-      <c r="Z59" s="18"/>
+      <c r="W59" s="19"/>
+      <c r="X59" s="19"/>
+      <c r="Y59" s="19"/>
+      <c r="Z59" s="19"/>
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
@@ -16327,10 +16335,10 @@
       </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A65" s="18" t="s">
+      <c r="A65" s="19" t="s">
         <v>413</v>
       </c>
-      <c r="B65" s="18" t="s">
+      <c r="B65" s="19" t="s">
         <v>444</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -16386,8 +16394,8 @@
       </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A66" s="18"/>
-      <c r="B66" s="18"/>
+      <c r="A66" s="19"/>
+      <c r="B66" s="19"/>
       <c r="C66" s="1" t="s">
         <v>412</v>
       </c>
@@ -16403,19 +16411,19 @@
       <c r="G66">
         <v>0.84930000000000005</v>
       </c>
-      <c r="O66" s="18" t="s">
+      <c r="O66" s="19" t="s">
         <v>434</v>
       </c>
-      <c r="P66" s="18"/>
-      <c r="Q66" s="18"/>
-      <c r="R66" s="18"/>
-      <c r="S66" s="18"/>
-      <c r="T66" s="18"/>
-      <c r="U66" s="18"/>
+      <c r="P66" s="19"/>
+      <c r="Q66" s="19"/>
+      <c r="R66" s="19"/>
+      <c r="S66" s="19"/>
+      <c r="T66" s="19"/>
+      <c r="U66" s="19"/>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A67" s="18"/>
-      <c r="B67" s="18"/>
+      <c r="A67" s="19"/>
+      <c r="B67" s="19"/>
       <c r="C67" s="1" t="s">
         <v>405</v>
       </c>
@@ -16431,19 +16439,19 @@
       <c r="G67">
         <v>0.90871000000000002</v>
       </c>
-      <c r="O67" s="18" t="s">
+      <c r="O67" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="P67" s="18"/>
-      <c r="Q67" s="18"/>
-      <c r="R67" s="18"/>
-      <c r="S67" s="18"/>
-      <c r="T67" s="18"/>
-      <c r="U67" s="18"/>
+      <c r="P67" s="19"/>
+      <c r="Q67" s="19"/>
+      <c r="R67" s="19"/>
+      <c r="S67" s="19"/>
+      <c r="T67" s="19"/>
+      <c r="U67" s="19"/>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A68" s="18"/>
-      <c r="B68" s="18"/>
+      <c r="A68" s="19"/>
+      <c r="B68" s="19"/>
       <c r="C68" s="1" t="s">
         <v>404</v>
       </c>
@@ -16482,8 +16490,8 @@
       </c>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A69" s="18"/>
-      <c r="B69" s="18"/>
+      <c r="A69" s="19"/>
+      <c r="B69" s="19"/>
       <c r="C69" s="1" t="s">
         <v>406</v>
       </c>
@@ -16522,8 +16530,8 @@
       </c>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A70" s="18"/>
-      <c r="B70" s="18"/>
+      <c r="A70" s="19"/>
+      <c r="B70" s="19"/>
       <c r="C70" s="1" t="s">
         <v>403</v>
       </c>
@@ -16562,10 +16570,10 @@
       </c>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A71" s="26" t="s">
+      <c r="A71" s="27" t="s">
         <v>420</v>
       </c>
-      <c r="B71" s="18" t="s">
+      <c r="B71" s="19" t="s">
         <v>445</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -16606,8 +16614,8 @@
       </c>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A72" s="18"/>
-      <c r="B72" s="18"/>
+      <c r="A72" s="19"/>
+      <c r="B72" s="19"/>
       <c r="C72" s="1" t="s">
         <v>412</v>
       </c>
@@ -16646,8 +16654,8 @@
       </c>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A73" s="18"/>
-      <c r="B73" s="18"/>
+      <c r="A73" s="19"/>
+      <c r="B73" s="19"/>
       <c r="C73" s="1" t="s">
         <v>405</v>
       </c>
@@ -16686,8 +16694,8 @@
       </c>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A74" s="18"/>
-      <c r="B74" s="18"/>
+      <c r="A74" s="19"/>
+      <c r="B74" s="19"/>
       <c r="C74" s="1" t="s">
         <v>404</v>
       </c>
@@ -16703,19 +16711,19 @@
       <c r="G74">
         <v>0.81733</v>
       </c>
-      <c r="O74" s="18" t="s">
+      <c r="O74" s="19" t="s">
         <v>434</v>
       </c>
-      <c r="P74" s="18"/>
-      <c r="Q74" s="18"/>
-      <c r="R74" s="18"/>
-      <c r="S74" s="18"/>
-      <c r="T74" s="18"/>
-      <c r="U74" s="18"/>
+      <c r="P74" s="19"/>
+      <c r="Q74" s="19"/>
+      <c r="R74" s="19"/>
+      <c r="S74" s="19"/>
+      <c r="T74" s="19"/>
+      <c r="U74" s="19"/>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A75" s="18"/>
-      <c r="B75" s="18"/>
+      <c r="A75" s="19"/>
+      <c r="B75" s="19"/>
       <c r="C75" s="1" t="s">
         <v>406</v>
       </c>
@@ -16731,19 +16739,19 @@
       <c r="G75">
         <v>0.77490000000000003</v>
       </c>
-      <c r="O75" s="18" t="s">
+      <c r="O75" s="19" t="s">
         <v>449</v>
       </c>
-      <c r="P75" s="18"/>
-      <c r="Q75" s="18"/>
-      <c r="R75" s="18"/>
-      <c r="S75" s="18"/>
-      <c r="T75" s="18"/>
-      <c r="U75" s="18"/>
+      <c r="P75" s="19"/>
+      <c r="Q75" s="19"/>
+      <c r="R75" s="19"/>
+      <c r="S75" s="19"/>
+      <c r="T75" s="19"/>
+      <c r="U75" s="19"/>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A76" s="18"/>
-      <c r="B76" s="18"/>
+      <c r="A76" s="19"/>
+      <c r="B76" s="19"/>
       <c r="C76" s="1" t="s">
         <v>403</v>
       </c>
@@ -16782,22 +16790,22 @@
       </c>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A77" s="18" t="s">
+      <c r="A77" s="19" t="s">
         <v>507</v>
       </c>
-      <c r="B77" s="18"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="18"/>
-      <c r="E77" s="18"/>
-      <c r="F77" s="18"/>
-      <c r="G77" s="18" t="s">
+      <c r="B77" s="19"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="19" t="s">
         <v>511</v>
       </c>
-      <c r="H77" s="18"/>
-      <c r="I77" s="18"/>
-      <c r="J77" s="18"/>
-      <c r="K77" s="18"/>
-      <c r="L77" s="18"/>
+      <c r="H77" s="19"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="19"/>
+      <c r="K77" s="19"/>
+      <c r="L77" s="19"/>
       <c r="O77" t="s">
         <v>436</v>
       </c>
@@ -16821,22 +16829,22 @@
       </c>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A78" s="18" t="s">
+      <c r="A78" s="19" t="s">
         <v>508</v>
       </c>
-      <c r="B78" s="18"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="18"/>
-      <c r="F78" s="18"/>
-      <c r="G78" s="18" t="s">
+      <c r="B78" s="19"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="19" t="s">
         <v>512</v>
       </c>
-      <c r="H78" s="18"/>
-      <c r="I78" s="18"/>
-      <c r="J78" s="18"/>
-      <c r="K78" s="18"/>
-      <c r="L78" s="18"/>
+      <c r="H78" s="19"/>
+      <c r="I78" s="19"/>
+      <c r="J78" s="19"/>
+      <c r="K78" s="19"/>
+      <c r="L78" s="19"/>
       <c r="O78" t="s">
         <v>440</v>
       </c>
@@ -17113,33 +17121,33 @@
       </c>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B84" s="18" t="s">
+      <c r="B84" s="19" t="s">
         <v>523</v>
       </c>
-      <c r="C84" s="18"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="19"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
-      <c r="P84" s="18" t="s">
+      <c r="P84" s="19" t="s">
         <v>434</v>
       </c>
-      <c r="Q84" s="18"/>
-      <c r="R84" s="18"/>
-      <c r="S84" s="18"/>
-      <c r="T84" s="18"/>
-      <c r="U84" s="18"/>
-      <c r="V84" s="18"/>
-      <c r="W84" s="18"/>
-      <c r="X84" s="18"/>
+      <c r="Q84" s="19"/>
+      <c r="R84" s="19"/>
+      <c r="S84" s="19"/>
+      <c r="T84" s="19"/>
+      <c r="U84" s="19"/>
+      <c r="V84" s="19"/>
+      <c r="W84" s="19"/>
+      <c r="X84" s="19"/>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B85" s="18" t="s">
+      <c r="B85" s="19" t="s">
         <v>545</v>
       </c>
-      <c r="C85" s="18"/>
-      <c r="D85" s="18"/>
-      <c r="E85" s="18"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
       <c r="F85" s="1" t="s">
         <v>522</v>
       </c>
@@ -17155,17 +17163,17 @@
       <c r="J85" t="s">
         <v>528</v>
       </c>
-      <c r="P85" s="18" t="s">
+      <c r="P85" s="19" t="s">
         <v>454</v>
       </c>
-      <c r="Q85" s="18"/>
-      <c r="R85" s="18"/>
-      <c r="S85" s="18"/>
-      <c r="T85" s="18"/>
-      <c r="U85" s="18"/>
-      <c r="V85" s="18"/>
-      <c r="W85" s="18"/>
-      <c r="X85" s="18"/>
+      <c r="Q85" s="19"/>
+      <c r="R85" s="19"/>
+      <c r="S85" s="19"/>
+      <c r="T85" s="19"/>
+      <c r="U85" s="19"/>
+      <c r="V85" s="19"/>
+      <c r="W85" s="19"/>
+      <c r="X85" s="19"/>
     </row>
     <row r="86" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
@@ -17507,54 +17515,54 @@
       </c>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B92" s="18" t="s">
+      <c r="B92" s="19" t="s">
         <v>523</v>
       </c>
-      <c r="C92" s="18"/>
-      <c r="D92" s="18"/>
-      <c r="E92" s="18"/>
-      <c r="F92" s="18" t="s">
+      <c r="C92" s="19"/>
+      <c r="D92" s="19"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="19" t="s">
         <v>523</v>
       </c>
-      <c r="G92" s="18"/>
-      <c r="H92" s="18"/>
-      <c r="I92" s="18"/>
-      <c r="P92" s="18" t="s">
+      <c r="G92" s="19"/>
+      <c r="H92" s="19"/>
+      <c r="I92" s="19"/>
+      <c r="P92" s="19" t="s">
         <v>434</v>
       </c>
-      <c r="Q92" s="18"/>
-      <c r="R92" s="18"/>
-      <c r="S92" s="18"/>
-      <c r="T92" s="18"/>
-      <c r="U92" s="18"/>
-      <c r="V92" s="18"/>
-      <c r="W92" s="18"/>
-      <c r="X92" s="18"/>
+      <c r="Q92" s="19"/>
+      <c r="R92" s="19"/>
+      <c r="S92" s="19"/>
+      <c r="T92" s="19"/>
+      <c r="U92" s="19"/>
+      <c r="V92" s="19"/>
+      <c r="W92" s="19"/>
+      <c r="X92" s="19"/>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B93" s="18" t="s">
+      <c r="B93" s="19" t="s">
         <v>546</v>
       </c>
-      <c r="C93" s="18"/>
-      <c r="D93" s="18"/>
-      <c r="E93" s="18"/>
-      <c r="F93" s="18" t="s">
+      <c r="C93" s="19"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="19" t="s">
         <v>548</v>
       </c>
-      <c r="G93" s="18"/>
-      <c r="H93" s="18"/>
-      <c r="I93" s="18"/>
-      <c r="P93" s="18" t="s">
+      <c r="G93" s="19"/>
+      <c r="H93" s="19"/>
+      <c r="I93" s="19"/>
+      <c r="P93" s="19" t="s">
         <v>462</v>
       </c>
-      <c r="Q93" s="18"/>
-      <c r="R93" s="18"/>
-      <c r="S93" s="18"/>
-      <c r="T93" s="18"/>
-      <c r="U93" s="18"/>
-      <c r="V93" s="18"/>
-      <c r="W93" s="18"/>
-      <c r="X93" s="18"/>
+      <c r="Q93" s="19"/>
+      <c r="R93" s="19"/>
+      <c r="S93" s="19"/>
+      <c r="T93" s="19"/>
+      <c r="U93" s="19"/>
+      <c r="V93" s="19"/>
+      <c r="W93" s="19"/>
+      <c r="X93" s="19"/>
     </row>
     <row r="94" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
@@ -17914,12 +17922,12 @@
       <c r="A100" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="B100" s="18" t="s">
+      <c r="B100" s="19" t="s">
         <v>523</v>
       </c>
-      <c r="C100" s="18"/>
-      <c r="D100" s="18"/>
-      <c r="E100" s="18"/>
+      <c r="C100" s="19"/>
+      <c r="D100" s="19"/>
+      <c r="E100" s="19"/>
       <c r="F100" s="1" t="s">
         <v>554</v>
       </c>
@@ -17935,26 +17943,26 @@
       <c r="J100">
         <v>0.77887333098497002</v>
       </c>
-      <c r="P100" s="18" t="s">
+      <c r="P100" s="19" t="s">
         <v>434</v>
       </c>
-      <c r="Q100" s="18"/>
-      <c r="R100" s="18"/>
-      <c r="S100" s="18"/>
-      <c r="T100" s="18"/>
-      <c r="U100" s="18"/>
-      <c r="V100" s="18"/>
-      <c r="W100" s="18"/>
-      <c r="X100" s="18"/>
+      <c r="Q100" s="19"/>
+      <c r="R100" s="19"/>
+      <c r="S100" s="19"/>
+      <c r="T100" s="19"/>
+      <c r="U100" s="19"/>
+      <c r="V100" s="19"/>
+      <c r="W100" s="19"/>
+      <c r="X100" s="19"/>
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
-      <c r="B101" s="18" t="s">
+      <c r="B101" s="19" t="s">
         <v>547</v>
       </c>
-      <c r="C101" s="18"/>
-      <c r="D101" s="18"/>
-      <c r="E101" s="18"/>
+      <c r="C101" s="19"/>
+      <c r="D101" s="19"/>
+      <c r="E101" s="19"/>
       <c r="F101" s="1" t="s">
         <v>555</v>
       </c>
@@ -17970,17 +17978,17 @@
       <c r="J101">
         <v>1.27434722297322</v>
       </c>
-      <c r="P101" s="18" t="s">
+      <c r="P101" s="19" t="s">
         <v>455</v>
       </c>
-      <c r="Q101" s="18"/>
-      <c r="R101" s="18"/>
-      <c r="S101" s="18"/>
-      <c r="T101" s="18"/>
-      <c r="U101" s="18"/>
-      <c r="V101" s="18"/>
-      <c r="W101" s="18"/>
-      <c r="X101" s="18"/>
+      <c r="Q101" s="19"/>
+      <c r="R101" s="19"/>
+      <c r="S101" s="19"/>
+      <c r="T101" s="19"/>
+      <c r="U101" s="19"/>
+      <c r="V101" s="19"/>
+      <c r="W101" s="19"/>
+      <c r="X101" s="19"/>
     </row>
     <row r="102" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
@@ -18280,49 +18288,49 @@
       <c r="B108" s="1"/>
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A109" s="18" t="s">
+      <c r="A109" s="19" t="s">
         <v>507</v>
       </c>
-      <c r="B109" s="18"/>
-      <c r="C109" s="18"/>
-      <c r="D109" s="18"/>
-      <c r="E109" s="18"/>
-      <c r="F109" s="18"/>
-      <c r="G109" s="18" t="s">
+      <c r="B109" s="19"/>
+      <c r="C109" s="19"/>
+      <c r="D109" s="19"/>
+      <c r="E109" s="19"/>
+      <c r="F109" s="19"/>
+      <c r="G109" s="19" t="s">
         <v>511</v>
       </c>
-      <c r="H109" s="18"/>
-      <c r="I109" s="18"/>
-      <c r="J109" s="18"/>
-      <c r="K109" s="18"/>
-      <c r="L109" s="18"/>
+      <c r="H109" s="19"/>
+      <c r="I109" s="19"/>
+      <c r="J109" s="19"/>
+      <c r="K109" s="19"/>
+      <c r="L109" s="19"/>
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A110" s="18" t="s">
+      <c r="A110" s="19" t="s">
         <v>508</v>
       </c>
-      <c r="B110" s="18"/>
-      <c r="C110" s="18"/>
-      <c r="D110" s="18"/>
-      <c r="E110" s="18"/>
-      <c r="F110" s="18"/>
-      <c r="G110" s="18" t="s">
+      <c r="B110" s="19"/>
+      <c r="C110" s="19"/>
+      <c r="D110" s="19"/>
+      <c r="E110" s="19"/>
+      <c r="F110" s="19"/>
+      <c r="G110" s="19" t="s">
         <v>512</v>
       </c>
-      <c r="H110" s="18"/>
-      <c r="I110" s="18"/>
-      <c r="J110" s="18"/>
-      <c r="K110" s="18"/>
-      <c r="L110" s="18"/>
-      <c r="O110" s="18" t="s">
+      <c r="H110" s="19"/>
+      <c r="I110" s="19"/>
+      <c r="J110" s="19"/>
+      <c r="K110" s="19"/>
+      <c r="L110" s="19"/>
+      <c r="O110" s="19" t="s">
         <v>434</v>
       </c>
-      <c r="P110" s="18"/>
-      <c r="Q110" s="18"/>
-      <c r="R110" s="18"/>
-      <c r="S110" s="18"/>
-      <c r="T110" s="18"/>
-      <c r="U110" s="18"/>
+      <c r="P110" s="19"/>
+      <c r="Q110" s="19"/>
+      <c r="R110" s="19"/>
+      <c r="S110" s="19"/>
+      <c r="T110" s="19"/>
+      <c r="U110" s="19"/>
       <c r="V110" s="2"/>
       <c r="W110" s="2"/>
     </row>
@@ -18363,15 +18371,15 @@
       <c r="L111" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="O111" s="18" t="s">
+      <c r="O111" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="P111" s="18"/>
-      <c r="Q111" s="18"/>
-      <c r="R111" s="18"/>
-      <c r="S111" s="18"/>
-      <c r="T111" s="18"/>
-      <c r="U111" s="18"/>
+      <c r="P111" s="19"/>
+      <c r="Q111" s="19"/>
+      <c r="R111" s="19"/>
+      <c r="S111" s="19"/>
+      <c r="T111" s="19"/>
+      <c r="U111" s="19"/>
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
@@ -18659,59 +18667,59 @@
       <c r="A118" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="B118" s="23" t="s">
+      <c r="B118" s="24" t="s">
         <v>522</v>
       </c>
-      <c r="C118" s="24"/>
-      <c r="D118" s="24"/>
-      <c r="E118" s="24"/>
-      <c r="F118" s="25"/>
+      <c r="C118" s="25"/>
+      <c r="D118" s="25"/>
+      <c r="E118" s="25"/>
+      <c r="F118" s="26"/>
       <c r="G118" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="H118" s="19" t="s">
+      <c r="H118" s="20" t="s">
         <v>522</v>
       </c>
-      <c r="I118" s="21"/>
-      <c r="J118" s="21"/>
-      <c r="K118" s="21"/>
-      <c r="L118" s="20"/>
-      <c r="O118" s="18" t="s">
+      <c r="I118" s="22"/>
+      <c r="J118" s="22"/>
+      <c r="K118" s="22"/>
+      <c r="L118" s="21"/>
+      <c r="O118" s="19" t="s">
         <v>434</v>
       </c>
-      <c r="P118" s="18"/>
-      <c r="Q118" s="18"/>
-      <c r="R118" s="18"/>
-      <c r="S118" s="18"/>
-      <c r="T118" s="18"/>
-      <c r="U118" s="18"/>
+      <c r="P118" s="19"/>
+      <c r="Q118" s="19"/>
+      <c r="R118" s="19"/>
+      <c r="S118" s="19"/>
+      <c r="T118" s="19"/>
+      <c r="U118" s="19"/>
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A119" s="23" t="s">
+      <c r="A119" s="24" t="s">
         <v>533</v>
       </c>
-      <c r="B119" s="24"/>
-      <c r="C119" s="24"/>
-      <c r="D119" s="24"/>
-      <c r="E119" s="24"/>
-      <c r="F119" s="25"/>
-      <c r="G119" s="23" t="s">
+      <c r="B119" s="25"/>
+      <c r="C119" s="25"/>
+      <c r="D119" s="25"/>
+      <c r="E119" s="25"/>
+      <c r="F119" s="26"/>
+      <c r="G119" s="24" t="s">
         <v>538</v>
       </c>
-      <c r="H119" s="24"/>
-      <c r="I119" s="24"/>
-      <c r="J119" s="24"/>
-      <c r="K119" s="24"/>
-      <c r="L119" s="25"/>
-      <c r="O119" s="18" t="s">
+      <c r="H119" s="25"/>
+      <c r="I119" s="25"/>
+      <c r="J119" s="25"/>
+      <c r="K119" s="25"/>
+      <c r="L119" s="26"/>
+      <c r="O119" s="19" t="s">
         <v>461</v>
       </c>
-      <c r="P119" s="18"/>
-      <c r="Q119" s="18"/>
-      <c r="R119" s="18"/>
-      <c r="S119" s="18"/>
-      <c r="T119" s="18"/>
-      <c r="U119" s="18"/>
+      <c r="P119" s="19"/>
+      <c r="Q119" s="19"/>
+      <c r="R119" s="19"/>
+      <c r="S119" s="19"/>
+      <c r="T119" s="19"/>
+      <c r="U119" s="19"/>
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
@@ -18735,15 +18743,15 @@
       <c r="G120" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="H120" s="22">
+      <c r="H120" s="23">
         <v>1</v>
       </c>
-      <c r="I120" s="22"/>
-      <c r="J120" s="22"/>
-      <c r="K120" s="22">
+      <c r="I120" s="23"/>
+      <c r="J120" s="23"/>
+      <c r="K120" s="23">
         <v>2</v>
       </c>
-      <c r="L120" s="22"/>
+      <c r="L120" s="23"/>
       <c r="O120" s="1" t="s">
         <v>472</v>
       </c>
@@ -18788,15 +18796,15 @@
       <c r="G121" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="H121" s="22">
+      <c r="H121" s="23">
         <v>1</v>
       </c>
-      <c r="I121" s="22"/>
-      <c r="J121" s="22"/>
-      <c r="K121" s="22">
+      <c r="I121" s="23"/>
+      <c r="J121" s="23"/>
+      <c r="K121" s="23">
         <v>2</v>
       </c>
-      <c r="L121" s="22"/>
+      <c r="L121" s="23"/>
       <c r="O121" s="1" t="s">
         <v>457</v>
       </c>
@@ -18841,15 +18849,15 @@
       <c r="G122" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="H122" s="22">
+      <c r="H122" s="23">
         <v>1</v>
       </c>
-      <c r="I122" s="22"/>
-      <c r="J122" s="22"/>
-      <c r="K122" s="22">
+      <c r="I122" s="23"/>
+      <c r="J122" s="23"/>
+      <c r="K122" s="23">
         <v>2</v>
       </c>
-      <c r="L122" s="22"/>
+      <c r="L122" s="23"/>
       <c r="O122" s="1" t="s">
         <v>458</v>
       </c>
@@ -18873,22 +18881,22 @@
       </c>
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A123" s="23" t="s">
+      <c r="A123" s="24" t="s">
         <v>412</v>
       </c>
-      <c r="B123" s="24"/>
-      <c r="C123" s="24"/>
-      <c r="D123" s="24"/>
-      <c r="E123" s="24"/>
-      <c r="F123" s="25"/>
-      <c r="G123" s="23" t="s">
+      <c r="B123" s="25"/>
+      <c r="C123" s="25"/>
+      <c r="D123" s="25"/>
+      <c r="E123" s="25"/>
+      <c r="F123" s="26"/>
+      <c r="G123" s="24" t="s">
         <v>537</v>
       </c>
-      <c r="H123" s="24"/>
-      <c r="I123" s="24"/>
-      <c r="J123" s="24"/>
-      <c r="K123" s="24"/>
-      <c r="L123" s="25"/>
+      <c r="H123" s="25"/>
+      <c r="I123" s="25"/>
+      <c r="J123" s="25"/>
+      <c r="K123" s="25"/>
+      <c r="L123" s="26"/>
       <c r="O123" s="1" t="s">
         <v>459</v>
       </c>
@@ -18918,14 +18926,14 @@
       <c r="B124" s="7">
         <v>1</v>
       </c>
-      <c r="C124" s="22">
+      <c r="C124" s="23">
         <v>2</v>
       </c>
-      <c r="D124" s="22"/>
-      <c r="E124" s="19">
+      <c r="D124" s="23"/>
+      <c r="E124" s="20">
         <v>3</v>
       </c>
-      <c r="F124" s="20"/>
+      <c r="F124" s="21"/>
       <c r="G124" s="6" t="s">
         <v>406</v>
       </c>
@@ -18979,10 +18987,10 @@
       <c r="D125" s="7">
         <v>3</v>
       </c>
-      <c r="E125" s="19">
+      <c r="E125" s="20">
         <v>4</v>
       </c>
-      <c r="F125" s="20"/>
+      <c r="F125" s="21"/>
       <c r="G125" s="6" t="s">
         <v>405</v>
       </c>
@@ -19024,32 +19032,32 @@
       </c>
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="O126" s="18" t="s">
+      <c r="O126" s="19" t="s">
         <v>507</v>
       </c>
-      <c r="P126" s="18"/>
-      <c r="Q126" s="18"/>
-      <c r="R126" s="18"/>
-      <c r="S126" s="18" t="s">
+      <c r="P126" s="19"/>
+      <c r="Q126" s="19"/>
+      <c r="R126" s="19"/>
+      <c r="S126" s="19" t="s">
         <v>511</v>
       </c>
-      <c r="T126" s="18"/>
-      <c r="U126" s="18"/>
-      <c r="V126" s="18"/>
+      <c r="T126" s="19"/>
+      <c r="U126" s="19"/>
+      <c r="V126" s="19"/>
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="O127" s="18" t="s">
+      <c r="O127" s="19" t="s">
         <v>541</v>
       </c>
-      <c r="P127" s="18"/>
-      <c r="Q127" s="18"/>
-      <c r="R127" s="18"/>
-      <c r="S127" s="18" t="s">
+      <c r="P127" s="19"/>
+      <c r="Q127" s="19"/>
+      <c r="R127" s="19"/>
+      <c r="S127" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="T127" s="18"/>
-      <c r="U127" s="18"/>
-      <c r="V127" s="18"/>
+      <c r="T127" s="19"/>
+      <c r="U127" s="19"/>
+      <c r="V127" s="19"/>
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
@@ -19292,18 +19300,18 @@
       <c r="D134" t="s">
         <v>563</v>
       </c>
-      <c r="O134" s="18" t="s">
+      <c r="O134" s="19" t="s">
         <v>507</v>
       </c>
-      <c r="P134" s="18"/>
-      <c r="Q134" s="18"/>
-      <c r="R134" s="18"/>
-      <c r="S134" s="18" t="s">
+      <c r="P134" s="19"/>
+      <c r="Q134" s="19"/>
+      <c r="R134" s="19"/>
+      <c r="S134" s="19" t="s">
         <v>511</v>
       </c>
-      <c r="T134" s="18"/>
-      <c r="U134" s="18"/>
-      <c r="V134" s="18"/>
+      <c r="T134" s="19"/>
+      <c r="U134" s="19"/>
+      <c r="V134" s="19"/>
     </row>
     <row r="135" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A135">
@@ -19318,18 +19326,18 @@
       <c r="D135">
         <v>0.26800000000000002</v>
       </c>
-      <c r="O135" s="18" t="s">
+      <c r="O135" s="19" t="s">
         <v>543</v>
       </c>
-      <c r="P135" s="18"/>
-      <c r="Q135" s="18"/>
-      <c r="R135" s="18"/>
-      <c r="S135" s="18" t="s">
+      <c r="P135" s="19"/>
+      <c r="Q135" s="19"/>
+      <c r="R135" s="19"/>
+      <c r="S135" s="19" t="s">
         <v>544</v>
       </c>
-      <c r="T135" s="18"/>
-      <c r="U135" s="18"/>
-      <c r="V135" s="18"/>
+      <c r="T135" s="19"/>
+      <c r="U135" s="19"/>
+      <c r="V135" s="19"/>
     </row>
     <row r="136" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A136">
@@ -19396,20 +19404,20 @@
       </c>
     </row>
     <row r="138" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A138" s="18" t="s">
+      <c r="A138" s="19" t="s">
         <v>507</v>
       </c>
-      <c r="B138" s="18"/>
-      <c r="C138" s="18"/>
-      <c r="D138" s="18"/>
-      <c r="E138" s="18"/>
-      <c r="F138" s="18" t="s">
+      <c r="B138" s="19"/>
+      <c r="C138" s="19"/>
+      <c r="D138" s="19"/>
+      <c r="E138" s="19"/>
+      <c r="F138" s="19" t="s">
         <v>511</v>
       </c>
-      <c r="G138" s="18"/>
-      <c r="H138" s="18"/>
-      <c r="I138" s="18"/>
-      <c r="J138" s="18"/>
+      <c r="G138" s="19"/>
+      <c r="H138" s="19"/>
+      <c r="I138" s="19"/>
+      <c r="J138" s="19"/>
       <c r="O138" s="1" t="s">
         <v>458</v>
       </c>
@@ -19436,20 +19444,20 @@
       </c>
     </row>
     <row r="139" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A139" s="18" t="s">
+      <c r="A139" s="19" t="s">
         <v>508</v>
       </c>
-      <c r="B139" s="18"/>
-      <c r="C139" s="18"/>
-      <c r="D139" s="18"/>
-      <c r="E139" s="18"/>
-      <c r="F139" s="18" t="s">
+      <c r="B139" s="19"/>
+      <c r="C139" s="19"/>
+      <c r="D139" s="19"/>
+      <c r="E139" s="19"/>
+      <c r="F139" s="19" t="s">
         <v>512</v>
       </c>
-      <c r="G139" s="18"/>
-      <c r="H139" s="18"/>
-      <c r="I139" s="18"/>
-      <c r="J139" s="18"/>
+      <c r="G139" s="19"/>
+      <c r="H139" s="19"/>
+      <c r="I139" s="19"/>
+      <c r="J139" s="19"/>
       <c r="O139" s="1" t="s">
         <v>459</v>
       </c>
@@ -19618,27 +19626,27 @@
       <c r="J142">
         <v>0.84316999999999998</v>
       </c>
-      <c r="O142" s="18" t="s">
+      <c r="O142" s="19" t="s">
         <v>580</v>
       </c>
-      <c r="P142" s="18"/>
-      <c r="Q142" s="18"/>
-      <c r="R142" s="18"/>
-      <c r="S142" s="18"/>
-      <c r="T142" s="18" t="s">
+      <c r="P142" s="19"/>
+      <c r="Q142" s="19"/>
+      <c r="R142" s="19"/>
+      <c r="S142" s="19"/>
+      <c r="T142" s="19" t="s">
         <v>580</v>
       </c>
-      <c r="U142" s="18"/>
-      <c r="V142" s="18"/>
-      <c r="W142" s="18"/>
-      <c r="X142" s="18"/>
-      <c r="Y142" s="18" t="s">
+      <c r="U142" s="19"/>
+      <c r="V142" s="19"/>
+      <c r="W142" s="19"/>
+      <c r="X142" s="19"/>
+      <c r="Y142" s="19" t="s">
         <v>580</v>
       </c>
-      <c r="Z142" s="18"/>
-      <c r="AA142" s="18"/>
-      <c r="AB142" s="18"/>
-      <c r="AC142" s="18"/>
+      <c r="Z142" s="19"/>
+      <c r="AA142" s="19"/>
+      <c r="AB142" s="19"/>
+      <c r="AC142" s="19"/>
     </row>
     <row r="143" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
@@ -19671,27 +19679,27 @@
       <c r="J143">
         <v>0.81733</v>
       </c>
-      <c r="O143" s="18" t="s">
+      <c r="O143" s="19" t="s">
         <v>582</v>
       </c>
-      <c r="P143" s="18"/>
-      <c r="Q143" s="18"/>
-      <c r="R143" s="18"/>
-      <c r="S143" s="18"/>
-      <c r="T143" s="18" t="s">
+      <c r="P143" s="19"/>
+      <c r="Q143" s="19"/>
+      <c r="R143" s="19"/>
+      <c r="S143" s="19"/>
+      <c r="T143" s="19" t="s">
         <v>581</v>
       </c>
-      <c r="U143" s="18"/>
-      <c r="V143" s="18"/>
-      <c r="W143" s="18"/>
-      <c r="X143" s="18"/>
-      <c r="Y143" s="18" t="s">
+      <c r="U143" s="19"/>
+      <c r="V143" s="19"/>
+      <c r="W143" s="19"/>
+      <c r="X143" s="19"/>
+      <c r="Y143" s="19" t="s">
         <v>579</v>
       </c>
-      <c r="Z143" s="18"/>
-      <c r="AA143" s="18"/>
-      <c r="AB143" s="18"/>
-      <c r="AC143" s="18"/>
+      <c r="Z143" s="19"/>
+      <c r="AA143" s="19"/>
+      <c r="AB143" s="19"/>
+      <c r="AC143" s="19"/>
     </row>
     <row r="144" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
@@ -19848,20 +19856,20 @@
       </c>
     </row>
     <row r="146" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A146" s="18" t="s">
+      <c r="A146" s="19" t="s">
         <v>507</v>
       </c>
-      <c r="B146" s="18"/>
-      <c r="C146" s="18"/>
-      <c r="D146" s="18"/>
-      <c r="E146" s="18"/>
-      <c r="F146" s="18" t="s">
+      <c r="B146" s="19"/>
+      <c r="C146" s="19"/>
+      <c r="D146" s="19"/>
+      <c r="E146" s="19"/>
+      <c r="F146" s="19" t="s">
         <v>511</v>
       </c>
-      <c r="G146" s="18"/>
-      <c r="H146" s="18"/>
-      <c r="I146" s="18"/>
-      <c r="J146" s="18"/>
+      <c r="G146" s="19"/>
+      <c r="H146" s="19"/>
+      <c r="I146" s="19"/>
+      <c r="J146" s="19"/>
       <c r="O146" s="1" t="s">
         <v>457</v>
       </c>
@@ -19909,20 +19917,20 @@
       </c>
     </row>
     <row r="147" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A147" s="18" t="s">
+      <c r="A147" s="19" t="s">
         <v>508</v>
       </c>
-      <c r="B147" s="18"/>
-      <c r="C147" s="18"/>
-      <c r="D147" s="18"/>
-      <c r="E147" s="18"/>
-      <c r="F147" s="18" t="s">
+      <c r="B147" s="19"/>
+      <c r="C147" s="19"/>
+      <c r="D147" s="19"/>
+      <c r="E147" s="19"/>
+      <c r="F147" s="19" t="s">
         <v>512</v>
       </c>
-      <c r="G147" s="18"/>
-      <c r="H147" s="18"/>
-      <c r="I147" s="18"/>
-      <c r="J147" s="18"/>
+      <c r="G147" s="19"/>
+      <c r="H147" s="19"/>
+      <c r="I147" s="19"/>
+      <c r="J147" s="19"/>
       <c r="O147" s="1" t="s">
         <v>530</v>
       </c>
@@ -20960,56 +20968,56 @@
       </c>
     </row>
     <row r="165" spans="15:33" x14ac:dyDescent="0.25">
-      <c r="P165" s="27" t="s">
+      <c r="P165" s="28" t="s">
         <v>580</v>
       </c>
-      <c r="Q165" s="27"/>
-      <c r="R165" s="27"/>
-      <c r="S165" s="27"/>
-      <c r="T165" s="27"/>
-      <c r="U165" s="27"/>
-      <c r="V165" s="27" t="s">
+      <c r="Q165" s="28"/>
+      <c r="R165" s="28"/>
+      <c r="S165" s="28"/>
+      <c r="T165" s="28"/>
+      <c r="U165" s="28"/>
+      <c r="V165" s="28" t="s">
         <v>580</v>
       </c>
-      <c r="W165" s="27"/>
-      <c r="X165" s="27"/>
-      <c r="Y165" s="27"/>
-      <c r="Z165" s="27"/>
-      <c r="AA165" s="27"/>
-      <c r="AB165" s="27" t="s">
+      <c r="W165" s="28"/>
+      <c r="X165" s="28"/>
+      <c r="Y165" s="28"/>
+      <c r="Z165" s="28"/>
+      <c r="AA165" s="28"/>
+      <c r="AB165" s="28" t="s">
         <v>580</v>
       </c>
-      <c r="AC165" s="27"/>
-      <c r="AD165" s="27"/>
-      <c r="AE165" s="27"/>
-      <c r="AF165" s="27"/>
-      <c r="AG165" s="27"/>
+      <c r="AC165" s="28"/>
+      <c r="AD165" s="28"/>
+      <c r="AE165" s="28"/>
+      <c r="AF165" s="28"/>
+      <c r="AG165" s="28"/>
     </row>
     <row r="166" spans="15:33" x14ac:dyDescent="0.25">
-      <c r="P166" s="27" t="s">
+      <c r="P166" s="28" t="s">
         <v>582</v>
       </c>
-      <c r="Q166" s="27"/>
-      <c r="R166" s="27"/>
-      <c r="S166" s="27"/>
-      <c r="T166" s="27"/>
-      <c r="U166" s="27"/>
-      <c r="V166" s="27" t="s">
+      <c r="Q166" s="28"/>
+      <c r="R166" s="28"/>
+      <c r="S166" s="28"/>
+      <c r="T166" s="28"/>
+      <c r="U166" s="28"/>
+      <c r="V166" s="28" t="s">
         <v>581</v>
       </c>
-      <c r="W166" s="27"/>
-      <c r="X166" s="27"/>
-      <c r="Y166" s="27"/>
-      <c r="Z166" s="27"/>
-      <c r="AA166" s="27"/>
-      <c r="AB166" s="27" t="s">
+      <c r="W166" s="28"/>
+      <c r="X166" s="28"/>
+      <c r="Y166" s="28"/>
+      <c r="Z166" s="28"/>
+      <c r="AA166" s="28"/>
+      <c r="AB166" s="28" t="s">
         <v>583</v>
       </c>
-      <c r="AC166" s="27"/>
-      <c r="AD166" s="27"/>
-      <c r="AE166" s="27"/>
-      <c r="AF166" s="27"/>
-      <c r="AG166" s="27"/>
+      <c r="AC166" s="28"/>
+      <c r="AD166" s="28"/>
+      <c r="AE166" s="28"/>
+      <c r="AF166" s="28"/>
+      <c r="AG166" s="28"/>
     </row>
     <row r="167" spans="15:33" x14ac:dyDescent="0.25">
       <c r="P167" s="6" t="s">
@@ -22354,30 +22362,30 @@
       </c>
     </row>
     <row r="190" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P190" s="27" t="s">
+      <c r="P190" s="28" t="s">
         <v>582</v>
       </c>
-      <c r="Q190" s="27"/>
-      <c r="R190" s="27"/>
-      <c r="S190" s="27"/>
-      <c r="T190" s="27"/>
-      <c r="U190" s="27"/>
-      <c r="V190" s="27" t="s">
+      <c r="Q190" s="28"/>
+      <c r="R190" s="28"/>
+      <c r="S190" s="28"/>
+      <c r="T190" s="28"/>
+      <c r="U190" s="28"/>
+      <c r="V190" s="28" t="s">
         <v>581</v>
       </c>
-      <c r="W190" s="27"/>
-      <c r="X190" s="27"/>
-      <c r="Y190" s="27"/>
-      <c r="Z190" s="27"/>
-      <c r="AA190" s="27"/>
-      <c r="AB190" s="27" t="s">
+      <c r="W190" s="28"/>
+      <c r="X190" s="28"/>
+      <c r="Y190" s="28"/>
+      <c r="Z190" s="28"/>
+      <c r="AA190" s="28"/>
+      <c r="AB190" s="28" t="s">
         <v>583</v>
       </c>
-      <c r="AC190" s="27"/>
-      <c r="AD190" s="27"/>
-      <c r="AE190" s="27"/>
-      <c r="AF190" s="27"/>
-      <c r="AG190" s="27"/>
+      <c r="AC190" s="28"/>
+      <c r="AD190" s="28"/>
+      <c r="AE190" s="28"/>
+      <c r="AF190" s="28"/>
+      <c r="AG190" s="28"/>
     </row>
     <row r="191" spans="16:33" x14ac:dyDescent="0.25">
       <c r="P191" s="6" t="s">
@@ -25290,47 +25298,47 @@
       </c>
     </row>
     <row r="244" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P244" s="17" t="s">
+      <c r="P244" s="18" t="s">
         <v>504</v>
       </c>
-      <c r="Q244" s="16" t="s">
+      <c r="Q244" s="17" t="s">
         <v>614</v>
       </c>
-      <c r="R244" s="16"/>
-      <c r="S244" s="16" t="s">
+      <c r="R244" s="17"/>
+      <c r="S244" s="17" t="s">
         <v>615</v>
       </c>
-      <c r="T244" s="16"/>
+      <c r="T244" s="17"/>
     </row>
     <row r="245" spans="16:33" ht="60" x14ac:dyDescent="0.25">
-      <c r="P245" s="17"/>
-      <c r="Q245" s="11" t="s">
+      <c r="P245" s="18"/>
+      <c r="Q245" s="12" t="s">
         <v>616</v>
       </c>
-      <c r="R245" s="11" t="s">
+      <c r="R245" s="12" t="s">
         <v>617</v>
       </c>
-      <c r="S245" s="11" t="s">
+      <c r="S245" s="12" t="s">
         <v>616</v>
       </c>
-      <c r="T245" s="11" t="s">
+      <c r="T245" s="12" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="246" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P246" s="12" t="s">
+      <c r="P246" s="13" t="s">
         <v>412</v>
       </c>
-      <c r="Q246" s="13">
+      <c r="Q246" s="14">
         <v>8.3745137247510755</v>
       </c>
-      <c r="R246" s="13">
+      <c r="R246" s="14">
         <v>0</v>
       </c>
-      <c r="S246" s="13">
+      <c r="S246" s="14">
         <v>7.1773757348741247</v>
       </c>
-      <c r="T246" s="13">
+      <c r="T246" s="14">
         <v>0</v>
       </c>
       <c r="V246">
@@ -25350,19 +25358,19 @@
       </c>
     </row>
     <row r="247" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P247" s="12" t="s">
+      <c r="P247" s="13" t="s">
         <v>405</v>
       </c>
-      <c r="Q247" s="14">
+      <c r="Q247" s="15">
         <v>4.7067688936935799</v>
       </c>
-      <c r="R247" s="14">
+      <c r="R247" s="15">
         <v>43.796511076426896</v>
       </c>
-      <c r="S247" s="14">
+      <c r="S247" s="15">
         <v>4.5209967640625504</v>
       </c>
-      <c r="T247" s="14">
+      <c r="T247" s="15">
         <v>37.010448789862075</v>
       </c>
       <c r="V247">
@@ -25382,53 +25390,53 @@
       </c>
     </row>
     <row r="248" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P248" s="12" t="s">
+      <c r="P248" s="13" t="s">
         <v>404</v>
       </c>
-      <c r="Q248" s="13">
+      <c r="Q248" s="14">
         <v>6.5078378146120599</v>
       </c>
-      <c r="R248" s="13">
+      <c r="R248" s="14">
         <v>22.289961799477506</v>
       </c>
-      <c r="S248" s="13">
+      <c r="S248" s="14">
         <v>6.8028706758783706</v>
       </c>
-      <c r="T248" s="13">
+      <c r="T248" s="14">
         <v>5.2178550048045125</v>
       </c>
     </row>
     <row r="249" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P249" s="12" t="s">
+      <c r="P249" s="13" t="s">
         <v>406</v>
       </c>
-      <c r="Q249" s="13">
+      <c r="Q249" s="14">
         <v>7.2361945490954902</v>
       </c>
-      <c r="R249" s="13">
+      <c r="R249" s="14">
         <v>13.592659980856627</v>
       </c>
-      <c r="S249" s="13">
+      <c r="S249" s="14">
         <v>7.1992567670522352</v>
       </c>
-      <c r="T249" s="13">
+      <c r="T249" s="14">
         <v>-0.30486117748849023</v>
       </c>
     </row>
     <row r="250" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P250" s="12" t="s">
+      <c r="P250" s="13" t="s">
         <v>403</v>
       </c>
-      <c r="Q250" s="13">
+      <c r="Q250" s="14">
         <v>6.4813711535781398</v>
       </c>
-      <c r="R250" s="13">
+      <c r="R250" s="14">
         <v>22.605999982753715</v>
       </c>
-      <c r="S250" s="13">
+      <c r="S250" s="14">
         <v>6.6386546126010249</v>
       </c>
-      <c r="T250" s="13">
+      <c r="T250" s="14">
         <v>7.5058230497187131</v>
       </c>
     </row>
@@ -25501,429 +25509,486 @@
       </c>
     </row>
     <row r="256" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P256" s="18"/>
-      <c r="Q256" s="18"/>
-      <c r="R256" s="18"/>
-      <c r="S256" s="18"/>
-      <c r="T256" s="18"/>
-      <c r="U256" s="18"/>
-      <c r="V256" s="18"/>
-      <c r="W256" s="18"/>
-      <c r="X256" s="18"/>
-      <c r="Y256" s="18"/>
+      <c r="P256" s="19"/>
+      <c r="Q256" s="19"/>
+      <c r="R256" s="19"/>
+      <c r="S256" s="19"/>
+      <c r="T256" s="19"/>
+      <c r="U256" s="19"/>
+      <c r="V256" s="19"/>
+      <c r="W256" s="19"/>
+      <c r="X256" s="19"/>
+      <c r="Y256" s="19"/>
     </row>
     <row r="257" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P257" s="18" t="s">
+      <c r="P257" s="24" t="s">
         <v>618</v>
       </c>
-      <c r="Q257" s="18"/>
-      <c r="R257" s="18"/>
-      <c r="S257" s="18"/>
-      <c r="T257" s="18"/>
-      <c r="U257" s="18"/>
-      <c r="V257" s="18"/>
-      <c r="W257" s="18"/>
-      <c r="X257" s="18"/>
-      <c r="Y257" s="18"/>
-      <c r="Z257" s="18" t="s">
+      <c r="Q257" s="25"/>
+      <c r="R257" s="25"/>
+      <c r="S257" s="25"/>
+      <c r="T257" s="25"/>
+      <c r="U257" s="25"/>
+      <c r="V257" s="25"/>
+      <c r="W257" s="25"/>
+      <c r="X257" s="26"/>
+      <c r="Y257" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="AA257" s="18"/>
-      <c r="AB257" s="18"/>
-      <c r="AC257" s="18"/>
-      <c r="AD257" s="18"/>
-      <c r="AE257" s="18"/>
-      <c r="AF257" s="18"/>
-      <c r="AG257" s="18"/>
+      <c r="Z257" s="25"/>
+      <c r="AA257" s="25"/>
+      <c r="AB257" s="25"/>
+      <c r="AC257" s="25"/>
+      <c r="AD257" s="25"/>
+      <c r="AE257" s="25"/>
+      <c r="AF257" s="25"/>
+      <c r="AG257" s="26"/>
     </row>
     <row r="258" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P258" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q258" s="18" t="s">
+      <c r="P258" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="Q258" s="28" t="s">
         <v>451</v>
       </c>
-      <c r="R258" s="18"/>
-      <c r="S258" s="18" t="s">
+      <c r="R258" s="28"/>
+      <c r="S258" s="28" t="s">
         <v>452</v>
       </c>
-      <c r="T258" s="18"/>
-      <c r="U258" s="18" t="s">
+      <c r="T258" s="28"/>
+      <c r="U258" s="28" t="s">
         <v>509</v>
       </c>
-      <c r="V258" s="18"/>
-      <c r="W258" s="18" t="s">
+      <c r="V258" s="28"/>
+      <c r="W258" s="28" t="s">
         <v>558</v>
       </c>
-      <c r="X258" s="18"/>
-      <c r="Y258" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="Z258" s="18" t="s">
+      <c r="X258" s="28"/>
+      <c r="Y258" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="Z258" s="28" t="s">
         <v>451</v>
       </c>
-      <c r="AA258" s="18"/>
-      <c r="AB258" s="18" t="s">
+      <c r="AA258" s="28"/>
+      <c r="AB258" s="28" t="s">
         <v>452</v>
       </c>
-      <c r="AC258" s="18"/>
-      <c r="AD258" s="18" t="s">
+      <c r="AC258" s="28"/>
+      <c r="AD258" s="28" t="s">
         <v>509</v>
       </c>
-      <c r="AE258" s="18"/>
-      <c r="AF258" s="1" t="s">
+      <c r="AE258" s="28"/>
+      <c r="AF258" s="6" t="s">
         <v>558</v>
       </c>
+      <c r="AG258" s="7"/>
     </row>
     <row r="259" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P259" s="1" t="s">
+      <c r="P259" s="28"/>
+      <c r="Q259" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="R259" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="S259" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="T259" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="U259" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="V259" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="W259" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="X259" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="Y259" s="28"/>
+      <c r="Z259" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="AA259" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="AB259" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="AC259" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="AD259" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="AE259" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="AF259" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="AG259" s="11" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="260" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P260" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="Q259">
+      <c r="Q260" s="30">
         <f>B141*100</f>
         <v>61.538000000000004</v>
       </c>
-      <c r="R259">
+      <c r="R260" s="30">
         <v>0</v>
       </c>
-      <c r="S259">
+      <c r="S260" s="30">
         <f>C141*100</f>
         <v>75.411000000000001</v>
       </c>
-      <c r="T259">
+      <c r="T260" s="30">
         <v>0</v>
       </c>
-      <c r="U259">
+      <c r="U260" s="30">
         <f>D141*100</f>
         <v>78.120999999999995</v>
       </c>
-      <c r="V259">
+      <c r="V260" s="30">
         <v>0</v>
       </c>
-      <c r="W259">
+      <c r="W260" s="30">
         <v>84.93</v>
       </c>
-      <c r="Y259" s="1" t="s">
+      <c r="X260" s="30"/>
+      <c r="Y260" s="31" t="s">
         <v>412</v>
       </c>
-      <c r="Z259">
+      <c r="Z260" s="30">
         <f>G141*100</f>
         <v>43.317999999999998</v>
       </c>
-      <c r="AA259">
+      <c r="AA260" s="30">
         <v>0</v>
       </c>
-      <c r="AB259">
+      <c r="AB260" s="30">
         <f>H141*100</f>
         <v>63.066000000000003</v>
       </c>
-      <c r="AC259">
+      <c r="AC260" s="30">
         <v>0</v>
       </c>
-      <c r="AD259">
+      <c r="AD260" s="30">
         <f>I141*100</f>
         <v>65.837000000000003</v>
       </c>
-      <c r="AF259">
+      <c r="AE260" s="30"/>
+      <c r="AF260" s="30">
         <f>J141*100</f>
         <v>76.843999999999994</v>
       </c>
-      <c r="AG259">
+      <c r="AG260" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P260" s="1" t="s">
+    <row r="261" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P261" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="Q260">
+      <c r="Q261" s="30">
         <f>B142*100</f>
         <v>74.461999999999989</v>
       </c>
-      <c r="R260">
-        <f>(Q260-61.538)/61.538*100</f>
+      <c r="R261" s="30">
+        <f>(Q261-61.538)/61.538*100</f>
         <v>21.001657512431333</v>
       </c>
-      <c r="S260" s="1">
+      <c r="S261" s="31">
         <f>C142*100</f>
         <v>87.512</v>
       </c>
-      <c r="T260" s="1">
-        <f>(S260-75.411)/75.411*100</f>
+      <c r="T261" s="31">
+        <f>(S261-75.411)/75.411*100</f>
         <v>16.046730583071433</v>
       </c>
-      <c r="U260" s="1">
+      <c r="U261" s="31">
         <f>D142*100</f>
         <v>86.38</v>
       </c>
-      <c r="V260" s="1">
-        <f>(U260-78.121)/78.121*100</f>
+      <c r="V261" s="31">
+        <f>(U261-78.121)/78.121*100</f>
         <v>10.572061289538025</v>
       </c>
-      <c r="W260" s="1">
+      <c r="W261" s="31">
         <v>90.870999999999995</v>
       </c>
-      <c r="X260" s="1">
-        <f>(W260-84.93)/84.93*100</f>
+      <c r="X261" s="31">
+        <f>(W261-84.93)/84.93*100</f>
         <v>6.9951724949958649</v>
       </c>
-      <c r="Y260" s="1" t="s">
+      <c r="Y261" s="31" t="s">
         <v>405</v>
       </c>
-      <c r="Z260" s="1">
+      <c r="Z261" s="31">
         <f>G142*100</f>
         <v>62.388999999999996</v>
       </c>
-      <c r="AA260" s="1">
-        <f>(Z260-43.318)/43.318*100</f>
+      <c r="AA261" s="31">
+        <f>(Z261-43.318)/43.318*100</f>
         <v>44.025578281545776</v>
       </c>
-      <c r="AB260" s="1">
+      <c r="AB261" s="31">
         <f>H142*100</f>
         <v>77.141999999999996</v>
       </c>
-      <c r="AC260" s="1">
-        <f>(AB260-63.066)/63.066*100</f>
+      <c r="AC261" s="31">
+        <f>(AB261-63.066)/63.066*100</f>
         <v>22.319474835886201</v>
       </c>
-      <c r="AD260" s="1">
+      <c r="AD261" s="31">
         <f>I142*100</f>
         <v>77.24499999999999</v>
       </c>
-      <c r="AE260" s="1">
-        <f>(AD260-65.837)/65.837*100</f>
+      <c r="AE261" s="31">
+        <f>(AD261-65.837)/65.837*100</f>
         <v>17.327642511049998</v>
       </c>
-      <c r="AF260" s="1">
+      <c r="AF261" s="31">
         <f>J142*100</f>
         <v>84.316999999999993</v>
       </c>
-      <c r="AG260" s="1">
-        <f>(AF260-76.844)/76.844*100</f>
+      <c r="AG261" s="31">
+        <f>(AF261-76.844)/76.844*100</f>
         <v>9.7248971943157549</v>
       </c>
     </row>
-    <row r="261" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P261" s="1" t="s">
+    <row r="262" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P262" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="Q261">
+      <c r="Q262" s="30">
         <f>B143*100</f>
         <v>73.751999999999995</v>
       </c>
-      <c r="R261">
-        <f t="shared" ref="R261:R263" si="12">(Q261-61.538)/61.538*100</f>
+      <c r="R262" s="30">
+        <f t="shared" ref="R262:R264" si="12">(Q262-61.538)/61.538*100</f>
         <v>19.847898859241443</v>
       </c>
-      <c r="S261">
+      <c r="S262" s="30">
         <f>C143*100</f>
         <v>84.271000000000001</v>
       </c>
-      <c r="T261">
-        <f t="shared" ref="T261:T263" si="13">(S261-75.411)/75.411*100</f>
+      <c r="T262" s="30">
+        <f t="shared" ref="T262:T264" si="13">(S262-75.411)/75.411*100</f>
         <v>11.748949092307488</v>
       </c>
-      <c r="U261">
+      <c r="U262" s="30">
         <f>D143*100</f>
         <v>85.129000000000005</v>
       </c>
-      <c r="V261">
-        <f t="shared" ref="V261:V263" si="14">(U261-78.121)/78.121*100</f>
+      <c r="V262" s="30">
+        <f t="shared" ref="V262:V264" si="14">(U262-78.121)/78.121*100</f>
         <v>8.9706992998041635</v>
       </c>
-      <c r="W261">
+      <c r="W262" s="30">
         <v>88.688000000000002</v>
       </c>
-      <c r="X261">
-        <f t="shared" ref="X261:X263" si="15">(W261-84.93)/84.93*100</f>
+      <c r="X262" s="30">
+        <f t="shared" ref="X262:X264" si="15">(W262-84.93)/84.93*100</f>
         <v>4.4248204403626454</v>
       </c>
-      <c r="Y261" s="1" t="s">
+      <c r="Y262" s="31" t="s">
         <v>404</v>
       </c>
-      <c r="Z261">
+      <c r="Z262" s="30">
         <f>G143*100</f>
         <v>54.890999999999998</v>
       </c>
-      <c r="AA261">
-        <f t="shared" ref="AA261:AA263" si="16">(Z261-43.318)/43.318*100</f>
+      <c r="AA262" s="30">
+        <f t="shared" ref="AA262:AA264" si="16">(Z262-43.318)/43.318*100</f>
         <v>26.716376564014961</v>
       </c>
-      <c r="AB261">
+      <c r="AB262" s="30">
         <f>H143*100</f>
         <v>71.165000000000006</v>
       </c>
-      <c r="AC261">
-        <f t="shared" ref="AC261:AC263" si="17">(AB261-63.066)/63.066*100</f>
+      <c r="AC262" s="30">
+        <f t="shared" ref="AC262:AC264" si="17">(AB262-63.066)/63.066*100</f>
         <v>12.842101924967499</v>
       </c>
-      <c r="AD261">
+      <c r="AD262" s="30">
         <f>I143*100</f>
         <v>73.194000000000003</v>
       </c>
-      <c r="AE261">
-        <f t="shared" ref="AE261:AE263" si="18">(AD261-65.837)/65.837*100</f>
+      <c r="AE262" s="30">
+        <f t="shared" ref="AE262:AE264" si="18">(AD262-65.837)/65.837*100</f>
         <v>11.174567492443458</v>
       </c>
-      <c r="AF261">
+      <c r="AF262" s="30">
         <f>J143*100</f>
         <v>81.733000000000004</v>
       </c>
-      <c r="AG261">
-        <f t="shared" ref="AG261:AG263" si="19">(AF261-76.844)/76.844*100</f>
+      <c r="AG262" s="30">
+        <f t="shared" ref="AG262:AG264" si="19">(AF262-76.844)/76.844*100</f>
         <v>6.3622403831138543</v>
       </c>
     </row>
-    <row r="262" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P262" s="1" t="s">
+    <row r="263" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P263" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="Q262">
+      <c r="Q263" s="30">
         <f>B144*100</f>
         <v>76.957999999999998</v>
       </c>
-      <c r="R262">
+      <c r="R263" s="30">
         <f t="shared" si="12"/>
         <v>25.057687932659501</v>
       </c>
-      <c r="S262">
+      <c r="S263" s="30">
         <f>C144*100</f>
         <v>71.061999999999998</v>
       </c>
-      <c r="T262">
+      <c r="T263" s="30">
         <f t="shared" si="13"/>
         <v>-5.7670631605468747</v>
       </c>
-      <c r="U262">
+      <c r="U263" s="30">
         <f>D144*100</f>
         <v>81.420999999999992</v>
       </c>
-      <c r="V262">
+      <c r="V263" s="30">
         <f t="shared" si="14"/>
         <v>4.2242162798735254</v>
       </c>
-      <c r="W262">
+      <c r="W263" s="30">
         <v>85.02300000000001</v>
       </c>
-      <c r="X262">
+      <c r="X263" s="30">
         <f t="shared" si="15"/>
         <v>0.10950194277640825</v>
       </c>
-      <c r="Y262" s="1" t="s">
+      <c r="Y263" s="31" t="s">
         <v>406</v>
       </c>
-      <c r="Z262">
+      <c r="Z263" s="30">
         <f>G144*100</f>
         <v>48.978000000000002</v>
       </c>
-      <c r="AA262">
+      <c r="AA263" s="30">
         <f t="shared" si="16"/>
         <v>13.066161872662644</v>
       </c>
-      <c r="AB262">
+      <c r="AB263" s="30">
         <f>H144*100</f>
         <v>60.973999999999997</v>
       </c>
-      <c r="AC262">
+      <c r="AC263" s="30">
         <f t="shared" si="17"/>
         <v>-3.3171598008435699</v>
       </c>
-      <c r="AD262">
+      <c r="AD263" s="30">
         <f>I144*100</f>
         <v>67.691999999999993</v>
       </c>
-      <c r="AE262">
+      <c r="AE263" s="30">
         <f t="shared" si="18"/>
         <v>2.8175645913392007</v>
       </c>
-      <c r="AF262">
+      <c r="AF263" s="30">
         <f>J144*100</f>
         <v>77.490000000000009</v>
       </c>
-      <c r="AG262">
+      <c r="AG263" s="30">
         <f t="shared" si="19"/>
         <v>0.84066420280049847</v>
       </c>
     </row>
-    <row r="263" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P263" s="1" t="s">
+    <row r="264" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P264" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="Q263" s="1">
+      <c r="Q264" s="31">
         <f>B145*100</f>
         <v>82.31</v>
       </c>
-      <c r="R263" s="1">
+      <c r="R264" s="31">
         <f t="shared" si="12"/>
         <v>33.754753160648718</v>
       </c>
-      <c r="S263">
+      <c r="S264" s="30">
         <f>C145*100</f>
         <v>68.992000000000004</v>
       </c>
-      <c r="T263">
+      <c r="T264" s="30">
         <f t="shared" si="13"/>
         <v>-8.5120207927225433</v>
       </c>
-      <c r="U263">
+      <c r="U264" s="30">
         <f>D145*100</f>
         <v>83.06</v>
       </c>
-      <c r="V263">
+      <c r="V264" s="30">
         <f t="shared" si="14"/>
         <v>6.3222436988773918</v>
       </c>
-      <c r="W263">
+      <c r="W264" s="30">
         <v>85.896000000000001</v>
       </c>
-      <c r="X263">
+      <c r="X264" s="30">
         <f t="shared" si="15"/>
         <v>1.1374072765807064</v>
       </c>
-      <c r="Y263" s="1" t="s">
+      <c r="Y264" s="31" t="s">
         <v>403</v>
       </c>
-      <c r="Z263">
+      <c r="Z264" s="30">
         <f>G145*100</f>
         <v>52.802999999999997</v>
       </c>
-      <c r="AA263">
+      <c r="AA264" s="30">
         <f t="shared" si="16"/>
         <v>21.89620942795143</v>
       </c>
-      <c r="AB263">
+      <c r="AB264" s="30">
         <f>H145*100</f>
         <v>62.604000000000006</v>
       </c>
-      <c r="AC263">
+      <c r="AC264" s="30">
         <f t="shared" si="17"/>
         <v>-0.73256588336028317</v>
       </c>
-      <c r="AD263">
+      <c r="AD264" s="30">
         <f>I145*100</f>
         <v>69.600999999999999</v>
       </c>
-      <c r="AE263">
+      <c r="AE264" s="30">
         <f t="shared" si="18"/>
         <v>5.7171499308899181</v>
       </c>
-      <c r="AF263">
+      <c r="AF264" s="30">
         <f>J145*100</f>
         <v>78.456999999999994</v>
       </c>
-      <c r="AG263">
+      <c r="AG264" s="30">
         <f t="shared" si="19"/>
         <v>2.0990578314507307</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="132">
+  <mergeCells count="134">
     <mergeCell ref="Z258:AA258"/>
     <mergeCell ref="AB258:AC258"/>
     <mergeCell ref="AD258:AE258"/>
     <mergeCell ref="W258:X258"/>
-    <mergeCell ref="P257:Y257"/>
-    <mergeCell ref="Z257:AG257"/>
+    <mergeCell ref="P258:P259"/>
+    <mergeCell ref="Y258:Y259"/>
+    <mergeCell ref="P257:X257"/>
+    <mergeCell ref="Y257:AG257"/>
     <mergeCell ref="A138:E138"/>
     <mergeCell ref="F138:J138"/>
     <mergeCell ref="A139:E139"/>
@@ -26190,13 +26255,13 @@
       <c r="A7" t="s">
         <v>504</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="29" t="s">
         <v>441</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -26302,12 +26367,12 @@
       <c r="A14" t="s">
         <v>504</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="29" t="s">
         <v>472</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">

--- a/plotting/617_temp.xlsx
+++ b/plotting/617_temp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="unet" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="svm" sheetId="4" r:id="rId4"/>
     <sheet name="summary" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="new_dl" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2069" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2091" uniqueCount="623">
   <si>
     <t>.\vgg_unet2_0_3_640_640_64_256_rot_15_345_4_flip_5K\training_32_49_640_640_640_640_max_val_acc\vis\vis_log_181022_0927.txt</t>
   </si>
@@ -1882,6 +1883,12 @@
   </si>
   <si>
     <t>% increase over SVM</t>
+  </si>
+  <si>
+    <t>resnet_v1_101_0_31_training_32_49</t>
+  </si>
+  <si>
+    <t>nas_hnasnet_0_31_training_32_49</t>
   </si>
 </sst>
 </file>
@@ -2050,16 +2057,30 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2072,28 +2093,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7835,13 +7842,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>407</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -8180,13 +8187,13 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="18" t="s">
         <v>406</v>
       </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -8459,13 +8466,13 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="18" t="s">
         <v>405</v>
       </c>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -8798,13 +8805,13 @@
       </c>
     </row>
     <row r="71" spans="1:7" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="16" t="s">
+      <c r="A71" s="18" t="s">
         <v>408</v>
       </c>
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
@@ -9212,13 +9219,13 @@
       </c>
     </row>
     <row r="100" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="16" t="s">
+      <c r="A100" s="18" t="s">
         <v>559</v>
       </c>
-      <c r="B100" s="16"/>
-      <c r="C100" s="16"/>
-      <c r="D100" s="16"/>
-      <c r="E100" s="16"/>
+      <c r="B100" s="18"/>
+      <c r="C100" s="18"/>
+      <c r="D100" s="18"/>
+      <c r="E100" s="18"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
@@ -9446,13 +9453,13 @@
       </c>
     </row>
     <row r="118" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A118" s="16" t="s">
+      <c r="A118" s="18" t="s">
         <v>409</v>
       </c>
-      <c r="B118" s="16"/>
-      <c r="C118" s="16"/>
-      <c r="D118" s="16"/>
-      <c r="E118" s="16"/>
+      <c r="B118" s="18"/>
+      <c r="C118" s="18"/>
+      <c r="D118" s="18"/>
+      <c r="E118" s="18"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
@@ -9680,13 +9687,13 @@
       </c>
     </row>
     <row r="137" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A137" s="16" t="s">
+      <c r="A137" s="18" t="s">
         <v>410</v>
       </c>
-      <c r="B137" s="16"/>
-      <c r="C137" s="16"/>
-      <c r="D137" s="16"/>
-      <c r="E137" s="16"/>
+      <c r="B137" s="18"/>
+      <c r="C137" s="18"/>
+      <c r="D137" s="18"/>
+      <c r="E137" s="18"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
@@ -9914,13 +9921,13 @@
       </c>
     </row>
     <row r="155" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A155" s="16" t="s">
+      <c r="A155" s="18" t="s">
         <v>407</v>
       </c>
-      <c r="B155" s="16"/>
-      <c r="C155" s="16"/>
-      <c r="D155" s="16"/>
-      <c r="E155" s="16"/>
+      <c r="B155" s="18"/>
+      <c r="C155" s="18"/>
+      <c r="D155" s="18"/>
+      <c r="E155" s="18"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
@@ -10373,13 +10380,13 @@
       </c>
     </row>
     <row r="192" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A192" s="16" t="s">
+      <c r="A192" s="18" t="s">
         <v>409</v>
       </c>
-      <c r="B192" s="16"/>
-      <c r="C192" s="16"/>
-      <c r="D192" s="16"/>
-      <c r="E192" s="16"/>
+      <c r="B192" s="18"/>
+      <c r="C192" s="18"/>
+      <c r="D192" s="18"/>
+      <c r="E192" s="18"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
@@ -10877,13 +10884,13 @@
       </c>
     </row>
     <row r="231" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A231" s="16" t="s">
+      <c r="A231" s="18" t="s">
         <v>404</v>
       </c>
-      <c r="B231" s="16"/>
-      <c r="C231" s="16"/>
-      <c r="D231" s="16"/>
-      <c r="E231" s="16"/>
+      <c r="B231" s="18"/>
+      <c r="C231" s="18"/>
+      <c r="D231" s="18"/>
+      <c r="E231" s="18"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
@@ -11696,13 +11703,13 @@
       </c>
     </row>
     <row r="293" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A293" s="16" t="s">
+      <c r="A293" s="18" t="s">
         <v>403</v>
       </c>
-      <c r="B293" s="16"/>
-      <c r="C293" s="16"/>
-      <c r="D293" s="16"/>
-      <c r="E293" s="16"/>
+      <c r="B293" s="18"/>
+      <c r="C293" s="18"/>
+      <c r="D293" s="18"/>
+      <c r="E293" s="18"/>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
@@ -13066,17 +13073,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A293:E293"/>
+    <mergeCell ref="A231:E231"/>
+    <mergeCell ref="A192:E192"/>
+    <mergeCell ref="A71:E71"/>
+    <mergeCell ref="A155:E155"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A52:E52"/>
     <mergeCell ref="A100:E100"/>
     <mergeCell ref="A118:E118"/>
     <mergeCell ref="A137:E137"/>
     <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A293:E293"/>
-    <mergeCell ref="A231:E231"/>
-    <mergeCell ref="A192:E192"/>
-    <mergeCell ref="A71:E71"/>
-    <mergeCell ref="A155:E155"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
@@ -13087,7 +13094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:E6"/>
     </sheetView>
   </sheetViews>
@@ -13645,8 +13652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H141" sqref="H141:H142"/>
+    <sheetView topLeftCell="N19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109:F109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13662,13 +13669,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="23" t="s">
         <v>413</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -13782,22 +13789,22 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="23" t="s">
         <v>420</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="23" t="s">
         <v>421</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -13950,14 +13957,14 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="23" t="s">
         <v>413</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
       <c r="J17">
         <v>0.67832000000000003</v>
       </c>
@@ -13972,14 +13979,14 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="23" t="s">
         <v>444</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -14190,14 +14197,14 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="24" t="s">
         <v>420</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
       <c r="J24">
         <v>0.43318000000000001</v>
       </c>
@@ -14224,14 +14231,14 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="23" t="s">
         <v>445</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -14408,46 +14415,46 @@
       </c>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="AA33" s="19" t="s">
+      <c r="AA33" s="23" t="s">
         <v>567</v>
       </c>
-      <c r="AB33" s="19"/>
-      <c r="AC33" s="19"/>
-      <c r="AD33" s="19"/>
+      <c r="AB33" s="23"/>
+      <c r="AC33" s="23"/>
+      <c r="AD33" s="23"/>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="23" t="s">
         <v>413</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="H34" s="19" t="s">
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="H34" s="23" t="s">
         <v>434</v>
       </c>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="O34" s="19" t="s">
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="O34" s="23" t="s">
         <v>434</v>
       </c>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="19"/>
-      <c r="S34" s="19"/>
-      <c r="T34" s="19"/>
-      <c r="U34" s="19"/>
-      <c r="V34" s="19" t="s">
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="W34" s="19"/>
-      <c r="X34" s="19"/>
-      <c r="Y34" s="19"/>
-      <c r="Z34" s="19"/>
+      <c r="W34" s="23"/>
+      <c r="X34" s="23"/>
+      <c r="Y34" s="23"/>
+      <c r="Z34" s="23"/>
       <c r="AA34" t="s">
         <v>327</v>
       </c>
@@ -14462,38 +14469,38 @@
       </c>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="23" t="s">
         <v>432</v>
       </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="H35" s="19" t="s">
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="H35" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="O35" s="19" t="s">
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="O35" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
-      <c r="S35" s="19"/>
-      <c r="T35" s="19"/>
-      <c r="U35" s="19"/>
-      <c r="V35" s="19" t="s">
+      <c r="P35" s="23"/>
+      <c r="Q35" s="23"/>
+      <c r="R35" s="23"/>
+      <c r="S35" s="23"/>
+      <c r="T35" s="23"/>
+      <c r="U35" s="23"/>
+      <c r="V35" s="23" t="s">
         <v>513</v>
       </c>
-      <c r="W35" s="19"/>
-      <c r="X35" s="19"/>
-      <c r="Y35" s="19"/>
-      <c r="Z35" s="19"/>
+      <c r="W35" s="23"/>
+      <c r="X35" s="23"/>
+      <c r="Y35" s="23"/>
+      <c r="Z35" s="23"/>
       <c r="AA35">
         <v>0.88705000000000001</v>
       </c>
@@ -14912,22 +14919,22 @@
       <c r="Z40">
         <v>0.70833999999999997</v>
       </c>
-      <c r="AA40" s="19" t="s">
+      <c r="AA40" s="23" t="s">
         <v>566</v>
       </c>
-      <c r="AB40" s="19"/>
-      <c r="AC40" s="19"/>
-      <c r="AD40" s="19"/>
+      <c r="AB40" s="23"/>
+      <c r="AC40" s="23"/>
+      <c r="AD40" s="23"/>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="23" t="s">
         <v>424</v>
       </c>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
       <c r="H41" s="1" t="s">
         <v>416</v>
       </c>
@@ -14996,14 +15003,14 @@
       </c>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="23" t="s">
         <v>433</v>
       </c>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
       <c r="H42" s="1" t="s">
         <v>417</v>
       </c>
@@ -15022,22 +15029,22 @@
       <c r="M42">
         <v>0.63066</v>
       </c>
-      <c r="O42" s="19" t="s">
+      <c r="O42" s="23" t="s">
         <v>434</v>
       </c>
-      <c r="P42" s="19"/>
-      <c r="Q42" s="19"/>
-      <c r="R42" s="19"/>
-      <c r="S42" s="19"/>
-      <c r="T42" s="19"/>
-      <c r="U42" s="19"/>
-      <c r="V42" s="19" t="s">
+      <c r="P42" s="23"/>
+      <c r="Q42" s="23"/>
+      <c r="R42" s="23"/>
+      <c r="S42" s="23"/>
+      <c r="T42" s="23"/>
+      <c r="U42" s="23"/>
+      <c r="V42" s="23" t="s">
         <v>511</v>
       </c>
-      <c r="W42" s="19"/>
-      <c r="X42" s="19"/>
-      <c r="Y42" s="19"/>
-      <c r="Z42" s="19"/>
+      <c r="W42" s="23"/>
+      <c r="X42" s="23"/>
+      <c r="Y42" s="23"/>
+      <c r="Z42" s="23"/>
       <c r="AA42">
         <v>0.87365000000000004</v>
       </c>
@@ -15088,22 +15095,22 @@
       <c r="M43">
         <v>0.65837000000000001</v>
       </c>
-      <c r="O43" s="19" t="s">
+      <c r="O43" s="23" t="s">
         <v>442</v>
       </c>
-      <c r="P43" s="19"/>
-      <c r="Q43" s="19"/>
-      <c r="R43" s="19"/>
-      <c r="S43" s="19"/>
-      <c r="T43" s="19"/>
-      <c r="U43" s="19"/>
-      <c r="V43" s="19" t="s">
+      <c r="P43" s="23"/>
+      <c r="Q43" s="23"/>
+      <c r="R43" s="23"/>
+      <c r="S43" s="23"/>
+      <c r="T43" s="23"/>
+      <c r="U43" s="23"/>
+      <c r="V43" s="23" t="s">
         <v>514</v>
       </c>
-      <c r="W43" s="19"/>
-      <c r="X43" s="19"/>
-      <c r="Y43" s="19"/>
-      <c r="Z43" s="19"/>
+      <c r="W43" s="23"/>
+      <c r="X43" s="23"/>
+      <c r="Y43" s="23"/>
+      <c r="Z43" s="23"/>
       <c r="AA43" t="s">
         <v>331</v>
       </c>
@@ -15386,21 +15393,21 @@
       <c r="Z47">
         <v>0.47498000000000001</v>
       </c>
-      <c r="AA47" s="19" t="s">
+      <c r="AA47" s="23" t="s">
         <v>565</v>
       </c>
-      <c r="AB47" s="19"/>
-      <c r="AC47" s="19"/>
-      <c r="AD47" s="19"/>
+      <c r="AB47" s="23"/>
+      <c r="AC47" s="23"/>
+      <c r="AD47" s="23"/>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A48" s="19" t="s">
+      <c r="A48" s="23" t="s">
         <v>506</v>
       </c>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
       <c r="F48" s="2"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
@@ -15454,13 +15461,13 @@
       </c>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A49" s="19" t="s">
+      <c r="A49" s="23" t="s">
         <v>505</v>
       </c>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
       <c r="O49" s="1" t="s">
         <v>437</v>
       </c>
@@ -15526,22 +15533,22 @@
       <c r="E50" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="O50" s="19" t="s">
+      <c r="O50" s="23" t="s">
         <v>434</v>
       </c>
-      <c r="P50" s="19"/>
-      <c r="Q50" s="19"/>
-      <c r="R50" s="19"/>
-      <c r="S50" s="19"/>
-      <c r="T50" s="19"/>
-      <c r="U50" s="19"/>
-      <c r="V50" s="19" t="s">
+      <c r="P50" s="23"/>
+      <c r="Q50" s="23"/>
+      <c r="R50" s="23"/>
+      <c r="S50" s="23"/>
+      <c r="T50" s="23"/>
+      <c r="U50" s="23"/>
+      <c r="V50" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="W50" s="19"/>
-      <c r="X50" s="19"/>
-      <c r="Y50" s="19"/>
-      <c r="Z50" s="19"/>
+      <c r="W50" s="23"/>
+      <c r="X50" s="23"/>
+      <c r="Y50" s="23"/>
+      <c r="Z50" s="23"/>
       <c r="AA50" t="s">
         <v>331</v>
       </c>
@@ -15568,22 +15575,22 @@
       <c r="E51">
         <v>0.63066</v>
       </c>
-      <c r="O51" s="19" t="s">
+      <c r="O51" s="23" t="s">
         <v>446</v>
       </c>
-      <c r="P51" s="19"/>
-      <c r="Q51" s="19"/>
-      <c r="R51" s="19"/>
-      <c r="S51" s="19"/>
-      <c r="T51" s="19"/>
-      <c r="U51" s="19"/>
-      <c r="V51" s="19" t="s">
+      <c r="P51" s="23"/>
+      <c r="Q51" s="23"/>
+      <c r="R51" s="23"/>
+      <c r="S51" s="23"/>
+      <c r="T51" s="23"/>
+      <c r="U51" s="23"/>
+      <c r="V51" s="23" t="s">
         <v>515</v>
       </c>
-      <c r="W51" s="19"/>
-      <c r="X51" s="19"/>
-      <c r="Y51" s="19"/>
-      <c r="Z51" s="19"/>
+      <c r="W51" s="23"/>
+      <c r="X51" s="23"/>
+      <c r="Y51" s="23"/>
+      <c r="Z51" s="23"/>
       <c r="AA51">
         <v>0.77363000000000004</v>
       </c>
@@ -15825,20 +15832,20 @@
       </c>
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A56" s="19" t="s">
+      <c r="A56" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19" t="s">
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23" t="s">
         <v>511</v>
       </c>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="19"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="23"/>
       <c r="O56" s="1" t="s">
         <v>438</v>
       </c>
@@ -15877,20 +15884,20 @@
       </c>
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A57" s="19" t="s">
+      <c r="A57" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19" t="s">
+      <c r="B57" s="23"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23" t="s">
         <v>512</v>
       </c>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="19"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="23"/>
       <c r="O57" s="1" t="s">
         <v>437</v>
       </c>
@@ -15959,22 +15966,22 @@
       <c r="J58" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="O58" s="19" t="s">
+      <c r="O58" s="23" t="s">
         <v>434</v>
       </c>
-      <c r="P58" s="19"/>
-      <c r="Q58" s="19"/>
-      <c r="R58" s="19"/>
-      <c r="S58" s="19"/>
-      <c r="T58" s="19"/>
-      <c r="U58" s="19"/>
-      <c r="V58" s="19" t="s">
+      <c r="P58" s="23"/>
+      <c r="Q58" s="23"/>
+      <c r="R58" s="23"/>
+      <c r="S58" s="23"/>
+      <c r="T58" s="23"/>
+      <c r="U58" s="23"/>
+      <c r="V58" s="23" t="s">
         <v>511</v>
       </c>
-      <c r="W58" s="19"/>
-      <c r="X58" s="19"/>
-      <c r="Y58" s="19"/>
-      <c r="Z58" s="19"/>
+      <c r="W58" s="23"/>
+      <c r="X58" s="23"/>
+      <c r="Y58" s="23"/>
+      <c r="Z58" s="23"/>
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
@@ -16007,22 +16014,22 @@
       <c r="J59">
         <v>0.76844000000000001</v>
       </c>
-      <c r="O59" s="19" t="s">
+      <c r="O59" s="23" t="s">
         <v>447</v>
       </c>
-      <c r="P59" s="19"/>
-      <c r="Q59" s="19"/>
-      <c r="R59" s="19"/>
-      <c r="S59" s="19"/>
-      <c r="T59" s="19"/>
-      <c r="U59" s="19"/>
-      <c r="V59" s="19" t="s">
+      <c r="P59" s="23"/>
+      <c r="Q59" s="23"/>
+      <c r="R59" s="23"/>
+      <c r="S59" s="23"/>
+      <c r="T59" s="23"/>
+      <c r="U59" s="23"/>
+      <c r="V59" s="23" t="s">
         <v>544</v>
       </c>
-      <c r="W59" s="19"/>
-      <c r="X59" s="19"/>
-      <c r="Y59" s="19"/>
-      <c r="Z59" s="19"/>
+      <c r="W59" s="23"/>
+      <c r="X59" s="23"/>
+      <c r="Y59" s="23"/>
+      <c r="Z59" s="23"/>
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
@@ -16335,10 +16342,10 @@
       </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A65" s="19" t="s">
+      <c r="A65" s="23" t="s">
         <v>413</v>
       </c>
-      <c r="B65" s="19" t="s">
+      <c r="B65" s="23" t="s">
         <v>444</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -16394,8 +16401,8 @@
       </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A66" s="19"/>
-      <c r="B66" s="19"/>
+      <c r="A66" s="23"/>
+      <c r="B66" s="23"/>
       <c r="C66" s="1" t="s">
         <v>412</v>
       </c>
@@ -16411,19 +16418,19 @@
       <c r="G66">
         <v>0.84930000000000005</v>
       </c>
-      <c r="O66" s="19" t="s">
+      <c r="O66" s="23" t="s">
         <v>434</v>
       </c>
-      <c r="P66" s="19"/>
-      <c r="Q66" s="19"/>
-      <c r="R66" s="19"/>
-      <c r="S66" s="19"/>
-      <c r="T66" s="19"/>
-      <c r="U66" s="19"/>
+      <c r="P66" s="23"/>
+      <c r="Q66" s="23"/>
+      <c r="R66" s="23"/>
+      <c r="S66" s="23"/>
+      <c r="T66" s="23"/>
+      <c r="U66" s="23"/>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A67" s="19"/>
-      <c r="B67" s="19"/>
+      <c r="A67" s="23"/>
+      <c r="B67" s="23"/>
       <c r="C67" s="1" t="s">
         <v>405</v>
       </c>
@@ -16439,19 +16446,19 @@
       <c r="G67">
         <v>0.90871000000000002</v>
       </c>
-      <c r="O67" s="19" t="s">
+      <c r="O67" s="23" t="s">
         <v>448</v>
       </c>
-      <c r="P67" s="19"/>
-      <c r="Q67" s="19"/>
-      <c r="R67" s="19"/>
-      <c r="S67" s="19"/>
-      <c r="T67" s="19"/>
-      <c r="U67" s="19"/>
+      <c r="P67" s="23"/>
+      <c r="Q67" s="23"/>
+      <c r="R67" s="23"/>
+      <c r="S67" s="23"/>
+      <c r="T67" s="23"/>
+      <c r="U67" s="23"/>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A68" s="19"/>
-      <c r="B68" s="19"/>
+      <c r="A68" s="23"/>
+      <c r="B68" s="23"/>
       <c r="C68" s="1" t="s">
         <v>404</v>
       </c>
@@ -16490,8 +16497,8 @@
       </c>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A69" s="19"/>
-      <c r="B69" s="19"/>
+      <c r="A69" s="23"/>
+      <c r="B69" s="23"/>
       <c r="C69" s="1" t="s">
         <v>406</v>
       </c>
@@ -16530,8 +16537,8 @@
       </c>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A70" s="19"/>
-      <c r="B70" s="19"/>
+      <c r="A70" s="23"/>
+      <c r="B70" s="23"/>
       <c r="C70" s="1" t="s">
         <v>403</v>
       </c>
@@ -16570,10 +16577,10 @@
       </c>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A71" s="27" t="s">
+      <c r="A71" s="24" t="s">
         <v>420</v>
       </c>
-      <c r="B71" s="19" t="s">
+      <c r="B71" s="23" t="s">
         <v>445</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -16614,8 +16621,8 @@
       </c>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A72" s="19"/>
-      <c r="B72" s="19"/>
+      <c r="A72" s="23"/>
+      <c r="B72" s="23"/>
       <c r="C72" s="1" t="s">
         <v>412</v>
       </c>
@@ -16654,8 +16661,8 @@
       </c>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A73" s="19"/>
-      <c r="B73" s="19"/>
+      <c r="A73" s="23"/>
+      <c r="B73" s="23"/>
       <c r="C73" s="1" t="s">
         <v>405</v>
       </c>
@@ -16694,8 +16701,8 @@
       </c>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A74" s="19"/>
-      <c r="B74" s="19"/>
+      <c r="A74" s="23"/>
+      <c r="B74" s="23"/>
       <c r="C74" s="1" t="s">
         <v>404</v>
       </c>
@@ -16711,19 +16718,19 @@
       <c r="G74">
         <v>0.81733</v>
       </c>
-      <c r="O74" s="19" t="s">
+      <c r="O74" s="23" t="s">
         <v>434</v>
       </c>
-      <c r="P74" s="19"/>
-      <c r="Q74" s="19"/>
-      <c r="R74" s="19"/>
-      <c r="S74" s="19"/>
-      <c r="T74" s="19"/>
-      <c r="U74" s="19"/>
+      <c r="P74" s="23"/>
+      <c r="Q74" s="23"/>
+      <c r="R74" s="23"/>
+      <c r="S74" s="23"/>
+      <c r="T74" s="23"/>
+      <c r="U74" s="23"/>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A75" s="19"/>
-      <c r="B75" s="19"/>
+      <c r="A75" s="23"/>
+      <c r="B75" s="23"/>
       <c r="C75" s="1" t="s">
         <v>406</v>
       </c>
@@ -16739,19 +16746,19 @@
       <c r="G75">
         <v>0.77490000000000003</v>
       </c>
-      <c r="O75" s="19" t="s">
+      <c r="O75" s="23" t="s">
         <v>449</v>
       </c>
-      <c r="P75" s="19"/>
-      <c r="Q75" s="19"/>
-      <c r="R75" s="19"/>
-      <c r="S75" s="19"/>
-      <c r="T75" s="19"/>
-      <c r="U75" s="19"/>
+      <c r="P75" s="23"/>
+      <c r="Q75" s="23"/>
+      <c r="R75" s="23"/>
+      <c r="S75" s="23"/>
+      <c r="T75" s="23"/>
+      <c r="U75" s="23"/>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A76" s="19"/>
-      <c r="B76" s="19"/>
+      <c r="A76" s="23"/>
+      <c r="B76" s="23"/>
       <c r="C76" s="1" t="s">
         <v>403</v>
       </c>
@@ -16790,22 +16797,22 @@
       </c>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A77" s="19" t="s">
+      <c r="A77" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="B77" s="19"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="19"/>
-      <c r="E77" s="19"/>
-      <c r="F77" s="19"/>
-      <c r="G77" s="19" t="s">
+      <c r="B77" s="23"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="23" t="s">
         <v>511</v>
       </c>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="19"/>
-      <c r="K77" s="19"/>
-      <c r="L77" s="19"/>
+      <c r="H77" s="23"/>
+      <c r="I77" s="23"/>
+      <c r="J77" s="23"/>
+      <c r="K77" s="23"/>
+      <c r="L77" s="23"/>
       <c r="O77" t="s">
         <v>436</v>
       </c>
@@ -16829,22 +16836,22 @@
       </c>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A78" s="19" t="s">
+      <c r="A78" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="B78" s="19"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="19"/>
-      <c r="E78" s="19"/>
-      <c r="F78" s="19"/>
-      <c r="G78" s="19" t="s">
+      <c r="B78" s="23"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="23" t="s">
         <v>512</v>
       </c>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="19"/>
-      <c r="K78" s="19"/>
-      <c r="L78" s="19"/>
+      <c r="H78" s="23"/>
+      <c r="I78" s="23"/>
+      <c r="J78" s="23"/>
+      <c r="K78" s="23"/>
+      <c r="L78" s="23"/>
       <c r="O78" t="s">
         <v>440</v>
       </c>
@@ -17121,33 +17128,33 @@
       </c>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B84" s="19" t="s">
+      <c r="B84" s="23" t="s">
         <v>523</v>
       </c>
-      <c r="C84" s="19"/>
-      <c r="D84" s="19"/>
-      <c r="E84" s="19"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="23"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
-      <c r="P84" s="19" t="s">
+      <c r="P84" s="23" t="s">
         <v>434</v>
       </c>
-      <c r="Q84" s="19"/>
-      <c r="R84" s="19"/>
-      <c r="S84" s="19"/>
-      <c r="T84" s="19"/>
-      <c r="U84" s="19"/>
-      <c r="V84" s="19"/>
-      <c r="W84" s="19"/>
-      <c r="X84" s="19"/>
+      <c r="Q84" s="23"/>
+      <c r="R84" s="23"/>
+      <c r="S84" s="23"/>
+      <c r="T84" s="23"/>
+      <c r="U84" s="23"/>
+      <c r="V84" s="23"/>
+      <c r="W84" s="23"/>
+      <c r="X84" s="23"/>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B85" s="19" t="s">
+      <c r="B85" s="23" t="s">
         <v>545</v>
       </c>
-      <c r="C85" s="19"/>
-      <c r="D85" s="19"/>
-      <c r="E85" s="19"/>
+      <c r="C85" s="23"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="23"/>
       <c r="F85" s="1" t="s">
         <v>522</v>
       </c>
@@ -17163,17 +17170,17 @@
       <c r="J85" t="s">
         <v>528</v>
       </c>
-      <c r="P85" s="19" t="s">
+      <c r="P85" s="23" t="s">
         <v>454</v>
       </c>
-      <c r="Q85" s="19"/>
-      <c r="R85" s="19"/>
-      <c r="S85" s="19"/>
-      <c r="T85" s="19"/>
-      <c r="U85" s="19"/>
-      <c r="V85" s="19"/>
-      <c r="W85" s="19"/>
-      <c r="X85" s="19"/>
+      <c r="Q85" s="23"/>
+      <c r="R85" s="23"/>
+      <c r="S85" s="23"/>
+      <c r="T85" s="23"/>
+      <c r="U85" s="23"/>
+      <c r="V85" s="23"/>
+      <c r="W85" s="23"/>
+      <c r="X85" s="23"/>
     </row>
     <row r="86" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
@@ -17515,54 +17522,54 @@
       </c>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B92" s="19" t="s">
+      <c r="B92" s="23" t="s">
         <v>523</v>
       </c>
-      <c r="C92" s="19"/>
-      <c r="D92" s="19"/>
-      <c r="E92" s="19"/>
-      <c r="F92" s="19" t="s">
+      <c r="C92" s="23"/>
+      <c r="D92" s="23"/>
+      <c r="E92" s="23"/>
+      <c r="F92" s="23" t="s">
         <v>523</v>
       </c>
-      <c r="G92" s="19"/>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
-      <c r="P92" s="19" t="s">
+      <c r="G92" s="23"/>
+      <c r="H92" s="23"/>
+      <c r="I92" s="23"/>
+      <c r="P92" s="23" t="s">
         <v>434</v>
       </c>
-      <c r="Q92" s="19"/>
-      <c r="R92" s="19"/>
-      <c r="S92" s="19"/>
-      <c r="T92" s="19"/>
-      <c r="U92" s="19"/>
-      <c r="V92" s="19"/>
-      <c r="W92" s="19"/>
-      <c r="X92" s="19"/>
+      <c r="Q92" s="23"/>
+      <c r="R92" s="23"/>
+      <c r="S92" s="23"/>
+      <c r="T92" s="23"/>
+      <c r="U92" s="23"/>
+      <c r="V92" s="23"/>
+      <c r="W92" s="23"/>
+      <c r="X92" s="23"/>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B93" s="19" t="s">
+      <c r="B93" s="23" t="s">
         <v>546</v>
       </c>
-      <c r="C93" s="19"/>
-      <c r="D93" s="19"/>
-      <c r="E93" s="19"/>
-      <c r="F93" s="19" t="s">
+      <c r="C93" s="23"/>
+      <c r="D93" s="23"/>
+      <c r="E93" s="23"/>
+      <c r="F93" s="23" t="s">
         <v>548</v>
       </c>
-      <c r="G93" s="19"/>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
-      <c r="P93" s="19" t="s">
+      <c r="G93" s="23"/>
+      <c r="H93" s="23"/>
+      <c r="I93" s="23"/>
+      <c r="P93" s="23" t="s">
         <v>462</v>
       </c>
-      <c r="Q93" s="19"/>
-      <c r="R93" s="19"/>
-      <c r="S93" s="19"/>
-      <c r="T93" s="19"/>
-      <c r="U93" s="19"/>
-      <c r="V93" s="19"/>
-      <c r="W93" s="19"/>
-      <c r="X93" s="19"/>
+      <c r="Q93" s="23"/>
+      <c r="R93" s="23"/>
+      <c r="S93" s="23"/>
+      <c r="T93" s="23"/>
+      <c r="U93" s="23"/>
+      <c r="V93" s="23"/>
+      <c r="W93" s="23"/>
+      <c r="X93" s="23"/>
     </row>
     <row r="94" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
@@ -17922,12 +17929,12 @@
       <c r="A100" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="B100" s="19" t="s">
+      <c r="B100" s="23" t="s">
         <v>523</v>
       </c>
-      <c r="C100" s="19"/>
-      <c r="D100" s="19"/>
-      <c r="E100" s="19"/>
+      <c r="C100" s="23"/>
+      <c r="D100" s="23"/>
+      <c r="E100" s="23"/>
       <c r="F100" s="1" t="s">
         <v>554</v>
       </c>
@@ -17943,26 +17950,26 @@
       <c r="J100">
         <v>0.77887333098497002</v>
       </c>
-      <c r="P100" s="19" t="s">
+      <c r="P100" s="23" t="s">
         <v>434</v>
       </c>
-      <c r="Q100" s="19"/>
-      <c r="R100" s="19"/>
-      <c r="S100" s="19"/>
-      <c r="T100" s="19"/>
-      <c r="U100" s="19"/>
-      <c r="V100" s="19"/>
-      <c r="W100" s="19"/>
-      <c r="X100" s="19"/>
+      <c r="Q100" s="23"/>
+      <c r="R100" s="23"/>
+      <c r="S100" s="23"/>
+      <c r="T100" s="23"/>
+      <c r="U100" s="23"/>
+      <c r="V100" s="23"/>
+      <c r="W100" s="23"/>
+      <c r="X100" s="23"/>
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
-      <c r="B101" s="19" t="s">
+      <c r="B101" s="23" t="s">
         <v>547</v>
       </c>
-      <c r="C101" s="19"/>
-      <c r="D101" s="19"/>
-      <c r="E101" s="19"/>
+      <c r="C101" s="23"/>
+      <c r="D101" s="23"/>
+      <c r="E101" s="23"/>
       <c r="F101" s="1" t="s">
         <v>555</v>
       </c>
@@ -17978,17 +17985,17 @@
       <c r="J101">
         <v>1.27434722297322</v>
       </c>
-      <c r="P101" s="19" t="s">
+      <c r="P101" s="23" t="s">
         <v>455</v>
       </c>
-      <c r="Q101" s="19"/>
-      <c r="R101" s="19"/>
-      <c r="S101" s="19"/>
-      <c r="T101" s="19"/>
-      <c r="U101" s="19"/>
-      <c r="V101" s="19"/>
-      <c r="W101" s="19"/>
-      <c r="X101" s="19"/>
+      <c r="Q101" s="23"/>
+      <c r="R101" s="23"/>
+      <c r="S101" s="23"/>
+      <c r="T101" s="23"/>
+      <c r="U101" s="23"/>
+      <c r="V101" s="23"/>
+      <c r="W101" s="23"/>
+      <c r="X101" s="23"/>
     </row>
     <row r="102" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
@@ -18288,49 +18295,49 @@
       <c r="B108" s="1"/>
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A109" s="19" t="s">
+      <c r="A109" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="B109" s="19"/>
-      <c r="C109" s="19"/>
-      <c r="D109" s="19"/>
-      <c r="E109" s="19"/>
-      <c r="F109" s="19"/>
-      <c r="G109" s="19" t="s">
+      <c r="B109" s="23"/>
+      <c r="C109" s="23"/>
+      <c r="D109" s="23"/>
+      <c r="E109" s="23"/>
+      <c r="F109" s="23"/>
+      <c r="G109" s="23" t="s">
         <v>511</v>
       </c>
-      <c r="H109" s="19"/>
-      <c r="I109" s="19"/>
-      <c r="J109" s="19"/>
-      <c r="K109" s="19"/>
-      <c r="L109" s="19"/>
+      <c r="H109" s="23"/>
+      <c r="I109" s="23"/>
+      <c r="J109" s="23"/>
+      <c r="K109" s="23"/>
+      <c r="L109" s="23"/>
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A110" s="19" t="s">
+      <c r="A110" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="B110" s="19"/>
-      <c r="C110" s="19"/>
-      <c r="D110" s="19"/>
-      <c r="E110" s="19"/>
-      <c r="F110" s="19"/>
-      <c r="G110" s="19" t="s">
+      <c r="B110" s="23"/>
+      <c r="C110" s="23"/>
+      <c r="D110" s="23"/>
+      <c r="E110" s="23"/>
+      <c r="F110" s="23"/>
+      <c r="G110" s="23" t="s">
         <v>512</v>
       </c>
-      <c r="H110" s="19"/>
-      <c r="I110" s="19"/>
-      <c r="J110" s="19"/>
-      <c r="K110" s="19"/>
-      <c r="L110" s="19"/>
-      <c r="O110" s="19" t="s">
+      <c r="H110" s="23"/>
+      <c r="I110" s="23"/>
+      <c r="J110" s="23"/>
+      <c r="K110" s="23"/>
+      <c r="L110" s="23"/>
+      <c r="O110" s="23" t="s">
         <v>434</v>
       </c>
-      <c r="P110" s="19"/>
-      <c r="Q110" s="19"/>
-      <c r="R110" s="19"/>
-      <c r="S110" s="19"/>
-      <c r="T110" s="19"/>
-      <c r="U110" s="19"/>
+      <c r="P110" s="23"/>
+      <c r="Q110" s="23"/>
+      <c r="R110" s="23"/>
+      <c r="S110" s="23"/>
+      <c r="T110" s="23"/>
+      <c r="U110" s="23"/>
       <c r="V110" s="2"/>
       <c r="W110" s="2"/>
     </row>
@@ -18371,15 +18378,15 @@
       <c r="L111" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="O111" s="19" t="s">
+      <c r="O111" s="23" t="s">
         <v>456</v>
       </c>
-      <c r="P111" s="19"/>
-      <c r="Q111" s="19"/>
-      <c r="R111" s="19"/>
-      <c r="S111" s="19"/>
-      <c r="T111" s="19"/>
-      <c r="U111" s="19"/>
+      <c r="P111" s="23"/>
+      <c r="Q111" s="23"/>
+      <c r="R111" s="23"/>
+      <c r="S111" s="23"/>
+      <c r="T111" s="23"/>
+      <c r="U111" s="23"/>
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
@@ -18667,59 +18674,59 @@
       <c r="A118" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="B118" s="24" t="s">
+      <c r="B118" s="20" t="s">
         <v>522</v>
       </c>
-      <c r="C118" s="25"/>
-      <c r="D118" s="25"/>
-      <c r="E118" s="25"/>
-      <c r="F118" s="26"/>
+      <c r="C118" s="21"/>
+      <c r="D118" s="21"/>
+      <c r="E118" s="21"/>
+      <c r="F118" s="22"/>
       <c r="G118" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="H118" s="20" t="s">
+      <c r="H118" s="26" t="s">
         <v>522</v>
       </c>
-      <c r="I118" s="22"/>
-      <c r="J118" s="22"/>
-      <c r="K118" s="22"/>
-      <c r="L118" s="21"/>
-      <c r="O118" s="19" t="s">
+      <c r="I118" s="28"/>
+      <c r="J118" s="28"/>
+      <c r="K118" s="28"/>
+      <c r="L118" s="27"/>
+      <c r="O118" s="23" t="s">
         <v>434</v>
       </c>
-      <c r="P118" s="19"/>
-      <c r="Q118" s="19"/>
-      <c r="R118" s="19"/>
-      <c r="S118" s="19"/>
-      <c r="T118" s="19"/>
-      <c r="U118" s="19"/>
+      <c r="P118" s="23"/>
+      <c r="Q118" s="23"/>
+      <c r="R118" s="23"/>
+      <c r="S118" s="23"/>
+      <c r="T118" s="23"/>
+      <c r="U118" s="23"/>
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A119" s="24" t="s">
+      <c r="A119" s="20" t="s">
         <v>533</v>
       </c>
-      <c r="B119" s="25"/>
-      <c r="C119" s="25"/>
-      <c r="D119" s="25"/>
-      <c r="E119" s="25"/>
-      <c r="F119" s="26"/>
-      <c r="G119" s="24" t="s">
+      <c r="B119" s="21"/>
+      <c r="C119" s="21"/>
+      <c r="D119" s="21"/>
+      <c r="E119" s="21"/>
+      <c r="F119" s="22"/>
+      <c r="G119" s="20" t="s">
         <v>538</v>
       </c>
-      <c r="H119" s="25"/>
-      <c r="I119" s="25"/>
-      <c r="J119" s="25"/>
-      <c r="K119" s="25"/>
-      <c r="L119" s="26"/>
-      <c r="O119" s="19" t="s">
+      <c r="H119" s="21"/>
+      <c r="I119" s="21"/>
+      <c r="J119" s="21"/>
+      <c r="K119" s="21"/>
+      <c r="L119" s="22"/>
+      <c r="O119" s="23" t="s">
         <v>461</v>
       </c>
-      <c r="P119" s="19"/>
-      <c r="Q119" s="19"/>
-      <c r="R119" s="19"/>
-      <c r="S119" s="19"/>
-      <c r="T119" s="19"/>
-      <c r="U119" s="19"/>
+      <c r="P119" s="23"/>
+      <c r="Q119" s="23"/>
+      <c r="R119" s="23"/>
+      <c r="S119" s="23"/>
+      <c r="T119" s="23"/>
+      <c r="U119" s="23"/>
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
@@ -18743,15 +18750,15 @@
       <c r="G120" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="H120" s="23">
+      <c r="H120" s="25">
         <v>1</v>
       </c>
-      <c r="I120" s="23"/>
-      <c r="J120" s="23"/>
-      <c r="K120" s="23">
+      <c r="I120" s="25"/>
+      <c r="J120" s="25"/>
+      <c r="K120" s="25">
         <v>2</v>
       </c>
-      <c r="L120" s="23"/>
+      <c r="L120" s="25"/>
       <c r="O120" s="1" t="s">
         <v>472</v>
       </c>
@@ -18796,15 +18803,15 @@
       <c r="G121" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="H121" s="23">
+      <c r="H121" s="25">
         <v>1</v>
       </c>
-      <c r="I121" s="23"/>
-      <c r="J121" s="23"/>
-      <c r="K121" s="23">
+      <c r="I121" s="25"/>
+      <c r="J121" s="25"/>
+      <c r="K121" s="25">
         <v>2</v>
       </c>
-      <c r="L121" s="23"/>
+      <c r="L121" s="25"/>
       <c r="O121" s="1" t="s">
         <v>457</v>
       </c>
@@ -18849,15 +18856,15 @@
       <c r="G122" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="H122" s="23">
+      <c r="H122" s="25">
         <v>1</v>
       </c>
-      <c r="I122" s="23"/>
-      <c r="J122" s="23"/>
-      <c r="K122" s="23">
+      <c r="I122" s="25"/>
+      <c r="J122" s="25"/>
+      <c r="K122" s="25">
         <v>2</v>
       </c>
-      <c r="L122" s="23"/>
+      <c r="L122" s="25"/>
       <c r="O122" s="1" t="s">
         <v>458</v>
       </c>
@@ -18881,22 +18888,22 @@
       </c>
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A123" s="24" t="s">
+      <c r="A123" s="20" t="s">
         <v>412</v>
       </c>
-      <c r="B123" s="25"/>
-      <c r="C123" s="25"/>
-      <c r="D123" s="25"/>
-      <c r="E123" s="25"/>
-      <c r="F123" s="26"/>
-      <c r="G123" s="24" t="s">
+      <c r="B123" s="21"/>
+      <c r="C123" s="21"/>
+      <c r="D123" s="21"/>
+      <c r="E123" s="21"/>
+      <c r="F123" s="22"/>
+      <c r="G123" s="20" t="s">
         <v>537</v>
       </c>
-      <c r="H123" s="25"/>
-      <c r="I123" s="25"/>
-      <c r="J123" s="25"/>
-      <c r="K123" s="25"/>
-      <c r="L123" s="26"/>
+      <c r="H123" s="21"/>
+      <c r="I123" s="21"/>
+      <c r="J123" s="21"/>
+      <c r="K123" s="21"/>
+      <c r="L123" s="22"/>
       <c r="O123" s="1" t="s">
         <v>459</v>
       </c>
@@ -18926,14 +18933,14 @@
       <c r="B124" s="7">
         <v>1</v>
       </c>
-      <c r="C124" s="23">
+      <c r="C124" s="25">
         <v>2</v>
       </c>
-      <c r="D124" s="23"/>
-      <c r="E124" s="20">
+      <c r="D124" s="25"/>
+      <c r="E124" s="26">
         <v>3</v>
       </c>
-      <c r="F124" s="21"/>
+      <c r="F124" s="27"/>
       <c r="G124" s="6" t="s">
         <v>406</v>
       </c>
@@ -18987,10 +18994,10 @@
       <c r="D125" s="7">
         <v>3</v>
       </c>
-      <c r="E125" s="20">
+      <c r="E125" s="26">
         <v>4</v>
       </c>
-      <c r="F125" s="21"/>
+      <c r="F125" s="27"/>
       <c r="G125" s="6" t="s">
         <v>405</v>
       </c>
@@ -19032,32 +19039,32 @@
       </c>
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="O126" s="19" t="s">
+      <c r="O126" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="P126" s="19"/>
-      <c r="Q126" s="19"/>
-      <c r="R126" s="19"/>
-      <c r="S126" s="19" t="s">
+      <c r="P126" s="23"/>
+      <c r="Q126" s="23"/>
+      <c r="R126" s="23"/>
+      <c r="S126" s="23" t="s">
         <v>511</v>
       </c>
-      <c r="T126" s="19"/>
-      <c r="U126" s="19"/>
-      <c r="V126" s="19"/>
+      <c r="T126" s="23"/>
+      <c r="U126" s="23"/>
+      <c r="V126" s="23"/>
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="O127" s="19" t="s">
+      <c r="O127" s="23" t="s">
         <v>541</v>
       </c>
-      <c r="P127" s="19"/>
-      <c r="Q127" s="19"/>
-      <c r="R127" s="19"/>
-      <c r="S127" s="19" t="s">
+      <c r="P127" s="23"/>
+      <c r="Q127" s="23"/>
+      <c r="R127" s="23"/>
+      <c r="S127" s="23" t="s">
         <v>542</v>
       </c>
-      <c r="T127" s="19"/>
-      <c r="U127" s="19"/>
-      <c r="V127" s="19"/>
+      <c r="T127" s="23"/>
+      <c r="U127" s="23"/>
+      <c r="V127" s="23"/>
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
@@ -19300,18 +19307,18 @@
       <c r="D134" t="s">
         <v>563</v>
       </c>
-      <c r="O134" s="19" t="s">
+      <c r="O134" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="P134" s="19"/>
-      <c r="Q134" s="19"/>
-      <c r="R134" s="19"/>
-      <c r="S134" s="19" t="s">
+      <c r="P134" s="23"/>
+      <c r="Q134" s="23"/>
+      <c r="R134" s="23"/>
+      <c r="S134" s="23" t="s">
         <v>511</v>
       </c>
-      <c r="T134" s="19"/>
-      <c r="U134" s="19"/>
-      <c r="V134" s="19"/>
+      <c r="T134" s="23"/>
+      <c r="U134" s="23"/>
+      <c r="V134" s="23"/>
     </row>
     <row r="135" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A135">
@@ -19326,18 +19333,18 @@
       <c r="D135">
         <v>0.26800000000000002</v>
       </c>
-      <c r="O135" s="19" t="s">
+      <c r="O135" s="23" t="s">
         <v>543</v>
       </c>
-      <c r="P135" s="19"/>
-      <c r="Q135" s="19"/>
-      <c r="R135" s="19"/>
-      <c r="S135" s="19" t="s">
+      <c r="P135" s="23"/>
+      <c r="Q135" s="23"/>
+      <c r="R135" s="23"/>
+      <c r="S135" s="23" t="s">
         <v>544</v>
       </c>
-      <c r="T135" s="19"/>
-      <c r="U135" s="19"/>
-      <c r="V135" s="19"/>
+      <c r="T135" s="23"/>
+      <c r="U135" s="23"/>
+      <c r="V135" s="23"/>
     </row>
     <row r="136" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A136">
@@ -19404,20 +19411,20 @@
       </c>
     </row>
     <row r="138" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A138" s="19" t="s">
+      <c r="A138" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="B138" s="19"/>
-      <c r="C138" s="19"/>
-      <c r="D138" s="19"/>
-      <c r="E138" s="19"/>
-      <c r="F138" s="19" t="s">
+      <c r="B138" s="23"/>
+      <c r="C138" s="23"/>
+      <c r="D138" s="23"/>
+      <c r="E138" s="23"/>
+      <c r="F138" s="23" t="s">
         <v>511</v>
       </c>
-      <c r="G138" s="19"/>
-      <c r="H138" s="19"/>
-      <c r="I138" s="19"/>
-      <c r="J138" s="19"/>
+      <c r="G138" s="23"/>
+      <c r="H138" s="23"/>
+      <c r="I138" s="23"/>
+      <c r="J138" s="23"/>
       <c r="O138" s="1" t="s">
         <v>458</v>
       </c>
@@ -19444,20 +19451,20 @@
       </c>
     </row>
     <row r="139" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A139" s="19" t="s">
+      <c r="A139" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="B139" s="19"/>
-      <c r="C139" s="19"/>
-      <c r="D139" s="19"/>
-      <c r="E139" s="19"/>
-      <c r="F139" s="19" t="s">
+      <c r="B139" s="23"/>
+      <c r="C139" s="23"/>
+      <c r="D139" s="23"/>
+      <c r="E139" s="23"/>
+      <c r="F139" s="23" t="s">
         <v>512</v>
       </c>
-      <c r="G139" s="19"/>
-      <c r="H139" s="19"/>
-      <c r="I139" s="19"/>
-      <c r="J139" s="19"/>
+      <c r="G139" s="23"/>
+      <c r="H139" s="23"/>
+      <c r="I139" s="23"/>
+      <c r="J139" s="23"/>
       <c r="O139" s="1" t="s">
         <v>459</v>
       </c>
@@ -19626,27 +19633,27 @@
       <c r="J142">
         <v>0.84316999999999998</v>
       </c>
-      <c r="O142" s="19" t="s">
+      <c r="O142" s="23" t="s">
         <v>580</v>
       </c>
-      <c r="P142" s="19"/>
-      <c r="Q142" s="19"/>
-      <c r="R142" s="19"/>
-      <c r="S142" s="19"/>
-      <c r="T142" s="19" t="s">
+      <c r="P142" s="23"/>
+      <c r="Q142" s="23"/>
+      <c r="R142" s="23"/>
+      <c r="S142" s="23"/>
+      <c r="T142" s="23" t="s">
         <v>580</v>
       </c>
-      <c r="U142" s="19"/>
-      <c r="V142" s="19"/>
-      <c r="W142" s="19"/>
-      <c r="X142" s="19"/>
-      <c r="Y142" s="19" t="s">
+      <c r="U142" s="23"/>
+      <c r="V142" s="23"/>
+      <c r="W142" s="23"/>
+      <c r="X142" s="23"/>
+      <c r="Y142" s="23" t="s">
         <v>580</v>
       </c>
-      <c r="Z142" s="19"/>
-      <c r="AA142" s="19"/>
-      <c r="AB142" s="19"/>
-      <c r="AC142" s="19"/>
+      <c r="Z142" s="23"/>
+      <c r="AA142" s="23"/>
+      <c r="AB142" s="23"/>
+      <c r="AC142" s="23"/>
     </row>
     <row r="143" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
@@ -19679,27 +19686,27 @@
       <c r="J143">
         <v>0.81733</v>
       </c>
-      <c r="O143" s="19" t="s">
+      <c r="O143" s="23" t="s">
         <v>582</v>
       </c>
-      <c r="P143" s="19"/>
-      <c r="Q143" s="19"/>
-      <c r="R143" s="19"/>
-      <c r="S143" s="19"/>
-      <c r="T143" s="19" t="s">
+      <c r="P143" s="23"/>
+      <c r="Q143" s="23"/>
+      <c r="R143" s="23"/>
+      <c r="S143" s="23"/>
+      <c r="T143" s="23" t="s">
         <v>581</v>
       </c>
-      <c r="U143" s="19"/>
-      <c r="V143" s="19"/>
-      <c r="W143" s="19"/>
-      <c r="X143" s="19"/>
-      <c r="Y143" s="19" t="s">
+      <c r="U143" s="23"/>
+      <c r="V143" s="23"/>
+      <c r="W143" s="23"/>
+      <c r="X143" s="23"/>
+      <c r="Y143" s="23" t="s">
         <v>579</v>
       </c>
-      <c r="Z143" s="19"/>
-      <c r="AA143" s="19"/>
-      <c r="AB143" s="19"/>
-      <c r="AC143" s="19"/>
+      <c r="Z143" s="23"/>
+      <c r="AA143" s="23"/>
+      <c r="AB143" s="23"/>
+      <c r="AC143" s="23"/>
     </row>
     <row r="144" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
@@ -19856,20 +19863,20 @@
       </c>
     </row>
     <row r="146" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A146" s="19" t="s">
+      <c r="A146" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="B146" s="19"/>
-      <c r="C146" s="19"/>
-      <c r="D146" s="19"/>
-      <c r="E146" s="19"/>
-      <c r="F146" s="19" t="s">
+      <c r="B146" s="23"/>
+      <c r="C146" s="23"/>
+      <c r="D146" s="23"/>
+      <c r="E146" s="23"/>
+      <c r="F146" s="23" t="s">
         <v>511</v>
       </c>
-      <c r="G146" s="19"/>
-      <c r="H146" s="19"/>
-      <c r="I146" s="19"/>
-      <c r="J146" s="19"/>
+      <c r="G146" s="23"/>
+      <c r="H146" s="23"/>
+      <c r="I146" s="23"/>
+      <c r="J146" s="23"/>
       <c r="O146" s="1" t="s">
         <v>457</v>
       </c>
@@ -19917,20 +19924,20 @@
       </c>
     </row>
     <row r="147" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A147" s="19" t="s">
+      <c r="A147" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="B147" s="19"/>
-      <c r="C147" s="19"/>
-      <c r="D147" s="19"/>
-      <c r="E147" s="19"/>
-      <c r="F147" s="19" t="s">
+      <c r="B147" s="23"/>
+      <c r="C147" s="23"/>
+      <c r="D147" s="23"/>
+      <c r="E147" s="23"/>
+      <c r="F147" s="23" t="s">
         <v>512</v>
       </c>
-      <c r="G147" s="19"/>
-      <c r="H147" s="19"/>
-      <c r="I147" s="19"/>
-      <c r="J147" s="19"/>
+      <c r="G147" s="23"/>
+      <c r="H147" s="23"/>
+      <c r="I147" s="23"/>
+      <c r="J147" s="23"/>
       <c r="O147" s="1" t="s">
         <v>530</v>
       </c>
@@ -20968,56 +20975,56 @@
       </c>
     </row>
     <row r="165" spans="15:33" x14ac:dyDescent="0.25">
-      <c r="P165" s="28" t="s">
+      <c r="P165" s="19" t="s">
         <v>580</v>
       </c>
-      <c r="Q165" s="28"/>
-      <c r="R165" s="28"/>
-      <c r="S165" s="28"/>
-      <c r="T165" s="28"/>
-      <c r="U165" s="28"/>
-      <c r="V165" s="28" t="s">
+      <c r="Q165" s="19"/>
+      <c r="R165" s="19"/>
+      <c r="S165" s="19"/>
+      <c r="T165" s="19"/>
+      <c r="U165" s="19"/>
+      <c r="V165" s="19" t="s">
         <v>580</v>
       </c>
-      <c r="W165" s="28"/>
-      <c r="X165" s="28"/>
-      <c r="Y165" s="28"/>
-      <c r="Z165" s="28"/>
-      <c r="AA165" s="28"/>
-      <c r="AB165" s="28" t="s">
+      <c r="W165" s="19"/>
+      <c r="X165" s="19"/>
+      <c r="Y165" s="19"/>
+      <c r="Z165" s="19"/>
+      <c r="AA165" s="19"/>
+      <c r="AB165" s="19" t="s">
         <v>580</v>
       </c>
-      <c r="AC165" s="28"/>
-      <c r="AD165" s="28"/>
-      <c r="AE165" s="28"/>
-      <c r="AF165" s="28"/>
-      <c r="AG165" s="28"/>
+      <c r="AC165" s="19"/>
+      <c r="AD165" s="19"/>
+      <c r="AE165" s="19"/>
+      <c r="AF165" s="19"/>
+      <c r="AG165" s="19"/>
     </row>
     <row r="166" spans="15:33" x14ac:dyDescent="0.25">
-      <c r="P166" s="28" t="s">
+      <c r="P166" s="19" t="s">
         <v>582</v>
       </c>
-      <c r="Q166" s="28"/>
-      <c r="R166" s="28"/>
-      <c r="S166" s="28"/>
-      <c r="T166" s="28"/>
-      <c r="U166" s="28"/>
-      <c r="V166" s="28" t="s">
+      <c r="Q166" s="19"/>
+      <c r="R166" s="19"/>
+      <c r="S166" s="19"/>
+      <c r="T166" s="19"/>
+      <c r="U166" s="19"/>
+      <c r="V166" s="19" t="s">
         <v>581</v>
       </c>
-      <c r="W166" s="28"/>
-      <c r="X166" s="28"/>
-      <c r="Y166" s="28"/>
-      <c r="Z166" s="28"/>
-      <c r="AA166" s="28"/>
-      <c r="AB166" s="28" t="s">
+      <c r="W166" s="19"/>
+      <c r="X166" s="19"/>
+      <c r="Y166" s="19"/>
+      <c r="Z166" s="19"/>
+      <c r="AA166" s="19"/>
+      <c r="AB166" s="19" t="s">
         <v>583</v>
       </c>
-      <c r="AC166" s="28"/>
-      <c r="AD166" s="28"/>
-      <c r="AE166" s="28"/>
-      <c r="AF166" s="28"/>
-      <c r="AG166" s="28"/>
+      <c r="AC166" s="19"/>
+      <c r="AD166" s="19"/>
+      <c r="AE166" s="19"/>
+      <c r="AF166" s="19"/>
+      <c r="AG166" s="19"/>
     </row>
     <row r="167" spans="15:33" x14ac:dyDescent="0.25">
       <c r="P167" s="6" t="s">
@@ -22362,30 +22369,30 @@
       </c>
     </row>
     <row r="190" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P190" s="28" t="s">
+      <c r="P190" s="19" t="s">
         <v>582</v>
       </c>
-      <c r="Q190" s="28"/>
-      <c r="R190" s="28"/>
-      <c r="S190" s="28"/>
-      <c r="T190" s="28"/>
-      <c r="U190" s="28"/>
-      <c r="V190" s="28" t="s">
+      <c r="Q190" s="19"/>
+      <c r="R190" s="19"/>
+      <c r="S190" s="19"/>
+      <c r="T190" s="19"/>
+      <c r="U190" s="19"/>
+      <c r="V190" s="19" t="s">
         <v>581</v>
       </c>
-      <c r="W190" s="28"/>
-      <c r="X190" s="28"/>
-      <c r="Y190" s="28"/>
-      <c r="Z190" s="28"/>
-      <c r="AA190" s="28"/>
-      <c r="AB190" s="28" t="s">
+      <c r="W190" s="19"/>
+      <c r="X190" s="19"/>
+      <c r="Y190" s="19"/>
+      <c r="Z190" s="19"/>
+      <c r="AA190" s="19"/>
+      <c r="AB190" s="19" t="s">
         <v>583</v>
       </c>
-      <c r="AC190" s="28"/>
-      <c r="AD190" s="28"/>
-      <c r="AE190" s="28"/>
-      <c r="AF190" s="28"/>
-      <c r="AG190" s="28"/>
+      <c r="AC190" s="19"/>
+      <c r="AD190" s="19"/>
+      <c r="AE190" s="19"/>
+      <c r="AF190" s="19"/>
+      <c r="AG190" s="19"/>
     </row>
     <row r="191" spans="16:33" x14ac:dyDescent="0.25">
       <c r="P191" s="6" t="s">
@@ -25298,20 +25305,20 @@
       </c>
     </row>
     <row r="244" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P244" s="18" t="s">
+      <c r="P244" s="30" t="s">
         <v>504</v>
       </c>
-      <c r="Q244" s="17" t="s">
+      <c r="Q244" s="29" t="s">
         <v>614</v>
       </c>
-      <c r="R244" s="17"/>
-      <c r="S244" s="17" t="s">
+      <c r="R244" s="29"/>
+      <c r="S244" s="29" t="s">
         <v>615</v>
       </c>
-      <c r="T244" s="17"/>
+      <c r="T244" s="29"/>
     </row>
     <row r="245" spans="16:33" ht="60" x14ac:dyDescent="0.25">
-      <c r="P245" s="18"/>
+      <c r="P245" s="30"/>
       <c r="Q245" s="12" t="s">
         <v>616</v>
       </c>
@@ -25509,83 +25516,83 @@
       </c>
     </row>
     <row r="256" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P256" s="19"/>
-      <c r="Q256" s="19"/>
-      <c r="R256" s="19"/>
-      <c r="S256" s="19"/>
-      <c r="T256" s="19"/>
-      <c r="U256" s="19"/>
-      <c r="V256" s="19"/>
-      <c r="W256" s="19"/>
-      <c r="X256" s="19"/>
-      <c r="Y256" s="19"/>
+      <c r="P256" s="23"/>
+      <c r="Q256" s="23"/>
+      <c r="R256" s="23"/>
+      <c r="S256" s="23"/>
+      <c r="T256" s="23"/>
+      <c r="U256" s="23"/>
+      <c r="V256" s="23"/>
+      <c r="W256" s="23"/>
+      <c r="X256" s="23"/>
+      <c r="Y256" s="23"/>
     </row>
     <row r="257" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P257" s="24" t="s">
+      <c r="P257" s="20" t="s">
         <v>618</v>
       </c>
-      <c r="Q257" s="25"/>
-      <c r="R257" s="25"/>
-      <c r="S257" s="25"/>
-      <c r="T257" s="25"/>
-      <c r="U257" s="25"/>
-      <c r="V257" s="25"/>
-      <c r="W257" s="25"/>
-      <c r="X257" s="26"/>
-      <c r="Y257" s="24" t="s">
+      <c r="Q257" s="21"/>
+      <c r="R257" s="21"/>
+      <c r="S257" s="21"/>
+      <c r="T257" s="21"/>
+      <c r="U257" s="21"/>
+      <c r="V257" s="21"/>
+      <c r="W257" s="21"/>
+      <c r="X257" s="22"/>
+      <c r="Y257" s="20" t="s">
         <v>619</v>
       </c>
-      <c r="Z257" s="25"/>
-      <c r="AA257" s="25"/>
-      <c r="AB257" s="25"/>
-      <c r="AC257" s="25"/>
-      <c r="AD257" s="25"/>
-      <c r="AE257" s="25"/>
-      <c r="AF257" s="25"/>
-      <c r="AG257" s="26"/>
+      <c r="Z257" s="21"/>
+      <c r="AA257" s="21"/>
+      <c r="AB257" s="21"/>
+      <c r="AC257" s="21"/>
+      <c r="AD257" s="21"/>
+      <c r="AE257" s="21"/>
+      <c r="AF257" s="21"/>
+      <c r="AG257" s="22"/>
     </row>
     <row r="258" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P258" s="28" t="s">
+      <c r="P258" s="19" t="s">
         <v>504</v>
       </c>
-      <c r="Q258" s="28" t="s">
+      <c r="Q258" s="19" t="s">
         <v>451</v>
       </c>
-      <c r="R258" s="28"/>
-      <c r="S258" s="28" t="s">
+      <c r="R258" s="19"/>
+      <c r="S258" s="19" t="s">
         <v>452</v>
       </c>
-      <c r="T258" s="28"/>
-      <c r="U258" s="28" t="s">
+      <c r="T258" s="19"/>
+      <c r="U258" s="19" t="s">
         <v>509</v>
       </c>
-      <c r="V258" s="28"/>
-      <c r="W258" s="28" t="s">
+      <c r="V258" s="19"/>
+      <c r="W258" s="19" t="s">
         <v>558</v>
       </c>
-      <c r="X258" s="28"/>
-      <c r="Y258" s="28" t="s">
+      <c r="X258" s="19"/>
+      <c r="Y258" s="19" t="s">
         <v>504</v>
       </c>
-      <c r="Z258" s="28" t="s">
+      <c r="Z258" s="19" t="s">
         <v>451</v>
       </c>
-      <c r="AA258" s="28"/>
-      <c r="AB258" s="28" t="s">
+      <c r="AA258" s="19"/>
+      <c r="AB258" s="19" t="s">
         <v>452</v>
       </c>
-      <c r="AC258" s="28"/>
-      <c r="AD258" s="28" t="s">
+      <c r="AC258" s="19"/>
+      <c r="AD258" s="19" t="s">
         <v>509</v>
       </c>
-      <c r="AE258" s="28"/>
+      <c r="AE258" s="19"/>
       <c r="AF258" s="6" t="s">
         <v>558</v>
       </c>
       <c r="AG258" s="7"/>
     </row>
     <row r="259" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P259" s="28"/>
+      <c r="P259" s="19"/>
       <c r="Q259" s="11" t="s">
         <v>507</v>
       </c>
@@ -25610,7 +25617,7 @@
       <c r="X259" s="11" t="s">
         <v>620</v>
       </c>
-      <c r="Y259" s="28"/>
+      <c r="Y259" s="19"/>
       <c r="Z259" s="11" t="s">
         <v>511</v>
       </c>
@@ -25640,58 +25647,58 @@
       <c r="P260" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="Q260" s="30">
+      <c r="Q260" s="16">
         <f>B141*100</f>
         <v>61.538000000000004</v>
       </c>
-      <c r="R260" s="30">
+      <c r="R260" s="16">
         <v>0</v>
       </c>
-      <c r="S260" s="30">
+      <c r="S260" s="16">
         <f>C141*100</f>
         <v>75.411000000000001</v>
       </c>
-      <c r="T260" s="30">
+      <c r="T260" s="16">
         <v>0</v>
       </c>
-      <c r="U260" s="30">
+      <c r="U260" s="16">
         <f>D141*100</f>
         <v>78.120999999999995</v>
       </c>
-      <c r="V260" s="30">
+      <c r="V260" s="16">
         <v>0</v>
       </c>
-      <c r="W260" s="30">
+      <c r="W260" s="16">
         <v>84.93</v>
       </c>
-      <c r="X260" s="30"/>
-      <c r="Y260" s="31" t="s">
+      <c r="X260" s="16"/>
+      <c r="Y260" s="17" t="s">
         <v>412</v>
       </c>
-      <c r="Z260" s="30">
+      <c r="Z260" s="16">
         <f>G141*100</f>
         <v>43.317999999999998</v>
       </c>
-      <c r="AA260" s="30">
+      <c r="AA260" s="16">
         <v>0</v>
       </c>
-      <c r="AB260" s="30">
+      <c r="AB260" s="16">
         <f>H141*100</f>
         <v>63.066000000000003</v>
       </c>
-      <c r="AC260" s="30">
+      <c r="AC260" s="16">
         <v>0</v>
       </c>
-      <c r="AD260" s="30">
+      <c r="AD260" s="16">
         <f>I141*100</f>
         <v>65.837000000000003</v>
       </c>
-      <c r="AE260" s="30"/>
-      <c r="AF260" s="30">
+      <c r="AE260" s="16"/>
+      <c r="AF260" s="16">
         <f>J141*100</f>
         <v>76.843999999999994</v>
       </c>
-      <c r="AG260" s="30">
+      <c r="AG260" s="16">
         <v>0</v>
       </c>
     </row>
@@ -25699,69 +25706,69 @@
       <c r="P261" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="Q261" s="30">
+      <c r="Q261" s="16">
         <f>B142*100</f>
         <v>74.461999999999989</v>
       </c>
-      <c r="R261" s="30">
+      <c r="R261" s="16">
         <f>(Q261-61.538)/61.538*100</f>
         <v>21.001657512431333</v>
       </c>
-      <c r="S261" s="31">
+      <c r="S261" s="17">
         <f>C142*100</f>
         <v>87.512</v>
       </c>
-      <c r="T261" s="31">
+      <c r="T261" s="17">
         <f>(S261-75.411)/75.411*100</f>
         <v>16.046730583071433</v>
       </c>
-      <c r="U261" s="31">
+      <c r="U261" s="17">
         <f>D142*100</f>
         <v>86.38</v>
       </c>
-      <c r="V261" s="31">
+      <c r="V261" s="17">
         <f>(U261-78.121)/78.121*100</f>
         <v>10.572061289538025</v>
       </c>
-      <c r="W261" s="31">
+      <c r="W261" s="17">
         <v>90.870999999999995</v>
       </c>
-      <c r="X261" s="31">
+      <c r="X261" s="17">
         <f>(W261-84.93)/84.93*100</f>
         <v>6.9951724949958649</v>
       </c>
-      <c r="Y261" s="31" t="s">
+      <c r="Y261" s="17" t="s">
         <v>405</v>
       </c>
-      <c r="Z261" s="31">
+      <c r="Z261" s="17">
         <f>G142*100</f>
         <v>62.388999999999996</v>
       </c>
-      <c r="AA261" s="31">
+      <c r="AA261" s="17">
         <f>(Z261-43.318)/43.318*100</f>
         <v>44.025578281545776</v>
       </c>
-      <c r="AB261" s="31">
+      <c r="AB261" s="17">
         <f>H142*100</f>
         <v>77.141999999999996</v>
       </c>
-      <c r="AC261" s="31">
+      <c r="AC261" s="17">
         <f>(AB261-63.066)/63.066*100</f>
         <v>22.319474835886201</v>
       </c>
-      <c r="AD261" s="31">
+      <c r="AD261" s="17">
         <f>I142*100</f>
         <v>77.24499999999999</v>
       </c>
-      <c r="AE261" s="31">
+      <c r="AE261" s="17">
         <f>(AD261-65.837)/65.837*100</f>
         <v>17.327642511049998</v>
       </c>
-      <c r="AF261" s="31">
+      <c r="AF261" s="17">
         <f>J142*100</f>
         <v>84.316999999999993</v>
       </c>
-      <c r="AG261" s="31">
+      <c r="AG261" s="17">
         <f>(AF261-76.844)/76.844*100</f>
         <v>9.7248971943157549</v>
       </c>
@@ -25770,69 +25777,69 @@
       <c r="P262" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="Q262" s="30">
+      <c r="Q262" s="16">
         <f>B143*100</f>
         <v>73.751999999999995</v>
       </c>
-      <c r="R262" s="30">
+      <c r="R262" s="16">
         <f t="shared" ref="R262:R264" si="12">(Q262-61.538)/61.538*100</f>
         <v>19.847898859241443</v>
       </c>
-      <c r="S262" s="30">
+      <c r="S262" s="16">
         <f>C143*100</f>
         <v>84.271000000000001</v>
       </c>
-      <c r="T262" s="30">
+      <c r="T262" s="16">
         <f t="shared" ref="T262:T264" si="13">(S262-75.411)/75.411*100</f>
         <v>11.748949092307488</v>
       </c>
-      <c r="U262" s="30">
+      <c r="U262" s="16">
         <f>D143*100</f>
         <v>85.129000000000005</v>
       </c>
-      <c r="V262" s="30">
+      <c r="V262" s="16">
         <f t="shared" ref="V262:V264" si="14">(U262-78.121)/78.121*100</f>
         <v>8.9706992998041635</v>
       </c>
-      <c r="W262" s="30">
+      <c r="W262" s="16">
         <v>88.688000000000002</v>
       </c>
-      <c r="X262" s="30">
+      <c r="X262" s="16">
         <f t="shared" ref="X262:X264" si="15">(W262-84.93)/84.93*100</f>
         <v>4.4248204403626454</v>
       </c>
-      <c r="Y262" s="31" t="s">
+      <c r="Y262" s="17" t="s">
         <v>404</v>
       </c>
-      <c r="Z262" s="30">
+      <c r="Z262" s="16">
         <f>G143*100</f>
         <v>54.890999999999998</v>
       </c>
-      <c r="AA262" s="30">
+      <c r="AA262" s="16">
         <f t="shared" ref="AA262:AA264" si="16">(Z262-43.318)/43.318*100</f>
         <v>26.716376564014961</v>
       </c>
-      <c r="AB262" s="30">
+      <c r="AB262" s="16">
         <f>H143*100</f>
         <v>71.165000000000006</v>
       </c>
-      <c r="AC262" s="30">
+      <c r="AC262" s="16">
         <f t="shared" ref="AC262:AC264" si="17">(AB262-63.066)/63.066*100</f>
         <v>12.842101924967499</v>
       </c>
-      <c r="AD262" s="30">
+      <c r="AD262" s="16">
         <f>I143*100</f>
         <v>73.194000000000003</v>
       </c>
-      <c r="AE262" s="30">
+      <c r="AE262" s="16">
         <f t="shared" ref="AE262:AE264" si="18">(AD262-65.837)/65.837*100</f>
         <v>11.174567492443458</v>
       </c>
-      <c r="AF262" s="30">
+      <c r="AF262" s="16">
         <f>J143*100</f>
         <v>81.733000000000004</v>
       </c>
-      <c r="AG262" s="30">
+      <c r="AG262" s="16">
         <f t="shared" ref="AG262:AG264" si="19">(AF262-76.844)/76.844*100</f>
         <v>6.3622403831138543</v>
       </c>
@@ -25841,69 +25848,69 @@
       <c r="P263" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="Q263" s="30">
+      <c r="Q263" s="16">
         <f>B144*100</f>
         <v>76.957999999999998</v>
       </c>
-      <c r="R263" s="30">
+      <c r="R263" s="16">
         <f t="shared" si="12"/>
         <v>25.057687932659501</v>
       </c>
-      <c r="S263" s="30">
+      <c r="S263" s="16">
         <f>C144*100</f>
         <v>71.061999999999998</v>
       </c>
-      <c r="T263" s="30">
+      <c r="T263" s="16">
         <f t="shared" si="13"/>
         <v>-5.7670631605468747</v>
       </c>
-      <c r="U263" s="30">
+      <c r="U263" s="16">
         <f>D144*100</f>
         <v>81.420999999999992</v>
       </c>
-      <c r="V263" s="30">
+      <c r="V263" s="16">
         <f t="shared" si="14"/>
         <v>4.2242162798735254</v>
       </c>
-      <c r="W263" s="30">
+      <c r="W263" s="16">
         <v>85.02300000000001</v>
       </c>
-      <c r="X263" s="30">
+      <c r="X263" s="16">
         <f t="shared" si="15"/>
         <v>0.10950194277640825</v>
       </c>
-      <c r="Y263" s="31" t="s">
+      <c r="Y263" s="17" t="s">
         <v>406</v>
       </c>
-      <c r="Z263" s="30">
+      <c r="Z263" s="16">
         <f>G144*100</f>
         <v>48.978000000000002</v>
       </c>
-      <c r="AA263" s="30">
+      <c r="AA263" s="16">
         <f t="shared" si="16"/>
         <v>13.066161872662644</v>
       </c>
-      <c r="AB263" s="30">
+      <c r="AB263" s="16">
         <f>H144*100</f>
         <v>60.973999999999997</v>
       </c>
-      <c r="AC263" s="30">
+      <c r="AC263" s="16">
         <f t="shared" si="17"/>
         <v>-3.3171598008435699</v>
       </c>
-      <c r="AD263" s="30">
+      <c r="AD263" s="16">
         <f>I144*100</f>
         <v>67.691999999999993</v>
       </c>
-      <c r="AE263" s="30">
+      <c r="AE263" s="16">
         <f t="shared" si="18"/>
         <v>2.8175645913392007</v>
       </c>
-      <c r="AF263" s="30">
+      <c r="AF263" s="16">
         <f>J144*100</f>
         <v>77.490000000000009</v>
       </c>
-      <c r="AG263" s="30">
+      <c r="AG263" s="16">
         <f t="shared" si="19"/>
         <v>0.84066420280049847</v>
       </c>
@@ -25912,75 +25919,185 @@
       <c r="P264" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="Q264" s="31">
+      <c r="Q264" s="17">
         <f>B145*100</f>
         <v>82.31</v>
       </c>
-      <c r="R264" s="31">
+      <c r="R264" s="17">
         <f t="shared" si="12"/>
         <v>33.754753160648718</v>
       </c>
-      <c r="S264" s="30">
+      <c r="S264" s="16">
         <f>C145*100</f>
         <v>68.992000000000004</v>
       </c>
-      <c r="T264" s="30">
+      <c r="T264" s="16">
         <f t="shared" si="13"/>
         <v>-8.5120207927225433</v>
       </c>
-      <c r="U264" s="30">
+      <c r="U264" s="16">
         <f>D145*100</f>
         <v>83.06</v>
       </c>
-      <c r="V264" s="30">
+      <c r="V264" s="16">
         <f t="shared" si="14"/>
         <v>6.3222436988773918</v>
       </c>
-      <c r="W264" s="30">
+      <c r="W264" s="16">
         <v>85.896000000000001</v>
       </c>
-      <c r="X264" s="30">
+      <c r="X264" s="16">
         <f t="shared" si="15"/>
         <v>1.1374072765807064</v>
       </c>
-      <c r="Y264" s="31" t="s">
+      <c r="Y264" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="Z264" s="30">
+      <c r="Z264" s="16">
         <f>G145*100</f>
         <v>52.802999999999997</v>
       </c>
-      <c r="AA264" s="30">
+      <c r="AA264" s="16">
         <f t="shared" si="16"/>
         <v>21.89620942795143</v>
       </c>
-      <c r="AB264" s="30">
+      <c r="AB264" s="16">
         <f>H145*100</f>
         <v>62.604000000000006</v>
       </c>
-      <c r="AC264" s="30">
+      <c r="AC264" s="16">
         <f t="shared" si="17"/>
         <v>-0.73256588336028317</v>
       </c>
-      <c r="AD264" s="30">
+      <c r="AD264" s="16">
         <f>I145*100</f>
         <v>69.600999999999999</v>
       </c>
-      <c r="AE264" s="30">
+      <c r="AE264" s="16">
         <f t="shared" si="18"/>
         <v>5.7171499308899181</v>
       </c>
-      <c r="AF264" s="30">
+      <c r="AF264" s="16">
         <f>J145*100</f>
         <v>78.456999999999994</v>
       </c>
-      <c r="AG264" s="30">
+      <c r="AG264" s="16">
         <f t="shared" si="19"/>
         <v>2.0990578314507307</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="134">
+    <mergeCell ref="Q244:R244"/>
+    <mergeCell ref="S244:T244"/>
+    <mergeCell ref="P244:P245"/>
+    <mergeCell ref="AA47:AD47"/>
+    <mergeCell ref="AA40:AD40"/>
+    <mergeCell ref="AA33:AD33"/>
+    <mergeCell ref="G77:L77"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="O67:U67"/>
+    <mergeCell ref="O50:U50"/>
+    <mergeCell ref="O51:U51"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="O43:U43"/>
+    <mergeCell ref="V35:Z35"/>
+    <mergeCell ref="V34:Z34"/>
+    <mergeCell ref="V43:Z43"/>
+    <mergeCell ref="V42:Z42"/>
+    <mergeCell ref="V50:Z50"/>
+    <mergeCell ref="G78:L78"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="O42:U42"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="O35:U35"/>
+    <mergeCell ref="O34:U34"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="B101:E101"/>
+    <mergeCell ref="B100:E100"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="V51:Z51"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A65:A70"/>
+    <mergeCell ref="B65:B70"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="O66:U66"/>
+    <mergeCell ref="O58:U58"/>
+    <mergeCell ref="O59:U59"/>
+    <mergeCell ref="V58:Z58"/>
+    <mergeCell ref="V59:Z59"/>
+    <mergeCell ref="O75:U75"/>
+    <mergeCell ref="O74:U74"/>
+    <mergeCell ref="P85:X85"/>
+    <mergeCell ref="P84:X84"/>
+    <mergeCell ref="P92:X92"/>
+    <mergeCell ref="P93:X93"/>
+    <mergeCell ref="F92:I92"/>
+    <mergeCell ref="F93:I93"/>
+    <mergeCell ref="O119:U119"/>
+    <mergeCell ref="P101:X101"/>
+    <mergeCell ref="G109:L109"/>
+    <mergeCell ref="G110:L110"/>
+    <mergeCell ref="O111:U111"/>
+    <mergeCell ref="O110:U110"/>
+    <mergeCell ref="O118:U118"/>
+    <mergeCell ref="P100:X100"/>
+    <mergeCell ref="H118:L118"/>
+    <mergeCell ref="G119:L119"/>
+    <mergeCell ref="B118:F118"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="O135:R135"/>
+    <mergeCell ref="S135:V135"/>
+    <mergeCell ref="O126:R126"/>
+    <mergeCell ref="O127:R127"/>
+    <mergeCell ref="S126:V126"/>
+    <mergeCell ref="S127:V127"/>
+    <mergeCell ref="O134:R134"/>
+    <mergeCell ref="S134:V134"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="H121:J121"/>
+    <mergeCell ref="K121:L121"/>
+    <mergeCell ref="H122:J122"/>
+    <mergeCell ref="K122:L122"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="K120:L120"/>
+    <mergeCell ref="H120:J120"/>
+    <mergeCell ref="G123:L123"/>
+    <mergeCell ref="V190:AA190"/>
+    <mergeCell ref="AB190:AG190"/>
+    <mergeCell ref="P165:U165"/>
+    <mergeCell ref="P166:U166"/>
+    <mergeCell ref="V165:AA165"/>
+    <mergeCell ref="V166:AA166"/>
+    <mergeCell ref="O142:S142"/>
+    <mergeCell ref="O143:S143"/>
+    <mergeCell ref="T142:X142"/>
+    <mergeCell ref="T143:X143"/>
+    <mergeCell ref="Y142:AC142"/>
+    <mergeCell ref="Y143:AC143"/>
     <mergeCell ref="Z258:AA258"/>
     <mergeCell ref="AB258:AC258"/>
     <mergeCell ref="AD258:AE258"/>
@@ -26005,116 +26122,6 @@
     <mergeCell ref="AB165:AG165"/>
     <mergeCell ref="AB166:AG166"/>
     <mergeCell ref="P190:U190"/>
-    <mergeCell ref="V190:AA190"/>
-    <mergeCell ref="AB190:AG190"/>
-    <mergeCell ref="P165:U165"/>
-    <mergeCell ref="P166:U166"/>
-    <mergeCell ref="V165:AA165"/>
-    <mergeCell ref="V166:AA166"/>
-    <mergeCell ref="O142:S142"/>
-    <mergeCell ref="O143:S143"/>
-    <mergeCell ref="T142:X142"/>
-    <mergeCell ref="T143:X143"/>
-    <mergeCell ref="Y142:AC142"/>
-    <mergeCell ref="Y143:AC143"/>
-    <mergeCell ref="O135:R135"/>
-    <mergeCell ref="S135:V135"/>
-    <mergeCell ref="O126:R126"/>
-    <mergeCell ref="O127:R127"/>
-    <mergeCell ref="S126:V126"/>
-    <mergeCell ref="S127:V127"/>
-    <mergeCell ref="O134:R134"/>
-    <mergeCell ref="S134:V134"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="F92:I92"/>
-    <mergeCell ref="F93:I93"/>
-    <mergeCell ref="O119:U119"/>
-    <mergeCell ref="P101:X101"/>
-    <mergeCell ref="G109:L109"/>
-    <mergeCell ref="G110:L110"/>
-    <mergeCell ref="O111:U111"/>
-    <mergeCell ref="O110:U110"/>
-    <mergeCell ref="O118:U118"/>
-    <mergeCell ref="B101:E101"/>
-    <mergeCell ref="B100:E100"/>
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="B92:E92"/>
-    <mergeCell ref="V51:Z51"/>
-    <mergeCell ref="A71:A76"/>
-    <mergeCell ref="B71:B76"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="A65:A70"/>
-    <mergeCell ref="B65:B70"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="O66:U66"/>
-    <mergeCell ref="O58:U58"/>
-    <mergeCell ref="O59:U59"/>
-    <mergeCell ref="V58:Z58"/>
-    <mergeCell ref="V59:Z59"/>
-    <mergeCell ref="O75:U75"/>
-    <mergeCell ref="O74:U74"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="O42:U42"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="O35:U35"/>
-    <mergeCell ref="O34:U34"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="P85:X85"/>
-    <mergeCell ref="P84:X84"/>
-    <mergeCell ref="P92:X92"/>
-    <mergeCell ref="P93:X93"/>
-    <mergeCell ref="P100:X100"/>
-    <mergeCell ref="H118:L118"/>
-    <mergeCell ref="H121:J121"/>
-    <mergeCell ref="K121:L121"/>
-    <mergeCell ref="H122:J122"/>
-    <mergeCell ref="K122:L122"/>
-    <mergeCell ref="G119:L119"/>
-    <mergeCell ref="B118:F118"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="K120:L120"/>
-    <mergeCell ref="H120:J120"/>
-    <mergeCell ref="G123:L123"/>
-    <mergeCell ref="Q244:R244"/>
-    <mergeCell ref="S244:T244"/>
-    <mergeCell ref="P244:P245"/>
-    <mergeCell ref="AA47:AD47"/>
-    <mergeCell ref="AA40:AD40"/>
-    <mergeCell ref="AA33:AD33"/>
-    <mergeCell ref="G77:L77"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="O67:U67"/>
-    <mergeCell ref="O50:U50"/>
-    <mergeCell ref="O51:U51"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="O43:U43"/>
-    <mergeCell ref="V35:Z35"/>
-    <mergeCell ref="V34:Z34"/>
-    <mergeCell ref="V43:Z43"/>
-    <mergeCell ref="V42:Z42"/>
-    <mergeCell ref="V50:Z50"/>
-    <mergeCell ref="G78:L78"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="E125:F125"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
@@ -26255,13 +26262,13 @@
       <c r="A7" t="s">
         <v>504</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="31" t="s">
         <v>441</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -26367,12 +26374,12 @@
       <c r="A14" t="s">
         <v>504</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="31" t="s">
         <v>472</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -26450,4 +26457,189 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>621</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0.90807000000000004</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.85158999999999996</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.76339999999999997</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.84006999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0.80150999999999994</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.67064999999999997</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.93235999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>334</v>
+      </c>
+      <c r="B6" t="s">
+        <v>335</v>
+      </c>
+      <c r="C6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>0.68130999999999997</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.59794000000000003</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.76466999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>622</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>327</v>
+      </c>
+      <c r="B9" t="s">
+        <v>328</v>
+      </c>
+      <c r="C9" t="s">
+        <v>329</v>
+      </c>
+      <c r="D9" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>0.91081999999999996</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.85943000000000003</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.76942999999999995</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.84648000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>331</v>
+      </c>
+      <c r="B11" t="s">
+        <v>332</v>
+      </c>
+      <c r="C11" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>0.80617000000000005</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.71726999999999996</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.89505999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>334</v>
+      </c>
+      <c r="B13" t="s">
+        <v>335</v>
+      </c>
+      <c r="C13" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>0.68561000000000005</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.60297999999999996</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.76822999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A8:D8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/plotting/617_temp.xlsx
+++ b/plotting/617_temp.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2091" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2083" uniqueCount="628">
   <si>
     <t>.\vgg_unet2_0_3_640_640_64_256_rot_15_345_4_flip_5K\training_32_49_640_640_640_640_max_val_acc\vis\vis_log_181022_0927.txt</t>
   </si>
@@ -1889,6 +1889,21 @@
   </si>
   <si>
     <t>nas_hnasnet_0_31_training_32_49</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> frazil_ice</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ice+water</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ice+water(fw)</t>
+  </si>
+  <si>
+    <t>recall</t>
+  </si>
+  <si>
+    <t>precision</t>
   </si>
 </sst>
 </file>
@@ -26461,10 +26476,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:D8"/>
+      <selection activeCell="A7" sqref="A7:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26474,7 +26489,7 @@
     <col min="4" max="4" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>621</v>
       </c>
@@ -26482,162 +26497,114 @@
       <c r="C1" s="23"/>
       <c r="D1" s="23"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C2" t="s">
-        <v>329</v>
-      </c>
-      <c r="D2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B3">
+        <v>0.67064999999999997</v>
+      </c>
+      <c r="C3">
+        <v>0.93235999999999997</v>
+      </c>
+      <c r="D3">
+        <v>0.85158999999999996</v>
+      </c>
+      <c r="E3">
         <v>0.90807000000000004</v>
       </c>
-      <c r="B3" s="1">
-        <v>0.85158999999999996</v>
-      </c>
-      <c r="C3" s="1">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B4">
+        <v>0.59794000000000003</v>
+      </c>
+      <c r="C4">
+        <v>0.76466999999999996</v>
+      </c>
+      <c r="D4">
         <v>0.76339999999999997</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E4">
         <v>0.84006999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>331</v>
-      </c>
-      <c r="B4" t="s">
-        <v>332</v>
-      </c>
-      <c r="C4" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>0.80150999999999994</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0.67064999999999997</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.93235999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>334</v>
-      </c>
-      <c r="B6" t="s">
-        <v>335</v>
-      </c>
-      <c r="C6" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>0.68130999999999997</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.59794000000000003</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.76466999999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
         <v>622</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>327</v>
-      </c>
-      <c r="B9" t="s">
-        <v>328</v>
-      </c>
-      <c r="C9" t="s">
-        <v>329</v>
-      </c>
-      <c r="D9" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B7">
+        <v>0.71726999999999996</v>
+      </c>
+      <c r="C7">
+        <v>0.89505999999999997</v>
+      </c>
+      <c r="D7">
+        <v>0.85943000000000003</v>
+      </c>
+      <c r="E7">
         <v>0.91081999999999996</v>
       </c>
-      <c r="B10" s="1">
-        <v>0.85943000000000003</v>
-      </c>
-      <c r="C10" s="1">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B8">
+        <v>0.60297999999999996</v>
+      </c>
+      <c r="C8">
+        <v>0.76822999999999997</v>
+      </c>
+      <c r="D8">
         <v>0.76942999999999995</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E8">
         <v>0.84648000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>331</v>
-      </c>
-      <c r="B11" t="s">
-        <v>332</v>
-      </c>
-      <c r="C11" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>0.80617000000000005</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0.71726999999999996</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.89505999999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>334</v>
-      </c>
-      <c r="B13" t="s">
-        <v>335</v>
-      </c>
-      <c r="C13" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>0.68561000000000005</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0.60297999999999996</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.76822999999999997</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/plotting/617_temp.xlsx
+++ b/plotting/617_temp.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2083" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2125" uniqueCount="634">
   <si>
     <t>.\vgg_unet2_0_3_640_640_64_256_rot_15_345_4_flip_5K\training_32_49_640_640_640_640_max_val_acc\vis\vis_log_181022_0927.txt</t>
   </si>
@@ -1904,6 +1904,24 @@
   </si>
   <si>
     <t>precision</t>
+  </si>
+  <si>
+    <t>training_32_49_nas_hnasnet_0_3_ade20k</t>
+  </si>
+  <si>
+    <t>training_32_49_nas_hnasnet_0_3</t>
+  </si>
+  <si>
+    <t>training_32_49_resnet_v1_101_0_3</t>
+  </si>
+  <si>
+    <t>training_32_49_resnet_v1_101_0_3_ade20k</t>
+  </si>
+  <si>
+    <t>resnet_v1_101_0_31_ade20k</t>
+  </si>
+  <si>
+    <t>training_32_49_nas_hnasnet_0_31_ade20k</t>
   </si>
 </sst>
 </file>
@@ -2077,7 +2095,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2089,29 +2125,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -13088,17 +13106,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A293:E293"/>
-    <mergeCell ref="A231:E231"/>
-    <mergeCell ref="A192:E192"/>
-    <mergeCell ref="A71:E71"/>
-    <mergeCell ref="A155:E155"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A52:E52"/>
     <mergeCell ref="A100:E100"/>
     <mergeCell ref="A118:E118"/>
     <mergeCell ref="A137:E137"/>
     <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A293:E293"/>
+    <mergeCell ref="A231:E231"/>
+    <mergeCell ref="A192:E192"/>
+    <mergeCell ref="A71:E71"/>
+    <mergeCell ref="A155:E155"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
@@ -13684,13 +13702,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -13804,22 +13822,22 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="21" t="s">
         <v>420</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -13972,14 +13990,14 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
       <c r="J17">
         <v>0.67832000000000003</v>
       </c>
@@ -13994,14 +14012,14 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="21" t="s">
         <v>444</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -14215,11 +14233,11 @@
       <c r="A24" s="24" t="s">
         <v>420</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
       <c r="J24">
         <v>0.43318000000000001</v>
       </c>
@@ -14246,14 +14264,14 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="21" t="s">
         <v>445</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -14430,46 +14448,46 @@
       </c>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="AA33" s="23" t="s">
+      <c r="AA33" s="21" t="s">
         <v>567</v>
       </c>
-      <c r="AB33" s="23"/>
-      <c r="AC33" s="23"/>
-      <c r="AD33" s="23"/>
+      <c r="AB33" s="21"/>
+      <c r="AC33" s="21"/>
+      <c r="AD33" s="21"/>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="H34" s="23" t="s">
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="H34" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="O34" s="23" t="s">
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="O34" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="23"/>
-      <c r="R34" s="23"/>
-      <c r="S34" s="23"/>
-      <c r="T34" s="23"/>
-      <c r="U34" s="23"/>
-      <c r="V34" s="23" t="s">
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="21"/>
+      <c r="V34" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="W34" s="23"/>
-      <c r="X34" s="23"/>
-      <c r="Y34" s="23"/>
-      <c r="Z34" s="23"/>
+      <c r="W34" s="21"/>
+      <c r="X34" s="21"/>
+      <c r="Y34" s="21"/>
+      <c r="Z34" s="21"/>
       <c r="AA34" t="s">
         <v>327</v>
       </c>
@@ -14484,38 +14502,38 @@
       </c>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="H35" s="23" t="s">
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="H35" s="21" t="s">
         <v>435</v>
       </c>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-      <c r="O35" s="23" t="s">
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="O35" s="21" t="s">
         <v>435</v>
       </c>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="23"/>
-      <c r="S35" s="23"/>
-      <c r="T35" s="23"/>
-      <c r="U35" s="23"/>
-      <c r="V35" s="23" t="s">
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="21"/>
+      <c r="S35" s="21"/>
+      <c r="T35" s="21"/>
+      <c r="U35" s="21"/>
+      <c r="V35" s="21" t="s">
         <v>513</v>
       </c>
-      <c r="W35" s="23"/>
-      <c r="X35" s="23"/>
-      <c r="Y35" s="23"/>
-      <c r="Z35" s="23"/>
+      <c r="W35" s="21"/>
+      <c r="X35" s="21"/>
+      <c r="Y35" s="21"/>
+      <c r="Z35" s="21"/>
       <c r="AA35">
         <v>0.88705000000000001</v>
       </c>
@@ -14934,22 +14952,22 @@
       <c r="Z40">
         <v>0.70833999999999997</v>
       </c>
-      <c r="AA40" s="23" t="s">
+      <c r="AA40" s="21" t="s">
         <v>566</v>
       </c>
-      <c r="AB40" s="23"/>
-      <c r="AC40" s="23"/>
-      <c r="AD40" s="23"/>
+      <c r="AB40" s="21"/>
+      <c r="AC40" s="21"/>
+      <c r="AD40" s="21"/>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="21" t="s">
         <v>424</v>
       </c>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
       <c r="H41" s="1" t="s">
         <v>416</v>
       </c>
@@ -15018,14 +15036,14 @@
       </c>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="21" t="s">
         <v>433</v>
       </c>
-      <c r="B42" s="23"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
       <c r="H42" s="1" t="s">
         <v>417</v>
       </c>
@@ -15044,22 +15062,22 @@
       <c r="M42">
         <v>0.63066</v>
       </c>
-      <c r="O42" s="23" t="s">
+      <c r="O42" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="P42" s="23"/>
-      <c r="Q42" s="23"/>
-      <c r="R42" s="23"/>
-      <c r="S42" s="23"/>
-      <c r="T42" s="23"/>
-      <c r="U42" s="23"/>
-      <c r="V42" s="23" t="s">
+      <c r="P42" s="21"/>
+      <c r="Q42" s="21"/>
+      <c r="R42" s="21"/>
+      <c r="S42" s="21"/>
+      <c r="T42" s="21"/>
+      <c r="U42" s="21"/>
+      <c r="V42" s="21" t="s">
         <v>511</v>
       </c>
-      <c r="W42" s="23"/>
-      <c r="X42" s="23"/>
-      <c r="Y42" s="23"/>
-      <c r="Z42" s="23"/>
+      <c r="W42" s="21"/>
+      <c r="X42" s="21"/>
+      <c r="Y42" s="21"/>
+      <c r="Z42" s="21"/>
       <c r="AA42">
         <v>0.87365000000000004</v>
       </c>
@@ -15110,22 +15128,22 @@
       <c r="M43">
         <v>0.65837000000000001</v>
       </c>
-      <c r="O43" s="23" t="s">
+      <c r="O43" s="21" t="s">
         <v>442</v>
       </c>
-      <c r="P43" s="23"/>
-      <c r="Q43" s="23"/>
-      <c r="R43" s="23"/>
-      <c r="S43" s="23"/>
-      <c r="T43" s="23"/>
-      <c r="U43" s="23"/>
-      <c r="V43" s="23" t="s">
+      <c r="P43" s="21"/>
+      <c r="Q43" s="21"/>
+      <c r="R43" s="21"/>
+      <c r="S43" s="21"/>
+      <c r="T43" s="21"/>
+      <c r="U43" s="21"/>
+      <c r="V43" s="21" t="s">
         <v>514</v>
       </c>
-      <c r="W43" s="23"/>
-      <c r="X43" s="23"/>
-      <c r="Y43" s="23"/>
-      <c r="Z43" s="23"/>
+      <c r="W43" s="21"/>
+      <c r="X43" s="21"/>
+      <c r="Y43" s="21"/>
+      <c r="Z43" s="21"/>
       <c r="AA43" t="s">
         <v>331</v>
       </c>
@@ -15408,21 +15426,21 @@
       <c r="Z47">
         <v>0.47498000000000001</v>
       </c>
-      <c r="AA47" s="23" t="s">
+      <c r="AA47" s="21" t="s">
         <v>565</v>
       </c>
-      <c r="AB47" s="23"/>
-      <c r="AC47" s="23"/>
-      <c r="AD47" s="23"/>
+      <c r="AB47" s="21"/>
+      <c r="AC47" s="21"/>
+      <c r="AD47" s="21"/>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A48" s="23" t="s">
+      <c r="A48" s="21" t="s">
         <v>506</v>
       </c>
-      <c r="B48" s="23"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
       <c r="F48" s="2"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
@@ -15476,13 +15494,13 @@
       </c>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A49" s="23" t="s">
+      <c r="A49" s="21" t="s">
         <v>505</v>
       </c>
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
       <c r="O49" s="1" t="s">
         <v>437</v>
       </c>
@@ -15548,22 +15566,22 @@
       <c r="E50" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="O50" s="23" t="s">
+      <c r="O50" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="P50" s="23"/>
-      <c r="Q50" s="23"/>
-      <c r="R50" s="23"/>
-      <c r="S50" s="23"/>
-      <c r="T50" s="23"/>
-      <c r="U50" s="23"/>
-      <c r="V50" s="23" t="s">
+      <c r="P50" s="21"/>
+      <c r="Q50" s="21"/>
+      <c r="R50" s="21"/>
+      <c r="S50" s="21"/>
+      <c r="T50" s="21"/>
+      <c r="U50" s="21"/>
+      <c r="V50" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="W50" s="23"/>
-      <c r="X50" s="23"/>
-      <c r="Y50" s="23"/>
-      <c r="Z50" s="23"/>
+      <c r="W50" s="21"/>
+      <c r="X50" s="21"/>
+      <c r="Y50" s="21"/>
+      <c r="Z50" s="21"/>
       <c r="AA50" t="s">
         <v>331</v>
       </c>
@@ -15590,22 +15608,22 @@
       <c r="E51">
         <v>0.63066</v>
       </c>
-      <c r="O51" s="23" t="s">
+      <c r="O51" s="21" t="s">
         <v>446</v>
       </c>
-      <c r="P51" s="23"/>
-      <c r="Q51" s="23"/>
-      <c r="R51" s="23"/>
-      <c r="S51" s="23"/>
-      <c r="T51" s="23"/>
-      <c r="U51" s="23"/>
-      <c r="V51" s="23" t="s">
+      <c r="P51" s="21"/>
+      <c r="Q51" s="21"/>
+      <c r="R51" s="21"/>
+      <c r="S51" s="21"/>
+      <c r="T51" s="21"/>
+      <c r="U51" s="21"/>
+      <c r="V51" s="21" t="s">
         <v>515</v>
       </c>
-      <c r="W51" s="23"/>
-      <c r="X51" s="23"/>
-      <c r="Y51" s="23"/>
-      <c r="Z51" s="23"/>
+      <c r="W51" s="21"/>
+      <c r="X51" s="21"/>
+      <c r="Y51" s="21"/>
+      <c r="Z51" s="21"/>
       <c r="AA51">
         <v>0.77363000000000004</v>
       </c>
@@ -15847,20 +15865,20 @@
       </c>
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23" t="s">
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21" t="s">
         <v>511</v>
       </c>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="23"/>
-      <c r="J56" s="23"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
       <c r="O56" s="1" t="s">
         <v>438</v>
       </c>
@@ -15899,20 +15917,20 @@
       </c>
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A57" s="23" t="s">
+      <c r="A57" s="21" t="s">
         <v>508</v>
       </c>
-      <c r="B57" s="23"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23" t="s">
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21" t="s">
         <v>512</v>
       </c>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="23"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
       <c r="O57" s="1" t="s">
         <v>437</v>
       </c>
@@ -15981,22 +15999,22 @@
       <c r="J58" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="O58" s="23" t="s">
+      <c r="O58" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="P58" s="23"/>
-      <c r="Q58" s="23"/>
-      <c r="R58" s="23"/>
-      <c r="S58" s="23"/>
-      <c r="T58" s="23"/>
-      <c r="U58" s="23"/>
-      <c r="V58" s="23" t="s">
+      <c r="P58" s="21"/>
+      <c r="Q58" s="21"/>
+      <c r="R58" s="21"/>
+      <c r="S58" s="21"/>
+      <c r="T58" s="21"/>
+      <c r="U58" s="21"/>
+      <c r="V58" s="21" t="s">
         <v>511</v>
       </c>
-      <c r="W58" s="23"/>
-      <c r="X58" s="23"/>
-      <c r="Y58" s="23"/>
-      <c r="Z58" s="23"/>
+      <c r="W58" s="21"/>
+      <c r="X58" s="21"/>
+      <c r="Y58" s="21"/>
+      <c r="Z58" s="21"/>
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
@@ -16029,22 +16047,22 @@
       <c r="J59">
         <v>0.76844000000000001</v>
       </c>
-      <c r="O59" s="23" t="s">
+      <c r="O59" s="21" t="s">
         <v>447</v>
       </c>
-      <c r="P59" s="23"/>
-      <c r="Q59" s="23"/>
-      <c r="R59" s="23"/>
-      <c r="S59" s="23"/>
-      <c r="T59" s="23"/>
-      <c r="U59" s="23"/>
-      <c r="V59" s="23" t="s">
+      <c r="P59" s="21"/>
+      <c r="Q59" s="21"/>
+      <c r="R59" s="21"/>
+      <c r="S59" s="21"/>
+      <c r="T59" s="21"/>
+      <c r="U59" s="21"/>
+      <c r="V59" s="21" t="s">
         <v>544</v>
       </c>
-      <c r="W59" s="23"/>
-      <c r="X59" s="23"/>
-      <c r="Y59" s="23"/>
-      <c r="Z59" s="23"/>
+      <c r="W59" s="21"/>
+      <c r="X59" s="21"/>
+      <c r="Y59" s="21"/>
+      <c r="Z59" s="21"/>
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
@@ -16357,10 +16375,10 @@
       </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A65" s="23" t="s">
+      <c r="A65" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="B65" s="23" t="s">
+      <c r="B65" s="21" t="s">
         <v>444</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -16416,8 +16434,8 @@
       </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A66" s="23"/>
-      <c r="B66" s="23"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="21"/>
       <c r="C66" s="1" t="s">
         <v>412</v>
       </c>
@@ -16433,19 +16451,19 @@
       <c r="G66">
         <v>0.84930000000000005</v>
       </c>
-      <c r="O66" s="23" t="s">
+      <c r="O66" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="P66" s="23"/>
-      <c r="Q66" s="23"/>
-      <c r="R66" s="23"/>
-      <c r="S66" s="23"/>
-      <c r="T66" s="23"/>
-      <c r="U66" s="23"/>
+      <c r="P66" s="21"/>
+      <c r="Q66" s="21"/>
+      <c r="R66" s="21"/>
+      <c r="S66" s="21"/>
+      <c r="T66" s="21"/>
+      <c r="U66" s="21"/>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A67" s="23"/>
-      <c r="B67" s="23"/>
+      <c r="A67" s="21"/>
+      <c r="B67" s="21"/>
       <c r="C67" s="1" t="s">
         <v>405</v>
       </c>
@@ -16461,19 +16479,19 @@
       <c r="G67">
         <v>0.90871000000000002</v>
       </c>
-      <c r="O67" s="23" t="s">
+      <c r="O67" s="21" t="s">
         <v>448</v>
       </c>
-      <c r="P67" s="23"/>
-      <c r="Q67" s="23"/>
-      <c r="R67" s="23"/>
-      <c r="S67" s="23"/>
-      <c r="T67" s="23"/>
-      <c r="U67" s="23"/>
+      <c r="P67" s="21"/>
+      <c r="Q67" s="21"/>
+      <c r="R67" s="21"/>
+      <c r="S67" s="21"/>
+      <c r="T67" s="21"/>
+      <c r="U67" s="21"/>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A68" s="23"/>
-      <c r="B68" s="23"/>
+      <c r="A68" s="21"/>
+      <c r="B68" s="21"/>
       <c r="C68" s="1" t="s">
         <v>404</v>
       </c>
@@ -16512,8 +16530,8 @@
       </c>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A69" s="23"/>
-      <c r="B69" s="23"/>
+      <c r="A69" s="21"/>
+      <c r="B69" s="21"/>
       <c r="C69" s="1" t="s">
         <v>406</v>
       </c>
@@ -16552,8 +16570,8 @@
       </c>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A70" s="23"/>
-      <c r="B70" s="23"/>
+      <c r="A70" s="21"/>
+      <c r="B70" s="21"/>
       <c r="C70" s="1" t="s">
         <v>403</v>
       </c>
@@ -16595,7 +16613,7 @@
       <c r="A71" s="24" t="s">
         <v>420</v>
       </c>
-      <c r="B71" s="23" t="s">
+      <c r="B71" s="21" t="s">
         <v>445</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -16636,8 +16654,8 @@
       </c>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A72" s="23"/>
-      <c r="B72" s="23"/>
+      <c r="A72" s="21"/>
+      <c r="B72" s="21"/>
       <c r="C72" s="1" t="s">
         <v>412</v>
       </c>
@@ -16676,8 +16694,8 @@
       </c>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A73" s="23"/>
-      <c r="B73" s="23"/>
+      <c r="A73" s="21"/>
+      <c r="B73" s="21"/>
       <c r="C73" s="1" t="s">
         <v>405</v>
       </c>
@@ -16716,8 +16734,8 @@
       </c>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A74" s="23"/>
-      <c r="B74" s="23"/>
+      <c r="A74" s="21"/>
+      <c r="B74" s="21"/>
       <c r="C74" s="1" t="s">
         <v>404</v>
       </c>
@@ -16733,19 +16751,19 @@
       <c r="G74">
         <v>0.81733</v>
       </c>
-      <c r="O74" s="23" t="s">
+      <c r="O74" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="P74" s="23"/>
-      <c r="Q74" s="23"/>
-      <c r="R74" s="23"/>
-      <c r="S74" s="23"/>
-      <c r="T74" s="23"/>
-      <c r="U74" s="23"/>
+      <c r="P74" s="21"/>
+      <c r="Q74" s="21"/>
+      <c r="R74" s="21"/>
+      <c r="S74" s="21"/>
+      <c r="T74" s="21"/>
+      <c r="U74" s="21"/>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A75" s="23"/>
-      <c r="B75" s="23"/>
+      <c r="A75" s="21"/>
+      <c r="B75" s="21"/>
       <c r="C75" s="1" t="s">
         <v>406</v>
       </c>
@@ -16761,19 +16779,19 @@
       <c r="G75">
         <v>0.77490000000000003</v>
       </c>
-      <c r="O75" s="23" t="s">
+      <c r="O75" s="21" t="s">
         <v>449</v>
       </c>
-      <c r="P75" s="23"/>
-      <c r="Q75" s="23"/>
-      <c r="R75" s="23"/>
-      <c r="S75" s="23"/>
-      <c r="T75" s="23"/>
-      <c r="U75" s="23"/>
+      <c r="P75" s="21"/>
+      <c r="Q75" s="21"/>
+      <c r="R75" s="21"/>
+      <c r="S75" s="21"/>
+      <c r="T75" s="21"/>
+      <c r="U75" s="21"/>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A76" s="23"/>
-      <c r="B76" s="23"/>
+      <c r="A76" s="21"/>
+      <c r="B76" s="21"/>
       <c r="C76" s="1" t="s">
         <v>403</v>
       </c>
@@ -16812,22 +16830,22 @@
       </c>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A77" s="23" t="s">
+      <c r="A77" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="B77" s="23"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="23"/>
-      <c r="F77" s="23"/>
-      <c r="G77" s="23" t="s">
+      <c r="B77" s="21"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21" t="s">
         <v>511</v>
       </c>
-      <c r="H77" s="23"/>
-      <c r="I77" s="23"/>
-      <c r="J77" s="23"/>
-      <c r="K77" s="23"/>
-      <c r="L77" s="23"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="21"/>
+      <c r="J77" s="21"/>
+      <c r="K77" s="21"/>
+      <c r="L77" s="21"/>
       <c r="O77" t="s">
         <v>436</v>
       </c>
@@ -16851,22 +16869,22 @@
       </c>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A78" s="23" t="s">
+      <c r="A78" s="21" t="s">
         <v>508</v>
       </c>
-      <c r="B78" s="23"/>
-      <c r="C78" s="23"/>
-      <c r="D78" s="23"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="23"/>
-      <c r="G78" s="23" t="s">
+      <c r="B78" s="21"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="21" t="s">
         <v>512</v>
       </c>
-      <c r="H78" s="23"/>
-      <c r="I78" s="23"/>
-      <c r="J78" s="23"/>
-      <c r="K78" s="23"/>
-      <c r="L78" s="23"/>
+      <c r="H78" s="21"/>
+      <c r="I78" s="21"/>
+      <c r="J78" s="21"/>
+      <c r="K78" s="21"/>
+      <c r="L78" s="21"/>
       <c r="O78" t="s">
         <v>440</v>
       </c>
@@ -17143,33 +17161,33 @@
       </c>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B84" s="23" t="s">
+      <c r="B84" s="21" t="s">
         <v>523</v>
       </c>
-      <c r="C84" s="23"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="23"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
-      <c r="P84" s="23" t="s">
+      <c r="P84" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="Q84" s="23"/>
-      <c r="R84" s="23"/>
-      <c r="S84" s="23"/>
-      <c r="T84" s="23"/>
-      <c r="U84" s="23"/>
-      <c r="V84" s="23"/>
-      <c r="W84" s="23"/>
-      <c r="X84" s="23"/>
+      <c r="Q84" s="21"/>
+      <c r="R84" s="21"/>
+      <c r="S84" s="21"/>
+      <c r="T84" s="21"/>
+      <c r="U84" s="21"/>
+      <c r="V84" s="21"/>
+      <c r="W84" s="21"/>
+      <c r="X84" s="21"/>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B85" s="23" t="s">
+      <c r="B85" s="21" t="s">
         <v>545</v>
       </c>
-      <c r="C85" s="23"/>
-      <c r="D85" s="23"/>
-      <c r="E85" s="23"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="21"/>
       <c r="F85" s="1" t="s">
         <v>522</v>
       </c>
@@ -17185,17 +17203,17 @@
       <c r="J85" t="s">
         <v>528</v>
       </c>
-      <c r="P85" s="23" t="s">
+      <c r="P85" s="21" t="s">
         <v>454</v>
       </c>
-      <c r="Q85" s="23"/>
-      <c r="R85" s="23"/>
-      <c r="S85" s="23"/>
-      <c r="T85" s="23"/>
-      <c r="U85" s="23"/>
-      <c r="V85" s="23"/>
-      <c r="W85" s="23"/>
-      <c r="X85" s="23"/>
+      <c r="Q85" s="21"/>
+      <c r="R85" s="21"/>
+      <c r="S85" s="21"/>
+      <c r="T85" s="21"/>
+      <c r="U85" s="21"/>
+      <c r="V85" s="21"/>
+      <c r="W85" s="21"/>
+      <c r="X85" s="21"/>
     </row>
     <row r="86" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
@@ -17537,54 +17555,54 @@
       </c>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B92" s="23" t="s">
+      <c r="B92" s="21" t="s">
         <v>523</v>
       </c>
-      <c r="C92" s="23"/>
-      <c r="D92" s="23"/>
-      <c r="E92" s="23"/>
-      <c r="F92" s="23" t="s">
+      <c r="C92" s="21"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="21" t="s">
         <v>523</v>
       </c>
-      <c r="G92" s="23"/>
-      <c r="H92" s="23"/>
-      <c r="I92" s="23"/>
-      <c r="P92" s="23" t="s">
+      <c r="G92" s="21"/>
+      <c r="H92" s="21"/>
+      <c r="I92" s="21"/>
+      <c r="P92" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="Q92" s="23"/>
-      <c r="R92" s="23"/>
-      <c r="S92" s="23"/>
-      <c r="T92" s="23"/>
-      <c r="U92" s="23"/>
-      <c r="V92" s="23"/>
-      <c r="W92" s="23"/>
-      <c r="X92" s="23"/>
+      <c r="Q92" s="21"/>
+      <c r="R92" s="21"/>
+      <c r="S92" s="21"/>
+      <c r="T92" s="21"/>
+      <c r="U92" s="21"/>
+      <c r="V92" s="21"/>
+      <c r="W92" s="21"/>
+      <c r="X92" s="21"/>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B93" s="23" t="s">
+      <c r="B93" s="21" t="s">
         <v>546</v>
       </c>
-      <c r="C93" s="23"/>
-      <c r="D93" s="23"/>
-      <c r="E93" s="23"/>
-      <c r="F93" s="23" t="s">
+      <c r="C93" s="21"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="21" t="s">
         <v>548</v>
       </c>
-      <c r="G93" s="23"/>
-      <c r="H93" s="23"/>
-      <c r="I93" s="23"/>
-      <c r="P93" s="23" t="s">
+      <c r="G93" s="21"/>
+      <c r="H93" s="21"/>
+      <c r="I93" s="21"/>
+      <c r="P93" s="21" t="s">
         <v>462</v>
       </c>
-      <c r="Q93" s="23"/>
-      <c r="R93" s="23"/>
-      <c r="S93" s="23"/>
-      <c r="T93" s="23"/>
-      <c r="U93" s="23"/>
-      <c r="V93" s="23"/>
-      <c r="W93" s="23"/>
-      <c r="X93" s="23"/>
+      <c r="Q93" s="21"/>
+      <c r="R93" s="21"/>
+      <c r="S93" s="21"/>
+      <c r="T93" s="21"/>
+      <c r="U93" s="21"/>
+      <c r="V93" s="21"/>
+      <c r="W93" s="21"/>
+      <c r="X93" s="21"/>
     </row>
     <row r="94" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
@@ -17944,12 +17962,12 @@
       <c r="A100" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="B100" s="23" t="s">
+      <c r="B100" s="21" t="s">
         <v>523</v>
       </c>
-      <c r="C100" s="23"/>
-      <c r="D100" s="23"/>
-      <c r="E100" s="23"/>
+      <c r="C100" s="21"/>
+      <c r="D100" s="21"/>
+      <c r="E100" s="21"/>
       <c r="F100" s="1" t="s">
         <v>554</v>
       </c>
@@ -17965,26 +17983,26 @@
       <c r="J100">
         <v>0.77887333098497002</v>
       </c>
-      <c r="P100" s="23" t="s">
+      <c r="P100" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="Q100" s="23"/>
-      <c r="R100" s="23"/>
-      <c r="S100" s="23"/>
-      <c r="T100" s="23"/>
-      <c r="U100" s="23"/>
-      <c r="V100" s="23"/>
-      <c r="W100" s="23"/>
-      <c r="X100" s="23"/>
+      <c r="Q100" s="21"/>
+      <c r="R100" s="21"/>
+      <c r="S100" s="21"/>
+      <c r="T100" s="21"/>
+      <c r="U100" s="21"/>
+      <c r="V100" s="21"/>
+      <c r="W100" s="21"/>
+      <c r="X100" s="21"/>
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
-      <c r="B101" s="23" t="s">
+      <c r="B101" s="21" t="s">
         <v>547</v>
       </c>
-      <c r="C101" s="23"/>
-      <c r="D101" s="23"/>
-      <c r="E101" s="23"/>
+      <c r="C101" s="21"/>
+      <c r="D101" s="21"/>
+      <c r="E101" s="21"/>
       <c r="F101" s="1" t="s">
         <v>555</v>
       </c>
@@ -18000,17 +18018,17 @@
       <c r="J101">
         <v>1.27434722297322</v>
       </c>
-      <c r="P101" s="23" t="s">
+      <c r="P101" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="Q101" s="23"/>
-      <c r="R101" s="23"/>
-      <c r="S101" s="23"/>
-      <c r="T101" s="23"/>
-      <c r="U101" s="23"/>
-      <c r="V101" s="23"/>
-      <c r="W101" s="23"/>
-      <c r="X101" s="23"/>
+      <c r="Q101" s="21"/>
+      <c r="R101" s="21"/>
+      <c r="S101" s="21"/>
+      <c r="T101" s="21"/>
+      <c r="U101" s="21"/>
+      <c r="V101" s="21"/>
+      <c r="W101" s="21"/>
+      <c r="X101" s="21"/>
     </row>
     <row r="102" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
@@ -18310,49 +18328,49 @@
       <c r="B108" s="1"/>
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A109" s="23" t="s">
+      <c r="A109" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="B109" s="23"/>
-      <c r="C109" s="23"/>
-      <c r="D109" s="23"/>
-      <c r="E109" s="23"/>
-      <c r="F109" s="23"/>
-      <c r="G109" s="23" t="s">
+      <c r="B109" s="21"/>
+      <c r="C109" s="21"/>
+      <c r="D109" s="21"/>
+      <c r="E109" s="21"/>
+      <c r="F109" s="21"/>
+      <c r="G109" s="21" t="s">
         <v>511</v>
       </c>
-      <c r="H109" s="23"/>
-      <c r="I109" s="23"/>
-      <c r="J109" s="23"/>
-      <c r="K109" s="23"/>
-      <c r="L109" s="23"/>
+      <c r="H109" s="21"/>
+      <c r="I109" s="21"/>
+      <c r="J109" s="21"/>
+      <c r="K109" s="21"/>
+      <c r="L109" s="21"/>
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A110" s="23" t="s">
+      <c r="A110" s="21" t="s">
         <v>508</v>
       </c>
-      <c r="B110" s="23"/>
-      <c r="C110" s="23"/>
-      <c r="D110" s="23"/>
-      <c r="E110" s="23"/>
-      <c r="F110" s="23"/>
-      <c r="G110" s="23" t="s">
+      <c r="B110" s="21"/>
+      <c r="C110" s="21"/>
+      <c r="D110" s="21"/>
+      <c r="E110" s="21"/>
+      <c r="F110" s="21"/>
+      <c r="G110" s="21" t="s">
         <v>512</v>
       </c>
-      <c r="H110" s="23"/>
-      <c r="I110" s="23"/>
-      <c r="J110" s="23"/>
-      <c r="K110" s="23"/>
-      <c r="L110" s="23"/>
-      <c r="O110" s="23" t="s">
+      <c r="H110" s="21"/>
+      <c r="I110" s="21"/>
+      <c r="J110" s="21"/>
+      <c r="K110" s="21"/>
+      <c r="L110" s="21"/>
+      <c r="O110" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="P110" s="23"/>
-      <c r="Q110" s="23"/>
-      <c r="R110" s="23"/>
-      <c r="S110" s="23"/>
-      <c r="T110" s="23"/>
-      <c r="U110" s="23"/>
+      <c r="P110" s="21"/>
+      <c r="Q110" s="21"/>
+      <c r="R110" s="21"/>
+      <c r="S110" s="21"/>
+      <c r="T110" s="21"/>
+      <c r="U110" s="21"/>
       <c r="V110" s="2"/>
       <c r="W110" s="2"/>
     </row>
@@ -18393,15 +18411,15 @@
       <c r="L111" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="O111" s="23" t="s">
+      <c r="O111" s="21" t="s">
         <v>456</v>
       </c>
-      <c r="P111" s="23"/>
-      <c r="Q111" s="23"/>
-      <c r="R111" s="23"/>
-      <c r="S111" s="23"/>
-      <c r="T111" s="23"/>
-      <c r="U111" s="23"/>
+      <c r="P111" s="21"/>
+      <c r="Q111" s="21"/>
+      <c r="R111" s="21"/>
+      <c r="S111" s="21"/>
+      <c r="T111" s="21"/>
+      <c r="U111" s="21"/>
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
@@ -18689,59 +18707,59 @@
       <c r="A118" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="B118" s="20" t="s">
+      <c r="B118" s="26" t="s">
         <v>522</v>
       </c>
-      <c r="C118" s="21"/>
-      <c r="D118" s="21"/>
-      <c r="E118" s="21"/>
-      <c r="F118" s="22"/>
+      <c r="C118" s="27"/>
+      <c r="D118" s="27"/>
+      <c r="E118" s="27"/>
+      <c r="F118" s="28"/>
       <c r="G118" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="H118" s="26" t="s">
+      <c r="H118" s="22" t="s">
         <v>522</v>
       </c>
-      <c r="I118" s="28"/>
-      <c r="J118" s="28"/>
-      <c r="K118" s="28"/>
-      <c r="L118" s="27"/>
-      <c r="O118" s="23" t="s">
+      <c r="I118" s="25"/>
+      <c r="J118" s="25"/>
+      <c r="K118" s="25"/>
+      <c r="L118" s="23"/>
+      <c r="O118" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="P118" s="23"/>
-      <c r="Q118" s="23"/>
-      <c r="R118" s="23"/>
-      <c r="S118" s="23"/>
-      <c r="T118" s="23"/>
-      <c r="U118" s="23"/>
+      <c r="P118" s="21"/>
+      <c r="Q118" s="21"/>
+      <c r="R118" s="21"/>
+      <c r="S118" s="21"/>
+      <c r="T118" s="21"/>
+      <c r="U118" s="21"/>
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A119" s="20" t="s">
+      <c r="A119" s="26" t="s">
         <v>533</v>
       </c>
-      <c r="B119" s="21"/>
-      <c r="C119" s="21"/>
-      <c r="D119" s="21"/>
-      <c r="E119" s="21"/>
-      <c r="F119" s="22"/>
-      <c r="G119" s="20" t="s">
+      <c r="B119" s="27"/>
+      <c r="C119" s="27"/>
+      <c r="D119" s="27"/>
+      <c r="E119" s="27"/>
+      <c r="F119" s="28"/>
+      <c r="G119" s="26" t="s">
         <v>538</v>
       </c>
-      <c r="H119" s="21"/>
-      <c r="I119" s="21"/>
-      <c r="J119" s="21"/>
-      <c r="K119" s="21"/>
-      <c r="L119" s="22"/>
-      <c r="O119" s="23" t="s">
+      <c r="H119" s="27"/>
+      <c r="I119" s="27"/>
+      <c r="J119" s="27"/>
+      <c r="K119" s="27"/>
+      <c r="L119" s="28"/>
+      <c r="O119" s="21" t="s">
         <v>461</v>
       </c>
-      <c r="P119" s="23"/>
-      <c r="Q119" s="23"/>
-      <c r="R119" s="23"/>
-      <c r="S119" s="23"/>
-      <c r="T119" s="23"/>
-      <c r="U119" s="23"/>
+      <c r="P119" s="21"/>
+      <c r="Q119" s="21"/>
+      <c r="R119" s="21"/>
+      <c r="S119" s="21"/>
+      <c r="T119" s="21"/>
+      <c r="U119" s="21"/>
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
@@ -18765,15 +18783,15 @@
       <c r="G120" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="H120" s="25">
+      <c r="H120" s="29">
         <v>1</v>
       </c>
-      <c r="I120" s="25"/>
-      <c r="J120" s="25"/>
-      <c r="K120" s="25">
+      <c r="I120" s="29"/>
+      <c r="J120" s="29"/>
+      <c r="K120" s="29">
         <v>2</v>
       </c>
-      <c r="L120" s="25"/>
+      <c r="L120" s="29"/>
       <c r="O120" s="1" t="s">
         <v>472</v>
       </c>
@@ -18818,15 +18836,15 @@
       <c r="G121" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="H121" s="25">
+      <c r="H121" s="29">
         <v>1</v>
       </c>
-      <c r="I121" s="25"/>
-      <c r="J121" s="25"/>
-      <c r="K121" s="25">
+      <c r="I121" s="29"/>
+      <c r="J121" s="29"/>
+      <c r="K121" s="29">
         <v>2</v>
       </c>
-      <c r="L121" s="25"/>
+      <c r="L121" s="29"/>
       <c r="O121" s="1" t="s">
         <v>457</v>
       </c>
@@ -18871,15 +18889,15 @@
       <c r="G122" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="H122" s="25">
+      <c r="H122" s="29">
         <v>1</v>
       </c>
-      <c r="I122" s="25"/>
-      <c r="J122" s="25"/>
-      <c r="K122" s="25">
+      <c r="I122" s="29"/>
+      <c r="J122" s="29"/>
+      <c r="K122" s="29">
         <v>2</v>
       </c>
-      <c r="L122" s="25"/>
+      <c r="L122" s="29"/>
       <c r="O122" s="1" t="s">
         <v>458</v>
       </c>
@@ -18903,22 +18921,22 @@
       </c>
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A123" s="20" t="s">
+      <c r="A123" s="26" t="s">
         <v>412</v>
       </c>
-      <c r="B123" s="21"/>
-      <c r="C123" s="21"/>
-      <c r="D123" s="21"/>
-      <c r="E123" s="21"/>
-      <c r="F123" s="22"/>
-      <c r="G123" s="20" t="s">
+      <c r="B123" s="27"/>
+      <c r="C123" s="27"/>
+      <c r="D123" s="27"/>
+      <c r="E123" s="27"/>
+      <c r="F123" s="28"/>
+      <c r="G123" s="26" t="s">
         <v>537</v>
       </c>
-      <c r="H123" s="21"/>
-      <c r="I123" s="21"/>
-      <c r="J123" s="21"/>
-      <c r="K123" s="21"/>
-      <c r="L123" s="22"/>
+      <c r="H123" s="27"/>
+      <c r="I123" s="27"/>
+      <c r="J123" s="27"/>
+      <c r="K123" s="27"/>
+      <c r="L123" s="28"/>
       <c r="O123" s="1" t="s">
         <v>459</v>
       </c>
@@ -18948,14 +18966,14 @@
       <c r="B124" s="7">
         <v>1</v>
       </c>
-      <c r="C124" s="25">
+      <c r="C124" s="29">
         <v>2</v>
       </c>
-      <c r="D124" s="25"/>
-      <c r="E124" s="26">
+      <c r="D124" s="29"/>
+      <c r="E124" s="22">
         <v>3</v>
       </c>
-      <c r="F124" s="27"/>
+      <c r="F124" s="23"/>
       <c r="G124" s="6" t="s">
         <v>406</v>
       </c>
@@ -19009,10 +19027,10 @@
       <c r="D125" s="7">
         <v>3</v>
       </c>
-      <c r="E125" s="26">
+      <c r="E125" s="22">
         <v>4</v>
       </c>
-      <c r="F125" s="27"/>
+      <c r="F125" s="23"/>
       <c r="G125" s="6" t="s">
         <v>405</v>
       </c>
@@ -19054,32 +19072,32 @@
       </c>
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="O126" s="23" t="s">
+      <c r="O126" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="P126" s="23"/>
-      <c r="Q126" s="23"/>
-      <c r="R126" s="23"/>
-      <c r="S126" s="23" t="s">
+      <c r="P126" s="21"/>
+      <c r="Q126" s="21"/>
+      <c r="R126" s="21"/>
+      <c r="S126" s="21" t="s">
         <v>511</v>
       </c>
-      <c r="T126" s="23"/>
-      <c r="U126" s="23"/>
-      <c r="V126" s="23"/>
+      <c r="T126" s="21"/>
+      <c r="U126" s="21"/>
+      <c r="V126" s="21"/>
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="O127" s="23" t="s">
+      <c r="O127" s="21" t="s">
         <v>541</v>
       </c>
-      <c r="P127" s="23"/>
-      <c r="Q127" s="23"/>
-      <c r="R127" s="23"/>
-      <c r="S127" s="23" t="s">
+      <c r="P127" s="21"/>
+      <c r="Q127" s="21"/>
+      <c r="R127" s="21"/>
+      <c r="S127" s="21" t="s">
         <v>542</v>
       </c>
-      <c r="T127" s="23"/>
-      <c r="U127" s="23"/>
-      <c r="V127" s="23"/>
+      <c r="T127" s="21"/>
+      <c r="U127" s="21"/>
+      <c r="V127" s="21"/>
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
@@ -19322,18 +19340,18 @@
       <c r="D134" t="s">
         <v>563</v>
       </c>
-      <c r="O134" s="23" t="s">
+      <c r="O134" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="P134" s="23"/>
-      <c r="Q134" s="23"/>
-      <c r="R134" s="23"/>
-      <c r="S134" s="23" t="s">
+      <c r="P134" s="21"/>
+      <c r="Q134" s="21"/>
+      <c r="R134" s="21"/>
+      <c r="S134" s="21" t="s">
         <v>511</v>
       </c>
-      <c r="T134" s="23"/>
-      <c r="U134" s="23"/>
-      <c r="V134" s="23"/>
+      <c r="T134" s="21"/>
+      <c r="U134" s="21"/>
+      <c r="V134" s="21"/>
     </row>
     <row r="135" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A135">
@@ -19348,18 +19366,18 @@
       <c r="D135">
         <v>0.26800000000000002</v>
       </c>
-      <c r="O135" s="23" t="s">
+      <c r="O135" s="21" t="s">
         <v>543</v>
       </c>
-      <c r="P135" s="23"/>
-      <c r="Q135" s="23"/>
-      <c r="R135" s="23"/>
-      <c r="S135" s="23" t="s">
+      <c r="P135" s="21"/>
+      <c r="Q135" s="21"/>
+      <c r="R135" s="21"/>
+      <c r="S135" s="21" t="s">
         <v>544</v>
       </c>
-      <c r="T135" s="23"/>
-      <c r="U135" s="23"/>
-      <c r="V135" s="23"/>
+      <c r="T135" s="21"/>
+      <c r="U135" s="21"/>
+      <c r="V135" s="21"/>
     </row>
     <row r="136" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A136">
@@ -19426,20 +19444,20 @@
       </c>
     </row>
     <row r="138" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A138" s="23" t="s">
+      <c r="A138" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="B138" s="23"/>
-      <c r="C138" s="23"/>
-      <c r="D138" s="23"/>
-      <c r="E138" s="23"/>
-      <c r="F138" s="23" t="s">
+      <c r="B138" s="21"/>
+      <c r="C138" s="21"/>
+      <c r="D138" s="21"/>
+      <c r="E138" s="21"/>
+      <c r="F138" s="21" t="s">
         <v>511</v>
       </c>
-      <c r="G138" s="23"/>
-      <c r="H138" s="23"/>
-      <c r="I138" s="23"/>
-      <c r="J138" s="23"/>
+      <c r="G138" s="21"/>
+      <c r="H138" s="21"/>
+      <c r="I138" s="21"/>
+      <c r="J138" s="21"/>
       <c r="O138" s="1" t="s">
         <v>458</v>
       </c>
@@ -19466,20 +19484,20 @@
       </c>
     </row>
     <row r="139" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A139" s="23" t="s">
+      <c r="A139" s="21" t="s">
         <v>508</v>
       </c>
-      <c r="B139" s="23"/>
-      <c r="C139" s="23"/>
-      <c r="D139" s="23"/>
-      <c r="E139" s="23"/>
-      <c r="F139" s="23" t="s">
+      <c r="B139" s="21"/>
+      <c r="C139" s="21"/>
+      <c r="D139" s="21"/>
+      <c r="E139" s="21"/>
+      <c r="F139" s="21" t="s">
         <v>512</v>
       </c>
-      <c r="G139" s="23"/>
-      <c r="H139" s="23"/>
-      <c r="I139" s="23"/>
-      <c r="J139" s="23"/>
+      <c r="G139" s="21"/>
+      <c r="H139" s="21"/>
+      <c r="I139" s="21"/>
+      <c r="J139" s="21"/>
       <c r="O139" s="1" t="s">
         <v>459</v>
       </c>
@@ -19648,27 +19666,27 @@
       <c r="J142">
         <v>0.84316999999999998</v>
       </c>
-      <c r="O142" s="23" t="s">
+      <c r="O142" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="P142" s="23"/>
-      <c r="Q142" s="23"/>
-      <c r="R142" s="23"/>
-      <c r="S142" s="23"/>
-      <c r="T142" s="23" t="s">
+      <c r="P142" s="21"/>
+      <c r="Q142" s="21"/>
+      <c r="R142" s="21"/>
+      <c r="S142" s="21"/>
+      <c r="T142" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="U142" s="23"/>
-      <c r="V142" s="23"/>
-      <c r="W142" s="23"/>
-      <c r="X142" s="23"/>
-      <c r="Y142" s="23" t="s">
+      <c r="U142" s="21"/>
+      <c r="V142" s="21"/>
+      <c r="W142" s="21"/>
+      <c r="X142" s="21"/>
+      <c r="Y142" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="Z142" s="23"/>
-      <c r="AA142" s="23"/>
-      <c r="AB142" s="23"/>
-      <c r="AC142" s="23"/>
+      <c r="Z142" s="21"/>
+      <c r="AA142" s="21"/>
+      <c r="AB142" s="21"/>
+      <c r="AC142" s="21"/>
     </row>
     <row r="143" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
@@ -19701,27 +19719,27 @@
       <c r="J143">
         <v>0.81733</v>
       </c>
-      <c r="O143" s="23" t="s">
+      <c r="O143" s="21" t="s">
         <v>582</v>
       </c>
-      <c r="P143" s="23"/>
-      <c r="Q143" s="23"/>
-      <c r="R143" s="23"/>
-      <c r="S143" s="23"/>
-      <c r="T143" s="23" t="s">
+      <c r="P143" s="21"/>
+      <c r="Q143" s="21"/>
+      <c r="R143" s="21"/>
+      <c r="S143" s="21"/>
+      <c r="T143" s="21" t="s">
         <v>581</v>
       </c>
-      <c r="U143" s="23"/>
-      <c r="V143" s="23"/>
-      <c r="W143" s="23"/>
-      <c r="X143" s="23"/>
-      <c r="Y143" s="23" t="s">
+      <c r="U143" s="21"/>
+      <c r="V143" s="21"/>
+      <c r="W143" s="21"/>
+      <c r="X143" s="21"/>
+      <c r="Y143" s="21" t="s">
         <v>579</v>
       </c>
-      <c r="Z143" s="23"/>
-      <c r="AA143" s="23"/>
-      <c r="AB143" s="23"/>
-      <c r="AC143" s="23"/>
+      <c r="Z143" s="21"/>
+      <c r="AA143" s="21"/>
+      <c r="AB143" s="21"/>
+      <c r="AC143" s="21"/>
     </row>
     <row r="144" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
@@ -19878,20 +19896,20 @@
       </c>
     </row>
     <row r="146" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A146" s="23" t="s">
+      <c r="A146" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="B146" s="23"/>
-      <c r="C146" s="23"/>
-      <c r="D146" s="23"/>
-      <c r="E146" s="23"/>
-      <c r="F146" s="23" t="s">
+      <c r="B146" s="21"/>
+      <c r="C146" s="21"/>
+      <c r="D146" s="21"/>
+      <c r="E146" s="21"/>
+      <c r="F146" s="21" t="s">
         <v>511</v>
       </c>
-      <c r="G146" s="23"/>
-      <c r="H146" s="23"/>
-      <c r="I146" s="23"/>
-      <c r="J146" s="23"/>
+      <c r="G146" s="21"/>
+      <c r="H146" s="21"/>
+      <c r="I146" s="21"/>
+      <c r="J146" s="21"/>
       <c r="O146" s="1" t="s">
         <v>457</v>
       </c>
@@ -19939,20 +19957,20 @@
       </c>
     </row>
     <row r="147" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A147" s="23" t="s">
+      <c r="A147" s="21" t="s">
         <v>508</v>
       </c>
-      <c r="B147" s="23"/>
-      <c r="C147" s="23"/>
-      <c r="D147" s="23"/>
-      <c r="E147" s="23"/>
-      <c r="F147" s="23" t="s">
+      <c r="B147" s="21"/>
+      <c r="C147" s="21"/>
+      <c r="D147" s="21"/>
+      <c r="E147" s="21"/>
+      <c r="F147" s="21" t="s">
         <v>512</v>
       </c>
-      <c r="G147" s="23"/>
-      <c r="H147" s="23"/>
-      <c r="I147" s="23"/>
-      <c r="J147" s="23"/>
+      <c r="G147" s="21"/>
+      <c r="H147" s="21"/>
+      <c r="I147" s="21"/>
+      <c r="J147" s="21"/>
       <c r="O147" s="1" t="s">
         <v>530</v>
       </c>
@@ -20990,56 +21008,56 @@
       </c>
     </row>
     <row r="165" spans="15:33" x14ac:dyDescent="0.25">
-      <c r="P165" s="19" t="s">
+      <c r="P165" s="30" t="s">
         <v>580</v>
       </c>
-      <c r="Q165" s="19"/>
-      <c r="R165" s="19"/>
-      <c r="S165" s="19"/>
-      <c r="T165" s="19"/>
-      <c r="U165" s="19"/>
-      <c r="V165" s="19" t="s">
+      <c r="Q165" s="30"/>
+      <c r="R165" s="30"/>
+      <c r="S165" s="30"/>
+      <c r="T165" s="30"/>
+      <c r="U165" s="30"/>
+      <c r="V165" s="30" t="s">
         <v>580</v>
       </c>
-      <c r="W165" s="19"/>
-      <c r="X165" s="19"/>
-      <c r="Y165" s="19"/>
-      <c r="Z165" s="19"/>
-      <c r="AA165" s="19"/>
-      <c r="AB165" s="19" t="s">
+      <c r="W165" s="30"/>
+      <c r="X165" s="30"/>
+      <c r="Y165" s="30"/>
+      <c r="Z165" s="30"/>
+      <c r="AA165" s="30"/>
+      <c r="AB165" s="30" t="s">
         <v>580</v>
       </c>
-      <c r="AC165" s="19"/>
-      <c r="AD165" s="19"/>
-      <c r="AE165" s="19"/>
-      <c r="AF165" s="19"/>
-      <c r="AG165" s="19"/>
+      <c r="AC165" s="30"/>
+      <c r="AD165" s="30"/>
+      <c r="AE165" s="30"/>
+      <c r="AF165" s="30"/>
+      <c r="AG165" s="30"/>
     </row>
     <row r="166" spans="15:33" x14ac:dyDescent="0.25">
-      <c r="P166" s="19" t="s">
+      <c r="P166" s="30" t="s">
         <v>582</v>
       </c>
-      <c r="Q166" s="19"/>
-      <c r="R166" s="19"/>
-      <c r="S166" s="19"/>
-      <c r="T166" s="19"/>
-      <c r="U166" s="19"/>
-      <c r="V166" s="19" t="s">
+      <c r="Q166" s="30"/>
+      <c r="R166" s="30"/>
+      <c r="S166" s="30"/>
+      <c r="T166" s="30"/>
+      <c r="U166" s="30"/>
+      <c r="V166" s="30" t="s">
         <v>581</v>
       </c>
-      <c r="W166" s="19"/>
-      <c r="X166" s="19"/>
-      <c r="Y166" s="19"/>
-      <c r="Z166" s="19"/>
-      <c r="AA166" s="19"/>
-      <c r="AB166" s="19" t="s">
+      <c r="W166" s="30"/>
+      <c r="X166" s="30"/>
+      <c r="Y166" s="30"/>
+      <c r="Z166" s="30"/>
+      <c r="AA166" s="30"/>
+      <c r="AB166" s="30" t="s">
         <v>583</v>
       </c>
-      <c r="AC166" s="19"/>
-      <c r="AD166" s="19"/>
-      <c r="AE166" s="19"/>
-      <c r="AF166" s="19"/>
-      <c r="AG166" s="19"/>
+      <c r="AC166" s="30"/>
+      <c r="AD166" s="30"/>
+      <c r="AE166" s="30"/>
+      <c r="AF166" s="30"/>
+      <c r="AG166" s="30"/>
     </row>
     <row r="167" spans="15:33" x14ac:dyDescent="0.25">
       <c r="P167" s="6" t="s">
@@ -22384,30 +22402,30 @@
       </c>
     </row>
     <row r="190" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P190" s="19" t="s">
+      <c r="P190" s="30" t="s">
         <v>582</v>
       </c>
-      <c r="Q190" s="19"/>
-      <c r="R190" s="19"/>
-      <c r="S190" s="19"/>
-      <c r="T190" s="19"/>
-      <c r="U190" s="19"/>
-      <c r="V190" s="19" t="s">
+      <c r="Q190" s="30"/>
+      <c r="R190" s="30"/>
+      <c r="S190" s="30"/>
+      <c r="T190" s="30"/>
+      <c r="U190" s="30"/>
+      <c r="V190" s="30" t="s">
         <v>581</v>
       </c>
-      <c r="W190" s="19"/>
-      <c r="X190" s="19"/>
-      <c r="Y190" s="19"/>
-      <c r="Z190" s="19"/>
-      <c r="AA190" s="19"/>
-      <c r="AB190" s="19" t="s">
+      <c r="W190" s="30"/>
+      <c r="X190" s="30"/>
+      <c r="Y190" s="30"/>
+      <c r="Z190" s="30"/>
+      <c r="AA190" s="30"/>
+      <c r="AB190" s="30" t="s">
         <v>583</v>
       </c>
-      <c r="AC190" s="19"/>
-      <c r="AD190" s="19"/>
-      <c r="AE190" s="19"/>
-      <c r="AF190" s="19"/>
-      <c r="AG190" s="19"/>
+      <c r="AC190" s="30"/>
+      <c r="AD190" s="30"/>
+      <c r="AE190" s="30"/>
+      <c r="AF190" s="30"/>
+      <c r="AG190" s="30"/>
     </row>
     <row r="191" spans="16:33" x14ac:dyDescent="0.25">
       <c r="P191" s="6" t="s">
@@ -25320,20 +25338,20 @@
       </c>
     </row>
     <row r="244" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P244" s="30" t="s">
+      <c r="P244" s="20" t="s">
         <v>504</v>
       </c>
-      <c r="Q244" s="29" t="s">
+      <c r="Q244" s="19" t="s">
         <v>614</v>
       </c>
-      <c r="R244" s="29"/>
-      <c r="S244" s="29" t="s">
+      <c r="R244" s="19"/>
+      <c r="S244" s="19" t="s">
         <v>615</v>
       </c>
-      <c r="T244" s="29"/>
+      <c r="T244" s="19"/>
     </row>
     <row r="245" spans="16:33" ht="60" x14ac:dyDescent="0.25">
-      <c r="P245" s="30"/>
+      <c r="P245" s="20"/>
       <c r="Q245" s="12" t="s">
         <v>616</v>
       </c>
@@ -25531,83 +25549,83 @@
       </c>
     </row>
     <row r="256" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P256" s="23"/>
-      <c r="Q256" s="23"/>
-      <c r="R256" s="23"/>
-      <c r="S256" s="23"/>
-      <c r="T256" s="23"/>
-      <c r="U256" s="23"/>
-      <c r="V256" s="23"/>
-      <c r="W256" s="23"/>
-      <c r="X256" s="23"/>
-      <c r="Y256" s="23"/>
+      <c r="P256" s="21"/>
+      <c r="Q256" s="21"/>
+      <c r="R256" s="21"/>
+      <c r="S256" s="21"/>
+      <c r="T256" s="21"/>
+      <c r="U256" s="21"/>
+      <c r="V256" s="21"/>
+      <c r="W256" s="21"/>
+      <c r="X256" s="21"/>
+      <c r="Y256" s="21"/>
     </row>
     <row r="257" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P257" s="20" t="s">
+      <c r="P257" s="26" t="s">
         <v>618</v>
       </c>
-      <c r="Q257" s="21"/>
-      <c r="R257" s="21"/>
-      <c r="S257" s="21"/>
-      <c r="T257" s="21"/>
-      <c r="U257" s="21"/>
-      <c r="V257" s="21"/>
-      <c r="W257" s="21"/>
-      <c r="X257" s="22"/>
-      <c r="Y257" s="20" t="s">
+      <c r="Q257" s="27"/>
+      <c r="R257" s="27"/>
+      <c r="S257" s="27"/>
+      <c r="T257" s="27"/>
+      <c r="U257" s="27"/>
+      <c r="V257" s="27"/>
+      <c r="W257" s="27"/>
+      <c r="X257" s="28"/>
+      <c r="Y257" s="26" t="s">
         <v>619</v>
       </c>
-      <c r="Z257" s="21"/>
-      <c r="AA257" s="21"/>
-      <c r="AB257" s="21"/>
-      <c r="AC257" s="21"/>
-      <c r="AD257" s="21"/>
-      <c r="AE257" s="21"/>
-      <c r="AF257" s="21"/>
-      <c r="AG257" s="22"/>
+      <c r="Z257" s="27"/>
+      <c r="AA257" s="27"/>
+      <c r="AB257" s="27"/>
+      <c r="AC257" s="27"/>
+      <c r="AD257" s="27"/>
+      <c r="AE257" s="27"/>
+      <c r="AF257" s="27"/>
+      <c r="AG257" s="28"/>
     </row>
     <row r="258" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P258" s="19" t="s">
+      <c r="P258" s="30" t="s">
         <v>504</v>
       </c>
-      <c r="Q258" s="19" t="s">
+      <c r="Q258" s="30" t="s">
         <v>451</v>
       </c>
-      <c r="R258" s="19"/>
-      <c r="S258" s="19" t="s">
+      <c r="R258" s="30"/>
+      <c r="S258" s="30" t="s">
         <v>452</v>
       </c>
-      <c r="T258" s="19"/>
-      <c r="U258" s="19" t="s">
+      <c r="T258" s="30"/>
+      <c r="U258" s="30" t="s">
         <v>509</v>
       </c>
-      <c r="V258" s="19"/>
-      <c r="W258" s="19" t="s">
+      <c r="V258" s="30"/>
+      <c r="W258" s="30" t="s">
         <v>558</v>
       </c>
-      <c r="X258" s="19"/>
-      <c r="Y258" s="19" t="s">
+      <c r="X258" s="30"/>
+      <c r="Y258" s="30" t="s">
         <v>504</v>
       </c>
-      <c r="Z258" s="19" t="s">
+      <c r="Z258" s="30" t="s">
         <v>451</v>
       </c>
-      <c r="AA258" s="19"/>
-      <c r="AB258" s="19" t="s">
+      <c r="AA258" s="30"/>
+      <c r="AB258" s="30" t="s">
         <v>452</v>
       </c>
-      <c r="AC258" s="19"/>
-      <c r="AD258" s="19" t="s">
+      <c r="AC258" s="30"/>
+      <c r="AD258" s="30" t="s">
         <v>509</v>
       </c>
-      <c r="AE258" s="19"/>
+      <c r="AE258" s="30"/>
       <c r="AF258" s="6" t="s">
         <v>558</v>
       </c>
       <c r="AG258" s="7"/>
     </row>
     <row r="259" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P259" s="19"/>
+      <c r="P259" s="30"/>
       <c r="Q259" s="11" t="s">
         <v>507</v>
       </c>
@@ -25632,7 +25650,7 @@
       <c r="X259" s="11" t="s">
         <v>620</v>
       </c>
-      <c r="Y259" s="19"/>
+      <c r="Y259" s="30"/>
       <c r="Z259" s="11" t="s">
         <v>511</v>
       </c>
@@ -26003,6 +26021,116 @@
     </row>
   </sheetData>
   <mergeCells count="134">
+    <mergeCell ref="Z258:AA258"/>
+    <mergeCell ref="AB258:AC258"/>
+    <mergeCell ref="AD258:AE258"/>
+    <mergeCell ref="W258:X258"/>
+    <mergeCell ref="P258:P259"/>
+    <mergeCell ref="Y258:Y259"/>
+    <mergeCell ref="P257:X257"/>
+    <mergeCell ref="Y257:AG257"/>
+    <mergeCell ref="A138:E138"/>
+    <mergeCell ref="F138:J138"/>
+    <mergeCell ref="A139:E139"/>
+    <mergeCell ref="F139:J139"/>
+    <mergeCell ref="P256:T256"/>
+    <mergeCell ref="U256:Y256"/>
+    <mergeCell ref="Q258:R258"/>
+    <mergeCell ref="S258:T258"/>
+    <mergeCell ref="U258:V258"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="F146:J146"/>
+    <mergeCell ref="A147:E147"/>
+    <mergeCell ref="F147:J147"/>
+    <mergeCell ref="AB165:AG165"/>
+    <mergeCell ref="AB166:AG166"/>
+    <mergeCell ref="P190:U190"/>
+    <mergeCell ref="V190:AA190"/>
+    <mergeCell ref="AB190:AG190"/>
+    <mergeCell ref="P165:U165"/>
+    <mergeCell ref="P166:U166"/>
+    <mergeCell ref="V165:AA165"/>
+    <mergeCell ref="V166:AA166"/>
+    <mergeCell ref="O142:S142"/>
+    <mergeCell ref="O143:S143"/>
+    <mergeCell ref="T142:X142"/>
+    <mergeCell ref="T143:X143"/>
+    <mergeCell ref="Y142:AC142"/>
+    <mergeCell ref="Y143:AC143"/>
+    <mergeCell ref="O135:R135"/>
+    <mergeCell ref="S135:V135"/>
+    <mergeCell ref="O126:R126"/>
+    <mergeCell ref="O127:R127"/>
+    <mergeCell ref="S126:V126"/>
+    <mergeCell ref="S127:V127"/>
+    <mergeCell ref="O134:R134"/>
+    <mergeCell ref="S134:V134"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="H121:J121"/>
+    <mergeCell ref="K121:L121"/>
+    <mergeCell ref="H122:J122"/>
+    <mergeCell ref="K122:L122"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="K120:L120"/>
+    <mergeCell ref="H120:J120"/>
+    <mergeCell ref="G123:L123"/>
+    <mergeCell ref="F92:I92"/>
+    <mergeCell ref="F93:I93"/>
+    <mergeCell ref="O119:U119"/>
+    <mergeCell ref="P101:X101"/>
+    <mergeCell ref="G109:L109"/>
+    <mergeCell ref="G110:L110"/>
+    <mergeCell ref="O111:U111"/>
+    <mergeCell ref="O110:U110"/>
+    <mergeCell ref="O118:U118"/>
+    <mergeCell ref="P100:X100"/>
+    <mergeCell ref="H118:L118"/>
+    <mergeCell ref="G119:L119"/>
+    <mergeCell ref="B118:F118"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="B101:E101"/>
+    <mergeCell ref="B100:E100"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="V51:Z51"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A65:A70"/>
+    <mergeCell ref="B65:B70"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="O66:U66"/>
+    <mergeCell ref="O58:U58"/>
+    <mergeCell ref="O59:U59"/>
+    <mergeCell ref="V58:Z58"/>
+    <mergeCell ref="V59:Z59"/>
+    <mergeCell ref="O75:U75"/>
+    <mergeCell ref="O74:U74"/>
+    <mergeCell ref="P85:X85"/>
+    <mergeCell ref="P84:X84"/>
+    <mergeCell ref="P92:X92"/>
+    <mergeCell ref="P93:X93"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="O42:U42"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="O35:U35"/>
+    <mergeCell ref="O34:U34"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A41:F41"/>
     <mergeCell ref="Q244:R244"/>
     <mergeCell ref="S244:T244"/>
     <mergeCell ref="P244:P245"/>
@@ -26027,116 +26155,6 @@
     <mergeCell ref="B84:E84"/>
     <mergeCell ref="B85:E85"/>
     <mergeCell ref="E125:F125"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="O42:U42"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="O35:U35"/>
-    <mergeCell ref="O34:U34"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="B101:E101"/>
-    <mergeCell ref="B100:E100"/>
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="B92:E92"/>
-    <mergeCell ref="V51:Z51"/>
-    <mergeCell ref="A71:A76"/>
-    <mergeCell ref="B71:B76"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="A65:A70"/>
-    <mergeCell ref="B65:B70"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="O66:U66"/>
-    <mergeCell ref="O58:U58"/>
-    <mergeCell ref="O59:U59"/>
-    <mergeCell ref="V58:Z58"/>
-    <mergeCell ref="V59:Z59"/>
-    <mergeCell ref="O75:U75"/>
-    <mergeCell ref="O74:U74"/>
-    <mergeCell ref="P85:X85"/>
-    <mergeCell ref="P84:X84"/>
-    <mergeCell ref="P92:X92"/>
-    <mergeCell ref="P93:X93"/>
-    <mergeCell ref="F92:I92"/>
-    <mergeCell ref="F93:I93"/>
-    <mergeCell ref="O119:U119"/>
-    <mergeCell ref="P101:X101"/>
-    <mergeCell ref="G109:L109"/>
-    <mergeCell ref="G110:L110"/>
-    <mergeCell ref="O111:U111"/>
-    <mergeCell ref="O110:U110"/>
-    <mergeCell ref="O118:U118"/>
-    <mergeCell ref="P100:X100"/>
-    <mergeCell ref="H118:L118"/>
-    <mergeCell ref="G119:L119"/>
-    <mergeCell ref="B118:F118"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="O135:R135"/>
-    <mergeCell ref="S135:V135"/>
-    <mergeCell ref="O126:R126"/>
-    <mergeCell ref="O127:R127"/>
-    <mergeCell ref="S126:V126"/>
-    <mergeCell ref="S127:V127"/>
-    <mergeCell ref="O134:R134"/>
-    <mergeCell ref="S134:V134"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="H121:J121"/>
-    <mergeCell ref="K121:L121"/>
-    <mergeCell ref="H122:J122"/>
-    <mergeCell ref="K122:L122"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="K120:L120"/>
-    <mergeCell ref="H120:J120"/>
-    <mergeCell ref="G123:L123"/>
-    <mergeCell ref="V190:AA190"/>
-    <mergeCell ref="AB190:AG190"/>
-    <mergeCell ref="P165:U165"/>
-    <mergeCell ref="P166:U166"/>
-    <mergeCell ref="V165:AA165"/>
-    <mergeCell ref="V166:AA166"/>
-    <mergeCell ref="O142:S142"/>
-    <mergeCell ref="O143:S143"/>
-    <mergeCell ref="T142:X142"/>
-    <mergeCell ref="T143:X143"/>
-    <mergeCell ref="Y142:AC142"/>
-    <mergeCell ref="Y143:AC143"/>
-    <mergeCell ref="Z258:AA258"/>
-    <mergeCell ref="AB258:AC258"/>
-    <mergeCell ref="AD258:AE258"/>
-    <mergeCell ref="W258:X258"/>
-    <mergeCell ref="P258:P259"/>
-    <mergeCell ref="Y258:Y259"/>
-    <mergeCell ref="P257:X257"/>
-    <mergeCell ref="Y257:AG257"/>
-    <mergeCell ref="A138:E138"/>
-    <mergeCell ref="F138:J138"/>
-    <mergeCell ref="A139:E139"/>
-    <mergeCell ref="F139:J139"/>
-    <mergeCell ref="P256:T256"/>
-    <mergeCell ref="U256:Y256"/>
-    <mergeCell ref="Q258:R258"/>
-    <mergeCell ref="S258:T258"/>
-    <mergeCell ref="U258:V258"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="F146:J146"/>
-    <mergeCell ref="A147:E147"/>
-    <mergeCell ref="F147:J147"/>
-    <mergeCell ref="AB165:AG165"/>
-    <mergeCell ref="AB166:AG166"/>
-    <mergeCell ref="P190:U190"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
@@ -26476,10 +26494,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A8"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26489,15 +26507,30 @@
     <col min="4" max="4" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>621</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="G1" s="21" t="s">
+        <v>628</v>
+      </c>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>451</v>
       </c>
@@ -26510,8 +26543,32 @@
       <c r="E2" s="1" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H2" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>626</v>
       </c>
@@ -26527,8 +26584,38 @@
       <c r="E3">
         <v>0.90807000000000004</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="H3">
+        <v>0.70323000000000002</v>
+      </c>
+      <c r="I3">
+        <v>0.91188999999999998</v>
+      </c>
+      <c r="J3">
+        <v>0.85740000000000005</v>
+      </c>
+      <c r="K3">
+        <v>0.90353000000000006</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="M3">
+        <v>0.61151</v>
+      </c>
+      <c r="N3">
+        <v>0.91869999999999996</v>
+      </c>
+      <c r="O3">
+        <v>0.82532000000000005</v>
+      </c>
+      <c r="P3">
+        <v>0.88627999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>627</v>
       </c>
@@ -26544,16 +26631,61 @@
       <c r="E4">
         <v>0.84006999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
-        <v>622</v>
-      </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="H4">
+        <v>0.57877000000000001</v>
+      </c>
+      <c r="I4">
+        <v>0.74985999999999997</v>
+      </c>
+      <c r="J4">
+        <v>0.75407000000000002</v>
+      </c>
+      <c r="K4">
+        <v>0.83721999999999996</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="M4">
+        <v>0.52320999999999995</v>
+      </c>
+      <c r="N4">
+        <v>0.71521000000000001</v>
+      </c>
+      <c r="O4">
+        <v>0.71716999999999997</v>
+      </c>
+      <c r="P4">
+        <v>0.81111999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>632</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="G5" s="21" t="s">
+        <v>629</v>
+      </c>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21" t="s">
+        <v>630</v>
+      </c>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>451</v>
       </c>
@@ -26566,45 +26698,249 @@
       <c r="E6" s="1" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>626</v>
       </c>
       <c r="B7">
-        <v>0.71726999999999996</v>
+        <v>0.67159999999999997</v>
       </c>
       <c r="C7">
-        <v>0.89505999999999997</v>
+        <v>0.84365999999999997</v>
       </c>
       <c r="D7">
-        <v>0.85943000000000003</v>
+        <v>0.82823000000000002</v>
       </c>
       <c r="E7">
-        <v>0.91081999999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.89102999999999999</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="H7">
+        <v>0.71484999999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.85601000000000005</v>
+      </c>
+      <c r="J7">
+        <v>0.84560999999999997</v>
+      </c>
+      <c r="K7">
+        <v>0.89424000000000003</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="M7">
+        <v>0.69301000000000001</v>
+      </c>
+      <c r="N7">
+        <v>0.86019999999999996</v>
+      </c>
+      <c r="O7">
+        <v>0.84372000000000003</v>
+      </c>
+      <c r="P7">
+        <v>0.89437999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>627</v>
       </c>
       <c r="B8">
+        <v>0.53120000000000001</v>
+      </c>
+      <c r="C8">
+        <v>0.71580999999999995</v>
+      </c>
+      <c r="D8">
+        <v>0.72453999999999996</v>
+      </c>
+      <c r="E8">
+        <v>0.81896000000000002</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="H8">
+        <v>0.55613999999999997</v>
+      </c>
+      <c r="I8">
+        <v>0.72977999999999998</v>
+      </c>
+      <c r="J8">
+        <v>0.73707999999999996</v>
+      </c>
+      <c r="K8">
+        <v>0.82301000000000002</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="M8">
+        <v>0.55774999999999997</v>
+      </c>
+      <c r="N8">
+        <v>0.73592000000000002</v>
+      </c>
+      <c r="O8">
+        <v>0.73580999999999996</v>
+      </c>
+      <c r="P8">
+        <v>0.81982999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>622</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B11">
+        <v>0.71726999999999996</v>
+      </c>
+      <c r="C11">
+        <v>0.89505999999999997</v>
+      </c>
+      <c r="D11">
+        <v>0.85943000000000003</v>
+      </c>
+      <c r="E11">
+        <v>0.91081999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B12">
         <v>0.60297999999999996</v>
       </c>
-      <c r="C8">
+      <c r="C12">
         <v>0.76822999999999997</v>
       </c>
-      <c r="D8">
+      <c r="D12">
         <v>0.76942999999999995</v>
       </c>
-      <c r="E8">
+      <c r="E12">
         <v>0.84648000000000001</v>
       </c>
     </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>633</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B15">
+        <v>0.78685000000000005</v>
+      </c>
+      <c r="C15">
+        <v>0.81283000000000005</v>
+      </c>
+      <c r="D15">
+        <v>0.85701000000000005</v>
+      </c>
+      <c r="E15">
+        <v>0.90207000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B16">
+        <v>0.59440000000000004</v>
+      </c>
+      <c r="C16">
+        <v>0.73426000000000002</v>
+      </c>
+      <c r="D16">
+        <v>0.75570000000000004</v>
+      </c>
+      <c r="E16">
+        <v>0.83655999999999997</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A5:D5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="L5:P5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/plotting/617_temp.xlsx
+++ b/plotting/617_temp.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2125" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2297" uniqueCount="644">
   <si>
     <t>.\vgg_unet2_0_3_640_640_64_256_rot_15_345_4_flip_5K\training_32_49_640_640_640_640_max_val_acc\vis\vis_log_181022_0927.txt</t>
   </si>
@@ -1922,6 +1922,36 @@
   </si>
   <si>
     <t>training_32_49_nas_hnasnet_0_31_ade20k</t>
+  </si>
+  <si>
+    <t>Backbone</t>
+  </si>
+  <si>
+    <t>Xception</t>
+  </si>
+  <si>
+    <t>Auto Deeplab</t>
+  </si>
+  <si>
+    <t>ResNet101 (PSP)</t>
+  </si>
+  <si>
+    <t>training_32_49_nas_hnasnet_0_3_non_aug_sel_1000_ade20k</t>
+  </si>
+  <si>
+    <t>training_32_49_nas_hnasnet_0_3_non_aug_ade20k</t>
+  </si>
+  <si>
+    <t>training_32_49_nas_hnasnet_0_3_non_aug_sel_2_ade20k</t>
+  </si>
+  <si>
+    <t>training_32_49_nas_hnasnet_0_3_non_aug_sel_10_ade20k</t>
+  </si>
+  <si>
+    <t>training_32_49_nas_hnasnet_0_3_non_aug_sel_100_ade20k</t>
+  </si>
+  <si>
+    <t>Selective Pixel</t>
   </si>
 </sst>
 </file>
@@ -2063,7 +2093,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2095,25 +2125,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2125,14 +2137,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13106,17 +13139,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A293:E293"/>
+    <mergeCell ref="A231:E231"/>
+    <mergeCell ref="A192:E192"/>
+    <mergeCell ref="A71:E71"/>
+    <mergeCell ref="A155:E155"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A52:E52"/>
     <mergeCell ref="A100:E100"/>
     <mergeCell ref="A118:E118"/>
     <mergeCell ref="A137:E137"/>
     <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A293:E293"/>
-    <mergeCell ref="A231:E231"/>
-    <mergeCell ref="A192:E192"/>
-    <mergeCell ref="A71:E71"/>
-    <mergeCell ref="A155:E155"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
@@ -13685,8 +13718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG264"/>
   <sheetViews>
-    <sheetView topLeftCell="N19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A109" sqref="A109:F109"/>
+    <sheetView topLeftCell="N115" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O126" sqref="O126:V141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13702,13 +13735,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>413</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -13822,22 +13855,22 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="23" t="s">
         <v>420</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="23" t="s">
         <v>421</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -13990,14 +14023,14 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="23" t="s">
         <v>413</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
       <c r="J17">
         <v>0.67832000000000003</v>
       </c>
@@ -14012,14 +14045,14 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="23" t="s">
         <v>444</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -14230,14 +14263,14 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="28" t="s">
         <v>420</v>
       </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
       <c r="J24">
         <v>0.43318000000000001</v>
       </c>
@@ -14264,14 +14297,14 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="23" t="s">
         <v>445</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -14448,46 +14481,46 @@
       </c>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="AA33" s="21" t="s">
+      <c r="AA33" s="23" t="s">
         <v>567</v>
       </c>
-      <c r="AB33" s="21"/>
-      <c r="AC33" s="21"/>
-      <c r="AD33" s="21"/>
+      <c r="AB33" s="23"/>
+      <c r="AC33" s="23"/>
+      <c r="AD33" s="23"/>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="23" t="s">
         <v>413</v>
       </c>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="H34" s="21" t="s">
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="H34" s="23" t="s">
         <v>434</v>
       </c>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="O34" s="21" t="s">
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="O34" s="23" t="s">
         <v>434</v>
       </c>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
-      <c r="R34" s="21"/>
-      <c r="S34" s="21"/>
-      <c r="T34" s="21"/>
-      <c r="U34" s="21"/>
-      <c r="V34" s="21" t="s">
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="W34" s="21"/>
-      <c r="X34" s="21"/>
-      <c r="Y34" s="21"/>
-      <c r="Z34" s="21"/>
+      <c r="W34" s="23"/>
+      <c r="X34" s="23"/>
+      <c r="Y34" s="23"/>
+      <c r="Z34" s="23"/>
       <c r="AA34" t="s">
         <v>327</v>
       </c>
@@ -14502,38 +14535,38 @@
       </c>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="23" t="s">
         <v>432</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="H35" s="21" t="s">
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="H35" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="O35" s="21" t="s">
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="O35" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="21"/>
-      <c r="R35" s="21"/>
-      <c r="S35" s="21"/>
-      <c r="T35" s="21"/>
-      <c r="U35" s="21"/>
-      <c r="V35" s="21" t="s">
+      <c r="P35" s="23"/>
+      <c r="Q35" s="23"/>
+      <c r="R35" s="23"/>
+      <c r="S35" s="23"/>
+      <c r="T35" s="23"/>
+      <c r="U35" s="23"/>
+      <c r="V35" s="23" t="s">
         <v>513</v>
       </c>
-      <c r="W35" s="21"/>
-      <c r="X35" s="21"/>
-      <c r="Y35" s="21"/>
-      <c r="Z35" s="21"/>
+      <c r="W35" s="23"/>
+      <c r="X35" s="23"/>
+      <c r="Y35" s="23"/>
+      <c r="Z35" s="23"/>
       <c r="AA35">
         <v>0.88705000000000001</v>
       </c>
@@ -14952,22 +14985,22 @@
       <c r="Z40">
         <v>0.70833999999999997</v>
       </c>
-      <c r="AA40" s="21" t="s">
+      <c r="AA40" s="23" t="s">
         <v>566</v>
       </c>
-      <c r="AB40" s="21"/>
-      <c r="AC40" s="21"/>
-      <c r="AD40" s="21"/>
+      <c r="AB40" s="23"/>
+      <c r="AC40" s="23"/>
+      <c r="AD40" s="23"/>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="23" t="s">
         <v>424</v>
       </c>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
       <c r="H41" s="1" t="s">
         <v>416</v>
       </c>
@@ -15036,14 +15069,14 @@
       </c>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="23" t="s">
         <v>433</v>
       </c>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
       <c r="H42" s="1" t="s">
         <v>417</v>
       </c>
@@ -15062,22 +15095,22 @@
       <c r="M42">
         <v>0.63066</v>
       </c>
-      <c r="O42" s="21" t="s">
+      <c r="O42" s="23" t="s">
         <v>434</v>
       </c>
-      <c r="P42" s="21"/>
-      <c r="Q42" s="21"/>
-      <c r="R42" s="21"/>
-      <c r="S42" s="21"/>
-      <c r="T42" s="21"/>
-      <c r="U42" s="21"/>
-      <c r="V42" s="21" t="s">
+      <c r="P42" s="23"/>
+      <c r="Q42" s="23"/>
+      <c r="R42" s="23"/>
+      <c r="S42" s="23"/>
+      <c r="T42" s="23"/>
+      <c r="U42" s="23"/>
+      <c r="V42" s="23" t="s">
         <v>511</v>
       </c>
-      <c r="W42" s="21"/>
-      <c r="X42" s="21"/>
-      <c r="Y42" s="21"/>
-      <c r="Z42" s="21"/>
+      <c r="W42" s="23"/>
+      <c r="X42" s="23"/>
+      <c r="Y42" s="23"/>
+      <c r="Z42" s="23"/>
       <c r="AA42">
         <v>0.87365000000000004</v>
       </c>
@@ -15128,22 +15161,22 @@
       <c r="M43">
         <v>0.65837000000000001</v>
       </c>
-      <c r="O43" s="21" t="s">
+      <c r="O43" s="23" t="s">
         <v>442</v>
       </c>
-      <c r="P43" s="21"/>
-      <c r="Q43" s="21"/>
-      <c r="R43" s="21"/>
-      <c r="S43" s="21"/>
-      <c r="T43" s="21"/>
-      <c r="U43" s="21"/>
-      <c r="V43" s="21" t="s">
+      <c r="P43" s="23"/>
+      <c r="Q43" s="23"/>
+      <c r="R43" s="23"/>
+      <c r="S43" s="23"/>
+      <c r="T43" s="23"/>
+      <c r="U43" s="23"/>
+      <c r="V43" s="23" t="s">
         <v>514</v>
       </c>
-      <c r="W43" s="21"/>
-      <c r="X43" s="21"/>
-      <c r="Y43" s="21"/>
-      <c r="Z43" s="21"/>
+      <c r="W43" s="23"/>
+      <c r="X43" s="23"/>
+      <c r="Y43" s="23"/>
+      <c r="Z43" s="23"/>
       <c r="AA43" t="s">
         <v>331</v>
       </c>
@@ -15426,21 +15459,21 @@
       <c r="Z47">
         <v>0.47498000000000001</v>
       </c>
-      <c r="AA47" s="21" t="s">
+      <c r="AA47" s="23" t="s">
         <v>565</v>
       </c>
-      <c r="AB47" s="21"/>
-      <c r="AC47" s="21"/>
-      <c r="AD47" s="21"/>
+      <c r="AB47" s="23"/>
+      <c r="AC47" s="23"/>
+      <c r="AD47" s="23"/>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="23" t="s">
         <v>506</v>
       </c>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
       <c r="F48" s="2"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
@@ -15494,13 +15527,13 @@
       </c>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="23" t="s">
         <v>505</v>
       </c>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
       <c r="O49" s="1" t="s">
         <v>437</v>
       </c>
@@ -15566,22 +15599,22 @@
       <c r="E50" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="O50" s="21" t="s">
+      <c r="O50" s="23" t="s">
         <v>434</v>
       </c>
-      <c r="P50" s="21"/>
-      <c r="Q50" s="21"/>
-      <c r="R50" s="21"/>
-      <c r="S50" s="21"/>
-      <c r="T50" s="21"/>
-      <c r="U50" s="21"/>
-      <c r="V50" s="21" t="s">
+      <c r="P50" s="23"/>
+      <c r="Q50" s="23"/>
+      <c r="R50" s="23"/>
+      <c r="S50" s="23"/>
+      <c r="T50" s="23"/>
+      <c r="U50" s="23"/>
+      <c r="V50" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="W50" s="21"/>
-      <c r="X50" s="21"/>
-      <c r="Y50" s="21"/>
-      <c r="Z50" s="21"/>
+      <c r="W50" s="23"/>
+      <c r="X50" s="23"/>
+      <c r="Y50" s="23"/>
+      <c r="Z50" s="23"/>
       <c r="AA50" t="s">
         <v>331</v>
       </c>
@@ -15608,22 +15641,22 @@
       <c r="E51">
         <v>0.63066</v>
       </c>
-      <c r="O51" s="21" t="s">
+      <c r="O51" s="23" t="s">
         <v>446</v>
       </c>
-      <c r="P51" s="21"/>
-      <c r="Q51" s="21"/>
-      <c r="R51" s="21"/>
-      <c r="S51" s="21"/>
-      <c r="T51" s="21"/>
-      <c r="U51" s="21"/>
-      <c r="V51" s="21" t="s">
+      <c r="P51" s="23"/>
+      <c r="Q51" s="23"/>
+      <c r="R51" s="23"/>
+      <c r="S51" s="23"/>
+      <c r="T51" s="23"/>
+      <c r="U51" s="23"/>
+      <c r="V51" s="23" t="s">
         <v>515</v>
       </c>
-      <c r="W51" s="21"/>
-      <c r="X51" s="21"/>
-      <c r="Y51" s="21"/>
-      <c r="Z51" s="21"/>
+      <c r="W51" s="23"/>
+      <c r="X51" s="23"/>
+      <c r="Y51" s="23"/>
+      <c r="Z51" s="23"/>
       <c r="AA51">
         <v>0.77363000000000004</v>
       </c>
@@ -15865,20 +15898,20 @@
       </c>
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21" t="s">
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23" t="s">
         <v>511</v>
       </c>
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="23"/>
       <c r="O56" s="1" t="s">
         <v>438</v>
       </c>
@@ -15917,20 +15950,20 @@
       </c>
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A57" s="21" t="s">
+      <c r="A57" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21" t="s">
+      <c r="B57" s="23"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23" t="s">
         <v>512</v>
       </c>
-      <c r="G57" s="21"/>
-      <c r="H57" s="21"/>
-      <c r="I57" s="21"/>
-      <c r="J57" s="21"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="23"/>
       <c r="O57" s="1" t="s">
         <v>437</v>
       </c>
@@ -15999,22 +16032,22 @@
       <c r="J58" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="O58" s="21" t="s">
+      <c r="O58" s="23" t="s">
         <v>434</v>
       </c>
-      <c r="P58" s="21"/>
-      <c r="Q58" s="21"/>
-      <c r="R58" s="21"/>
-      <c r="S58" s="21"/>
-      <c r="T58" s="21"/>
-      <c r="U58" s="21"/>
-      <c r="V58" s="21" t="s">
+      <c r="P58" s="23"/>
+      <c r="Q58" s="23"/>
+      <c r="R58" s="23"/>
+      <c r="S58" s="23"/>
+      <c r="T58" s="23"/>
+      <c r="U58" s="23"/>
+      <c r="V58" s="23" t="s">
         <v>511</v>
       </c>
-      <c r="W58" s="21"/>
-      <c r="X58" s="21"/>
-      <c r="Y58" s="21"/>
-      <c r="Z58" s="21"/>
+      <c r="W58" s="23"/>
+      <c r="X58" s="23"/>
+      <c r="Y58" s="23"/>
+      <c r="Z58" s="23"/>
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
@@ -16047,22 +16080,22 @@
       <c r="J59">
         <v>0.76844000000000001</v>
       </c>
-      <c r="O59" s="21" t="s">
+      <c r="O59" s="23" t="s">
         <v>447</v>
       </c>
-      <c r="P59" s="21"/>
-      <c r="Q59" s="21"/>
-      <c r="R59" s="21"/>
-      <c r="S59" s="21"/>
-      <c r="T59" s="21"/>
-      <c r="U59" s="21"/>
-      <c r="V59" s="21" t="s">
+      <c r="P59" s="23"/>
+      <c r="Q59" s="23"/>
+      <c r="R59" s="23"/>
+      <c r="S59" s="23"/>
+      <c r="T59" s="23"/>
+      <c r="U59" s="23"/>
+      <c r="V59" s="23" t="s">
         <v>544</v>
       </c>
-      <c r="W59" s="21"/>
-      <c r="X59" s="21"/>
-      <c r="Y59" s="21"/>
-      <c r="Z59" s="21"/>
+      <c r="W59" s="23"/>
+      <c r="X59" s="23"/>
+      <c r="Y59" s="23"/>
+      <c r="Z59" s="23"/>
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
@@ -16375,10 +16408,10 @@
       </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A65" s="21" t="s">
+      <c r="A65" s="23" t="s">
         <v>413</v>
       </c>
-      <c r="B65" s="21" t="s">
+      <c r="B65" s="23" t="s">
         <v>444</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -16434,8 +16467,8 @@
       </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A66" s="21"/>
-      <c r="B66" s="21"/>
+      <c r="A66" s="23"/>
+      <c r="B66" s="23"/>
       <c r="C66" s="1" t="s">
         <v>412</v>
       </c>
@@ -16451,19 +16484,19 @@
       <c r="G66">
         <v>0.84930000000000005</v>
       </c>
-      <c r="O66" s="21" t="s">
+      <c r="O66" s="23" t="s">
         <v>434</v>
       </c>
-      <c r="P66" s="21"/>
-      <c r="Q66" s="21"/>
-      <c r="R66" s="21"/>
-      <c r="S66" s="21"/>
-      <c r="T66" s="21"/>
-      <c r="U66" s="21"/>
+      <c r="P66" s="23"/>
+      <c r="Q66" s="23"/>
+      <c r="R66" s="23"/>
+      <c r="S66" s="23"/>
+      <c r="T66" s="23"/>
+      <c r="U66" s="23"/>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A67" s="21"/>
-      <c r="B67" s="21"/>
+      <c r="A67" s="23"/>
+      <c r="B67" s="23"/>
       <c r="C67" s="1" t="s">
         <v>405</v>
       </c>
@@ -16479,19 +16512,19 @@
       <c r="G67">
         <v>0.90871000000000002</v>
       </c>
-      <c r="O67" s="21" t="s">
+      <c r="O67" s="23" t="s">
         <v>448</v>
       </c>
-      <c r="P67" s="21"/>
-      <c r="Q67" s="21"/>
-      <c r="R67" s="21"/>
-      <c r="S67" s="21"/>
-      <c r="T67" s="21"/>
-      <c r="U67" s="21"/>
+      <c r="P67" s="23"/>
+      <c r="Q67" s="23"/>
+      <c r="R67" s="23"/>
+      <c r="S67" s="23"/>
+      <c r="T67" s="23"/>
+      <c r="U67" s="23"/>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A68" s="21"/>
-      <c r="B68" s="21"/>
+      <c r="A68" s="23"/>
+      <c r="B68" s="23"/>
       <c r="C68" s="1" t="s">
         <v>404</v>
       </c>
@@ -16530,8 +16563,8 @@
       </c>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A69" s="21"/>
-      <c r="B69" s="21"/>
+      <c r="A69" s="23"/>
+      <c r="B69" s="23"/>
       <c r="C69" s="1" t="s">
         <v>406</v>
       </c>
@@ -16570,8 +16603,8 @@
       </c>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A70" s="21"/>
-      <c r="B70" s="21"/>
+      <c r="A70" s="23"/>
+      <c r="B70" s="23"/>
       <c r="C70" s="1" t="s">
         <v>403</v>
       </c>
@@ -16610,10 +16643,10 @@
       </c>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A71" s="24" t="s">
+      <c r="A71" s="28" t="s">
         <v>420</v>
       </c>
-      <c r="B71" s="21" t="s">
+      <c r="B71" s="23" t="s">
         <v>445</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -16654,8 +16687,8 @@
       </c>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A72" s="21"/>
-      <c r="B72" s="21"/>
+      <c r="A72" s="23"/>
+      <c r="B72" s="23"/>
       <c r="C72" s="1" t="s">
         <v>412</v>
       </c>
@@ -16694,8 +16727,8 @@
       </c>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A73" s="21"/>
-      <c r="B73" s="21"/>
+      <c r="A73" s="23"/>
+      <c r="B73" s="23"/>
       <c r="C73" s="1" t="s">
         <v>405</v>
       </c>
@@ -16734,8 +16767,8 @@
       </c>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A74" s="21"/>
-      <c r="B74" s="21"/>
+      <c r="A74" s="23"/>
+      <c r="B74" s="23"/>
       <c r="C74" s="1" t="s">
         <v>404</v>
       </c>
@@ -16751,19 +16784,19 @@
       <c r="G74">
         <v>0.81733</v>
       </c>
-      <c r="O74" s="21" t="s">
+      <c r="O74" s="23" t="s">
         <v>434</v>
       </c>
-      <c r="P74" s="21"/>
-      <c r="Q74" s="21"/>
-      <c r="R74" s="21"/>
-      <c r="S74" s="21"/>
-      <c r="T74" s="21"/>
-      <c r="U74" s="21"/>
+      <c r="P74" s="23"/>
+      <c r="Q74" s="23"/>
+      <c r="R74" s="23"/>
+      <c r="S74" s="23"/>
+      <c r="T74" s="23"/>
+      <c r="U74" s="23"/>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A75" s="21"/>
-      <c r="B75" s="21"/>
+      <c r="A75" s="23"/>
+      <c r="B75" s="23"/>
       <c r="C75" s="1" t="s">
         <v>406</v>
       </c>
@@ -16779,19 +16812,19 @@
       <c r="G75">
         <v>0.77490000000000003</v>
       </c>
-      <c r="O75" s="21" t="s">
+      <c r="O75" s="23" t="s">
         <v>449</v>
       </c>
-      <c r="P75" s="21"/>
-      <c r="Q75" s="21"/>
-      <c r="R75" s="21"/>
-      <c r="S75" s="21"/>
-      <c r="T75" s="21"/>
-      <c r="U75" s="21"/>
+      <c r="P75" s="23"/>
+      <c r="Q75" s="23"/>
+      <c r="R75" s="23"/>
+      <c r="S75" s="23"/>
+      <c r="T75" s="23"/>
+      <c r="U75" s="23"/>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A76" s="21"/>
-      <c r="B76" s="21"/>
+      <c r="A76" s="23"/>
+      <c r="B76" s="23"/>
       <c r="C76" s="1" t="s">
         <v>403</v>
       </c>
@@ -16830,22 +16863,22 @@
       </c>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A77" s="21" t="s">
+      <c r="A77" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="B77" s="21"/>
-      <c r="C77" s="21"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="21" t="s">
+      <c r="B77" s="23"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="23" t="s">
         <v>511</v>
       </c>
-      <c r="H77" s="21"/>
-      <c r="I77" s="21"/>
-      <c r="J77" s="21"/>
-      <c r="K77" s="21"/>
-      <c r="L77" s="21"/>
+      <c r="H77" s="23"/>
+      <c r="I77" s="23"/>
+      <c r="J77" s="23"/>
+      <c r="K77" s="23"/>
+      <c r="L77" s="23"/>
       <c r="O77" t="s">
         <v>436</v>
       </c>
@@ -16869,22 +16902,22 @@
       </c>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A78" s="21" t="s">
+      <c r="A78" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="B78" s="21"/>
-      <c r="C78" s="21"/>
-      <c r="D78" s="21"/>
-      <c r="E78" s="21"/>
-      <c r="F78" s="21"/>
-      <c r="G78" s="21" t="s">
+      <c r="B78" s="23"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="23" t="s">
         <v>512</v>
       </c>
-      <c r="H78" s="21"/>
-      <c r="I78" s="21"/>
-      <c r="J78" s="21"/>
-      <c r="K78" s="21"/>
-      <c r="L78" s="21"/>
+      <c r="H78" s="23"/>
+      <c r="I78" s="23"/>
+      <c r="J78" s="23"/>
+      <c r="K78" s="23"/>
+      <c r="L78" s="23"/>
       <c r="O78" t="s">
         <v>440</v>
       </c>
@@ -17161,33 +17194,33 @@
       </c>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B84" s="21" t="s">
+      <c r="B84" s="23" t="s">
         <v>523</v>
       </c>
-      <c r="C84" s="21"/>
-      <c r="D84" s="21"/>
-      <c r="E84" s="21"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="23"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
-      <c r="P84" s="21" t="s">
+      <c r="P84" s="23" t="s">
         <v>434</v>
       </c>
-      <c r="Q84" s="21"/>
-      <c r="R84" s="21"/>
-      <c r="S84" s="21"/>
-      <c r="T84" s="21"/>
-      <c r="U84" s="21"/>
-      <c r="V84" s="21"/>
-      <c r="W84" s="21"/>
-      <c r="X84" s="21"/>
+      <c r="Q84" s="23"/>
+      <c r="R84" s="23"/>
+      <c r="S84" s="23"/>
+      <c r="T84" s="23"/>
+      <c r="U84" s="23"/>
+      <c r="V84" s="23"/>
+      <c r="W84" s="23"/>
+      <c r="X84" s="23"/>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B85" s="21" t="s">
+      <c r="B85" s="23" t="s">
         <v>545</v>
       </c>
-      <c r="C85" s="21"/>
-      <c r="D85" s="21"/>
-      <c r="E85" s="21"/>
+      <c r="C85" s="23"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="23"/>
       <c r="F85" s="1" t="s">
         <v>522</v>
       </c>
@@ -17203,17 +17236,17 @@
       <c r="J85" t="s">
         <v>528</v>
       </c>
-      <c r="P85" s="21" t="s">
+      <c r="P85" s="23" t="s">
         <v>454</v>
       </c>
-      <c r="Q85" s="21"/>
-      <c r="R85" s="21"/>
-      <c r="S85" s="21"/>
-      <c r="T85" s="21"/>
-      <c r="U85" s="21"/>
-      <c r="V85" s="21"/>
-      <c r="W85" s="21"/>
-      <c r="X85" s="21"/>
+      <c r="Q85" s="23"/>
+      <c r="R85" s="23"/>
+      <c r="S85" s="23"/>
+      <c r="T85" s="23"/>
+      <c r="U85" s="23"/>
+      <c r="V85" s="23"/>
+      <c r="W85" s="23"/>
+      <c r="X85" s="23"/>
     </row>
     <row r="86" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
@@ -17555,54 +17588,54 @@
       </c>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B92" s="21" t="s">
+      <c r="B92" s="23" t="s">
         <v>523</v>
       </c>
-      <c r="C92" s="21"/>
-      <c r="D92" s="21"/>
-      <c r="E92" s="21"/>
-      <c r="F92" s="21" t="s">
+      <c r="C92" s="23"/>
+      <c r="D92" s="23"/>
+      <c r="E92" s="23"/>
+      <c r="F92" s="23" t="s">
         <v>523</v>
       </c>
-      <c r="G92" s="21"/>
-      <c r="H92" s="21"/>
-      <c r="I92" s="21"/>
-      <c r="P92" s="21" t="s">
+      <c r="G92" s="23"/>
+      <c r="H92" s="23"/>
+      <c r="I92" s="23"/>
+      <c r="P92" s="23" t="s">
         <v>434</v>
       </c>
-      <c r="Q92" s="21"/>
-      <c r="R92" s="21"/>
-      <c r="S92" s="21"/>
-      <c r="T92" s="21"/>
-      <c r="U92" s="21"/>
-      <c r="V92" s="21"/>
-      <c r="W92" s="21"/>
-      <c r="X92" s="21"/>
+      <c r="Q92" s="23"/>
+      <c r="R92" s="23"/>
+      <c r="S92" s="23"/>
+      <c r="T92" s="23"/>
+      <c r="U92" s="23"/>
+      <c r="V92" s="23"/>
+      <c r="W92" s="23"/>
+      <c r="X92" s="23"/>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B93" s="21" t="s">
+      <c r="B93" s="23" t="s">
         <v>546</v>
       </c>
-      <c r="C93" s="21"/>
-      <c r="D93" s="21"/>
-      <c r="E93" s="21"/>
-      <c r="F93" s="21" t="s">
+      <c r="C93" s="23"/>
+      <c r="D93" s="23"/>
+      <c r="E93" s="23"/>
+      <c r="F93" s="23" t="s">
         <v>548</v>
       </c>
-      <c r="G93" s="21"/>
-      <c r="H93" s="21"/>
-      <c r="I93" s="21"/>
-      <c r="P93" s="21" t="s">
+      <c r="G93" s="23"/>
+      <c r="H93" s="23"/>
+      <c r="I93" s="23"/>
+      <c r="P93" s="23" t="s">
         <v>462</v>
       </c>
-      <c r="Q93" s="21"/>
-      <c r="R93" s="21"/>
-      <c r="S93" s="21"/>
-      <c r="T93" s="21"/>
-      <c r="U93" s="21"/>
-      <c r="V93" s="21"/>
-      <c r="W93" s="21"/>
-      <c r="X93" s="21"/>
+      <c r="Q93" s="23"/>
+      <c r="R93" s="23"/>
+      <c r="S93" s="23"/>
+      <c r="T93" s="23"/>
+      <c r="U93" s="23"/>
+      <c r="V93" s="23"/>
+      <c r="W93" s="23"/>
+      <c r="X93" s="23"/>
     </row>
     <row r="94" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
@@ -17962,12 +17995,12 @@
       <c r="A100" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="B100" s="21" t="s">
+      <c r="B100" s="23" t="s">
         <v>523</v>
       </c>
-      <c r="C100" s="21"/>
-      <c r="D100" s="21"/>
-      <c r="E100" s="21"/>
+      <c r="C100" s="23"/>
+      <c r="D100" s="23"/>
+      <c r="E100" s="23"/>
       <c r="F100" s="1" t="s">
         <v>554</v>
       </c>
@@ -17983,26 +18016,26 @@
       <c r="J100">
         <v>0.77887333098497002</v>
       </c>
-      <c r="P100" s="21" t="s">
+      <c r="P100" s="23" t="s">
         <v>434</v>
       </c>
-      <c r="Q100" s="21"/>
-      <c r="R100" s="21"/>
-      <c r="S100" s="21"/>
-      <c r="T100" s="21"/>
-      <c r="U100" s="21"/>
-      <c r="V100" s="21"/>
-      <c r="W100" s="21"/>
-      <c r="X100" s="21"/>
+      <c r="Q100" s="23"/>
+      <c r="R100" s="23"/>
+      <c r="S100" s="23"/>
+      <c r="T100" s="23"/>
+      <c r="U100" s="23"/>
+      <c r="V100" s="23"/>
+      <c r="W100" s="23"/>
+      <c r="X100" s="23"/>
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
-      <c r="B101" s="21" t="s">
+      <c r="B101" s="23" t="s">
         <v>547</v>
       </c>
-      <c r="C101" s="21"/>
-      <c r="D101" s="21"/>
-      <c r="E101" s="21"/>
+      <c r="C101" s="23"/>
+      <c r="D101" s="23"/>
+      <c r="E101" s="23"/>
       <c r="F101" s="1" t="s">
         <v>555</v>
       </c>
@@ -18018,17 +18051,17 @@
       <c r="J101">
         <v>1.27434722297322</v>
       </c>
-      <c r="P101" s="21" t="s">
+      <c r="P101" s="23" t="s">
         <v>455</v>
       </c>
-      <c r="Q101" s="21"/>
-      <c r="R101" s="21"/>
-      <c r="S101" s="21"/>
-      <c r="T101" s="21"/>
-      <c r="U101" s="21"/>
-      <c r="V101" s="21"/>
-      <c r="W101" s="21"/>
-      <c r="X101" s="21"/>
+      <c r="Q101" s="23"/>
+      <c r="R101" s="23"/>
+      <c r="S101" s="23"/>
+      <c r="T101" s="23"/>
+      <c r="U101" s="23"/>
+      <c r="V101" s="23"/>
+      <c r="W101" s="23"/>
+      <c r="X101" s="23"/>
     </row>
     <row r="102" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
@@ -18328,49 +18361,49 @@
       <c r="B108" s="1"/>
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A109" s="21" t="s">
+      <c r="A109" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="B109" s="21"/>
-      <c r="C109" s="21"/>
-      <c r="D109" s="21"/>
-      <c r="E109" s="21"/>
-      <c r="F109" s="21"/>
-      <c r="G109" s="21" t="s">
+      <c r="B109" s="23"/>
+      <c r="C109" s="23"/>
+      <c r="D109" s="23"/>
+      <c r="E109" s="23"/>
+      <c r="F109" s="23"/>
+      <c r="G109" s="23" t="s">
         <v>511</v>
       </c>
-      <c r="H109" s="21"/>
-      <c r="I109" s="21"/>
-      <c r="J109" s="21"/>
-      <c r="K109" s="21"/>
-      <c r="L109" s="21"/>
+      <c r="H109" s="23"/>
+      <c r="I109" s="23"/>
+      <c r="J109" s="23"/>
+      <c r="K109" s="23"/>
+      <c r="L109" s="23"/>
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A110" s="21" t="s">
+      <c r="A110" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="B110" s="21"/>
-      <c r="C110" s="21"/>
-      <c r="D110" s="21"/>
-      <c r="E110" s="21"/>
-      <c r="F110" s="21"/>
-      <c r="G110" s="21" t="s">
+      <c r="B110" s="23"/>
+      <c r="C110" s="23"/>
+      <c r="D110" s="23"/>
+      <c r="E110" s="23"/>
+      <c r="F110" s="23"/>
+      <c r="G110" s="23" t="s">
         <v>512</v>
       </c>
-      <c r="H110" s="21"/>
-      <c r="I110" s="21"/>
-      <c r="J110" s="21"/>
-      <c r="K110" s="21"/>
-      <c r="L110" s="21"/>
-      <c r="O110" s="21" t="s">
+      <c r="H110" s="23"/>
+      <c r="I110" s="23"/>
+      <c r="J110" s="23"/>
+      <c r="K110" s="23"/>
+      <c r="L110" s="23"/>
+      <c r="O110" s="23" t="s">
         <v>434</v>
       </c>
-      <c r="P110" s="21"/>
-      <c r="Q110" s="21"/>
-      <c r="R110" s="21"/>
-      <c r="S110" s="21"/>
-      <c r="T110" s="21"/>
-      <c r="U110" s="21"/>
+      <c r="P110" s="23"/>
+      <c r="Q110" s="23"/>
+      <c r="R110" s="23"/>
+      <c r="S110" s="23"/>
+      <c r="T110" s="23"/>
+      <c r="U110" s="23"/>
       <c r="V110" s="2"/>
       <c r="W110" s="2"/>
     </row>
@@ -18411,15 +18444,15 @@
       <c r="L111" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="O111" s="21" t="s">
+      <c r="O111" s="23" t="s">
         <v>456</v>
       </c>
-      <c r="P111" s="21"/>
-      <c r="Q111" s="21"/>
-      <c r="R111" s="21"/>
-      <c r="S111" s="21"/>
-      <c r="T111" s="21"/>
-      <c r="U111" s="21"/>
+      <c r="P111" s="23"/>
+      <c r="Q111" s="23"/>
+      <c r="R111" s="23"/>
+      <c r="S111" s="23"/>
+      <c r="T111" s="23"/>
+      <c r="U111" s="23"/>
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
@@ -18707,59 +18740,59 @@
       <c r="A118" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="B118" s="26" t="s">
+      <c r="B118" s="20" t="s">
         <v>522</v>
       </c>
-      <c r="C118" s="27"/>
-      <c r="D118" s="27"/>
-      <c r="E118" s="27"/>
-      <c r="F118" s="28"/>
+      <c r="C118" s="21"/>
+      <c r="D118" s="21"/>
+      <c r="E118" s="21"/>
+      <c r="F118" s="22"/>
       <c r="G118" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="H118" s="22" t="s">
+      <c r="H118" s="25" t="s">
         <v>522</v>
       </c>
-      <c r="I118" s="25"/>
-      <c r="J118" s="25"/>
-      <c r="K118" s="25"/>
-      <c r="L118" s="23"/>
-      <c r="O118" s="21" t="s">
+      <c r="I118" s="27"/>
+      <c r="J118" s="27"/>
+      <c r="K118" s="27"/>
+      <c r="L118" s="26"/>
+      <c r="O118" s="23" t="s">
         <v>434</v>
       </c>
-      <c r="P118" s="21"/>
-      <c r="Q118" s="21"/>
-      <c r="R118" s="21"/>
-      <c r="S118" s="21"/>
-      <c r="T118" s="21"/>
-      <c r="U118" s="21"/>
+      <c r="P118" s="23"/>
+      <c r="Q118" s="23"/>
+      <c r="R118" s="23"/>
+      <c r="S118" s="23"/>
+      <c r="T118" s="23"/>
+      <c r="U118" s="23"/>
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A119" s="26" t="s">
+      <c r="A119" s="20" t="s">
         <v>533</v>
       </c>
-      <c r="B119" s="27"/>
-      <c r="C119" s="27"/>
-      <c r="D119" s="27"/>
-      <c r="E119" s="27"/>
-      <c r="F119" s="28"/>
-      <c r="G119" s="26" t="s">
+      <c r="B119" s="21"/>
+      <c r="C119" s="21"/>
+      <c r="D119" s="21"/>
+      <c r="E119" s="21"/>
+      <c r="F119" s="22"/>
+      <c r="G119" s="20" t="s">
         <v>538</v>
       </c>
-      <c r="H119" s="27"/>
-      <c r="I119" s="27"/>
-      <c r="J119" s="27"/>
-      <c r="K119" s="27"/>
-      <c r="L119" s="28"/>
-      <c r="O119" s="21" t="s">
+      <c r="H119" s="21"/>
+      <c r="I119" s="21"/>
+      <c r="J119" s="21"/>
+      <c r="K119" s="21"/>
+      <c r="L119" s="22"/>
+      <c r="O119" s="23" t="s">
         <v>461</v>
       </c>
-      <c r="P119" s="21"/>
-      <c r="Q119" s="21"/>
-      <c r="R119" s="21"/>
-      <c r="S119" s="21"/>
-      <c r="T119" s="21"/>
-      <c r="U119" s="21"/>
+      <c r="P119" s="23"/>
+      <c r="Q119" s="23"/>
+      <c r="R119" s="23"/>
+      <c r="S119" s="23"/>
+      <c r="T119" s="23"/>
+      <c r="U119" s="23"/>
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
@@ -18783,15 +18816,15 @@
       <c r="G120" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="H120" s="29">
+      <c r="H120" s="24">
         <v>1</v>
       </c>
-      <c r="I120" s="29"/>
-      <c r="J120" s="29"/>
-      <c r="K120" s="29">
+      <c r="I120" s="24"/>
+      <c r="J120" s="24"/>
+      <c r="K120" s="24">
         <v>2</v>
       </c>
-      <c r="L120" s="29"/>
+      <c r="L120" s="24"/>
       <c r="O120" s="1" t="s">
         <v>472</v>
       </c>
@@ -18836,15 +18869,15 @@
       <c r="G121" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="H121" s="29">
+      <c r="H121" s="24">
         <v>1</v>
       </c>
-      <c r="I121" s="29"/>
-      <c r="J121" s="29"/>
-      <c r="K121" s="29">
+      <c r="I121" s="24"/>
+      <c r="J121" s="24"/>
+      <c r="K121" s="24">
         <v>2</v>
       </c>
-      <c r="L121" s="29"/>
+      <c r="L121" s="24"/>
       <c r="O121" s="1" t="s">
         <v>457</v>
       </c>
@@ -18889,15 +18922,15 @@
       <c r="G122" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="H122" s="29">
+      <c r="H122" s="24">
         <v>1</v>
       </c>
-      <c r="I122" s="29"/>
-      <c r="J122" s="29"/>
-      <c r="K122" s="29">
+      <c r="I122" s="24"/>
+      <c r="J122" s="24"/>
+      <c r="K122" s="24">
         <v>2</v>
       </c>
-      <c r="L122" s="29"/>
+      <c r="L122" s="24"/>
       <c r="O122" s="1" t="s">
         <v>458</v>
       </c>
@@ -18921,22 +18954,22 @@
       </c>
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A123" s="26" t="s">
+      <c r="A123" s="20" t="s">
         <v>412</v>
       </c>
-      <c r="B123" s="27"/>
-      <c r="C123" s="27"/>
-      <c r="D123" s="27"/>
-      <c r="E123" s="27"/>
-      <c r="F123" s="28"/>
-      <c r="G123" s="26" t="s">
+      <c r="B123" s="21"/>
+      <c r="C123" s="21"/>
+      <c r="D123" s="21"/>
+      <c r="E123" s="21"/>
+      <c r="F123" s="22"/>
+      <c r="G123" s="20" t="s">
         <v>537</v>
       </c>
-      <c r="H123" s="27"/>
-      <c r="I123" s="27"/>
-      <c r="J123" s="27"/>
-      <c r="K123" s="27"/>
-      <c r="L123" s="28"/>
+      <c r="H123" s="21"/>
+      <c r="I123" s="21"/>
+      <c r="J123" s="21"/>
+      <c r="K123" s="21"/>
+      <c r="L123" s="22"/>
       <c r="O123" s="1" t="s">
         <v>459</v>
       </c>
@@ -18966,14 +18999,14 @@
       <c r="B124" s="7">
         <v>1</v>
       </c>
-      <c r="C124" s="29">
+      <c r="C124" s="24">
         <v>2</v>
       </c>
-      <c r="D124" s="29"/>
-      <c r="E124" s="22">
+      <c r="D124" s="24"/>
+      <c r="E124" s="25">
         <v>3</v>
       </c>
-      <c r="F124" s="23"/>
+      <c r="F124" s="26"/>
       <c r="G124" s="6" t="s">
         <v>406</v>
       </c>
@@ -19027,10 +19060,10 @@
       <c r="D125" s="7">
         <v>3</v>
       </c>
-      <c r="E125" s="22">
+      <c r="E125" s="25">
         <v>4</v>
       </c>
-      <c r="F125" s="23"/>
+      <c r="F125" s="26"/>
       <c r="G125" s="6" t="s">
         <v>405</v>
       </c>
@@ -19072,32 +19105,32 @@
       </c>
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="O126" s="21" t="s">
+      <c r="O126" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="P126" s="21"/>
-      <c r="Q126" s="21"/>
-      <c r="R126" s="21"/>
-      <c r="S126" s="21" t="s">
+      <c r="P126" s="23"/>
+      <c r="Q126" s="23"/>
+      <c r="R126" s="23"/>
+      <c r="S126" s="23" t="s">
         <v>511</v>
       </c>
-      <c r="T126" s="21"/>
-      <c r="U126" s="21"/>
-      <c r="V126" s="21"/>
+      <c r="T126" s="23"/>
+      <c r="U126" s="23"/>
+      <c r="V126" s="23"/>
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="O127" s="21" t="s">
+      <c r="O127" s="23" t="s">
         <v>541</v>
       </c>
-      <c r="P127" s="21"/>
-      <c r="Q127" s="21"/>
-      <c r="R127" s="21"/>
-      <c r="S127" s="21" t="s">
+      <c r="P127" s="23"/>
+      <c r="Q127" s="23"/>
+      <c r="R127" s="23"/>
+      <c r="S127" s="23" t="s">
         <v>542</v>
       </c>
-      <c r="T127" s="21"/>
-      <c r="U127" s="21"/>
-      <c r="V127" s="21"/>
+      <c r="T127" s="23"/>
+      <c r="U127" s="23"/>
+      <c r="V127" s="23"/>
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
@@ -19340,18 +19373,18 @@
       <c r="D134" t="s">
         <v>563</v>
       </c>
-      <c r="O134" s="21" t="s">
+      <c r="O134" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="P134" s="21"/>
-      <c r="Q134" s="21"/>
-      <c r="R134" s="21"/>
-      <c r="S134" s="21" t="s">
+      <c r="P134" s="23"/>
+      <c r="Q134" s="23"/>
+      <c r="R134" s="23"/>
+      <c r="S134" s="23" t="s">
         <v>511</v>
       </c>
-      <c r="T134" s="21"/>
-      <c r="U134" s="21"/>
-      <c r="V134" s="21"/>
+      <c r="T134" s="23"/>
+      <c r="U134" s="23"/>
+      <c r="V134" s="23"/>
     </row>
     <row r="135" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A135">
@@ -19366,18 +19399,18 @@
       <c r="D135">
         <v>0.26800000000000002</v>
       </c>
-      <c r="O135" s="21" t="s">
+      <c r="O135" s="23" t="s">
         <v>543</v>
       </c>
-      <c r="P135" s="21"/>
-      <c r="Q135" s="21"/>
-      <c r="R135" s="21"/>
-      <c r="S135" s="21" t="s">
+      <c r="P135" s="23"/>
+      <c r="Q135" s="23"/>
+      <c r="R135" s="23"/>
+      <c r="S135" s="23" t="s">
         <v>544</v>
       </c>
-      <c r="T135" s="21"/>
-      <c r="U135" s="21"/>
-      <c r="V135" s="21"/>
+      <c r="T135" s="23"/>
+      <c r="U135" s="23"/>
+      <c r="V135" s="23"/>
     </row>
     <row r="136" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A136">
@@ -19444,20 +19477,20 @@
       </c>
     </row>
     <row r="138" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A138" s="21" t="s">
+      <c r="A138" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="B138" s="21"/>
-      <c r="C138" s="21"/>
-      <c r="D138" s="21"/>
-      <c r="E138" s="21"/>
-      <c r="F138" s="21" t="s">
+      <c r="B138" s="23"/>
+      <c r="C138" s="23"/>
+      <c r="D138" s="23"/>
+      <c r="E138" s="23"/>
+      <c r="F138" s="23" t="s">
         <v>511</v>
       </c>
-      <c r="G138" s="21"/>
-      <c r="H138" s="21"/>
-      <c r="I138" s="21"/>
-      <c r="J138" s="21"/>
+      <c r="G138" s="23"/>
+      <c r="H138" s="23"/>
+      <c r="I138" s="23"/>
+      <c r="J138" s="23"/>
       <c r="O138" s="1" t="s">
         <v>458</v>
       </c>
@@ -19484,20 +19517,20 @@
       </c>
     </row>
     <row r="139" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A139" s="21" t="s">
+      <c r="A139" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="B139" s="21"/>
-      <c r="C139" s="21"/>
-      <c r="D139" s="21"/>
-      <c r="E139" s="21"/>
-      <c r="F139" s="21" t="s">
+      <c r="B139" s="23"/>
+      <c r="C139" s="23"/>
+      <c r="D139" s="23"/>
+      <c r="E139" s="23"/>
+      <c r="F139" s="23" t="s">
         <v>512</v>
       </c>
-      <c r="G139" s="21"/>
-      <c r="H139" s="21"/>
-      <c r="I139" s="21"/>
-      <c r="J139" s="21"/>
+      <c r="G139" s="23"/>
+      <c r="H139" s="23"/>
+      <c r="I139" s="23"/>
+      <c r="J139" s="23"/>
       <c r="O139" s="1" t="s">
         <v>459</v>
       </c>
@@ -19666,27 +19699,27 @@
       <c r="J142">
         <v>0.84316999999999998</v>
       </c>
-      <c r="O142" s="21" t="s">
+      <c r="O142" s="23" t="s">
         <v>580</v>
       </c>
-      <c r="P142" s="21"/>
-      <c r="Q142" s="21"/>
-      <c r="R142" s="21"/>
-      <c r="S142" s="21"/>
-      <c r="T142" s="21" t="s">
+      <c r="P142" s="23"/>
+      <c r="Q142" s="23"/>
+      <c r="R142" s="23"/>
+      <c r="S142" s="23"/>
+      <c r="T142" s="23" t="s">
         <v>580</v>
       </c>
-      <c r="U142" s="21"/>
-      <c r="V142" s="21"/>
-      <c r="W142" s="21"/>
-      <c r="X142" s="21"/>
-      <c r="Y142" s="21" t="s">
+      <c r="U142" s="23"/>
+      <c r="V142" s="23"/>
+      <c r="W142" s="23"/>
+      <c r="X142" s="23"/>
+      <c r="Y142" s="23" t="s">
         <v>580</v>
       </c>
-      <c r="Z142" s="21"/>
-      <c r="AA142" s="21"/>
-      <c r="AB142" s="21"/>
-      <c r="AC142" s="21"/>
+      <c r="Z142" s="23"/>
+      <c r="AA142" s="23"/>
+      <c r="AB142" s="23"/>
+      <c r="AC142" s="23"/>
     </row>
     <row r="143" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
@@ -19719,27 +19752,27 @@
       <c r="J143">
         <v>0.81733</v>
       </c>
-      <c r="O143" s="21" t="s">
+      <c r="O143" s="23" t="s">
         <v>582</v>
       </c>
-      <c r="P143" s="21"/>
-      <c r="Q143" s="21"/>
-      <c r="R143" s="21"/>
-      <c r="S143" s="21"/>
-      <c r="T143" s="21" t="s">
+      <c r="P143" s="23"/>
+      <c r="Q143" s="23"/>
+      <c r="R143" s="23"/>
+      <c r="S143" s="23"/>
+      <c r="T143" s="23" t="s">
         <v>581</v>
       </c>
-      <c r="U143" s="21"/>
-      <c r="V143" s="21"/>
-      <c r="W143" s="21"/>
-      <c r="X143" s="21"/>
-      <c r="Y143" s="21" t="s">
+      <c r="U143" s="23"/>
+      <c r="V143" s="23"/>
+      <c r="W143" s="23"/>
+      <c r="X143" s="23"/>
+      <c r="Y143" s="23" t="s">
         <v>579</v>
       </c>
-      <c r="Z143" s="21"/>
-      <c r="AA143" s="21"/>
-      <c r="AB143" s="21"/>
-      <c r="AC143" s="21"/>
+      <c r="Z143" s="23"/>
+      <c r="AA143" s="23"/>
+      <c r="AB143" s="23"/>
+      <c r="AC143" s="23"/>
     </row>
     <row r="144" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
@@ -19896,20 +19929,20 @@
       </c>
     </row>
     <row r="146" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A146" s="21" t="s">
+      <c r="A146" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="B146" s="21"/>
-      <c r="C146" s="21"/>
-      <c r="D146" s="21"/>
-      <c r="E146" s="21"/>
-      <c r="F146" s="21" t="s">
+      <c r="B146" s="23"/>
+      <c r="C146" s="23"/>
+      <c r="D146" s="23"/>
+      <c r="E146" s="23"/>
+      <c r="F146" s="23" t="s">
         <v>511</v>
       </c>
-      <c r="G146" s="21"/>
-      <c r="H146" s="21"/>
-      <c r="I146" s="21"/>
-      <c r="J146" s="21"/>
+      <c r="G146" s="23"/>
+      <c r="H146" s="23"/>
+      <c r="I146" s="23"/>
+      <c r="J146" s="23"/>
       <c r="O146" s="1" t="s">
         <v>457</v>
       </c>
@@ -19957,20 +19990,20 @@
       </c>
     </row>
     <row r="147" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A147" s="21" t="s">
+      <c r="A147" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="B147" s="21"/>
-      <c r="C147" s="21"/>
-      <c r="D147" s="21"/>
-      <c r="E147" s="21"/>
-      <c r="F147" s="21" t="s">
+      <c r="B147" s="23"/>
+      <c r="C147" s="23"/>
+      <c r="D147" s="23"/>
+      <c r="E147" s="23"/>
+      <c r="F147" s="23" t="s">
         <v>512</v>
       </c>
-      <c r="G147" s="21"/>
-      <c r="H147" s="21"/>
-      <c r="I147" s="21"/>
-      <c r="J147" s="21"/>
+      <c r="G147" s="23"/>
+      <c r="H147" s="23"/>
+      <c r="I147" s="23"/>
+      <c r="J147" s="23"/>
       <c r="O147" s="1" t="s">
         <v>530</v>
       </c>
@@ -21008,56 +21041,56 @@
       </c>
     </row>
     <row r="165" spans="15:33" x14ac:dyDescent="0.25">
-      <c r="P165" s="30" t="s">
+      <c r="P165" s="19" t="s">
         <v>580</v>
       </c>
-      <c r="Q165" s="30"/>
-      <c r="R165" s="30"/>
-      <c r="S165" s="30"/>
-      <c r="T165" s="30"/>
-      <c r="U165" s="30"/>
-      <c r="V165" s="30" t="s">
+      <c r="Q165" s="19"/>
+      <c r="R165" s="19"/>
+      <c r="S165" s="19"/>
+      <c r="T165" s="19"/>
+      <c r="U165" s="19"/>
+      <c r="V165" s="19" t="s">
         <v>580</v>
       </c>
-      <c r="W165" s="30"/>
-      <c r="X165" s="30"/>
-      <c r="Y165" s="30"/>
-      <c r="Z165" s="30"/>
-      <c r="AA165" s="30"/>
-      <c r="AB165" s="30" t="s">
+      <c r="W165" s="19"/>
+      <c r="X165" s="19"/>
+      <c r="Y165" s="19"/>
+      <c r="Z165" s="19"/>
+      <c r="AA165" s="19"/>
+      <c r="AB165" s="19" t="s">
         <v>580</v>
       </c>
-      <c r="AC165" s="30"/>
-      <c r="AD165" s="30"/>
-      <c r="AE165" s="30"/>
-      <c r="AF165" s="30"/>
-      <c r="AG165" s="30"/>
+      <c r="AC165" s="19"/>
+      <c r="AD165" s="19"/>
+      <c r="AE165" s="19"/>
+      <c r="AF165" s="19"/>
+      <c r="AG165" s="19"/>
     </row>
     <row r="166" spans="15:33" x14ac:dyDescent="0.25">
-      <c r="P166" s="30" t="s">
+      <c r="P166" s="19" t="s">
         <v>582</v>
       </c>
-      <c r="Q166" s="30"/>
-      <c r="R166" s="30"/>
-      <c r="S166" s="30"/>
-      <c r="T166" s="30"/>
-      <c r="U166" s="30"/>
-      <c r="V166" s="30" t="s">
+      <c r="Q166" s="19"/>
+      <c r="R166" s="19"/>
+      <c r="S166" s="19"/>
+      <c r="T166" s="19"/>
+      <c r="U166" s="19"/>
+      <c r="V166" s="19" t="s">
         <v>581</v>
       </c>
-      <c r="W166" s="30"/>
-      <c r="X166" s="30"/>
-      <c r="Y166" s="30"/>
-      <c r="Z166" s="30"/>
-      <c r="AA166" s="30"/>
-      <c r="AB166" s="30" t="s">
+      <c r="W166" s="19"/>
+      <c r="X166" s="19"/>
+      <c r="Y166" s="19"/>
+      <c r="Z166" s="19"/>
+      <c r="AA166" s="19"/>
+      <c r="AB166" s="19" t="s">
         <v>583</v>
       </c>
-      <c r="AC166" s="30"/>
-      <c r="AD166" s="30"/>
-      <c r="AE166" s="30"/>
-      <c r="AF166" s="30"/>
-      <c r="AG166" s="30"/>
+      <c r="AC166" s="19"/>
+      <c r="AD166" s="19"/>
+      <c r="AE166" s="19"/>
+      <c r="AF166" s="19"/>
+      <c r="AG166" s="19"/>
     </row>
     <row r="167" spans="15:33" x14ac:dyDescent="0.25">
       <c r="P167" s="6" t="s">
@@ -22402,30 +22435,30 @@
       </c>
     </row>
     <row r="190" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P190" s="30" t="s">
+      <c r="P190" s="19" t="s">
         <v>582</v>
       </c>
-      <c r="Q190" s="30"/>
-      <c r="R190" s="30"/>
-      <c r="S190" s="30"/>
-      <c r="T190" s="30"/>
-      <c r="U190" s="30"/>
-      <c r="V190" s="30" t="s">
+      <c r="Q190" s="19"/>
+      <c r="R190" s="19"/>
+      <c r="S190" s="19"/>
+      <c r="T190" s="19"/>
+      <c r="U190" s="19"/>
+      <c r="V190" s="19" t="s">
         <v>581</v>
       </c>
-      <c r="W190" s="30"/>
-      <c r="X190" s="30"/>
-      <c r="Y190" s="30"/>
-      <c r="Z190" s="30"/>
-      <c r="AA190" s="30"/>
-      <c r="AB190" s="30" t="s">
+      <c r="W190" s="19"/>
+      <c r="X190" s="19"/>
+      <c r="Y190" s="19"/>
+      <c r="Z190" s="19"/>
+      <c r="AA190" s="19"/>
+      <c r="AB190" s="19" t="s">
         <v>583</v>
       </c>
-      <c r="AC190" s="30"/>
-      <c r="AD190" s="30"/>
-      <c r="AE190" s="30"/>
-      <c r="AF190" s="30"/>
-      <c r="AG190" s="30"/>
+      <c r="AC190" s="19"/>
+      <c r="AD190" s="19"/>
+      <c r="AE190" s="19"/>
+      <c r="AF190" s="19"/>
+      <c r="AG190" s="19"/>
     </row>
     <row r="191" spans="16:33" x14ac:dyDescent="0.25">
       <c r="P191" s="6" t="s">
@@ -25338,20 +25371,20 @@
       </c>
     </row>
     <row r="244" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P244" s="20" t="s">
+      <c r="P244" s="30" t="s">
         <v>504</v>
       </c>
-      <c r="Q244" s="19" t="s">
+      <c r="Q244" s="29" t="s">
         <v>614</v>
       </c>
-      <c r="R244" s="19"/>
-      <c r="S244" s="19" t="s">
+      <c r="R244" s="29"/>
+      <c r="S244" s="29" t="s">
         <v>615</v>
       </c>
-      <c r="T244" s="19"/>
+      <c r="T244" s="29"/>
     </row>
     <row r="245" spans="16:33" ht="60" x14ac:dyDescent="0.25">
-      <c r="P245" s="20"/>
+      <c r="P245" s="30"/>
       <c r="Q245" s="12" t="s">
         <v>616</v>
       </c>
@@ -25549,83 +25582,83 @@
       </c>
     </row>
     <row r="256" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P256" s="21"/>
-      <c r="Q256" s="21"/>
-      <c r="R256" s="21"/>
-      <c r="S256" s="21"/>
-      <c r="T256" s="21"/>
-      <c r="U256" s="21"/>
-      <c r="V256" s="21"/>
-      <c r="W256" s="21"/>
-      <c r="X256" s="21"/>
-      <c r="Y256" s="21"/>
+      <c r="P256" s="23"/>
+      <c r="Q256" s="23"/>
+      <c r="R256" s="23"/>
+      <c r="S256" s="23"/>
+      <c r="T256" s="23"/>
+      <c r="U256" s="23"/>
+      <c r="V256" s="23"/>
+      <c r="W256" s="23"/>
+      <c r="X256" s="23"/>
+      <c r="Y256" s="23"/>
     </row>
     <row r="257" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P257" s="26" t="s">
+      <c r="P257" s="20" t="s">
         <v>618</v>
       </c>
-      <c r="Q257" s="27"/>
-      <c r="R257" s="27"/>
-      <c r="S257" s="27"/>
-      <c r="T257" s="27"/>
-      <c r="U257" s="27"/>
-      <c r="V257" s="27"/>
-      <c r="W257" s="27"/>
-      <c r="X257" s="28"/>
-      <c r="Y257" s="26" t="s">
+      <c r="Q257" s="21"/>
+      <c r="R257" s="21"/>
+      <c r="S257" s="21"/>
+      <c r="T257" s="21"/>
+      <c r="U257" s="21"/>
+      <c r="V257" s="21"/>
+      <c r="W257" s="21"/>
+      <c r="X257" s="22"/>
+      <c r="Y257" s="20" t="s">
         <v>619</v>
       </c>
-      <c r="Z257" s="27"/>
-      <c r="AA257" s="27"/>
-      <c r="AB257" s="27"/>
-      <c r="AC257" s="27"/>
-      <c r="AD257" s="27"/>
-      <c r="AE257" s="27"/>
-      <c r="AF257" s="27"/>
-      <c r="AG257" s="28"/>
+      <c r="Z257" s="21"/>
+      <c r="AA257" s="21"/>
+      <c r="AB257" s="21"/>
+      <c r="AC257" s="21"/>
+      <c r="AD257" s="21"/>
+      <c r="AE257" s="21"/>
+      <c r="AF257" s="21"/>
+      <c r="AG257" s="22"/>
     </row>
     <row r="258" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P258" s="30" t="s">
+      <c r="P258" s="19" t="s">
         <v>504</v>
       </c>
-      <c r="Q258" s="30" t="s">
+      <c r="Q258" s="19" t="s">
         <v>451</v>
       </c>
-      <c r="R258" s="30"/>
-      <c r="S258" s="30" t="s">
+      <c r="R258" s="19"/>
+      <c r="S258" s="19" t="s">
         <v>452</v>
       </c>
-      <c r="T258" s="30"/>
-      <c r="U258" s="30" t="s">
+      <c r="T258" s="19"/>
+      <c r="U258" s="19" t="s">
         <v>509</v>
       </c>
-      <c r="V258" s="30"/>
-      <c r="W258" s="30" t="s">
+      <c r="V258" s="19"/>
+      <c r="W258" s="19" t="s">
         <v>558</v>
       </c>
-      <c r="X258" s="30"/>
-      <c r="Y258" s="30" t="s">
+      <c r="X258" s="19"/>
+      <c r="Y258" s="19" t="s">
         <v>504</v>
       </c>
-      <c r="Z258" s="30" t="s">
+      <c r="Z258" s="19" t="s">
         <v>451</v>
       </c>
-      <c r="AA258" s="30"/>
-      <c r="AB258" s="30" t="s">
+      <c r="AA258" s="19"/>
+      <c r="AB258" s="19" t="s">
         <v>452</v>
       </c>
-      <c r="AC258" s="30"/>
-      <c r="AD258" s="30" t="s">
+      <c r="AC258" s="19"/>
+      <c r="AD258" s="19" t="s">
         <v>509</v>
       </c>
-      <c r="AE258" s="30"/>
+      <c r="AE258" s="19"/>
       <c r="AF258" s="6" t="s">
         <v>558</v>
       </c>
       <c r="AG258" s="7"/>
     </row>
     <row r="259" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P259" s="30"/>
+      <c r="P259" s="19"/>
       <c r="Q259" s="11" t="s">
         <v>507</v>
       </c>
@@ -25650,7 +25683,7 @@
       <c r="X259" s="11" t="s">
         <v>620</v>
       </c>
-      <c r="Y259" s="30"/>
+      <c r="Y259" s="19"/>
       <c r="Z259" s="11" t="s">
         <v>511</v>
       </c>
@@ -26021,6 +26054,116 @@
     </row>
   </sheetData>
   <mergeCells count="134">
+    <mergeCell ref="Q244:R244"/>
+    <mergeCell ref="S244:T244"/>
+    <mergeCell ref="P244:P245"/>
+    <mergeCell ref="AA47:AD47"/>
+    <mergeCell ref="AA40:AD40"/>
+    <mergeCell ref="AA33:AD33"/>
+    <mergeCell ref="G77:L77"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="O67:U67"/>
+    <mergeCell ref="O50:U50"/>
+    <mergeCell ref="O51:U51"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="O43:U43"/>
+    <mergeCell ref="V35:Z35"/>
+    <mergeCell ref="V34:Z34"/>
+    <mergeCell ref="V43:Z43"/>
+    <mergeCell ref="V42:Z42"/>
+    <mergeCell ref="V50:Z50"/>
+    <mergeCell ref="G78:L78"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="P85:X85"/>
+    <mergeCell ref="P84:X84"/>
+    <mergeCell ref="P92:X92"/>
+    <mergeCell ref="P93:X93"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="O42:U42"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="O35:U35"/>
+    <mergeCell ref="O34:U34"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="V51:Z51"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A65:A70"/>
+    <mergeCell ref="B65:B70"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="O66:U66"/>
+    <mergeCell ref="O58:U58"/>
+    <mergeCell ref="O59:U59"/>
+    <mergeCell ref="V58:Z58"/>
+    <mergeCell ref="V59:Z59"/>
+    <mergeCell ref="O75:U75"/>
+    <mergeCell ref="O74:U74"/>
+    <mergeCell ref="F92:I92"/>
+    <mergeCell ref="F93:I93"/>
+    <mergeCell ref="O119:U119"/>
+    <mergeCell ref="P101:X101"/>
+    <mergeCell ref="G109:L109"/>
+    <mergeCell ref="G110:L110"/>
+    <mergeCell ref="O111:U111"/>
+    <mergeCell ref="O110:U110"/>
+    <mergeCell ref="O118:U118"/>
+    <mergeCell ref="P100:X100"/>
+    <mergeCell ref="H118:L118"/>
+    <mergeCell ref="G119:L119"/>
+    <mergeCell ref="B118:F118"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="B101:E101"/>
+    <mergeCell ref="B100:E100"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="O135:R135"/>
+    <mergeCell ref="S135:V135"/>
+    <mergeCell ref="O126:R126"/>
+    <mergeCell ref="O127:R127"/>
+    <mergeCell ref="S126:V126"/>
+    <mergeCell ref="S127:V127"/>
+    <mergeCell ref="O134:R134"/>
+    <mergeCell ref="S134:V134"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="H121:J121"/>
+    <mergeCell ref="K121:L121"/>
+    <mergeCell ref="H122:J122"/>
+    <mergeCell ref="K122:L122"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="K120:L120"/>
+    <mergeCell ref="H120:J120"/>
+    <mergeCell ref="G123:L123"/>
+    <mergeCell ref="V190:AA190"/>
+    <mergeCell ref="AB190:AG190"/>
+    <mergeCell ref="P165:U165"/>
+    <mergeCell ref="P166:U166"/>
+    <mergeCell ref="V165:AA165"/>
+    <mergeCell ref="V166:AA166"/>
+    <mergeCell ref="O142:S142"/>
+    <mergeCell ref="O143:S143"/>
+    <mergeCell ref="T142:X142"/>
+    <mergeCell ref="T143:X143"/>
+    <mergeCell ref="Y142:AC142"/>
+    <mergeCell ref="Y143:AC143"/>
     <mergeCell ref="Z258:AA258"/>
     <mergeCell ref="AB258:AC258"/>
     <mergeCell ref="AD258:AE258"/>
@@ -26045,116 +26188,6 @@
     <mergeCell ref="AB165:AG165"/>
     <mergeCell ref="AB166:AG166"/>
     <mergeCell ref="P190:U190"/>
-    <mergeCell ref="V190:AA190"/>
-    <mergeCell ref="AB190:AG190"/>
-    <mergeCell ref="P165:U165"/>
-    <mergeCell ref="P166:U166"/>
-    <mergeCell ref="V165:AA165"/>
-    <mergeCell ref="V166:AA166"/>
-    <mergeCell ref="O142:S142"/>
-    <mergeCell ref="O143:S143"/>
-    <mergeCell ref="T142:X142"/>
-    <mergeCell ref="T143:X143"/>
-    <mergeCell ref="Y142:AC142"/>
-    <mergeCell ref="Y143:AC143"/>
-    <mergeCell ref="O135:R135"/>
-    <mergeCell ref="S135:V135"/>
-    <mergeCell ref="O126:R126"/>
-    <mergeCell ref="O127:R127"/>
-    <mergeCell ref="S126:V126"/>
-    <mergeCell ref="S127:V127"/>
-    <mergeCell ref="O134:R134"/>
-    <mergeCell ref="S134:V134"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="H121:J121"/>
-    <mergeCell ref="K121:L121"/>
-    <mergeCell ref="H122:J122"/>
-    <mergeCell ref="K122:L122"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="K120:L120"/>
-    <mergeCell ref="H120:J120"/>
-    <mergeCell ref="G123:L123"/>
-    <mergeCell ref="F92:I92"/>
-    <mergeCell ref="F93:I93"/>
-    <mergeCell ref="O119:U119"/>
-    <mergeCell ref="P101:X101"/>
-    <mergeCell ref="G109:L109"/>
-    <mergeCell ref="G110:L110"/>
-    <mergeCell ref="O111:U111"/>
-    <mergeCell ref="O110:U110"/>
-    <mergeCell ref="O118:U118"/>
-    <mergeCell ref="P100:X100"/>
-    <mergeCell ref="H118:L118"/>
-    <mergeCell ref="G119:L119"/>
-    <mergeCell ref="B118:F118"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="B101:E101"/>
-    <mergeCell ref="B100:E100"/>
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="B92:E92"/>
-    <mergeCell ref="V51:Z51"/>
-    <mergeCell ref="A71:A76"/>
-    <mergeCell ref="B71:B76"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="A65:A70"/>
-    <mergeCell ref="B65:B70"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="O66:U66"/>
-    <mergeCell ref="O58:U58"/>
-    <mergeCell ref="O59:U59"/>
-    <mergeCell ref="V58:Z58"/>
-    <mergeCell ref="V59:Z59"/>
-    <mergeCell ref="O75:U75"/>
-    <mergeCell ref="O74:U74"/>
-    <mergeCell ref="P85:X85"/>
-    <mergeCell ref="P84:X84"/>
-    <mergeCell ref="P92:X92"/>
-    <mergeCell ref="P93:X93"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="O42:U42"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="O35:U35"/>
-    <mergeCell ref="O34:U34"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="Q244:R244"/>
-    <mergeCell ref="S244:T244"/>
-    <mergeCell ref="P244:P245"/>
-    <mergeCell ref="AA47:AD47"/>
-    <mergeCell ref="AA40:AD40"/>
-    <mergeCell ref="AA33:AD33"/>
-    <mergeCell ref="G77:L77"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="O67:U67"/>
-    <mergeCell ref="O50:U50"/>
-    <mergeCell ref="O51:U51"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="O43:U43"/>
-    <mergeCell ref="V35:Z35"/>
-    <mergeCell ref="V34:Z34"/>
-    <mergeCell ref="V43:Z43"/>
-    <mergeCell ref="V42:Z42"/>
-    <mergeCell ref="V50:Z50"/>
-    <mergeCell ref="G78:L78"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="E125:F125"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
@@ -26494,34 +26527,39 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="15.42578125" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>621</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="G1" s="21" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="G1" s="23" t="s">
         <v>628</v>
       </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
       <c r="L1" s="2" t="s">
         <v>631</v>
       </c>
@@ -26663,27 +26701,27 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="23" t="s">
         <v>632</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="G5" s="21" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="G5" s="23" t="s">
         <v>629</v>
       </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21" t="s">
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23" t="s">
         <v>630</v>
       </c>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
@@ -26818,14 +26856,21 @@
         <v>0.81982999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+    <row r="9" spans="1:16" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="23" t="s">
         <v>622</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="G9" s="18" t="s">
+        <v>643</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
@@ -26840,6 +26885,13 @@
       <c r="E10" s="1" t="s">
         <v>625</v>
       </c>
+      <c r="G10" s="23" t="s">
+        <v>638</v>
+      </c>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -26857,6 +26909,19 @@
       <c r="E11">
         <v>0.91081999999999996</v>
       </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -26874,15 +26939,45 @@
       <c r="E12">
         <v>0.84648000000000001</v>
       </c>
+      <c r="G12" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="H12">
+        <v>0.74556999999999995</v>
+      </c>
+      <c r="I12">
+        <v>0.87619000000000002</v>
+      </c>
+      <c r="J12">
+        <v>0.85243000000000002</v>
+      </c>
+      <c r="K12">
+        <v>0.87951000000000001</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="23" t="s">
         <v>633</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="G13" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="H13">
+        <v>0.53183000000000002</v>
+      </c>
+      <c r="I13">
+        <v>0.70904</v>
+      </c>
+      <c r="J13">
+        <v>0.71858</v>
+      </c>
+      <c r="K13">
+        <v>0.80715999999999999</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
@@ -26897,6 +26992,13 @@
       <c r="E14" s="1" t="s">
         <v>625</v>
       </c>
+      <c r="G14" s="23" t="s">
+        <v>639</v>
+      </c>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -26914,6 +27016,19 @@
       <c r="E15">
         <v>0.90207000000000004</v>
       </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -26931,16 +27046,1222 @@
       <c r="E16">
         <v>0.83655999999999997</v>
       </c>
+      <c r="G16" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="H16">
+        <v>0.63804000000000005</v>
+      </c>
+      <c r="I16">
+        <v>0.91552999999999995</v>
+      </c>
+      <c r="J16">
+        <v>0.83850000000000002</v>
+      </c>
+      <c r="K16">
+        <v>0.88915999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G17" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="H17">
+        <v>0.52671999999999997</v>
+      </c>
+      <c r="I17">
+        <v>0.71977000000000002</v>
+      </c>
+      <c r="J17">
+        <v>0.72446999999999995</v>
+      </c>
+      <c r="K17">
+        <v>0.81577999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="32" t="s">
+        <v>634</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="32"/>
+      <c r="B19" s="23" t="s">
+        <v>507</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B20">
+        <v>0.74461999999999995</v>
+      </c>
+      <c r="C20">
+        <v>0.87512000000000001</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.86380000000000001</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.90871000000000002</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="H20">
+        <v>0.72660000000000002</v>
+      </c>
+      <c r="I20">
+        <v>0.63949</v>
+      </c>
+      <c r="J20">
+        <v>0.73819999999999997</v>
+      </c>
+      <c r="K20">
+        <v>0.77209000000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.78685000000000005</v>
+      </c>
+      <c r="C21">
+        <v>0.81283000000000005</v>
+      </c>
+      <c r="D21">
+        <v>0.85701000000000005</v>
+      </c>
+      <c r="E21">
+        <v>0.90207000000000004</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="H21">
+        <v>0.40667999999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.49814999999999998</v>
+      </c>
+      <c r="J21">
+        <v>0.56560999999999995</v>
+      </c>
+      <c r="K21">
+        <v>0.66910000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B22">
+        <v>0.67064999999999997</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.93235999999999997</v>
+      </c>
+      <c r="D22">
+        <v>0.85158999999999996</v>
+      </c>
+      <c r="E22">
+        <v>0.90807000000000004</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>641</v>
+      </c>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
+        <v>511</v>
+      </c>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.62388999999999994</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.77141999999999999</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.77244999999999997</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.84316999999999998</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="H24">
+        <v>0.67117000000000004</v>
+      </c>
+      <c r="I24">
+        <v>0.80676000000000003</v>
+      </c>
+      <c r="J24">
+        <v>0.79735</v>
+      </c>
+      <c r="K24">
+        <v>0.83501000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B25">
+        <v>0.59440000000000004</v>
+      </c>
+      <c r="C25">
+        <v>0.73426000000000002</v>
+      </c>
+      <c r="D25">
+        <v>0.75570000000000004</v>
+      </c>
+      <c r="E25">
+        <v>0.83655999999999997</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="H25">
+        <v>0.43678</v>
+      </c>
+      <c r="I25">
+        <v>0.64258999999999999</v>
+      </c>
+      <c r="J25">
+        <v>0.64597000000000004</v>
+      </c>
+      <c r="K25">
+        <v>0.74467000000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B26">
+        <v>0.59794000000000003</v>
+      </c>
+      <c r="C26">
+        <v>0.76466999999999996</v>
+      </c>
+      <c r="D26">
+        <v>0.76339999999999997</v>
+      </c>
+      <c r="E26">
+        <v>0.84006999999999998</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>642</v>
+      </c>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G27" s="1"/>
+      <c r="H27" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="23" t="s">
+        <v>507</v>
+      </c>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="G28" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="H28">
+        <v>0.68979000000000001</v>
+      </c>
+      <c r="I28">
+        <v>0.89049999999999996</v>
+      </c>
+      <c r="J28">
+        <v>0.83796000000000004</v>
+      </c>
+      <c r="K28">
+        <v>0.87461</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="23" t="s">
+        <v>513</v>
+      </c>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="2"/>
+      <c r="G29" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="H29">
+        <v>0.51198999999999995</v>
+      </c>
+      <c r="I29">
+        <v>0.69493000000000005</v>
+      </c>
+      <c r="J29">
+        <v>0.70448999999999995</v>
+      </c>
+      <c r="K29">
+        <v>0.79752000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B31">
+        <v>0.70960000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B32">
+        <v>0.69921999999999995</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B33">
+        <v>0.68574000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B34">
+        <v>0.73041999999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B35">
+        <v>0.74461999999999995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
+        <v>511</v>
+      </c>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
+        <v>514</v>
+      </c>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B39">
+        <v>0.49764999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B40">
+        <v>0.56842000000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B41">
+        <v>0.56706999999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B42">
+        <v>0.59179999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B43">
+        <v>0.62388999999999994</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="23" t="s">
+        <v>507</v>
+      </c>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B47">
+        <v>0.82057000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B48">
+        <v>0.88932999999999995</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B49">
+        <v>0.83911000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B50">
+        <v>0.82884000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B51">
+        <v>0.87512000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="23" t="s">
+        <v>511</v>
+      </c>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="23" t="s">
+        <v>544</v>
+      </c>
+      <c r="B53" s="23"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B55">
+        <v>0.69708000000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B56">
+        <v>0.74800999999999995</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B57">
+        <v>0.72585999999999995</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B58">
+        <v>0.73675000000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B59">
+        <v>0.77141999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="23" t="s">
+        <v>507</v>
+      </c>
+      <c r="B61" s="23"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23" t="s">
+        <v>511</v>
+      </c>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23"/>
+      <c r="I61" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="23" t="s">
+        <v>541</v>
+      </c>
+      <c r="B62" s="23"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23" t="s">
+        <v>542</v>
+      </c>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="23"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="J63">
+        <v>0.72660000000000002</v>
+      </c>
+      <c r="K63">
+        <v>0.63949</v>
+      </c>
+      <c r="L63">
+        <v>0.73819999999999997</v>
+      </c>
+      <c r="M63">
+        <v>0.77209000000000005</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B64">
+        <v>0.63119000000000003</v>
+      </c>
+      <c r="C64">
+        <v>0.72660000000000002</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F64">
+        <v>0.40679999999999999</v>
+      </c>
+      <c r="G64">
+        <v>0.40667999999999999</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="J64">
+        <v>0.40667999999999999</v>
+      </c>
+      <c r="K64">
+        <v>0.49814999999999998</v>
+      </c>
+      <c r="L64">
+        <v>0.56560999999999995</v>
+      </c>
+      <c r="M64">
+        <v>0.66910000000000003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B65">
+        <v>0.62795000000000001</v>
+      </c>
+      <c r="C65">
+        <v>0.67117000000000004</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="F65">
+        <v>0.46440999999999999</v>
+      </c>
+      <c r="G65">
+        <v>0.43678</v>
+      </c>
+      <c r="I65" s="23" t="s">
+        <v>641</v>
+      </c>
+      <c r="J65" s="23"/>
+      <c r="K65" s="23"/>
+      <c r="L65" s="23"/>
+      <c r="M65" s="23"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B66">
+        <v>0.67910999999999999</v>
+      </c>
+      <c r="C66">
+        <v>0.68979000000000001</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="F66">
+        <v>0.48081000000000002</v>
+      </c>
+      <c r="G66">
+        <v>0.51198999999999995</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B67">
+        <v>0.70355999999999996</v>
+      </c>
+      <c r="C67">
+        <v>0.74556999999999995</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F67">
+        <v>0.55174000000000001</v>
+      </c>
+      <c r="G67">
+        <v>0.53183000000000002</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="J67">
+        <v>0.67117000000000004</v>
+      </c>
+      <c r="K67">
+        <v>0.80676000000000003</v>
+      </c>
+      <c r="L67">
+        <v>0.79735</v>
+      </c>
+      <c r="M67">
+        <v>0.83501000000000003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B68">
+        <v>0.70960000000000001</v>
+      </c>
+      <c r="C68">
+        <v>0.63804000000000005</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F68">
+        <v>0.49764999999999998</v>
+      </c>
+      <c r="G68">
+        <v>0.52671999999999997</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="J68">
+        <v>0.43678</v>
+      </c>
+      <c r="K68">
+        <v>0.64258999999999999</v>
+      </c>
+      <c r="L68">
+        <v>0.64597000000000004</v>
+      </c>
+      <c r="M68">
+        <v>0.74467000000000005</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" s="23" t="s">
+        <v>507</v>
+      </c>
+      <c r="B69" s="23"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="23" t="s">
+        <v>511</v>
+      </c>
+      <c r="F69" s="23"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="23"/>
+      <c r="I69" s="23" t="s">
+        <v>642</v>
+      </c>
+      <c r="J69" s="23"/>
+      <c r="K69" s="23"/>
+      <c r="L69" s="23"/>
+      <c r="M69" s="23"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" s="23" t="s">
+        <v>543</v>
+      </c>
+      <c r="B70" s="23"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="23" t="s">
+        <v>544</v>
+      </c>
+      <c r="F70" s="23"/>
+      <c r="G70" s="23"/>
+      <c r="H70" s="23"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="J71">
+        <v>0.68979000000000001</v>
+      </c>
+      <c r="K71">
+        <v>0.89049999999999996</v>
+      </c>
+      <c r="L71">
+        <v>0.83796000000000004</v>
+      </c>
+      <c r="M71">
+        <v>0.87461</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B72">
+        <v>0.54512000000000005</v>
+      </c>
+      <c r="C72">
+        <v>0.63949</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F72">
+        <v>0.43414000000000003</v>
+      </c>
+      <c r="G72">
+        <v>0.49814999999999998</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="J72">
+        <v>0.51198999999999995</v>
+      </c>
+      <c r="K72">
+        <v>0.69493000000000005</v>
+      </c>
+      <c r="L72">
+        <v>0.70448999999999995</v>
+      </c>
+      <c r="M72">
+        <v>0.79752000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B73">
+        <v>0.74899000000000004</v>
+      </c>
+      <c r="C73">
+        <v>0.80676000000000003</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="F73">
+        <v>0.57515000000000005</v>
+      </c>
+      <c r="G73">
+        <v>0.64258999999999999</v>
+      </c>
+      <c r="I73" s="23" t="s">
+        <v>638</v>
+      </c>
+      <c r="J73" s="23"/>
+      <c r="K73" s="23"/>
+      <c r="L73" s="23"/>
+      <c r="M73" s="23"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B74">
+        <v>0.86838000000000004</v>
+      </c>
+      <c r="C74">
+        <v>0.89049999999999996</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="F74">
+        <v>0.62158999999999998</v>
+      </c>
+      <c r="G74">
+        <v>0.69493000000000005</v>
+      </c>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B75">
+        <v>0.88729999999999998</v>
+      </c>
+      <c r="C75">
+        <v>0.87619000000000002</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F75">
+        <v>0.67498000000000002</v>
+      </c>
+      <c r="G75">
+        <v>0.70904</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="J75">
+        <v>0.74556999999999995</v>
+      </c>
+      <c r="K75">
+        <v>0.87619000000000002</v>
+      </c>
+      <c r="L75">
+        <v>0.85243000000000002</v>
+      </c>
+      <c r="M75">
+        <v>0.87951000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B76">
+        <v>0.82057000000000002</v>
+      </c>
+      <c r="C76">
+        <v>0.91552999999999995</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F76">
+        <v>0.69708000000000003</v>
+      </c>
+      <c r="G76">
+        <v>0.71977000000000002</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="J76">
+        <v>0.53183000000000002</v>
+      </c>
+      <c r="K76">
+        <v>0.70904</v>
+      </c>
+      <c r="L76">
+        <v>0.71858</v>
+      </c>
+      <c r="M76">
+        <v>0.80715999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I77" s="23" t="s">
+        <v>639</v>
+      </c>
+      <c r="J77" s="23"/>
+      <c r="K77" s="23"/>
+      <c r="L77" s="23"/>
+      <c r="M77" s="23"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I78" s="1"/>
+      <c r="J78" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I79" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="J79">
+        <v>0.63804000000000005</v>
+      </c>
+      <c r="K79">
+        <v>0.91552999999999995</v>
+      </c>
+      <c r="L79">
+        <v>0.83850000000000002</v>
+      </c>
+      <c r="M79">
+        <v>0.88915999999999995</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I80" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="J80">
+        <v>0.52671999999999997</v>
+      </c>
+      <c r="K80">
+        <v>0.71977000000000002</v>
+      </c>
+      <c r="L80">
+        <v>0.72446999999999995</v>
+      </c>
+      <c r="M80">
+        <v>0.81577999999999995</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="35">
+    <mergeCell ref="I77:M77"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="I65:M65"/>
+    <mergeCell ref="I69:M69"/>
+    <mergeCell ref="I73:M73"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="E62:H62"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="E69:H69"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="E70:H70"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="E61:H61"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="L5:P5"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="G22:K22"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="G5:K5"/>
-    <mergeCell ref="L5:P5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/plotting/617_temp.xlsx
+++ b/plotting/617_temp.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2297" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2298" uniqueCount="650">
   <si>
     <t>.\vgg_unet2_0_3_640_640_64_256_rot_15_345_4_flip_5K\training_32_49_640_640_640_640_max_val_acc\vis\vis_log_181022_0927.txt</t>
   </si>
@@ -1951,7 +1951,25 @@
     <t>training_32_49_nas_hnasnet_0_3_non_aug_sel_100_ade20k</t>
   </si>
   <si>
-    <t>Selective Pixel</t>
+    <t>training_4_49_nas_hnasnet_0_3_non_aug_sel_2_ade20k</t>
+  </si>
+  <si>
+    <t>training_4_49_nas_hnasnet_0_3_non_aug_sel_10_ade20k</t>
+  </si>
+  <si>
+    <t>training_4_49_nas_hnasnet_0_3_non_aug_sel_100_ade20k</t>
+  </si>
+  <si>
+    <t>training_4_49_nas_hnasnet_0_3_non_aug_sel_1000_ade20k</t>
+  </si>
+  <si>
+    <t>training_4_49_nas_hnasnet_0_3_non_aug_ade20k</t>
+  </si>
+  <si>
+    <t>Selective Pixel 4_49</t>
+  </si>
+  <si>
+    <t>Selective Pixel 32_49</t>
   </si>
 </sst>
 </file>
@@ -26529,8 +26547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G76" sqref="G76"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26865,7 +26883,7 @@
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
       <c r="G9" s="18" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
@@ -27386,7 +27404,7 @@
         <v>0.79752000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
         <v>441</v>
       </c>
@@ -27400,6 +27418,13 @@
         <v>637</v>
       </c>
       <c r="E30" s="1"/>
+      <c r="G30" s="18" t="s">
+        <v>648</v>
+      </c>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
@@ -27408,6 +27433,13 @@
       <c r="B31">
         <v>0.70960000000000001</v>
       </c>
+      <c r="G31" s="23" t="s">
+        <v>643</v>
+      </c>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -27416,32 +27448,82 @@
       <c r="B32">
         <v>0.69921999999999995</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G32" s="1"/>
+      <c r="H32" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>439</v>
       </c>
       <c r="B33">
         <v>0.68574000000000002</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G33" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="H33">
+        <v>0.72485999999999995</v>
+      </c>
+      <c r="I33">
+        <v>0.60070999999999997</v>
+      </c>
+      <c r="J33">
+        <v>0.74100999999999995</v>
+      </c>
+      <c r="K33">
+        <v>0.80327999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>438</v>
       </c>
       <c r="B34">
         <v>0.73041999999999996</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G34" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="H34">
+        <v>0.43914999999999998</v>
+      </c>
+      <c r="I34">
+        <v>0.46079999999999999</v>
+      </c>
+      <c r="J34">
+        <v>0.58287</v>
+      </c>
+      <c r="K34">
+        <v>0.70659000000000005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>437</v>
       </c>
       <c r="B35">
         <v>0.74461999999999995</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G35" s="23" t="s">
+        <v>644</v>
+      </c>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
         <v>511</v>
       </c>
@@ -27449,8 +27531,21 @@
       <c r="C36" s="23"/>
       <c r="D36" s="23"/>
       <c r="E36" s="23"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H36" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="L36" s="1"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
         <v>514</v>
       </c>
@@ -27458,8 +27553,23 @@
       <c r="C37" s="23"/>
       <c r="D37" s="23"/>
       <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G37" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="H37">
+        <v>0.67515000000000003</v>
+      </c>
+      <c r="I37">
+        <v>0.82843</v>
+      </c>
+      <c r="J37">
+        <v>0.81174000000000002</v>
+      </c>
+      <c r="K37">
+        <v>0.85938999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>441</v>
       </c>
@@ -27473,48 +27583,119 @@
         <v>637</v>
       </c>
       <c r="E38" s="1"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G38" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="H38">
+        <v>0.47331000000000001</v>
+      </c>
+      <c r="I38">
+        <v>0.63438000000000005</v>
+      </c>
+      <c r="J38">
+        <v>0.66927000000000003</v>
+      </c>
+      <c r="K38">
+        <v>0.77725999999999995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>436</v>
       </c>
       <c r="B39">
         <v>0.49764999999999998</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G39" s="23" t="s">
+        <v>645</v>
+      </c>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>440</v>
       </c>
       <c r="B40">
         <v>0.56842000000000004</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H40" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>439</v>
       </c>
       <c r="B41">
         <v>0.56706999999999996</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G41" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="H41">
+        <v>0.68986000000000003</v>
+      </c>
+      <c r="I41">
+        <v>0.90086999999999995</v>
+      </c>
+      <c r="J41">
+        <v>0.84258999999999995</v>
+      </c>
+      <c r="K41">
+        <v>0.88200000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>438</v>
       </c>
       <c r="B42">
         <v>0.59179999999999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G42" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="H42">
+        <v>0.52498</v>
+      </c>
+      <c r="I42">
+        <v>0.66027999999999998</v>
+      </c>
+      <c r="J42">
+        <v>0.70565999999999995</v>
+      </c>
+      <c r="K42">
+        <v>0.80952000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>437</v>
       </c>
       <c r="B43">
         <v>0.62388999999999994</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G43" s="23" t="s">
+        <v>646</v>
+      </c>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="23" t="s">
         <v>507</v>
       </c>
@@ -27522,8 +27703,20 @@
       <c r="C44" s="23"/>
       <c r="D44" s="23"/>
       <c r="E44" s="23"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H44" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="23" t="s">
         <v>515</v>
       </c>
@@ -27531,8 +27724,23 @@
       <c r="C45" s="23"/>
       <c r="D45" s="23"/>
       <c r="E45" s="23"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G45" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="H45">
+        <v>0.73472000000000004</v>
+      </c>
+      <c r="I45">
+        <v>0.89161000000000001</v>
+      </c>
+      <c r="J45">
+        <v>0.85353999999999997</v>
+      </c>
+      <c r="K45">
+        <v>0.88517000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>441</v>
       </c>
@@ -27546,21 +27754,56 @@
         <v>637</v>
       </c>
       <c r="E46" s="1"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G46" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="H46">
+        <v>0.53766000000000003</v>
+      </c>
+      <c r="I46">
+        <v>0.68117000000000005</v>
+      </c>
+      <c r="J46">
+        <v>0.71672000000000002</v>
+      </c>
+      <c r="K46">
+        <v>0.81699999999999995</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>436</v>
       </c>
       <c r="B47">
         <v>0.82057000000000002</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G47" s="23" t="s">
+        <v>647</v>
+      </c>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="23"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>440</v>
       </c>
       <c r="B48">
         <v>0.88932999999999995</v>
+      </c>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -27570,6 +27813,21 @@
       <c r="B49">
         <v>0.83911000000000002</v>
       </c>
+      <c r="G49" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="H49">
+        <v>0.64758000000000004</v>
+      </c>
+      <c r="I49">
+        <v>0.91951000000000005</v>
+      </c>
+      <c r="J49">
+        <v>0.83784000000000003</v>
+      </c>
+      <c r="K49">
+        <v>0.88500999999999996</v>
+      </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
@@ -27577,6 +27835,21 @@
       </c>
       <c r="B50">
         <v>0.82884000000000002</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="H50">
+        <v>0.51122999999999996</v>
+      </c>
+      <c r="I50">
+        <v>0.68123999999999996</v>
+      </c>
+      <c r="J50">
+        <v>0.70840000000000003</v>
+      </c>
+      <c r="K50">
+        <v>0.81506000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -27673,9 +27946,7 @@
       <c r="F61" s="23"/>
       <c r="G61" s="23"/>
       <c r="H61" s="23"/>
-      <c r="I61" s="1" t="s">
-        <v>640</v>
-      </c>
+      <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
@@ -27695,18 +27966,10 @@
       <c r="G62" s="23"/>
       <c r="H62" s="23"/>
       <c r="I62" s="1"/>
-      <c r="J62" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="L62" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="M62" s="1" t="s">
-        <v>625</v>
-      </c>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -27733,21 +27996,7 @@
       <c r="H63" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="I63" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="J63">
-        <v>0.72660000000000002</v>
-      </c>
-      <c r="K63">
-        <v>0.63949</v>
-      </c>
-      <c r="L63">
-        <v>0.73819999999999997</v>
-      </c>
-      <c r="M63">
-        <v>0.77209000000000005</v>
-      </c>
+      <c r="I63" s="1"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
@@ -27768,21 +28017,7 @@
       <c r="G64">
         <v>0.40667999999999999</v>
       </c>
-      <c r="I64" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="J64">
-        <v>0.40667999999999999</v>
-      </c>
-      <c r="K64">
-        <v>0.49814999999999998</v>
-      </c>
-      <c r="L64">
-        <v>0.56560999999999995</v>
-      </c>
-      <c r="M64">
-        <v>0.66910000000000003</v>
-      </c>
+      <c r="I64" s="1"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
@@ -27803,9 +28038,7 @@
       <c r="G65">
         <v>0.43678</v>
       </c>
-      <c r="I65" s="23" t="s">
-        <v>641</v>
-      </c>
+      <c r="I65" s="23"/>
       <c r="J65" s="23"/>
       <c r="K65" s="23"/>
       <c r="L65" s="23"/>
@@ -27830,18 +28063,10 @@
       <c r="G66">
         <v>0.51198999999999995</v>
       </c>
-      <c r="J66" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="L66" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="M66" s="1" t="s">
-        <v>625</v>
-      </c>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
@@ -27862,21 +28087,7 @@
       <c r="G67">
         <v>0.53183000000000002</v>
       </c>
-      <c r="I67" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="J67">
-        <v>0.67117000000000004</v>
-      </c>
-      <c r="K67">
-        <v>0.80676000000000003</v>
-      </c>
-      <c r="L67">
-        <v>0.79735</v>
-      </c>
-      <c r="M67">
-        <v>0.83501000000000003</v>
-      </c>
+      <c r="I67" s="1"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
@@ -27897,21 +28108,7 @@
       <c r="G68">
         <v>0.52671999999999997</v>
       </c>
-      <c r="I68" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="J68">
-        <v>0.43678</v>
-      </c>
-      <c r="K68">
-        <v>0.64258999999999999</v>
-      </c>
-      <c r="L68">
-        <v>0.64597000000000004</v>
-      </c>
-      <c r="M68">
-        <v>0.74467000000000005</v>
-      </c>
+      <c r="I68" s="1"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="23" t="s">
@@ -27926,9 +28123,7 @@
       <c r="F69" s="23"/>
       <c r="G69" s="23"/>
       <c r="H69" s="23"/>
-      <c r="I69" s="23" t="s">
-        <v>642</v>
-      </c>
+      <c r="I69" s="23"/>
       <c r="J69" s="23"/>
       <c r="K69" s="23"/>
       <c r="L69" s="23"/>
@@ -27948,18 +28143,10 @@
       <c r="G70" s="23"/>
       <c r="H70" s="23"/>
       <c r="I70" s="1"/>
-      <c r="J70" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="L70" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="M70" s="1" t="s">
-        <v>625</v>
-      </c>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
@@ -27986,21 +28173,7 @@
       <c r="H71" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="I71" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="J71">
-        <v>0.68979000000000001</v>
-      </c>
-      <c r="K71">
-        <v>0.89049999999999996</v>
-      </c>
-      <c r="L71">
-        <v>0.83796000000000004</v>
-      </c>
-      <c r="M71">
-        <v>0.87461</v>
-      </c>
+      <c r="I71" s="1"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
@@ -28021,21 +28194,7 @@
       <c r="G72">
         <v>0.49814999999999998</v>
       </c>
-      <c r="I72" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="J72">
-        <v>0.51198999999999995</v>
-      </c>
-      <c r="K72">
-        <v>0.69493000000000005</v>
-      </c>
-      <c r="L72">
-        <v>0.70448999999999995</v>
-      </c>
-      <c r="M72">
-        <v>0.79752000000000001</v>
-      </c>
+      <c r="I72" s="1"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
@@ -28056,9 +28215,7 @@
       <c r="G73">
         <v>0.64258999999999999</v>
       </c>
-      <c r="I73" s="23" t="s">
-        <v>638</v>
-      </c>
+      <c r="I73" s="23"/>
       <c r="J73" s="23"/>
       <c r="K73" s="23"/>
       <c r="L73" s="23"/>
@@ -28084,18 +28241,10 @@
         <v>0.69493000000000005</v>
       </c>
       <c r="I74" s="1"/>
-      <c r="J74" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="L74" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="M74" s="1" t="s">
-        <v>625</v>
-      </c>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
@@ -28116,21 +28265,7 @@
       <c r="G75">
         <v>0.70904</v>
       </c>
-      <c r="I75" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="J75">
-        <v>0.74556999999999995</v>
-      </c>
-      <c r="K75">
-        <v>0.87619000000000002</v>
-      </c>
-      <c r="L75">
-        <v>0.85243000000000002</v>
-      </c>
-      <c r="M75">
-        <v>0.87951000000000001</v>
-      </c>
+      <c r="I75" s="1"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
@@ -28151,26 +28286,10 @@
       <c r="G76">
         <v>0.71977000000000002</v>
       </c>
-      <c r="I76" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="J76">
-        <v>0.53183000000000002</v>
-      </c>
-      <c r="K76">
-        <v>0.70904</v>
-      </c>
-      <c r="L76">
-        <v>0.71858</v>
-      </c>
-      <c r="M76">
-        <v>0.80715999999999999</v>
-      </c>
+      <c r="I76" s="1"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I77" s="23" t="s">
-        <v>639</v>
-      </c>
+      <c r="I77" s="23"/>
       <c r="J77" s="23"/>
       <c r="K77" s="23"/>
       <c r="L77" s="23"/>
@@ -28178,61 +28297,31 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I78" s="1"/>
-      <c r="J78" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="K78" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="L78" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="M78" s="1" t="s">
-        <v>625</v>
-      </c>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I79" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="J79">
-        <v>0.63804000000000005</v>
-      </c>
-      <c r="K79">
-        <v>0.91552999999999995</v>
-      </c>
-      <c r="L79">
-        <v>0.83850000000000002</v>
-      </c>
-      <c r="M79">
-        <v>0.88915999999999995</v>
-      </c>
+      <c r="I79" s="1"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I80" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="J80">
-        <v>0.52671999999999997</v>
-      </c>
-      <c r="K80">
-        <v>0.71977000000000002</v>
-      </c>
-      <c r="L80">
-        <v>0.72446999999999995</v>
-      </c>
-      <c r="M80">
-        <v>0.81577999999999995</v>
-      </c>
+      <c r="I80" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="41">
     <mergeCell ref="I77:M77"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="G35:K35"/>
+    <mergeCell ref="G39:K39"/>
+    <mergeCell ref="G43:K43"/>
+    <mergeCell ref="G47:K47"/>
     <mergeCell ref="G26:K26"/>
     <mergeCell ref="G9:K9"/>
     <mergeCell ref="I65:M65"/>
     <mergeCell ref="I69:M69"/>
     <mergeCell ref="I73:M73"/>
+    <mergeCell ref="G30:K30"/>
     <mergeCell ref="A62:D62"/>
     <mergeCell ref="E62:H62"/>
     <mergeCell ref="A69:D69"/>

--- a/plotting/617_temp.xlsx
+++ b/plotting/617_temp.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2298" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2333" uniqueCount="650">
   <si>
     <t>.\vgg_unet2_0_3_640_640_64_256_rot_15_345_4_flip_5K\training_32_49_640_640_640_640_max_val_acc\vis\vis_log_181022_0927.txt</t>
   </si>
@@ -2143,7 +2143,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2155,29 +2173,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -13157,17 +13157,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A293:E293"/>
-    <mergeCell ref="A231:E231"/>
-    <mergeCell ref="A192:E192"/>
-    <mergeCell ref="A71:E71"/>
-    <mergeCell ref="A155:E155"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A52:E52"/>
     <mergeCell ref="A100:E100"/>
     <mergeCell ref="A118:E118"/>
     <mergeCell ref="A137:E137"/>
     <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A293:E293"/>
+    <mergeCell ref="A231:E231"/>
+    <mergeCell ref="A192:E192"/>
+    <mergeCell ref="A71:E71"/>
+    <mergeCell ref="A155:E155"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
@@ -13753,13 +13753,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -13873,22 +13873,22 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="21" t="s">
         <v>420</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -14041,14 +14041,14 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
       <c r="J17">
         <v>0.67832000000000003</v>
       </c>
@@ -14063,14 +14063,14 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="21" t="s">
         <v>444</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -14281,14 +14281,14 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="24" t="s">
         <v>420</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
       <c r="J24">
         <v>0.43318000000000001</v>
       </c>
@@ -14315,14 +14315,14 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="21" t="s">
         <v>445</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -14499,46 +14499,46 @@
       </c>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="AA33" s="23" t="s">
+      <c r="AA33" s="21" t="s">
         <v>567</v>
       </c>
-      <c r="AB33" s="23"/>
-      <c r="AC33" s="23"/>
-      <c r="AD33" s="23"/>
+      <c r="AB33" s="21"/>
+      <c r="AC33" s="21"/>
+      <c r="AD33" s="21"/>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="H34" s="23" t="s">
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="H34" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="O34" s="23" t="s">
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="O34" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="23"/>
-      <c r="R34" s="23"/>
-      <c r="S34" s="23"/>
-      <c r="T34" s="23"/>
-      <c r="U34" s="23"/>
-      <c r="V34" s="23" t="s">
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="21"/>
+      <c r="V34" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="W34" s="23"/>
-      <c r="X34" s="23"/>
-      <c r="Y34" s="23"/>
-      <c r="Z34" s="23"/>
+      <c r="W34" s="21"/>
+      <c r="X34" s="21"/>
+      <c r="Y34" s="21"/>
+      <c r="Z34" s="21"/>
       <c r="AA34" t="s">
         <v>327</v>
       </c>
@@ -14553,38 +14553,38 @@
       </c>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="H35" s="23" t="s">
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="H35" s="21" t="s">
         <v>435</v>
       </c>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-      <c r="O35" s="23" t="s">
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="O35" s="21" t="s">
         <v>435</v>
       </c>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="23"/>
-      <c r="S35" s="23"/>
-      <c r="T35" s="23"/>
-      <c r="U35" s="23"/>
-      <c r="V35" s="23" t="s">
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="21"/>
+      <c r="S35" s="21"/>
+      <c r="T35" s="21"/>
+      <c r="U35" s="21"/>
+      <c r="V35" s="21" t="s">
         <v>513</v>
       </c>
-      <c r="W35" s="23"/>
-      <c r="X35" s="23"/>
-      <c r="Y35" s="23"/>
-      <c r="Z35" s="23"/>
+      <c r="W35" s="21"/>
+      <c r="X35" s="21"/>
+      <c r="Y35" s="21"/>
+      <c r="Z35" s="21"/>
       <c r="AA35">
         <v>0.88705000000000001</v>
       </c>
@@ -15003,22 +15003,22 @@
       <c r="Z40">
         <v>0.70833999999999997</v>
       </c>
-      <c r="AA40" s="23" t="s">
+      <c r="AA40" s="21" t="s">
         <v>566</v>
       </c>
-      <c r="AB40" s="23"/>
-      <c r="AC40" s="23"/>
-      <c r="AD40" s="23"/>
+      <c r="AB40" s="21"/>
+      <c r="AC40" s="21"/>
+      <c r="AD40" s="21"/>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="21" t="s">
         <v>424</v>
       </c>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
       <c r="H41" s="1" t="s">
         <v>416</v>
       </c>
@@ -15087,14 +15087,14 @@
       </c>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="21" t="s">
         <v>433</v>
       </c>
-      <c r="B42" s="23"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
       <c r="H42" s="1" t="s">
         <v>417</v>
       </c>
@@ -15113,22 +15113,22 @@
       <c r="M42">
         <v>0.63066</v>
       </c>
-      <c r="O42" s="23" t="s">
+      <c r="O42" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="P42" s="23"/>
-      <c r="Q42" s="23"/>
-      <c r="R42" s="23"/>
-      <c r="S42" s="23"/>
-      <c r="T42" s="23"/>
-      <c r="U42" s="23"/>
-      <c r="V42" s="23" t="s">
+      <c r="P42" s="21"/>
+      <c r="Q42" s="21"/>
+      <c r="R42" s="21"/>
+      <c r="S42" s="21"/>
+      <c r="T42" s="21"/>
+      <c r="U42" s="21"/>
+      <c r="V42" s="21" t="s">
         <v>511</v>
       </c>
-      <c r="W42" s="23"/>
-      <c r="X42" s="23"/>
-      <c r="Y42" s="23"/>
-      <c r="Z42" s="23"/>
+      <c r="W42" s="21"/>
+      <c r="X42" s="21"/>
+      <c r="Y42" s="21"/>
+      <c r="Z42" s="21"/>
       <c r="AA42">
         <v>0.87365000000000004</v>
       </c>
@@ -15179,22 +15179,22 @@
       <c r="M43">
         <v>0.65837000000000001</v>
       </c>
-      <c r="O43" s="23" t="s">
+      <c r="O43" s="21" t="s">
         <v>442</v>
       </c>
-      <c r="P43" s="23"/>
-      <c r="Q43" s="23"/>
-      <c r="R43" s="23"/>
-      <c r="S43" s="23"/>
-      <c r="T43" s="23"/>
-      <c r="U43" s="23"/>
-      <c r="V43" s="23" t="s">
+      <c r="P43" s="21"/>
+      <c r="Q43" s="21"/>
+      <c r="R43" s="21"/>
+      <c r="S43" s="21"/>
+      <c r="T43" s="21"/>
+      <c r="U43" s="21"/>
+      <c r="V43" s="21" t="s">
         <v>514</v>
       </c>
-      <c r="W43" s="23"/>
-      <c r="X43" s="23"/>
-      <c r="Y43" s="23"/>
-      <c r="Z43" s="23"/>
+      <c r="W43" s="21"/>
+      <c r="X43" s="21"/>
+      <c r="Y43" s="21"/>
+      <c r="Z43" s="21"/>
       <c r="AA43" t="s">
         <v>331</v>
       </c>
@@ -15477,21 +15477,21 @@
       <c r="Z47">
         <v>0.47498000000000001</v>
       </c>
-      <c r="AA47" s="23" t="s">
+      <c r="AA47" s="21" t="s">
         <v>565</v>
       </c>
-      <c r="AB47" s="23"/>
-      <c r="AC47" s="23"/>
-      <c r="AD47" s="23"/>
+      <c r="AB47" s="21"/>
+      <c r="AC47" s="21"/>
+      <c r="AD47" s="21"/>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A48" s="23" t="s">
+      <c r="A48" s="21" t="s">
         <v>506</v>
       </c>
-      <c r="B48" s="23"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
       <c r="F48" s="2"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
@@ -15545,13 +15545,13 @@
       </c>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A49" s="23" t="s">
+      <c r="A49" s="21" t="s">
         <v>505</v>
       </c>
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
       <c r="O49" s="1" t="s">
         <v>437</v>
       </c>
@@ -15617,22 +15617,22 @@
       <c r="E50" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="O50" s="23" t="s">
+      <c r="O50" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="P50" s="23"/>
-      <c r="Q50" s="23"/>
-      <c r="R50" s="23"/>
-      <c r="S50" s="23"/>
-      <c r="T50" s="23"/>
-      <c r="U50" s="23"/>
-      <c r="V50" s="23" t="s">
+      <c r="P50" s="21"/>
+      <c r="Q50" s="21"/>
+      <c r="R50" s="21"/>
+      <c r="S50" s="21"/>
+      <c r="T50" s="21"/>
+      <c r="U50" s="21"/>
+      <c r="V50" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="W50" s="23"/>
-      <c r="X50" s="23"/>
-      <c r="Y50" s="23"/>
-      <c r="Z50" s="23"/>
+      <c r="W50" s="21"/>
+      <c r="X50" s="21"/>
+      <c r="Y50" s="21"/>
+      <c r="Z50" s="21"/>
       <c r="AA50" t="s">
         <v>331</v>
       </c>
@@ -15659,22 +15659,22 @@
       <c r="E51">
         <v>0.63066</v>
       </c>
-      <c r="O51" s="23" t="s">
+      <c r="O51" s="21" t="s">
         <v>446</v>
       </c>
-      <c r="P51" s="23"/>
-      <c r="Q51" s="23"/>
-      <c r="R51" s="23"/>
-      <c r="S51" s="23"/>
-      <c r="T51" s="23"/>
-      <c r="U51" s="23"/>
-      <c r="V51" s="23" t="s">
+      <c r="P51" s="21"/>
+      <c r="Q51" s="21"/>
+      <c r="R51" s="21"/>
+      <c r="S51" s="21"/>
+      <c r="T51" s="21"/>
+      <c r="U51" s="21"/>
+      <c r="V51" s="21" t="s">
         <v>515</v>
       </c>
-      <c r="W51" s="23"/>
-      <c r="X51" s="23"/>
-      <c r="Y51" s="23"/>
-      <c r="Z51" s="23"/>
+      <c r="W51" s="21"/>
+      <c r="X51" s="21"/>
+      <c r="Y51" s="21"/>
+      <c r="Z51" s="21"/>
       <c r="AA51">
         <v>0.77363000000000004</v>
       </c>
@@ -15916,20 +15916,20 @@
       </c>
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23" t="s">
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21" t="s">
         <v>511</v>
       </c>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="23"/>
-      <c r="J56" s="23"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
       <c r="O56" s="1" t="s">
         <v>438</v>
       </c>
@@ -15968,20 +15968,20 @@
       </c>
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A57" s="23" t="s">
+      <c r="A57" s="21" t="s">
         <v>508</v>
       </c>
-      <c r="B57" s="23"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23" t="s">
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21" t="s">
         <v>512</v>
       </c>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="23"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
       <c r="O57" s="1" t="s">
         <v>437</v>
       </c>
@@ -16050,22 +16050,22 @@
       <c r="J58" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="O58" s="23" t="s">
+      <c r="O58" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="P58" s="23"/>
-      <c r="Q58" s="23"/>
-      <c r="R58" s="23"/>
-      <c r="S58" s="23"/>
-      <c r="T58" s="23"/>
-      <c r="U58" s="23"/>
-      <c r="V58" s="23" t="s">
+      <c r="P58" s="21"/>
+      <c r="Q58" s="21"/>
+      <c r="R58" s="21"/>
+      <c r="S58" s="21"/>
+      <c r="T58" s="21"/>
+      <c r="U58" s="21"/>
+      <c r="V58" s="21" t="s">
         <v>511</v>
       </c>
-      <c r="W58" s="23"/>
-      <c r="X58" s="23"/>
-      <c r="Y58" s="23"/>
-      <c r="Z58" s="23"/>
+      <c r="W58" s="21"/>
+      <c r="X58" s="21"/>
+      <c r="Y58" s="21"/>
+      <c r="Z58" s="21"/>
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
@@ -16098,22 +16098,22 @@
       <c r="J59">
         <v>0.76844000000000001</v>
       </c>
-      <c r="O59" s="23" t="s">
+      <c r="O59" s="21" t="s">
         <v>447</v>
       </c>
-      <c r="P59" s="23"/>
-      <c r="Q59" s="23"/>
-      <c r="R59" s="23"/>
-      <c r="S59" s="23"/>
-      <c r="T59" s="23"/>
-      <c r="U59" s="23"/>
-      <c r="V59" s="23" t="s">
+      <c r="P59" s="21"/>
+      <c r="Q59" s="21"/>
+      <c r="R59" s="21"/>
+      <c r="S59" s="21"/>
+      <c r="T59" s="21"/>
+      <c r="U59" s="21"/>
+      <c r="V59" s="21" t="s">
         <v>544</v>
       </c>
-      <c r="W59" s="23"/>
-      <c r="X59" s="23"/>
-      <c r="Y59" s="23"/>
-      <c r="Z59" s="23"/>
+      <c r="W59" s="21"/>
+      <c r="X59" s="21"/>
+      <c r="Y59" s="21"/>
+      <c r="Z59" s="21"/>
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
@@ -16426,10 +16426,10 @@
       </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A65" s="23" t="s">
+      <c r="A65" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="B65" s="23" t="s">
+      <c r="B65" s="21" t="s">
         <v>444</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -16485,8 +16485,8 @@
       </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A66" s="23"/>
-      <c r="B66" s="23"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="21"/>
       <c r="C66" s="1" t="s">
         <v>412</v>
       </c>
@@ -16502,19 +16502,19 @@
       <c r="G66">
         <v>0.84930000000000005</v>
       </c>
-      <c r="O66" s="23" t="s">
+      <c r="O66" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="P66" s="23"/>
-      <c r="Q66" s="23"/>
-      <c r="R66" s="23"/>
-      <c r="S66" s="23"/>
-      <c r="T66" s="23"/>
-      <c r="U66" s="23"/>
+      <c r="P66" s="21"/>
+      <c r="Q66" s="21"/>
+      <c r="R66" s="21"/>
+      <c r="S66" s="21"/>
+      <c r="T66" s="21"/>
+      <c r="U66" s="21"/>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A67" s="23"/>
-      <c r="B67" s="23"/>
+      <c r="A67" s="21"/>
+      <c r="B67" s="21"/>
       <c r="C67" s="1" t="s">
         <v>405</v>
       </c>
@@ -16530,19 +16530,19 @@
       <c r="G67">
         <v>0.90871000000000002</v>
       </c>
-      <c r="O67" s="23" t="s">
+      <c r="O67" s="21" t="s">
         <v>448</v>
       </c>
-      <c r="P67" s="23"/>
-      <c r="Q67" s="23"/>
-      <c r="R67" s="23"/>
-      <c r="S67" s="23"/>
-      <c r="T67" s="23"/>
-      <c r="U67" s="23"/>
+      <c r="P67" s="21"/>
+      <c r="Q67" s="21"/>
+      <c r="R67" s="21"/>
+      <c r="S67" s="21"/>
+      <c r="T67" s="21"/>
+      <c r="U67" s="21"/>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A68" s="23"/>
-      <c r="B68" s="23"/>
+      <c r="A68" s="21"/>
+      <c r="B68" s="21"/>
       <c r="C68" s="1" t="s">
         <v>404</v>
       </c>
@@ -16581,8 +16581,8 @@
       </c>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A69" s="23"/>
-      <c r="B69" s="23"/>
+      <c r="A69" s="21"/>
+      <c r="B69" s="21"/>
       <c r="C69" s="1" t="s">
         <v>406</v>
       </c>
@@ -16621,8 +16621,8 @@
       </c>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A70" s="23"/>
-      <c r="B70" s="23"/>
+      <c r="A70" s="21"/>
+      <c r="B70" s="21"/>
       <c r="C70" s="1" t="s">
         <v>403</v>
       </c>
@@ -16661,10 +16661,10 @@
       </c>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A71" s="28" t="s">
+      <c r="A71" s="24" t="s">
         <v>420</v>
       </c>
-      <c r="B71" s="23" t="s">
+      <c r="B71" s="21" t="s">
         <v>445</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -16705,8 +16705,8 @@
       </c>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A72" s="23"/>
-      <c r="B72" s="23"/>
+      <c r="A72" s="21"/>
+      <c r="B72" s="21"/>
       <c r="C72" s="1" t="s">
         <v>412</v>
       </c>
@@ -16745,8 +16745,8 @@
       </c>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A73" s="23"/>
-      <c r="B73" s="23"/>
+      <c r="A73" s="21"/>
+      <c r="B73" s="21"/>
       <c r="C73" s="1" t="s">
         <v>405</v>
       </c>
@@ -16785,8 +16785,8 @@
       </c>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A74" s="23"/>
-      <c r="B74" s="23"/>
+      <c r="A74" s="21"/>
+      <c r="B74" s="21"/>
       <c r="C74" s="1" t="s">
         <v>404</v>
       </c>
@@ -16802,19 +16802,19 @@
       <c r="G74">
         <v>0.81733</v>
       </c>
-      <c r="O74" s="23" t="s">
+      <c r="O74" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="P74" s="23"/>
-      <c r="Q74" s="23"/>
-      <c r="R74" s="23"/>
-      <c r="S74" s="23"/>
-      <c r="T74" s="23"/>
-      <c r="U74" s="23"/>
+      <c r="P74" s="21"/>
+      <c r="Q74" s="21"/>
+      <c r="R74" s="21"/>
+      <c r="S74" s="21"/>
+      <c r="T74" s="21"/>
+      <c r="U74" s="21"/>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A75" s="23"/>
-      <c r="B75" s="23"/>
+      <c r="A75" s="21"/>
+      <c r="B75" s="21"/>
       <c r="C75" s="1" t="s">
         <v>406</v>
       </c>
@@ -16830,19 +16830,19 @@
       <c r="G75">
         <v>0.77490000000000003</v>
       </c>
-      <c r="O75" s="23" t="s">
+      <c r="O75" s="21" t="s">
         <v>449</v>
       </c>
-      <c r="P75" s="23"/>
-      <c r="Q75" s="23"/>
-      <c r="R75" s="23"/>
-      <c r="S75" s="23"/>
-      <c r="T75" s="23"/>
-      <c r="U75" s="23"/>
+      <c r="P75" s="21"/>
+      <c r="Q75" s="21"/>
+      <c r="R75" s="21"/>
+      <c r="S75" s="21"/>
+      <c r="T75" s="21"/>
+      <c r="U75" s="21"/>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A76" s="23"/>
-      <c r="B76" s="23"/>
+      <c r="A76" s="21"/>
+      <c r="B76" s="21"/>
       <c r="C76" s="1" t="s">
         <v>403</v>
       </c>
@@ -16881,22 +16881,22 @@
       </c>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A77" s="23" t="s">
+      <c r="A77" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="B77" s="23"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="23"/>
-      <c r="F77" s="23"/>
-      <c r="G77" s="23" t="s">
+      <c r="B77" s="21"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21" t="s">
         <v>511</v>
       </c>
-      <c r="H77" s="23"/>
-      <c r="I77" s="23"/>
-      <c r="J77" s="23"/>
-      <c r="K77" s="23"/>
-      <c r="L77" s="23"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="21"/>
+      <c r="J77" s="21"/>
+      <c r="K77" s="21"/>
+      <c r="L77" s="21"/>
       <c r="O77" t="s">
         <v>436</v>
       </c>
@@ -16920,22 +16920,22 @@
       </c>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A78" s="23" t="s">
+      <c r="A78" s="21" t="s">
         <v>508</v>
       </c>
-      <c r="B78" s="23"/>
-      <c r="C78" s="23"/>
-      <c r="D78" s="23"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="23"/>
-      <c r="G78" s="23" t="s">
+      <c r="B78" s="21"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="21" t="s">
         <v>512</v>
       </c>
-      <c r="H78" s="23"/>
-      <c r="I78" s="23"/>
-      <c r="J78" s="23"/>
-      <c r="K78" s="23"/>
-      <c r="L78" s="23"/>
+      <c r="H78" s="21"/>
+      <c r="I78" s="21"/>
+      <c r="J78" s="21"/>
+      <c r="K78" s="21"/>
+      <c r="L78" s="21"/>
       <c r="O78" t="s">
         <v>440</v>
       </c>
@@ -17212,33 +17212,33 @@
       </c>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B84" s="23" t="s">
+      <c r="B84" s="21" t="s">
         <v>523</v>
       </c>
-      <c r="C84" s="23"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="23"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
-      <c r="P84" s="23" t="s">
+      <c r="P84" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="Q84" s="23"/>
-      <c r="R84" s="23"/>
-      <c r="S84" s="23"/>
-      <c r="T84" s="23"/>
-      <c r="U84" s="23"/>
-      <c r="V84" s="23"/>
-      <c r="W84" s="23"/>
-      <c r="X84" s="23"/>
+      <c r="Q84" s="21"/>
+      <c r="R84" s="21"/>
+      <c r="S84" s="21"/>
+      <c r="T84" s="21"/>
+      <c r="U84" s="21"/>
+      <c r="V84" s="21"/>
+      <c r="W84" s="21"/>
+      <c r="X84" s="21"/>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B85" s="23" t="s">
+      <c r="B85" s="21" t="s">
         <v>545</v>
       </c>
-      <c r="C85" s="23"/>
-      <c r="D85" s="23"/>
-      <c r="E85" s="23"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="21"/>
       <c r="F85" s="1" t="s">
         <v>522</v>
       </c>
@@ -17254,17 +17254,17 @@
       <c r="J85" t="s">
         <v>528</v>
       </c>
-      <c r="P85" s="23" t="s">
+      <c r="P85" s="21" t="s">
         <v>454</v>
       </c>
-      <c r="Q85" s="23"/>
-      <c r="R85" s="23"/>
-      <c r="S85" s="23"/>
-      <c r="T85" s="23"/>
-      <c r="U85" s="23"/>
-      <c r="V85" s="23"/>
-      <c r="W85" s="23"/>
-      <c r="X85" s="23"/>
+      <c r="Q85" s="21"/>
+      <c r="R85" s="21"/>
+      <c r="S85" s="21"/>
+      <c r="T85" s="21"/>
+      <c r="U85" s="21"/>
+      <c r="V85" s="21"/>
+      <c r="W85" s="21"/>
+      <c r="X85" s="21"/>
     </row>
     <row r="86" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
@@ -17606,54 +17606,54 @@
       </c>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B92" s="23" t="s">
+      <c r="B92" s="21" t="s">
         <v>523</v>
       </c>
-      <c r="C92" s="23"/>
-      <c r="D92" s="23"/>
-      <c r="E92" s="23"/>
-      <c r="F92" s="23" t="s">
+      <c r="C92" s="21"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="21" t="s">
         <v>523</v>
       </c>
-      <c r="G92" s="23"/>
-      <c r="H92" s="23"/>
-      <c r="I92" s="23"/>
-      <c r="P92" s="23" t="s">
+      <c r="G92" s="21"/>
+      <c r="H92" s="21"/>
+      <c r="I92" s="21"/>
+      <c r="P92" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="Q92" s="23"/>
-      <c r="R92" s="23"/>
-      <c r="S92" s="23"/>
-      <c r="T92" s="23"/>
-      <c r="U92" s="23"/>
-      <c r="V92" s="23"/>
-      <c r="W92" s="23"/>
-      <c r="X92" s="23"/>
+      <c r="Q92" s="21"/>
+      <c r="R92" s="21"/>
+      <c r="S92" s="21"/>
+      <c r="T92" s="21"/>
+      <c r="U92" s="21"/>
+      <c r="V92" s="21"/>
+      <c r="W92" s="21"/>
+      <c r="X92" s="21"/>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B93" s="23" t="s">
+      <c r="B93" s="21" t="s">
         <v>546</v>
       </c>
-      <c r="C93" s="23"/>
-      <c r="D93" s="23"/>
-      <c r="E93" s="23"/>
-      <c r="F93" s="23" t="s">
+      <c r="C93" s="21"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="21" t="s">
         <v>548</v>
       </c>
-      <c r="G93" s="23"/>
-      <c r="H93" s="23"/>
-      <c r="I93" s="23"/>
-      <c r="P93" s="23" t="s">
+      <c r="G93" s="21"/>
+      <c r="H93" s="21"/>
+      <c r="I93" s="21"/>
+      <c r="P93" s="21" t="s">
         <v>462</v>
       </c>
-      <c r="Q93" s="23"/>
-      <c r="R93" s="23"/>
-      <c r="S93" s="23"/>
-      <c r="T93" s="23"/>
-      <c r="U93" s="23"/>
-      <c r="V93" s="23"/>
-      <c r="W93" s="23"/>
-      <c r="X93" s="23"/>
+      <c r="Q93" s="21"/>
+      <c r="R93" s="21"/>
+      <c r="S93" s="21"/>
+      <c r="T93" s="21"/>
+      <c r="U93" s="21"/>
+      <c r="V93" s="21"/>
+      <c r="W93" s="21"/>
+      <c r="X93" s="21"/>
     </row>
     <row r="94" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
@@ -18013,12 +18013,12 @@
       <c r="A100" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="B100" s="23" t="s">
+      <c r="B100" s="21" t="s">
         <v>523</v>
       </c>
-      <c r="C100" s="23"/>
-      <c r="D100" s="23"/>
-      <c r="E100" s="23"/>
+      <c r="C100" s="21"/>
+      <c r="D100" s="21"/>
+      <c r="E100" s="21"/>
       <c r="F100" s="1" t="s">
         <v>554</v>
       </c>
@@ -18034,26 +18034,26 @@
       <c r="J100">
         <v>0.77887333098497002</v>
       </c>
-      <c r="P100" s="23" t="s">
+      <c r="P100" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="Q100" s="23"/>
-      <c r="R100" s="23"/>
-      <c r="S100" s="23"/>
-      <c r="T100" s="23"/>
-      <c r="U100" s="23"/>
-      <c r="V100" s="23"/>
-      <c r="W100" s="23"/>
-      <c r="X100" s="23"/>
+      <c r="Q100" s="21"/>
+      <c r="R100" s="21"/>
+      <c r="S100" s="21"/>
+      <c r="T100" s="21"/>
+      <c r="U100" s="21"/>
+      <c r="V100" s="21"/>
+      <c r="W100" s="21"/>
+      <c r="X100" s="21"/>
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
-      <c r="B101" s="23" t="s">
+      <c r="B101" s="21" t="s">
         <v>547</v>
       </c>
-      <c r="C101" s="23"/>
-      <c r="D101" s="23"/>
-      <c r="E101" s="23"/>
+      <c r="C101" s="21"/>
+      <c r="D101" s="21"/>
+      <c r="E101" s="21"/>
       <c r="F101" s="1" t="s">
         <v>555</v>
       </c>
@@ -18069,17 +18069,17 @@
       <c r="J101">
         <v>1.27434722297322</v>
       </c>
-      <c r="P101" s="23" t="s">
+      <c r="P101" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="Q101" s="23"/>
-      <c r="R101" s="23"/>
-      <c r="S101" s="23"/>
-      <c r="T101" s="23"/>
-      <c r="U101" s="23"/>
-      <c r="V101" s="23"/>
-      <c r="W101" s="23"/>
-      <c r="X101" s="23"/>
+      <c r="Q101" s="21"/>
+      <c r="R101" s="21"/>
+      <c r="S101" s="21"/>
+      <c r="T101" s="21"/>
+      <c r="U101" s="21"/>
+      <c r="V101" s="21"/>
+      <c r="W101" s="21"/>
+      <c r="X101" s="21"/>
     </row>
     <row r="102" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
@@ -18379,49 +18379,49 @@
       <c r="B108" s="1"/>
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A109" s="23" t="s">
+      <c r="A109" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="B109" s="23"/>
-      <c r="C109" s="23"/>
-      <c r="D109" s="23"/>
-      <c r="E109" s="23"/>
-      <c r="F109" s="23"/>
-      <c r="G109" s="23" t="s">
+      <c r="B109" s="21"/>
+      <c r="C109" s="21"/>
+      <c r="D109" s="21"/>
+      <c r="E109" s="21"/>
+      <c r="F109" s="21"/>
+      <c r="G109" s="21" t="s">
         <v>511</v>
       </c>
-      <c r="H109" s="23"/>
-      <c r="I109" s="23"/>
-      <c r="J109" s="23"/>
-      <c r="K109" s="23"/>
-      <c r="L109" s="23"/>
+      <c r="H109" s="21"/>
+      <c r="I109" s="21"/>
+      <c r="J109" s="21"/>
+      <c r="K109" s="21"/>
+      <c r="L109" s="21"/>
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A110" s="23" t="s">
+      <c r="A110" s="21" t="s">
         <v>508</v>
       </c>
-      <c r="B110" s="23"/>
-      <c r="C110" s="23"/>
-      <c r="D110" s="23"/>
-      <c r="E110" s="23"/>
-      <c r="F110" s="23"/>
-      <c r="G110" s="23" t="s">
+      <c r="B110" s="21"/>
+      <c r="C110" s="21"/>
+      <c r="D110" s="21"/>
+      <c r="E110" s="21"/>
+      <c r="F110" s="21"/>
+      <c r="G110" s="21" t="s">
         <v>512</v>
       </c>
-      <c r="H110" s="23"/>
-      <c r="I110" s="23"/>
-      <c r="J110" s="23"/>
-      <c r="K110" s="23"/>
-      <c r="L110" s="23"/>
-      <c r="O110" s="23" t="s">
+      <c r="H110" s="21"/>
+      <c r="I110" s="21"/>
+      <c r="J110" s="21"/>
+      <c r="K110" s="21"/>
+      <c r="L110" s="21"/>
+      <c r="O110" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="P110" s="23"/>
-      <c r="Q110" s="23"/>
-      <c r="R110" s="23"/>
-      <c r="S110" s="23"/>
-      <c r="T110" s="23"/>
-      <c r="U110" s="23"/>
+      <c r="P110" s="21"/>
+      <c r="Q110" s="21"/>
+      <c r="R110" s="21"/>
+      <c r="S110" s="21"/>
+      <c r="T110" s="21"/>
+      <c r="U110" s="21"/>
       <c r="V110" s="2"/>
       <c r="W110" s="2"/>
     </row>
@@ -18462,15 +18462,15 @@
       <c r="L111" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="O111" s="23" t="s">
+      <c r="O111" s="21" t="s">
         <v>456</v>
       </c>
-      <c r="P111" s="23"/>
-      <c r="Q111" s="23"/>
-      <c r="R111" s="23"/>
-      <c r="S111" s="23"/>
-      <c r="T111" s="23"/>
-      <c r="U111" s="23"/>
+      <c r="P111" s="21"/>
+      <c r="Q111" s="21"/>
+      <c r="R111" s="21"/>
+      <c r="S111" s="21"/>
+      <c r="T111" s="21"/>
+      <c r="U111" s="21"/>
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
@@ -18758,59 +18758,59 @@
       <c r="A118" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="B118" s="20" t="s">
+      <c r="B118" s="26" t="s">
         <v>522</v>
       </c>
-      <c r="C118" s="21"/>
-      <c r="D118" s="21"/>
-      <c r="E118" s="21"/>
-      <c r="F118" s="22"/>
+      <c r="C118" s="27"/>
+      <c r="D118" s="27"/>
+      <c r="E118" s="27"/>
+      <c r="F118" s="28"/>
       <c r="G118" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="H118" s="25" t="s">
+      <c r="H118" s="22" t="s">
         <v>522</v>
       </c>
-      <c r="I118" s="27"/>
-      <c r="J118" s="27"/>
-      <c r="K118" s="27"/>
-      <c r="L118" s="26"/>
-      <c r="O118" s="23" t="s">
+      <c r="I118" s="25"/>
+      <c r="J118" s="25"/>
+      <c r="K118" s="25"/>
+      <c r="L118" s="23"/>
+      <c r="O118" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="P118" s="23"/>
-      <c r="Q118" s="23"/>
-      <c r="R118" s="23"/>
-      <c r="S118" s="23"/>
-      <c r="T118" s="23"/>
-      <c r="U118" s="23"/>
+      <c r="P118" s="21"/>
+      <c r="Q118" s="21"/>
+      <c r="R118" s="21"/>
+      <c r="S118" s="21"/>
+      <c r="T118" s="21"/>
+      <c r="U118" s="21"/>
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A119" s="20" t="s">
+      <c r="A119" s="26" t="s">
         <v>533</v>
       </c>
-      <c r="B119" s="21"/>
-      <c r="C119" s="21"/>
-      <c r="D119" s="21"/>
-      <c r="E119" s="21"/>
-      <c r="F119" s="22"/>
-      <c r="G119" s="20" t="s">
+      <c r="B119" s="27"/>
+      <c r="C119" s="27"/>
+      <c r="D119" s="27"/>
+      <c r="E119" s="27"/>
+      <c r="F119" s="28"/>
+      <c r="G119" s="26" t="s">
         <v>538</v>
       </c>
-      <c r="H119" s="21"/>
-      <c r="I119" s="21"/>
-      <c r="J119" s="21"/>
-      <c r="K119" s="21"/>
-      <c r="L119" s="22"/>
-      <c r="O119" s="23" t="s">
+      <c r="H119" s="27"/>
+      <c r="I119" s="27"/>
+      <c r="J119" s="27"/>
+      <c r="K119" s="27"/>
+      <c r="L119" s="28"/>
+      <c r="O119" s="21" t="s">
         <v>461</v>
       </c>
-      <c r="P119" s="23"/>
-      <c r="Q119" s="23"/>
-      <c r="R119" s="23"/>
-      <c r="S119" s="23"/>
-      <c r="T119" s="23"/>
-      <c r="U119" s="23"/>
+      <c r="P119" s="21"/>
+      <c r="Q119" s="21"/>
+      <c r="R119" s="21"/>
+      <c r="S119" s="21"/>
+      <c r="T119" s="21"/>
+      <c r="U119" s="21"/>
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
@@ -18834,15 +18834,15 @@
       <c r="G120" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="H120" s="24">
+      <c r="H120" s="29">
         <v>1</v>
       </c>
-      <c r="I120" s="24"/>
-      <c r="J120" s="24"/>
-      <c r="K120" s="24">
+      <c r="I120" s="29"/>
+      <c r="J120" s="29"/>
+      <c r="K120" s="29">
         <v>2</v>
       </c>
-      <c r="L120" s="24"/>
+      <c r="L120" s="29"/>
       <c r="O120" s="1" t="s">
         <v>472</v>
       </c>
@@ -18887,15 +18887,15 @@
       <c r="G121" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="H121" s="24">
+      <c r="H121" s="29">
         <v>1</v>
       </c>
-      <c r="I121" s="24"/>
-      <c r="J121" s="24"/>
-      <c r="K121" s="24">
+      <c r="I121" s="29"/>
+      <c r="J121" s="29"/>
+      <c r="K121" s="29">
         <v>2</v>
       </c>
-      <c r="L121" s="24"/>
+      <c r="L121" s="29"/>
       <c r="O121" s="1" t="s">
         <v>457</v>
       </c>
@@ -18940,15 +18940,15 @@
       <c r="G122" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="H122" s="24">
+      <c r="H122" s="29">
         <v>1</v>
       </c>
-      <c r="I122" s="24"/>
-      <c r="J122" s="24"/>
-      <c r="K122" s="24">
+      <c r="I122" s="29"/>
+      <c r="J122" s="29"/>
+      <c r="K122" s="29">
         <v>2</v>
       </c>
-      <c r="L122" s="24"/>
+      <c r="L122" s="29"/>
       <c r="O122" s="1" t="s">
         <v>458</v>
       </c>
@@ -18972,22 +18972,22 @@
       </c>
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A123" s="20" t="s">
+      <c r="A123" s="26" t="s">
         <v>412</v>
       </c>
-      <c r="B123" s="21"/>
-      <c r="C123" s="21"/>
-      <c r="D123" s="21"/>
-      <c r="E123" s="21"/>
-      <c r="F123" s="22"/>
-      <c r="G123" s="20" t="s">
+      <c r="B123" s="27"/>
+      <c r="C123" s="27"/>
+      <c r="D123" s="27"/>
+      <c r="E123" s="27"/>
+      <c r="F123" s="28"/>
+      <c r="G123" s="26" t="s">
         <v>537</v>
       </c>
-      <c r="H123" s="21"/>
-      <c r="I123" s="21"/>
-      <c r="J123" s="21"/>
-      <c r="K123" s="21"/>
-      <c r="L123" s="22"/>
+      <c r="H123" s="27"/>
+      <c r="I123" s="27"/>
+      <c r="J123" s="27"/>
+      <c r="K123" s="27"/>
+      <c r="L123" s="28"/>
       <c r="O123" s="1" t="s">
         <v>459</v>
       </c>
@@ -19017,14 +19017,14 @@
       <c r="B124" s="7">
         <v>1</v>
       </c>
-      <c r="C124" s="24">
+      <c r="C124" s="29">
         <v>2</v>
       </c>
-      <c r="D124" s="24"/>
-      <c r="E124" s="25">
+      <c r="D124" s="29"/>
+      <c r="E124" s="22">
         <v>3</v>
       </c>
-      <c r="F124" s="26"/>
+      <c r="F124" s="23"/>
       <c r="G124" s="6" t="s">
         <v>406</v>
       </c>
@@ -19078,10 +19078,10 @@
       <c r="D125" s="7">
         <v>3</v>
       </c>
-      <c r="E125" s="25">
+      <c r="E125" s="22">
         <v>4</v>
       </c>
-      <c r="F125" s="26"/>
+      <c r="F125" s="23"/>
       <c r="G125" s="6" t="s">
         <v>405</v>
       </c>
@@ -19123,32 +19123,32 @@
       </c>
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="O126" s="23" t="s">
+      <c r="O126" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="P126" s="23"/>
-      <c r="Q126" s="23"/>
-      <c r="R126" s="23"/>
-      <c r="S126" s="23" t="s">
+      <c r="P126" s="21"/>
+      <c r="Q126" s="21"/>
+      <c r="R126" s="21"/>
+      <c r="S126" s="21" t="s">
         <v>511</v>
       </c>
-      <c r="T126" s="23"/>
-      <c r="U126" s="23"/>
-      <c r="V126" s="23"/>
+      <c r="T126" s="21"/>
+      <c r="U126" s="21"/>
+      <c r="V126" s="21"/>
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="O127" s="23" t="s">
+      <c r="O127" s="21" t="s">
         <v>541</v>
       </c>
-      <c r="P127" s="23"/>
-      <c r="Q127" s="23"/>
-      <c r="R127" s="23"/>
-      <c r="S127" s="23" t="s">
+      <c r="P127" s="21"/>
+      <c r="Q127" s="21"/>
+      <c r="R127" s="21"/>
+      <c r="S127" s="21" t="s">
         <v>542</v>
       </c>
-      <c r="T127" s="23"/>
-      <c r="U127" s="23"/>
-      <c r="V127" s="23"/>
+      <c r="T127" s="21"/>
+      <c r="U127" s="21"/>
+      <c r="V127" s="21"/>
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
@@ -19391,18 +19391,18 @@
       <c r="D134" t="s">
         <v>563</v>
       </c>
-      <c r="O134" s="23" t="s">
+      <c r="O134" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="P134" s="23"/>
-      <c r="Q134" s="23"/>
-      <c r="R134" s="23"/>
-      <c r="S134" s="23" t="s">
+      <c r="P134" s="21"/>
+      <c r="Q134" s="21"/>
+      <c r="R134" s="21"/>
+      <c r="S134" s="21" t="s">
         <v>511</v>
       </c>
-      <c r="T134" s="23"/>
-      <c r="U134" s="23"/>
-      <c r="V134" s="23"/>
+      <c r="T134" s="21"/>
+      <c r="U134" s="21"/>
+      <c r="V134" s="21"/>
     </row>
     <row r="135" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A135">
@@ -19417,18 +19417,18 @@
       <c r="D135">
         <v>0.26800000000000002</v>
       </c>
-      <c r="O135" s="23" t="s">
+      <c r="O135" s="21" t="s">
         <v>543</v>
       </c>
-      <c r="P135" s="23"/>
-      <c r="Q135" s="23"/>
-      <c r="R135" s="23"/>
-      <c r="S135" s="23" t="s">
+      <c r="P135" s="21"/>
+      <c r="Q135" s="21"/>
+      <c r="R135" s="21"/>
+      <c r="S135" s="21" t="s">
         <v>544</v>
       </c>
-      <c r="T135" s="23"/>
-      <c r="U135" s="23"/>
-      <c r="V135" s="23"/>
+      <c r="T135" s="21"/>
+      <c r="U135" s="21"/>
+      <c r="V135" s="21"/>
     </row>
     <row r="136" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A136">
@@ -19495,20 +19495,20 @@
       </c>
     </row>
     <row r="138" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A138" s="23" t="s">
+      <c r="A138" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="B138" s="23"/>
-      <c r="C138" s="23"/>
-      <c r="D138" s="23"/>
-      <c r="E138" s="23"/>
-      <c r="F138" s="23" t="s">
+      <c r="B138" s="21"/>
+      <c r="C138" s="21"/>
+      <c r="D138" s="21"/>
+      <c r="E138" s="21"/>
+      <c r="F138" s="21" t="s">
         <v>511</v>
       </c>
-      <c r="G138" s="23"/>
-      <c r="H138" s="23"/>
-      <c r="I138" s="23"/>
-      <c r="J138" s="23"/>
+      <c r="G138" s="21"/>
+      <c r="H138" s="21"/>
+      <c r="I138" s="21"/>
+      <c r="J138" s="21"/>
       <c r="O138" s="1" t="s">
         <v>458</v>
       </c>
@@ -19535,20 +19535,20 @@
       </c>
     </row>
     <row r="139" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A139" s="23" t="s">
+      <c r="A139" s="21" t="s">
         <v>508</v>
       </c>
-      <c r="B139" s="23"/>
-      <c r="C139" s="23"/>
-      <c r="D139" s="23"/>
-      <c r="E139" s="23"/>
-      <c r="F139" s="23" t="s">
+      <c r="B139" s="21"/>
+      <c r="C139" s="21"/>
+      <c r="D139" s="21"/>
+      <c r="E139" s="21"/>
+      <c r="F139" s="21" t="s">
         <v>512</v>
       </c>
-      <c r="G139" s="23"/>
-      <c r="H139" s="23"/>
-      <c r="I139" s="23"/>
-      <c r="J139" s="23"/>
+      <c r="G139" s="21"/>
+      <c r="H139" s="21"/>
+      <c r="I139" s="21"/>
+      <c r="J139" s="21"/>
       <c r="O139" s="1" t="s">
         <v>459</v>
       </c>
@@ -19717,27 +19717,27 @@
       <c r="J142">
         <v>0.84316999999999998</v>
       </c>
-      <c r="O142" s="23" t="s">
+      <c r="O142" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="P142" s="23"/>
-      <c r="Q142" s="23"/>
-      <c r="R142" s="23"/>
-      <c r="S142" s="23"/>
-      <c r="T142" s="23" t="s">
+      <c r="P142" s="21"/>
+      <c r="Q142" s="21"/>
+      <c r="R142" s="21"/>
+      <c r="S142" s="21"/>
+      <c r="T142" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="U142" s="23"/>
-      <c r="V142" s="23"/>
-      <c r="W142" s="23"/>
-      <c r="X142" s="23"/>
-      <c r="Y142" s="23" t="s">
+      <c r="U142" s="21"/>
+      <c r="V142" s="21"/>
+      <c r="W142" s="21"/>
+      <c r="X142" s="21"/>
+      <c r="Y142" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="Z142" s="23"/>
-      <c r="AA142" s="23"/>
-      <c r="AB142" s="23"/>
-      <c r="AC142" s="23"/>
+      <c r="Z142" s="21"/>
+      <c r="AA142" s="21"/>
+      <c r="AB142" s="21"/>
+      <c r="AC142" s="21"/>
     </row>
     <row r="143" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
@@ -19770,27 +19770,27 @@
       <c r="J143">
         <v>0.81733</v>
       </c>
-      <c r="O143" s="23" t="s">
+      <c r="O143" s="21" t="s">
         <v>582</v>
       </c>
-      <c r="P143" s="23"/>
-      <c r="Q143" s="23"/>
-      <c r="R143" s="23"/>
-      <c r="S143" s="23"/>
-      <c r="T143" s="23" t="s">
+      <c r="P143" s="21"/>
+      <c r="Q143" s="21"/>
+      <c r="R143" s="21"/>
+      <c r="S143" s="21"/>
+      <c r="T143" s="21" t="s">
         <v>581</v>
       </c>
-      <c r="U143" s="23"/>
-      <c r="V143" s="23"/>
-      <c r="W143" s="23"/>
-      <c r="X143" s="23"/>
-      <c r="Y143" s="23" t="s">
+      <c r="U143" s="21"/>
+      <c r="V143" s="21"/>
+      <c r="W143" s="21"/>
+      <c r="X143" s="21"/>
+      <c r="Y143" s="21" t="s">
         <v>579</v>
       </c>
-      <c r="Z143" s="23"/>
-      <c r="AA143" s="23"/>
-      <c r="AB143" s="23"/>
-      <c r="AC143" s="23"/>
+      <c r="Z143" s="21"/>
+      <c r="AA143" s="21"/>
+      <c r="AB143" s="21"/>
+      <c r="AC143" s="21"/>
     </row>
     <row r="144" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
@@ -19947,20 +19947,20 @@
       </c>
     </row>
     <row r="146" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A146" s="23" t="s">
+      <c r="A146" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="B146" s="23"/>
-      <c r="C146" s="23"/>
-      <c r="D146" s="23"/>
-      <c r="E146" s="23"/>
-      <c r="F146" s="23" t="s">
+      <c r="B146" s="21"/>
+      <c r="C146" s="21"/>
+      <c r="D146" s="21"/>
+      <c r="E146" s="21"/>
+      <c r="F146" s="21" t="s">
         <v>511</v>
       </c>
-      <c r="G146" s="23"/>
-      <c r="H146" s="23"/>
-      <c r="I146" s="23"/>
-      <c r="J146" s="23"/>
+      <c r="G146" s="21"/>
+      <c r="H146" s="21"/>
+      <c r="I146" s="21"/>
+      <c r="J146" s="21"/>
       <c r="O146" s="1" t="s">
         <v>457</v>
       </c>
@@ -20008,20 +20008,20 @@
       </c>
     </row>
     <row r="147" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A147" s="23" t="s">
+      <c r="A147" s="21" t="s">
         <v>508</v>
       </c>
-      <c r="B147" s="23"/>
-      <c r="C147" s="23"/>
-      <c r="D147" s="23"/>
-      <c r="E147" s="23"/>
-      <c r="F147" s="23" t="s">
+      <c r="B147" s="21"/>
+      <c r="C147" s="21"/>
+      <c r="D147" s="21"/>
+      <c r="E147" s="21"/>
+      <c r="F147" s="21" t="s">
         <v>512</v>
       </c>
-      <c r="G147" s="23"/>
-      <c r="H147" s="23"/>
-      <c r="I147" s="23"/>
-      <c r="J147" s="23"/>
+      <c r="G147" s="21"/>
+      <c r="H147" s="21"/>
+      <c r="I147" s="21"/>
+      <c r="J147" s="21"/>
       <c r="O147" s="1" t="s">
         <v>530</v>
       </c>
@@ -21059,56 +21059,56 @@
       </c>
     </row>
     <row r="165" spans="15:33" x14ac:dyDescent="0.25">
-      <c r="P165" s="19" t="s">
+      <c r="P165" s="30" t="s">
         <v>580</v>
       </c>
-      <c r="Q165" s="19"/>
-      <c r="R165" s="19"/>
-      <c r="S165" s="19"/>
-      <c r="T165" s="19"/>
-      <c r="U165" s="19"/>
-      <c r="V165" s="19" t="s">
+      <c r="Q165" s="30"/>
+      <c r="R165" s="30"/>
+      <c r="S165" s="30"/>
+      <c r="T165" s="30"/>
+      <c r="U165" s="30"/>
+      <c r="V165" s="30" t="s">
         <v>580</v>
       </c>
-      <c r="W165" s="19"/>
-      <c r="X165" s="19"/>
-      <c r="Y165" s="19"/>
-      <c r="Z165" s="19"/>
-      <c r="AA165" s="19"/>
-      <c r="AB165" s="19" t="s">
+      <c r="W165" s="30"/>
+      <c r="X165" s="30"/>
+      <c r="Y165" s="30"/>
+      <c r="Z165" s="30"/>
+      <c r="AA165" s="30"/>
+      <c r="AB165" s="30" t="s">
         <v>580</v>
       </c>
-      <c r="AC165" s="19"/>
-      <c r="AD165" s="19"/>
-      <c r="AE165" s="19"/>
-      <c r="AF165" s="19"/>
-      <c r="AG165" s="19"/>
+      <c r="AC165" s="30"/>
+      <c r="AD165" s="30"/>
+      <c r="AE165" s="30"/>
+      <c r="AF165" s="30"/>
+      <c r="AG165" s="30"/>
     </row>
     <row r="166" spans="15:33" x14ac:dyDescent="0.25">
-      <c r="P166" s="19" t="s">
+      <c r="P166" s="30" t="s">
         <v>582</v>
       </c>
-      <c r="Q166" s="19"/>
-      <c r="R166" s="19"/>
-      <c r="S166" s="19"/>
-      <c r="T166" s="19"/>
-      <c r="U166" s="19"/>
-      <c r="V166" s="19" t="s">
+      <c r="Q166" s="30"/>
+      <c r="R166" s="30"/>
+      <c r="S166" s="30"/>
+      <c r="T166" s="30"/>
+      <c r="U166" s="30"/>
+      <c r="V166" s="30" t="s">
         <v>581</v>
       </c>
-      <c r="W166" s="19"/>
-      <c r="X166" s="19"/>
-      <c r="Y166" s="19"/>
-      <c r="Z166" s="19"/>
-      <c r="AA166" s="19"/>
-      <c r="AB166" s="19" t="s">
+      <c r="W166" s="30"/>
+      <c r="X166" s="30"/>
+      <c r="Y166" s="30"/>
+      <c r="Z166" s="30"/>
+      <c r="AA166" s="30"/>
+      <c r="AB166" s="30" t="s">
         <v>583</v>
       </c>
-      <c r="AC166" s="19"/>
-      <c r="AD166" s="19"/>
-      <c r="AE166" s="19"/>
-      <c r="AF166" s="19"/>
-      <c r="AG166" s="19"/>
+      <c r="AC166" s="30"/>
+      <c r="AD166" s="30"/>
+      <c r="AE166" s="30"/>
+      <c r="AF166" s="30"/>
+      <c r="AG166" s="30"/>
     </row>
     <row r="167" spans="15:33" x14ac:dyDescent="0.25">
       <c r="P167" s="6" t="s">
@@ -22453,30 +22453,30 @@
       </c>
     </row>
     <row r="190" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P190" s="19" t="s">
+      <c r="P190" s="30" t="s">
         <v>582</v>
       </c>
-      <c r="Q190" s="19"/>
-      <c r="R190" s="19"/>
-      <c r="S190" s="19"/>
-      <c r="T190" s="19"/>
-      <c r="U190" s="19"/>
-      <c r="V190" s="19" t="s">
+      <c r="Q190" s="30"/>
+      <c r="R190" s="30"/>
+      <c r="S190" s="30"/>
+      <c r="T190" s="30"/>
+      <c r="U190" s="30"/>
+      <c r="V190" s="30" t="s">
         <v>581</v>
       </c>
-      <c r="W190" s="19"/>
-      <c r="X190" s="19"/>
-      <c r="Y190" s="19"/>
-      <c r="Z190" s="19"/>
-      <c r="AA190" s="19"/>
-      <c r="AB190" s="19" t="s">
+      <c r="W190" s="30"/>
+      <c r="X190" s="30"/>
+      <c r="Y190" s="30"/>
+      <c r="Z190" s="30"/>
+      <c r="AA190" s="30"/>
+      <c r="AB190" s="30" t="s">
         <v>583</v>
       </c>
-      <c r="AC190" s="19"/>
-      <c r="AD190" s="19"/>
-      <c r="AE190" s="19"/>
-      <c r="AF190" s="19"/>
-      <c r="AG190" s="19"/>
+      <c r="AC190" s="30"/>
+      <c r="AD190" s="30"/>
+      <c r="AE190" s="30"/>
+      <c r="AF190" s="30"/>
+      <c r="AG190" s="30"/>
     </row>
     <row r="191" spans="16:33" x14ac:dyDescent="0.25">
       <c r="P191" s="6" t="s">
@@ -25389,20 +25389,20 @@
       </c>
     </row>
     <row r="244" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P244" s="30" t="s">
+      <c r="P244" s="20" t="s">
         <v>504</v>
       </c>
-      <c r="Q244" s="29" t="s">
+      <c r="Q244" s="19" t="s">
         <v>614</v>
       </c>
-      <c r="R244" s="29"/>
-      <c r="S244" s="29" t="s">
+      <c r="R244" s="19"/>
+      <c r="S244" s="19" t="s">
         <v>615</v>
       </c>
-      <c r="T244" s="29"/>
+      <c r="T244" s="19"/>
     </row>
     <row r="245" spans="16:33" ht="60" x14ac:dyDescent="0.25">
-      <c r="P245" s="30"/>
+      <c r="P245" s="20"/>
       <c r="Q245" s="12" t="s">
         <v>616</v>
       </c>
@@ -25600,83 +25600,83 @@
       </c>
     </row>
     <row r="256" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P256" s="23"/>
-      <c r="Q256" s="23"/>
-      <c r="R256" s="23"/>
-      <c r="S256" s="23"/>
-      <c r="T256" s="23"/>
-      <c r="U256" s="23"/>
-      <c r="V256" s="23"/>
-      <c r="W256" s="23"/>
-      <c r="X256" s="23"/>
-      <c r="Y256" s="23"/>
+      <c r="P256" s="21"/>
+      <c r="Q256" s="21"/>
+      <c r="R256" s="21"/>
+      <c r="S256" s="21"/>
+      <c r="T256" s="21"/>
+      <c r="U256" s="21"/>
+      <c r="V256" s="21"/>
+      <c r="W256" s="21"/>
+      <c r="X256" s="21"/>
+      <c r="Y256" s="21"/>
     </row>
     <row r="257" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P257" s="20" t="s">
+      <c r="P257" s="26" t="s">
         <v>618</v>
       </c>
-      <c r="Q257" s="21"/>
-      <c r="R257" s="21"/>
-      <c r="S257" s="21"/>
-      <c r="T257" s="21"/>
-      <c r="U257" s="21"/>
-      <c r="V257" s="21"/>
-      <c r="W257" s="21"/>
-      <c r="X257" s="22"/>
-      <c r="Y257" s="20" t="s">
+      <c r="Q257" s="27"/>
+      <c r="R257" s="27"/>
+      <c r="S257" s="27"/>
+      <c r="T257" s="27"/>
+      <c r="U257" s="27"/>
+      <c r="V257" s="27"/>
+      <c r="W257" s="27"/>
+      <c r="X257" s="28"/>
+      <c r="Y257" s="26" t="s">
         <v>619</v>
       </c>
-      <c r="Z257" s="21"/>
-      <c r="AA257" s="21"/>
-      <c r="AB257" s="21"/>
-      <c r="AC257" s="21"/>
-      <c r="AD257" s="21"/>
-      <c r="AE257" s="21"/>
-      <c r="AF257" s="21"/>
-      <c r="AG257" s="22"/>
+      <c r="Z257" s="27"/>
+      <c r="AA257" s="27"/>
+      <c r="AB257" s="27"/>
+      <c r="AC257" s="27"/>
+      <c r="AD257" s="27"/>
+      <c r="AE257" s="27"/>
+      <c r="AF257" s="27"/>
+      <c r="AG257" s="28"/>
     </row>
     <row r="258" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P258" s="19" t="s">
+      <c r="P258" s="30" t="s">
         <v>504</v>
       </c>
-      <c r="Q258" s="19" t="s">
+      <c r="Q258" s="30" t="s">
         <v>451</v>
       </c>
-      <c r="R258" s="19"/>
-      <c r="S258" s="19" t="s">
+      <c r="R258" s="30"/>
+      <c r="S258" s="30" t="s">
         <v>452</v>
       </c>
-      <c r="T258" s="19"/>
-      <c r="U258" s="19" t="s">
+      <c r="T258" s="30"/>
+      <c r="U258" s="30" t="s">
         <v>509</v>
       </c>
-      <c r="V258" s="19"/>
-      <c r="W258" s="19" t="s">
+      <c r="V258" s="30"/>
+      <c r="W258" s="30" t="s">
         <v>558</v>
       </c>
-      <c r="X258" s="19"/>
-      <c r="Y258" s="19" t="s">
+      <c r="X258" s="30"/>
+      <c r="Y258" s="30" t="s">
         <v>504</v>
       </c>
-      <c r="Z258" s="19" t="s">
+      <c r="Z258" s="30" t="s">
         <v>451</v>
       </c>
-      <c r="AA258" s="19"/>
-      <c r="AB258" s="19" t="s">
+      <c r="AA258" s="30"/>
+      <c r="AB258" s="30" t="s">
         <v>452</v>
       </c>
-      <c r="AC258" s="19"/>
-      <c r="AD258" s="19" t="s">
+      <c r="AC258" s="30"/>
+      <c r="AD258" s="30" t="s">
         <v>509</v>
       </c>
-      <c r="AE258" s="19"/>
+      <c r="AE258" s="30"/>
       <c r="AF258" s="6" t="s">
         <v>558</v>
       </c>
       <c r="AG258" s="7"/>
     </row>
     <row r="259" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P259" s="19"/>
+      <c r="P259" s="30"/>
       <c r="Q259" s="11" t="s">
         <v>507</v>
       </c>
@@ -25701,7 +25701,7 @@
       <c r="X259" s="11" t="s">
         <v>620</v>
       </c>
-      <c r="Y259" s="19"/>
+      <c r="Y259" s="30"/>
       <c r="Z259" s="11" t="s">
         <v>511</v>
       </c>
@@ -26072,6 +26072,116 @@
     </row>
   </sheetData>
   <mergeCells count="134">
+    <mergeCell ref="Z258:AA258"/>
+    <mergeCell ref="AB258:AC258"/>
+    <mergeCell ref="AD258:AE258"/>
+    <mergeCell ref="W258:X258"/>
+    <mergeCell ref="P258:P259"/>
+    <mergeCell ref="Y258:Y259"/>
+    <mergeCell ref="P257:X257"/>
+    <mergeCell ref="Y257:AG257"/>
+    <mergeCell ref="A138:E138"/>
+    <mergeCell ref="F138:J138"/>
+    <mergeCell ref="A139:E139"/>
+    <mergeCell ref="F139:J139"/>
+    <mergeCell ref="P256:T256"/>
+    <mergeCell ref="U256:Y256"/>
+    <mergeCell ref="Q258:R258"/>
+    <mergeCell ref="S258:T258"/>
+    <mergeCell ref="U258:V258"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="F146:J146"/>
+    <mergeCell ref="A147:E147"/>
+    <mergeCell ref="F147:J147"/>
+    <mergeCell ref="AB165:AG165"/>
+    <mergeCell ref="AB166:AG166"/>
+    <mergeCell ref="P190:U190"/>
+    <mergeCell ref="V190:AA190"/>
+    <mergeCell ref="AB190:AG190"/>
+    <mergeCell ref="P165:U165"/>
+    <mergeCell ref="P166:U166"/>
+    <mergeCell ref="V165:AA165"/>
+    <mergeCell ref="V166:AA166"/>
+    <mergeCell ref="O142:S142"/>
+    <mergeCell ref="O143:S143"/>
+    <mergeCell ref="T142:X142"/>
+    <mergeCell ref="T143:X143"/>
+    <mergeCell ref="Y142:AC142"/>
+    <mergeCell ref="Y143:AC143"/>
+    <mergeCell ref="O135:R135"/>
+    <mergeCell ref="S135:V135"/>
+    <mergeCell ref="O126:R126"/>
+    <mergeCell ref="O127:R127"/>
+    <mergeCell ref="S126:V126"/>
+    <mergeCell ref="S127:V127"/>
+    <mergeCell ref="O134:R134"/>
+    <mergeCell ref="S134:V134"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="H121:J121"/>
+    <mergeCell ref="K121:L121"/>
+    <mergeCell ref="H122:J122"/>
+    <mergeCell ref="K122:L122"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="K120:L120"/>
+    <mergeCell ref="H120:J120"/>
+    <mergeCell ref="G123:L123"/>
+    <mergeCell ref="O75:U75"/>
+    <mergeCell ref="O74:U74"/>
+    <mergeCell ref="F92:I92"/>
+    <mergeCell ref="F93:I93"/>
+    <mergeCell ref="O119:U119"/>
+    <mergeCell ref="P101:X101"/>
+    <mergeCell ref="G109:L109"/>
+    <mergeCell ref="G110:L110"/>
+    <mergeCell ref="O111:U111"/>
+    <mergeCell ref="O110:U110"/>
+    <mergeCell ref="O118:U118"/>
+    <mergeCell ref="P100:X100"/>
+    <mergeCell ref="H118:L118"/>
+    <mergeCell ref="G119:L119"/>
+    <mergeCell ref="B118:F118"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="B101:E101"/>
+    <mergeCell ref="B100:E100"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A65:A70"/>
+    <mergeCell ref="B65:B70"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="O66:U66"/>
+    <mergeCell ref="O58:U58"/>
+    <mergeCell ref="O59:U59"/>
+    <mergeCell ref="V58:Z58"/>
+    <mergeCell ref="V59:Z59"/>
+    <mergeCell ref="P85:X85"/>
+    <mergeCell ref="P84:X84"/>
+    <mergeCell ref="P92:X92"/>
+    <mergeCell ref="P93:X93"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="O42:U42"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="O35:U35"/>
+    <mergeCell ref="O34:U34"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="V51:Z51"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="A56:E56"/>
     <mergeCell ref="Q244:R244"/>
     <mergeCell ref="S244:T244"/>
     <mergeCell ref="P244:P245"/>
@@ -26096,116 +26206,6 @@
     <mergeCell ref="B84:E84"/>
     <mergeCell ref="B85:E85"/>
     <mergeCell ref="E125:F125"/>
-    <mergeCell ref="P85:X85"/>
-    <mergeCell ref="P84:X84"/>
-    <mergeCell ref="P92:X92"/>
-    <mergeCell ref="P93:X93"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="O42:U42"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="O35:U35"/>
-    <mergeCell ref="O34:U34"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="V51:Z51"/>
-    <mergeCell ref="A71:A76"/>
-    <mergeCell ref="B71:B76"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="A65:A70"/>
-    <mergeCell ref="B65:B70"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="O66:U66"/>
-    <mergeCell ref="O58:U58"/>
-    <mergeCell ref="O59:U59"/>
-    <mergeCell ref="V58:Z58"/>
-    <mergeCell ref="V59:Z59"/>
-    <mergeCell ref="O75:U75"/>
-    <mergeCell ref="O74:U74"/>
-    <mergeCell ref="F92:I92"/>
-    <mergeCell ref="F93:I93"/>
-    <mergeCell ref="O119:U119"/>
-    <mergeCell ref="P101:X101"/>
-    <mergeCell ref="G109:L109"/>
-    <mergeCell ref="G110:L110"/>
-    <mergeCell ref="O111:U111"/>
-    <mergeCell ref="O110:U110"/>
-    <mergeCell ref="O118:U118"/>
-    <mergeCell ref="P100:X100"/>
-    <mergeCell ref="H118:L118"/>
-    <mergeCell ref="G119:L119"/>
-    <mergeCell ref="B118:F118"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="B101:E101"/>
-    <mergeCell ref="B100:E100"/>
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="B92:E92"/>
-    <mergeCell ref="O135:R135"/>
-    <mergeCell ref="S135:V135"/>
-    <mergeCell ref="O126:R126"/>
-    <mergeCell ref="O127:R127"/>
-    <mergeCell ref="S126:V126"/>
-    <mergeCell ref="S127:V127"/>
-    <mergeCell ref="O134:R134"/>
-    <mergeCell ref="S134:V134"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="H121:J121"/>
-    <mergeCell ref="K121:L121"/>
-    <mergeCell ref="H122:J122"/>
-    <mergeCell ref="K122:L122"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="K120:L120"/>
-    <mergeCell ref="H120:J120"/>
-    <mergeCell ref="G123:L123"/>
-    <mergeCell ref="V190:AA190"/>
-    <mergeCell ref="AB190:AG190"/>
-    <mergeCell ref="P165:U165"/>
-    <mergeCell ref="P166:U166"/>
-    <mergeCell ref="V165:AA165"/>
-    <mergeCell ref="V166:AA166"/>
-    <mergeCell ref="O142:S142"/>
-    <mergeCell ref="O143:S143"/>
-    <mergeCell ref="T142:X142"/>
-    <mergeCell ref="T143:X143"/>
-    <mergeCell ref="Y142:AC142"/>
-    <mergeCell ref="Y143:AC143"/>
-    <mergeCell ref="Z258:AA258"/>
-    <mergeCell ref="AB258:AC258"/>
-    <mergeCell ref="AD258:AE258"/>
-    <mergeCell ref="W258:X258"/>
-    <mergeCell ref="P258:P259"/>
-    <mergeCell ref="Y258:Y259"/>
-    <mergeCell ref="P257:X257"/>
-    <mergeCell ref="Y257:AG257"/>
-    <mergeCell ref="A138:E138"/>
-    <mergeCell ref="F138:J138"/>
-    <mergeCell ref="A139:E139"/>
-    <mergeCell ref="F139:J139"/>
-    <mergeCell ref="P256:T256"/>
-    <mergeCell ref="U256:Y256"/>
-    <mergeCell ref="Q258:R258"/>
-    <mergeCell ref="S258:T258"/>
-    <mergeCell ref="U258:V258"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="F146:J146"/>
-    <mergeCell ref="A147:E147"/>
-    <mergeCell ref="F147:J147"/>
-    <mergeCell ref="AB165:AG165"/>
-    <mergeCell ref="AB166:AG166"/>
-    <mergeCell ref="P190:U190"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
@@ -26547,8 +26547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26564,20 +26564,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>621</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="G1" s="23" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="G1" s="21" t="s">
         <v>628</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
       <c r="L1" s="2" t="s">
         <v>631</v>
       </c>
@@ -26719,27 +26719,27 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="21" t="s">
         <v>632</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="G5" s="23" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="G5" s="21" t="s">
         <v>629</v>
       </c>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23" t="s">
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21" t="s">
         <v>630</v>
       </c>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
@@ -26874,14 +26874,14 @@
         <v>0.81982999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="23" t="s">
+    <row r="9" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="21" t="s">
         <v>622</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
       <c r="G9" s="18" t="s">
         <v>649</v>
       </c>
@@ -26903,13 +26903,13 @@
       <c r="E10" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="21" t="s">
         <v>638</v>
       </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -26974,13 +26974,13 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="21" t="s">
         <v>633</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
       <c r="G13" s="1" t="s">
         <v>627</v>
       </c>
@@ -27010,13 +27010,13 @@
       <c r="E14" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="21" t="s">
         <v>639</v>
       </c>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -27081,6 +27081,11 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
       <c r="G17" s="1" t="s">
         <v>627</v>
       </c>
@@ -27123,12 +27128,12 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="32"/>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
         <v>451</v>
@@ -27223,22 +27228,22 @@
       <c r="E22">
         <v>0.90807000000000004</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="G22" s="21" t="s">
         <v>641</v>
       </c>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="21" t="s">
         <v>511</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
       <c r="F23" s="1"/>
       <c r="H23" s="1" t="s">
         <v>451</v>
@@ -27333,13 +27338,13 @@
       <c r="E26">
         <v>0.84006999999999998</v>
       </c>
-      <c r="G26" s="23" t="s">
+      <c r="G26" s="21" t="s">
         <v>642</v>
       </c>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G27" s="1"/>
@@ -27357,13 +27362,13 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
       <c r="G28" s="1" t="s">
         <v>626</v>
       </c>
@@ -27381,12 +27386,12 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="21" t="s">
         <v>513</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
       <c r="E29" s="2"/>
       <c r="G29" s="1" t="s">
         <v>627</v>
@@ -27404,7 +27409,7 @@
         <v>0.79752000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
         <v>441</v>
       </c>
@@ -27433,13 +27438,19 @@
       <c r="B31">
         <v>0.70960000000000001</v>
       </c>
-      <c r="G31" s="23" t="s">
+      <c r="C31">
+        <v>0.70323000000000002</v>
+      </c>
+      <c r="D31">
+        <v>0.69301000000000001</v>
+      </c>
+      <c r="G31" s="21" t="s">
         <v>643</v>
       </c>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -27448,6 +27459,12 @@
       <c r="B32">
         <v>0.69921999999999995</v>
       </c>
+      <c r="C32">
+        <v>0.70035999999999998</v>
+      </c>
+      <c r="D32">
+        <v>0.73987999999999998</v>
+      </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1" t="s">
         <v>451</v>
@@ -27469,6 +27486,12 @@
       <c r="B33">
         <v>0.68574000000000002</v>
       </c>
+      <c r="C33">
+        <v>0.69160999999999995</v>
+      </c>
+      <c r="D33">
+        <v>0.72436</v>
+      </c>
       <c r="G33" s="1" t="s">
         <v>626</v>
       </c>
@@ -27492,6 +27515,12 @@
       <c r="B34">
         <v>0.73041999999999996</v>
       </c>
+      <c r="C34">
+        <v>0.76063000000000003</v>
+      </c>
+      <c r="D34">
+        <v>0.75078999999999996</v>
+      </c>
       <c r="G34" s="1" t="s">
         <v>627</v>
       </c>
@@ -27515,22 +27544,28 @@
       <c r="B35">
         <v>0.74461999999999995</v>
       </c>
-      <c r="G35" s="23" t="s">
+      <c r="C35">
+        <v>0.78685000000000005</v>
+      </c>
+      <c r="D35">
+        <v>0.67064999999999997</v>
+      </c>
+      <c r="G35" s="21" t="s">
         <v>644</v>
       </c>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="21" t="s">
         <v>511</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
       <c r="H36" s="1" t="s">
         <v>451</v>
       </c>
@@ -27546,12 +27581,12 @@
       <c r="L36" s="1"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="21" t="s">
         <v>514</v>
       </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
       <c r="E37" s="2"/>
       <c r="G37" s="1" t="s">
         <v>626</v>
@@ -27606,13 +27641,19 @@
       <c r="B39">
         <v>0.49764999999999998</v>
       </c>
-      <c r="G39" s="23" t="s">
+      <c r="C39">
+        <v>0.57877000000000001</v>
+      </c>
+      <c r="D39">
+        <v>0.55774999999999997</v>
+      </c>
+      <c r="G39" s="21" t="s">
         <v>645</v>
       </c>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -27621,6 +27662,12 @@
       <c r="B40">
         <v>0.56842000000000004</v>
       </c>
+      <c r="C40">
+        <v>0.57279999999999998</v>
+      </c>
+      <c r="D40">
+        <v>0.59694000000000003</v>
+      </c>
       <c r="H40" s="1" t="s">
         <v>451</v>
       </c>
@@ -27641,6 +27688,12 @@
       <c r="B41">
         <v>0.56706999999999996</v>
       </c>
+      <c r="C41">
+        <v>0.59245000000000003</v>
+      </c>
+      <c r="D41">
+        <v>0.60692000000000002</v>
+      </c>
       <c r="G41" s="1" t="s">
         <v>626</v>
       </c>
@@ -27664,6 +27717,12 @@
       <c r="B42">
         <v>0.59179999999999999</v>
       </c>
+      <c r="C42">
+        <v>0.56320999999999999</v>
+      </c>
+      <c r="D42">
+        <v>0.62002999999999997</v>
+      </c>
       <c r="G42" s="1" t="s">
         <v>627</v>
       </c>
@@ -27687,22 +27746,28 @@
       <c r="B43">
         <v>0.62388999999999994</v>
       </c>
-      <c r="G43" s="23" t="s">
+      <c r="C43">
+        <v>0.59440000000000004</v>
+      </c>
+      <c r="D43">
+        <v>0.59794000000000003</v>
+      </c>
+      <c r="G43" s="21" t="s">
         <v>646</v>
       </c>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
       <c r="H44" s="1" t="s">
         <v>451</v>
       </c>
@@ -27717,13 +27782,13 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="23" t="s">
+      <c r="A45" s="21" t="s">
         <v>515</v>
       </c>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
       <c r="G45" s="1" t="s">
         <v>626</v>
       </c>
@@ -27777,13 +27842,19 @@
       <c r="B47">
         <v>0.82057000000000002</v>
       </c>
-      <c r="G47" s="23" t="s">
+      <c r="C47">
+        <v>0.91188999999999998</v>
+      </c>
+      <c r="D47">
+        <v>0.86019999999999996</v>
+      </c>
+      <c r="G47" s="21" t="s">
         <v>647</v>
       </c>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="23"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
@@ -27792,6 +27863,12 @@
       <c r="B48">
         <v>0.88932999999999995</v>
       </c>
+      <c r="C48">
+        <v>0.92569999999999997</v>
+      </c>
+      <c r="D48">
+        <v>0.89122999999999997</v>
+      </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1" t="s">
         <v>451</v>
@@ -27813,6 +27890,12 @@
       <c r="B49">
         <v>0.83911000000000002</v>
       </c>
+      <c r="C49">
+        <v>0.90741000000000005</v>
+      </c>
+      <c r="D49">
+        <v>0.89278999999999997</v>
+      </c>
       <c r="G49" s="1" t="s">
         <v>626</v>
       </c>
@@ -27836,6 +27919,12 @@
       <c r="B50">
         <v>0.82884000000000002</v>
       </c>
+      <c r="C50">
+        <v>0.81589999999999996</v>
+      </c>
+      <c r="D50">
+        <v>0.89041999999999999</v>
+      </c>
       <c r="G50" s="1" t="s">
         <v>627</v>
       </c>
@@ -27859,24 +27948,30 @@
       <c r="B51">
         <v>0.87512000000000001</v>
       </c>
+      <c r="C51">
+        <v>0.81283000000000005</v>
+      </c>
+      <c r="D51">
+        <v>0.93235999999999997</v>
+      </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="23" t="s">
+      <c r="A52" s="21" t="s">
         <v>511</v>
       </c>
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="23" t="s">
+      <c r="A53" s="21" t="s">
         <v>544</v>
       </c>
-      <c r="B53" s="23"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
@@ -27900,6 +27995,12 @@
       <c r="B55">
         <v>0.69708000000000003</v>
       </c>
+      <c r="C55">
+        <v>0.74985999999999997</v>
+      </c>
+      <c r="D55">
+        <v>0.73592000000000002</v>
+      </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
@@ -27908,6 +28009,12 @@
       <c r="B56">
         <v>0.74800999999999995</v>
       </c>
+      <c r="C56">
+        <v>0.76790000000000003</v>
+      </c>
+      <c r="D56">
+        <v>0.75944</v>
+      </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
@@ -27916,6 +28023,12 @@
       <c r="B57">
         <v>0.72585999999999995</v>
       </c>
+      <c r="C57">
+        <v>0.76432999999999995</v>
+      </c>
+      <c r="D57">
+        <v>0.77209000000000005</v>
+      </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
@@ -27924,6 +28037,12 @@
       <c r="B58">
         <v>0.73675000000000002</v>
       </c>
+      <c r="C58">
+        <v>0.71208000000000005</v>
+      </c>
+      <c r="D58">
+        <v>0.77346000000000004</v>
+      </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
@@ -27932,44 +28051,60 @@
       <c r="B59">
         <v>0.77141999999999999</v>
       </c>
+      <c r="C59">
+        <v>0.73426000000000002</v>
+      </c>
+      <c r="D59">
+        <v>0.76466999999999996</v>
+      </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="23" t="s">
+      <c r="A61" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="B61" s="23"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23" t="s">
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21" t="s">
         <v>511</v>
       </c>
-      <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="23"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21" t="s">
+        <v>643</v>
+      </c>
+      <c r="J61" s="21"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="21"/>
+      <c r="M61" s="21"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="23" t="s">
+      <c r="A62" s="21" t="s">
         <v>541</v>
       </c>
-      <c r="B62" s="23"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23" t="s">
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21" t="s">
         <v>542</v>
       </c>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="23"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21"/>
       <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
+      <c r="J62" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -27996,7 +28131,21 @@
       <c r="H63" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="I63" s="1"/>
+      <c r="I63" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="J63">
+        <v>0.72485999999999995</v>
+      </c>
+      <c r="K63">
+        <v>0.60070999999999997</v>
+      </c>
+      <c r="L63">
+        <v>0.74100999999999995</v>
+      </c>
+      <c r="M63">
+        <v>0.80327999999999999</v>
+      </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
@@ -28006,7 +28155,7 @@
         <v>0.63119000000000003</v>
       </c>
       <c r="C64">
-        <v>0.72660000000000002</v>
+        <v>0.72485999999999995</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>457</v>
@@ -28015,9 +28164,23 @@
         <v>0.40679999999999999</v>
       </c>
       <c r="G64">
-        <v>0.40667999999999999</v>
-      </c>
-      <c r="I64" s="1"/>
+        <v>0.43914999999999998</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="J64">
+        <v>0.43914999999999998</v>
+      </c>
+      <c r="K64">
+        <v>0.46079999999999999</v>
+      </c>
+      <c r="L64">
+        <v>0.58287</v>
+      </c>
+      <c r="M64">
+        <v>0.70659000000000005</v>
+      </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
@@ -28027,7 +28190,7 @@
         <v>0.62795000000000001</v>
       </c>
       <c r="C65">
-        <v>0.67117000000000004</v>
+        <v>0.67515000000000003</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>458</v>
@@ -28036,13 +28199,15 @@
         <v>0.46440999999999999</v>
       </c>
       <c r="G65">
-        <v>0.43678</v>
-      </c>
-      <c r="I65" s="23"/>
-      <c r="J65" s="23"/>
-      <c r="K65" s="23"/>
-      <c r="L65" s="23"/>
-      <c r="M65" s="23"/>
+        <v>0.47331000000000001</v>
+      </c>
+      <c r="I65" s="21" t="s">
+        <v>644</v>
+      </c>
+      <c r="J65" s="21"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="21"/>
+      <c r="M65" s="21"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
@@ -28052,7 +28217,7 @@
         <v>0.67910999999999999</v>
       </c>
       <c r="C66">
-        <v>0.68979000000000001</v>
+        <v>0.68986000000000003</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>459</v>
@@ -28061,12 +28226,20 @@
         <v>0.48081000000000002</v>
       </c>
       <c r="G66">
-        <v>0.51198999999999995</v>
-      </c>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
+        <v>0.52498</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
@@ -28076,7 +28249,7 @@
         <v>0.70355999999999996</v>
       </c>
       <c r="C67">
-        <v>0.74556999999999995</v>
+        <v>0.73472000000000004</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>460</v>
@@ -28085,9 +28258,23 @@
         <v>0.55174000000000001</v>
       </c>
       <c r="G67">
-        <v>0.53183000000000002</v>
-      </c>
-      <c r="I67" s="1"/>
+        <v>0.53766000000000003</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="J67">
+        <v>0.67515000000000003</v>
+      </c>
+      <c r="K67">
+        <v>0.82843</v>
+      </c>
+      <c r="L67">
+        <v>0.81174000000000002</v>
+      </c>
+      <c r="M67">
+        <v>0.85938999999999999</v>
+      </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
@@ -28097,7 +28284,7 @@
         <v>0.70960000000000001</v>
       </c>
       <c r="C68">
-        <v>0.63804000000000005</v>
+        <v>0.64758000000000004</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>463</v>
@@ -28106,47 +28293,70 @@
         <v>0.49764999999999998</v>
       </c>
       <c r="G68">
-        <v>0.52671999999999997</v>
-      </c>
-      <c r="I68" s="1"/>
+        <v>0.51122999999999996</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="J68">
+        <v>0.47331000000000001</v>
+      </c>
+      <c r="K68">
+        <v>0.63438000000000005</v>
+      </c>
+      <c r="L68">
+        <v>0.66927000000000003</v>
+      </c>
+      <c r="M68">
+        <v>0.77725999999999995</v>
+      </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="23" t="s">
+      <c r="A69" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="B69" s="23"/>
-      <c r="C69" s="23"/>
-      <c r="D69" s="23"/>
-      <c r="E69" s="23" t="s">
+      <c r="B69" s="21"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21" t="s">
         <v>511</v>
       </c>
-      <c r="F69" s="23"/>
-      <c r="G69" s="23"/>
-      <c r="H69" s="23"/>
-      <c r="I69" s="23"/>
-      <c r="J69" s="23"/>
-      <c r="K69" s="23"/>
-      <c r="L69" s="23"/>
-      <c r="M69" s="23"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="21" t="s">
+        <v>645</v>
+      </c>
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="21"/>
+      <c r="M69" s="21"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="23" t="s">
+      <c r="A70" s="21" t="s">
         <v>543</v>
       </c>
-      <c r="B70" s="23"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="23" t="s">
+      <c r="B70" s="21"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21" t="s">
         <v>544</v>
       </c>
-      <c r="F70" s="23"/>
-      <c r="G70" s="23"/>
-      <c r="H70" s="23"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+      <c r="J70" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
@@ -28173,7 +28383,21 @@
       <c r="H71" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="I71" s="1"/>
+      <c r="I71" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="J71">
+        <v>0.68986000000000003</v>
+      </c>
+      <c r="K71">
+        <v>0.90086999999999995</v>
+      </c>
+      <c r="L71">
+        <v>0.84258999999999995</v>
+      </c>
+      <c r="M71">
+        <v>0.88200000000000001</v>
+      </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
@@ -28183,7 +28407,7 @@
         <v>0.54512000000000005</v>
       </c>
       <c r="C72">
-        <v>0.63949</v>
+        <v>0.60070999999999997</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>457</v>
@@ -28192,9 +28416,23 @@
         <v>0.43414000000000003</v>
       </c>
       <c r="G72">
-        <v>0.49814999999999998</v>
-      </c>
-      <c r="I72" s="1"/>
+        <v>0.46079999999999999</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="J72">
+        <v>0.52498</v>
+      </c>
+      <c r="K72">
+        <v>0.66027999999999998</v>
+      </c>
+      <c r="L72">
+        <v>0.70565999999999995</v>
+      </c>
+      <c r="M72">
+        <v>0.80952000000000002</v>
+      </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
@@ -28204,7 +28442,7 @@
         <v>0.74899000000000004</v>
       </c>
       <c r="C73">
-        <v>0.80676000000000003</v>
+        <v>0.82843</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>458</v>
@@ -28213,13 +28451,15 @@
         <v>0.57515000000000005</v>
       </c>
       <c r="G73">
-        <v>0.64258999999999999</v>
-      </c>
-      <c r="I73" s="23"/>
-      <c r="J73" s="23"/>
-      <c r="K73" s="23"/>
-      <c r="L73" s="23"/>
-      <c r="M73" s="23"/>
+        <v>0.63438000000000005</v>
+      </c>
+      <c r="I73" s="21" t="s">
+        <v>646</v>
+      </c>
+      <c r="J73" s="21"/>
+      <c r="K73" s="21"/>
+      <c r="L73" s="21"/>
+      <c r="M73" s="21"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
@@ -28229,7 +28469,7 @@
         <v>0.86838000000000004</v>
       </c>
       <c r="C74">
-        <v>0.89049999999999996</v>
+        <v>0.90086999999999995</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>459</v>
@@ -28238,13 +28478,20 @@
         <v>0.62158999999999998</v>
       </c>
       <c r="G74">
-        <v>0.69493000000000005</v>
-      </c>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
+        <v>0.66027999999999998</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
@@ -28254,7 +28501,7 @@
         <v>0.88729999999999998</v>
       </c>
       <c r="C75">
-        <v>0.87619000000000002</v>
+        <v>0.89161000000000001</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>460</v>
@@ -28263,9 +28510,23 @@
         <v>0.67498000000000002</v>
       </c>
       <c r="G75">
-        <v>0.70904</v>
-      </c>
-      <c r="I75" s="1"/>
+        <v>0.68117000000000005</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="J75">
+        <v>0.73472000000000004</v>
+      </c>
+      <c r="K75">
+        <v>0.89161000000000001</v>
+      </c>
+      <c r="L75">
+        <v>0.85353999999999997</v>
+      </c>
+      <c r="M75">
+        <v>0.88517000000000001</v>
+      </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
@@ -28275,7 +28536,7 @@
         <v>0.82057000000000002</v>
       </c>
       <c r="C76">
-        <v>0.91552999999999995</v>
+        <v>0.91951000000000005</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>463</v>
@@ -28284,60 +28545,89 @@
         <v>0.69708000000000003</v>
       </c>
       <c r="G76">
-        <v>0.71977000000000002</v>
-      </c>
-      <c r="I76" s="1"/>
+        <v>0.68123999999999996</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="J76">
+        <v>0.53766000000000003</v>
+      </c>
+      <c r="K76">
+        <v>0.68117000000000005</v>
+      </c>
+      <c r="L76">
+        <v>0.71672000000000002</v>
+      </c>
+      <c r="M76">
+        <v>0.81699999999999995</v>
+      </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I77" s="23"/>
-      <c r="J77" s="23"/>
-      <c r="K77" s="23"/>
-      <c r="L77" s="23"/>
-      <c r="M77" s="23"/>
+      <c r="I77" s="21" t="s">
+        <v>647</v>
+      </c>
+      <c r="J77" s="21"/>
+      <c r="K77" s="21"/>
+      <c r="L77" s="21"/>
+      <c r="M77" s="21"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
+      <c r="J78" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I79" s="1"/>
+      <c r="I79" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="J79">
+        <v>0.64758000000000004</v>
+      </c>
+      <c r="K79">
+        <v>0.91951000000000005</v>
+      </c>
+      <c r="L79">
+        <v>0.83784000000000003</v>
+      </c>
+      <c r="M79">
+        <v>0.88500999999999996</v>
+      </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I80" s="1"/>
+      <c r="I80" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="J80">
+        <v>0.51122999999999996</v>
+      </c>
+      <c r="K80">
+        <v>0.68123999999999996</v>
+      </c>
+      <c r="L80">
+        <v>0.70840000000000003</v>
+      </c>
+      <c r="M80">
+        <v>0.81506000000000001</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="I77:M77"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="G35:K35"/>
-    <mergeCell ref="G39:K39"/>
-    <mergeCell ref="G43:K43"/>
-    <mergeCell ref="G47:K47"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="I65:M65"/>
-    <mergeCell ref="I69:M69"/>
-    <mergeCell ref="I73:M73"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="E62:H62"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="E69:H69"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="E70:H70"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="E61:H61"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A37:D37"/>
+  <mergeCells count="43">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="G5:K5"/>
     <mergeCell ref="L5:P5"/>
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="B19:E19"/>
@@ -28346,11 +28636,36 @@
     <mergeCell ref="G14:K14"/>
     <mergeCell ref="G22:K22"/>
     <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="E61:H61"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="E62:H62"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="E69:H69"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="E70:H70"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="I65:M65"/>
+    <mergeCell ref="I69:M69"/>
+    <mergeCell ref="I73:M73"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="I61:M61"/>
+    <mergeCell ref="I77:M77"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="G35:K35"/>
+    <mergeCell ref="G39:K39"/>
+    <mergeCell ref="G43:K43"/>
+    <mergeCell ref="G47:K47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/plotting/617_temp.xlsx
+++ b/plotting/617_temp.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2333" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2334" uniqueCount="651">
   <si>
     <t>.\vgg_unet2_0_3_640_640_64_256_rot_15_345_4_flip_5K\training_32_49_640_640_640_640_max_val_acc\vis\vis_log_181022_0927.txt</t>
   </si>
@@ -1970,6 +1970,9 @@
   </si>
   <si>
     <t>Selective Pixel 32_49</t>
+  </si>
+  <si>
+    <t>0_31_training_32_49</t>
   </si>
 </sst>
 </file>
@@ -2111,7 +2114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2184,6 +2187,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -26547,8 +26553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27080,12 +27086,14 @@
         <v>0.88915999999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
+    <row r="17" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A17" s="33" t="s">
+        <v>650</v>
+      </c>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
       <c r="G17" s="1" t="s">
         <v>627</v>
       </c>

--- a/plotting/617_temp.xlsx
+++ b/plotting/617_temp.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2334" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2362" uniqueCount="652">
   <si>
     <t>.\vgg_unet2_0_3_640_640_64_256_rot_15_345_4_flip_5K\training_32_49_640_640_640_640_max_val_acc\vis\vis_log_181022_0927.txt</t>
   </si>
@@ -1973,6 +1973,9 @@
   </si>
   <si>
     <t>0_31_training_32_49</t>
+  </si>
+  <si>
+    <t>Xception65</t>
   </si>
 </sst>
 </file>
@@ -2114,7 +2117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2146,25 +2149,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2176,11 +2161,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2190,6 +2193,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13163,17 +13169,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A293:E293"/>
+    <mergeCell ref="A231:E231"/>
+    <mergeCell ref="A192:E192"/>
+    <mergeCell ref="A71:E71"/>
+    <mergeCell ref="A155:E155"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A52:E52"/>
     <mergeCell ref="A100:E100"/>
     <mergeCell ref="A118:E118"/>
     <mergeCell ref="A137:E137"/>
     <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A293:E293"/>
-    <mergeCell ref="A231:E231"/>
-    <mergeCell ref="A192:E192"/>
-    <mergeCell ref="A71:E71"/>
-    <mergeCell ref="A155:E155"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
@@ -13759,13 +13765,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>413</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -13879,22 +13885,22 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="23" t="s">
         <v>420</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="23" t="s">
         <v>421</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -14047,14 +14053,14 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="23" t="s">
         <v>413</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
       <c r="J17">
         <v>0.67832000000000003</v>
       </c>
@@ -14069,14 +14075,14 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="23" t="s">
         <v>444</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -14287,14 +14293,14 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="28" t="s">
         <v>420</v>
       </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
       <c r="J24">
         <v>0.43318000000000001</v>
       </c>
@@ -14321,14 +14327,14 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="23" t="s">
         <v>445</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -14505,46 +14511,46 @@
       </c>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="AA33" s="21" t="s">
+      <c r="AA33" s="23" t="s">
         <v>567</v>
       </c>
-      <c r="AB33" s="21"/>
-      <c r="AC33" s="21"/>
-      <c r="AD33" s="21"/>
+      <c r="AB33" s="23"/>
+      <c r="AC33" s="23"/>
+      <c r="AD33" s="23"/>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="23" t="s">
         <v>413</v>
       </c>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="H34" s="21" t="s">
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="H34" s="23" t="s">
         <v>434</v>
       </c>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="O34" s="21" t="s">
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="O34" s="23" t="s">
         <v>434</v>
       </c>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
-      <c r="R34" s="21"/>
-      <c r="S34" s="21"/>
-      <c r="T34" s="21"/>
-      <c r="U34" s="21"/>
-      <c r="V34" s="21" t="s">
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="W34" s="21"/>
-      <c r="X34" s="21"/>
-      <c r="Y34" s="21"/>
-      <c r="Z34" s="21"/>
+      <c r="W34" s="23"/>
+      <c r="X34" s="23"/>
+      <c r="Y34" s="23"/>
+      <c r="Z34" s="23"/>
       <c r="AA34" t="s">
         <v>327</v>
       </c>
@@ -14559,38 +14565,38 @@
       </c>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="23" t="s">
         <v>432</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="H35" s="21" t="s">
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="H35" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="O35" s="21" t="s">
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="O35" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="21"/>
-      <c r="R35" s="21"/>
-      <c r="S35" s="21"/>
-      <c r="T35" s="21"/>
-      <c r="U35" s="21"/>
-      <c r="V35" s="21" t="s">
+      <c r="P35" s="23"/>
+      <c r="Q35" s="23"/>
+      <c r="R35" s="23"/>
+      <c r="S35" s="23"/>
+      <c r="T35" s="23"/>
+      <c r="U35" s="23"/>
+      <c r="V35" s="23" t="s">
         <v>513</v>
       </c>
-      <c r="W35" s="21"/>
-      <c r="X35" s="21"/>
-      <c r="Y35" s="21"/>
-      <c r="Z35" s="21"/>
+      <c r="W35" s="23"/>
+      <c r="X35" s="23"/>
+      <c r="Y35" s="23"/>
+      <c r="Z35" s="23"/>
       <c r="AA35">
         <v>0.88705000000000001</v>
       </c>
@@ -15009,22 +15015,22 @@
       <c r="Z40">
         <v>0.70833999999999997</v>
       </c>
-      <c r="AA40" s="21" t="s">
+      <c r="AA40" s="23" t="s">
         <v>566</v>
       </c>
-      <c r="AB40" s="21"/>
-      <c r="AC40" s="21"/>
-      <c r="AD40" s="21"/>
+      <c r="AB40" s="23"/>
+      <c r="AC40" s="23"/>
+      <c r="AD40" s="23"/>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="23" t="s">
         <v>424</v>
       </c>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
       <c r="H41" s="1" t="s">
         <v>416</v>
       </c>
@@ -15093,14 +15099,14 @@
       </c>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="23" t="s">
         <v>433</v>
       </c>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
       <c r="H42" s="1" t="s">
         <v>417</v>
       </c>
@@ -15119,22 +15125,22 @@
       <c r="M42">
         <v>0.63066</v>
       </c>
-      <c r="O42" s="21" t="s">
+      <c r="O42" s="23" t="s">
         <v>434</v>
       </c>
-      <c r="P42" s="21"/>
-      <c r="Q42" s="21"/>
-      <c r="R42" s="21"/>
-      <c r="S42" s="21"/>
-      <c r="T42" s="21"/>
-      <c r="U42" s="21"/>
-      <c r="V42" s="21" t="s">
+      <c r="P42" s="23"/>
+      <c r="Q42" s="23"/>
+      <c r="R42" s="23"/>
+      <c r="S42" s="23"/>
+      <c r="T42" s="23"/>
+      <c r="U42" s="23"/>
+      <c r="V42" s="23" t="s">
         <v>511</v>
       </c>
-      <c r="W42" s="21"/>
-      <c r="X42" s="21"/>
-      <c r="Y42" s="21"/>
-      <c r="Z42" s="21"/>
+      <c r="W42" s="23"/>
+      <c r="X42" s="23"/>
+      <c r="Y42" s="23"/>
+      <c r="Z42" s="23"/>
       <c r="AA42">
         <v>0.87365000000000004</v>
       </c>
@@ -15185,22 +15191,22 @@
       <c r="M43">
         <v>0.65837000000000001</v>
       </c>
-      <c r="O43" s="21" t="s">
+      <c r="O43" s="23" t="s">
         <v>442</v>
       </c>
-      <c r="P43" s="21"/>
-      <c r="Q43" s="21"/>
-      <c r="R43" s="21"/>
-      <c r="S43" s="21"/>
-      <c r="T43" s="21"/>
-      <c r="U43" s="21"/>
-      <c r="V43" s="21" t="s">
+      <c r="P43" s="23"/>
+      <c r="Q43" s="23"/>
+      <c r="R43" s="23"/>
+      <c r="S43" s="23"/>
+      <c r="T43" s="23"/>
+      <c r="U43" s="23"/>
+      <c r="V43" s="23" t="s">
         <v>514</v>
       </c>
-      <c r="W43" s="21"/>
-      <c r="X43" s="21"/>
-      <c r="Y43" s="21"/>
-      <c r="Z43" s="21"/>
+      <c r="W43" s="23"/>
+      <c r="X43" s="23"/>
+      <c r="Y43" s="23"/>
+      <c r="Z43" s="23"/>
       <c r="AA43" t="s">
         <v>331</v>
       </c>
@@ -15483,21 +15489,21 @@
       <c r="Z47">
         <v>0.47498000000000001</v>
       </c>
-      <c r="AA47" s="21" t="s">
+      <c r="AA47" s="23" t="s">
         <v>565</v>
       </c>
-      <c r="AB47" s="21"/>
-      <c r="AC47" s="21"/>
-      <c r="AD47" s="21"/>
+      <c r="AB47" s="23"/>
+      <c r="AC47" s="23"/>
+      <c r="AD47" s="23"/>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="23" t="s">
         <v>506</v>
       </c>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
       <c r="F48" s="2"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
@@ -15551,13 +15557,13 @@
       </c>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="23" t="s">
         <v>505</v>
       </c>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
       <c r="O49" s="1" t="s">
         <v>437</v>
       </c>
@@ -15623,22 +15629,22 @@
       <c r="E50" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="O50" s="21" t="s">
+      <c r="O50" s="23" t="s">
         <v>434</v>
       </c>
-      <c r="P50" s="21"/>
-      <c r="Q50" s="21"/>
-      <c r="R50" s="21"/>
-      <c r="S50" s="21"/>
-      <c r="T50" s="21"/>
-      <c r="U50" s="21"/>
-      <c r="V50" s="21" t="s">
+      <c r="P50" s="23"/>
+      <c r="Q50" s="23"/>
+      <c r="R50" s="23"/>
+      <c r="S50" s="23"/>
+      <c r="T50" s="23"/>
+      <c r="U50" s="23"/>
+      <c r="V50" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="W50" s="21"/>
-      <c r="X50" s="21"/>
-      <c r="Y50" s="21"/>
-      <c r="Z50" s="21"/>
+      <c r="W50" s="23"/>
+      <c r="X50" s="23"/>
+      <c r="Y50" s="23"/>
+      <c r="Z50" s="23"/>
       <c r="AA50" t="s">
         <v>331</v>
       </c>
@@ -15665,22 +15671,22 @@
       <c r="E51">
         <v>0.63066</v>
       </c>
-      <c r="O51" s="21" t="s">
+      <c r="O51" s="23" t="s">
         <v>446</v>
       </c>
-      <c r="P51" s="21"/>
-      <c r="Q51" s="21"/>
-      <c r="R51" s="21"/>
-      <c r="S51" s="21"/>
-      <c r="T51" s="21"/>
-      <c r="U51" s="21"/>
-      <c r="V51" s="21" t="s">
+      <c r="P51" s="23"/>
+      <c r="Q51" s="23"/>
+      <c r="R51" s="23"/>
+      <c r="S51" s="23"/>
+      <c r="T51" s="23"/>
+      <c r="U51" s="23"/>
+      <c r="V51" s="23" t="s">
         <v>515</v>
       </c>
-      <c r="W51" s="21"/>
-      <c r="X51" s="21"/>
-      <c r="Y51" s="21"/>
-      <c r="Z51" s="21"/>
+      <c r="W51" s="23"/>
+      <c r="X51" s="23"/>
+      <c r="Y51" s="23"/>
+      <c r="Z51" s="23"/>
       <c r="AA51">
         <v>0.77363000000000004</v>
       </c>
@@ -15922,20 +15928,20 @@
       </c>
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21" t="s">
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23" t="s">
         <v>511</v>
       </c>
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="23"/>
       <c r="O56" s="1" t="s">
         <v>438</v>
       </c>
@@ -15974,20 +15980,20 @@
       </c>
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A57" s="21" t="s">
+      <c r="A57" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21" t="s">
+      <c r="B57" s="23"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23" t="s">
         <v>512</v>
       </c>
-      <c r="G57" s="21"/>
-      <c r="H57" s="21"/>
-      <c r="I57" s="21"/>
-      <c r="J57" s="21"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="23"/>
       <c r="O57" s="1" t="s">
         <v>437</v>
       </c>
@@ -16056,22 +16062,22 @@
       <c r="J58" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="O58" s="21" t="s">
+      <c r="O58" s="23" t="s">
         <v>434</v>
       </c>
-      <c r="P58" s="21"/>
-      <c r="Q58" s="21"/>
-      <c r="R58" s="21"/>
-      <c r="S58" s="21"/>
-      <c r="T58" s="21"/>
-      <c r="U58" s="21"/>
-      <c r="V58" s="21" t="s">
+      <c r="P58" s="23"/>
+      <c r="Q58" s="23"/>
+      <c r="R58" s="23"/>
+      <c r="S58" s="23"/>
+      <c r="T58" s="23"/>
+      <c r="U58" s="23"/>
+      <c r="V58" s="23" t="s">
         <v>511</v>
       </c>
-      <c r="W58" s="21"/>
-      <c r="X58" s="21"/>
-      <c r="Y58" s="21"/>
-      <c r="Z58" s="21"/>
+      <c r="W58" s="23"/>
+      <c r="X58" s="23"/>
+      <c r="Y58" s="23"/>
+      <c r="Z58" s="23"/>
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
@@ -16104,22 +16110,22 @@
       <c r="J59">
         <v>0.76844000000000001</v>
       </c>
-      <c r="O59" s="21" t="s">
+      <c r="O59" s="23" t="s">
         <v>447</v>
       </c>
-      <c r="P59" s="21"/>
-      <c r="Q59" s="21"/>
-      <c r="R59" s="21"/>
-      <c r="S59" s="21"/>
-      <c r="T59" s="21"/>
-      <c r="U59" s="21"/>
-      <c r="V59" s="21" t="s">
+      <c r="P59" s="23"/>
+      <c r="Q59" s="23"/>
+      <c r="R59" s="23"/>
+      <c r="S59" s="23"/>
+      <c r="T59" s="23"/>
+      <c r="U59" s="23"/>
+      <c r="V59" s="23" t="s">
         <v>544</v>
       </c>
-      <c r="W59" s="21"/>
-      <c r="X59" s="21"/>
-      <c r="Y59" s="21"/>
-      <c r="Z59" s="21"/>
+      <c r="W59" s="23"/>
+      <c r="X59" s="23"/>
+      <c r="Y59" s="23"/>
+      <c r="Z59" s="23"/>
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
@@ -16432,10 +16438,10 @@
       </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A65" s="21" t="s">
+      <c r="A65" s="23" t="s">
         <v>413</v>
       </c>
-      <c r="B65" s="21" t="s">
+      <c r="B65" s="23" t="s">
         <v>444</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -16491,8 +16497,8 @@
       </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A66" s="21"/>
-      <c r="B66" s="21"/>
+      <c r="A66" s="23"/>
+      <c r="B66" s="23"/>
       <c r="C66" s="1" t="s">
         <v>412</v>
       </c>
@@ -16508,19 +16514,19 @@
       <c r="G66">
         <v>0.84930000000000005</v>
       </c>
-      <c r="O66" s="21" t="s">
+      <c r="O66" s="23" t="s">
         <v>434</v>
       </c>
-      <c r="P66" s="21"/>
-      <c r="Q66" s="21"/>
-      <c r="R66" s="21"/>
-      <c r="S66" s="21"/>
-      <c r="T66" s="21"/>
-      <c r="U66" s="21"/>
+      <c r="P66" s="23"/>
+      <c r="Q66" s="23"/>
+      <c r="R66" s="23"/>
+      <c r="S66" s="23"/>
+      <c r="T66" s="23"/>
+      <c r="U66" s="23"/>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A67" s="21"/>
-      <c r="B67" s="21"/>
+      <c r="A67" s="23"/>
+      <c r="B67" s="23"/>
       <c r="C67" s="1" t="s">
         <v>405</v>
       </c>
@@ -16536,19 +16542,19 @@
       <c r="G67">
         <v>0.90871000000000002</v>
       </c>
-      <c r="O67" s="21" t="s">
+      <c r="O67" s="23" t="s">
         <v>448</v>
       </c>
-      <c r="P67" s="21"/>
-      <c r="Q67" s="21"/>
-      <c r="R67" s="21"/>
-      <c r="S67" s="21"/>
-      <c r="T67" s="21"/>
-      <c r="U67" s="21"/>
+      <c r="P67" s="23"/>
+      <c r="Q67" s="23"/>
+      <c r="R67" s="23"/>
+      <c r="S67" s="23"/>
+      <c r="T67" s="23"/>
+      <c r="U67" s="23"/>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A68" s="21"/>
-      <c r="B68" s="21"/>
+      <c r="A68" s="23"/>
+      <c r="B68" s="23"/>
       <c r="C68" s="1" t="s">
         <v>404</v>
       </c>
@@ -16587,8 +16593,8 @@
       </c>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A69" s="21"/>
-      <c r="B69" s="21"/>
+      <c r="A69" s="23"/>
+      <c r="B69" s="23"/>
       <c r="C69" s="1" t="s">
         <v>406</v>
       </c>
@@ -16627,8 +16633,8 @@
       </c>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A70" s="21"/>
-      <c r="B70" s="21"/>
+      <c r="A70" s="23"/>
+      <c r="B70" s="23"/>
       <c r="C70" s="1" t="s">
         <v>403</v>
       </c>
@@ -16667,10 +16673,10 @@
       </c>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A71" s="24" t="s">
+      <c r="A71" s="28" t="s">
         <v>420</v>
       </c>
-      <c r="B71" s="21" t="s">
+      <c r="B71" s="23" t="s">
         <v>445</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -16711,8 +16717,8 @@
       </c>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A72" s="21"/>
-      <c r="B72" s="21"/>
+      <c r="A72" s="23"/>
+      <c r="B72" s="23"/>
       <c r="C72" s="1" t="s">
         <v>412</v>
       </c>
@@ -16751,8 +16757,8 @@
       </c>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A73" s="21"/>
-      <c r="B73" s="21"/>
+      <c r="A73" s="23"/>
+      <c r="B73" s="23"/>
       <c r="C73" s="1" t="s">
         <v>405</v>
       </c>
@@ -16791,8 +16797,8 @@
       </c>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A74" s="21"/>
-      <c r="B74" s="21"/>
+      <c r="A74" s="23"/>
+      <c r="B74" s="23"/>
       <c r="C74" s="1" t="s">
         <v>404</v>
       </c>
@@ -16808,19 +16814,19 @@
       <c r="G74">
         <v>0.81733</v>
       </c>
-      <c r="O74" s="21" t="s">
+      <c r="O74" s="23" t="s">
         <v>434</v>
       </c>
-      <c r="P74" s="21"/>
-      <c r="Q74" s="21"/>
-      <c r="R74" s="21"/>
-      <c r="S74" s="21"/>
-      <c r="T74" s="21"/>
-      <c r="U74" s="21"/>
+      <c r="P74" s="23"/>
+      <c r="Q74" s="23"/>
+      <c r="R74" s="23"/>
+      <c r="S74" s="23"/>
+      <c r="T74" s="23"/>
+      <c r="U74" s="23"/>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A75" s="21"/>
-      <c r="B75" s="21"/>
+      <c r="A75" s="23"/>
+      <c r="B75" s="23"/>
       <c r="C75" s="1" t="s">
         <v>406</v>
       </c>
@@ -16836,19 +16842,19 @@
       <c r="G75">
         <v>0.77490000000000003</v>
       </c>
-      <c r="O75" s="21" t="s">
+      <c r="O75" s="23" t="s">
         <v>449</v>
       </c>
-      <c r="P75" s="21"/>
-      <c r="Q75" s="21"/>
-      <c r="R75" s="21"/>
-      <c r="S75" s="21"/>
-      <c r="T75" s="21"/>
-      <c r="U75" s="21"/>
+      <c r="P75" s="23"/>
+      <c r="Q75" s="23"/>
+      <c r="R75" s="23"/>
+      <c r="S75" s="23"/>
+      <c r="T75" s="23"/>
+      <c r="U75" s="23"/>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A76" s="21"/>
-      <c r="B76" s="21"/>
+      <c r="A76" s="23"/>
+      <c r="B76" s="23"/>
       <c r="C76" s="1" t="s">
         <v>403</v>
       </c>
@@ -16887,22 +16893,22 @@
       </c>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A77" s="21" t="s">
+      <c r="A77" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="B77" s="21"/>
-      <c r="C77" s="21"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="21" t="s">
+      <c r="B77" s="23"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="23" t="s">
         <v>511</v>
       </c>
-      <c r="H77" s="21"/>
-      <c r="I77" s="21"/>
-      <c r="J77" s="21"/>
-      <c r="K77" s="21"/>
-      <c r="L77" s="21"/>
+      <c r="H77" s="23"/>
+      <c r="I77" s="23"/>
+      <c r="J77" s="23"/>
+      <c r="K77" s="23"/>
+      <c r="L77" s="23"/>
       <c r="O77" t="s">
         <v>436</v>
       </c>
@@ -16926,22 +16932,22 @@
       </c>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A78" s="21" t="s">
+      <c r="A78" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="B78" s="21"/>
-      <c r="C78" s="21"/>
-      <c r="D78" s="21"/>
-      <c r="E78" s="21"/>
-      <c r="F78" s="21"/>
-      <c r="G78" s="21" t="s">
+      <c r="B78" s="23"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="23" t="s">
         <v>512</v>
       </c>
-      <c r="H78" s="21"/>
-      <c r="I78" s="21"/>
-      <c r="J78" s="21"/>
-      <c r="K78" s="21"/>
-      <c r="L78" s="21"/>
+      <c r="H78" s="23"/>
+      <c r="I78" s="23"/>
+      <c r="J78" s="23"/>
+      <c r="K78" s="23"/>
+      <c r="L78" s="23"/>
       <c r="O78" t="s">
         <v>440</v>
       </c>
@@ -17218,33 +17224,33 @@
       </c>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B84" s="21" t="s">
+      <c r="B84" s="23" t="s">
         <v>523</v>
       </c>
-      <c r="C84" s="21"/>
-      <c r="D84" s="21"/>
-      <c r="E84" s="21"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="23"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
-      <c r="P84" s="21" t="s">
+      <c r="P84" s="23" t="s">
         <v>434</v>
       </c>
-      <c r="Q84" s="21"/>
-      <c r="R84" s="21"/>
-      <c r="S84" s="21"/>
-      <c r="T84" s="21"/>
-      <c r="U84" s="21"/>
-      <c r="V84" s="21"/>
-      <c r="W84" s="21"/>
-      <c r="X84" s="21"/>
+      <c r="Q84" s="23"/>
+      <c r="R84" s="23"/>
+      <c r="S84" s="23"/>
+      <c r="T84" s="23"/>
+      <c r="U84" s="23"/>
+      <c r="V84" s="23"/>
+      <c r="W84" s="23"/>
+      <c r="X84" s="23"/>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B85" s="21" t="s">
+      <c r="B85" s="23" t="s">
         <v>545</v>
       </c>
-      <c r="C85" s="21"/>
-      <c r="D85" s="21"/>
-      <c r="E85" s="21"/>
+      <c r="C85" s="23"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="23"/>
       <c r="F85" s="1" t="s">
         <v>522</v>
       </c>
@@ -17260,17 +17266,17 @@
       <c r="J85" t="s">
         <v>528</v>
       </c>
-      <c r="P85" s="21" t="s">
+      <c r="P85" s="23" t="s">
         <v>454</v>
       </c>
-      <c r="Q85" s="21"/>
-      <c r="R85" s="21"/>
-      <c r="S85" s="21"/>
-      <c r="T85" s="21"/>
-      <c r="U85" s="21"/>
-      <c r="V85" s="21"/>
-      <c r="W85" s="21"/>
-      <c r="X85" s="21"/>
+      <c r="Q85" s="23"/>
+      <c r="R85" s="23"/>
+      <c r="S85" s="23"/>
+      <c r="T85" s="23"/>
+      <c r="U85" s="23"/>
+      <c r="V85" s="23"/>
+      <c r="W85" s="23"/>
+      <c r="X85" s="23"/>
     </row>
     <row r="86" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
@@ -17612,54 +17618,54 @@
       </c>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B92" s="21" t="s">
+      <c r="B92" s="23" t="s">
         <v>523</v>
       </c>
-      <c r="C92" s="21"/>
-      <c r="D92" s="21"/>
-      <c r="E92" s="21"/>
-      <c r="F92" s="21" t="s">
+      <c r="C92" s="23"/>
+      <c r="D92" s="23"/>
+      <c r="E92" s="23"/>
+      <c r="F92" s="23" t="s">
         <v>523</v>
       </c>
-      <c r="G92" s="21"/>
-      <c r="H92" s="21"/>
-      <c r="I92" s="21"/>
-      <c r="P92" s="21" t="s">
+      <c r="G92" s="23"/>
+      <c r="H92" s="23"/>
+      <c r="I92" s="23"/>
+      <c r="P92" s="23" t="s">
         <v>434</v>
       </c>
-      <c r="Q92" s="21"/>
-      <c r="R92" s="21"/>
-      <c r="S92" s="21"/>
-      <c r="T92" s="21"/>
-      <c r="U92" s="21"/>
-      <c r="V92" s="21"/>
-      <c r="W92" s="21"/>
-      <c r="X92" s="21"/>
+      <c r="Q92" s="23"/>
+      <c r="R92" s="23"/>
+      <c r="S92" s="23"/>
+      <c r="T92" s="23"/>
+      <c r="U92" s="23"/>
+      <c r="V92" s="23"/>
+      <c r="W92" s="23"/>
+      <c r="X92" s="23"/>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B93" s="21" t="s">
+      <c r="B93" s="23" t="s">
         <v>546</v>
       </c>
-      <c r="C93" s="21"/>
-      <c r="D93" s="21"/>
-      <c r="E93" s="21"/>
-      <c r="F93" s="21" t="s">
+      <c r="C93" s="23"/>
+      <c r="D93" s="23"/>
+      <c r="E93" s="23"/>
+      <c r="F93" s="23" t="s">
         <v>548</v>
       </c>
-      <c r="G93" s="21"/>
-      <c r="H93" s="21"/>
-      <c r="I93" s="21"/>
-      <c r="P93" s="21" t="s">
+      <c r="G93" s="23"/>
+      <c r="H93" s="23"/>
+      <c r="I93" s="23"/>
+      <c r="P93" s="23" t="s">
         <v>462</v>
       </c>
-      <c r="Q93" s="21"/>
-      <c r="R93" s="21"/>
-      <c r="S93" s="21"/>
-      <c r="T93" s="21"/>
-      <c r="U93" s="21"/>
-      <c r="V93" s="21"/>
-      <c r="W93" s="21"/>
-      <c r="X93" s="21"/>
+      <c r="Q93" s="23"/>
+      <c r="R93" s="23"/>
+      <c r="S93" s="23"/>
+      <c r="T93" s="23"/>
+      <c r="U93" s="23"/>
+      <c r="V93" s="23"/>
+      <c r="W93" s="23"/>
+      <c r="X93" s="23"/>
     </row>
     <row r="94" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
@@ -18019,12 +18025,12 @@
       <c r="A100" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="B100" s="21" t="s">
+      <c r="B100" s="23" t="s">
         <v>523</v>
       </c>
-      <c r="C100" s="21"/>
-      <c r="D100" s="21"/>
-      <c r="E100" s="21"/>
+      <c r="C100" s="23"/>
+      <c r="D100" s="23"/>
+      <c r="E100" s="23"/>
       <c r="F100" s="1" t="s">
         <v>554</v>
       </c>
@@ -18040,26 +18046,26 @@
       <c r="J100">
         <v>0.77887333098497002</v>
       </c>
-      <c r="P100" s="21" t="s">
+      <c r="P100" s="23" t="s">
         <v>434</v>
       </c>
-      <c r="Q100" s="21"/>
-      <c r="R100" s="21"/>
-      <c r="S100" s="21"/>
-      <c r="T100" s="21"/>
-      <c r="U100" s="21"/>
-      <c r="V100" s="21"/>
-      <c r="W100" s="21"/>
-      <c r="X100" s="21"/>
+      <c r="Q100" s="23"/>
+      <c r="R100" s="23"/>
+      <c r="S100" s="23"/>
+      <c r="T100" s="23"/>
+      <c r="U100" s="23"/>
+      <c r="V100" s="23"/>
+      <c r="W100" s="23"/>
+      <c r="X100" s="23"/>
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
-      <c r="B101" s="21" t="s">
+      <c r="B101" s="23" t="s">
         <v>547</v>
       </c>
-      <c r="C101" s="21"/>
-      <c r="D101" s="21"/>
-      <c r="E101" s="21"/>
+      <c r="C101" s="23"/>
+      <c r="D101" s="23"/>
+      <c r="E101" s="23"/>
       <c r="F101" s="1" t="s">
         <v>555</v>
       </c>
@@ -18075,17 +18081,17 @@
       <c r="J101">
         <v>1.27434722297322</v>
       </c>
-      <c r="P101" s="21" t="s">
+      <c r="P101" s="23" t="s">
         <v>455</v>
       </c>
-      <c r="Q101" s="21"/>
-      <c r="R101" s="21"/>
-      <c r="S101" s="21"/>
-      <c r="T101" s="21"/>
-      <c r="U101" s="21"/>
-      <c r="V101" s="21"/>
-      <c r="W101" s="21"/>
-      <c r="X101" s="21"/>
+      <c r="Q101" s="23"/>
+      <c r="R101" s="23"/>
+      <c r="S101" s="23"/>
+      <c r="T101" s="23"/>
+      <c r="U101" s="23"/>
+      <c r="V101" s="23"/>
+      <c r="W101" s="23"/>
+      <c r="X101" s="23"/>
     </row>
     <row r="102" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
@@ -18385,49 +18391,49 @@
       <c r="B108" s="1"/>
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A109" s="21" t="s">
+      <c r="A109" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="B109" s="21"/>
-      <c r="C109" s="21"/>
-      <c r="D109" s="21"/>
-      <c r="E109" s="21"/>
-      <c r="F109" s="21"/>
-      <c r="G109" s="21" t="s">
+      <c r="B109" s="23"/>
+      <c r="C109" s="23"/>
+      <c r="D109" s="23"/>
+      <c r="E109" s="23"/>
+      <c r="F109" s="23"/>
+      <c r="G109" s="23" t="s">
         <v>511</v>
       </c>
-      <c r="H109" s="21"/>
-      <c r="I109" s="21"/>
-      <c r="J109" s="21"/>
-      <c r="K109" s="21"/>
-      <c r="L109" s="21"/>
+      <c r="H109" s="23"/>
+      <c r="I109" s="23"/>
+      <c r="J109" s="23"/>
+      <c r="K109" s="23"/>
+      <c r="L109" s="23"/>
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A110" s="21" t="s">
+      <c r="A110" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="B110" s="21"/>
-      <c r="C110" s="21"/>
-      <c r="D110" s="21"/>
-      <c r="E110" s="21"/>
-      <c r="F110" s="21"/>
-      <c r="G110" s="21" t="s">
+      <c r="B110" s="23"/>
+      <c r="C110" s="23"/>
+      <c r="D110" s="23"/>
+      <c r="E110" s="23"/>
+      <c r="F110" s="23"/>
+      <c r="G110" s="23" t="s">
         <v>512</v>
       </c>
-      <c r="H110" s="21"/>
-      <c r="I110" s="21"/>
-      <c r="J110" s="21"/>
-      <c r="K110" s="21"/>
-      <c r="L110" s="21"/>
-      <c r="O110" s="21" t="s">
+      <c r="H110" s="23"/>
+      <c r="I110" s="23"/>
+      <c r="J110" s="23"/>
+      <c r="K110" s="23"/>
+      <c r="L110" s="23"/>
+      <c r="O110" s="23" t="s">
         <v>434</v>
       </c>
-      <c r="P110" s="21"/>
-      <c r="Q110" s="21"/>
-      <c r="R110" s="21"/>
-      <c r="S110" s="21"/>
-      <c r="T110" s="21"/>
-      <c r="U110" s="21"/>
+      <c r="P110" s="23"/>
+      <c r="Q110" s="23"/>
+      <c r="R110" s="23"/>
+      <c r="S110" s="23"/>
+      <c r="T110" s="23"/>
+      <c r="U110" s="23"/>
       <c r="V110" s="2"/>
       <c r="W110" s="2"/>
     </row>
@@ -18468,15 +18474,15 @@
       <c r="L111" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="O111" s="21" t="s">
+      <c r="O111" s="23" t="s">
         <v>456</v>
       </c>
-      <c r="P111" s="21"/>
-      <c r="Q111" s="21"/>
-      <c r="R111" s="21"/>
-      <c r="S111" s="21"/>
-      <c r="T111" s="21"/>
-      <c r="U111" s="21"/>
+      <c r="P111" s="23"/>
+      <c r="Q111" s="23"/>
+      <c r="R111" s="23"/>
+      <c r="S111" s="23"/>
+      <c r="T111" s="23"/>
+      <c r="U111" s="23"/>
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
@@ -18764,59 +18770,59 @@
       <c r="A118" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="B118" s="26" t="s">
+      <c r="B118" s="20" t="s">
         <v>522</v>
       </c>
-      <c r="C118" s="27"/>
-      <c r="D118" s="27"/>
-      <c r="E118" s="27"/>
-      <c r="F118" s="28"/>
+      <c r="C118" s="21"/>
+      <c r="D118" s="21"/>
+      <c r="E118" s="21"/>
+      <c r="F118" s="22"/>
       <c r="G118" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="H118" s="22" t="s">
+      <c r="H118" s="25" t="s">
         <v>522</v>
       </c>
-      <c r="I118" s="25"/>
-      <c r="J118" s="25"/>
-      <c r="K118" s="25"/>
-      <c r="L118" s="23"/>
-      <c r="O118" s="21" t="s">
+      <c r="I118" s="27"/>
+      <c r="J118" s="27"/>
+      <c r="K118" s="27"/>
+      <c r="L118" s="26"/>
+      <c r="O118" s="23" t="s">
         <v>434</v>
       </c>
-      <c r="P118" s="21"/>
-      <c r="Q118" s="21"/>
-      <c r="R118" s="21"/>
-      <c r="S118" s="21"/>
-      <c r="T118" s="21"/>
-      <c r="U118" s="21"/>
+      <c r="P118" s="23"/>
+      <c r="Q118" s="23"/>
+      <c r="R118" s="23"/>
+      <c r="S118" s="23"/>
+      <c r="T118" s="23"/>
+      <c r="U118" s="23"/>
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A119" s="26" t="s">
+      <c r="A119" s="20" t="s">
         <v>533</v>
       </c>
-      <c r="B119" s="27"/>
-      <c r="C119" s="27"/>
-      <c r="D119" s="27"/>
-      <c r="E119" s="27"/>
-      <c r="F119" s="28"/>
-      <c r="G119" s="26" t="s">
+      <c r="B119" s="21"/>
+      <c r="C119" s="21"/>
+      <c r="D119" s="21"/>
+      <c r="E119" s="21"/>
+      <c r="F119" s="22"/>
+      <c r="G119" s="20" t="s">
         <v>538</v>
       </c>
-      <c r="H119" s="27"/>
-      <c r="I119" s="27"/>
-      <c r="J119" s="27"/>
-      <c r="K119" s="27"/>
-      <c r="L119" s="28"/>
-      <c r="O119" s="21" t="s">
+      <c r="H119" s="21"/>
+      <c r="I119" s="21"/>
+      <c r="J119" s="21"/>
+      <c r="K119" s="21"/>
+      <c r="L119" s="22"/>
+      <c r="O119" s="23" t="s">
         <v>461</v>
       </c>
-      <c r="P119" s="21"/>
-      <c r="Q119" s="21"/>
-      <c r="R119" s="21"/>
-      <c r="S119" s="21"/>
-      <c r="T119" s="21"/>
-      <c r="U119" s="21"/>
+      <c r="P119" s="23"/>
+      <c r="Q119" s="23"/>
+      <c r="R119" s="23"/>
+      <c r="S119" s="23"/>
+      <c r="T119" s="23"/>
+      <c r="U119" s="23"/>
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
@@ -18840,15 +18846,15 @@
       <c r="G120" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="H120" s="29">
+      <c r="H120" s="24">
         <v>1</v>
       </c>
-      <c r="I120" s="29"/>
-      <c r="J120" s="29"/>
-      <c r="K120" s="29">
+      <c r="I120" s="24"/>
+      <c r="J120" s="24"/>
+      <c r="K120" s="24">
         <v>2</v>
       </c>
-      <c r="L120" s="29"/>
+      <c r="L120" s="24"/>
       <c r="O120" s="1" t="s">
         <v>472</v>
       </c>
@@ -18893,15 +18899,15 @@
       <c r="G121" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="H121" s="29">
+      <c r="H121" s="24">
         <v>1</v>
       </c>
-      <c r="I121" s="29"/>
-      <c r="J121" s="29"/>
-      <c r="K121" s="29">
+      <c r="I121" s="24"/>
+      <c r="J121" s="24"/>
+      <c r="K121" s="24">
         <v>2</v>
       </c>
-      <c r="L121" s="29"/>
+      <c r="L121" s="24"/>
       <c r="O121" s="1" t="s">
         <v>457</v>
       </c>
@@ -18946,15 +18952,15 @@
       <c r="G122" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="H122" s="29">
+      <c r="H122" s="24">
         <v>1</v>
       </c>
-      <c r="I122" s="29"/>
-      <c r="J122" s="29"/>
-      <c r="K122" s="29">
+      <c r="I122" s="24"/>
+      <c r="J122" s="24"/>
+      <c r="K122" s="24">
         <v>2</v>
       </c>
-      <c r="L122" s="29"/>
+      <c r="L122" s="24"/>
       <c r="O122" s="1" t="s">
         <v>458</v>
       </c>
@@ -18978,22 +18984,22 @@
       </c>
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A123" s="26" t="s">
+      <c r="A123" s="20" t="s">
         <v>412</v>
       </c>
-      <c r="B123" s="27"/>
-      <c r="C123" s="27"/>
-      <c r="D123" s="27"/>
-      <c r="E123" s="27"/>
-      <c r="F123" s="28"/>
-      <c r="G123" s="26" t="s">
+      <c r="B123" s="21"/>
+      <c r="C123" s="21"/>
+      <c r="D123" s="21"/>
+      <c r="E123" s="21"/>
+      <c r="F123" s="22"/>
+      <c r="G123" s="20" t="s">
         <v>537</v>
       </c>
-      <c r="H123" s="27"/>
-      <c r="I123" s="27"/>
-      <c r="J123" s="27"/>
-      <c r="K123" s="27"/>
-      <c r="L123" s="28"/>
+      <c r="H123" s="21"/>
+      <c r="I123" s="21"/>
+      <c r="J123" s="21"/>
+      <c r="K123" s="21"/>
+      <c r="L123" s="22"/>
       <c r="O123" s="1" t="s">
         <v>459</v>
       </c>
@@ -19023,14 +19029,14 @@
       <c r="B124" s="7">
         <v>1</v>
       </c>
-      <c r="C124" s="29">
+      <c r="C124" s="24">
         <v>2</v>
       </c>
-      <c r="D124" s="29"/>
-      <c r="E124" s="22">
+      <c r="D124" s="24"/>
+      <c r="E124" s="25">
         <v>3</v>
       </c>
-      <c r="F124" s="23"/>
+      <c r="F124" s="26"/>
       <c r="G124" s="6" t="s">
         <v>406</v>
       </c>
@@ -19084,10 +19090,10 @@
       <c r="D125" s="7">
         <v>3</v>
       </c>
-      <c r="E125" s="22">
+      <c r="E125" s="25">
         <v>4</v>
       </c>
-      <c r="F125" s="23"/>
+      <c r="F125" s="26"/>
       <c r="G125" s="6" t="s">
         <v>405</v>
       </c>
@@ -19129,32 +19135,32 @@
       </c>
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="O126" s="21" t="s">
+      <c r="O126" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="P126" s="21"/>
-      <c r="Q126" s="21"/>
-      <c r="R126" s="21"/>
-      <c r="S126" s="21" t="s">
+      <c r="P126" s="23"/>
+      <c r="Q126" s="23"/>
+      <c r="R126" s="23"/>
+      <c r="S126" s="23" t="s">
         <v>511</v>
       </c>
-      <c r="T126" s="21"/>
-      <c r="U126" s="21"/>
-      <c r="V126" s="21"/>
+      <c r="T126" s="23"/>
+      <c r="U126" s="23"/>
+      <c r="V126" s="23"/>
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="O127" s="21" t="s">
+      <c r="O127" s="23" t="s">
         <v>541</v>
       </c>
-      <c r="P127" s="21"/>
-      <c r="Q127" s="21"/>
-      <c r="R127" s="21"/>
-      <c r="S127" s="21" t="s">
+      <c r="P127" s="23"/>
+      <c r="Q127" s="23"/>
+      <c r="R127" s="23"/>
+      <c r="S127" s="23" t="s">
         <v>542</v>
       </c>
-      <c r="T127" s="21"/>
-      <c r="U127" s="21"/>
-      <c r="V127" s="21"/>
+      <c r="T127" s="23"/>
+      <c r="U127" s="23"/>
+      <c r="V127" s="23"/>
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
@@ -19397,18 +19403,18 @@
       <c r="D134" t="s">
         <v>563</v>
       </c>
-      <c r="O134" s="21" t="s">
+      <c r="O134" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="P134" s="21"/>
-      <c r="Q134" s="21"/>
-      <c r="R134" s="21"/>
-      <c r="S134" s="21" t="s">
+      <c r="P134" s="23"/>
+      <c r="Q134" s="23"/>
+      <c r="R134" s="23"/>
+      <c r="S134" s="23" t="s">
         <v>511</v>
       </c>
-      <c r="T134" s="21"/>
-      <c r="U134" s="21"/>
-      <c r="V134" s="21"/>
+      <c r="T134" s="23"/>
+      <c r="U134" s="23"/>
+      <c r="V134" s="23"/>
     </row>
     <row r="135" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A135">
@@ -19423,18 +19429,18 @@
       <c r="D135">
         <v>0.26800000000000002</v>
       </c>
-      <c r="O135" s="21" t="s">
+      <c r="O135" s="23" t="s">
         <v>543</v>
       </c>
-      <c r="P135" s="21"/>
-      <c r="Q135" s="21"/>
-      <c r="R135" s="21"/>
-      <c r="S135" s="21" t="s">
+      <c r="P135" s="23"/>
+      <c r="Q135" s="23"/>
+      <c r="R135" s="23"/>
+      <c r="S135" s="23" t="s">
         <v>544</v>
       </c>
-      <c r="T135" s="21"/>
-      <c r="U135" s="21"/>
-      <c r="V135" s="21"/>
+      <c r="T135" s="23"/>
+      <c r="U135" s="23"/>
+      <c r="V135" s="23"/>
     </row>
     <row r="136" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A136">
@@ -19501,20 +19507,20 @@
       </c>
     </row>
     <row r="138" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A138" s="21" t="s">
+      <c r="A138" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="B138" s="21"/>
-      <c r="C138" s="21"/>
-      <c r="D138" s="21"/>
-      <c r="E138" s="21"/>
-      <c r="F138" s="21" t="s">
+      <c r="B138" s="23"/>
+      <c r="C138" s="23"/>
+      <c r="D138" s="23"/>
+      <c r="E138" s="23"/>
+      <c r="F138" s="23" t="s">
         <v>511</v>
       </c>
-      <c r="G138" s="21"/>
-      <c r="H138" s="21"/>
-      <c r="I138" s="21"/>
-      <c r="J138" s="21"/>
+      <c r="G138" s="23"/>
+      <c r="H138" s="23"/>
+      <c r="I138" s="23"/>
+      <c r="J138" s="23"/>
       <c r="O138" s="1" t="s">
         <v>458</v>
       </c>
@@ -19541,20 +19547,20 @@
       </c>
     </row>
     <row r="139" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A139" s="21" t="s">
+      <c r="A139" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="B139" s="21"/>
-      <c r="C139" s="21"/>
-      <c r="D139" s="21"/>
-      <c r="E139" s="21"/>
-      <c r="F139" s="21" t="s">
+      <c r="B139" s="23"/>
+      <c r="C139" s="23"/>
+      <c r="D139" s="23"/>
+      <c r="E139" s="23"/>
+      <c r="F139" s="23" t="s">
         <v>512</v>
       </c>
-      <c r="G139" s="21"/>
-      <c r="H139" s="21"/>
-      <c r="I139" s="21"/>
-      <c r="J139" s="21"/>
+      <c r="G139" s="23"/>
+      <c r="H139" s="23"/>
+      <c r="I139" s="23"/>
+      <c r="J139" s="23"/>
       <c r="O139" s="1" t="s">
         <v>459</v>
       </c>
@@ -19723,27 +19729,27 @@
       <c r="J142">
         <v>0.84316999999999998</v>
       </c>
-      <c r="O142" s="21" t="s">
+      <c r="O142" s="23" t="s">
         <v>580</v>
       </c>
-      <c r="P142" s="21"/>
-      <c r="Q142" s="21"/>
-      <c r="R142" s="21"/>
-      <c r="S142" s="21"/>
-      <c r="T142" s="21" t="s">
+      <c r="P142" s="23"/>
+      <c r="Q142" s="23"/>
+      <c r="R142" s="23"/>
+      <c r="S142" s="23"/>
+      <c r="T142" s="23" t="s">
         <v>580</v>
       </c>
-      <c r="U142" s="21"/>
-      <c r="V142" s="21"/>
-      <c r="W142" s="21"/>
-      <c r="X142" s="21"/>
-      <c r="Y142" s="21" t="s">
+      <c r="U142" s="23"/>
+      <c r="V142" s="23"/>
+      <c r="W142" s="23"/>
+      <c r="X142" s="23"/>
+      <c r="Y142" s="23" t="s">
         <v>580</v>
       </c>
-      <c r="Z142" s="21"/>
-      <c r="AA142" s="21"/>
-      <c r="AB142" s="21"/>
-      <c r="AC142" s="21"/>
+      <c r="Z142" s="23"/>
+      <c r="AA142" s="23"/>
+      <c r="AB142" s="23"/>
+      <c r="AC142" s="23"/>
     </row>
     <row r="143" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
@@ -19776,27 +19782,27 @@
       <c r="J143">
         <v>0.81733</v>
       </c>
-      <c r="O143" s="21" t="s">
+      <c r="O143" s="23" t="s">
         <v>582</v>
       </c>
-      <c r="P143" s="21"/>
-      <c r="Q143" s="21"/>
-      <c r="R143" s="21"/>
-      <c r="S143" s="21"/>
-      <c r="T143" s="21" t="s">
+      <c r="P143" s="23"/>
+      <c r="Q143" s="23"/>
+      <c r="R143" s="23"/>
+      <c r="S143" s="23"/>
+      <c r="T143" s="23" t="s">
         <v>581</v>
       </c>
-      <c r="U143" s="21"/>
-      <c r="V143" s="21"/>
-      <c r="W143" s="21"/>
-      <c r="X143" s="21"/>
-      <c r="Y143" s="21" t="s">
+      <c r="U143" s="23"/>
+      <c r="V143" s="23"/>
+      <c r="W143" s="23"/>
+      <c r="X143" s="23"/>
+      <c r="Y143" s="23" t="s">
         <v>579</v>
       </c>
-      <c r="Z143" s="21"/>
-      <c r="AA143" s="21"/>
-      <c r="AB143" s="21"/>
-      <c r="AC143" s="21"/>
+      <c r="Z143" s="23"/>
+      <c r="AA143" s="23"/>
+      <c r="AB143" s="23"/>
+      <c r="AC143" s="23"/>
     </row>
     <row r="144" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
@@ -19953,20 +19959,20 @@
       </c>
     </row>
     <row r="146" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A146" s="21" t="s">
+      <c r="A146" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="B146" s="21"/>
-      <c r="C146" s="21"/>
-      <c r="D146" s="21"/>
-      <c r="E146" s="21"/>
-      <c r="F146" s="21" t="s">
+      <c r="B146" s="23"/>
+      <c r="C146" s="23"/>
+      <c r="D146" s="23"/>
+      <c r="E146" s="23"/>
+      <c r="F146" s="23" t="s">
         <v>511</v>
       </c>
-      <c r="G146" s="21"/>
-      <c r="H146" s="21"/>
-      <c r="I146" s="21"/>
-      <c r="J146" s="21"/>
+      <c r="G146" s="23"/>
+      <c r="H146" s="23"/>
+      <c r="I146" s="23"/>
+      <c r="J146" s="23"/>
       <c r="O146" s="1" t="s">
         <v>457</v>
       </c>
@@ -20014,20 +20020,20 @@
       </c>
     </row>
     <row r="147" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A147" s="21" t="s">
+      <c r="A147" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="B147" s="21"/>
-      <c r="C147" s="21"/>
-      <c r="D147" s="21"/>
-      <c r="E147" s="21"/>
-      <c r="F147" s="21" t="s">
+      <c r="B147" s="23"/>
+      <c r="C147" s="23"/>
+      <c r="D147" s="23"/>
+      <c r="E147" s="23"/>
+      <c r="F147" s="23" t="s">
         <v>512</v>
       </c>
-      <c r="G147" s="21"/>
-      <c r="H147" s="21"/>
-      <c r="I147" s="21"/>
-      <c r="J147" s="21"/>
+      <c r="G147" s="23"/>
+      <c r="H147" s="23"/>
+      <c r="I147" s="23"/>
+      <c r="J147" s="23"/>
       <c r="O147" s="1" t="s">
         <v>530</v>
       </c>
@@ -21065,56 +21071,56 @@
       </c>
     </row>
     <row r="165" spans="15:33" x14ac:dyDescent="0.25">
-      <c r="P165" s="30" t="s">
+      <c r="P165" s="19" t="s">
         <v>580</v>
       </c>
-      <c r="Q165" s="30"/>
-      <c r="R165" s="30"/>
-      <c r="S165" s="30"/>
-      <c r="T165" s="30"/>
-      <c r="U165" s="30"/>
-      <c r="V165" s="30" t="s">
+      <c r="Q165" s="19"/>
+      <c r="R165" s="19"/>
+      <c r="S165" s="19"/>
+      <c r="T165" s="19"/>
+      <c r="U165" s="19"/>
+      <c r="V165" s="19" t="s">
         <v>580</v>
       </c>
-      <c r="W165" s="30"/>
-      <c r="X165" s="30"/>
-      <c r="Y165" s="30"/>
-      <c r="Z165" s="30"/>
-      <c r="AA165" s="30"/>
-      <c r="AB165" s="30" t="s">
+      <c r="W165" s="19"/>
+      <c r="X165" s="19"/>
+      <c r="Y165" s="19"/>
+      <c r="Z165" s="19"/>
+      <c r="AA165" s="19"/>
+      <c r="AB165" s="19" t="s">
         <v>580</v>
       </c>
-      <c r="AC165" s="30"/>
-      <c r="AD165" s="30"/>
-      <c r="AE165" s="30"/>
-      <c r="AF165" s="30"/>
-      <c r="AG165" s="30"/>
+      <c r="AC165" s="19"/>
+      <c r="AD165" s="19"/>
+      <c r="AE165" s="19"/>
+      <c r="AF165" s="19"/>
+      <c r="AG165" s="19"/>
     </row>
     <row r="166" spans="15:33" x14ac:dyDescent="0.25">
-      <c r="P166" s="30" t="s">
+      <c r="P166" s="19" t="s">
         <v>582</v>
       </c>
-      <c r="Q166" s="30"/>
-      <c r="R166" s="30"/>
-      <c r="S166" s="30"/>
-      <c r="T166" s="30"/>
-      <c r="U166" s="30"/>
-      <c r="V166" s="30" t="s">
+      <c r="Q166" s="19"/>
+      <c r="R166" s="19"/>
+      <c r="S166" s="19"/>
+      <c r="T166" s="19"/>
+      <c r="U166" s="19"/>
+      <c r="V166" s="19" t="s">
         <v>581</v>
       </c>
-      <c r="W166" s="30"/>
-      <c r="X166" s="30"/>
-      <c r="Y166" s="30"/>
-      <c r="Z166" s="30"/>
-      <c r="AA166" s="30"/>
-      <c r="AB166" s="30" t="s">
+      <c r="W166" s="19"/>
+      <c r="X166" s="19"/>
+      <c r="Y166" s="19"/>
+      <c r="Z166" s="19"/>
+      <c r="AA166" s="19"/>
+      <c r="AB166" s="19" t="s">
         <v>583</v>
       </c>
-      <c r="AC166" s="30"/>
-      <c r="AD166" s="30"/>
-      <c r="AE166" s="30"/>
-      <c r="AF166" s="30"/>
-      <c r="AG166" s="30"/>
+      <c r="AC166" s="19"/>
+      <c r="AD166" s="19"/>
+      <c r="AE166" s="19"/>
+      <c r="AF166" s="19"/>
+      <c r="AG166" s="19"/>
     </row>
     <row r="167" spans="15:33" x14ac:dyDescent="0.25">
       <c r="P167" s="6" t="s">
@@ -22459,30 +22465,30 @@
       </c>
     </row>
     <row r="190" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P190" s="30" t="s">
+      <c r="P190" s="19" t="s">
         <v>582</v>
       </c>
-      <c r="Q190" s="30"/>
-      <c r="R190" s="30"/>
-      <c r="S190" s="30"/>
-      <c r="T190" s="30"/>
-      <c r="U190" s="30"/>
-      <c r="V190" s="30" t="s">
+      <c r="Q190" s="19"/>
+      <c r="R190" s="19"/>
+      <c r="S190" s="19"/>
+      <c r="T190" s="19"/>
+      <c r="U190" s="19"/>
+      <c r="V190" s="19" t="s">
         <v>581</v>
       </c>
-      <c r="W190" s="30"/>
-      <c r="X190" s="30"/>
-      <c r="Y190" s="30"/>
-      <c r="Z190" s="30"/>
-      <c r="AA190" s="30"/>
-      <c r="AB190" s="30" t="s">
+      <c r="W190" s="19"/>
+      <c r="X190" s="19"/>
+      <c r="Y190" s="19"/>
+      <c r="Z190" s="19"/>
+      <c r="AA190" s="19"/>
+      <c r="AB190" s="19" t="s">
         <v>583</v>
       </c>
-      <c r="AC190" s="30"/>
-      <c r="AD190" s="30"/>
-      <c r="AE190" s="30"/>
-      <c r="AF190" s="30"/>
-      <c r="AG190" s="30"/>
+      <c r="AC190" s="19"/>
+      <c r="AD190" s="19"/>
+      <c r="AE190" s="19"/>
+      <c r="AF190" s="19"/>
+      <c r="AG190" s="19"/>
     </row>
     <row r="191" spans="16:33" x14ac:dyDescent="0.25">
       <c r="P191" s="6" t="s">
@@ -25395,20 +25401,20 @@
       </c>
     </row>
     <row r="244" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P244" s="20" t="s">
+      <c r="P244" s="30" t="s">
         <v>504</v>
       </c>
-      <c r="Q244" s="19" t="s">
+      <c r="Q244" s="29" t="s">
         <v>614</v>
       </c>
-      <c r="R244" s="19"/>
-      <c r="S244" s="19" t="s">
+      <c r="R244" s="29"/>
+      <c r="S244" s="29" t="s">
         <v>615</v>
       </c>
-      <c r="T244" s="19"/>
+      <c r="T244" s="29"/>
     </row>
     <row r="245" spans="16:33" ht="60" x14ac:dyDescent="0.25">
-      <c r="P245" s="20"/>
+      <c r="P245" s="30"/>
       <c r="Q245" s="12" t="s">
         <v>616</v>
       </c>
@@ -25606,83 +25612,83 @@
       </c>
     </row>
     <row r="256" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P256" s="21"/>
-      <c r="Q256" s="21"/>
-      <c r="R256" s="21"/>
-      <c r="S256" s="21"/>
-      <c r="T256" s="21"/>
-      <c r="U256" s="21"/>
-      <c r="V256" s="21"/>
-      <c r="W256" s="21"/>
-      <c r="X256" s="21"/>
-      <c r="Y256" s="21"/>
+      <c r="P256" s="23"/>
+      <c r="Q256" s="23"/>
+      <c r="R256" s="23"/>
+      <c r="S256" s="23"/>
+      <c r="T256" s="23"/>
+      <c r="U256" s="23"/>
+      <c r="V256" s="23"/>
+      <c r="W256" s="23"/>
+      <c r="X256" s="23"/>
+      <c r="Y256" s="23"/>
     </row>
     <row r="257" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P257" s="26" t="s">
+      <c r="P257" s="20" t="s">
         <v>618</v>
       </c>
-      <c r="Q257" s="27"/>
-      <c r="R257" s="27"/>
-      <c r="S257" s="27"/>
-      <c r="T257" s="27"/>
-      <c r="U257" s="27"/>
-      <c r="V257" s="27"/>
-      <c r="W257" s="27"/>
-      <c r="X257" s="28"/>
-      <c r="Y257" s="26" t="s">
+      <c r="Q257" s="21"/>
+      <c r="R257" s="21"/>
+      <c r="S257" s="21"/>
+      <c r="T257" s="21"/>
+      <c r="U257" s="21"/>
+      <c r="V257" s="21"/>
+      <c r="W257" s="21"/>
+      <c r="X257" s="22"/>
+      <c r="Y257" s="20" t="s">
         <v>619</v>
       </c>
-      <c r="Z257" s="27"/>
-      <c r="AA257" s="27"/>
-      <c r="AB257" s="27"/>
-      <c r="AC257" s="27"/>
-      <c r="AD257" s="27"/>
-      <c r="AE257" s="27"/>
-      <c r="AF257" s="27"/>
-      <c r="AG257" s="28"/>
+      <c r="Z257" s="21"/>
+      <c r="AA257" s="21"/>
+      <c r="AB257" s="21"/>
+      <c r="AC257" s="21"/>
+      <c r="AD257" s="21"/>
+      <c r="AE257" s="21"/>
+      <c r="AF257" s="21"/>
+      <c r="AG257" s="22"/>
     </row>
     <row r="258" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P258" s="30" t="s">
+      <c r="P258" s="19" t="s">
         <v>504</v>
       </c>
-      <c r="Q258" s="30" t="s">
+      <c r="Q258" s="19" t="s">
         <v>451</v>
       </c>
-      <c r="R258" s="30"/>
-      <c r="S258" s="30" t="s">
+      <c r="R258" s="19"/>
+      <c r="S258" s="19" t="s">
         <v>452</v>
       </c>
-      <c r="T258" s="30"/>
-      <c r="U258" s="30" t="s">
+      <c r="T258" s="19"/>
+      <c r="U258" s="19" t="s">
         <v>509</v>
       </c>
-      <c r="V258" s="30"/>
-      <c r="W258" s="30" t="s">
+      <c r="V258" s="19"/>
+      <c r="W258" s="19" t="s">
         <v>558</v>
       </c>
-      <c r="X258" s="30"/>
-      <c r="Y258" s="30" t="s">
+      <c r="X258" s="19"/>
+      <c r="Y258" s="19" t="s">
         <v>504</v>
       </c>
-      <c r="Z258" s="30" t="s">
+      <c r="Z258" s="19" t="s">
         <v>451</v>
       </c>
-      <c r="AA258" s="30"/>
-      <c r="AB258" s="30" t="s">
+      <c r="AA258" s="19"/>
+      <c r="AB258" s="19" t="s">
         <v>452</v>
       </c>
-      <c r="AC258" s="30"/>
-      <c r="AD258" s="30" t="s">
+      <c r="AC258" s="19"/>
+      <c r="AD258" s="19" t="s">
         <v>509</v>
       </c>
-      <c r="AE258" s="30"/>
+      <c r="AE258" s="19"/>
       <c r="AF258" s="6" t="s">
         <v>558</v>
       </c>
       <c r="AG258" s="7"/>
     </row>
     <row r="259" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P259" s="30"/>
+      <c r="P259" s="19"/>
       <c r="Q259" s="11" t="s">
         <v>507</v>
       </c>
@@ -25707,7 +25713,7 @@
       <c r="X259" s="11" t="s">
         <v>620</v>
       </c>
-      <c r="Y259" s="30"/>
+      <c r="Y259" s="19"/>
       <c r="Z259" s="11" t="s">
         <v>511</v>
       </c>
@@ -26078,6 +26084,116 @@
     </row>
   </sheetData>
   <mergeCells count="134">
+    <mergeCell ref="AA33:AD33"/>
+    <mergeCell ref="G77:L77"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="O67:U67"/>
+    <mergeCell ref="O50:U50"/>
+    <mergeCell ref="O51:U51"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="O43:U43"/>
+    <mergeCell ref="V35:Z35"/>
+    <mergeCell ref="V34:Z34"/>
+    <mergeCell ref="V43:Z43"/>
+    <mergeCell ref="V42:Z42"/>
+    <mergeCell ref="V50:Z50"/>
+    <mergeCell ref="V51:Z51"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="Q244:R244"/>
+    <mergeCell ref="S244:T244"/>
+    <mergeCell ref="P244:P245"/>
+    <mergeCell ref="AA47:AD47"/>
+    <mergeCell ref="AA40:AD40"/>
+    <mergeCell ref="G78:L78"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="O42:U42"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="O35:U35"/>
+    <mergeCell ref="O34:U34"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A65:A70"/>
+    <mergeCell ref="B65:B70"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="O66:U66"/>
+    <mergeCell ref="O58:U58"/>
+    <mergeCell ref="O59:U59"/>
+    <mergeCell ref="V58:Z58"/>
+    <mergeCell ref="V59:Z59"/>
+    <mergeCell ref="O75:U75"/>
+    <mergeCell ref="O74:U74"/>
+    <mergeCell ref="F92:I92"/>
+    <mergeCell ref="F93:I93"/>
+    <mergeCell ref="O119:U119"/>
+    <mergeCell ref="P101:X101"/>
+    <mergeCell ref="G109:L109"/>
+    <mergeCell ref="G110:L110"/>
+    <mergeCell ref="O111:U111"/>
+    <mergeCell ref="O110:U110"/>
+    <mergeCell ref="O118:U118"/>
+    <mergeCell ref="P100:X100"/>
+    <mergeCell ref="H118:L118"/>
+    <mergeCell ref="G119:L119"/>
+    <mergeCell ref="B118:F118"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="B101:E101"/>
+    <mergeCell ref="B100:E100"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="P85:X85"/>
+    <mergeCell ref="P84:X84"/>
+    <mergeCell ref="P92:X92"/>
+    <mergeCell ref="P93:X93"/>
+    <mergeCell ref="O135:R135"/>
+    <mergeCell ref="S135:V135"/>
+    <mergeCell ref="O126:R126"/>
+    <mergeCell ref="O127:R127"/>
+    <mergeCell ref="S126:V126"/>
+    <mergeCell ref="S127:V127"/>
+    <mergeCell ref="O134:R134"/>
+    <mergeCell ref="S134:V134"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="H121:J121"/>
+    <mergeCell ref="K121:L121"/>
+    <mergeCell ref="H122:J122"/>
+    <mergeCell ref="K122:L122"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="K120:L120"/>
+    <mergeCell ref="H120:J120"/>
+    <mergeCell ref="G123:L123"/>
+    <mergeCell ref="V190:AA190"/>
+    <mergeCell ref="AB190:AG190"/>
+    <mergeCell ref="P165:U165"/>
+    <mergeCell ref="P166:U166"/>
+    <mergeCell ref="V165:AA165"/>
+    <mergeCell ref="V166:AA166"/>
+    <mergeCell ref="O142:S142"/>
+    <mergeCell ref="O143:S143"/>
+    <mergeCell ref="T142:X142"/>
+    <mergeCell ref="T143:X143"/>
+    <mergeCell ref="Y142:AC142"/>
+    <mergeCell ref="Y143:AC143"/>
     <mergeCell ref="Z258:AA258"/>
     <mergeCell ref="AB258:AC258"/>
     <mergeCell ref="AD258:AE258"/>
@@ -26102,116 +26218,6 @@
     <mergeCell ref="AB165:AG165"/>
     <mergeCell ref="AB166:AG166"/>
     <mergeCell ref="P190:U190"/>
-    <mergeCell ref="V190:AA190"/>
-    <mergeCell ref="AB190:AG190"/>
-    <mergeCell ref="P165:U165"/>
-    <mergeCell ref="P166:U166"/>
-    <mergeCell ref="V165:AA165"/>
-    <mergeCell ref="V166:AA166"/>
-    <mergeCell ref="O142:S142"/>
-    <mergeCell ref="O143:S143"/>
-    <mergeCell ref="T142:X142"/>
-    <mergeCell ref="T143:X143"/>
-    <mergeCell ref="Y142:AC142"/>
-    <mergeCell ref="Y143:AC143"/>
-    <mergeCell ref="O135:R135"/>
-    <mergeCell ref="S135:V135"/>
-    <mergeCell ref="O126:R126"/>
-    <mergeCell ref="O127:R127"/>
-    <mergeCell ref="S126:V126"/>
-    <mergeCell ref="S127:V127"/>
-    <mergeCell ref="O134:R134"/>
-    <mergeCell ref="S134:V134"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="H121:J121"/>
-    <mergeCell ref="K121:L121"/>
-    <mergeCell ref="H122:J122"/>
-    <mergeCell ref="K122:L122"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="K120:L120"/>
-    <mergeCell ref="H120:J120"/>
-    <mergeCell ref="G123:L123"/>
-    <mergeCell ref="O75:U75"/>
-    <mergeCell ref="O74:U74"/>
-    <mergeCell ref="F92:I92"/>
-    <mergeCell ref="F93:I93"/>
-    <mergeCell ref="O119:U119"/>
-    <mergeCell ref="P101:X101"/>
-    <mergeCell ref="G109:L109"/>
-    <mergeCell ref="G110:L110"/>
-    <mergeCell ref="O111:U111"/>
-    <mergeCell ref="O110:U110"/>
-    <mergeCell ref="O118:U118"/>
-    <mergeCell ref="P100:X100"/>
-    <mergeCell ref="H118:L118"/>
-    <mergeCell ref="G119:L119"/>
-    <mergeCell ref="B118:F118"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="B101:E101"/>
-    <mergeCell ref="B100:E100"/>
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="B92:E92"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="A65:A70"/>
-    <mergeCell ref="B65:B70"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="O66:U66"/>
-    <mergeCell ref="O58:U58"/>
-    <mergeCell ref="O59:U59"/>
-    <mergeCell ref="V58:Z58"/>
-    <mergeCell ref="V59:Z59"/>
-    <mergeCell ref="P85:X85"/>
-    <mergeCell ref="P84:X84"/>
-    <mergeCell ref="P92:X92"/>
-    <mergeCell ref="P93:X93"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="O42:U42"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="O35:U35"/>
-    <mergeCell ref="O34:U34"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="V51:Z51"/>
-    <mergeCell ref="A71:A76"/>
-    <mergeCell ref="B71:B76"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="Q244:R244"/>
-    <mergeCell ref="S244:T244"/>
-    <mergeCell ref="P244:P245"/>
-    <mergeCell ref="AA47:AD47"/>
-    <mergeCell ref="AA40:AD40"/>
-    <mergeCell ref="AA33:AD33"/>
-    <mergeCell ref="G77:L77"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="O67:U67"/>
-    <mergeCell ref="O50:U50"/>
-    <mergeCell ref="O51:U51"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="O43:U43"/>
-    <mergeCell ref="V35:Z35"/>
-    <mergeCell ref="V34:Z34"/>
-    <mergeCell ref="V43:Z43"/>
-    <mergeCell ref="V42:Z42"/>
-    <mergeCell ref="V50:Z50"/>
-    <mergeCell ref="G78:L78"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="E125:F125"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
@@ -26551,10 +26557,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P80"/>
+  <dimension ref="A1:P94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F86" sqref="F86:J94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26570,20 +26576,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>621</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="G1" s="21" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="G1" s="23" t="s">
         <v>628</v>
       </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
       <c r="L1" s="2" t="s">
         <v>631</v>
       </c>
@@ -26725,27 +26731,27 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="23" t="s">
         <v>632</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="G5" s="21" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="G5" s="23" t="s">
         <v>629</v>
       </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21" t="s">
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23" t="s">
         <v>630</v>
       </c>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
@@ -26881,13 +26887,13 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="23" t="s">
         <v>622</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
       <c r="G9" s="18" t="s">
         <v>649</v>
       </c>
@@ -26909,13 +26915,13 @@
       <c r="E10" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="23" t="s">
         <v>638</v>
       </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -26980,13 +26986,13 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="23" t="s">
         <v>633</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
       <c r="G13" s="1" t="s">
         <v>627</v>
       </c>
@@ -27016,13 +27022,13 @@
       <c r="E14" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="23" t="s">
         <v>639</v>
       </c>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -27136,12 +27142,12 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="32"/>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
         <v>451</v>
@@ -27236,22 +27242,22 @@
       <c r="E22">
         <v>0.90807000000000004</v>
       </c>
-      <c r="G22" s="21" t="s">
+      <c r="G22" s="23" t="s">
         <v>641</v>
       </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="23" t="s">
         <v>511</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
       <c r="F23" s="1"/>
       <c r="H23" s="1" t="s">
         <v>451</v>
@@ -27346,13 +27352,13 @@
       <c r="E26">
         <v>0.84006999999999998</v>
       </c>
-      <c r="G26" s="21" t="s">
+      <c r="G26" s="23" t="s">
         <v>642</v>
       </c>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G27" s="1"/>
@@ -27370,13 +27376,13 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
       <c r="G28" s="1" t="s">
         <v>626</v>
       </c>
@@ -27394,12 +27400,12 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="23" t="s">
         <v>513</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
       <c r="E29" s="2"/>
       <c r="G29" s="1" t="s">
         <v>627</v>
@@ -27452,13 +27458,13 @@
       <c r="D31">
         <v>0.69301000000000001</v>
       </c>
-      <c r="G31" s="21" t="s">
+      <c r="G31" s="23" t="s">
         <v>643</v>
       </c>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -27558,22 +27564,22 @@
       <c r="D35">
         <v>0.67064999999999997</v>
       </c>
-      <c r="G35" s="21" t="s">
+      <c r="G35" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="23" t="s">
         <v>511</v>
       </c>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
       <c r="H36" s="1" t="s">
         <v>451</v>
       </c>
@@ -27589,12 +27595,12 @@
       <c r="L36" s="1"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="23" t="s">
         <v>514</v>
       </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
       <c r="E37" s="2"/>
       <c r="G37" s="1" t="s">
         <v>626</v>
@@ -27655,13 +27661,13 @@
       <c r="D39">
         <v>0.55774999999999997</v>
       </c>
-      <c r="G39" s="21" t="s">
+      <c r="G39" s="23" t="s">
         <v>645</v>
       </c>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -27760,22 +27766,22 @@
       <c r="D43">
         <v>0.59794000000000003</v>
       </c>
-      <c r="G43" s="21" t="s">
+      <c r="G43" s="23" t="s">
         <v>646</v>
       </c>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="21"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
       <c r="H44" s="1" t="s">
         <v>451</v>
       </c>
@@ -27790,13 +27796,13 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="21" t="s">
+      <c r="A45" s="23" t="s">
         <v>515</v>
       </c>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
       <c r="G45" s="1" t="s">
         <v>626</v>
       </c>
@@ -27856,13 +27862,13 @@
       <c r="D47">
         <v>0.86019999999999996</v>
       </c>
-      <c r="G47" s="21" t="s">
+      <c r="G47" s="23" t="s">
         <v>647</v>
       </c>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="21"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="23"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
@@ -27964,22 +27970,22 @@
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="21" t="s">
+      <c r="A52" s="23" t="s">
         <v>511</v>
       </c>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="21" t="s">
+      <c r="A53" s="23" t="s">
         <v>544</v>
       </c>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
@@ -28067,39 +28073,39 @@
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="21" t="s">
+      <c r="A61" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="B61" s="21"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21" t="s">
+      <c r="B61" s="23"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23" t="s">
         <v>511</v>
       </c>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="21" t="s">
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23"/>
+      <c r="I61" s="23" t="s">
         <v>643</v>
       </c>
-      <c r="J61" s="21"/>
-      <c r="K61" s="21"/>
-      <c r="L61" s="21"/>
-      <c r="M61" s="21"/>
+      <c r="J61" s="23"/>
+      <c r="K61" s="23"/>
+      <c r="L61" s="23"/>
+      <c r="M61" s="23"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="21" t="s">
+      <c r="A62" s="23" t="s">
         <v>541</v>
       </c>
-      <c r="B62" s="21"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21" t="s">
+      <c r="B62" s="23"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23" t="s">
         <v>542</v>
       </c>
-      <c r="F62" s="21"/>
-      <c r="G62" s="21"/>
-      <c r="H62" s="21"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="23"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1" t="s">
         <v>451</v>
@@ -28209,13 +28215,13 @@
       <c r="G65">
         <v>0.47331000000000001</v>
       </c>
-      <c r="I65" s="21" t="s">
+      <c r="I65" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="J65" s="21"/>
-      <c r="K65" s="21"/>
-      <c r="L65" s="21"/>
-      <c r="M65" s="21"/>
+      <c r="J65" s="23"/>
+      <c r="K65" s="23"/>
+      <c r="L65" s="23"/>
+      <c r="M65" s="23"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
@@ -28320,39 +28326,39 @@
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="21" t="s">
+      <c r="A69" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="B69" s="21"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21" t="s">
+      <c r="B69" s="23"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="23" t="s">
         <v>511</v>
       </c>
-      <c r="F69" s="21"/>
-      <c r="G69" s="21"/>
-      <c r="H69" s="21"/>
-      <c r="I69" s="21" t="s">
+      <c r="F69" s="23"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="23"/>
+      <c r="I69" s="23" t="s">
         <v>645</v>
       </c>
-      <c r="J69" s="21"/>
-      <c r="K69" s="21"/>
-      <c r="L69" s="21"/>
-      <c r="M69" s="21"/>
+      <c r="J69" s="23"/>
+      <c r="K69" s="23"/>
+      <c r="L69" s="23"/>
+      <c r="M69" s="23"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="21" t="s">
+      <c r="A70" s="23" t="s">
         <v>543</v>
       </c>
-      <c r="B70" s="21"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21" t="s">
+      <c r="B70" s="23"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="23" t="s">
         <v>544</v>
       </c>
-      <c r="F70" s="21"/>
-      <c r="G70" s="21"/>
-      <c r="H70" s="21"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="23"/>
+      <c r="H70" s="23"/>
       <c r="J70" s="1" t="s">
         <v>451</v>
       </c>
@@ -28461,13 +28467,13 @@
       <c r="G73">
         <v>0.63438000000000005</v>
       </c>
-      <c r="I73" s="21" t="s">
+      <c r="I73" s="23" t="s">
         <v>646</v>
       </c>
-      <c r="J73" s="21"/>
-      <c r="K73" s="21"/>
-      <c r="L73" s="21"/>
-      <c r="M73" s="21"/>
+      <c r="J73" s="23"/>
+      <c r="K73" s="23"/>
+      <c r="L73" s="23"/>
+      <c r="M73" s="23"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
@@ -28572,13 +28578,13 @@
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I77" s="21" t="s">
+      <c r="I77" s="23" t="s">
         <v>647</v>
       </c>
-      <c r="J77" s="21"/>
-      <c r="K77" s="21"/>
-      <c r="L77" s="21"/>
-      <c r="M77" s="21"/>
+      <c r="J77" s="23"/>
+      <c r="K77" s="23"/>
+      <c r="L77" s="23"/>
+      <c r="M77" s="23"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I78" s="1"/>
@@ -28629,13 +28635,340 @@
         <v>0.81506000000000001</v>
       </c>
     </row>
+    <row r="85" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A85" s="33" t="s">
+        <v>650</v>
+      </c>
+      <c r="B85" s="33"/>
+      <c r="C85" s="33"/>
+      <c r="D85" s="33"/>
+      <c r="E85" s="33"/>
+      <c r="F85" s="33" t="s">
+        <v>650</v>
+      </c>
+      <c r="G85" s="33"/>
+      <c r="H85" s="33"/>
+      <c r="I85" s="33"/>
+      <c r="J85" s="33"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="32" t="s">
+        <v>634</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="F86" s="34" t="s">
+        <v>634</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="I86" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="J86" s="6" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="32"/>
+      <c r="B87" s="23" t="s">
+        <v>507</v>
+      </c>
+      <c r="C87" s="23"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="23"/>
+      <c r="F87" s="20" t="s">
+        <v>507</v>
+      </c>
+      <c r="G87" s="21"/>
+      <c r="H87" s="21"/>
+      <c r="I87" s="21"/>
+      <c r="J87" s="22"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B88">
+        <v>0.74461999999999995</v>
+      </c>
+      <c r="C88">
+        <v>0.87512000000000001</v>
+      </c>
+      <c r="D88" s="1">
+        <v>0.86380000000000001</v>
+      </c>
+      <c r="E88" s="1">
+        <v>0.90871000000000002</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="G88" s="16">
+        <f>B88*100</f>
+        <v>74.461999999999989</v>
+      </c>
+      <c r="H88" s="16">
+        <f t="shared" ref="H88:J90" si="0">C88*100</f>
+        <v>87.512</v>
+      </c>
+      <c r="I88" s="17">
+        <f t="shared" si="0"/>
+        <v>86.38</v>
+      </c>
+      <c r="J88" s="17">
+        <f t="shared" si="0"/>
+        <v>90.870999999999995</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B89" s="1">
+        <v>0.78685000000000005</v>
+      </c>
+      <c r="C89">
+        <v>0.81283000000000005</v>
+      </c>
+      <c r="D89">
+        <v>0.85701000000000005</v>
+      </c>
+      <c r="E89">
+        <v>0.90207000000000004</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="G89" s="17">
+        <f t="shared" ref="G89:G90" si="1">B89*100</f>
+        <v>78.685000000000002</v>
+      </c>
+      <c r="H89" s="16">
+        <f t="shared" si="0"/>
+        <v>81.283000000000001</v>
+      </c>
+      <c r="I89" s="16">
+        <f t="shared" si="0"/>
+        <v>85.701000000000008</v>
+      </c>
+      <c r="J89" s="16">
+        <f t="shared" si="0"/>
+        <v>90.207000000000008</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B90">
+        <v>0.67064999999999997</v>
+      </c>
+      <c r="C90" s="1">
+        <v>0.93235999999999997</v>
+      </c>
+      <c r="D90">
+        <v>0.85158999999999996</v>
+      </c>
+      <c r="E90">
+        <v>0.90807000000000004</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="G90" s="16">
+        <f t="shared" si="1"/>
+        <v>67.064999999999998</v>
+      </c>
+      <c r="H90" s="17">
+        <f t="shared" si="0"/>
+        <v>93.23599999999999</v>
+      </c>
+      <c r="I90" s="16">
+        <f t="shared" si="0"/>
+        <v>85.158999999999992</v>
+      </c>
+      <c r="J90" s="16">
+        <f t="shared" si="0"/>
+        <v>90.807000000000002</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="23" t="s">
+        <v>511</v>
+      </c>
+      <c r="B91" s="23"/>
+      <c r="C91" s="23"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="G91" s="19"/>
+      <c r="H91" s="19"/>
+      <c r="I91" s="19"/>
+      <c r="J91" s="19"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B92" s="1">
+        <v>0.62388999999999994</v>
+      </c>
+      <c r="C92" s="1">
+        <v>0.77141999999999999</v>
+      </c>
+      <c r="D92" s="1">
+        <v>0.77244999999999997</v>
+      </c>
+      <c r="E92" s="1">
+        <v>0.84316999999999998</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="G92" s="17">
+        <f t="shared" ref="G92:J94" si="2">B92*100</f>
+        <v>62.388999999999996</v>
+      </c>
+      <c r="H92" s="17">
+        <f t="shared" si="2"/>
+        <v>77.141999999999996</v>
+      </c>
+      <c r="I92" s="17">
+        <f t="shared" si="2"/>
+        <v>77.24499999999999</v>
+      </c>
+      <c r="J92" s="17">
+        <f t="shared" si="2"/>
+        <v>84.316999999999993</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B93">
+        <v>0.59440000000000004</v>
+      </c>
+      <c r="C93">
+        <v>0.73426000000000002</v>
+      </c>
+      <c r="D93">
+        <v>0.75570000000000004</v>
+      </c>
+      <c r="E93">
+        <v>0.83655999999999997</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="G93" s="16">
+        <f t="shared" si="2"/>
+        <v>59.440000000000005</v>
+      </c>
+      <c r="H93" s="16">
+        <f t="shared" si="2"/>
+        <v>73.426000000000002</v>
+      </c>
+      <c r="I93" s="16">
+        <f t="shared" si="2"/>
+        <v>75.570000000000007</v>
+      </c>
+      <c r="J93" s="16">
+        <f t="shared" si="2"/>
+        <v>83.655999999999992</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B94">
+        <v>0.59794000000000003</v>
+      </c>
+      <c r="C94">
+        <v>0.76466999999999996</v>
+      </c>
+      <c r="D94">
+        <v>0.76339999999999997</v>
+      </c>
+      <c r="E94">
+        <v>0.84006999999999998</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="G94" s="16">
+        <f t="shared" si="2"/>
+        <v>59.794000000000004</v>
+      </c>
+      <c r="H94" s="16">
+        <f t="shared" si="2"/>
+        <v>76.466999999999999</v>
+      </c>
+      <c r="I94" s="16">
+        <f t="shared" si="2"/>
+        <v>76.34</v>
+      </c>
+      <c r="J94" s="16">
+        <f t="shared" si="2"/>
+        <v>84.007000000000005</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="G5:K5"/>
+  <mergeCells count="50">
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="F85:J85"/>
+    <mergeCell ref="F91:J91"/>
+    <mergeCell ref="F87:J87"/>
+    <mergeCell ref="I77:M77"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="G35:K35"/>
+    <mergeCell ref="G39:K39"/>
+    <mergeCell ref="G43:K43"/>
+    <mergeCell ref="G47:K47"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="I65:M65"/>
+    <mergeCell ref="I69:M69"/>
+    <mergeCell ref="I73:M73"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="I61:M61"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="E62:H62"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="E69:H69"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="E70:H70"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="E61:H61"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A37:D37"/>
     <mergeCell ref="L5:P5"/>
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="B19:E19"/>
@@ -28645,35 +28978,11 @@
     <mergeCell ref="G22:K22"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="E61:H61"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="E62:H62"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="E69:H69"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="E70:H70"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="I65:M65"/>
-    <mergeCell ref="I69:M69"/>
-    <mergeCell ref="I73:M73"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="I61:M61"/>
-    <mergeCell ref="I77:M77"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="G35:K35"/>
-    <mergeCell ref="G39:K39"/>
-    <mergeCell ref="G43:K43"/>
-    <mergeCell ref="G47:K47"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="G5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/plotting/617_temp.xlsx
+++ b/plotting/617_temp.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2362" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2372" uniqueCount="654">
   <si>
     <t>.\vgg_unet2_0_3_640_640_64_256_rot_15_345_4_flip_5K\training_32_49_640_640_640_640_max_val_acc\vis\vis_log_181022_0927.txt</t>
   </si>
@@ -1976,6 +1976,12 @@
   </si>
   <si>
     <t>Xception65</t>
+  </si>
+  <si>
+    <t>1.5479807225458673,</t>
+  </si>
+  <si>
+    <t>Median MAE (%)</t>
   </si>
 </sst>
 </file>
@@ -2053,7 +2059,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -2113,11 +2119,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2146,10 +2161,37 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2161,41 +2203,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7938,13 +7978,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>407</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -8283,13 +8323,13 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="21" t="s">
         <v>406</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -8562,13 +8602,13 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="18" t="s">
+      <c r="A52" s="21" t="s">
         <v>405</v>
       </c>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -8901,13 +8941,13 @@
       </c>
     </row>
     <row r="71" spans="1:7" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="18" t="s">
+      <c r="A71" s="21" t="s">
         <v>408</v>
       </c>
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="18"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
@@ -9315,13 +9355,13 @@
       </c>
     </row>
     <row r="100" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="18" t="s">
+      <c r="A100" s="21" t="s">
         <v>559</v>
       </c>
-      <c r="B100" s="18"/>
-      <c r="C100" s="18"/>
-      <c r="D100" s="18"/>
-      <c r="E100" s="18"/>
+      <c r="B100" s="21"/>
+      <c r="C100" s="21"/>
+      <c r="D100" s="21"/>
+      <c r="E100" s="21"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
@@ -9549,13 +9589,13 @@
       </c>
     </row>
     <row r="118" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A118" s="18" t="s">
+      <c r="A118" s="21" t="s">
         <v>409</v>
       </c>
-      <c r="B118" s="18"/>
-      <c r="C118" s="18"/>
-      <c r="D118" s="18"/>
-      <c r="E118" s="18"/>
+      <c r="B118" s="21"/>
+      <c r="C118" s="21"/>
+      <c r="D118" s="21"/>
+      <c r="E118" s="21"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
@@ -9783,13 +9823,13 @@
       </c>
     </row>
     <row r="137" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A137" s="18" t="s">
+      <c r="A137" s="21" t="s">
         <v>410</v>
       </c>
-      <c r="B137" s="18"/>
-      <c r="C137" s="18"/>
-      <c r="D137" s="18"/>
-      <c r="E137" s="18"/>
+      <c r="B137" s="21"/>
+      <c r="C137" s="21"/>
+      <c r="D137" s="21"/>
+      <c r="E137" s="21"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
@@ -10017,13 +10057,13 @@
       </c>
     </row>
     <row r="155" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A155" s="18" t="s">
+      <c r="A155" s="21" t="s">
         <v>407</v>
       </c>
-      <c r="B155" s="18"/>
-      <c r="C155" s="18"/>
-      <c r="D155" s="18"/>
-      <c r="E155" s="18"/>
+      <c r="B155" s="21"/>
+      <c r="C155" s="21"/>
+      <c r="D155" s="21"/>
+      <c r="E155" s="21"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
@@ -10476,13 +10516,13 @@
       </c>
     </row>
     <row r="192" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A192" s="18" t="s">
+      <c r="A192" s="21" t="s">
         <v>409</v>
       </c>
-      <c r="B192" s="18"/>
-      <c r="C192" s="18"/>
-      <c r="D192" s="18"/>
-      <c r="E192" s="18"/>
+      <c r="B192" s="21"/>
+      <c r="C192" s="21"/>
+      <c r="D192" s="21"/>
+      <c r="E192" s="21"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
@@ -10980,13 +11020,13 @@
       </c>
     </row>
     <row r="231" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A231" s="18" t="s">
+      <c r="A231" s="21" t="s">
         <v>404</v>
       </c>
-      <c r="B231" s="18"/>
-      <c r="C231" s="18"/>
-      <c r="D231" s="18"/>
-      <c r="E231" s="18"/>
+      <c r="B231" s="21"/>
+      <c r="C231" s="21"/>
+      <c r="D231" s="21"/>
+      <c r="E231" s="21"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
@@ -11799,13 +11839,13 @@
       </c>
     </row>
     <row r="293" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A293" s="18" t="s">
+      <c r="A293" s="21" t="s">
         <v>403</v>
       </c>
-      <c r="B293" s="18"/>
-      <c r="C293" s="18"/>
-      <c r="D293" s="18"/>
-      <c r="E293" s="18"/>
+      <c r="B293" s="21"/>
+      <c r="C293" s="21"/>
+      <c r="D293" s="21"/>
+      <c r="E293" s="21"/>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
@@ -13169,17 +13209,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A293:E293"/>
-    <mergeCell ref="A231:E231"/>
-    <mergeCell ref="A192:E192"/>
-    <mergeCell ref="A71:E71"/>
-    <mergeCell ref="A155:E155"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A52:E52"/>
     <mergeCell ref="A100:E100"/>
     <mergeCell ref="A118:E118"/>
     <mergeCell ref="A137:E137"/>
     <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A293:E293"/>
+    <mergeCell ref="A231:E231"/>
+    <mergeCell ref="A192:E192"/>
+    <mergeCell ref="A71:E71"/>
+    <mergeCell ref="A155:E155"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
@@ -13748,8 +13788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG264"/>
   <sheetViews>
-    <sheetView topLeftCell="N115" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O126" sqref="O126:V141"/>
+    <sheetView topLeftCell="N238" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P244" sqref="P244:T250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13765,13 +13805,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>413</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -13885,22 +13925,22 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="22" t="s">
         <v>420</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="22" t="s">
         <v>421</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -14053,14 +14093,14 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="22" t="s">
         <v>413</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
       <c r="J17">
         <v>0.67832000000000003</v>
       </c>
@@ -14075,14 +14115,14 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="22" t="s">
         <v>444</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -14293,14 +14333,14 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="23" t="s">
         <v>420</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
       <c r="J24">
         <v>0.43318000000000001</v>
       </c>
@@ -14327,14 +14367,14 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="22" t="s">
         <v>445</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -14511,46 +14551,46 @@
       </c>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="AA33" s="23" t="s">
+      <c r="AA33" s="22" t="s">
         <v>567</v>
       </c>
-      <c r="AB33" s="23"/>
-      <c r="AC33" s="23"/>
-      <c r="AD33" s="23"/>
+      <c r="AB33" s="22"/>
+      <c r="AC33" s="22"/>
+      <c r="AD33" s="22"/>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="22" t="s">
         <v>413</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="H34" s="23" t="s">
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="H34" s="22" t="s">
         <v>434</v>
       </c>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="O34" s="23" t="s">
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="O34" s="22" t="s">
         <v>434</v>
       </c>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="23"/>
-      <c r="R34" s="23"/>
-      <c r="S34" s="23"/>
-      <c r="T34" s="23"/>
-      <c r="U34" s="23"/>
-      <c r="V34" s="23" t="s">
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="22"/>
+      <c r="S34" s="22"/>
+      <c r="T34" s="22"/>
+      <c r="U34" s="22"/>
+      <c r="V34" s="22" t="s">
         <v>507</v>
       </c>
-      <c r="W34" s="23"/>
-      <c r="X34" s="23"/>
-      <c r="Y34" s="23"/>
-      <c r="Z34" s="23"/>
+      <c r="W34" s="22"/>
+      <c r="X34" s="22"/>
+      <c r="Y34" s="22"/>
+      <c r="Z34" s="22"/>
       <c r="AA34" t="s">
         <v>327</v>
       </c>
@@ -14565,38 +14605,38 @@
       </c>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="22" t="s">
         <v>432</v>
       </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="H35" s="23" t="s">
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="H35" s="22" t="s">
         <v>435</v>
       </c>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-      <c r="O35" s="23" t="s">
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="O35" s="22" t="s">
         <v>435</v>
       </c>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="23"/>
-      <c r="S35" s="23"/>
-      <c r="T35" s="23"/>
-      <c r="U35" s="23"/>
-      <c r="V35" s="23" t="s">
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="22"/>
+      <c r="S35" s="22"/>
+      <c r="T35" s="22"/>
+      <c r="U35" s="22"/>
+      <c r="V35" s="22" t="s">
         <v>513</v>
       </c>
-      <c r="W35" s="23"/>
-      <c r="X35" s="23"/>
-      <c r="Y35" s="23"/>
-      <c r="Z35" s="23"/>
+      <c r="W35" s="22"/>
+      <c r="X35" s="22"/>
+      <c r="Y35" s="22"/>
+      <c r="Z35" s="22"/>
       <c r="AA35">
         <v>0.88705000000000001</v>
       </c>
@@ -15015,22 +15055,22 @@
       <c r="Z40">
         <v>0.70833999999999997</v>
       </c>
-      <c r="AA40" s="23" t="s">
+      <c r="AA40" s="22" t="s">
         <v>566</v>
       </c>
-      <c r="AB40" s="23"/>
-      <c r="AC40" s="23"/>
-      <c r="AD40" s="23"/>
+      <c r="AB40" s="22"/>
+      <c r="AC40" s="22"/>
+      <c r="AD40" s="22"/>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="22" t="s">
         <v>424</v>
       </c>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
       <c r="H41" s="1" t="s">
         <v>416</v>
       </c>
@@ -15099,14 +15139,14 @@
       </c>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="22" t="s">
         <v>433</v>
       </c>
-      <c r="B42" s="23"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
       <c r="H42" s="1" t="s">
         <v>417</v>
       </c>
@@ -15125,22 +15165,22 @@
       <c r="M42">
         <v>0.63066</v>
       </c>
-      <c r="O42" s="23" t="s">
+      <c r="O42" s="22" t="s">
         <v>434</v>
       </c>
-      <c r="P42" s="23"/>
-      <c r="Q42" s="23"/>
-      <c r="R42" s="23"/>
-      <c r="S42" s="23"/>
-      <c r="T42" s="23"/>
-      <c r="U42" s="23"/>
-      <c r="V42" s="23" t="s">
+      <c r="P42" s="22"/>
+      <c r="Q42" s="22"/>
+      <c r="R42" s="22"/>
+      <c r="S42" s="22"/>
+      <c r="T42" s="22"/>
+      <c r="U42" s="22"/>
+      <c r="V42" s="22" t="s">
         <v>511</v>
       </c>
-      <c r="W42" s="23"/>
-      <c r="X42" s="23"/>
-      <c r="Y42" s="23"/>
-      <c r="Z42" s="23"/>
+      <c r="W42" s="22"/>
+      <c r="X42" s="22"/>
+      <c r="Y42" s="22"/>
+      <c r="Z42" s="22"/>
       <c r="AA42">
         <v>0.87365000000000004</v>
       </c>
@@ -15191,22 +15231,22 @@
       <c r="M43">
         <v>0.65837000000000001</v>
       </c>
-      <c r="O43" s="23" t="s">
+      <c r="O43" s="22" t="s">
         <v>442</v>
       </c>
-      <c r="P43" s="23"/>
-      <c r="Q43" s="23"/>
-      <c r="R43" s="23"/>
-      <c r="S43" s="23"/>
-      <c r="T43" s="23"/>
-      <c r="U43" s="23"/>
-      <c r="V43" s="23" t="s">
+      <c r="P43" s="22"/>
+      <c r="Q43" s="22"/>
+      <c r="R43" s="22"/>
+      <c r="S43" s="22"/>
+      <c r="T43" s="22"/>
+      <c r="U43" s="22"/>
+      <c r="V43" s="22" t="s">
         <v>514</v>
       </c>
-      <c r="W43" s="23"/>
-      <c r="X43" s="23"/>
-      <c r="Y43" s="23"/>
-      <c r="Z43" s="23"/>
+      <c r="W43" s="22"/>
+      <c r="X43" s="22"/>
+      <c r="Y43" s="22"/>
+      <c r="Z43" s="22"/>
       <c r="AA43" t="s">
         <v>331</v>
       </c>
@@ -15489,21 +15529,21 @@
       <c r="Z47">
         <v>0.47498000000000001</v>
       </c>
-      <c r="AA47" s="23" t="s">
+      <c r="AA47" s="22" t="s">
         <v>565</v>
       </c>
-      <c r="AB47" s="23"/>
-      <c r="AC47" s="23"/>
-      <c r="AD47" s="23"/>
+      <c r="AB47" s="22"/>
+      <c r="AC47" s="22"/>
+      <c r="AD47" s="22"/>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A48" s="23" t="s">
+      <c r="A48" s="22" t="s">
         <v>506</v>
       </c>
-      <c r="B48" s="23"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
       <c r="F48" s="2"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
@@ -15557,13 +15597,13 @@
       </c>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A49" s="23" t="s">
+      <c r="A49" s="22" t="s">
         <v>505</v>
       </c>
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
       <c r="O49" s="1" t="s">
         <v>437</v>
       </c>
@@ -15629,22 +15669,22 @@
       <c r="E50" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="O50" s="23" t="s">
+      <c r="O50" s="22" t="s">
         <v>434</v>
       </c>
-      <c r="P50" s="23"/>
-      <c r="Q50" s="23"/>
-      <c r="R50" s="23"/>
-      <c r="S50" s="23"/>
-      <c r="T50" s="23"/>
-      <c r="U50" s="23"/>
-      <c r="V50" s="23" t="s">
+      <c r="P50" s="22"/>
+      <c r="Q50" s="22"/>
+      <c r="R50" s="22"/>
+      <c r="S50" s="22"/>
+      <c r="T50" s="22"/>
+      <c r="U50" s="22"/>
+      <c r="V50" s="22" t="s">
         <v>507</v>
       </c>
-      <c r="W50" s="23"/>
-      <c r="X50" s="23"/>
-      <c r="Y50" s="23"/>
-      <c r="Z50" s="23"/>
+      <c r="W50" s="22"/>
+      <c r="X50" s="22"/>
+      <c r="Y50" s="22"/>
+      <c r="Z50" s="22"/>
       <c r="AA50" t="s">
         <v>331</v>
       </c>
@@ -15671,22 +15711,22 @@
       <c r="E51">
         <v>0.63066</v>
       </c>
-      <c r="O51" s="23" t="s">
+      <c r="O51" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="P51" s="23"/>
-      <c r="Q51" s="23"/>
-      <c r="R51" s="23"/>
-      <c r="S51" s="23"/>
-      <c r="T51" s="23"/>
-      <c r="U51" s="23"/>
-      <c r="V51" s="23" t="s">
+      <c r="P51" s="22"/>
+      <c r="Q51" s="22"/>
+      <c r="R51" s="22"/>
+      <c r="S51" s="22"/>
+      <c r="T51" s="22"/>
+      <c r="U51" s="22"/>
+      <c r="V51" s="22" t="s">
         <v>515</v>
       </c>
-      <c r="W51" s="23"/>
-      <c r="X51" s="23"/>
-      <c r="Y51" s="23"/>
-      <c r="Z51" s="23"/>
+      <c r="W51" s="22"/>
+      <c r="X51" s="22"/>
+      <c r="Y51" s="22"/>
+      <c r="Z51" s="22"/>
       <c r="AA51">
         <v>0.77363000000000004</v>
       </c>
@@ -15928,20 +15968,20 @@
       </c>
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="22" t="s">
         <v>507</v>
       </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23" t="s">
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22" t="s">
         <v>511</v>
       </c>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="23"/>
-      <c r="J56" s="23"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
       <c r="O56" s="1" t="s">
         <v>438</v>
       </c>
@@ -15980,20 +16020,20 @@
       </c>
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A57" s="23" t="s">
+      <c r="A57" s="22" t="s">
         <v>508</v>
       </c>
-      <c r="B57" s="23"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23" t="s">
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22" t="s">
         <v>512</v>
       </c>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="23"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
       <c r="O57" s="1" t="s">
         <v>437</v>
       </c>
@@ -16062,22 +16102,22 @@
       <c r="J58" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="O58" s="23" t="s">
+      <c r="O58" s="22" t="s">
         <v>434</v>
       </c>
-      <c r="P58" s="23"/>
-      <c r="Q58" s="23"/>
-      <c r="R58" s="23"/>
-      <c r="S58" s="23"/>
-      <c r="T58" s="23"/>
-      <c r="U58" s="23"/>
-      <c r="V58" s="23" t="s">
+      <c r="P58" s="22"/>
+      <c r="Q58" s="22"/>
+      <c r="R58" s="22"/>
+      <c r="S58" s="22"/>
+      <c r="T58" s="22"/>
+      <c r="U58" s="22"/>
+      <c r="V58" s="22" t="s">
         <v>511</v>
       </c>
-      <c r="W58" s="23"/>
-      <c r="X58" s="23"/>
-      <c r="Y58" s="23"/>
-      <c r="Z58" s="23"/>
+      <c r="W58" s="22"/>
+      <c r="X58" s="22"/>
+      <c r="Y58" s="22"/>
+      <c r="Z58" s="22"/>
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
@@ -16110,22 +16150,22 @@
       <c r="J59">
         <v>0.76844000000000001</v>
       </c>
-      <c r="O59" s="23" t="s">
+      <c r="O59" s="22" t="s">
         <v>447</v>
       </c>
-      <c r="P59" s="23"/>
-      <c r="Q59" s="23"/>
-      <c r="R59" s="23"/>
-      <c r="S59" s="23"/>
-      <c r="T59" s="23"/>
-      <c r="U59" s="23"/>
-      <c r="V59" s="23" t="s">
+      <c r="P59" s="22"/>
+      <c r="Q59" s="22"/>
+      <c r="R59" s="22"/>
+      <c r="S59" s="22"/>
+      <c r="T59" s="22"/>
+      <c r="U59" s="22"/>
+      <c r="V59" s="22" t="s">
         <v>544</v>
       </c>
-      <c r="W59" s="23"/>
-      <c r="X59" s="23"/>
-      <c r="Y59" s="23"/>
-      <c r="Z59" s="23"/>
+      <c r="W59" s="22"/>
+      <c r="X59" s="22"/>
+      <c r="Y59" s="22"/>
+      <c r="Z59" s="22"/>
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
@@ -16438,10 +16478,10 @@
       </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A65" s="23" t="s">
+      <c r="A65" s="22" t="s">
         <v>413</v>
       </c>
-      <c r="B65" s="23" t="s">
+      <c r="B65" s="22" t="s">
         <v>444</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -16497,8 +16537,8 @@
       </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A66" s="23"/>
-      <c r="B66" s="23"/>
+      <c r="A66" s="22"/>
+      <c r="B66" s="22"/>
       <c r="C66" s="1" t="s">
         <v>412</v>
       </c>
@@ -16514,19 +16554,19 @@
       <c r="G66">
         <v>0.84930000000000005</v>
       </c>
-      <c r="O66" s="23" t="s">
+      <c r="O66" s="22" t="s">
         <v>434</v>
       </c>
-      <c r="P66" s="23"/>
-      <c r="Q66" s="23"/>
-      <c r="R66" s="23"/>
-      <c r="S66" s="23"/>
-      <c r="T66" s="23"/>
-      <c r="U66" s="23"/>
+      <c r="P66" s="22"/>
+      <c r="Q66" s="22"/>
+      <c r="R66" s="22"/>
+      <c r="S66" s="22"/>
+      <c r="T66" s="22"/>
+      <c r="U66" s="22"/>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A67" s="23"/>
-      <c r="B67" s="23"/>
+      <c r="A67" s="22"/>
+      <c r="B67" s="22"/>
       <c r="C67" s="1" t="s">
         <v>405</v>
       </c>
@@ -16542,19 +16582,19 @@
       <c r="G67">
         <v>0.90871000000000002</v>
       </c>
-      <c r="O67" s="23" t="s">
+      <c r="O67" s="22" t="s">
         <v>448</v>
       </c>
-      <c r="P67" s="23"/>
-      <c r="Q67" s="23"/>
-      <c r="R67" s="23"/>
-      <c r="S67" s="23"/>
-      <c r="T67" s="23"/>
-      <c r="U67" s="23"/>
+      <c r="P67" s="22"/>
+      <c r="Q67" s="22"/>
+      <c r="R67" s="22"/>
+      <c r="S67" s="22"/>
+      <c r="T67" s="22"/>
+      <c r="U67" s="22"/>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A68" s="23"/>
-      <c r="B68" s="23"/>
+      <c r="A68" s="22"/>
+      <c r="B68" s="22"/>
       <c r="C68" s="1" t="s">
         <v>404</v>
       </c>
@@ -16593,8 +16633,8 @@
       </c>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A69" s="23"/>
-      <c r="B69" s="23"/>
+      <c r="A69" s="22"/>
+      <c r="B69" s="22"/>
       <c r="C69" s="1" t="s">
         <v>406</v>
       </c>
@@ -16633,8 +16673,8 @@
       </c>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A70" s="23"/>
-      <c r="B70" s="23"/>
+      <c r="A70" s="22"/>
+      <c r="B70" s="22"/>
       <c r="C70" s="1" t="s">
         <v>403</v>
       </c>
@@ -16673,10 +16713,10 @@
       </c>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A71" s="28" t="s">
+      <c r="A71" s="23" t="s">
         <v>420</v>
       </c>
-      <c r="B71" s="23" t="s">
+      <c r="B71" s="22" t="s">
         <v>445</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -16717,8 +16757,8 @@
       </c>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A72" s="23"/>
-      <c r="B72" s="23"/>
+      <c r="A72" s="22"/>
+      <c r="B72" s="22"/>
       <c r="C72" s="1" t="s">
         <v>412</v>
       </c>
@@ -16757,8 +16797,8 @@
       </c>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A73" s="23"/>
-      <c r="B73" s="23"/>
+      <c r="A73" s="22"/>
+      <c r="B73" s="22"/>
       <c r="C73" s="1" t="s">
         <v>405</v>
       </c>
@@ -16797,8 +16837,8 @@
       </c>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A74" s="23"/>
-      <c r="B74" s="23"/>
+      <c r="A74" s="22"/>
+      <c r="B74" s="22"/>
       <c r="C74" s="1" t="s">
         <v>404</v>
       </c>
@@ -16814,19 +16854,19 @@
       <c r="G74">
         <v>0.81733</v>
       </c>
-      <c r="O74" s="23" t="s">
+      <c r="O74" s="22" t="s">
         <v>434</v>
       </c>
-      <c r="P74" s="23"/>
-      <c r="Q74" s="23"/>
-      <c r="R74" s="23"/>
-      <c r="S74" s="23"/>
-      <c r="T74" s="23"/>
-      <c r="U74" s="23"/>
+      <c r="P74" s="22"/>
+      <c r="Q74" s="22"/>
+      <c r="R74" s="22"/>
+      <c r="S74" s="22"/>
+      <c r="T74" s="22"/>
+      <c r="U74" s="22"/>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A75" s="23"/>
-      <c r="B75" s="23"/>
+      <c r="A75" s="22"/>
+      <c r="B75" s="22"/>
       <c r="C75" s="1" t="s">
         <v>406</v>
       </c>
@@ -16842,19 +16882,19 @@
       <c r="G75">
         <v>0.77490000000000003</v>
       </c>
-      <c r="O75" s="23" t="s">
+      <c r="O75" s="22" t="s">
         <v>449</v>
       </c>
-      <c r="P75" s="23"/>
-      <c r="Q75" s="23"/>
-      <c r="R75" s="23"/>
-      <c r="S75" s="23"/>
-      <c r="T75" s="23"/>
-      <c r="U75" s="23"/>
+      <c r="P75" s="22"/>
+      <c r="Q75" s="22"/>
+      <c r="R75" s="22"/>
+      <c r="S75" s="22"/>
+      <c r="T75" s="22"/>
+      <c r="U75" s="22"/>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A76" s="23"/>
-      <c r="B76" s="23"/>
+      <c r="A76" s="22"/>
+      <c r="B76" s="22"/>
       <c r="C76" s="1" t="s">
         <v>403</v>
       </c>
@@ -16893,22 +16933,22 @@
       </c>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A77" s="23" t="s">
+      <c r="A77" s="22" t="s">
         <v>507</v>
       </c>
-      <c r="B77" s="23"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="23"/>
-      <c r="F77" s="23"/>
-      <c r="G77" s="23" t="s">
+      <c r="B77" s="22"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22" t="s">
         <v>511</v>
       </c>
-      <c r="H77" s="23"/>
-      <c r="I77" s="23"/>
-      <c r="J77" s="23"/>
-      <c r="K77" s="23"/>
-      <c r="L77" s="23"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="22"/>
+      <c r="J77" s="22"/>
+      <c r="K77" s="22"/>
+      <c r="L77" s="22"/>
       <c r="O77" t="s">
         <v>436</v>
       </c>
@@ -16932,22 +16972,22 @@
       </c>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A78" s="23" t="s">
+      <c r="A78" s="22" t="s">
         <v>508</v>
       </c>
-      <c r="B78" s="23"/>
-      <c r="C78" s="23"/>
-      <c r="D78" s="23"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="23"/>
-      <c r="G78" s="23" t="s">
+      <c r="B78" s="22"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="22" t="s">
         <v>512</v>
       </c>
-      <c r="H78" s="23"/>
-      <c r="I78" s="23"/>
-      <c r="J78" s="23"/>
-      <c r="K78" s="23"/>
-      <c r="L78" s="23"/>
+      <c r="H78" s="22"/>
+      <c r="I78" s="22"/>
+      <c r="J78" s="22"/>
+      <c r="K78" s="22"/>
+      <c r="L78" s="22"/>
       <c r="O78" t="s">
         <v>440</v>
       </c>
@@ -17224,33 +17264,33 @@
       </c>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B84" s="23" t="s">
+      <c r="B84" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C84" s="23"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="23"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="22"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
-      <c r="P84" s="23" t="s">
+      <c r="P84" s="22" t="s">
         <v>434</v>
       </c>
-      <c r="Q84" s="23"/>
-      <c r="R84" s="23"/>
-      <c r="S84" s="23"/>
-      <c r="T84" s="23"/>
-      <c r="U84" s="23"/>
-      <c r="V84" s="23"/>
-      <c r="W84" s="23"/>
-      <c r="X84" s="23"/>
+      <c r="Q84" s="22"/>
+      <c r="R84" s="22"/>
+      <c r="S84" s="22"/>
+      <c r="T84" s="22"/>
+      <c r="U84" s="22"/>
+      <c r="V84" s="22"/>
+      <c r="W84" s="22"/>
+      <c r="X84" s="22"/>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B85" s="23" t="s">
+      <c r="B85" s="22" t="s">
         <v>545</v>
       </c>
-      <c r="C85" s="23"/>
-      <c r="D85" s="23"/>
-      <c r="E85" s="23"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="22"/>
+      <c r="E85" s="22"/>
       <c r="F85" s="1" t="s">
         <v>522</v>
       </c>
@@ -17266,17 +17306,17 @@
       <c r="J85" t="s">
         <v>528</v>
       </c>
-      <c r="P85" s="23" t="s">
+      <c r="P85" s="22" t="s">
         <v>454</v>
       </c>
-      <c r="Q85" s="23"/>
-      <c r="R85" s="23"/>
-      <c r="S85" s="23"/>
-      <c r="T85" s="23"/>
-      <c r="U85" s="23"/>
-      <c r="V85" s="23"/>
-      <c r="W85" s="23"/>
-      <c r="X85" s="23"/>
+      <c r="Q85" s="22"/>
+      <c r="R85" s="22"/>
+      <c r="S85" s="22"/>
+      <c r="T85" s="22"/>
+      <c r="U85" s="22"/>
+      <c r="V85" s="22"/>
+      <c r="W85" s="22"/>
+      <c r="X85" s="22"/>
     </row>
     <row r="86" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
@@ -17618,54 +17658,54 @@
       </c>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B92" s="23" t="s">
+      <c r="B92" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C92" s="23"/>
-      <c r="D92" s="23"/>
-      <c r="E92" s="23"/>
-      <c r="F92" s="23" t="s">
+      <c r="C92" s="22"/>
+      <c r="D92" s="22"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="G92" s="23"/>
-      <c r="H92" s="23"/>
-      <c r="I92" s="23"/>
-      <c r="P92" s="23" t="s">
+      <c r="G92" s="22"/>
+      <c r="H92" s="22"/>
+      <c r="I92" s="22"/>
+      <c r="P92" s="22" t="s">
         <v>434</v>
       </c>
-      <c r="Q92" s="23"/>
-      <c r="R92" s="23"/>
-      <c r="S92" s="23"/>
-      <c r="T92" s="23"/>
-      <c r="U92" s="23"/>
-      <c r="V92" s="23"/>
-      <c r="W92" s="23"/>
-      <c r="X92" s="23"/>
+      <c r="Q92" s="22"/>
+      <c r="R92" s="22"/>
+      <c r="S92" s="22"/>
+      <c r="T92" s="22"/>
+      <c r="U92" s="22"/>
+      <c r="V92" s="22"/>
+      <c r="W92" s="22"/>
+      <c r="X92" s="22"/>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B93" s="23" t="s">
+      <c r="B93" s="22" t="s">
         <v>546</v>
       </c>
-      <c r="C93" s="23"/>
-      <c r="D93" s="23"/>
-      <c r="E93" s="23"/>
-      <c r="F93" s="23" t="s">
+      <c r="C93" s="22"/>
+      <c r="D93" s="22"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="22" t="s">
         <v>548</v>
       </c>
-      <c r="G93" s="23"/>
-      <c r="H93" s="23"/>
-      <c r="I93" s="23"/>
-      <c r="P93" s="23" t="s">
+      <c r="G93" s="22"/>
+      <c r="H93" s="22"/>
+      <c r="I93" s="22"/>
+      <c r="P93" s="22" t="s">
         <v>462</v>
       </c>
-      <c r="Q93" s="23"/>
-      <c r="R93" s="23"/>
-      <c r="S93" s="23"/>
-      <c r="T93" s="23"/>
-      <c r="U93" s="23"/>
-      <c r="V93" s="23"/>
-      <c r="W93" s="23"/>
-      <c r="X93" s="23"/>
+      <c r="Q93" s="22"/>
+      <c r="R93" s="22"/>
+      <c r="S93" s="22"/>
+      <c r="T93" s="22"/>
+      <c r="U93" s="22"/>
+      <c r="V93" s="22"/>
+      <c r="W93" s="22"/>
+      <c r="X93" s="22"/>
     </row>
     <row r="94" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
@@ -18025,12 +18065,12 @@
       <c r="A100" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="B100" s="23" t="s">
+      <c r="B100" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C100" s="23"/>
-      <c r="D100" s="23"/>
-      <c r="E100" s="23"/>
+      <c r="C100" s="22"/>
+      <c r="D100" s="22"/>
+      <c r="E100" s="22"/>
       <c r="F100" s="1" t="s">
         <v>554</v>
       </c>
@@ -18046,26 +18086,26 @@
       <c r="J100">
         <v>0.77887333098497002</v>
       </c>
-      <c r="P100" s="23" t="s">
+      <c r="P100" s="22" t="s">
         <v>434</v>
       </c>
-      <c r="Q100" s="23"/>
-      <c r="R100" s="23"/>
-      <c r="S100" s="23"/>
-      <c r="T100" s="23"/>
-      <c r="U100" s="23"/>
-      <c r="V100" s="23"/>
-      <c r="W100" s="23"/>
-      <c r="X100" s="23"/>
+      <c r="Q100" s="22"/>
+      <c r="R100" s="22"/>
+      <c r="S100" s="22"/>
+      <c r="T100" s="22"/>
+      <c r="U100" s="22"/>
+      <c r="V100" s="22"/>
+      <c r="W100" s="22"/>
+      <c r="X100" s="22"/>
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
-      <c r="B101" s="23" t="s">
+      <c r="B101" s="22" t="s">
         <v>547</v>
       </c>
-      <c r="C101" s="23"/>
-      <c r="D101" s="23"/>
-      <c r="E101" s="23"/>
+      <c r="C101" s="22"/>
+      <c r="D101" s="22"/>
+      <c r="E101" s="22"/>
       <c r="F101" s="1" t="s">
         <v>555</v>
       </c>
@@ -18081,17 +18121,17 @@
       <c r="J101">
         <v>1.27434722297322</v>
       </c>
-      <c r="P101" s="23" t="s">
+      <c r="P101" s="22" t="s">
         <v>455</v>
       </c>
-      <c r="Q101" s="23"/>
-      <c r="R101" s="23"/>
-      <c r="S101" s="23"/>
-      <c r="T101" s="23"/>
-      <c r="U101" s="23"/>
-      <c r="V101" s="23"/>
-      <c r="W101" s="23"/>
-      <c r="X101" s="23"/>
+      <c r="Q101" s="22"/>
+      <c r="R101" s="22"/>
+      <c r="S101" s="22"/>
+      <c r="T101" s="22"/>
+      <c r="U101" s="22"/>
+      <c r="V101" s="22"/>
+      <c r="W101" s="22"/>
+      <c r="X101" s="22"/>
     </row>
     <row r="102" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
@@ -18391,49 +18431,49 @@
       <c r="B108" s="1"/>
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A109" s="23" t="s">
+      <c r="A109" s="22" t="s">
         <v>507</v>
       </c>
-      <c r="B109" s="23"/>
-      <c r="C109" s="23"/>
-      <c r="D109" s="23"/>
-      <c r="E109" s="23"/>
-      <c r="F109" s="23"/>
-      <c r="G109" s="23" t="s">
+      <c r="B109" s="22"/>
+      <c r="C109" s="22"/>
+      <c r="D109" s="22"/>
+      <c r="E109" s="22"/>
+      <c r="F109" s="22"/>
+      <c r="G109" s="22" t="s">
         <v>511</v>
       </c>
-      <c r="H109" s="23"/>
-      <c r="I109" s="23"/>
-      <c r="J109" s="23"/>
-      <c r="K109" s="23"/>
-      <c r="L109" s="23"/>
+      <c r="H109" s="22"/>
+      <c r="I109" s="22"/>
+      <c r="J109" s="22"/>
+      <c r="K109" s="22"/>
+      <c r="L109" s="22"/>
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A110" s="23" t="s">
+      <c r="A110" s="22" t="s">
         <v>508</v>
       </c>
-      <c r="B110" s="23"/>
-      <c r="C110" s="23"/>
-      <c r="D110" s="23"/>
-      <c r="E110" s="23"/>
-      <c r="F110" s="23"/>
-      <c r="G110" s="23" t="s">
+      <c r="B110" s="22"/>
+      <c r="C110" s="22"/>
+      <c r="D110" s="22"/>
+      <c r="E110" s="22"/>
+      <c r="F110" s="22"/>
+      <c r="G110" s="22" t="s">
         <v>512</v>
       </c>
-      <c r="H110" s="23"/>
-      <c r="I110" s="23"/>
-      <c r="J110" s="23"/>
-      <c r="K110" s="23"/>
-      <c r="L110" s="23"/>
-      <c r="O110" s="23" t="s">
+      <c r="H110" s="22"/>
+      <c r="I110" s="22"/>
+      <c r="J110" s="22"/>
+      <c r="K110" s="22"/>
+      <c r="L110" s="22"/>
+      <c r="O110" s="22" t="s">
         <v>434</v>
       </c>
-      <c r="P110" s="23"/>
-      <c r="Q110" s="23"/>
-      <c r="R110" s="23"/>
-      <c r="S110" s="23"/>
-      <c r="T110" s="23"/>
-      <c r="U110" s="23"/>
+      <c r="P110" s="22"/>
+      <c r="Q110" s="22"/>
+      <c r="R110" s="22"/>
+      <c r="S110" s="22"/>
+      <c r="T110" s="22"/>
+      <c r="U110" s="22"/>
       <c r="V110" s="2"/>
       <c r="W110" s="2"/>
     </row>
@@ -18474,15 +18514,15 @@
       <c r="L111" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="O111" s="23" t="s">
+      <c r="O111" s="22" t="s">
         <v>456</v>
       </c>
-      <c r="P111" s="23"/>
-      <c r="Q111" s="23"/>
-      <c r="R111" s="23"/>
-      <c r="S111" s="23"/>
-      <c r="T111" s="23"/>
-      <c r="U111" s="23"/>
+      <c r="P111" s="22"/>
+      <c r="Q111" s="22"/>
+      <c r="R111" s="22"/>
+      <c r="S111" s="22"/>
+      <c r="T111" s="22"/>
+      <c r="U111" s="22"/>
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
@@ -18770,59 +18810,59 @@
       <c r="A118" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="B118" s="20" t="s">
+      <c r="B118" s="29" t="s">
         <v>522</v>
       </c>
-      <c r="C118" s="21"/>
-      <c r="D118" s="21"/>
-      <c r="E118" s="21"/>
-      <c r="F118" s="22"/>
+      <c r="C118" s="30"/>
+      <c r="D118" s="30"/>
+      <c r="E118" s="30"/>
+      <c r="F118" s="31"/>
       <c r="G118" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="H118" s="25" t="s">
+      <c r="H118" s="26" t="s">
         <v>522</v>
       </c>
-      <c r="I118" s="27"/>
-      <c r="J118" s="27"/>
-      <c r="K118" s="27"/>
-      <c r="L118" s="26"/>
-      <c r="O118" s="23" t="s">
+      <c r="I118" s="28"/>
+      <c r="J118" s="28"/>
+      <c r="K118" s="28"/>
+      <c r="L118" s="27"/>
+      <c r="O118" s="22" t="s">
         <v>434</v>
       </c>
-      <c r="P118" s="23"/>
-      <c r="Q118" s="23"/>
-      <c r="R118" s="23"/>
-      <c r="S118" s="23"/>
-      <c r="T118" s="23"/>
-      <c r="U118" s="23"/>
+      <c r="P118" s="22"/>
+      <c r="Q118" s="22"/>
+      <c r="R118" s="22"/>
+      <c r="S118" s="22"/>
+      <c r="T118" s="22"/>
+      <c r="U118" s="22"/>
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A119" s="20" t="s">
+      <c r="A119" s="29" t="s">
         <v>533</v>
       </c>
-      <c r="B119" s="21"/>
-      <c r="C119" s="21"/>
-      <c r="D119" s="21"/>
-      <c r="E119" s="21"/>
-      <c r="F119" s="22"/>
-      <c r="G119" s="20" t="s">
+      <c r="B119" s="30"/>
+      <c r="C119" s="30"/>
+      <c r="D119" s="30"/>
+      <c r="E119" s="30"/>
+      <c r="F119" s="31"/>
+      <c r="G119" s="29" t="s">
         <v>538</v>
       </c>
-      <c r="H119" s="21"/>
-      <c r="I119" s="21"/>
-      <c r="J119" s="21"/>
-      <c r="K119" s="21"/>
-      <c r="L119" s="22"/>
-      <c r="O119" s="23" t="s">
+      <c r="H119" s="30"/>
+      <c r="I119" s="30"/>
+      <c r="J119" s="30"/>
+      <c r="K119" s="30"/>
+      <c r="L119" s="31"/>
+      <c r="O119" s="22" t="s">
         <v>461</v>
       </c>
-      <c r="P119" s="23"/>
-      <c r="Q119" s="23"/>
-      <c r="R119" s="23"/>
-      <c r="S119" s="23"/>
-      <c r="T119" s="23"/>
-      <c r="U119" s="23"/>
+      <c r="P119" s="22"/>
+      <c r="Q119" s="22"/>
+      <c r="R119" s="22"/>
+      <c r="S119" s="22"/>
+      <c r="T119" s="22"/>
+      <c r="U119" s="22"/>
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
@@ -18846,15 +18886,15 @@
       <c r="G120" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="H120" s="24">
+      <c r="H120" s="32">
         <v>1</v>
       </c>
-      <c r="I120" s="24"/>
-      <c r="J120" s="24"/>
-      <c r="K120" s="24">
+      <c r="I120" s="32"/>
+      <c r="J120" s="32"/>
+      <c r="K120" s="32">
         <v>2</v>
       </c>
-      <c r="L120" s="24"/>
+      <c r="L120" s="32"/>
       <c r="O120" s="1" t="s">
         <v>472</v>
       </c>
@@ -18899,15 +18939,15 @@
       <c r="G121" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="H121" s="24">
+      <c r="H121" s="32">
         <v>1</v>
       </c>
-      <c r="I121" s="24"/>
-      <c r="J121" s="24"/>
-      <c r="K121" s="24">
+      <c r="I121" s="32"/>
+      <c r="J121" s="32"/>
+      <c r="K121" s="32">
         <v>2</v>
       </c>
-      <c r="L121" s="24"/>
+      <c r="L121" s="32"/>
       <c r="O121" s="1" t="s">
         <v>457</v>
       </c>
@@ -18952,15 +18992,15 @@
       <c r="G122" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="H122" s="24">
+      <c r="H122" s="32">
         <v>1</v>
       </c>
-      <c r="I122" s="24"/>
-      <c r="J122" s="24"/>
-      <c r="K122" s="24">
+      <c r="I122" s="32"/>
+      <c r="J122" s="32"/>
+      <c r="K122" s="32">
         <v>2</v>
       </c>
-      <c r="L122" s="24"/>
+      <c r="L122" s="32"/>
       <c r="O122" s="1" t="s">
         <v>458</v>
       </c>
@@ -18984,22 +19024,22 @@
       </c>
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A123" s="20" t="s">
+      <c r="A123" s="29" t="s">
         <v>412</v>
       </c>
-      <c r="B123" s="21"/>
-      <c r="C123" s="21"/>
-      <c r="D123" s="21"/>
-      <c r="E123" s="21"/>
-      <c r="F123" s="22"/>
-      <c r="G123" s="20" t="s">
+      <c r="B123" s="30"/>
+      <c r="C123" s="30"/>
+      <c r="D123" s="30"/>
+      <c r="E123" s="30"/>
+      <c r="F123" s="31"/>
+      <c r="G123" s="29" t="s">
         <v>537</v>
       </c>
-      <c r="H123" s="21"/>
-      <c r="I123" s="21"/>
-      <c r="J123" s="21"/>
-      <c r="K123" s="21"/>
-      <c r="L123" s="22"/>
+      <c r="H123" s="30"/>
+      <c r="I123" s="30"/>
+      <c r="J123" s="30"/>
+      <c r="K123" s="30"/>
+      <c r="L123" s="31"/>
       <c r="O123" s="1" t="s">
         <v>459</v>
       </c>
@@ -19029,14 +19069,14 @@
       <c r="B124" s="7">
         <v>1</v>
       </c>
-      <c r="C124" s="24">
+      <c r="C124" s="32">
         <v>2</v>
       </c>
-      <c r="D124" s="24"/>
-      <c r="E124" s="25">
+      <c r="D124" s="32"/>
+      <c r="E124" s="26">
         <v>3</v>
       </c>
-      <c r="F124" s="26"/>
+      <c r="F124" s="27"/>
       <c r="G124" s="6" t="s">
         <v>406</v>
       </c>
@@ -19090,10 +19130,10 @@
       <c r="D125" s="7">
         <v>3</v>
       </c>
-      <c r="E125" s="25">
+      <c r="E125" s="26">
         <v>4</v>
       </c>
-      <c r="F125" s="26"/>
+      <c r="F125" s="27"/>
       <c r="G125" s="6" t="s">
         <v>405</v>
       </c>
@@ -19135,32 +19175,32 @@
       </c>
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="O126" s="23" t="s">
+      <c r="O126" s="22" t="s">
         <v>507</v>
       </c>
-      <c r="P126" s="23"/>
-      <c r="Q126" s="23"/>
-      <c r="R126" s="23"/>
-      <c r="S126" s="23" t="s">
+      <c r="P126" s="22"/>
+      <c r="Q126" s="22"/>
+      <c r="R126" s="22"/>
+      <c r="S126" s="22" t="s">
         <v>511</v>
       </c>
-      <c r="T126" s="23"/>
-      <c r="U126" s="23"/>
-      <c r="V126" s="23"/>
+      <c r="T126" s="22"/>
+      <c r="U126" s="22"/>
+      <c r="V126" s="22"/>
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="O127" s="23" t="s">
+      <c r="O127" s="22" t="s">
         <v>541</v>
       </c>
-      <c r="P127" s="23"/>
-      <c r="Q127" s="23"/>
-      <c r="R127" s="23"/>
-      <c r="S127" s="23" t="s">
+      <c r="P127" s="22"/>
+      <c r="Q127" s="22"/>
+      <c r="R127" s="22"/>
+      <c r="S127" s="22" t="s">
         <v>542</v>
       </c>
-      <c r="T127" s="23"/>
-      <c r="U127" s="23"/>
-      <c r="V127" s="23"/>
+      <c r="T127" s="22"/>
+      <c r="U127" s="22"/>
+      <c r="V127" s="22"/>
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
@@ -19403,18 +19443,18 @@
       <c r="D134" t="s">
         <v>563</v>
       </c>
-      <c r="O134" s="23" t="s">
+      <c r="O134" s="22" t="s">
         <v>507</v>
       </c>
-      <c r="P134" s="23"/>
-      <c r="Q134" s="23"/>
-      <c r="R134" s="23"/>
-      <c r="S134" s="23" t="s">
+      <c r="P134" s="22"/>
+      <c r="Q134" s="22"/>
+      <c r="R134" s="22"/>
+      <c r="S134" s="22" t="s">
         <v>511</v>
       </c>
-      <c r="T134" s="23"/>
-      <c r="U134" s="23"/>
-      <c r="V134" s="23"/>
+      <c r="T134" s="22"/>
+      <c r="U134" s="22"/>
+      <c r="V134" s="22"/>
     </row>
     <row r="135" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A135">
@@ -19429,18 +19469,18 @@
       <c r="D135">
         <v>0.26800000000000002</v>
       </c>
-      <c r="O135" s="23" t="s">
+      <c r="O135" s="22" t="s">
         <v>543</v>
       </c>
-      <c r="P135" s="23"/>
-      <c r="Q135" s="23"/>
-      <c r="R135" s="23"/>
-      <c r="S135" s="23" t="s">
+      <c r="P135" s="22"/>
+      <c r="Q135" s="22"/>
+      <c r="R135" s="22"/>
+      <c r="S135" s="22" t="s">
         <v>544</v>
       </c>
-      <c r="T135" s="23"/>
-      <c r="U135" s="23"/>
-      <c r="V135" s="23"/>
+      <c r="T135" s="22"/>
+      <c r="U135" s="22"/>
+      <c r="V135" s="22"/>
     </row>
     <row r="136" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A136">
@@ -19507,20 +19547,20 @@
       </c>
     </row>
     <row r="138" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A138" s="23" t="s">
+      <c r="A138" s="22" t="s">
         <v>507</v>
       </c>
-      <c r="B138" s="23"/>
-      <c r="C138" s="23"/>
-      <c r="D138" s="23"/>
-      <c r="E138" s="23"/>
-      <c r="F138" s="23" t="s">
+      <c r="B138" s="22"/>
+      <c r="C138" s="22"/>
+      <c r="D138" s="22"/>
+      <c r="E138" s="22"/>
+      <c r="F138" s="22" t="s">
         <v>511</v>
       </c>
-      <c r="G138" s="23"/>
-      <c r="H138" s="23"/>
-      <c r="I138" s="23"/>
-      <c r="J138" s="23"/>
+      <c r="G138" s="22"/>
+      <c r="H138" s="22"/>
+      <c r="I138" s="22"/>
+      <c r="J138" s="22"/>
       <c r="O138" s="1" t="s">
         <v>458</v>
       </c>
@@ -19547,20 +19587,20 @@
       </c>
     </row>
     <row r="139" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A139" s="23" t="s">
+      <c r="A139" s="22" t="s">
         <v>508</v>
       </c>
-      <c r="B139" s="23"/>
-      <c r="C139" s="23"/>
-      <c r="D139" s="23"/>
-      <c r="E139" s="23"/>
-      <c r="F139" s="23" t="s">
+      <c r="B139" s="22"/>
+      <c r="C139" s="22"/>
+      <c r="D139" s="22"/>
+      <c r="E139" s="22"/>
+      <c r="F139" s="22" t="s">
         <v>512</v>
       </c>
-      <c r="G139" s="23"/>
-      <c r="H139" s="23"/>
-      <c r="I139" s="23"/>
-      <c r="J139" s="23"/>
+      <c r="G139" s="22"/>
+      <c r="H139" s="22"/>
+      <c r="I139" s="22"/>
+      <c r="J139" s="22"/>
       <c r="O139" s="1" t="s">
         <v>459</v>
       </c>
@@ -19729,27 +19769,27 @@
       <c r="J142">
         <v>0.84316999999999998</v>
       </c>
-      <c r="O142" s="23" t="s">
+      <c r="O142" s="22" t="s">
         <v>580</v>
       </c>
-      <c r="P142" s="23"/>
-      <c r="Q142" s="23"/>
-      <c r="R142" s="23"/>
-      <c r="S142" s="23"/>
-      <c r="T142" s="23" t="s">
+      <c r="P142" s="22"/>
+      <c r="Q142" s="22"/>
+      <c r="R142" s="22"/>
+      <c r="S142" s="22"/>
+      <c r="T142" s="22" t="s">
         <v>580</v>
       </c>
-      <c r="U142" s="23"/>
-      <c r="V142" s="23"/>
-      <c r="W142" s="23"/>
-      <c r="X142" s="23"/>
-      <c r="Y142" s="23" t="s">
+      <c r="U142" s="22"/>
+      <c r="V142" s="22"/>
+      <c r="W142" s="22"/>
+      <c r="X142" s="22"/>
+      <c r="Y142" s="22" t="s">
         <v>580</v>
       </c>
-      <c r="Z142" s="23"/>
-      <c r="AA142" s="23"/>
-      <c r="AB142" s="23"/>
-      <c r="AC142" s="23"/>
+      <c r="Z142" s="22"/>
+      <c r="AA142" s="22"/>
+      <c r="AB142" s="22"/>
+      <c r="AC142" s="22"/>
     </row>
     <row r="143" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
@@ -19782,27 +19822,27 @@
       <c r="J143">
         <v>0.81733</v>
       </c>
-      <c r="O143" s="23" t="s">
+      <c r="O143" s="22" t="s">
         <v>582</v>
       </c>
-      <c r="P143" s="23"/>
-      <c r="Q143" s="23"/>
-      <c r="R143" s="23"/>
-      <c r="S143" s="23"/>
-      <c r="T143" s="23" t="s">
+      <c r="P143" s="22"/>
+      <c r="Q143" s="22"/>
+      <c r="R143" s="22"/>
+      <c r="S143" s="22"/>
+      <c r="T143" s="22" t="s">
         <v>581</v>
       </c>
-      <c r="U143" s="23"/>
-      <c r="V143" s="23"/>
-      <c r="W143" s="23"/>
-      <c r="X143" s="23"/>
-      <c r="Y143" s="23" t="s">
+      <c r="U143" s="22"/>
+      <c r="V143" s="22"/>
+      <c r="W143" s="22"/>
+      <c r="X143" s="22"/>
+      <c r="Y143" s="22" t="s">
         <v>579</v>
       </c>
-      <c r="Z143" s="23"/>
-      <c r="AA143" s="23"/>
-      <c r="AB143" s="23"/>
-      <c r="AC143" s="23"/>
+      <c r="Z143" s="22"/>
+      <c r="AA143" s="22"/>
+      <c r="AB143" s="22"/>
+      <c r="AC143" s="22"/>
     </row>
     <row r="144" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
@@ -19959,20 +19999,20 @@
       </c>
     </row>
     <row r="146" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A146" s="23" t="s">
+      <c r="A146" s="22" t="s">
         <v>507</v>
       </c>
-      <c r="B146" s="23"/>
-      <c r="C146" s="23"/>
-      <c r="D146" s="23"/>
-      <c r="E146" s="23"/>
-      <c r="F146" s="23" t="s">
+      <c r="B146" s="22"/>
+      <c r="C146" s="22"/>
+      <c r="D146" s="22"/>
+      <c r="E146" s="22"/>
+      <c r="F146" s="22" t="s">
         <v>511</v>
       </c>
-      <c r="G146" s="23"/>
-      <c r="H146" s="23"/>
-      <c r="I146" s="23"/>
-      <c r="J146" s="23"/>
+      <c r="G146" s="22"/>
+      <c r="H146" s="22"/>
+      <c r="I146" s="22"/>
+      <c r="J146" s="22"/>
       <c r="O146" s="1" t="s">
         <v>457</v>
       </c>
@@ -20020,20 +20060,20 @@
       </c>
     </row>
     <row r="147" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A147" s="23" t="s">
+      <c r="A147" s="22" t="s">
         <v>508</v>
       </c>
-      <c r="B147" s="23"/>
-      <c r="C147" s="23"/>
-      <c r="D147" s="23"/>
-      <c r="E147" s="23"/>
-      <c r="F147" s="23" t="s">
+      <c r="B147" s="22"/>
+      <c r="C147" s="22"/>
+      <c r="D147" s="22"/>
+      <c r="E147" s="22"/>
+      <c r="F147" s="22" t="s">
         <v>512</v>
       </c>
-      <c r="G147" s="23"/>
-      <c r="H147" s="23"/>
-      <c r="I147" s="23"/>
-      <c r="J147" s="23"/>
+      <c r="G147" s="22"/>
+      <c r="H147" s="22"/>
+      <c r="I147" s="22"/>
+      <c r="J147" s="22"/>
       <c r="O147" s="1" t="s">
         <v>530</v>
       </c>
@@ -21071,56 +21111,56 @@
       </c>
     </row>
     <row r="165" spans="15:33" x14ac:dyDescent="0.25">
-      <c r="P165" s="19" t="s">
+      <c r="P165" s="33" t="s">
         <v>580</v>
       </c>
-      <c r="Q165" s="19"/>
-      <c r="R165" s="19"/>
-      <c r="S165" s="19"/>
-      <c r="T165" s="19"/>
-      <c r="U165" s="19"/>
-      <c r="V165" s="19" t="s">
+      <c r="Q165" s="33"/>
+      <c r="R165" s="33"/>
+      <c r="S165" s="33"/>
+      <c r="T165" s="33"/>
+      <c r="U165" s="33"/>
+      <c r="V165" s="33" t="s">
         <v>580</v>
       </c>
-      <c r="W165" s="19"/>
-      <c r="X165" s="19"/>
-      <c r="Y165" s="19"/>
-      <c r="Z165" s="19"/>
-      <c r="AA165" s="19"/>
-      <c r="AB165" s="19" t="s">
+      <c r="W165" s="33"/>
+      <c r="X165" s="33"/>
+      <c r="Y165" s="33"/>
+      <c r="Z165" s="33"/>
+      <c r="AA165" s="33"/>
+      <c r="AB165" s="33" t="s">
         <v>580</v>
       </c>
-      <c r="AC165" s="19"/>
-      <c r="AD165" s="19"/>
-      <c r="AE165" s="19"/>
-      <c r="AF165" s="19"/>
-      <c r="AG165" s="19"/>
+      <c r="AC165" s="33"/>
+      <c r="AD165" s="33"/>
+      <c r="AE165" s="33"/>
+      <c r="AF165" s="33"/>
+      <c r="AG165" s="33"/>
     </row>
     <row r="166" spans="15:33" x14ac:dyDescent="0.25">
-      <c r="P166" s="19" t="s">
+      <c r="P166" s="33" t="s">
         <v>582</v>
       </c>
-      <c r="Q166" s="19"/>
-      <c r="R166" s="19"/>
-      <c r="S166" s="19"/>
-      <c r="T166" s="19"/>
-      <c r="U166" s="19"/>
-      <c r="V166" s="19" t="s">
+      <c r="Q166" s="33"/>
+      <c r="R166" s="33"/>
+      <c r="S166" s="33"/>
+      <c r="T166" s="33"/>
+      <c r="U166" s="33"/>
+      <c r="V166" s="33" t="s">
         <v>581</v>
       </c>
-      <c r="W166" s="19"/>
-      <c r="X166" s="19"/>
-      <c r="Y166" s="19"/>
-      <c r="Z166" s="19"/>
-      <c r="AA166" s="19"/>
-      <c r="AB166" s="19" t="s">
+      <c r="W166" s="33"/>
+      <c r="X166" s="33"/>
+      <c r="Y166" s="33"/>
+      <c r="Z166" s="33"/>
+      <c r="AA166" s="33"/>
+      <c r="AB166" s="33" t="s">
         <v>583</v>
       </c>
-      <c r="AC166" s="19"/>
-      <c r="AD166" s="19"/>
-      <c r="AE166" s="19"/>
-      <c r="AF166" s="19"/>
-      <c r="AG166" s="19"/>
+      <c r="AC166" s="33"/>
+      <c r="AD166" s="33"/>
+      <c r="AE166" s="33"/>
+      <c r="AF166" s="33"/>
+      <c r="AG166" s="33"/>
     </row>
     <row r="167" spans="15:33" x14ac:dyDescent="0.25">
       <c r="P167" s="6" t="s">
@@ -22465,30 +22505,30 @@
       </c>
     </row>
     <row r="190" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P190" s="19" t="s">
+      <c r="P190" s="33" t="s">
         <v>582</v>
       </c>
-      <c r="Q190" s="19"/>
-      <c r="R190" s="19"/>
-      <c r="S190" s="19"/>
-      <c r="T190" s="19"/>
-      <c r="U190" s="19"/>
-      <c r="V190" s="19" t="s">
+      <c r="Q190" s="33"/>
+      <c r="R190" s="33"/>
+      <c r="S190" s="33"/>
+      <c r="T190" s="33"/>
+      <c r="U190" s="33"/>
+      <c r="V190" s="33" t="s">
         <v>581</v>
       </c>
-      <c r="W190" s="19"/>
-      <c r="X190" s="19"/>
-      <c r="Y190" s="19"/>
-      <c r="Z190" s="19"/>
-      <c r="AA190" s="19"/>
-      <c r="AB190" s="19" t="s">
+      <c r="W190" s="33"/>
+      <c r="X190" s="33"/>
+      <c r="Y190" s="33"/>
+      <c r="Z190" s="33"/>
+      <c r="AA190" s="33"/>
+      <c r="AB190" s="33" t="s">
         <v>583</v>
       </c>
-      <c r="AC190" s="19"/>
-      <c r="AD190" s="19"/>
-      <c r="AE190" s="19"/>
-      <c r="AF190" s="19"/>
-      <c r="AG190" s="19"/>
+      <c r="AC190" s="33"/>
+      <c r="AD190" s="33"/>
+      <c r="AE190" s="33"/>
+      <c r="AF190" s="33"/>
+      <c r="AG190" s="33"/>
     </row>
     <row r="191" spans="16:33" x14ac:dyDescent="0.25">
       <c r="P191" s="6" t="s">
@@ -25401,20 +25441,20 @@
       </c>
     </row>
     <row r="244" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P244" s="30" t="s">
+      <c r="P244" s="25" t="s">
         <v>504</v>
       </c>
-      <c r="Q244" s="29" t="s">
+      <c r="Q244" s="24" t="s">
         <v>614</v>
       </c>
-      <c r="R244" s="29"/>
-      <c r="S244" s="29" t="s">
+      <c r="R244" s="24"/>
+      <c r="S244" s="24" t="s">
         <v>615</v>
       </c>
-      <c r="T244" s="29"/>
+      <c r="T244" s="24"/>
     </row>
     <row r="245" spans="16:33" ht="60" x14ac:dyDescent="0.25">
-      <c r="P245" s="30"/>
+      <c r="P245" s="25"/>
       <c r="Q245" s="12" t="s">
         <v>616</v>
       </c>
@@ -25612,83 +25652,83 @@
       </c>
     </row>
     <row r="256" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P256" s="23"/>
-      <c r="Q256" s="23"/>
-      <c r="R256" s="23"/>
-      <c r="S256" s="23"/>
-      <c r="T256" s="23"/>
-      <c r="U256" s="23"/>
-      <c r="V256" s="23"/>
-      <c r="W256" s="23"/>
-      <c r="X256" s="23"/>
-      <c r="Y256" s="23"/>
+      <c r="P256" s="22"/>
+      <c r="Q256" s="22"/>
+      <c r="R256" s="22"/>
+      <c r="S256" s="22"/>
+      <c r="T256" s="22"/>
+      <c r="U256" s="22"/>
+      <c r="V256" s="22"/>
+      <c r="W256" s="22"/>
+      <c r="X256" s="22"/>
+      <c r="Y256" s="22"/>
     </row>
     <row r="257" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P257" s="20" t="s">
+      <c r="P257" s="29" t="s">
         <v>618</v>
       </c>
-      <c r="Q257" s="21"/>
-      <c r="R257" s="21"/>
-      <c r="S257" s="21"/>
-      <c r="T257" s="21"/>
-      <c r="U257" s="21"/>
-      <c r="V257" s="21"/>
-      <c r="W257" s="21"/>
-      <c r="X257" s="22"/>
-      <c r="Y257" s="20" t="s">
+      <c r="Q257" s="30"/>
+      <c r="R257" s="30"/>
+      <c r="S257" s="30"/>
+      <c r="T257" s="30"/>
+      <c r="U257" s="30"/>
+      <c r="V257" s="30"/>
+      <c r="W257" s="30"/>
+      <c r="X257" s="31"/>
+      <c r="Y257" s="29" t="s">
         <v>619</v>
       </c>
-      <c r="Z257" s="21"/>
-      <c r="AA257" s="21"/>
-      <c r="AB257" s="21"/>
-      <c r="AC257" s="21"/>
-      <c r="AD257" s="21"/>
-      <c r="AE257" s="21"/>
-      <c r="AF257" s="21"/>
-      <c r="AG257" s="22"/>
+      <c r="Z257" s="30"/>
+      <c r="AA257" s="30"/>
+      <c r="AB257" s="30"/>
+      <c r="AC257" s="30"/>
+      <c r="AD257" s="30"/>
+      <c r="AE257" s="30"/>
+      <c r="AF257" s="30"/>
+      <c r="AG257" s="31"/>
     </row>
     <row r="258" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P258" s="19" t="s">
+      <c r="P258" s="33" t="s">
         <v>504</v>
       </c>
-      <c r="Q258" s="19" t="s">
+      <c r="Q258" s="33" t="s">
         <v>451</v>
       </c>
-      <c r="R258" s="19"/>
-      <c r="S258" s="19" t="s">
+      <c r="R258" s="33"/>
+      <c r="S258" s="33" t="s">
         <v>452</v>
       </c>
-      <c r="T258" s="19"/>
-      <c r="U258" s="19" t="s">
+      <c r="T258" s="33"/>
+      <c r="U258" s="33" t="s">
         <v>509</v>
       </c>
-      <c r="V258" s="19"/>
-      <c r="W258" s="19" t="s">
+      <c r="V258" s="33"/>
+      <c r="W258" s="33" t="s">
         <v>558</v>
       </c>
-      <c r="X258" s="19"/>
-      <c r="Y258" s="19" t="s">
+      <c r="X258" s="33"/>
+      <c r="Y258" s="33" t="s">
         <v>504</v>
       </c>
-      <c r="Z258" s="19" t="s">
+      <c r="Z258" s="33" t="s">
         <v>451</v>
       </c>
-      <c r="AA258" s="19"/>
-      <c r="AB258" s="19" t="s">
+      <c r="AA258" s="33"/>
+      <c r="AB258" s="33" t="s">
         <v>452</v>
       </c>
-      <c r="AC258" s="19"/>
-      <c r="AD258" s="19" t="s">
+      <c r="AC258" s="33"/>
+      <c r="AD258" s="33" t="s">
         <v>509</v>
       </c>
-      <c r="AE258" s="19"/>
+      <c r="AE258" s="33"/>
       <c r="AF258" s="6" t="s">
         <v>558</v>
       </c>
       <c r="AG258" s="7"/>
     </row>
     <row r="259" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P259" s="19"/>
+      <c r="P259" s="33"/>
       <c r="Q259" s="11" t="s">
         <v>507</v>
       </c>
@@ -25713,7 +25753,7 @@
       <c r="X259" s="11" t="s">
         <v>620</v>
       </c>
-      <c r="Y259" s="19"/>
+      <c r="Y259" s="33"/>
       <c r="Z259" s="11" t="s">
         <v>511</v>
       </c>
@@ -26084,116 +26124,6 @@
     </row>
   </sheetData>
   <mergeCells count="134">
-    <mergeCell ref="AA33:AD33"/>
-    <mergeCell ref="G77:L77"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="O67:U67"/>
-    <mergeCell ref="O50:U50"/>
-    <mergeCell ref="O51:U51"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="O43:U43"/>
-    <mergeCell ref="V35:Z35"/>
-    <mergeCell ref="V34:Z34"/>
-    <mergeCell ref="V43:Z43"/>
-    <mergeCell ref="V42:Z42"/>
-    <mergeCell ref="V50:Z50"/>
-    <mergeCell ref="V51:Z51"/>
-    <mergeCell ref="A71:A76"/>
-    <mergeCell ref="B71:B76"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="Q244:R244"/>
-    <mergeCell ref="S244:T244"/>
-    <mergeCell ref="P244:P245"/>
-    <mergeCell ref="AA47:AD47"/>
-    <mergeCell ref="AA40:AD40"/>
-    <mergeCell ref="G78:L78"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="O42:U42"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="O35:U35"/>
-    <mergeCell ref="O34:U34"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="A65:A70"/>
-    <mergeCell ref="B65:B70"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="O66:U66"/>
-    <mergeCell ref="O58:U58"/>
-    <mergeCell ref="O59:U59"/>
-    <mergeCell ref="V58:Z58"/>
-    <mergeCell ref="V59:Z59"/>
-    <mergeCell ref="O75:U75"/>
-    <mergeCell ref="O74:U74"/>
-    <mergeCell ref="F92:I92"/>
-    <mergeCell ref="F93:I93"/>
-    <mergeCell ref="O119:U119"/>
-    <mergeCell ref="P101:X101"/>
-    <mergeCell ref="G109:L109"/>
-    <mergeCell ref="G110:L110"/>
-    <mergeCell ref="O111:U111"/>
-    <mergeCell ref="O110:U110"/>
-    <mergeCell ref="O118:U118"/>
-    <mergeCell ref="P100:X100"/>
-    <mergeCell ref="H118:L118"/>
-    <mergeCell ref="G119:L119"/>
-    <mergeCell ref="B118:F118"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="B101:E101"/>
-    <mergeCell ref="B100:E100"/>
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="B92:E92"/>
-    <mergeCell ref="P85:X85"/>
-    <mergeCell ref="P84:X84"/>
-    <mergeCell ref="P92:X92"/>
-    <mergeCell ref="P93:X93"/>
-    <mergeCell ref="O135:R135"/>
-    <mergeCell ref="S135:V135"/>
-    <mergeCell ref="O126:R126"/>
-    <mergeCell ref="O127:R127"/>
-    <mergeCell ref="S126:V126"/>
-    <mergeCell ref="S127:V127"/>
-    <mergeCell ref="O134:R134"/>
-    <mergeCell ref="S134:V134"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="H121:J121"/>
-    <mergeCell ref="K121:L121"/>
-    <mergeCell ref="H122:J122"/>
-    <mergeCell ref="K122:L122"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="K120:L120"/>
-    <mergeCell ref="H120:J120"/>
-    <mergeCell ref="G123:L123"/>
-    <mergeCell ref="V190:AA190"/>
-    <mergeCell ref="AB190:AG190"/>
-    <mergeCell ref="P165:U165"/>
-    <mergeCell ref="P166:U166"/>
-    <mergeCell ref="V165:AA165"/>
-    <mergeCell ref="V166:AA166"/>
-    <mergeCell ref="O142:S142"/>
-    <mergeCell ref="O143:S143"/>
-    <mergeCell ref="T142:X142"/>
-    <mergeCell ref="T143:X143"/>
-    <mergeCell ref="Y142:AC142"/>
-    <mergeCell ref="Y143:AC143"/>
     <mergeCell ref="Z258:AA258"/>
     <mergeCell ref="AB258:AC258"/>
     <mergeCell ref="AD258:AE258"/>
@@ -26218,6 +26148,116 @@
     <mergeCell ref="AB165:AG165"/>
     <mergeCell ref="AB166:AG166"/>
     <mergeCell ref="P190:U190"/>
+    <mergeCell ref="V190:AA190"/>
+    <mergeCell ref="AB190:AG190"/>
+    <mergeCell ref="P165:U165"/>
+    <mergeCell ref="P166:U166"/>
+    <mergeCell ref="V165:AA165"/>
+    <mergeCell ref="V166:AA166"/>
+    <mergeCell ref="O142:S142"/>
+    <mergeCell ref="O143:S143"/>
+    <mergeCell ref="T142:X142"/>
+    <mergeCell ref="T143:X143"/>
+    <mergeCell ref="Y142:AC142"/>
+    <mergeCell ref="Y143:AC143"/>
+    <mergeCell ref="O135:R135"/>
+    <mergeCell ref="S135:V135"/>
+    <mergeCell ref="O126:R126"/>
+    <mergeCell ref="O127:R127"/>
+    <mergeCell ref="S126:V126"/>
+    <mergeCell ref="S127:V127"/>
+    <mergeCell ref="O134:R134"/>
+    <mergeCell ref="S134:V134"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="H121:J121"/>
+    <mergeCell ref="K121:L121"/>
+    <mergeCell ref="H122:J122"/>
+    <mergeCell ref="K122:L122"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="K120:L120"/>
+    <mergeCell ref="H120:J120"/>
+    <mergeCell ref="G123:L123"/>
+    <mergeCell ref="B118:F118"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="B101:E101"/>
+    <mergeCell ref="B100:E100"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="P85:X85"/>
+    <mergeCell ref="P84:X84"/>
+    <mergeCell ref="P92:X92"/>
+    <mergeCell ref="P93:X93"/>
+    <mergeCell ref="O119:U119"/>
+    <mergeCell ref="P101:X101"/>
+    <mergeCell ref="G109:L109"/>
+    <mergeCell ref="G110:L110"/>
+    <mergeCell ref="O111:U111"/>
+    <mergeCell ref="O110:U110"/>
+    <mergeCell ref="O118:U118"/>
+    <mergeCell ref="P100:X100"/>
+    <mergeCell ref="H118:L118"/>
+    <mergeCell ref="G119:L119"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="O42:U42"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="O35:U35"/>
+    <mergeCell ref="O34:U34"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="Q244:R244"/>
+    <mergeCell ref="S244:T244"/>
+    <mergeCell ref="P244:P245"/>
+    <mergeCell ref="AA47:AD47"/>
+    <mergeCell ref="AA40:AD40"/>
+    <mergeCell ref="G78:L78"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A65:A70"/>
+    <mergeCell ref="B65:B70"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="O66:U66"/>
+    <mergeCell ref="O58:U58"/>
+    <mergeCell ref="O59:U59"/>
+    <mergeCell ref="V58:Z58"/>
+    <mergeCell ref="V59:Z59"/>
+    <mergeCell ref="O75:U75"/>
+    <mergeCell ref="O74:U74"/>
+    <mergeCell ref="F92:I92"/>
+    <mergeCell ref="F93:I93"/>
+    <mergeCell ref="AA33:AD33"/>
+    <mergeCell ref="G77:L77"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="O67:U67"/>
+    <mergeCell ref="O50:U50"/>
+    <mergeCell ref="O51:U51"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="O43:U43"/>
+    <mergeCell ref="V35:Z35"/>
+    <mergeCell ref="V34:Z34"/>
+    <mergeCell ref="V43:Z43"/>
+    <mergeCell ref="V42:Z42"/>
+    <mergeCell ref="V50:Z50"/>
+    <mergeCell ref="V51:Z51"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="A56:E56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
@@ -26358,13 +26398,13 @@
       <c r="A7" t="s">
         <v>504</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="34" t="s">
         <v>441</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -26470,12 +26510,12 @@
       <c r="A14" t="s">
         <v>504</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="34" t="s">
         <v>472</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -26557,10 +26597,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P94"/>
+  <dimension ref="A1:P99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F86" sqref="F86:J94"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J97" sqref="J97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26573,23 +26613,24 @@
     <col min="7" max="7" width="12.42578125" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="10" max="10" width="10.85546875" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>621</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="G1" s="23" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="G1" s="22" t="s">
         <v>628</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
       <c r="L1" s="2" t="s">
         <v>631</v>
       </c>
@@ -26731,27 +26772,27 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="22" t="s">
         <v>632</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="G5" s="23" t="s">
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="G5" s="22" t="s">
         <v>629</v>
       </c>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23" t="s">
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22" t="s">
         <v>630</v>
       </c>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
@@ -26887,20 +26928,20 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="22" t="s">
         <v>622</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="G9" s="18" t="s">
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="G9" s="21" t="s">
         <v>649</v>
       </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
@@ -26915,13 +26956,13 @@
       <c r="E10" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="22" t="s">
         <v>638</v>
       </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -26986,13 +27027,13 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="22" t="s">
         <v>633</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
       <c r="G13" s="1" t="s">
         <v>627</v>
       </c>
@@ -27022,13 +27063,13 @@
       <c r="E14" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="22" t="s">
         <v>639</v>
       </c>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -27093,13 +27134,13 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="35" t="s">
         <v>650</v>
       </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
       <c r="G17" s="1" t="s">
         <v>627</v>
       </c>
@@ -27117,7 +27158,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="36" t="s">
         <v>634</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -27141,13 +27182,13 @@
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="23" t="s">
+      <c r="A19" s="36"/>
+      <c r="B19" s="22" t="s">
         <v>507</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
         <v>451</v>
@@ -27242,22 +27283,22 @@
       <c r="E22">
         <v>0.90807000000000004</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="G22" s="22" t="s">
         <v>641</v>
       </c>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="22" t="s">
         <v>511</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
       <c r="F23" s="1"/>
       <c r="H23" s="1" t="s">
         <v>451</v>
@@ -27352,13 +27393,13 @@
       <c r="E26">
         <v>0.84006999999999998</v>
       </c>
-      <c r="G26" s="23" t="s">
+      <c r="G26" s="22" t="s">
         <v>642</v>
       </c>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G27" s="1"/>
@@ -27376,13 +27417,13 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="22" t="s">
         <v>507</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
       <c r="G28" s="1" t="s">
         <v>626</v>
       </c>
@@ -27400,12 +27441,12 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="22" t="s">
         <v>513</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
       <c r="E29" s="2"/>
       <c r="G29" s="1" t="s">
         <v>627</v>
@@ -27437,13 +27478,13 @@
         <v>637</v>
       </c>
       <c r="E30" s="1"/>
-      <c r="G30" s="18" t="s">
+      <c r="G30" s="21" t="s">
         <v>648</v>
       </c>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
@@ -27458,13 +27499,13 @@
       <c r="D31">
         <v>0.69301000000000001</v>
       </c>
-      <c r="G31" s="23" t="s">
+      <c r="G31" s="22" t="s">
         <v>643</v>
       </c>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -27564,22 +27605,22 @@
       <c r="D35">
         <v>0.67064999999999997</v>
       </c>
-      <c r="G35" s="23" t="s">
+      <c r="G35" s="22" t="s">
         <v>644</v>
       </c>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="22" t="s">
         <v>511</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
       <c r="H36" s="1" t="s">
         <v>451</v>
       </c>
@@ -27595,12 +27636,12 @@
       <c r="L36" s="1"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="22" t="s">
         <v>514</v>
       </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
       <c r="E37" s="2"/>
       <c r="G37" s="1" t="s">
         <v>626</v>
@@ -27661,13 +27702,13 @@
       <c r="D39">
         <v>0.55774999999999997</v>
       </c>
-      <c r="G39" s="23" t="s">
+      <c r="G39" s="22" t="s">
         <v>645</v>
       </c>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -27766,22 +27807,22 @@
       <c r="D43">
         <v>0.59794000000000003</v>
       </c>
-      <c r="G43" s="23" t="s">
+      <c r="G43" s="22" t="s">
         <v>646</v>
       </c>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="22" t="s">
         <v>507</v>
       </c>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
       <c r="H44" s="1" t="s">
         <v>451</v>
       </c>
@@ -27796,13 +27837,13 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="23" t="s">
+      <c r="A45" s="22" t="s">
         <v>515</v>
       </c>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
       <c r="G45" s="1" t="s">
         <v>626</v>
       </c>
@@ -27862,13 +27903,13 @@
       <c r="D47">
         <v>0.86019999999999996</v>
       </c>
-      <c r="G47" s="23" t="s">
+      <c r="G47" s="22" t="s">
         <v>647</v>
       </c>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="23"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
@@ -27970,22 +28011,22 @@
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="23" t="s">
+      <c r="A52" s="22" t="s">
         <v>511</v>
       </c>
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="23" t="s">
+      <c r="A53" s="22" t="s">
         <v>544</v>
       </c>
-      <c r="B53" s="23"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
@@ -28001,6 +28042,9 @@
         <v>637</v>
       </c>
       <c r="E54" s="1"/>
+      <c r="G54" s="1" t="s">
+        <v>652</v>
+      </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
@@ -28073,39 +28117,39 @@
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="23" t="s">
+      <c r="A61" s="22" t="s">
         <v>507</v>
       </c>
-      <c r="B61" s="23"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23" t="s">
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22" t="s">
         <v>511</v>
       </c>
-      <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="23"/>
-      <c r="I61" s="23" t="s">
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="22" t="s">
         <v>643</v>
       </c>
-      <c r="J61" s="23"/>
-      <c r="K61" s="23"/>
-      <c r="L61" s="23"/>
-      <c r="M61" s="23"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="22"/>
+      <c r="L61" s="22"/>
+      <c r="M61" s="22"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="23" t="s">
+      <c r="A62" s="22" t="s">
         <v>541</v>
       </c>
-      <c r="B62" s="23"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23" t="s">
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22" t="s">
         <v>542</v>
       </c>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="23"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1" t="s">
         <v>451</v>
@@ -28215,13 +28259,13 @@
       <c r="G65">
         <v>0.47331000000000001</v>
       </c>
-      <c r="I65" s="23" t="s">
+      <c r="I65" s="22" t="s">
         <v>644</v>
       </c>
-      <c r="J65" s="23"/>
-      <c r="K65" s="23"/>
-      <c r="L65" s="23"/>
-      <c r="M65" s="23"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="22"/>
+      <c r="L65" s="22"/>
+      <c r="M65" s="22"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
@@ -28326,39 +28370,39 @@
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="23" t="s">
+      <c r="A69" s="22" t="s">
         <v>507</v>
       </c>
-      <c r="B69" s="23"/>
-      <c r="C69" s="23"/>
-      <c r="D69" s="23"/>
-      <c r="E69" s="23" t="s">
+      <c r="B69" s="22"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22" t="s">
         <v>511</v>
       </c>
-      <c r="F69" s="23"/>
-      <c r="G69" s="23"/>
-      <c r="H69" s="23"/>
-      <c r="I69" s="23" t="s">
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="22" t="s">
         <v>645</v>
       </c>
-      <c r="J69" s="23"/>
-      <c r="K69" s="23"/>
-      <c r="L69" s="23"/>
-      <c r="M69" s="23"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="22"/>
+      <c r="L69" s="22"/>
+      <c r="M69" s="22"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="23" t="s">
+      <c r="A70" s="22" t="s">
         <v>543</v>
       </c>
-      <c r="B70" s="23"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="23" t="s">
+      <c r="B70" s="22"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22" t="s">
         <v>544</v>
       </c>
-      <c r="F70" s="23"/>
-      <c r="G70" s="23"/>
-      <c r="H70" s="23"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="22"/>
       <c r="J70" s="1" t="s">
         <v>451</v>
       </c>
@@ -28467,13 +28511,13 @@
       <c r="G73">
         <v>0.63438000000000005</v>
       </c>
-      <c r="I73" s="23" t="s">
+      <c r="I73" s="22" t="s">
         <v>646</v>
       </c>
-      <c r="J73" s="23"/>
-      <c r="K73" s="23"/>
-      <c r="L73" s="23"/>
-      <c r="M73" s="23"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="22"/>
+      <c r="L73" s="22"/>
+      <c r="M73" s="22"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
@@ -28578,13 +28622,13 @@
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I77" s="23" t="s">
+      <c r="I77" s="22" t="s">
         <v>647</v>
       </c>
-      <c r="J77" s="23"/>
-      <c r="K77" s="23"/>
-      <c r="L77" s="23"/>
-      <c r="M77" s="23"/>
+      <c r="J77" s="22"/>
+      <c r="K77" s="22"/>
+      <c r="L77" s="22"/>
+      <c r="M77" s="22"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I78" s="1"/>
@@ -28635,24 +28679,24 @@
         <v>0.81506000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A85" s="33" t="s">
+    <row r="85" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A85" s="35" t="s">
         <v>650</v>
       </c>
-      <c r="B85" s="33"/>
-      <c r="C85" s="33"/>
-      <c r="D85" s="33"/>
-      <c r="E85" s="33"/>
-      <c r="F85" s="33" t="s">
+      <c r="B85" s="35"/>
+      <c r="C85" s="35"/>
+      <c r="D85" s="35"/>
+      <c r="E85" s="35"/>
+      <c r="F85" s="35" t="s">
         <v>650</v>
       </c>
-      <c r="G85" s="33"/>
-      <c r="H85" s="33"/>
-      <c r="I85" s="33"/>
-      <c r="J85" s="33"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="32" t="s">
+      <c r="G85" s="35"/>
+      <c r="H85" s="35"/>
+      <c r="I85" s="35"/>
+      <c r="J85" s="35"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="36" t="s">
         <v>634</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -28667,7 +28711,7 @@
       <c r="E86" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="F86" s="34" t="s">
+      <c r="F86" s="20" t="s">
         <v>634</v>
       </c>
       <c r="G86" s="6" t="s">
@@ -28682,26 +28726,33 @@
       <c r="J86" s="6" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="32"/>
-      <c r="B87" s="23" t="s">
+      <c r="K86" s="8" t="s">
+        <v>653</v>
+      </c>
+      <c r="L86" s="38"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="36"/>
+      <c r="B87" s="22" t="s">
         <v>507</v>
       </c>
-      <c r="C87" s="23"/>
-      <c r="D87" s="23"/>
-      <c r="E87" s="23"/>
-      <c r="F87" s="20" t="s">
-        <v>507</v>
-      </c>
-      <c r="G87" s="21"/>
-      <c r="H87" s="21"/>
-      <c r="I87" s="21"/>
-      <c r="J87" s="22"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C87" s="22"/>
+      <c r="D87" s="22"/>
+      <c r="E87" s="22"/>
+      <c r="F87" s="33" t="s">
+        <v>618</v>
+      </c>
+      <c r="G87" s="33"/>
+      <c r="H87" s="33"/>
+      <c r="I87" s="33"/>
+      <c r="J87" s="33"/>
+      <c r="K87" s="39" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>635</v>
+        <v>651</v>
       </c>
       <c r="B88">
         <v>0.74461999999999995</v>
@@ -28715,27 +28766,30 @@
       <c r="E88" s="1">
         <v>0.90871000000000002</v>
       </c>
-      <c r="F88" s="6" t="s">
+      <c r="F88" s="18" t="s">
         <v>651</v>
       </c>
-      <c r="G88" s="16">
+      <c r="G88" s="40">
         <f>B88*100</f>
         <v>74.461999999999989</v>
       </c>
-      <c r="H88" s="16">
+      <c r="H88" s="40">
         <f t="shared" ref="H88:J90" si="0">C88*100</f>
         <v>87.512</v>
       </c>
-      <c r="I88" s="17">
+      <c r="I88" s="41">
         <f t="shared" si="0"/>
         <v>86.38</v>
       </c>
-      <c r="J88" s="17">
+      <c r="J88" s="41">
         <f t="shared" si="0"/>
         <v>90.870999999999995</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K88" s="42">
+        <v>4.7067688936935799</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>636</v>
       </c>
@@ -28751,27 +28805,30 @@
       <c r="E89">
         <v>0.90207000000000004</v>
       </c>
-      <c r="F89" s="6" t="s">
+      <c r="F89" s="18" t="s">
         <v>636</v>
       </c>
-      <c r="G89" s="17">
+      <c r="G89" s="41">
         <f t="shared" ref="G89:G90" si="1">B89*100</f>
         <v>78.685000000000002</v>
       </c>
-      <c r="H89" s="16">
+      <c r="H89" s="40">
         <f t="shared" si="0"/>
         <v>81.283000000000001</v>
       </c>
-      <c r="I89" s="16">
+      <c r="I89" s="40">
         <f t="shared" si="0"/>
         <v>85.701000000000008</v>
       </c>
-      <c r="J89" s="16">
+      <c r="J89" s="40">
         <f t="shared" si="0"/>
         <v>90.207000000000008</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K89" s="19">
+        <v>6.09</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>637</v>
       </c>
@@ -28787,45 +28844,51 @@
       <c r="E90">
         <v>0.90807000000000004</v>
       </c>
-      <c r="F90" s="6" t="s">
+      <c r="F90" s="18" t="s">
         <v>637</v>
       </c>
-      <c r="G90" s="16">
+      <c r="G90" s="40">
         <f t="shared" si="1"/>
         <v>67.064999999999998</v>
       </c>
-      <c r="H90" s="17">
+      <c r="H90" s="41">
         <f t="shared" si="0"/>
         <v>93.23599999999999</v>
       </c>
-      <c r="I90" s="16">
+      <c r="I90" s="40">
         <f t="shared" si="0"/>
         <v>85.158999999999992</v>
       </c>
-      <c r="J90" s="16">
+      <c r="J90" s="40">
         <f t="shared" si="0"/>
         <v>90.807000000000002</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="23" t="s">
+      <c r="K90" s="43">
+        <v>5.17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="22" t="s">
         <v>511</v>
       </c>
-      <c r="B91" s="23"/>
-      <c r="C91" s="23"/>
-      <c r="D91" s="23"/>
-      <c r="E91" s="23"/>
-      <c r="F91" s="19" t="s">
-        <v>511</v>
-      </c>
-      <c r="G91" s="19"/>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="19"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B91" s="22"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="22"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="33" t="s">
+        <v>619</v>
+      </c>
+      <c r="G91" s="33"/>
+      <c r="H91" s="33"/>
+      <c r="I91" s="33"/>
+      <c r="J91" s="33"/>
+      <c r="K91" s="39" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>635</v>
+        <v>651</v>
       </c>
       <c r="B92" s="1">
         <v>0.62388999999999994</v>
@@ -28839,27 +28902,30 @@
       <c r="E92" s="1">
         <v>0.84316999999999998</v>
       </c>
-      <c r="F92" s="6" t="s">
+      <c r="F92" s="18" t="s">
         <v>651</v>
       </c>
-      <c r="G92" s="17">
+      <c r="G92" s="41">
         <f t="shared" ref="G92:J94" si="2">B92*100</f>
         <v>62.388999999999996</v>
       </c>
-      <c r="H92" s="17">
+      <c r="H92" s="41">
         <f t="shared" si="2"/>
         <v>77.141999999999996</v>
       </c>
-      <c r="I92" s="17">
+      <c r="I92" s="41">
         <f t="shared" si="2"/>
         <v>77.24499999999999</v>
       </c>
-      <c r="J92" s="17">
+      <c r="J92" s="41">
         <f t="shared" si="2"/>
         <v>84.316999999999993</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K92" s="42">
+        <v>4.5209967640625504</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>636</v>
       </c>
@@ -28875,27 +28941,30 @@
       <c r="E93">
         <v>0.83655999999999997</v>
       </c>
-      <c r="F93" s="6" t="s">
+      <c r="F93" s="18" t="s">
         <v>636</v>
       </c>
-      <c r="G93" s="16">
+      <c r="G93" s="40">
         <f t="shared" si="2"/>
         <v>59.440000000000005</v>
       </c>
-      <c r="H93" s="16">
+      <c r="H93" s="40">
         <f t="shared" si="2"/>
         <v>73.426000000000002</v>
       </c>
-      <c r="I93" s="16">
+      <c r="I93" s="40">
         <f t="shared" si="2"/>
         <v>75.570000000000007</v>
       </c>
-      <c r="J93" s="16">
+      <c r="J93" s="40">
         <f t="shared" si="2"/>
         <v>83.655999999999992</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K93" s="19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>637</v>
       </c>
@@ -28911,64 +28980,80 @@
       <c r="E94">
         <v>0.84006999999999998</v>
       </c>
-      <c r="F94" s="6" t="s">
+      <c r="F94" s="18" t="s">
         <v>637</v>
       </c>
-      <c r="G94" s="16">
+      <c r="G94" s="40">
         <f t="shared" si="2"/>
         <v>59.794000000000004</v>
       </c>
-      <c r="H94" s="16">
+      <c r="H94" s="40">
         <f t="shared" si="2"/>
         <v>76.466999999999999</v>
       </c>
-      <c r="I94" s="16">
+      <c r="I94" s="40">
         <f t="shared" si="2"/>
         <v>76.34</v>
       </c>
-      <c r="J94" s="16">
+      <c r="J94" s="40">
         <f t="shared" si="2"/>
         <v>84.007000000000005</v>
       </c>
+      <c r="K94" s="43">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="37" t="s">
+        <v>634</v>
+      </c>
+      <c r="B96" s="13" t="s">
+        <v>614</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="13" t="s">
+        <v>651</v>
+      </c>
+      <c r="B97" s="15">
+        <v>4.7067688936935799</v>
+      </c>
+      <c r="C97" s="15">
+        <v>4.5209967640625504</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="B98" s="7">
+        <v>6.09</v>
+      </c>
+      <c r="C98" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="13" t="s">
+        <v>637</v>
+      </c>
+      <c r="B99" s="14">
+        <v>5.17</v>
+      </c>
+      <c r="C99" s="14">
+        <v>6.12</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="B87:E87"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="F85:J85"/>
-    <mergeCell ref="F91:J91"/>
-    <mergeCell ref="F87:J87"/>
-    <mergeCell ref="I77:M77"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="G35:K35"/>
-    <mergeCell ref="G39:K39"/>
-    <mergeCell ref="G43:K43"/>
-    <mergeCell ref="G47:K47"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="I65:M65"/>
-    <mergeCell ref="I69:M69"/>
-    <mergeCell ref="I73:M73"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="I61:M61"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="E62:H62"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="E69:H69"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="E70:H70"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="E61:H61"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="G5:K5"/>
     <mergeCell ref="L5:P5"/>
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="B19:E19"/>
@@ -28978,11 +29063,42 @@
     <mergeCell ref="G22:K22"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="E61:H61"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="E62:H62"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="E69:H69"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="E70:H70"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="I65:M65"/>
+    <mergeCell ref="I69:M69"/>
+    <mergeCell ref="I73:M73"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="I61:M61"/>
+    <mergeCell ref="I77:M77"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="G35:K35"/>
+    <mergeCell ref="G39:K39"/>
+    <mergeCell ref="G43:K43"/>
+    <mergeCell ref="G47:K47"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="F85:J85"/>
+    <mergeCell ref="F91:J91"/>
+    <mergeCell ref="F87:J87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/plotting/617_temp.xlsx
+++ b/plotting/617_temp.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2372" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2407" uniqueCount="659">
   <si>
     <t>.\vgg_unet2_0_3_640_640_64_256_rot_15_345_4_flip_5K\training_32_49_640_640_640_640_max_val_acc\vis\vis_log_181022_0927.txt</t>
   </si>
@@ -1982,6 +1982,21 @@
   </si>
   <si>
     <t>Median MAE (%)</t>
+  </si>
+  <si>
+    <t>training_4_49_resnet_v1_101_0_3_non_aug_sel_2</t>
+  </si>
+  <si>
+    <t>training_4_49_resnet_v1_101_0_3_non_aug_sel_10</t>
+  </si>
+  <si>
+    <t>training_4_49_resnet_v1_101_0_3_non_aug_sel_100</t>
+  </si>
+  <si>
+    <t>training_4_49_resnet_v1_101_0_3_non_aug_sel_1000</t>
+  </si>
+  <si>
+    <t>training_4_49_resnet_v1_101_0_3_non_aug</t>
   </si>
 </sst>
 </file>
@@ -2167,9 +2182,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2236,6 +2248,9 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7978,13 +7993,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>407</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -8323,13 +8338,13 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="20" t="s">
         <v>406</v>
       </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -8602,13 +8617,13 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="21" t="s">
+      <c r="A52" s="20" t="s">
         <v>405</v>
       </c>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -8941,13 +8956,13 @@
       </c>
     </row>
     <row r="71" spans="1:7" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="21" t="s">
+      <c r="A71" s="20" t="s">
         <v>408</v>
       </c>
-      <c r="B71" s="21"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="21"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
@@ -9355,13 +9370,13 @@
       </c>
     </row>
     <row r="100" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="21" t="s">
+      <c r="A100" s="20" t="s">
         <v>559</v>
       </c>
-      <c r="B100" s="21"/>
-      <c r="C100" s="21"/>
-      <c r="D100" s="21"/>
-      <c r="E100" s="21"/>
+      <c r="B100" s="20"/>
+      <c r="C100" s="20"/>
+      <c r="D100" s="20"/>
+      <c r="E100" s="20"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
@@ -9589,13 +9604,13 @@
       </c>
     </row>
     <row r="118" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A118" s="21" t="s">
+      <c r="A118" s="20" t="s">
         <v>409</v>
       </c>
-      <c r="B118" s="21"/>
-      <c r="C118" s="21"/>
-      <c r="D118" s="21"/>
-      <c r="E118" s="21"/>
+      <c r="B118" s="20"/>
+      <c r="C118" s="20"/>
+      <c r="D118" s="20"/>
+      <c r="E118" s="20"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
@@ -9823,13 +9838,13 @@
       </c>
     </row>
     <row r="137" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A137" s="21" t="s">
+      <c r="A137" s="20" t="s">
         <v>410</v>
       </c>
-      <c r="B137" s="21"/>
-      <c r="C137" s="21"/>
-      <c r="D137" s="21"/>
-      <c r="E137" s="21"/>
+      <c r="B137" s="20"/>
+      <c r="C137" s="20"/>
+      <c r="D137" s="20"/>
+      <c r="E137" s="20"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
@@ -10057,13 +10072,13 @@
       </c>
     </row>
     <row r="155" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A155" s="21" t="s">
+      <c r="A155" s="20" t="s">
         <v>407</v>
       </c>
-      <c r="B155" s="21"/>
-      <c r="C155" s="21"/>
-      <c r="D155" s="21"/>
-      <c r="E155" s="21"/>
+      <c r="B155" s="20"/>
+      <c r="C155" s="20"/>
+      <c r="D155" s="20"/>
+      <c r="E155" s="20"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
@@ -10516,13 +10531,13 @@
       </c>
     </row>
     <row r="192" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A192" s="21" t="s">
+      <c r="A192" s="20" t="s">
         <v>409</v>
       </c>
-      <c r="B192" s="21"/>
-      <c r="C192" s="21"/>
-      <c r="D192" s="21"/>
-      <c r="E192" s="21"/>
+      <c r="B192" s="20"/>
+      <c r="C192" s="20"/>
+      <c r="D192" s="20"/>
+      <c r="E192" s="20"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
@@ -11020,13 +11035,13 @@
       </c>
     </row>
     <row r="231" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A231" s="21" t="s">
+      <c r="A231" s="20" t="s">
         <v>404</v>
       </c>
-      <c r="B231" s="21"/>
-      <c r="C231" s="21"/>
-      <c r="D231" s="21"/>
-      <c r="E231" s="21"/>
+      <c r="B231" s="20"/>
+      <c r="C231" s="20"/>
+      <c r="D231" s="20"/>
+      <c r="E231" s="20"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
@@ -11839,13 +11854,13 @@
       </c>
     </row>
     <row r="293" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A293" s="21" t="s">
+      <c r="A293" s="20" t="s">
         <v>403</v>
       </c>
-      <c r="B293" s="21"/>
-      <c r="C293" s="21"/>
-      <c r="D293" s="21"/>
-      <c r="E293" s="21"/>
+      <c r="B293" s="20"/>
+      <c r="C293" s="20"/>
+      <c r="D293" s="20"/>
+      <c r="E293" s="20"/>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
@@ -13805,13 +13820,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -13925,22 +13940,22 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="21" t="s">
         <v>420</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -14093,14 +14108,14 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
       <c r="J17">
         <v>0.67832000000000003</v>
       </c>
@@ -14115,14 +14130,14 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="21" t="s">
         <v>444</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -14333,14 +14348,14 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="22" t="s">
         <v>420</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
       <c r="J24">
         <v>0.43318000000000001</v>
       </c>
@@ -14367,14 +14382,14 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="21" t="s">
         <v>445</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -14551,46 +14566,46 @@
       </c>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="AA33" s="22" t="s">
+      <c r="AA33" s="21" t="s">
         <v>567</v>
       </c>
-      <c r="AB33" s="22"/>
-      <c r="AC33" s="22"/>
-      <c r="AD33" s="22"/>
+      <c r="AB33" s="21"/>
+      <c r="AC33" s="21"/>
+      <c r="AD33" s="21"/>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="H34" s="22" t="s">
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="H34" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
-      <c r="O34" s="22" t="s">
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="O34" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="22"/>
-      <c r="S34" s="22"/>
-      <c r="T34" s="22"/>
-      <c r="U34" s="22"/>
-      <c r="V34" s="22" t="s">
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="21"/>
+      <c r="V34" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="W34" s="22"/>
-      <c r="X34" s="22"/>
-      <c r="Y34" s="22"/>
-      <c r="Z34" s="22"/>
+      <c r="W34" s="21"/>
+      <c r="X34" s="21"/>
+      <c r="Y34" s="21"/>
+      <c r="Z34" s="21"/>
       <c r="AA34" t="s">
         <v>327</v>
       </c>
@@ -14605,38 +14620,38 @@
       </c>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="H35" s="22" t="s">
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="H35" s="21" t="s">
         <v>435</v>
       </c>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="O35" s="22" t="s">
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="O35" s="21" t="s">
         <v>435</v>
       </c>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="22"/>
-      <c r="S35" s="22"/>
-      <c r="T35" s="22"/>
-      <c r="U35" s="22"/>
-      <c r="V35" s="22" t="s">
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="21"/>
+      <c r="S35" s="21"/>
+      <c r="T35" s="21"/>
+      <c r="U35" s="21"/>
+      <c r="V35" s="21" t="s">
         <v>513</v>
       </c>
-      <c r="W35" s="22"/>
-      <c r="X35" s="22"/>
-      <c r="Y35" s="22"/>
-      <c r="Z35" s="22"/>
+      <c r="W35" s="21"/>
+      <c r="X35" s="21"/>
+      <c r="Y35" s="21"/>
+      <c r="Z35" s="21"/>
       <c r="AA35">
         <v>0.88705000000000001</v>
       </c>
@@ -15055,22 +15070,22 @@
       <c r="Z40">
         <v>0.70833999999999997</v>
       </c>
-      <c r="AA40" s="22" t="s">
+      <c r="AA40" s="21" t="s">
         <v>566</v>
       </c>
-      <c r="AB40" s="22"/>
-      <c r="AC40" s="22"/>
-      <c r="AD40" s="22"/>
+      <c r="AB40" s="21"/>
+      <c r="AC40" s="21"/>
+      <c r="AD40" s="21"/>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="21" t="s">
         <v>424</v>
       </c>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
       <c r="H41" s="1" t="s">
         <v>416</v>
       </c>
@@ -15139,14 +15154,14 @@
       </c>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="21" t="s">
         <v>433</v>
       </c>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
       <c r="H42" s="1" t="s">
         <v>417</v>
       </c>
@@ -15165,22 +15180,22 @@
       <c r="M42">
         <v>0.63066</v>
       </c>
-      <c r="O42" s="22" t="s">
+      <c r="O42" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="P42" s="22"/>
-      <c r="Q42" s="22"/>
-      <c r="R42" s="22"/>
-      <c r="S42" s="22"/>
-      <c r="T42" s="22"/>
-      <c r="U42" s="22"/>
-      <c r="V42" s="22" t="s">
+      <c r="P42" s="21"/>
+      <c r="Q42" s="21"/>
+      <c r="R42" s="21"/>
+      <c r="S42" s="21"/>
+      <c r="T42" s="21"/>
+      <c r="U42" s="21"/>
+      <c r="V42" s="21" t="s">
         <v>511</v>
       </c>
-      <c r="W42" s="22"/>
-      <c r="X42" s="22"/>
-      <c r="Y42" s="22"/>
-      <c r="Z42" s="22"/>
+      <c r="W42" s="21"/>
+      <c r="X42" s="21"/>
+      <c r="Y42" s="21"/>
+      <c r="Z42" s="21"/>
       <c r="AA42">
         <v>0.87365000000000004</v>
       </c>
@@ -15231,22 +15246,22 @@
       <c r="M43">
         <v>0.65837000000000001</v>
       </c>
-      <c r="O43" s="22" t="s">
+      <c r="O43" s="21" t="s">
         <v>442</v>
       </c>
-      <c r="P43" s="22"/>
-      <c r="Q43" s="22"/>
-      <c r="R43" s="22"/>
-      <c r="S43" s="22"/>
-      <c r="T43" s="22"/>
-      <c r="U43" s="22"/>
-      <c r="V43" s="22" t="s">
+      <c r="P43" s="21"/>
+      <c r="Q43" s="21"/>
+      <c r="R43" s="21"/>
+      <c r="S43" s="21"/>
+      <c r="T43" s="21"/>
+      <c r="U43" s="21"/>
+      <c r="V43" s="21" t="s">
         <v>514</v>
       </c>
-      <c r="W43" s="22"/>
-      <c r="X43" s="22"/>
-      <c r="Y43" s="22"/>
-      <c r="Z43" s="22"/>
+      <c r="W43" s="21"/>
+      <c r="X43" s="21"/>
+      <c r="Y43" s="21"/>
+      <c r="Z43" s="21"/>
       <c r="AA43" t="s">
         <v>331</v>
       </c>
@@ -15529,21 +15544,21 @@
       <c r="Z47">
         <v>0.47498000000000001</v>
       </c>
-      <c r="AA47" s="22" t="s">
+      <c r="AA47" s="21" t="s">
         <v>565</v>
       </c>
-      <c r="AB47" s="22"/>
-      <c r="AC47" s="22"/>
-      <c r="AD47" s="22"/>
+      <c r="AB47" s="21"/>
+      <c r="AC47" s="21"/>
+      <c r="AD47" s="21"/>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="21" t="s">
         <v>506</v>
       </c>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
       <c r="F48" s="2"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
@@ -15597,13 +15612,13 @@
       </c>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="21" t="s">
         <v>505</v>
       </c>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
       <c r="O49" s="1" t="s">
         <v>437</v>
       </c>
@@ -15669,22 +15684,22 @@
       <c r="E50" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="O50" s="22" t="s">
+      <c r="O50" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="P50" s="22"/>
-      <c r="Q50" s="22"/>
-      <c r="R50" s="22"/>
-      <c r="S50" s="22"/>
-      <c r="T50" s="22"/>
-      <c r="U50" s="22"/>
-      <c r="V50" s="22" t="s">
+      <c r="P50" s="21"/>
+      <c r="Q50" s="21"/>
+      <c r="R50" s="21"/>
+      <c r="S50" s="21"/>
+      <c r="T50" s="21"/>
+      <c r="U50" s="21"/>
+      <c r="V50" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="W50" s="22"/>
-      <c r="X50" s="22"/>
-      <c r="Y50" s="22"/>
-      <c r="Z50" s="22"/>
+      <c r="W50" s="21"/>
+      <c r="X50" s="21"/>
+      <c r="Y50" s="21"/>
+      <c r="Z50" s="21"/>
       <c r="AA50" t="s">
         <v>331</v>
       </c>
@@ -15711,22 +15726,22 @@
       <c r="E51">
         <v>0.63066</v>
       </c>
-      <c r="O51" s="22" t="s">
+      <c r="O51" s="21" t="s">
         <v>446</v>
       </c>
-      <c r="P51" s="22"/>
-      <c r="Q51" s="22"/>
-      <c r="R51" s="22"/>
-      <c r="S51" s="22"/>
-      <c r="T51" s="22"/>
-      <c r="U51" s="22"/>
-      <c r="V51" s="22" t="s">
+      <c r="P51" s="21"/>
+      <c r="Q51" s="21"/>
+      <c r="R51" s="21"/>
+      <c r="S51" s="21"/>
+      <c r="T51" s="21"/>
+      <c r="U51" s="21"/>
+      <c r="V51" s="21" t="s">
         <v>515</v>
       </c>
-      <c r="W51" s="22"/>
-      <c r="X51" s="22"/>
-      <c r="Y51" s="22"/>
-      <c r="Z51" s="22"/>
+      <c r="W51" s="21"/>
+      <c r="X51" s="21"/>
+      <c r="Y51" s="21"/>
+      <c r="Z51" s="21"/>
       <c r="AA51">
         <v>0.77363000000000004</v>
       </c>
@@ -15968,20 +15983,20 @@
       </c>
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A56" s="22" t="s">
+      <c r="A56" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22" t="s">
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21" t="s">
         <v>511</v>
       </c>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
       <c r="O56" s="1" t="s">
         <v>438</v>
       </c>
@@ -16020,20 +16035,20 @@
       </c>
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A57" s="22" t="s">
+      <c r="A57" s="21" t="s">
         <v>508</v>
       </c>
-      <c r="B57" s="22"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22" t="s">
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21" t="s">
         <v>512</v>
       </c>
-      <c r="G57" s="22"/>
-      <c r="H57" s="22"/>
-      <c r="I57" s="22"/>
-      <c r="J57" s="22"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
       <c r="O57" s="1" t="s">
         <v>437</v>
       </c>
@@ -16102,22 +16117,22 @@
       <c r="J58" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="O58" s="22" t="s">
+      <c r="O58" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="P58" s="22"/>
-      <c r="Q58" s="22"/>
-      <c r="R58" s="22"/>
-      <c r="S58" s="22"/>
-      <c r="T58" s="22"/>
-      <c r="U58" s="22"/>
-      <c r="V58" s="22" t="s">
+      <c r="P58" s="21"/>
+      <c r="Q58" s="21"/>
+      <c r="R58" s="21"/>
+      <c r="S58" s="21"/>
+      <c r="T58" s="21"/>
+      <c r="U58" s="21"/>
+      <c r="V58" s="21" t="s">
         <v>511</v>
       </c>
-      <c r="W58" s="22"/>
-      <c r="X58" s="22"/>
-      <c r="Y58" s="22"/>
-      <c r="Z58" s="22"/>
+      <c r="W58" s="21"/>
+      <c r="X58" s="21"/>
+      <c r="Y58" s="21"/>
+      <c r="Z58" s="21"/>
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
@@ -16150,22 +16165,22 @@
       <c r="J59">
         <v>0.76844000000000001</v>
       </c>
-      <c r="O59" s="22" t="s">
+      <c r="O59" s="21" t="s">
         <v>447</v>
       </c>
-      <c r="P59" s="22"/>
-      <c r="Q59" s="22"/>
-      <c r="R59" s="22"/>
-      <c r="S59" s="22"/>
-      <c r="T59" s="22"/>
-      <c r="U59" s="22"/>
-      <c r="V59" s="22" t="s">
+      <c r="P59" s="21"/>
+      <c r="Q59" s="21"/>
+      <c r="R59" s="21"/>
+      <c r="S59" s="21"/>
+      <c r="T59" s="21"/>
+      <c r="U59" s="21"/>
+      <c r="V59" s="21" t="s">
         <v>544</v>
       </c>
-      <c r="W59" s="22"/>
-      <c r="X59" s="22"/>
-      <c r="Y59" s="22"/>
-      <c r="Z59" s="22"/>
+      <c r="W59" s="21"/>
+      <c r="X59" s="21"/>
+      <c r="Y59" s="21"/>
+      <c r="Z59" s="21"/>
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
@@ -16478,10 +16493,10 @@
       </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A65" s="22" t="s">
+      <c r="A65" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="B65" s="22" t="s">
+      <c r="B65" s="21" t="s">
         <v>444</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -16537,8 +16552,8 @@
       </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A66" s="22"/>
-      <c r="B66" s="22"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="21"/>
       <c r="C66" s="1" t="s">
         <v>412</v>
       </c>
@@ -16554,19 +16569,19 @@
       <c r="G66">
         <v>0.84930000000000005</v>
       </c>
-      <c r="O66" s="22" t="s">
+      <c r="O66" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="P66" s="22"/>
-      <c r="Q66" s="22"/>
-      <c r="R66" s="22"/>
-      <c r="S66" s="22"/>
-      <c r="T66" s="22"/>
-      <c r="U66" s="22"/>
+      <c r="P66" s="21"/>
+      <c r="Q66" s="21"/>
+      <c r="R66" s="21"/>
+      <c r="S66" s="21"/>
+      <c r="T66" s="21"/>
+      <c r="U66" s="21"/>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A67" s="22"/>
-      <c r="B67" s="22"/>
+      <c r="A67" s="21"/>
+      <c r="B67" s="21"/>
       <c r="C67" s="1" t="s">
         <v>405</v>
       </c>
@@ -16582,19 +16597,19 @@
       <c r="G67">
         <v>0.90871000000000002</v>
       </c>
-      <c r="O67" s="22" t="s">
+      <c r="O67" s="21" t="s">
         <v>448</v>
       </c>
-      <c r="P67" s="22"/>
-      <c r="Q67" s="22"/>
-      <c r="R67" s="22"/>
-      <c r="S67" s="22"/>
-      <c r="T67" s="22"/>
-      <c r="U67" s="22"/>
+      <c r="P67" s="21"/>
+      <c r="Q67" s="21"/>
+      <c r="R67" s="21"/>
+      <c r="S67" s="21"/>
+      <c r="T67" s="21"/>
+      <c r="U67" s="21"/>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A68" s="22"/>
-      <c r="B68" s="22"/>
+      <c r="A68" s="21"/>
+      <c r="B68" s="21"/>
       <c r="C68" s="1" t="s">
         <v>404</v>
       </c>
@@ -16633,8 +16648,8 @@
       </c>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A69" s="22"/>
-      <c r="B69" s="22"/>
+      <c r="A69" s="21"/>
+      <c r="B69" s="21"/>
       <c r="C69" s="1" t="s">
         <v>406</v>
       </c>
@@ -16673,8 +16688,8 @@
       </c>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A70" s="22"/>
-      <c r="B70" s="22"/>
+      <c r="A70" s="21"/>
+      <c r="B70" s="21"/>
       <c r="C70" s="1" t="s">
         <v>403</v>
       </c>
@@ -16713,10 +16728,10 @@
       </c>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A71" s="23" t="s">
+      <c r="A71" s="22" t="s">
         <v>420</v>
       </c>
-      <c r="B71" s="22" t="s">
+      <c r="B71" s="21" t="s">
         <v>445</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -16757,8 +16772,8 @@
       </c>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A72" s="22"/>
-      <c r="B72" s="22"/>
+      <c r="A72" s="21"/>
+      <c r="B72" s="21"/>
       <c r="C72" s="1" t="s">
         <v>412</v>
       </c>
@@ -16797,8 +16812,8 @@
       </c>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A73" s="22"/>
-      <c r="B73" s="22"/>
+      <c r="A73" s="21"/>
+      <c r="B73" s="21"/>
       <c r="C73" s="1" t="s">
         <v>405</v>
       </c>
@@ -16837,8 +16852,8 @@
       </c>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A74" s="22"/>
-      <c r="B74" s="22"/>
+      <c r="A74" s="21"/>
+      <c r="B74" s="21"/>
       <c r="C74" s="1" t="s">
         <v>404</v>
       </c>
@@ -16854,19 +16869,19 @@
       <c r="G74">
         <v>0.81733</v>
       </c>
-      <c r="O74" s="22" t="s">
+      <c r="O74" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="P74" s="22"/>
-      <c r="Q74" s="22"/>
-      <c r="R74" s="22"/>
-      <c r="S74" s="22"/>
-      <c r="T74" s="22"/>
-      <c r="U74" s="22"/>
+      <c r="P74" s="21"/>
+      <c r="Q74" s="21"/>
+      <c r="R74" s="21"/>
+      <c r="S74" s="21"/>
+      <c r="T74" s="21"/>
+      <c r="U74" s="21"/>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A75" s="22"/>
-      <c r="B75" s="22"/>
+      <c r="A75" s="21"/>
+      <c r="B75" s="21"/>
       <c r="C75" s="1" t="s">
         <v>406</v>
       </c>
@@ -16882,19 +16897,19 @@
       <c r="G75">
         <v>0.77490000000000003</v>
       </c>
-      <c r="O75" s="22" t="s">
+      <c r="O75" s="21" t="s">
         <v>449</v>
       </c>
-      <c r="P75" s="22"/>
-      <c r="Q75" s="22"/>
-      <c r="R75" s="22"/>
-      <c r="S75" s="22"/>
-      <c r="T75" s="22"/>
-      <c r="U75" s="22"/>
+      <c r="P75" s="21"/>
+      <c r="Q75" s="21"/>
+      <c r="R75" s="21"/>
+      <c r="S75" s="21"/>
+      <c r="T75" s="21"/>
+      <c r="U75" s="21"/>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A76" s="22"/>
-      <c r="B76" s="22"/>
+      <c r="A76" s="21"/>
+      <c r="B76" s="21"/>
       <c r="C76" s="1" t="s">
         <v>403</v>
       </c>
@@ -16933,22 +16948,22 @@
       </c>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A77" s="22" t="s">
+      <c r="A77" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="B77" s="22"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="22" t="s">
+      <c r="B77" s="21"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21" t="s">
         <v>511</v>
       </c>
-      <c r="H77" s="22"/>
-      <c r="I77" s="22"/>
-      <c r="J77" s="22"/>
-      <c r="K77" s="22"/>
-      <c r="L77" s="22"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="21"/>
+      <c r="J77" s="21"/>
+      <c r="K77" s="21"/>
+      <c r="L77" s="21"/>
       <c r="O77" t="s">
         <v>436</v>
       </c>
@@ -16972,22 +16987,22 @@
       </c>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A78" s="22" t="s">
+      <c r="A78" s="21" t="s">
         <v>508</v>
       </c>
-      <c r="B78" s="22"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="22" t="s">
+      <c r="B78" s="21"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="21" t="s">
         <v>512</v>
       </c>
-      <c r="H78" s="22"/>
-      <c r="I78" s="22"/>
-      <c r="J78" s="22"/>
-      <c r="K78" s="22"/>
-      <c r="L78" s="22"/>
+      <c r="H78" s="21"/>
+      <c r="I78" s="21"/>
+      <c r="J78" s="21"/>
+      <c r="K78" s="21"/>
+      <c r="L78" s="21"/>
       <c r="O78" t="s">
         <v>440</v>
       </c>
@@ -17264,33 +17279,33 @@
       </c>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B84" s="22" t="s">
+      <c r="B84" s="21" t="s">
         <v>523</v>
       </c>
-      <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="22"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
-      <c r="P84" s="22" t="s">
+      <c r="P84" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="Q84" s="22"/>
-      <c r="R84" s="22"/>
-      <c r="S84" s="22"/>
-      <c r="T84" s="22"/>
-      <c r="U84" s="22"/>
-      <c r="V84" s="22"/>
-      <c r="W84" s="22"/>
-      <c r="X84" s="22"/>
+      <c r="Q84" s="21"/>
+      <c r="R84" s="21"/>
+      <c r="S84" s="21"/>
+      <c r="T84" s="21"/>
+      <c r="U84" s="21"/>
+      <c r="V84" s="21"/>
+      <c r="W84" s="21"/>
+      <c r="X84" s="21"/>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B85" s="22" t="s">
+      <c r="B85" s="21" t="s">
         <v>545</v>
       </c>
-      <c r="C85" s="22"/>
-      <c r="D85" s="22"/>
-      <c r="E85" s="22"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="21"/>
       <c r="F85" s="1" t="s">
         <v>522</v>
       </c>
@@ -17306,17 +17321,17 @@
       <c r="J85" t="s">
         <v>528</v>
       </c>
-      <c r="P85" s="22" t="s">
+      <c r="P85" s="21" t="s">
         <v>454</v>
       </c>
-      <c r="Q85" s="22"/>
-      <c r="R85" s="22"/>
-      <c r="S85" s="22"/>
-      <c r="T85" s="22"/>
-      <c r="U85" s="22"/>
-      <c r="V85" s="22"/>
-      <c r="W85" s="22"/>
-      <c r="X85" s="22"/>
+      <c r="Q85" s="21"/>
+      <c r="R85" s="21"/>
+      <c r="S85" s="21"/>
+      <c r="T85" s="21"/>
+      <c r="U85" s="21"/>
+      <c r="V85" s="21"/>
+      <c r="W85" s="21"/>
+      <c r="X85" s="21"/>
     </row>
     <row r="86" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
@@ -17658,54 +17673,54 @@
       </c>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B92" s="22" t="s">
+      <c r="B92" s="21" t="s">
         <v>523</v>
       </c>
-      <c r="C92" s="22"/>
-      <c r="D92" s="22"/>
-      <c r="E92" s="22"/>
-      <c r="F92" s="22" t="s">
+      <c r="C92" s="21"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="21" t="s">
         <v>523</v>
       </c>
-      <c r="G92" s="22"/>
-      <c r="H92" s="22"/>
-      <c r="I92" s="22"/>
-      <c r="P92" s="22" t="s">
+      <c r="G92" s="21"/>
+      <c r="H92" s="21"/>
+      <c r="I92" s="21"/>
+      <c r="P92" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="Q92" s="22"/>
-      <c r="R92" s="22"/>
-      <c r="S92" s="22"/>
-      <c r="T92" s="22"/>
-      <c r="U92" s="22"/>
-      <c r="V92" s="22"/>
-      <c r="W92" s="22"/>
-      <c r="X92" s="22"/>
+      <c r="Q92" s="21"/>
+      <c r="R92" s="21"/>
+      <c r="S92" s="21"/>
+      <c r="T92" s="21"/>
+      <c r="U92" s="21"/>
+      <c r="V92" s="21"/>
+      <c r="W92" s="21"/>
+      <c r="X92" s="21"/>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B93" s="22" t="s">
+      <c r="B93" s="21" t="s">
         <v>546</v>
       </c>
-      <c r="C93" s="22"/>
-      <c r="D93" s="22"/>
-      <c r="E93" s="22"/>
-      <c r="F93" s="22" t="s">
+      <c r="C93" s="21"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="21" t="s">
         <v>548</v>
       </c>
-      <c r="G93" s="22"/>
-      <c r="H93" s="22"/>
-      <c r="I93" s="22"/>
-      <c r="P93" s="22" t="s">
+      <c r="G93" s="21"/>
+      <c r="H93" s="21"/>
+      <c r="I93" s="21"/>
+      <c r="P93" s="21" t="s">
         <v>462</v>
       </c>
-      <c r="Q93" s="22"/>
-      <c r="R93" s="22"/>
-      <c r="S93" s="22"/>
-      <c r="T93" s="22"/>
-      <c r="U93" s="22"/>
-      <c r="V93" s="22"/>
-      <c r="W93" s="22"/>
-      <c r="X93" s="22"/>
+      <c r="Q93" s="21"/>
+      <c r="R93" s="21"/>
+      <c r="S93" s="21"/>
+      <c r="T93" s="21"/>
+      <c r="U93" s="21"/>
+      <c r="V93" s="21"/>
+      <c r="W93" s="21"/>
+      <c r="X93" s="21"/>
     </row>
     <row r="94" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
@@ -18065,12 +18080,12 @@
       <c r="A100" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="B100" s="22" t="s">
+      <c r="B100" s="21" t="s">
         <v>523</v>
       </c>
-      <c r="C100" s="22"/>
-      <c r="D100" s="22"/>
-      <c r="E100" s="22"/>
+      <c r="C100" s="21"/>
+      <c r="D100" s="21"/>
+      <c r="E100" s="21"/>
       <c r="F100" s="1" t="s">
         <v>554</v>
       </c>
@@ -18086,26 +18101,26 @@
       <c r="J100">
         <v>0.77887333098497002</v>
       </c>
-      <c r="P100" s="22" t="s">
+      <c r="P100" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="Q100" s="22"/>
-      <c r="R100" s="22"/>
-      <c r="S100" s="22"/>
-      <c r="T100" s="22"/>
-      <c r="U100" s="22"/>
-      <c r="V100" s="22"/>
-      <c r="W100" s="22"/>
-      <c r="X100" s="22"/>
+      <c r="Q100" s="21"/>
+      <c r="R100" s="21"/>
+      <c r="S100" s="21"/>
+      <c r="T100" s="21"/>
+      <c r="U100" s="21"/>
+      <c r="V100" s="21"/>
+      <c r="W100" s="21"/>
+      <c r="X100" s="21"/>
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
-      <c r="B101" s="22" t="s">
+      <c r="B101" s="21" t="s">
         <v>547</v>
       </c>
-      <c r="C101" s="22"/>
-      <c r="D101" s="22"/>
-      <c r="E101" s="22"/>
+      <c r="C101" s="21"/>
+      <c r="D101" s="21"/>
+      <c r="E101" s="21"/>
       <c r="F101" s="1" t="s">
         <v>555</v>
       </c>
@@ -18121,17 +18136,17 @@
       <c r="J101">
         <v>1.27434722297322</v>
       </c>
-      <c r="P101" s="22" t="s">
+      <c r="P101" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="Q101" s="22"/>
-      <c r="R101" s="22"/>
-      <c r="S101" s="22"/>
-      <c r="T101" s="22"/>
-      <c r="U101" s="22"/>
-      <c r="V101" s="22"/>
-      <c r="W101" s="22"/>
-      <c r="X101" s="22"/>
+      <c r="Q101" s="21"/>
+      <c r="R101" s="21"/>
+      <c r="S101" s="21"/>
+      <c r="T101" s="21"/>
+      <c r="U101" s="21"/>
+      <c r="V101" s="21"/>
+      <c r="W101" s="21"/>
+      <c r="X101" s="21"/>
     </row>
     <row r="102" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
@@ -18431,49 +18446,49 @@
       <c r="B108" s="1"/>
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A109" s="22" t="s">
+      <c r="A109" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="B109" s="22"/>
-      <c r="C109" s="22"/>
-      <c r="D109" s="22"/>
-      <c r="E109" s="22"/>
-      <c r="F109" s="22"/>
-      <c r="G109" s="22" t="s">
+      <c r="B109" s="21"/>
+      <c r="C109" s="21"/>
+      <c r="D109" s="21"/>
+      <c r="E109" s="21"/>
+      <c r="F109" s="21"/>
+      <c r="G109" s="21" t="s">
         <v>511</v>
       </c>
-      <c r="H109" s="22"/>
-      <c r="I109" s="22"/>
-      <c r="J109" s="22"/>
-      <c r="K109" s="22"/>
-      <c r="L109" s="22"/>
+      <c r="H109" s="21"/>
+      <c r="I109" s="21"/>
+      <c r="J109" s="21"/>
+      <c r="K109" s="21"/>
+      <c r="L109" s="21"/>
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A110" s="22" t="s">
+      <c r="A110" s="21" t="s">
         <v>508</v>
       </c>
-      <c r="B110" s="22"/>
-      <c r="C110" s="22"/>
-      <c r="D110" s="22"/>
-      <c r="E110" s="22"/>
-      <c r="F110" s="22"/>
-      <c r="G110" s="22" t="s">
+      <c r="B110" s="21"/>
+      <c r="C110" s="21"/>
+      <c r="D110" s="21"/>
+      <c r="E110" s="21"/>
+      <c r="F110" s="21"/>
+      <c r="G110" s="21" t="s">
         <v>512</v>
       </c>
-      <c r="H110" s="22"/>
-      <c r="I110" s="22"/>
-      <c r="J110" s="22"/>
-      <c r="K110" s="22"/>
-      <c r="L110" s="22"/>
-      <c r="O110" s="22" t="s">
+      <c r="H110" s="21"/>
+      <c r="I110" s="21"/>
+      <c r="J110" s="21"/>
+      <c r="K110" s="21"/>
+      <c r="L110" s="21"/>
+      <c r="O110" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="P110" s="22"/>
-      <c r="Q110" s="22"/>
-      <c r="R110" s="22"/>
-      <c r="S110" s="22"/>
-      <c r="T110" s="22"/>
-      <c r="U110" s="22"/>
+      <c r="P110" s="21"/>
+      <c r="Q110" s="21"/>
+      <c r="R110" s="21"/>
+      <c r="S110" s="21"/>
+      <c r="T110" s="21"/>
+      <c r="U110" s="21"/>
       <c r="V110" s="2"/>
       <c r="W110" s="2"/>
     </row>
@@ -18514,15 +18529,15 @@
       <c r="L111" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="O111" s="22" t="s">
+      <c r="O111" s="21" t="s">
         <v>456</v>
       </c>
-      <c r="P111" s="22"/>
-      <c r="Q111" s="22"/>
-      <c r="R111" s="22"/>
-      <c r="S111" s="22"/>
-      <c r="T111" s="22"/>
-      <c r="U111" s="22"/>
+      <c r="P111" s="21"/>
+      <c r="Q111" s="21"/>
+      <c r="R111" s="21"/>
+      <c r="S111" s="21"/>
+      <c r="T111" s="21"/>
+      <c r="U111" s="21"/>
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
@@ -18810,59 +18825,59 @@
       <c r="A118" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="B118" s="29" t="s">
+      <c r="B118" s="28" t="s">
         <v>522</v>
       </c>
-      <c r="C118" s="30"/>
-      <c r="D118" s="30"/>
-      <c r="E118" s="30"/>
-      <c r="F118" s="31"/>
+      <c r="C118" s="29"/>
+      <c r="D118" s="29"/>
+      <c r="E118" s="29"/>
+      <c r="F118" s="30"/>
       <c r="G118" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="H118" s="26" t="s">
+      <c r="H118" s="25" t="s">
         <v>522</v>
       </c>
-      <c r="I118" s="28"/>
-      <c r="J118" s="28"/>
-      <c r="K118" s="28"/>
-      <c r="L118" s="27"/>
-      <c r="O118" s="22" t="s">
+      <c r="I118" s="27"/>
+      <c r="J118" s="27"/>
+      <c r="K118" s="27"/>
+      <c r="L118" s="26"/>
+      <c r="O118" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="P118" s="22"/>
-      <c r="Q118" s="22"/>
-      <c r="R118" s="22"/>
-      <c r="S118" s="22"/>
-      <c r="T118" s="22"/>
-      <c r="U118" s="22"/>
+      <c r="P118" s="21"/>
+      <c r="Q118" s="21"/>
+      <c r="R118" s="21"/>
+      <c r="S118" s="21"/>
+      <c r="T118" s="21"/>
+      <c r="U118" s="21"/>
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A119" s="29" t="s">
+      <c r="A119" s="28" t="s">
         <v>533</v>
       </c>
-      <c r="B119" s="30"/>
-      <c r="C119" s="30"/>
-      <c r="D119" s="30"/>
-      <c r="E119" s="30"/>
-      <c r="F119" s="31"/>
-      <c r="G119" s="29" t="s">
+      <c r="B119" s="29"/>
+      <c r="C119" s="29"/>
+      <c r="D119" s="29"/>
+      <c r="E119" s="29"/>
+      <c r="F119" s="30"/>
+      <c r="G119" s="28" t="s">
         <v>538</v>
       </c>
-      <c r="H119" s="30"/>
-      <c r="I119" s="30"/>
-      <c r="J119" s="30"/>
-      <c r="K119" s="30"/>
-      <c r="L119" s="31"/>
-      <c r="O119" s="22" t="s">
+      <c r="H119" s="29"/>
+      <c r="I119" s="29"/>
+      <c r="J119" s="29"/>
+      <c r="K119" s="29"/>
+      <c r="L119" s="30"/>
+      <c r="O119" s="21" t="s">
         <v>461</v>
       </c>
-      <c r="P119" s="22"/>
-      <c r="Q119" s="22"/>
-      <c r="R119" s="22"/>
-      <c r="S119" s="22"/>
-      <c r="T119" s="22"/>
-      <c r="U119" s="22"/>
+      <c r="P119" s="21"/>
+      <c r="Q119" s="21"/>
+      <c r="R119" s="21"/>
+      <c r="S119" s="21"/>
+      <c r="T119" s="21"/>
+      <c r="U119" s="21"/>
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
@@ -18886,15 +18901,15 @@
       <c r="G120" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="H120" s="32">
+      <c r="H120" s="31">
         <v>1</v>
       </c>
-      <c r="I120" s="32"/>
-      <c r="J120" s="32"/>
-      <c r="K120" s="32">
+      <c r="I120" s="31"/>
+      <c r="J120" s="31"/>
+      <c r="K120" s="31">
         <v>2</v>
       </c>
-      <c r="L120" s="32"/>
+      <c r="L120" s="31"/>
       <c r="O120" s="1" t="s">
         <v>472</v>
       </c>
@@ -18939,15 +18954,15 @@
       <c r="G121" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="H121" s="32">
+      <c r="H121" s="31">
         <v>1</v>
       </c>
-      <c r="I121" s="32"/>
-      <c r="J121" s="32"/>
-      <c r="K121" s="32">
+      <c r="I121" s="31"/>
+      <c r="J121" s="31"/>
+      <c r="K121" s="31">
         <v>2</v>
       </c>
-      <c r="L121" s="32"/>
+      <c r="L121" s="31"/>
       <c r="O121" s="1" t="s">
         <v>457</v>
       </c>
@@ -18992,15 +19007,15 @@
       <c r="G122" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="H122" s="32">
+      <c r="H122" s="31">
         <v>1</v>
       </c>
-      <c r="I122" s="32"/>
-      <c r="J122" s="32"/>
-      <c r="K122" s="32">
+      <c r="I122" s="31"/>
+      <c r="J122" s="31"/>
+      <c r="K122" s="31">
         <v>2</v>
       </c>
-      <c r="L122" s="32"/>
+      <c r="L122" s="31"/>
       <c r="O122" s="1" t="s">
         <v>458</v>
       </c>
@@ -19024,22 +19039,22 @@
       </c>
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A123" s="29" t="s">
+      <c r="A123" s="28" t="s">
         <v>412</v>
       </c>
-      <c r="B123" s="30"/>
-      <c r="C123" s="30"/>
-      <c r="D123" s="30"/>
-      <c r="E123" s="30"/>
-      <c r="F123" s="31"/>
-      <c r="G123" s="29" t="s">
+      <c r="B123" s="29"/>
+      <c r="C123" s="29"/>
+      <c r="D123" s="29"/>
+      <c r="E123" s="29"/>
+      <c r="F123" s="30"/>
+      <c r="G123" s="28" t="s">
         <v>537</v>
       </c>
-      <c r="H123" s="30"/>
-      <c r="I123" s="30"/>
-      <c r="J123" s="30"/>
-      <c r="K123" s="30"/>
-      <c r="L123" s="31"/>
+      <c r="H123" s="29"/>
+      <c r="I123" s="29"/>
+      <c r="J123" s="29"/>
+      <c r="K123" s="29"/>
+      <c r="L123" s="30"/>
       <c r="O123" s="1" t="s">
         <v>459</v>
       </c>
@@ -19069,14 +19084,14 @@
       <c r="B124" s="7">
         <v>1</v>
       </c>
-      <c r="C124" s="32">
+      <c r="C124" s="31">
         <v>2</v>
       </c>
-      <c r="D124" s="32"/>
-      <c r="E124" s="26">
+      <c r="D124" s="31"/>
+      <c r="E124" s="25">
         <v>3</v>
       </c>
-      <c r="F124" s="27"/>
+      <c r="F124" s="26"/>
       <c r="G124" s="6" t="s">
         <v>406</v>
       </c>
@@ -19130,10 +19145,10 @@
       <c r="D125" s="7">
         <v>3</v>
       </c>
-      <c r="E125" s="26">
+      <c r="E125" s="25">
         <v>4</v>
       </c>
-      <c r="F125" s="27"/>
+      <c r="F125" s="26"/>
       <c r="G125" s="6" t="s">
         <v>405</v>
       </c>
@@ -19175,32 +19190,32 @@
       </c>
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="O126" s="22" t="s">
+      <c r="O126" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="P126" s="22"/>
-      <c r="Q126" s="22"/>
-      <c r="R126" s="22"/>
-      <c r="S126" s="22" t="s">
+      <c r="P126" s="21"/>
+      <c r="Q126" s="21"/>
+      <c r="R126" s="21"/>
+      <c r="S126" s="21" t="s">
         <v>511</v>
       </c>
-      <c r="T126" s="22"/>
-      <c r="U126" s="22"/>
-      <c r="V126" s="22"/>
+      <c r="T126" s="21"/>
+      <c r="U126" s="21"/>
+      <c r="V126" s="21"/>
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="O127" s="22" t="s">
+      <c r="O127" s="21" t="s">
         <v>541</v>
       </c>
-      <c r="P127" s="22"/>
-      <c r="Q127" s="22"/>
-      <c r="R127" s="22"/>
-      <c r="S127" s="22" t="s">
+      <c r="P127" s="21"/>
+      <c r="Q127" s="21"/>
+      <c r="R127" s="21"/>
+      <c r="S127" s="21" t="s">
         <v>542</v>
       </c>
-      <c r="T127" s="22"/>
-      <c r="U127" s="22"/>
-      <c r="V127" s="22"/>
+      <c r="T127" s="21"/>
+      <c r="U127" s="21"/>
+      <c r="V127" s="21"/>
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
@@ -19443,18 +19458,18 @@
       <c r="D134" t="s">
         <v>563</v>
       </c>
-      <c r="O134" s="22" t="s">
+      <c r="O134" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="P134" s="22"/>
-      <c r="Q134" s="22"/>
-      <c r="R134" s="22"/>
-      <c r="S134" s="22" t="s">
+      <c r="P134" s="21"/>
+      <c r="Q134" s="21"/>
+      <c r="R134" s="21"/>
+      <c r="S134" s="21" t="s">
         <v>511</v>
       </c>
-      <c r="T134" s="22"/>
-      <c r="U134" s="22"/>
-      <c r="V134" s="22"/>
+      <c r="T134" s="21"/>
+      <c r="U134" s="21"/>
+      <c r="V134" s="21"/>
     </row>
     <row r="135" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A135">
@@ -19469,18 +19484,18 @@
       <c r="D135">
         <v>0.26800000000000002</v>
       </c>
-      <c r="O135" s="22" t="s">
+      <c r="O135" s="21" t="s">
         <v>543</v>
       </c>
-      <c r="P135" s="22"/>
-      <c r="Q135" s="22"/>
-      <c r="R135" s="22"/>
-      <c r="S135" s="22" t="s">
+      <c r="P135" s="21"/>
+      <c r="Q135" s="21"/>
+      <c r="R135" s="21"/>
+      <c r="S135" s="21" t="s">
         <v>544</v>
       </c>
-      <c r="T135" s="22"/>
-      <c r="U135" s="22"/>
-      <c r="V135" s="22"/>
+      <c r="T135" s="21"/>
+      <c r="U135" s="21"/>
+      <c r="V135" s="21"/>
     </row>
     <row r="136" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A136">
@@ -19547,20 +19562,20 @@
       </c>
     </row>
     <row r="138" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A138" s="22" t="s">
+      <c r="A138" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="B138" s="22"/>
-      <c r="C138" s="22"/>
-      <c r="D138" s="22"/>
-      <c r="E138" s="22"/>
-      <c r="F138" s="22" t="s">
+      <c r="B138" s="21"/>
+      <c r="C138" s="21"/>
+      <c r="D138" s="21"/>
+      <c r="E138" s="21"/>
+      <c r="F138" s="21" t="s">
         <v>511</v>
       </c>
-      <c r="G138" s="22"/>
-      <c r="H138" s="22"/>
-      <c r="I138" s="22"/>
-      <c r="J138" s="22"/>
+      <c r="G138" s="21"/>
+      <c r="H138" s="21"/>
+      <c r="I138" s="21"/>
+      <c r="J138" s="21"/>
       <c r="O138" s="1" t="s">
         <v>458</v>
       </c>
@@ -19587,20 +19602,20 @@
       </c>
     </row>
     <row r="139" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A139" s="22" t="s">
+      <c r="A139" s="21" t="s">
         <v>508</v>
       </c>
-      <c r="B139" s="22"/>
-      <c r="C139" s="22"/>
-      <c r="D139" s="22"/>
-      <c r="E139" s="22"/>
-      <c r="F139" s="22" t="s">
+      <c r="B139" s="21"/>
+      <c r="C139" s="21"/>
+      <c r="D139" s="21"/>
+      <c r="E139" s="21"/>
+      <c r="F139" s="21" t="s">
         <v>512</v>
       </c>
-      <c r="G139" s="22"/>
-      <c r="H139" s="22"/>
-      <c r="I139" s="22"/>
-      <c r="J139" s="22"/>
+      <c r="G139" s="21"/>
+      <c r="H139" s="21"/>
+      <c r="I139" s="21"/>
+      <c r="J139" s="21"/>
       <c r="O139" s="1" t="s">
         <v>459</v>
       </c>
@@ -19769,27 +19784,27 @@
       <c r="J142">
         <v>0.84316999999999998</v>
       </c>
-      <c r="O142" s="22" t="s">
+      <c r="O142" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="P142" s="22"/>
-      <c r="Q142" s="22"/>
-      <c r="R142" s="22"/>
-      <c r="S142" s="22"/>
-      <c r="T142" s="22" t="s">
+      <c r="P142" s="21"/>
+      <c r="Q142" s="21"/>
+      <c r="R142" s="21"/>
+      <c r="S142" s="21"/>
+      <c r="T142" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="U142" s="22"/>
-      <c r="V142" s="22"/>
-      <c r="W142" s="22"/>
-      <c r="X142" s="22"/>
-      <c r="Y142" s="22" t="s">
+      <c r="U142" s="21"/>
+      <c r="V142" s="21"/>
+      <c r="W142" s="21"/>
+      <c r="X142" s="21"/>
+      <c r="Y142" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="Z142" s="22"/>
-      <c r="AA142" s="22"/>
-      <c r="AB142" s="22"/>
-      <c r="AC142" s="22"/>
+      <c r="Z142" s="21"/>
+      <c r="AA142" s="21"/>
+      <c r="AB142" s="21"/>
+      <c r="AC142" s="21"/>
     </row>
     <row r="143" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
@@ -19822,27 +19837,27 @@
       <c r="J143">
         <v>0.81733</v>
       </c>
-      <c r="O143" s="22" t="s">
+      <c r="O143" s="21" t="s">
         <v>582</v>
       </c>
-      <c r="P143" s="22"/>
-      <c r="Q143" s="22"/>
-      <c r="R143" s="22"/>
-      <c r="S143" s="22"/>
-      <c r="T143" s="22" t="s">
+      <c r="P143" s="21"/>
+      <c r="Q143" s="21"/>
+      <c r="R143" s="21"/>
+      <c r="S143" s="21"/>
+      <c r="T143" s="21" t="s">
         <v>581</v>
       </c>
-      <c r="U143" s="22"/>
-      <c r="V143" s="22"/>
-      <c r="W143" s="22"/>
-      <c r="X143" s="22"/>
-      <c r="Y143" s="22" t="s">
+      <c r="U143" s="21"/>
+      <c r="V143" s="21"/>
+      <c r="W143" s="21"/>
+      <c r="X143" s="21"/>
+      <c r="Y143" s="21" t="s">
         <v>579</v>
       </c>
-      <c r="Z143" s="22"/>
-      <c r="AA143" s="22"/>
-      <c r="AB143" s="22"/>
-      <c r="AC143" s="22"/>
+      <c r="Z143" s="21"/>
+      <c r="AA143" s="21"/>
+      <c r="AB143" s="21"/>
+      <c r="AC143" s="21"/>
     </row>
     <row r="144" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
@@ -19999,20 +20014,20 @@
       </c>
     </row>
     <row r="146" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A146" s="22" t="s">
+      <c r="A146" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="B146" s="22"/>
-      <c r="C146" s="22"/>
-      <c r="D146" s="22"/>
-      <c r="E146" s="22"/>
-      <c r="F146" s="22" t="s">
+      <c r="B146" s="21"/>
+      <c r="C146" s="21"/>
+      <c r="D146" s="21"/>
+      <c r="E146" s="21"/>
+      <c r="F146" s="21" t="s">
         <v>511</v>
       </c>
-      <c r="G146" s="22"/>
-      <c r="H146" s="22"/>
-      <c r="I146" s="22"/>
-      <c r="J146" s="22"/>
+      <c r="G146" s="21"/>
+      <c r="H146" s="21"/>
+      <c r="I146" s="21"/>
+      <c r="J146" s="21"/>
       <c r="O146" s="1" t="s">
         <v>457</v>
       </c>
@@ -20060,20 +20075,20 @@
       </c>
     </row>
     <row r="147" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A147" s="22" t="s">
+      <c r="A147" s="21" t="s">
         <v>508</v>
       </c>
-      <c r="B147" s="22"/>
-      <c r="C147" s="22"/>
-      <c r="D147" s="22"/>
-      <c r="E147" s="22"/>
-      <c r="F147" s="22" t="s">
+      <c r="B147" s="21"/>
+      <c r="C147" s="21"/>
+      <c r="D147" s="21"/>
+      <c r="E147" s="21"/>
+      <c r="F147" s="21" t="s">
         <v>512</v>
       </c>
-      <c r="G147" s="22"/>
-      <c r="H147" s="22"/>
-      <c r="I147" s="22"/>
-      <c r="J147" s="22"/>
+      <c r="G147" s="21"/>
+      <c r="H147" s="21"/>
+      <c r="I147" s="21"/>
+      <c r="J147" s="21"/>
       <c r="O147" s="1" t="s">
         <v>530</v>
       </c>
@@ -21111,56 +21126,56 @@
       </c>
     </row>
     <row r="165" spans="15:33" x14ac:dyDescent="0.25">
-      <c r="P165" s="33" t="s">
+      <c r="P165" s="32" t="s">
         <v>580</v>
       </c>
-      <c r="Q165" s="33"/>
-      <c r="R165" s="33"/>
-      <c r="S165" s="33"/>
-      <c r="T165" s="33"/>
-      <c r="U165" s="33"/>
-      <c r="V165" s="33" t="s">
+      <c r="Q165" s="32"/>
+      <c r="R165" s="32"/>
+      <c r="S165" s="32"/>
+      <c r="T165" s="32"/>
+      <c r="U165" s="32"/>
+      <c r="V165" s="32" t="s">
         <v>580</v>
       </c>
-      <c r="W165" s="33"/>
-      <c r="X165" s="33"/>
-      <c r="Y165" s="33"/>
-      <c r="Z165" s="33"/>
-      <c r="AA165" s="33"/>
-      <c r="AB165" s="33" t="s">
+      <c r="W165" s="32"/>
+      <c r="X165" s="32"/>
+      <c r="Y165" s="32"/>
+      <c r="Z165" s="32"/>
+      <c r="AA165" s="32"/>
+      <c r="AB165" s="32" t="s">
         <v>580</v>
       </c>
-      <c r="AC165" s="33"/>
-      <c r="AD165" s="33"/>
-      <c r="AE165" s="33"/>
-      <c r="AF165" s="33"/>
-      <c r="AG165" s="33"/>
+      <c r="AC165" s="32"/>
+      <c r="AD165" s="32"/>
+      <c r="AE165" s="32"/>
+      <c r="AF165" s="32"/>
+      <c r="AG165" s="32"/>
     </row>
     <row r="166" spans="15:33" x14ac:dyDescent="0.25">
-      <c r="P166" s="33" t="s">
+      <c r="P166" s="32" t="s">
         <v>582</v>
       </c>
-      <c r="Q166" s="33"/>
-      <c r="R166" s="33"/>
-      <c r="S166" s="33"/>
-      <c r="T166" s="33"/>
-      <c r="U166" s="33"/>
-      <c r="V166" s="33" t="s">
+      <c r="Q166" s="32"/>
+      <c r="R166" s="32"/>
+      <c r="S166" s="32"/>
+      <c r="T166" s="32"/>
+      <c r="U166" s="32"/>
+      <c r="V166" s="32" t="s">
         <v>581</v>
       </c>
-      <c r="W166" s="33"/>
-      <c r="X166" s="33"/>
-      <c r="Y166" s="33"/>
-      <c r="Z166" s="33"/>
-      <c r="AA166" s="33"/>
-      <c r="AB166" s="33" t="s">
+      <c r="W166" s="32"/>
+      <c r="X166" s="32"/>
+      <c r="Y166" s="32"/>
+      <c r="Z166" s="32"/>
+      <c r="AA166" s="32"/>
+      <c r="AB166" s="32" t="s">
         <v>583</v>
       </c>
-      <c r="AC166" s="33"/>
-      <c r="AD166" s="33"/>
-      <c r="AE166" s="33"/>
-      <c r="AF166" s="33"/>
-      <c r="AG166" s="33"/>
+      <c r="AC166" s="32"/>
+      <c r="AD166" s="32"/>
+      <c r="AE166" s="32"/>
+      <c r="AF166" s="32"/>
+      <c r="AG166" s="32"/>
     </row>
     <row r="167" spans="15:33" x14ac:dyDescent="0.25">
       <c r="P167" s="6" t="s">
@@ -22505,30 +22520,30 @@
       </c>
     </row>
     <row r="190" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P190" s="33" t="s">
+      <c r="P190" s="32" t="s">
         <v>582</v>
       </c>
-      <c r="Q190" s="33"/>
-      <c r="R190" s="33"/>
-      <c r="S190" s="33"/>
-      <c r="T190" s="33"/>
-      <c r="U190" s="33"/>
-      <c r="V190" s="33" t="s">
+      <c r="Q190" s="32"/>
+      <c r="R190" s="32"/>
+      <c r="S190" s="32"/>
+      <c r="T190" s="32"/>
+      <c r="U190" s="32"/>
+      <c r="V190" s="32" t="s">
         <v>581</v>
       </c>
-      <c r="W190" s="33"/>
-      <c r="X190" s="33"/>
-      <c r="Y190" s="33"/>
-      <c r="Z190" s="33"/>
-      <c r="AA190" s="33"/>
-      <c r="AB190" s="33" t="s">
+      <c r="W190" s="32"/>
+      <c r="X190" s="32"/>
+      <c r="Y190" s="32"/>
+      <c r="Z190" s="32"/>
+      <c r="AA190" s="32"/>
+      <c r="AB190" s="32" t="s">
         <v>583</v>
       </c>
-      <c r="AC190" s="33"/>
-      <c r="AD190" s="33"/>
-      <c r="AE190" s="33"/>
-      <c r="AF190" s="33"/>
-      <c r="AG190" s="33"/>
+      <c r="AC190" s="32"/>
+      <c r="AD190" s="32"/>
+      <c r="AE190" s="32"/>
+      <c r="AF190" s="32"/>
+      <c r="AG190" s="32"/>
     </row>
     <row r="191" spans="16:33" x14ac:dyDescent="0.25">
       <c r="P191" s="6" t="s">
@@ -25441,20 +25456,20 @@
       </c>
     </row>
     <row r="244" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P244" s="25" t="s">
+      <c r="P244" s="24" t="s">
         <v>504</v>
       </c>
-      <c r="Q244" s="24" t="s">
+      <c r="Q244" s="23" t="s">
         <v>614</v>
       </c>
-      <c r="R244" s="24"/>
-      <c r="S244" s="24" t="s">
+      <c r="R244" s="23"/>
+      <c r="S244" s="23" t="s">
         <v>615</v>
       </c>
-      <c r="T244" s="24"/>
+      <c r="T244" s="23"/>
     </row>
     <row r="245" spans="16:33" ht="60" x14ac:dyDescent="0.25">
-      <c r="P245" s="25"/>
+      <c r="P245" s="24"/>
       <c r="Q245" s="12" t="s">
         <v>616</v>
       </c>
@@ -25652,83 +25667,83 @@
       </c>
     </row>
     <row r="256" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P256" s="22"/>
-      <c r="Q256" s="22"/>
-      <c r="R256" s="22"/>
-      <c r="S256" s="22"/>
-      <c r="T256" s="22"/>
-      <c r="U256" s="22"/>
-      <c r="V256" s="22"/>
-      <c r="W256" s="22"/>
-      <c r="X256" s="22"/>
-      <c r="Y256" s="22"/>
+      <c r="P256" s="21"/>
+      <c r="Q256" s="21"/>
+      <c r="R256" s="21"/>
+      <c r="S256" s="21"/>
+      <c r="T256" s="21"/>
+      <c r="U256" s="21"/>
+      <c r="V256" s="21"/>
+      <c r="W256" s="21"/>
+      <c r="X256" s="21"/>
+      <c r="Y256" s="21"/>
     </row>
     <row r="257" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P257" s="29" t="s">
+      <c r="P257" s="28" t="s">
         <v>618</v>
       </c>
-      <c r="Q257" s="30"/>
-      <c r="R257" s="30"/>
-      <c r="S257" s="30"/>
-      <c r="T257" s="30"/>
-      <c r="U257" s="30"/>
-      <c r="V257" s="30"/>
-      <c r="W257" s="30"/>
-      <c r="X257" s="31"/>
-      <c r="Y257" s="29" t="s">
+      <c r="Q257" s="29"/>
+      <c r="R257" s="29"/>
+      <c r="S257" s="29"/>
+      <c r="T257" s="29"/>
+      <c r="U257" s="29"/>
+      <c r="V257" s="29"/>
+      <c r="W257" s="29"/>
+      <c r="X257" s="30"/>
+      <c r="Y257" s="28" t="s">
         <v>619</v>
       </c>
-      <c r="Z257" s="30"/>
-      <c r="AA257" s="30"/>
-      <c r="AB257" s="30"/>
-      <c r="AC257" s="30"/>
-      <c r="AD257" s="30"/>
-      <c r="AE257" s="30"/>
-      <c r="AF257" s="30"/>
-      <c r="AG257" s="31"/>
+      <c r="Z257" s="29"/>
+      <c r="AA257" s="29"/>
+      <c r="AB257" s="29"/>
+      <c r="AC257" s="29"/>
+      <c r="AD257" s="29"/>
+      <c r="AE257" s="29"/>
+      <c r="AF257" s="29"/>
+      <c r="AG257" s="30"/>
     </row>
     <row r="258" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P258" s="33" t="s">
+      <c r="P258" s="32" t="s">
         <v>504</v>
       </c>
-      <c r="Q258" s="33" t="s">
+      <c r="Q258" s="32" t="s">
         <v>451</v>
       </c>
-      <c r="R258" s="33"/>
-      <c r="S258" s="33" t="s">
+      <c r="R258" s="32"/>
+      <c r="S258" s="32" t="s">
         <v>452</v>
       </c>
-      <c r="T258" s="33"/>
-      <c r="U258" s="33" t="s">
+      <c r="T258" s="32"/>
+      <c r="U258" s="32" t="s">
         <v>509</v>
       </c>
-      <c r="V258" s="33"/>
-      <c r="W258" s="33" t="s">
+      <c r="V258" s="32"/>
+      <c r="W258" s="32" t="s">
         <v>558</v>
       </c>
-      <c r="X258" s="33"/>
-      <c r="Y258" s="33" t="s">
+      <c r="X258" s="32"/>
+      <c r="Y258" s="32" t="s">
         <v>504</v>
       </c>
-      <c r="Z258" s="33" t="s">
+      <c r="Z258" s="32" t="s">
         <v>451</v>
       </c>
-      <c r="AA258" s="33"/>
-      <c r="AB258" s="33" t="s">
+      <c r="AA258" s="32"/>
+      <c r="AB258" s="32" t="s">
         <v>452</v>
       </c>
-      <c r="AC258" s="33"/>
-      <c r="AD258" s="33" t="s">
+      <c r="AC258" s="32"/>
+      <c r="AD258" s="32" t="s">
         <v>509</v>
       </c>
-      <c r="AE258" s="33"/>
+      <c r="AE258" s="32"/>
       <c r="AF258" s="6" t="s">
         <v>558</v>
       </c>
       <c r="AG258" s="7"/>
     </row>
     <row r="259" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P259" s="33"/>
+      <c r="P259" s="32"/>
       <c r="Q259" s="11" t="s">
         <v>507</v>
       </c>
@@ -25753,7 +25768,7 @@
       <c r="X259" s="11" t="s">
         <v>620</v>
       </c>
-      <c r="Y259" s="33"/>
+      <c r="Y259" s="32"/>
       <c r="Z259" s="11" t="s">
         <v>511</v>
       </c>
@@ -26398,13 +26413,13 @@
       <c r="A7" t="s">
         <v>504</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="33" t="s">
         <v>441</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -26510,12 +26525,12 @@
       <c r="A14" t="s">
         <v>504</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="33" t="s">
         <v>472</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -26597,10 +26612,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P99"/>
+  <dimension ref="A1:S99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J97" sqref="J97"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26617,20 +26632,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>621</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="G1" s="22" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="G1" s="21" t="s">
         <v>628</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
       <c r="L1" s="2" t="s">
         <v>631</v>
       </c>
@@ -26772,27 +26787,27 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="21" t="s">
         <v>632</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="G5" s="22" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="G5" s="21" t="s">
         <v>629</v>
       </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22" t="s">
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21" t="s">
         <v>630</v>
       </c>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
@@ -26928,20 +26943,20 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="21" t="s">
         <v>622</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="G9" s="21" t="s">
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="G9" s="20" t="s">
         <v>649</v>
       </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
@@ -26956,13 +26971,13 @@
       <c r="E10" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="21" t="s">
         <v>638</v>
       </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -27027,13 +27042,13 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="21" t="s">
         <v>633</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
       <c r="G13" s="1" t="s">
         <v>627</v>
       </c>
@@ -27063,13 +27078,13 @@
       <c r="E14" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="21" t="s">
         <v>639</v>
       </c>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -27134,13 +27149,13 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="34" t="s">
         <v>650</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
       <c r="G17" s="1" t="s">
         <v>627</v>
       </c>
@@ -27158,7 +27173,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="35" t="s">
         <v>634</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -27182,13 +27197,13 @@
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
-      <c r="B19" s="22" t="s">
+      <c r="A19" s="35"/>
+      <c r="B19" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
         <v>451</v>
@@ -27283,22 +27298,22 @@
       <c r="E22">
         <v>0.90807000000000004</v>
       </c>
-      <c r="G22" s="22" t="s">
+      <c r="G22" s="21" t="s">
         <v>641</v>
       </c>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="21" t="s">
         <v>511</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
       <c r="F23" s="1"/>
       <c r="H23" s="1" t="s">
         <v>451</v>
@@ -27393,13 +27408,13 @@
       <c r="E26">
         <v>0.84006999999999998</v>
       </c>
-      <c r="G26" s="22" t="s">
+      <c r="G26" s="21" t="s">
         <v>642</v>
       </c>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G27" s="1"/>
@@ -27417,13 +27432,13 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
       <c r="G28" s="1" t="s">
         <v>626</v>
       </c>
@@ -27441,12 +27456,12 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="21" t="s">
         <v>513</v>
       </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
       <c r="E29" s="2"/>
       <c r="G29" s="1" t="s">
         <v>627</v>
@@ -27478,13 +27493,13 @@
         <v>637</v>
       </c>
       <c r="E30" s="1"/>
-      <c r="G30" s="21" t="s">
+      <c r="G30" s="20" t="s">
         <v>648</v>
       </c>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
@@ -27499,13 +27514,13 @@
       <c r="D31">
         <v>0.69301000000000001</v>
       </c>
-      <c r="G31" s="22" t="s">
+      <c r="G31" s="21" t="s">
         <v>643</v>
       </c>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -27605,22 +27620,22 @@
       <c r="D35">
         <v>0.67064999999999997</v>
       </c>
-      <c r="G35" s="22" t="s">
+      <c r="G35" s="21" t="s">
         <v>644</v>
       </c>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="21" t="s">
         <v>511</v>
       </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
       <c r="H36" s="1" t="s">
         <v>451</v>
       </c>
@@ -27636,12 +27651,12 @@
       <c r="L36" s="1"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="21" t="s">
         <v>514</v>
       </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
       <c r="E37" s="2"/>
       <c r="G37" s="1" t="s">
         <v>626</v>
@@ -27702,13 +27717,13 @@
       <c r="D39">
         <v>0.55774999999999997</v>
       </c>
-      <c r="G39" s="22" t="s">
+      <c r="G39" s="21" t="s">
         <v>645</v>
       </c>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -27807,22 +27822,22 @@
       <c r="D43">
         <v>0.59794000000000003</v>
       </c>
-      <c r="G43" s="22" t="s">
+      <c r="G43" s="21" t="s">
         <v>646</v>
       </c>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
       <c r="H44" s="1" t="s">
         <v>451</v>
       </c>
@@ -27837,13 +27852,13 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="21" t="s">
         <v>515</v>
       </c>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
       <c r="G45" s="1" t="s">
         <v>626</v>
       </c>
@@ -27903,13 +27918,13 @@
       <c r="D47">
         <v>0.86019999999999996</v>
       </c>
-      <c r="G47" s="22" t="s">
+      <c r="G47" s="21" t="s">
         <v>647</v>
       </c>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="22"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
@@ -27938,7 +27953,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>439</v>
       </c>
@@ -27967,7 +27982,7 @@
         <v>0.88500999999999996</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>438</v>
       </c>
@@ -27996,7 +28011,7 @@
         <v>0.81506000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>437</v>
       </c>
@@ -28010,25 +28025,25 @@
         <v>0.93235999999999997</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="22" t="s">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A52" s="21" t="s">
         <v>511</v>
       </c>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="22" t="s">
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A53" s="21" t="s">
         <v>544</v>
       </c>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>441</v>
       </c>
@@ -28046,7 +28061,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>436</v>
       </c>
@@ -28060,7 +28075,7 @@
         <v>0.73592000000000002</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>440</v>
       </c>
@@ -28074,7 +28089,7 @@
         <v>0.75944</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>439</v>
       </c>
@@ -28088,7 +28103,7 @@
         <v>0.77209000000000005</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>438</v>
       </c>
@@ -28102,7 +28117,7 @@
         <v>0.77346000000000004</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>437</v>
       </c>
@@ -28116,40 +28131,47 @@
         <v>0.76466999999999996</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="22" t="s">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A61" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="B61" s="22"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22" t="s">
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21" t="s">
         <v>511</v>
       </c>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="22"/>
-      <c r="I61" s="22" t="s">
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21" t="s">
         <v>643</v>
       </c>
-      <c r="J61" s="22"/>
-      <c r="K61" s="22"/>
-      <c r="L61" s="22"/>
-      <c r="M61" s="22"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="22" t="s">
+      <c r="J61" s="21"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="21"/>
+      <c r="M61" s="21"/>
+      <c r="O61" s="21" t="s">
+        <v>654</v>
+      </c>
+      <c r="P61" s="21"/>
+      <c r="Q61" s="21"/>
+      <c r="R61" s="21"/>
+      <c r="S61" s="21"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A62" s="21" t="s">
         <v>541</v>
       </c>
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22" t="s">
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21" t="s">
         <v>542</v>
       </c>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1" t="s">
         <v>451</v>
@@ -28163,8 +28185,20 @@
       <c r="M62" s="1" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P62" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q62" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="S62" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>472</v>
       </c>
@@ -28204,8 +28238,23 @@
       <c r="M63">
         <v>0.80327999999999999</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O63" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="P63">
+        <v>0.59828000000000003</v>
+      </c>
+      <c r="Q63">
+        <v>0.54120000000000001</v>
+      </c>
+      <c r="R63">
+        <v>0.69542000000000004</v>
+      </c>
+      <c r="S63">
+        <v>0.78103999999999996</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>457</v>
       </c>
@@ -28215,6 +28264,9 @@
       <c r="C64">
         <v>0.72485999999999995</v>
       </c>
+      <c r="D64">
+        <v>0.59828000000000003</v>
+      </c>
       <c r="E64" s="1" t="s">
         <v>457</v>
       </c>
@@ -28224,6 +28276,9 @@
       <c r="G64">
         <v>0.43914999999999998</v>
       </c>
+      <c r="H64">
+        <v>0.41011999999999998</v>
+      </c>
       <c r="I64" s="1" t="s">
         <v>627</v>
       </c>
@@ -28239,8 +28294,23 @@
       <c r="M64">
         <v>0.70659000000000005</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O64" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="P64">
+        <v>0.41011999999999998</v>
+      </c>
+      <c r="Q64">
+        <v>0.43592999999999998</v>
+      </c>
+      <c r="R64">
+        <v>0.54651000000000005</v>
+      </c>
+      <c r="S64">
+        <v>0.65846000000000005</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>458</v>
       </c>
@@ -28250,6 +28320,9 @@
       <c r="C65">
         <v>0.67515000000000003</v>
       </c>
+      <c r="D65">
+        <v>0.58372000000000002</v>
+      </c>
       <c r="E65" s="1" t="s">
         <v>458</v>
       </c>
@@ -28259,15 +28332,25 @@
       <c r="G65">
         <v>0.47331000000000001</v>
       </c>
-      <c r="I65" s="22" t="s">
+      <c r="H65">
+        <v>0.44470999999999999</v>
+      </c>
+      <c r="I65" s="21" t="s">
         <v>644</v>
       </c>
-      <c r="J65" s="22"/>
-      <c r="K65" s="22"/>
-      <c r="L65" s="22"/>
-      <c r="M65" s="22"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J65" s="21"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="21"/>
+      <c r="M65" s="21"/>
+      <c r="O65" s="21" t="s">
+        <v>655</v>
+      </c>
+      <c r="P65" s="21"/>
+      <c r="Q65" s="21"/>
+      <c r="R65" s="21"/>
+      <c r="S65" s="21"/>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>459</v>
       </c>
@@ -28277,6 +28360,9 @@
       <c r="C66">
         <v>0.68986000000000003</v>
       </c>
+      <c r="D66">
+        <v>0.69865999999999995</v>
+      </c>
       <c r="E66" s="1" t="s">
         <v>459</v>
       </c>
@@ -28286,6 +28372,9 @@
       <c r="G66">
         <v>0.52498</v>
       </c>
+      <c r="H66">
+        <v>0.53376999999999997</v>
+      </c>
       <c r="J66" s="1" t="s">
         <v>451</v>
       </c>
@@ -28298,8 +28387,20 @@
       <c r="M66" s="1" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P66" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q66" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="R66" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="S66" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>460</v>
       </c>
@@ -28309,6 +28410,9 @@
       <c r="C67">
         <v>0.73472000000000004</v>
       </c>
+      <c r="D67">
+        <v>0.65083000000000002</v>
+      </c>
       <c r="E67" s="1" t="s">
         <v>460</v>
       </c>
@@ -28318,6 +28422,9 @@
       <c r="G67">
         <v>0.53766000000000003</v>
       </c>
+      <c r="H67">
+        <v>0.54564999999999997</v>
+      </c>
       <c r="I67" s="1" t="s">
         <v>626</v>
       </c>
@@ -28333,8 +28440,23 @@
       <c r="M67">
         <v>0.85938999999999999</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O67" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="P67">
+        <v>0.58372000000000002</v>
+      </c>
+      <c r="Q67">
+        <v>0.77109000000000005</v>
+      </c>
+      <c r="R67">
+        <v>0.76837999999999995</v>
+      </c>
+      <c r="S67">
+        <v>0.83596999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>463</v>
       </c>
@@ -28344,6 +28466,9 @@
       <c r="C68">
         <v>0.64758000000000004</v>
       </c>
+      <c r="D68">
+        <v>0.68730999999999998</v>
+      </c>
       <c r="E68" s="1" t="s">
         <v>463</v>
       </c>
@@ -28353,6 +28478,9 @@
       <c r="G68">
         <v>0.51122999999999996</v>
       </c>
+      <c r="H68">
+        <v>0.55644000000000005</v>
+      </c>
       <c r="I68" s="1" t="s">
         <v>627</v>
       </c>
@@ -28368,41 +28496,63 @@
       <c r="M68">
         <v>0.77725999999999995</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="22" t="s">
+      <c r="O68" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="P68">
+        <v>0.44470999999999999</v>
+      </c>
+      <c r="Q68">
+        <v>0.58762999999999999</v>
+      </c>
+      <c r="R68">
+        <v>0.62863999999999998</v>
+      </c>
+      <c r="S68">
+        <v>0.73334999999999995</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A69" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="B69" s="22"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22" t="s">
+      <c r="B69" s="21"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21" t="s">
         <v>511</v>
       </c>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="22" t="s">
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="21" t="s">
         <v>645</v>
       </c>
-      <c r="J69" s="22"/>
-      <c r="K69" s="22"/>
-      <c r="L69" s="22"/>
-      <c r="M69" s="22"/>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="22" t="s">
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="21"/>
+      <c r="M69" s="21"/>
+      <c r="O69" s="21" t="s">
+        <v>656</v>
+      </c>
+      <c r="P69" s="21"/>
+      <c r="Q69" s="21"/>
+      <c r="R69" s="21"/>
+      <c r="S69" s="21"/>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A70" s="21" t="s">
         <v>543</v>
       </c>
-      <c r="B70" s="22"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22" t="s">
+      <c r="B70" s="21"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21" t="s">
         <v>544</v>
       </c>
-      <c r="F70" s="22"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="22"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
       <c r="J70" s="1" t="s">
         <v>451</v>
       </c>
@@ -28415,8 +28565,20 @@
       <c r="M70" s="1" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P70" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="R70" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="S70" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>472</v>
       </c>
@@ -28456,8 +28618,23 @@
       <c r="M71">
         <v>0.88200000000000001</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O71" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="P71">
+        <v>0.69865999999999995</v>
+      </c>
+      <c r="Q71">
+        <v>0.87026999999999999</v>
+      </c>
+      <c r="R71">
+        <v>0.83886000000000005</v>
+      </c>
+      <c r="S71">
+        <v>0.88385999999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>457</v>
       </c>
@@ -28467,6 +28644,9 @@
       <c r="C72">
         <v>0.60070999999999997</v>
       </c>
+      <c r="D72">
+        <v>0.54120000000000001</v>
+      </c>
       <c r="E72" s="1" t="s">
         <v>457</v>
       </c>
@@ -28476,6 +28656,9 @@
       <c r="G72">
         <v>0.46079999999999999</v>
       </c>
+      <c r="H72">
+        <v>0.43592999999999998</v>
+      </c>
       <c r="I72" s="1" t="s">
         <v>627</v>
       </c>
@@ -28491,8 +28674,23 @@
       <c r="M72">
         <v>0.80952000000000002</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O72" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="P72">
+        <v>0.53376999999999997</v>
+      </c>
+      <c r="Q72">
+        <v>0.65510999999999997</v>
+      </c>
+      <c r="R72">
+        <v>0.70694000000000001</v>
+      </c>
+      <c r="S72">
+        <v>0.81120999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>458</v>
       </c>
@@ -28502,6 +28700,9 @@
       <c r="C73">
         <v>0.82843</v>
       </c>
+      <c r="D73">
+        <v>0.77109000000000005</v>
+      </c>
       <c r="E73" s="1" t="s">
         <v>458</v>
       </c>
@@ -28511,15 +28712,25 @@
       <c r="G73">
         <v>0.63438000000000005</v>
       </c>
-      <c r="I73" s="22" t="s">
+      <c r="H73">
+        <v>0.58762999999999999</v>
+      </c>
+      <c r="I73" s="21" t="s">
         <v>646</v>
       </c>
-      <c r="J73" s="22"/>
-      <c r="K73" s="22"/>
-      <c r="L73" s="22"/>
-      <c r="M73" s="22"/>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J73" s="21"/>
+      <c r="K73" s="21"/>
+      <c r="L73" s="21"/>
+      <c r="M73" s="21"/>
+      <c r="O73" s="21" t="s">
+        <v>657</v>
+      </c>
+      <c r="P73" s="21"/>
+      <c r="Q73" s="21"/>
+      <c r="R73" s="21"/>
+      <c r="S73" s="21"/>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>459</v>
       </c>
@@ -28529,6 +28740,9 @@
       <c r="C74">
         <v>0.90086999999999995</v>
       </c>
+      <c r="D74">
+        <v>0.87026999999999999</v>
+      </c>
       <c r="E74" s="1" t="s">
         <v>459</v>
       </c>
@@ -28538,6 +28752,9 @@
       <c r="G74">
         <v>0.66027999999999998</v>
       </c>
+      <c r="H74">
+        <v>0.65510999999999997</v>
+      </c>
       <c r="J74" s="1" t="s">
         <v>451</v>
       </c>
@@ -28550,8 +28767,20 @@
       <c r="M74" s="1" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P74" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q74" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="R74" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="S74" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>460</v>
       </c>
@@ -28561,6 +28790,9 @@
       <c r="C75">
         <v>0.89161000000000001</v>
       </c>
+      <c r="D75">
+        <v>0.91901999999999995</v>
+      </c>
       <c r="E75" s="1" t="s">
         <v>460</v>
       </c>
@@ -28570,6 +28802,9 @@
       <c r="G75">
         <v>0.68117000000000005</v>
       </c>
+      <c r="H75">
+        <v>0.68237000000000003</v>
+      </c>
       <c r="I75" s="1" t="s">
         <v>626</v>
       </c>
@@ -28585,8 +28820,23 @@
       <c r="M75">
         <v>0.88517000000000001</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O75" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="P75">
+        <v>0.65083000000000002</v>
+      </c>
+      <c r="Q75">
+        <v>0.91901999999999995</v>
+      </c>
+      <c r="R75">
+        <v>0.84328000000000003</v>
+      </c>
+      <c r="S75">
+        <v>0.89342999999999995</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>463</v>
       </c>
@@ -28596,6 +28846,9 @@
       <c r="C76">
         <v>0.91951000000000005</v>
       </c>
+      <c r="D76">
+        <v>0.89254</v>
+      </c>
       <c r="E76" s="1" t="s">
         <v>463</v>
       </c>
@@ -28605,6 +28858,9 @@
       <c r="G76">
         <v>0.68123999999999996</v>
       </c>
+      <c r="H76">
+        <v>0.69565999999999995</v>
+      </c>
       <c r="I76" s="1" t="s">
         <v>627</v>
       </c>
@@ -28620,17 +28876,39 @@
       <c r="M76">
         <v>0.81699999999999995</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I77" s="22" t="s">
+      <c r="O76" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="P76">
+        <v>0.54564999999999997</v>
+      </c>
+      <c r="Q76">
+        <v>0.68237000000000003</v>
+      </c>
+      <c r="R76">
+        <v>0.72328000000000003</v>
+      </c>
+      <c r="S76">
+        <v>0.82240000000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I77" s="21" t="s">
         <v>647</v>
       </c>
-      <c r="J77" s="22"/>
-      <c r="K77" s="22"/>
-      <c r="L77" s="22"/>
-      <c r="M77" s="22"/>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J77" s="21"/>
+      <c r="K77" s="21"/>
+      <c r="L77" s="21"/>
+      <c r="M77" s="21"/>
+      <c r="O77" s="21" t="s">
+        <v>658</v>
+      </c>
+      <c r="P77" s="21"/>
+      <c r="Q77" s="21"/>
+      <c r="R77" s="21"/>
+      <c r="S77" s="21"/>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="I78" s="1"/>
       <c r="J78" s="1" t="s">
         <v>451</v>
@@ -28644,8 +28922,20 @@
       <c r="M78" s="1" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P78" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q78" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="R78" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="S78" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="I79" s="1" t="s">
         <v>626</v>
       </c>
@@ -28661,8 +28951,23 @@
       <c r="M79">
         <v>0.88500999999999996</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O79" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="P79">
+        <v>0.68730999999999998</v>
+      </c>
+      <c r="Q79">
+        <v>0.89254</v>
+      </c>
+      <c r="R79">
+        <v>0.84891000000000005</v>
+      </c>
+      <c r="S79">
+        <v>0.89873999999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="I80" s="1" t="s">
         <v>627</v>
       </c>
@@ -28678,25 +28983,40 @@
       <c r="M80">
         <v>0.81506000000000001</v>
       </c>
+      <c r="O80" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="P80">
+        <v>0.55644000000000005</v>
+      </c>
+      <c r="Q80">
+        <v>0.69565999999999995</v>
+      </c>
+      <c r="R80">
+        <v>0.73155999999999999</v>
+      </c>
+      <c r="S80">
+        <v>0.83103000000000005</v>
+      </c>
     </row>
     <row r="85" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A85" s="35" t="s">
+      <c r="A85" s="34" t="s">
         <v>650</v>
       </c>
-      <c r="B85" s="35"/>
-      <c r="C85" s="35"/>
-      <c r="D85" s="35"/>
-      <c r="E85" s="35"/>
-      <c r="F85" s="35" t="s">
+      <c r="B85" s="34"/>
+      <c r="C85" s="34"/>
+      <c r="D85" s="34"/>
+      <c r="E85" s="34"/>
+      <c r="F85" s="34" t="s">
         <v>650</v>
       </c>
-      <c r="G85" s="35"/>
-      <c r="H85" s="35"/>
-      <c r="I85" s="35"/>
-      <c r="J85" s="35"/>
+      <c r="G85" s="34"/>
+      <c r="H85" s="34"/>
+      <c r="I85" s="34"/>
+      <c r="J85" s="34"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="36" t="s">
+      <c r="A86" s="35" t="s">
         <v>634</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -28711,42 +29031,42 @@
       <c r="E86" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="F86" s="20" t="s">
+      <c r="F86" s="43" t="s">
         <v>634</v>
       </c>
-      <c r="G86" s="6" t="s">
+      <c r="G86" s="18" t="s">
         <v>562</v>
       </c>
-      <c r="H86" s="6" t="s">
+      <c r="H86" s="18" t="s">
         <v>563</v>
       </c>
-      <c r="I86" s="6" t="s">
+      <c r="I86" s="18" t="s">
         <v>509</v>
       </c>
-      <c r="J86" s="6" t="s">
+      <c r="J86" s="18" t="s">
         <v>558</v>
       </c>
-      <c r="K86" s="8" t="s">
+      <c r="K86" s="38" t="s">
         <v>653</v>
       </c>
-      <c r="L86" s="38"/>
+      <c r="L86" s="37"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="36"/>
-      <c r="B87" s="22" t="s">
+      <c r="A87" s="35"/>
+      <c r="B87" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="C87" s="22"/>
-      <c r="D87" s="22"/>
-      <c r="E87" s="22"/>
-      <c r="F87" s="33" t="s">
+      <c r="C87" s="21"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="32" t="s">
         <v>618</v>
       </c>
-      <c r="G87" s="33"/>
-      <c r="H87" s="33"/>
-      <c r="I87" s="33"/>
-      <c r="J87" s="33"/>
-      <c r="K87" s="39" t="s">
+      <c r="G87" s="32"/>
+      <c r="H87" s="32"/>
+      <c r="I87" s="32"/>
+      <c r="J87" s="32"/>
+      <c r="K87" s="38" t="s">
         <v>614</v>
       </c>
     </row>
@@ -28769,23 +29089,23 @@
       <c r="F88" s="18" t="s">
         <v>651</v>
       </c>
-      <c r="G88" s="40">
+      <c r="G88" s="39">
         <f>B88*100</f>
         <v>74.461999999999989</v>
       </c>
-      <c r="H88" s="40">
+      <c r="H88" s="39">
         <f t="shared" ref="H88:J90" si="0">C88*100</f>
         <v>87.512</v>
       </c>
-      <c r="I88" s="41">
+      <c r="I88" s="40">
         <f t="shared" si="0"/>
         <v>86.38</v>
       </c>
-      <c r="J88" s="41">
+      <c r="J88" s="40">
         <f t="shared" si="0"/>
         <v>90.870999999999995</v>
       </c>
-      <c r="K88" s="42">
+      <c r="K88" s="41">
         <v>4.7067688936935799</v>
       </c>
     </row>
@@ -28808,24 +29128,24 @@
       <c r="F89" s="18" t="s">
         <v>636</v>
       </c>
-      <c r="G89" s="41">
+      <c r="G89" s="40">
         <f t="shared" ref="G89:G90" si="1">B89*100</f>
         <v>78.685000000000002</v>
       </c>
-      <c r="H89" s="40">
+      <c r="H89" s="39">
         <f t="shared" si="0"/>
         <v>81.283000000000001</v>
       </c>
-      <c r="I89" s="40">
+      <c r="I89" s="39">
         <f t="shared" si="0"/>
         <v>85.701000000000008</v>
       </c>
-      <c r="J89" s="40">
+      <c r="J89" s="39">
         <f t="shared" si="0"/>
         <v>90.207000000000008</v>
       </c>
       <c r="K89" s="19">
-        <v>6.09</v>
+        <v>5.0599999999999996</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -28847,42 +29167,42 @@
       <c r="F90" s="18" t="s">
         <v>637</v>
       </c>
-      <c r="G90" s="40">
+      <c r="G90" s="39">
         <f t="shared" si="1"/>
         <v>67.064999999999998</v>
       </c>
-      <c r="H90" s="41">
+      <c r="H90" s="40">
         <f t="shared" si="0"/>
         <v>93.23599999999999</v>
       </c>
-      <c r="I90" s="40">
+      <c r="I90" s="39">
         <f t="shared" si="0"/>
         <v>85.158999999999992</v>
       </c>
-      <c r="J90" s="40">
+      <c r="J90" s="39">
         <f t="shared" si="0"/>
         <v>90.807000000000002</v>
       </c>
-      <c r="K90" s="43">
-        <v>5.17</v>
+      <c r="K90" s="42">
+        <v>4.78</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="22" t="s">
+      <c r="A91" s="21" t="s">
         <v>511</v>
       </c>
-      <c r="B91" s="22"/>
-      <c r="C91" s="22"/>
-      <c r="D91" s="22"/>
-      <c r="E91" s="22"/>
-      <c r="F91" s="33" t="s">
+      <c r="B91" s="21"/>
+      <c r="C91" s="21"/>
+      <c r="D91" s="21"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="32" t="s">
         <v>619</v>
       </c>
-      <c r="G91" s="33"/>
-      <c r="H91" s="33"/>
-      <c r="I91" s="33"/>
-      <c r="J91" s="33"/>
-      <c r="K91" s="39" t="s">
+      <c r="G91" s="32"/>
+      <c r="H91" s="32"/>
+      <c r="I91" s="32"/>
+      <c r="J91" s="32"/>
+      <c r="K91" s="38" t="s">
         <v>615</v>
       </c>
     </row>
@@ -28905,23 +29225,23 @@
       <c r="F92" s="18" t="s">
         <v>651</v>
       </c>
-      <c r="G92" s="41">
+      <c r="G92" s="40">
         <f t="shared" ref="G92:J94" si="2">B92*100</f>
         <v>62.388999999999996</v>
       </c>
-      <c r="H92" s="41">
+      <c r="H92" s="40">
         <f t="shared" si="2"/>
         <v>77.141999999999996</v>
       </c>
-      <c r="I92" s="41">
+      <c r="I92" s="40">
         <f t="shared" si="2"/>
         <v>77.24499999999999</v>
       </c>
-      <c r="J92" s="41">
+      <c r="J92" s="40">
         <f t="shared" si="2"/>
         <v>84.316999999999993</v>
       </c>
-      <c r="K92" s="42">
+      <c r="K92" s="41">
         <v>4.5209967640625504</v>
       </c>
     </row>
@@ -28944,24 +29264,24 @@
       <c r="F93" s="18" t="s">
         <v>636</v>
       </c>
-      <c r="G93" s="40">
+      <c r="G93" s="39">
         <f t="shared" si="2"/>
         <v>59.440000000000005</v>
       </c>
-      <c r="H93" s="40">
+      <c r="H93" s="39">
         <f t="shared" si="2"/>
         <v>73.426000000000002</v>
       </c>
-      <c r="I93" s="40">
+      <c r="I93" s="39">
         <f t="shared" si="2"/>
         <v>75.570000000000007</v>
       </c>
-      <c r="J93" s="40">
+      <c r="J93" s="39">
         <f t="shared" si="2"/>
         <v>83.655999999999992</v>
       </c>
       <c r="K93" s="19">
-        <v>6</v>
+        <v>5.24</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -28983,28 +29303,28 @@
       <c r="F94" s="18" t="s">
         <v>637</v>
       </c>
-      <c r="G94" s="40">
+      <c r="G94" s="39">
         <f t="shared" si="2"/>
         <v>59.794000000000004</v>
       </c>
-      <c r="H94" s="40">
+      <c r="H94" s="39">
         <f t="shared" si="2"/>
         <v>76.466999999999999</v>
       </c>
-      <c r="I94" s="40">
+      <c r="I94" s="39">
         <f t="shared" si="2"/>
         <v>76.34</v>
       </c>
-      <c r="J94" s="40">
+      <c r="J94" s="39">
         <f t="shared" si="2"/>
         <v>84.007000000000005</v>
       </c>
-      <c r="K94" s="43">
-        <v>6.12</v>
+      <c r="K94" s="42">
+        <v>5.49</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="37" t="s">
+      <c r="A96" s="36" t="s">
         <v>634</v>
       </c>
       <c r="B96" s="13" t="s">
@@ -29030,10 +29350,10 @@
         <v>636</v>
       </c>
       <c r="B98" s="7">
-        <v>6.09</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="C98" s="7">
-        <v>6</v>
+        <v>5.24</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -29041,14 +29361,19 @@
         <v>637</v>
       </c>
       <c r="B99" s="14">
-        <v>5.17</v>
+        <v>4.78</v>
       </c>
       <c r="C99" s="14">
-        <v>6.12</v>
+        <v>5.49</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="55">
+    <mergeCell ref="O61:S61"/>
+    <mergeCell ref="O65:S65"/>
+    <mergeCell ref="O69:S69"/>
+    <mergeCell ref="O73:S73"/>
+    <mergeCell ref="O77:S77"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="A13:E13"/>

--- a/plotting/617_temp.xlsx
+++ b/plotting/617_temp.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2407" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2409" uniqueCount="661">
   <si>
     <t>.\vgg_unet2_0_3_640_640_64_256_rot_15_345_4_flip_5K\training_32_49_640_640_640_640_max_val_acc\vis\vis_log_181022_0927.txt</t>
   </si>
@@ -1997,6 +1997,12 @@
   </si>
   <si>
     <t>training_4_49_resnet_v1_101_0_3_non_aug</t>
+  </si>
+  <si>
+    <t>Ablation Training Images</t>
+  </si>
+  <si>
+    <t>Ablation Selective Pixel</t>
   </si>
 </sst>
 </file>
@@ -2182,54 +2188,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2251,6 +2209,54 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7993,13 +7999,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="28" t="s">
         <v>407</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -8338,13 +8344,13 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="28" t="s">
         <v>406</v>
       </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -8617,13 +8623,13 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="20" t="s">
+      <c r="A52" s="28" t="s">
         <v>405</v>
       </c>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -8956,13 +8962,13 @@
       </c>
     </row>
     <row r="71" spans="1:7" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="20" t="s">
+      <c r="A71" s="28" t="s">
         <v>408</v>
       </c>
-      <c r="B71" s="20"/>
-      <c r="C71" s="20"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="20"/>
+      <c r="B71" s="28"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
@@ -9370,13 +9376,13 @@
       </c>
     </row>
     <row r="100" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="20" t="s">
+      <c r="A100" s="28" t="s">
         <v>559</v>
       </c>
-      <c r="B100" s="20"/>
-      <c r="C100" s="20"/>
-      <c r="D100" s="20"/>
-      <c r="E100" s="20"/>
+      <c r="B100" s="28"/>
+      <c r="C100" s="28"/>
+      <c r="D100" s="28"/>
+      <c r="E100" s="28"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
@@ -9604,13 +9610,13 @@
       </c>
     </row>
     <row r="118" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A118" s="20" t="s">
+      <c r="A118" s="28" t="s">
         <v>409</v>
       </c>
-      <c r="B118" s="20"/>
-      <c r="C118" s="20"/>
-      <c r="D118" s="20"/>
-      <c r="E118" s="20"/>
+      <c r="B118" s="28"/>
+      <c r="C118" s="28"/>
+      <c r="D118" s="28"/>
+      <c r="E118" s="28"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
@@ -9838,13 +9844,13 @@
       </c>
     </row>
     <row r="137" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A137" s="20" t="s">
+      <c r="A137" s="28" t="s">
         <v>410</v>
       </c>
-      <c r="B137" s="20"/>
-      <c r="C137" s="20"/>
-      <c r="D137" s="20"/>
-      <c r="E137" s="20"/>
+      <c r="B137" s="28"/>
+      <c r="C137" s="28"/>
+      <c r="D137" s="28"/>
+      <c r="E137" s="28"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
@@ -10072,13 +10078,13 @@
       </c>
     </row>
     <row r="155" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A155" s="20" t="s">
+      <c r="A155" s="28" t="s">
         <v>407</v>
       </c>
-      <c r="B155" s="20"/>
-      <c r="C155" s="20"/>
-      <c r="D155" s="20"/>
-      <c r="E155" s="20"/>
+      <c r="B155" s="28"/>
+      <c r="C155" s="28"/>
+      <c r="D155" s="28"/>
+      <c r="E155" s="28"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
@@ -10531,13 +10537,13 @@
       </c>
     </row>
     <row r="192" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A192" s="20" t="s">
+      <c r="A192" s="28" t="s">
         <v>409</v>
       </c>
-      <c r="B192" s="20"/>
-      <c r="C192" s="20"/>
-      <c r="D192" s="20"/>
-      <c r="E192" s="20"/>
+      <c r="B192" s="28"/>
+      <c r="C192" s="28"/>
+      <c r="D192" s="28"/>
+      <c r="E192" s="28"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
@@ -11035,13 +11041,13 @@
       </c>
     </row>
     <row r="231" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A231" s="20" t="s">
+      <c r="A231" s="28" t="s">
         <v>404</v>
       </c>
-      <c r="B231" s="20"/>
-      <c r="C231" s="20"/>
-      <c r="D231" s="20"/>
-      <c r="E231" s="20"/>
+      <c r="B231" s="28"/>
+      <c r="C231" s="28"/>
+      <c r="D231" s="28"/>
+      <c r="E231" s="28"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
@@ -11854,13 +11860,13 @@
       </c>
     </row>
     <row r="293" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A293" s="20" t="s">
+      <c r="A293" s="28" t="s">
         <v>403</v>
       </c>
-      <c r="B293" s="20"/>
-      <c r="C293" s="20"/>
-      <c r="D293" s="20"/>
-      <c r="E293" s="20"/>
+      <c r="B293" s="28"/>
+      <c r="C293" s="28"/>
+      <c r="D293" s="28"/>
+      <c r="E293" s="28"/>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
@@ -13224,17 +13230,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A293:E293"/>
+    <mergeCell ref="A231:E231"/>
+    <mergeCell ref="A192:E192"/>
+    <mergeCell ref="A71:E71"/>
+    <mergeCell ref="A155:E155"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A52:E52"/>
     <mergeCell ref="A100:E100"/>
     <mergeCell ref="A118:E118"/>
     <mergeCell ref="A137:E137"/>
     <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A293:E293"/>
-    <mergeCell ref="A231:E231"/>
-    <mergeCell ref="A192:E192"/>
-    <mergeCell ref="A71:E71"/>
-    <mergeCell ref="A155:E155"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
@@ -13820,13 +13826,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="33" t="s">
         <v>413</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -13940,22 +13946,22 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="33" t="s">
         <v>420</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="33" t="s">
         <v>421</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -14108,14 +14114,14 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="33" t="s">
         <v>413</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
       <c r="J17">
         <v>0.67832000000000003</v>
       </c>
@@ -14130,14 +14136,14 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="33" t="s">
         <v>444</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -14348,14 +14354,14 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="38" t="s">
         <v>420</v>
       </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
       <c r="J24">
         <v>0.43318000000000001</v>
       </c>
@@ -14382,14 +14388,14 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="33" t="s">
         <v>445</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -14566,46 +14572,46 @@
       </c>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="AA33" s="21" t="s">
+      <c r="AA33" s="33" t="s">
         <v>567</v>
       </c>
-      <c r="AB33" s="21"/>
-      <c r="AC33" s="21"/>
-      <c r="AD33" s="21"/>
+      <c r="AB33" s="33"/>
+      <c r="AC33" s="33"/>
+      <c r="AD33" s="33"/>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="33" t="s">
         <v>413</v>
       </c>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="H34" s="21" t="s">
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="H34" s="33" t="s">
         <v>434</v>
       </c>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="O34" s="21" t="s">
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="O34" s="33" t="s">
         <v>434</v>
       </c>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
-      <c r="R34" s="21"/>
-      <c r="S34" s="21"/>
-      <c r="T34" s="21"/>
-      <c r="U34" s="21"/>
-      <c r="V34" s="21" t="s">
+      <c r="P34" s="33"/>
+      <c r="Q34" s="33"/>
+      <c r="R34" s="33"/>
+      <c r="S34" s="33"/>
+      <c r="T34" s="33"/>
+      <c r="U34" s="33"/>
+      <c r="V34" s="33" t="s">
         <v>507</v>
       </c>
-      <c r="W34" s="21"/>
-      <c r="X34" s="21"/>
-      <c r="Y34" s="21"/>
-      <c r="Z34" s="21"/>
+      <c r="W34" s="33"/>
+      <c r="X34" s="33"/>
+      <c r="Y34" s="33"/>
+      <c r="Z34" s="33"/>
       <c r="AA34" t="s">
         <v>327</v>
       </c>
@@ -14620,38 +14626,38 @@
       </c>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="33" t="s">
         <v>432</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="H35" s="21" t="s">
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="H35" s="33" t="s">
         <v>435</v>
       </c>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="O35" s="21" t="s">
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="O35" s="33" t="s">
         <v>435</v>
       </c>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="21"/>
-      <c r="R35" s="21"/>
-      <c r="S35" s="21"/>
-      <c r="T35" s="21"/>
-      <c r="U35" s="21"/>
-      <c r="V35" s="21" t="s">
+      <c r="P35" s="33"/>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="33"/>
+      <c r="S35" s="33"/>
+      <c r="T35" s="33"/>
+      <c r="U35" s="33"/>
+      <c r="V35" s="33" t="s">
         <v>513</v>
       </c>
-      <c r="W35" s="21"/>
-      <c r="X35" s="21"/>
-      <c r="Y35" s="21"/>
-      <c r="Z35" s="21"/>
+      <c r="W35" s="33"/>
+      <c r="X35" s="33"/>
+      <c r="Y35" s="33"/>
+      <c r="Z35" s="33"/>
       <c r="AA35">
         <v>0.88705000000000001</v>
       </c>
@@ -15070,22 +15076,22 @@
       <c r="Z40">
         <v>0.70833999999999997</v>
       </c>
-      <c r="AA40" s="21" t="s">
+      <c r="AA40" s="33" t="s">
         <v>566</v>
       </c>
-      <c r="AB40" s="21"/>
-      <c r="AC40" s="21"/>
-      <c r="AD40" s="21"/>
+      <c r="AB40" s="33"/>
+      <c r="AC40" s="33"/>
+      <c r="AD40" s="33"/>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="33" t="s">
         <v>424</v>
       </c>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
       <c r="H41" s="1" t="s">
         <v>416</v>
       </c>
@@ -15154,14 +15160,14 @@
       </c>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="33" t="s">
         <v>433</v>
       </c>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
       <c r="H42" s="1" t="s">
         <v>417</v>
       </c>
@@ -15180,22 +15186,22 @@
       <c r="M42">
         <v>0.63066</v>
       </c>
-      <c r="O42" s="21" t="s">
+      <c r="O42" s="33" t="s">
         <v>434</v>
       </c>
-      <c r="P42" s="21"/>
-      <c r="Q42" s="21"/>
-      <c r="R42" s="21"/>
-      <c r="S42" s="21"/>
-      <c r="T42" s="21"/>
-      <c r="U42" s="21"/>
-      <c r="V42" s="21" t="s">
+      <c r="P42" s="33"/>
+      <c r="Q42" s="33"/>
+      <c r="R42" s="33"/>
+      <c r="S42" s="33"/>
+      <c r="T42" s="33"/>
+      <c r="U42" s="33"/>
+      <c r="V42" s="33" t="s">
         <v>511</v>
       </c>
-      <c r="W42" s="21"/>
-      <c r="X42" s="21"/>
-      <c r="Y42" s="21"/>
-      <c r="Z42" s="21"/>
+      <c r="W42" s="33"/>
+      <c r="X42" s="33"/>
+      <c r="Y42" s="33"/>
+      <c r="Z42" s="33"/>
       <c r="AA42">
         <v>0.87365000000000004</v>
       </c>
@@ -15246,22 +15252,22 @@
       <c r="M43">
         <v>0.65837000000000001</v>
       </c>
-      <c r="O43" s="21" t="s">
+      <c r="O43" s="33" t="s">
         <v>442</v>
       </c>
-      <c r="P43" s="21"/>
-      <c r="Q43" s="21"/>
-      <c r="R43" s="21"/>
-      <c r="S43" s="21"/>
-      <c r="T43" s="21"/>
-      <c r="U43" s="21"/>
-      <c r="V43" s="21" t="s">
+      <c r="P43" s="33"/>
+      <c r="Q43" s="33"/>
+      <c r="R43" s="33"/>
+      <c r="S43" s="33"/>
+      <c r="T43" s="33"/>
+      <c r="U43" s="33"/>
+      <c r="V43" s="33" t="s">
         <v>514</v>
       </c>
-      <c r="W43" s="21"/>
-      <c r="X43" s="21"/>
-      <c r="Y43" s="21"/>
-      <c r="Z43" s="21"/>
+      <c r="W43" s="33"/>
+      <c r="X43" s="33"/>
+      <c r="Y43" s="33"/>
+      <c r="Z43" s="33"/>
       <c r="AA43" t="s">
         <v>331</v>
       </c>
@@ -15544,21 +15550,21 @@
       <c r="Z47">
         <v>0.47498000000000001</v>
       </c>
-      <c r="AA47" s="21" t="s">
+      <c r="AA47" s="33" t="s">
         <v>565</v>
       </c>
-      <c r="AB47" s="21"/>
-      <c r="AC47" s="21"/>
-      <c r="AD47" s="21"/>
+      <c r="AB47" s="33"/>
+      <c r="AC47" s="33"/>
+      <c r="AD47" s="33"/>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="33" t="s">
         <v>506</v>
       </c>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
       <c r="F48" s="2"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
@@ -15612,13 +15618,13 @@
       </c>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="33" t="s">
         <v>505</v>
       </c>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
       <c r="O49" s="1" t="s">
         <v>437</v>
       </c>
@@ -15684,22 +15690,22 @@
       <c r="E50" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="O50" s="21" t="s">
+      <c r="O50" s="33" t="s">
         <v>434</v>
       </c>
-      <c r="P50" s="21"/>
-      <c r="Q50" s="21"/>
-      <c r="R50" s="21"/>
-      <c r="S50" s="21"/>
-      <c r="T50" s="21"/>
-      <c r="U50" s="21"/>
-      <c r="V50" s="21" t="s">
+      <c r="P50" s="33"/>
+      <c r="Q50" s="33"/>
+      <c r="R50" s="33"/>
+      <c r="S50" s="33"/>
+      <c r="T50" s="33"/>
+      <c r="U50" s="33"/>
+      <c r="V50" s="33" t="s">
         <v>507</v>
       </c>
-      <c r="W50" s="21"/>
-      <c r="X50" s="21"/>
-      <c r="Y50" s="21"/>
-      <c r="Z50" s="21"/>
+      <c r="W50" s="33"/>
+      <c r="X50" s="33"/>
+      <c r="Y50" s="33"/>
+      <c r="Z50" s="33"/>
       <c r="AA50" t="s">
         <v>331</v>
       </c>
@@ -15726,22 +15732,22 @@
       <c r="E51">
         <v>0.63066</v>
       </c>
-      <c r="O51" s="21" t="s">
+      <c r="O51" s="33" t="s">
         <v>446</v>
       </c>
-      <c r="P51" s="21"/>
-      <c r="Q51" s="21"/>
-      <c r="R51" s="21"/>
-      <c r="S51" s="21"/>
-      <c r="T51" s="21"/>
-      <c r="U51" s="21"/>
-      <c r="V51" s="21" t="s">
+      <c r="P51" s="33"/>
+      <c r="Q51" s="33"/>
+      <c r="R51" s="33"/>
+      <c r="S51" s="33"/>
+      <c r="T51" s="33"/>
+      <c r="U51" s="33"/>
+      <c r="V51" s="33" t="s">
         <v>515</v>
       </c>
-      <c r="W51" s="21"/>
-      <c r="X51" s="21"/>
-      <c r="Y51" s="21"/>
-      <c r="Z51" s="21"/>
+      <c r="W51" s="33"/>
+      <c r="X51" s="33"/>
+      <c r="Y51" s="33"/>
+      <c r="Z51" s="33"/>
       <c r="AA51">
         <v>0.77363000000000004</v>
       </c>
@@ -15983,20 +15989,20 @@
       </c>
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="33" t="s">
         <v>507</v>
       </c>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21" t="s">
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33" t="s">
         <v>511</v>
       </c>
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="33"/>
+      <c r="I56" s="33"/>
+      <c r="J56" s="33"/>
       <c r="O56" s="1" t="s">
         <v>438</v>
       </c>
@@ -16035,20 +16041,20 @@
       </c>
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A57" s="21" t="s">
+      <c r="A57" s="33" t="s">
         <v>508</v>
       </c>
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21" t="s">
+      <c r="B57" s="33"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33" t="s">
         <v>512</v>
       </c>
-      <c r="G57" s="21"/>
-      <c r="H57" s="21"/>
-      <c r="I57" s="21"/>
-      <c r="J57" s="21"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="33"/>
+      <c r="J57" s="33"/>
       <c r="O57" s="1" t="s">
         <v>437</v>
       </c>
@@ -16117,22 +16123,22 @@
       <c r="J58" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="O58" s="21" t="s">
+      <c r="O58" s="33" t="s">
         <v>434</v>
       </c>
-      <c r="P58" s="21"/>
-      <c r="Q58" s="21"/>
-      <c r="R58" s="21"/>
-      <c r="S58" s="21"/>
-      <c r="T58" s="21"/>
-      <c r="U58" s="21"/>
-      <c r="V58" s="21" t="s">
+      <c r="P58" s="33"/>
+      <c r="Q58" s="33"/>
+      <c r="R58" s="33"/>
+      <c r="S58" s="33"/>
+      <c r="T58" s="33"/>
+      <c r="U58" s="33"/>
+      <c r="V58" s="33" t="s">
         <v>511</v>
       </c>
-      <c r="W58" s="21"/>
-      <c r="X58" s="21"/>
-      <c r="Y58" s="21"/>
-      <c r="Z58" s="21"/>
+      <c r="W58" s="33"/>
+      <c r="X58" s="33"/>
+      <c r="Y58" s="33"/>
+      <c r="Z58" s="33"/>
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
@@ -16165,22 +16171,22 @@
       <c r="J59">
         <v>0.76844000000000001</v>
       </c>
-      <c r="O59" s="21" t="s">
+      <c r="O59" s="33" t="s">
         <v>447</v>
       </c>
-      <c r="P59" s="21"/>
-      <c r="Q59" s="21"/>
-      <c r="R59" s="21"/>
-      <c r="S59" s="21"/>
-      <c r="T59" s="21"/>
-      <c r="U59" s="21"/>
-      <c r="V59" s="21" t="s">
+      <c r="P59" s="33"/>
+      <c r="Q59" s="33"/>
+      <c r="R59" s="33"/>
+      <c r="S59" s="33"/>
+      <c r="T59" s="33"/>
+      <c r="U59" s="33"/>
+      <c r="V59" s="33" t="s">
         <v>544</v>
       </c>
-      <c r="W59" s="21"/>
-      <c r="X59" s="21"/>
-      <c r="Y59" s="21"/>
-      <c r="Z59" s="21"/>
+      <c r="W59" s="33"/>
+      <c r="X59" s="33"/>
+      <c r="Y59" s="33"/>
+      <c r="Z59" s="33"/>
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
@@ -16493,10 +16499,10 @@
       </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A65" s="21" t="s">
+      <c r="A65" s="33" t="s">
         <v>413</v>
       </c>
-      <c r="B65" s="21" t="s">
+      <c r="B65" s="33" t="s">
         <v>444</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -16552,8 +16558,8 @@
       </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A66" s="21"/>
-      <c r="B66" s="21"/>
+      <c r="A66" s="33"/>
+      <c r="B66" s="33"/>
       <c r="C66" s="1" t="s">
         <v>412</v>
       </c>
@@ -16569,19 +16575,19 @@
       <c r="G66">
         <v>0.84930000000000005</v>
       </c>
-      <c r="O66" s="21" t="s">
+      <c r="O66" s="33" t="s">
         <v>434</v>
       </c>
-      <c r="P66" s="21"/>
-      <c r="Q66" s="21"/>
-      <c r="R66" s="21"/>
-      <c r="S66" s="21"/>
-      <c r="T66" s="21"/>
-      <c r="U66" s="21"/>
+      <c r="P66" s="33"/>
+      <c r="Q66" s="33"/>
+      <c r="R66" s="33"/>
+      <c r="S66" s="33"/>
+      <c r="T66" s="33"/>
+      <c r="U66" s="33"/>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A67" s="21"/>
-      <c r="B67" s="21"/>
+      <c r="A67" s="33"/>
+      <c r="B67" s="33"/>
       <c r="C67" s="1" t="s">
         <v>405</v>
       </c>
@@ -16597,19 +16603,19 @@
       <c r="G67">
         <v>0.90871000000000002</v>
       </c>
-      <c r="O67" s="21" t="s">
+      <c r="O67" s="33" t="s">
         <v>448</v>
       </c>
-      <c r="P67" s="21"/>
-      <c r="Q67" s="21"/>
-      <c r="R67" s="21"/>
-      <c r="S67" s="21"/>
-      <c r="T67" s="21"/>
-      <c r="U67" s="21"/>
+      <c r="P67" s="33"/>
+      <c r="Q67" s="33"/>
+      <c r="R67" s="33"/>
+      <c r="S67" s="33"/>
+      <c r="T67" s="33"/>
+      <c r="U67" s="33"/>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A68" s="21"/>
-      <c r="B68" s="21"/>
+      <c r="A68" s="33"/>
+      <c r="B68" s="33"/>
       <c r="C68" s="1" t="s">
         <v>404</v>
       </c>
@@ -16648,8 +16654,8 @@
       </c>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A69" s="21"/>
-      <c r="B69" s="21"/>
+      <c r="A69" s="33"/>
+      <c r="B69" s="33"/>
       <c r="C69" s="1" t="s">
         <v>406</v>
       </c>
@@ -16688,8 +16694,8 @@
       </c>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A70" s="21"/>
-      <c r="B70" s="21"/>
+      <c r="A70" s="33"/>
+      <c r="B70" s="33"/>
       <c r="C70" s="1" t="s">
         <v>403</v>
       </c>
@@ -16728,10 +16734,10 @@
       </c>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A71" s="22" t="s">
+      <c r="A71" s="38" t="s">
         <v>420</v>
       </c>
-      <c r="B71" s="21" t="s">
+      <c r="B71" s="33" t="s">
         <v>445</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -16772,8 +16778,8 @@
       </c>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A72" s="21"/>
-      <c r="B72" s="21"/>
+      <c r="A72" s="33"/>
+      <c r="B72" s="33"/>
       <c r="C72" s="1" t="s">
         <v>412</v>
       </c>
@@ -16812,8 +16818,8 @@
       </c>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A73" s="21"/>
-      <c r="B73" s="21"/>
+      <c r="A73" s="33"/>
+      <c r="B73" s="33"/>
       <c r="C73" s="1" t="s">
         <v>405</v>
       </c>
@@ -16852,8 +16858,8 @@
       </c>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A74" s="21"/>
-      <c r="B74" s="21"/>
+      <c r="A74" s="33"/>
+      <c r="B74" s="33"/>
       <c r="C74" s="1" t="s">
         <v>404</v>
       </c>
@@ -16869,19 +16875,19 @@
       <c r="G74">
         <v>0.81733</v>
       </c>
-      <c r="O74" s="21" t="s">
+      <c r="O74" s="33" t="s">
         <v>434</v>
       </c>
-      <c r="P74" s="21"/>
-      <c r="Q74" s="21"/>
-      <c r="R74" s="21"/>
-      <c r="S74" s="21"/>
-      <c r="T74" s="21"/>
-      <c r="U74" s="21"/>
+      <c r="P74" s="33"/>
+      <c r="Q74" s="33"/>
+      <c r="R74" s="33"/>
+      <c r="S74" s="33"/>
+      <c r="T74" s="33"/>
+      <c r="U74" s="33"/>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A75" s="21"/>
-      <c r="B75" s="21"/>
+      <c r="A75" s="33"/>
+      <c r="B75" s="33"/>
       <c r="C75" s="1" t="s">
         <v>406</v>
       </c>
@@ -16897,19 +16903,19 @@
       <c r="G75">
         <v>0.77490000000000003</v>
       </c>
-      <c r="O75" s="21" t="s">
+      <c r="O75" s="33" t="s">
         <v>449</v>
       </c>
-      <c r="P75" s="21"/>
-      <c r="Q75" s="21"/>
-      <c r="R75" s="21"/>
-      <c r="S75" s="21"/>
-      <c r="T75" s="21"/>
-      <c r="U75" s="21"/>
+      <c r="P75" s="33"/>
+      <c r="Q75" s="33"/>
+      <c r="R75" s="33"/>
+      <c r="S75" s="33"/>
+      <c r="T75" s="33"/>
+      <c r="U75" s="33"/>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A76" s="21"/>
-      <c r="B76" s="21"/>
+      <c r="A76" s="33"/>
+      <c r="B76" s="33"/>
       <c r="C76" s="1" t="s">
         <v>403</v>
       </c>
@@ -16948,22 +16954,22 @@
       </c>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A77" s="21" t="s">
+      <c r="A77" s="33" t="s">
         <v>507</v>
       </c>
-      <c r="B77" s="21"/>
-      <c r="C77" s="21"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="21" t="s">
+      <c r="B77" s="33"/>
+      <c r="C77" s="33"/>
+      <c r="D77" s="33"/>
+      <c r="E77" s="33"/>
+      <c r="F77" s="33"/>
+      <c r="G77" s="33" t="s">
         <v>511</v>
       </c>
-      <c r="H77" s="21"/>
-      <c r="I77" s="21"/>
-      <c r="J77" s="21"/>
-      <c r="K77" s="21"/>
-      <c r="L77" s="21"/>
+      <c r="H77" s="33"/>
+      <c r="I77" s="33"/>
+      <c r="J77" s="33"/>
+      <c r="K77" s="33"/>
+      <c r="L77" s="33"/>
       <c r="O77" t="s">
         <v>436</v>
       </c>
@@ -16987,22 +16993,22 @@
       </c>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A78" s="21" t="s">
+      <c r="A78" s="33" t="s">
         <v>508</v>
       </c>
-      <c r="B78" s="21"/>
-      <c r="C78" s="21"/>
-      <c r="D78" s="21"/>
-      <c r="E78" s="21"/>
-      <c r="F78" s="21"/>
-      <c r="G78" s="21" t="s">
+      <c r="B78" s="33"/>
+      <c r="C78" s="33"/>
+      <c r="D78" s="33"/>
+      <c r="E78" s="33"/>
+      <c r="F78" s="33"/>
+      <c r="G78" s="33" t="s">
         <v>512</v>
       </c>
-      <c r="H78" s="21"/>
-      <c r="I78" s="21"/>
-      <c r="J78" s="21"/>
-      <c r="K78" s="21"/>
-      <c r="L78" s="21"/>
+      <c r="H78" s="33"/>
+      <c r="I78" s="33"/>
+      <c r="J78" s="33"/>
+      <c r="K78" s="33"/>
+      <c r="L78" s="33"/>
       <c r="O78" t="s">
         <v>440</v>
       </c>
@@ -17279,33 +17285,33 @@
       </c>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B84" s="21" t="s">
+      <c r="B84" s="33" t="s">
         <v>523</v>
       </c>
-      <c r="C84" s="21"/>
-      <c r="D84" s="21"/>
-      <c r="E84" s="21"/>
+      <c r="C84" s="33"/>
+      <c r="D84" s="33"/>
+      <c r="E84" s="33"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
-      <c r="P84" s="21" t="s">
+      <c r="P84" s="33" t="s">
         <v>434</v>
       </c>
-      <c r="Q84" s="21"/>
-      <c r="R84" s="21"/>
-      <c r="S84" s="21"/>
-      <c r="T84" s="21"/>
-      <c r="U84" s="21"/>
-      <c r="V84" s="21"/>
-      <c r="W84" s="21"/>
-      <c r="X84" s="21"/>
+      <c r="Q84" s="33"/>
+      <c r="R84" s="33"/>
+      <c r="S84" s="33"/>
+      <c r="T84" s="33"/>
+      <c r="U84" s="33"/>
+      <c r="V84" s="33"/>
+      <c r="W84" s="33"/>
+      <c r="X84" s="33"/>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B85" s="21" t="s">
+      <c r="B85" s="33" t="s">
         <v>545</v>
       </c>
-      <c r="C85" s="21"/>
-      <c r="D85" s="21"/>
-      <c r="E85" s="21"/>
+      <c r="C85" s="33"/>
+      <c r="D85" s="33"/>
+      <c r="E85" s="33"/>
       <c r="F85" s="1" t="s">
         <v>522</v>
       </c>
@@ -17321,17 +17327,17 @@
       <c r="J85" t="s">
         <v>528</v>
       </c>
-      <c r="P85" s="21" t="s">
+      <c r="P85" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="Q85" s="21"/>
-      <c r="R85" s="21"/>
-      <c r="S85" s="21"/>
-      <c r="T85" s="21"/>
-      <c r="U85" s="21"/>
-      <c r="V85" s="21"/>
-      <c r="W85" s="21"/>
-      <c r="X85" s="21"/>
+      <c r="Q85" s="33"/>
+      <c r="R85" s="33"/>
+      <c r="S85" s="33"/>
+      <c r="T85" s="33"/>
+      <c r="U85" s="33"/>
+      <c r="V85" s="33"/>
+      <c r="W85" s="33"/>
+      <c r="X85" s="33"/>
     </row>
     <row r="86" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
@@ -17673,54 +17679,54 @@
       </c>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B92" s="21" t="s">
+      <c r="B92" s="33" t="s">
         <v>523</v>
       </c>
-      <c r="C92" s="21"/>
-      <c r="D92" s="21"/>
-      <c r="E92" s="21"/>
-      <c r="F92" s="21" t="s">
+      <c r="C92" s="33"/>
+      <c r="D92" s="33"/>
+      <c r="E92" s="33"/>
+      <c r="F92" s="33" t="s">
         <v>523</v>
       </c>
-      <c r="G92" s="21"/>
-      <c r="H92" s="21"/>
-      <c r="I92" s="21"/>
-      <c r="P92" s="21" t="s">
+      <c r="G92" s="33"/>
+      <c r="H92" s="33"/>
+      <c r="I92" s="33"/>
+      <c r="P92" s="33" t="s">
         <v>434</v>
       </c>
-      <c r="Q92" s="21"/>
-      <c r="R92" s="21"/>
-      <c r="S92" s="21"/>
-      <c r="T92" s="21"/>
-      <c r="U92" s="21"/>
-      <c r="V92" s="21"/>
-      <c r="W92" s="21"/>
-      <c r="X92" s="21"/>
+      <c r="Q92" s="33"/>
+      <c r="R92" s="33"/>
+      <c r="S92" s="33"/>
+      <c r="T92" s="33"/>
+      <c r="U92" s="33"/>
+      <c r="V92" s="33"/>
+      <c r="W92" s="33"/>
+      <c r="X92" s="33"/>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B93" s="21" t="s">
+      <c r="B93" s="33" t="s">
         <v>546</v>
       </c>
-      <c r="C93" s="21"/>
-      <c r="D93" s="21"/>
-      <c r="E93" s="21"/>
-      <c r="F93" s="21" t="s">
+      <c r="C93" s="33"/>
+      <c r="D93" s="33"/>
+      <c r="E93" s="33"/>
+      <c r="F93" s="33" t="s">
         <v>548</v>
       </c>
-      <c r="G93" s="21"/>
-      <c r="H93" s="21"/>
-      <c r="I93" s="21"/>
-      <c r="P93" s="21" t="s">
+      <c r="G93" s="33"/>
+      <c r="H93" s="33"/>
+      <c r="I93" s="33"/>
+      <c r="P93" s="33" t="s">
         <v>462</v>
       </c>
-      <c r="Q93" s="21"/>
-      <c r="R93" s="21"/>
-      <c r="S93" s="21"/>
-      <c r="T93" s="21"/>
-      <c r="U93" s="21"/>
-      <c r="V93" s="21"/>
-      <c r="W93" s="21"/>
-      <c r="X93" s="21"/>
+      <c r="Q93" s="33"/>
+      <c r="R93" s="33"/>
+      <c r="S93" s="33"/>
+      <c r="T93" s="33"/>
+      <c r="U93" s="33"/>
+      <c r="V93" s="33"/>
+      <c r="W93" s="33"/>
+      <c r="X93" s="33"/>
     </row>
     <row r="94" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
@@ -18080,12 +18086,12 @@
       <c r="A100" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="B100" s="21" t="s">
+      <c r="B100" s="33" t="s">
         <v>523</v>
       </c>
-      <c r="C100" s="21"/>
-      <c r="D100" s="21"/>
-      <c r="E100" s="21"/>
+      <c r="C100" s="33"/>
+      <c r="D100" s="33"/>
+      <c r="E100" s="33"/>
       <c r="F100" s="1" t="s">
         <v>554</v>
       </c>
@@ -18101,26 +18107,26 @@
       <c r="J100">
         <v>0.77887333098497002</v>
       </c>
-      <c r="P100" s="21" t="s">
+      <c r="P100" s="33" t="s">
         <v>434</v>
       </c>
-      <c r="Q100" s="21"/>
-      <c r="R100" s="21"/>
-      <c r="S100" s="21"/>
-      <c r="T100" s="21"/>
-      <c r="U100" s="21"/>
-      <c r="V100" s="21"/>
-      <c r="W100" s="21"/>
-      <c r="X100" s="21"/>
+      <c r="Q100" s="33"/>
+      <c r="R100" s="33"/>
+      <c r="S100" s="33"/>
+      <c r="T100" s="33"/>
+      <c r="U100" s="33"/>
+      <c r="V100" s="33"/>
+      <c r="W100" s="33"/>
+      <c r="X100" s="33"/>
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
-      <c r="B101" s="21" t="s">
+      <c r="B101" s="33" t="s">
         <v>547</v>
       </c>
-      <c r="C101" s="21"/>
-      <c r="D101" s="21"/>
-      <c r="E101" s="21"/>
+      <c r="C101" s="33"/>
+      <c r="D101" s="33"/>
+      <c r="E101" s="33"/>
       <c r="F101" s="1" t="s">
         <v>555</v>
       </c>
@@ -18136,17 +18142,17 @@
       <c r="J101">
         <v>1.27434722297322</v>
       </c>
-      <c r="P101" s="21" t="s">
+      <c r="P101" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="Q101" s="21"/>
-      <c r="R101" s="21"/>
-      <c r="S101" s="21"/>
-      <c r="T101" s="21"/>
-      <c r="U101" s="21"/>
-      <c r="V101" s="21"/>
-      <c r="W101" s="21"/>
-      <c r="X101" s="21"/>
+      <c r="Q101" s="33"/>
+      <c r="R101" s="33"/>
+      <c r="S101" s="33"/>
+      <c r="T101" s="33"/>
+      <c r="U101" s="33"/>
+      <c r="V101" s="33"/>
+      <c r="W101" s="33"/>
+      <c r="X101" s="33"/>
     </row>
     <row r="102" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
@@ -18446,49 +18452,49 @@
       <c r="B108" s="1"/>
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A109" s="21" t="s">
+      <c r="A109" s="33" t="s">
         <v>507</v>
       </c>
-      <c r="B109" s="21"/>
-      <c r="C109" s="21"/>
-      <c r="D109" s="21"/>
-      <c r="E109" s="21"/>
-      <c r="F109" s="21"/>
-      <c r="G109" s="21" t="s">
+      <c r="B109" s="33"/>
+      <c r="C109" s="33"/>
+      <c r="D109" s="33"/>
+      <c r="E109" s="33"/>
+      <c r="F109" s="33"/>
+      <c r="G109" s="33" t="s">
         <v>511</v>
       </c>
-      <c r="H109" s="21"/>
-      <c r="I109" s="21"/>
-      <c r="J109" s="21"/>
-      <c r="K109" s="21"/>
-      <c r="L109" s="21"/>
+      <c r="H109" s="33"/>
+      <c r="I109" s="33"/>
+      <c r="J109" s="33"/>
+      <c r="K109" s="33"/>
+      <c r="L109" s="33"/>
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A110" s="21" t="s">
+      <c r="A110" s="33" t="s">
         <v>508</v>
       </c>
-      <c r="B110" s="21"/>
-      <c r="C110" s="21"/>
-      <c r="D110" s="21"/>
-      <c r="E110" s="21"/>
-      <c r="F110" s="21"/>
-      <c r="G110" s="21" t="s">
+      <c r="B110" s="33"/>
+      <c r="C110" s="33"/>
+      <c r="D110" s="33"/>
+      <c r="E110" s="33"/>
+      <c r="F110" s="33"/>
+      <c r="G110" s="33" t="s">
         <v>512</v>
       </c>
-      <c r="H110" s="21"/>
-      <c r="I110" s="21"/>
-      <c r="J110" s="21"/>
-      <c r="K110" s="21"/>
-      <c r="L110" s="21"/>
-      <c r="O110" s="21" t="s">
+      <c r="H110" s="33"/>
+      <c r="I110" s="33"/>
+      <c r="J110" s="33"/>
+      <c r="K110" s="33"/>
+      <c r="L110" s="33"/>
+      <c r="O110" s="33" t="s">
         <v>434</v>
       </c>
-      <c r="P110" s="21"/>
-      <c r="Q110" s="21"/>
-      <c r="R110" s="21"/>
-      <c r="S110" s="21"/>
-      <c r="T110" s="21"/>
-      <c r="U110" s="21"/>
+      <c r="P110" s="33"/>
+      <c r="Q110" s="33"/>
+      <c r="R110" s="33"/>
+      <c r="S110" s="33"/>
+      <c r="T110" s="33"/>
+      <c r="U110" s="33"/>
       <c r="V110" s="2"/>
       <c r="W110" s="2"/>
     </row>
@@ -18529,15 +18535,15 @@
       <c r="L111" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="O111" s="21" t="s">
+      <c r="O111" s="33" t="s">
         <v>456</v>
       </c>
-      <c r="P111" s="21"/>
-      <c r="Q111" s="21"/>
-      <c r="R111" s="21"/>
-      <c r="S111" s="21"/>
-      <c r="T111" s="21"/>
-      <c r="U111" s="21"/>
+      <c r="P111" s="33"/>
+      <c r="Q111" s="33"/>
+      <c r="R111" s="33"/>
+      <c r="S111" s="33"/>
+      <c r="T111" s="33"/>
+      <c r="U111" s="33"/>
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
@@ -18825,59 +18831,59 @@
       <c r="A118" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="B118" s="28" t="s">
+      <c r="B118" s="30" t="s">
         <v>522</v>
       </c>
-      <c r="C118" s="29"/>
-      <c r="D118" s="29"/>
-      <c r="E118" s="29"/>
-      <c r="F118" s="30"/>
+      <c r="C118" s="31"/>
+      <c r="D118" s="31"/>
+      <c r="E118" s="31"/>
+      <c r="F118" s="32"/>
       <c r="G118" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="H118" s="25" t="s">
+      <c r="H118" s="35" t="s">
         <v>522</v>
       </c>
-      <c r="I118" s="27"/>
-      <c r="J118" s="27"/>
-      <c r="K118" s="27"/>
-      <c r="L118" s="26"/>
-      <c r="O118" s="21" t="s">
+      <c r="I118" s="37"/>
+      <c r="J118" s="37"/>
+      <c r="K118" s="37"/>
+      <c r="L118" s="36"/>
+      <c r="O118" s="33" t="s">
         <v>434</v>
       </c>
-      <c r="P118" s="21"/>
-      <c r="Q118" s="21"/>
-      <c r="R118" s="21"/>
-      <c r="S118" s="21"/>
-      <c r="T118" s="21"/>
-      <c r="U118" s="21"/>
+      <c r="P118" s="33"/>
+      <c r="Q118" s="33"/>
+      <c r="R118" s="33"/>
+      <c r="S118" s="33"/>
+      <c r="T118" s="33"/>
+      <c r="U118" s="33"/>
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A119" s="28" t="s">
+      <c r="A119" s="30" t="s">
         <v>533</v>
       </c>
-      <c r="B119" s="29"/>
-      <c r="C119" s="29"/>
-      <c r="D119" s="29"/>
-      <c r="E119" s="29"/>
-      <c r="F119" s="30"/>
-      <c r="G119" s="28" t="s">
+      <c r="B119" s="31"/>
+      <c r="C119" s="31"/>
+      <c r="D119" s="31"/>
+      <c r="E119" s="31"/>
+      <c r="F119" s="32"/>
+      <c r="G119" s="30" t="s">
         <v>538</v>
       </c>
-      <c r="H119" s="29"/>
-      <c r="I119" s="29"/>
-      <c r="J119" s="29"/>
-      <c r="K119" s="29"/>
-      <c r="L119" s="30"/>
-      <c r="O119" s="21" t="s">
+      <c r="H119" s="31"/>
+      <c r="I119" s="31"/>
+      <c r="J119" s="31"/>
+      <c r="K119" s="31"/>
+      <c r="L119" s="32"/>
+      <c r="O119" s="33" t="s">
         <v>461</v>
       </c>
-      <c r="P119" s="21"/>
-      <c r="Q119" s="21"/>
-      <c r="R119" s="21"/>
-      <c r="S119" s="21"/>
-      <c r="T119" s="21"/>
-      <c r="U119" s="21"/>
+      <c r="P119" s="33"/>
+      <c r="Q119" s="33"/>
+      <c r="R119" s="33"/>
+      <c r="S119" s="33"/>
+      <c r="T119" s="33"/>
+      <c r="U119" s="33"/>
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
@@ -18901,15 +18907,15 @@
       <c r="G120" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="H120" s="31">
+      <c r="H120" s="34">
         <v>1</v>
       </c>
-      <c r="I120" s="31"/>
-      <c r="J120" s="31"/>
-      <c r="K120" s="31">
+      <c r="I120" s="34"/>
+      <c r="J120" s="34"/>
+      <c r="K120" s="34">
         <v>2</v>
       </c>
-      <c r="L120" s="31"/>
+      <c r="L120" s="34"/>
       <c r="O120" s="1" t="s">
         <v>472</v>
       </c>
@@ -18954,15 +18960,15 @@
       <c r="G121" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="H121" s="31">
+      <c r="H121" s="34">
         <v>1</v>
       </c>
-      <c r="I121" s="31"/>
-      <c r="J121" s="31"/>
-      <c r="K121" s="31">
+      <c r="I121" s="34"/>
+      <c r="J121" s="34"/>
+      <c r="K121" s="34">
         <v>2</v>
       </c>
-      <c r="L121" s="31"/>
+      <c r="L121" s="34"/>
       <c r="O121" s="1" t="s">
         <v>457</v>
       </c>
@@ -19007,15 +19013,15 @@
       <c r="G122" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="H122" s="31">
+      <c r="H122" s="34">
         <v>1</v>
       </c>
-      <c r="I122" s="31"/>
-      <c r="J122" s="31"/>
-      <c r="K122" s="31">
+      <c r="I122" s="34"/>
+      <c r="J122" s="34"/>
+      <c r="K122" s="34">
         <v>2</v>
       </c>
-      <c r="L122" s="31"/>
+      <c r="L122" s="34"/>
       <c r="O122" s="1" t="s">
         <v>458</v>
       </c>
@@ -19039,22 +19045,22 @@
       </c>
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A123" s="28" t="s">
+      <c r="A123" s="30" t="s">
         <v>412</v>
       </c>
-      <c r="B123" s="29"/>
-      <c r="C123" s="29"/>
-      <c r="D123" s="29"/>
-      <c r="E123" s="29"/>
-      <c r="F123" s="30"/>
-      <c r="G123" s="28" t="s">
+      <c r="B123" s="31"/>
+      <c r="C123" s="31"/>
+      <c r="D123" s="31"/>
+      <c r="E123" s="31"/>
+      <c r="F123" s="32"/>
+      <c r="G123" s="30" t="s">
         <v>537</v>
       </c>
-      <c r="H123" s="29"/>
-      <c r="I123" s="29"/>
-      <c r="J123" s="29"/>
-      <c r="K123" s="29"/>
-      <c r="L123" s="30"/>
+      <c r="H123" s="31"/>
+      <c r="I123" s="31"/>
+      <c r="J123" s="31"/>
+      <c r="K123" s="31"/>
+      <c r="L123" s="32"/>
       <c r="O123" s="1" t="s">
         <v>459</v>
       </c>
@@ -19084,14 +19090,14 @@
       <c r="B124" s="7">
         <v>1</v>
       </c>
-      <c r="C124" s="31">
+      <c r="C124" s="34">
         <v>2</v>
       </c>
-      <c r="D124" s="31"/>
-      <c r="E124" s="25">
+      <c r="D124" s="34"/>
+      <c r="E124" s="35">
         <v>3</v>
       </c>
-      <c r="F124" s="26"/>
+      <c r="F124" s="36"/>
       <c r="G124" s="6" t="s">
         <v>406</v>
       </c>
@@ -19145,10 +19151,10 @@
       <c r="D125" s="7">
         <v>3</v>
       </c>
-      <c r="E125" s="25">
+      <c r="E125" s="35">
         <v>4</v>
       </c>
-      <c r="F125" s="26"/>
+      <c r="F125" s="36"/>
       <c r="G125" s="6" t="s">
         <v>405</v>
       </c>
@@ -19190,32 +19196,32 @@
       </c>
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="O126" s="21" t="s">
+      <c r="O126" s="33" t="s">
         <v>507</v>
       </c>
-      <c r="P126" s="21"/>
-      <c r="Q126" s="21"/>
-      <c r="R126" s="21"/>
-      <c r="S126" s="21" t="s">
+      <c r="P126" s="33"/>
+      <c r="Q126" s="33"/>
+      <c r="R126" s="33"/>
+      <c r="S126" s="33" t="s">
         <v>511</v>
       </c>
-      <c r="T126" s="21"/>
-      <c r="U126" s="21"/>
-      <c r="V126" s="21"/>
+      <c r="T126" s="33"/>
+      <c r="U126" s="33"/>
+      <c r="V126" s="33"/>
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="O127" s="21" t="s">
+      <c r="O127" s="33" t="s">
         <v>541</v>
       </c>
-      <c r="P127" s="21"/>
-      <c r="Q127" s="21"/>
-      <c r="R127" s="21"/>
-      <c r="S127" s="21" t="s">
+      <c r="P127" s="33"/>
+      <c r="Q127" s="33"/>
+      <c r="R127" s="33"/>
+      <c r="S127" s="33" t="s">
         <v>542</v>
       </c>
-      <c r="T127" s="21"/>
-      <c r="U127" s="21"/>
-      <c r="V127" s="21"/>
+      <c r="T127" s="33"/>
+      <c r="U127" s="33"/>
+      <c r="V127" s="33"/>
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
@@ -19458,18 +19464,18 @@
       <c r="D134" t="s">
         <v>563</v>
       </c>
-      <c r="O134" s="21" t="s">
+      <c r="O134" s="33" t="s">
         <v>507</v>
       </c>
-      <c r="P134" s="21"/>
-      <c r="Q134" s="21"/>
-      <c r="R134" s="21"/>
-      <c r="S134" s="21" t="s">
+      <c r="P134" s="33"/>
+      <c r="Q134" s="33"/>
+      <c r="R134" s="33"/>
+      <c r="S134" s="33" t="s">
         <v>511</v>
       </c>
-      <c r="T134" s="21"/>
-      <c r="U134" s="21"/>
-      <c r="V134" s="21"/>
+      <c r="T134" s="33"/>
+      <c r="U134" s="33"/>
+      <c r="V134" s="33"/>
     </row>
     <row r="135" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A135">
@@ -19484,18 +19490,18 @@
       <c r="D135">
         <v>0.26800000000000002</v>
       </c>
-      <c r="O135" s="21" t="s">
+      <c r="O135" s="33" t="s">
         <v>543</v>
       </c>
-      <c r="P135" s="21"/>
-      <c r="Q135" s="21"/>
-      <c r="R135" s="21"/>
-      <c r="S135" s="21" t="s">
+      <c r="P135" s="33"/>
+      <c r="Q135" s="33"/>
+      <c r="R135" s="33"/>
+      <c r="S135" s="33" t="s">
         <v>544</v>
       </c>
-      <c r="T135" s="21"/>
-      <c r="U135" s="21"/>
-      <c r="V135" s="21"/>
+      <c r="T135" s="33"/>
+      <c r="U135" s="33"/>
+      <c r="V135" s="33"/>
     </row>
     <row r="136" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A136">
@@ -19562,20 +19568,20 @@
       </c>
     </row>
     <row r="138" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A138" s="21" t="s">
+      <c r="A138" s="33" t="s">
         <v>507</v>
       </c>
-      <c r="B138" s="21"/>
-      <c r="C138" s="21"/>
-      <c r="D138" s="21"/>
-      <c r="E138" s="21"/>
-      <c r="F138" s="21" t="s">
+      <c r="B138" s="33"/>
+      <c r="C138" s="33"/>
+      <c r="D138" s="33"/>
+      <c r="E138" s="33"/>
+      <c r="F138" s="33" t="s">
         <v>511</v>
       </c>
-      <c r="G138" s="21"/>
-      <c r="H138" s="21"/>
-      <c r="I138" s="21"/>
-      <c r="J138" s="21"/>
+      <c r="G138" s="33"/>
+      <c r="H138" s="33"/>
+      <c r="I138" s="33"/>
+      <c r="J138" s="33"/>
       <c r="O138" s="1" t="s">
         <v>458</v>
       </c>
@@ -19602,20 +19608,20 @@
       </c>
     </row>
     <row r="139" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A139" s="21" t="s">
+      <c r="A139" s="33" t="s">
         <v>508</v>
       </c>
-      <c r="B139" s="21"/>
-      <c r="C139" s="21"/>
-      <c r="D139" s="21"/>
-      <c r="E139" s="21"/>
-      <c r="F139" s="21" t="s">
+      <c r="B139" s="33"/>
+      <c r="C139" s="33"/>
+      <c r="D139" s="33"/>
+      <c r="E139" s="33"/>
+      <c r="F139" s="33" t="s">
         <v>512</v>
       </c>
-      <c r="G139" s="21"/>
-      <c r="H139" s="21"/>
-      <c r="I139" s="21"/>
-      <c r="J139" s="21"/>
+      <c r="G139" s="33"/>
+      <c r="H139" s="33"/>
+      <c r="I139" s="33"/>
+      <c r="J139" s="33"/>
       <c r="O139" s="1" t="s">
         <v>459</v>
       </c>
@@ -19784,27 +19790,27 @@
       <c r="J142">
         <v>0.84316999999999998</v>
       </c>
-      <c r="O142" s="21" t="s">
+      <c r="O142" s="33" t="s">
         <v>580</v>
       </c>
-      <c r="P142" s="21"/>
-      <c r="Q142" s="21"/>
-      <c r="R142" s="21"/>
-      <c r="S142" s="21"/>
-      <c r="T142" s="21" t="s">
+      <c r="P142" s="33"/>
+      <c r="Q142" s="33"/>
+      <c r="R142" s="33"/>
+      <c r="S142" s="33"/>
+      <c r="T142" s="33" t="s">
         <v>580</v>
       </c>
-      <c r="U142" s="21"/>
-      <c r="V142" s="21"/>
-      <c r="W142" s="21"/>
-      <c r="X142" s="21"/>
-      <c r="Y142" s="21" t="s">
+      <c r="U142" s="33"/>
+      <c r="V142" s="33"/>
+      <c r="W142" s="33"/>
+      <c r="X142" s="33"/>
+      <c r="Y142" s="33" t="s">
         <v>580</v>
       </c>
-      <c r="Z142" s="21"/>
-      <c r="AA142" s="21"/>
-      <c r="AB142" s="21"/>
-      <c r="AC142" s="21"/>
+      <c r="Z142" s="33"/>
+      <c r="AA142" s="33"/>
+      <c r="AB142" s="33"/>
+      <c r="AC142" s="33"/>
     </row>
     <row r="143" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
@@ -19837,27 +19843,27 @@
       <c r="J143">
         <v>0.81733</v>
       </c>
-      <c r="O143" s="21" t="s">
+      <c r="O143" s="33" t="s">
         <v>582</v>
       </c>
-      <c r="P143" s="21"/>
-      <c r="Q143" s="21"/>
-      <c r="R143" s="21"/>
-      <c r="S143" s="21"/>
-      <c r="T143" s="21" t="s">
+      <c r="P143" s="33"/>
+      <c r="Q143" s="33"/>
+      <c r="R143" s="33"/>
+      <c r="S143" s="33"/>
+      <c r="T143" s="33" t="s">
         <v>581</v>
       </c>
-      <c r="U143" s="21"/>
-      <c r="V143" s="21"/>
-      <c r="W143" s="21"/>
-      <c r="X143" s="21"/>
-      <c r="Y143" s="21" t="s">
+      <c r="U143" s="33"/>
+      <c r="V143" s="33"/>
+      <c r="W143" s="33"/>
+      <c r="X143" s="33"/>
+      <c r="Y143" s="33" t="s">
         <v>579</v>
       </c>
-      <c r="Z143" s="21"/>
-      <c r="AA143" s="21"/>
-      <c r="AB143" s="21"/>
-      <c r="AC143" s="21"/>
+      <c r="Z143" s="33"/>
+      <c r="AA143" s="33"/>
+      <c r="AB143" s="33"/>
+      <c r="AC143" s="33"/>
     </row>
     <row r="144" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
@@ -20014,20 +20020,20 @@
       </c>
     </row>
     <row r="146" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A146" s="21" t="s">
+      <c r="A146" s="33" t="s">
         <v>507</v>
       </c>
-      <c r="B146" s="21"/>
-      <c r="C146" s="21"/>
-      <c r="D146" s="21"/>
-      <c r="E146" s="21"/>
-      <c r="F146" s="21" t="s">
+      <c r="B146" s="33"/>
+      <c r="C146" s="33"/>
+      <c r="D146" s="33"/>
+      <c r="E146" s="33"/>
+      <c r="F146" s="33" t="s">
         <v>511</v>
       </c>
-      <c r="G146" s="21"/>
-      <c r="H146" s="21"/>
-      <c r="I146" s="21"/>
-      <c r="J146" s="21"/>
+      <c r="G146" s="33"/>
+      <c r="H146" s="33"/>
+      <c r="I146" s="33"/>
+      <c r="J146" s="33"/>
       <c r="O146" s="1" t="s">
         <v>457</v>
       </c>
@@ -20075,20 +20081,20 @@
       </c>
     </row>
     <row r="147" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A147" s="21" t="s">
+      <c r="A147" s="33" t="s">
         <v>508</v>
       </c>
-      <c r="B147" s="21"/>
-      <c r="C147" s="21"/>
-      <c r="D147" s="21"/>
-      <c r="E147" s="21"/>
-      <c r="F147" s="21" t="s">
+      <c r="B147" s="33"/>
+      <c r="C147" s="33"/>
+      <c r="D147" s="33"/>
+      <c r="E147" s="33"/>
+      <c r="F147" s="33" t="s">
         <v>512</v>
       </c>
-      <c r="G147" s="21"/>
-      <c r="H147" s="21"/>
-      <c r="I147" s="21"/>
-      <c r="J147" s="21"/>
+      <c r="G147" s="33"/>
+      <c r="H147" s="33"/>
+      <c r="I147" s="33"/>
+      <c r="J147" s="33"/>
       <c r="O147" s="1" t="s">
         <v>530</v>
       </c>
@@ -21126,56 +21132,56 @@
       </c>
     </row>
     <row r="165" spans="15:33" x14ac:dyDescent="0.25">
-      <c r="P165" s="32" t="s">
+      <c r="P165" s="29" t="s">
         <v>580</v>
       </c>
-      <c r="Q165" s="32"/>
-      <c r="R165" s="32"/>
-      <c r="S165" s="32"/>
-      <c r="T165" s="32"/>
-      <c r="U165" s="32"/>
-      <c r="V165" s="32" t="s">
+      <c r="Q165" s="29"/>
+      <c r="R165" s="29"/>
+      <c r="S165" s="29"/>
+      <c r="T165" s="29"/>
+      <c r="U165" s="29"/>
+      <c r="V165" s="29" t="s">
         <v>580</v>
       </c>
-      <c r="W165" s="32"/>
-      <c r="X165" s="32"/>
-      <c r="Y165" s="32"/>
-      <c r="Z165" s="32"/>
-      <c r="AA165" s="32"/>
-      <c r="AB165" s="32" t="s">
+      <c r="W165" s="29"/>
+      <c r="X165" s="29"/>
+      <c r="Y165" s="29"/>
+      <c r="Z165" s="29"/>
+      <c r="AA165" s="29"/>
+      <c r="AB165" s="29" t="s">
         <v>580</v>
       </c>
-      <c r="AC165" s="32"/>
-      <c r="AD165" s="32"/>
-      <c r="AE165" s="32"/>
-      <c r="AF165" s="32"/>
-      <c r="AG165" s="32"/>
+      <c r="AC165" s="29"/>
+      <c r="AD165" s="29"/>
+      <c r="AE165" s="29"/>
+      <c r="AF165" s="29"/>
+      <c r="AG165" s="29"/>
     </row>
     <row r="166" spans="15:33" x14ac:dyDescent="0.25">
-      <c r="P166" s="32" t="s">
+      <c r="P166" s="29" t="s">
         <v>582</v>
       </c>
-      <c r="Q166" s="32"/>
-      <c r="R166" s="32"/>
-      <c r="S166" s="32"/>
-      <c r="T166" s="32"/>
-      <c r="U166" s="32"/>
-      <c r="V166" s="32" t="s">
+      <c r="Q166" s="29"/>
+      <c r="R166" s="29"/>
+      <c r="S166" s="29"/>
+      <c r="T166" s="29"/>
+      <c r="U166" s="29"/>
+      <c r="V166" s="29" t="s">
         <v>581</v>
       </c>
-      <c r="W166" s="32"/>
-      <c r="X166" s="32"/>
-      <c r="Y166" s="32"/>
-      <c r="Z166" s="32"/>
-      <c r="AA166" s="32"/>
-      <c r="AB166" s="32" t="s">
+      <c r="W166" s="29"/>
+      <c r="X166" s="29"/>
+      <c r="Y166" s="29"/>
+      <c r="Z166" s="29"/>
+      <c r="AA166" s="29"/>
+      <c r="AB166" s="29" t="s">
         <v>583</v>
       </c>
-      <c r="AC166" s="32"/>
-      <c r="AD166" s="32"/>
-      <c r="AE166" s="32"/>
-      <c r="AF166" s="32"/>
-      <c r="AG166" s="32"/>
+      <c r="AC166" s="29"/>
+      <c r="AD166" s="29"/>
+      <c r="AE166" s="29"/>
+      <c r="AF166" s="29"/>
+      <c r="AG166" s="29"/>
     </row>
     <row r="167" spans="15:33" x14ac:dyDescent="0.25">
       <c r="P167" s="6" t="s">
@@ -22520,30 +22526,30 @@
       </c>
     </row>
     <row r="190" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P190" s="32" t="s">
+      <c r="P190" s="29" t="s">
         <v>582</v>
       </c>
-      <c r="Q190" s="32"/>
-      <c r="R190" s="32"/>
-      <c r="S190" s="32"/>
-      <c r="T190" s="32"/>
-      <c r="U190" s="32"/>
-      <c r="V190" s="32" t="s">
+      <c r="Q190" s="29"/>
+      <c r="R190" s="29"/>
+      <c r="S190" s="29"/>
+      <c r="T190" s="29"/>
+      <c r="U190" s="29"/>
+      <c r="V190" s="29" t="s">
         <v>581</v>
       </c>
-      <c r="W190" s="32"/>
-      <c r="X190" s="32"/>
-      <c r="Y190" s="32"/>
-      <c r="Z190" s="32"/>
-      <c r="AA190" s="32"/>
-      <c r="AB190" s="32" t="s">
+      <c r="W190" s="29"/>
+      <c r="X190" s="29"/>
+      <c r="Y190" s="29"/>
+      <c r="Z190" s="29"/>
+      <c r="AA190" s="29"/>
+      <c r="AB190" s="29" t="s">
         <v>583</v>
       </c>
-      <c r="AC190" s="32"/>
-      <c r="AD190" s="32"/>
-      <c r="AE190" s="32"/>
-      <c r="AF190" s="32"/>
-      <c r="AG190" s="32"/>
+      <c r="AC190" s="29"/>
+      <c r="AD190" s="29"/>
+      <c r="AE190" s="29"/>
+      <c r="AF190" s="29"/>
+      <c r="AG190" s="29"/>
     </row>
     <row r="191" spans="16:33" x14ac:dyDescent="0.25">
       <c r="P191" s="6" t="s">
@@ -25456,20 +25462,20 @@
       </c>
     </row>
     <row r="244" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P244" s="24" t="s">
+      <c r="P244" s="40" t="s">
         <v>504</v>
       </c>
-      <c r="Q244" s="23" t="s">
+      <c r="Q244" s="39" t="s">
         <v>614</v>
       </c>
-      <c r="R244" s="23"/>
-      <c r="S244" s="23" t="s">
+      <c r="R244" s="39"/>
+      <c r="S244" s="39" t="s">
         <v>615</v>
       </c>
-      <c r="T244" s="23"/>
+      <c r="T244" s="39"/>
     </row>
     <row r="245" spans="16:33" ht="60" x14ac:dyDescent="0.25">
-      <c r="P245" s="24"/>
+      <c r="P245" s="40"/>
       <c r="Q245" s="12" t="s">
         <v>616</v>
       </c>
@@ -25667,83 +25673,83 @@
       </c>
     </row>
     <row r="256" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P256" s="21"/>
-      <c r="Q256" s="21"/>
-      <c r="R256" s="21"/>
-      <c r="S256" s="21"/>
-      <c r="T256" s="21"/>
-      <c r="U256" s="21"/>
-      <c r="V256" s="21"/>
-      <c r="W256" s="21"/>
-      <c r="X256" s="21"/>
-      <c r="Y256" s="21"/>
+      <c r="P256" s="33"/>
+      <c r="Q256" s="33"/>
+      <c r="R256" s="33"/>
+      <c r="S256" s="33"/>
+      <c r="T256" s="33"/>
+      <c r="U256" s="33"/>
+      <c r="V256" s="33"/>
+      <c r="W256" s="33"/>
+      <c r="X256" s="33"/>
+      <c r="Y256" s="33"/>
     </row>
     <row r="257" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P257" s="28" t="s">
+      <c r="P257" s="30" t="s">
         <v>618</v>
       </c>
-      <c r="Q257" s="29"/>
-      <c r="R257" s="29"/>
-      <c r="S257" s="29"/>
-      <c r="T257" s="29"/>
-      <c r="U257" s="29"/>
-      <c r="V257" s="29"/>
-      <c r="W257" s="29"/>
-      <c r="X257" s="30"/>
-      <c r="Y257" s="28" t="s">
+      <c r="Q257" s="31"/>
+      <c r="R257" s="31"/>
+      <c r="S257" s="31"/>
+      <c r="T257" s="31"/>
+      <c r="U257" s="31"/>
+      <c r="V257" s="31"/>
+      <c r="W257" s="31"/>
+      <c r="X257" s="32"/>
+      <c r="Y257" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="Z257" s="29"/>
-      <c r="AA257" s="29"/>
-      <c r="AB257" s="29"/>
-      <c r="AC257" s="29"/>
-      <c r="AD257" s="29"/>
-      <c r="AE257" s="29"/>
-      <c r="AF257" s="29"/>
-      <c r="AG257" s="30"/>
+      <c r="Z257" s="31"/>
+      <c r="AA257" s="31"/>
+      <c r="AB257" s="31"/>
+      <c r="AC257" s="31"/>
+      <c r="AD257" s="31"/>
+      <c r="AE257" s="31"/>
+      <c r="AF257" s="31"/>
+      <c r="AG257" s="32"/>
     </row>
     <row r="258" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P258" s="32" t="s">
+      <c r="P258" s="29" t="s">
         <v>504</v>
       </c>
-      <c r="Q258" s="32" t="s">
+      <c r="Q258" s="29" t="s">
         <v>451</v>
       </c>
-      <c r="R258" s="32"/>
-      <c r="S258" s="32" t="s">
+      <c r="R258" s="29"/>
+      <c r="S258" s="29" t="s">
         <v>452</v>
       </c>
-      <c r="T258" s="32"/>
-      <c r="U258" s="32" t="s">
+      <c r="T258" s="29"/>
+      <c r="U258" s="29" t="s">
         <v>509</v>
       </c>
-      <c r="V258" s="32"/>
-      <c r="W258" s="32" t="s">
+      <c r="V258" s="29"/>
+      <c r="W258" s="29" t="s">
         <v>558</v>
       </c>
-      <c r="X258" s="32"/>
-      <c r="Y258" s="32" t="s">
+      <c r="X258" s="29"/>
+      <c r="Y258" s="29" t="s">
         <v>504</v>
       </c>
-      <c r="Z258" s="32" t="s">
+      <c r="Z258" s="29" t="s">
         <v>451</v>
       </c>
-      <c r="AA258" s="32"/>
-      <c r="AB258" s="32" t="s">
+      <c r="AA258" s="29"/>
+      <c r="AB258" s="29" t="s">
         <v>452</v>
       </c>
-      <c r="AC258" s="32"/>
-      <c r="AD258" s="32" t="s">
+      <c r="AC258" s="29"/>
+      <c r="AD258" s="29" t="s">
         <v>509</v>
       </c>
-      <c r="AE258" s="32"/>
+      <c r="AE258" s="29"/>
       <c r="AF258" s="6" t="s">
         <v>558</v>
       </c>
       <c r="AG258" s="7"/>
     </row>
     <row r="259" spans="16:33" x14ac:dyDescent="0.25">
-      <c r="P259" s="32"/>
+      <c r="P259" s="29"/>
       <c r="Q259" s="11" t="s">
         <v>507</v>
       </c>
@@ -25768,7 +25774,7 @@
       <c r="X259" s="11" t="s">
         <v>620</v>
       </c>
-      <c r="Y259" s="32"/>
+      <c r="Y259" s="29"/>
       <c r="Z259" s="11" t="s">
         <v>511</v>
       </c>
@@ -26139,6 +26145,116 @@
     </row>
   </sheetData>
   <mergeCells count="134">
+    <mergeCell ref="AA33:AD33"/>
+    <mergeCell ref="G77:L77"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="O67:U67"/>
+    <mergeCell ref="O50:U50"/>
+    <mergeCell ref="O51:U51"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="O43:U43"/>
+    <mergeCell ref="V35:Z35"/>
+    <mergeCell ref="V34:Z34"/>
+    <mergeCell ref="V43:Z43"/>
+    <mergeCell ref="V42:Z42"/>
+    <mergeCell ref="V50:Z50"/>
+    <mergeCell ref="V51:Z51"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="Q244:R244"/>
+    <mergeCell ref="S244:T244"/>
+    <mergeCell ref="P244:P245"/>
+    <mergeCell ref="AA47:AD47"/>
+    <mergeCell ref="AA40:AD40"/>
+    <mergeCell ref="G78:L78"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A65:A70"/>
+    <mergeCell ref="B65:B70"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="O66:U66"/>
+    <mergeCell ref="O58:U58"/>
+    <mergeCell ref="O59:U59"/>
+    <mergeCell ref="V58:Z58"/>
+    <mergeCell ref="V59:Z59"/>
+    <mergeCell ref="O75:U75"/>
+    <mergeCell ref="O74:U74"/>
+    <mergeCell ref="F92:I92"/>
+    <mergeCell ref="F93:I93"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="O42:U42"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="O35:U35"/>
+    <mergeCell ref="O34:U34"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="B101:E101"/>
+    <mergeCell ref="B100:E100"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="P85:X85"/>
+    <mergeCell ref="P84:X84"/>
+    <mergeCell ref="P92:X92"/>
+    <mergeCell ref="P93:X93"/>
+    <mergeCell ref="O119:U119"/>
+    <mergeCell ref="P101:X101"/>
+    <mergeCell ref="G109:L109"/>
+    <mergeCell ref="G110:L110"/>
+    <mergeCell ref="O111:U111"/>
+    <mergeCell ref="O110:U110"/>
+    <mergeCell ref="O118:U118"/>
+    <mergeCell ref="P100:X100"/>
+    <mergeCell ref="H118:L118"/>
+    <mergeCell ref="G119:L119"/>
+    <mergeCell ref="O135:R135"/>
+    <mergeCell ref="S135:V135"/>
+    <mergeCell ref="O126:R126"/>
+    <mergeCell ref="O127:R127"/>
+    <mergeCell ref="S126:V126"/>
+    <mergeCell ref="S127:V127"/>
+    <mergeCell ref="O134:R134"/>
+    <mergeCell ref="S134:V134"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="H121:J121"/>
+    <mergeCell ref="K121:L121"/>
+    <mergeCell ref="H122:J122"/>
+    <mergeCell ref="K122:L122"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="K120:L120"/>
+    <mergeCell ref="H120:J120"/>
+    <mergeCell ref="G123:L123"/>
+    <mergeCell ref="B118:F118"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="V190:AA190"/>
+    <mergeCell ref="AB190:AG190"/>
+    <mergeCell ref="P165:U165"/>
+    <mergeCell ref="P166:U166"/>
+    <mergeCell ref="V165:AA165"/>
+    <mergeCell ref="V166:AA166"/>
+    <mergeCell ref="O142:S142"/>
+    <mergeCell ref="O143:S143"/>
+    <mergeCell ref="T142:X142"/>
+    <mergeCell ref="T143:X143"/>
+    <mergeCell ref="Y142:AC142"/>
+    <mergeCell ref="Y143:AC143"/>
     <mergeCell ref="Z258:AA258"/>
     <mergeCell ref="AB258:AC258"/>
     <mergeCell ref="AD258:AE258"/>
@@ -26163,116 +26279,6 @@
     <mergeCell ref="AB165:AG165"/>
     <mergeCell ref="AB166:AG166"/>
     <mergeCell ref="P190:U190"/>
-    <mergeCell ref="V190:AA190"/>
-    <mergeCell ref="AB190:AG190"/>
-    <mergeCell ref="P165:U165"/>
-    <mergeCell ref="P166:U166"/>
-    <mergeCell ref="V165:AA165"/>
-    <mergeCell ref="V166:AA166"/>
-    <mergeCell ref="O142:S142"/>
-    <mergeCell ref="O143:S143"/>
-    <mergeCell ref="T142:X142"/>
-    <mergeCell ref="T143:X143"/>
-    <mergeCell ref="Y142:AC142"/>
-    <mergeCell ref="Y143:AC143"/>
-    <mergeCell ref="O135:R135"/>
-    <mergeCell ref="S135:V135"/>
-    <mergeCell ref="O126:R126"/>
-    <mergeCell ref="O127:R127"/>
-    <mergeCell ref="S126:V126"/>
-    <mergeCell ref="S127:V127"/>
-    <mergeCell ref="O134:R134"/>
-    <mergeCell ref="S134:V134"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="H121:J121"/>
-    <mergeCell ref="K121:L121"/>
-    <mergeCell ref="H122:J122"/>
-    <mergeCell ref="K122:L122"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="K120:L120"/>
-    <mergeCell ref="H120:J120"/>
-    <mergeCell ref="G123:L123"/>
-    <mergeCell ref="B118:F118"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="B101:E101"/>
-    <mergeCell ref="B100:E100"/>
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="B92:E92"/>
-    <mergeCell ref="P85:X85"/>
-    <mergeCell ref="P84:X84"/>
-    <mergeCell ref="P92:X92"/>
-    <mergeCell ref="P93:X93"/>
-    <mergeCell ref="O119:U119"/>
-    <mergeCell ref="P101:X101"/>
-    <mergeCell ref="G109:L109"/>
-    <mergeCell ref="G110:L110"/>
-    <mergeCell ref="O111:U111"/>
-    <mergeCell ref="O110:U110"/>
-    <mergeCell ref="O118:U118"/>
-    <mergeCell ref="P100:X100"/>
-    <mergeCell ref="H118:L118"/>
-    <mergeCell ref="G119:L119"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="O42:U42"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="O35:U35"/>
-    <mergeCell ref="O34:U34"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="Q244:R244"/>
-    <mergeCell ref="S244:T244"/>
-    <mergeCell ref="P244:P245"/>
-    <mergeCell ref="AA47:AD47"/>
-    <mergeCell ref="AA40:AD40"/>
-    <mergeCell ref="G78:L78"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="A65:A70"/>
-    <mergeCell ref="B65:B70"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="O66:U66"/>
-    <mergeCell ref="O58:U58"/>
-    <mergeCell ref="O59:U59"/>
-    <mergeCell ref="V58:Z58"/>
-    <mergeCell ref="V59:Z59"/>
-    <mergeCell ref="O75:U75"/>
-    <mergeCell ref="O74:U74"/>
-    <mergeCell ref="F92:I92"/>
-    <mergeCell ref="F93:I93"/>
-    <mergeCell ref="AA33:AD33"/>
-    <mergeCell ref="G77:L77"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="O67:U67"/>
-    <mergeCell ref="O50:U50"/>
-    <mergeCell ref="O51:U51"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="O43:U43"/>
-    <mergeCell ref="V35:Z35"/>
-    <mergeCell ref="V34:Z34"/>
-    <mergeCell ref="V43:Z43"/>
-    <mergeCell ref="V42:Z42"/>
-    <mergeCell ref="V50:Z50"/>
-    <mergeCell ref="V51:Z51"/>
-    <mergeCell ref="A71:A76"/>
-    <mergeCell ref="B71:B76"/>
-    <mergeCell ref="A56:E56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
@@ -26413,13 +26419,13 @@
       <c r="A7" t="s">
         <v>504</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="41" t="s">
         <v>441</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -26525,12 +26531,12 @@
       <c r="A14" t="s">
         <v>504</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="41" t="s">
         <v>472</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -26614,8 +26620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H76" sqref="H76"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26632,20 +26638,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="33" t="s">
         <v>621</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="G1" s="21" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="G1" s="33" t="s">
         <v>628</v>
       </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
       <c r="L1" s="2" t="s">
         <v>631</v>
       </c>
@@ -26787,27 +26793,27 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="33" t="s">
         <v>632</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="G5" s="21" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="G5" s="33" t="s">
         <v>629</v>
       </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21" t="s">
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33" t="s">
         <v>630</v>
       </c>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
@@ -26943,20 +26949,20 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="33" t="s">
         <v>622</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="G9" s="20" t="s">
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="G9" s="28" t="s">
         <v>649</v>
       </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
@@ -26971,13 +26977,13 @@
       <c r="E10" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="33" t="s">
         <v>638</v>
       </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -27042,13 +27048,13 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="33" t="s">
         <v>633</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
       <c r="G13" s="1" t="s">
         <v>627</v>
       </c>
@@ -27078,13 +27084,13 @@
       <c r="E14" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="33" t="s">
         <v>639</v>
       </c>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -27149,13 +27155,13 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="43" t="s">
         <v>650</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
       <c r="G17" s="1" t="s">
         <v>627</v>
       </c>
@@ -27173,7 +27179,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="42" t="s">
         <v>634</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -27197,13 +27203,13 @@
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="21" t="s">
+      <c r="A19" s="42"/>
+      <c r="B19" s="33" t="s">
         <v>507</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
         <v>451</v>
@@ -27298,22 +27304,22 @@
       <c r="E22">
         <v>0.90807000000000004</v>
       </c>
-      <c r="G22" s="21" t="s">
+      <c r="G22" s="33" t="s">
         <v>641</v>
       </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="33" t="s">
         <v>511</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
       <c r="F23" s="1"/>
       <c r="H23" s="1" t="s">
         <v>451</v>
@@ -27408,15 +27414,21 @@
       <c r="E26">
         <v>0.84006999999999998</v>
       </c>
-      <c r="G26" s="21" t="s">
+      <c r="G26" s="33" t="s">
         <v>642</v>
       </c>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+    </row>
+    <row r="27" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A27" s="43" t="s">
+        <v>659</v>
+      </c>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
         <v>451</v>
@@ -27432,13 +27444,13 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="33" t="s">
         <v>507</v>
       </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="2"/>
       <c r="G28" s="1" t="s">
         <v>626</v>
       </c>
@@ -27456,12 +27468,12 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
-        <v>513</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
+      <c r="A29" s="33" t="s">
+        <v>541</v>
+      </c>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
       <c r="E29" s="2"/>
       <c r="G29" s="1" t="s">
         <v>627</v>
@@ -27493,13 +27505,13 @@
         <v>637</v>
       </c>
       <c r="E30" s="1"/>
-      <c r="G30" s="20" t="s">
+      <c r="G30" s="28" t="s">
         <v>648</v>
       </c>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
@@ -27514,13 +27526,13 @@
       <c r="D31">
         <v>0.69301000000000001</v>
       </c>
-      <c r="G31" s="21" t="s">
+      <c r="G31" s="33" t="s">
         <v>643</v>
       </c>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -27620,22 +27632,22 @@
       <c r="D35">
         <v>0.67064999999999997</v>
       </c>
-      <c r="G35" s="21" t="s">
+      <c r="G35" s="33" t="s">
         <v>644</v>
       </c>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="33" t="s">
         <v>511</v>
       </c>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="2"/>
       <c r="H36" s="1" t="s">
         <v>451</v>
       </c>
@@ -27651,12 +27663,12 @@
       <c r="L36" s="1"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
-        <v>514</v>
-      </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
+      <c r="A37" s="33" t="s">
+        <v>542</v>
+      </c>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
       <c r="E37" s="2"/>
       <c r="G37" s="1" t="s">
         <v>626</v>
@@ -27679,7 +27691,7 @@
         <v>441</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>635</v>
+        <v>651</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>636</v>
@@ -27717,13 +27729,13 @@
       <c r="D39">
         <v>0.55774999999999997</v>
       </c>
-      <c r="G39" s="21" t="s">
+      <c r="G39" s="33" t="s">
         <v>645</v>
       </c>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -27822,22 +27834,22 @@
       <c r="D43">
         <v>0.59794000000000003</v>
       </c>
-      <c r="G43" s="21" t="s">
+      <c r="G43" s="33" t="s">
         <v>646</v>
       </c>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="21"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="33"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="33" t="s">
         <v>507</v>
       </c>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="2"/>
       <c r="H44" s="1" t="s">
         <v>451</v>
       </c>
@@ -27852,13 +27864,13 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="21" t="s">
-        <v>515</v>
-      </c>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
+      <c r="A45" s="33" t="s">
+        <v>543</v>
+      </c>
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="2"/>
       <c r="G45" s="1" t="s">
         <v>626</v>
       </c>
@@ -27880,7 +27892,7 @@
         <v>441</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>635</v>
+        <v>651</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>636</v>
@@ -27918,13 +27930,13 @@
       <c r="D47">
         <v>0.86019999999999996</v>
       </c>
-      <c r="G47" s="21" t="s">
+      <c r="G47" s="33" t="s">
         <v>647</v>
       </c>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="21"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="33"/>
+      <c r="K47" s="33"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
@@ -28026,29 +28038,29 @@
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="21" t="s">
+      <c r="A52" s="33" t="s">
         <v>511</v>
       </c>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="2"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="21" t="s">
+      <c r="A53" s="33" t="s">
         <v>544</v>
       </c>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="2"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>441</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>635</v>
+        <v>651</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>636</v>
@@ -28131,47 +28143,59 @@
         <v>0.76466999999999996</v>
       </c>
     </row>
+    <row r="60" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A60" s="43" t="s">
+        <v>660</v>
+      </c>
+      <c r="B60" s="43"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="43"/>
+    </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="21" t="s">
+      <c r="A61" s="33" t="s">
         <v>507</v>
       </c>
-      <c r="B61" s="21"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21" t="s">
+      <c r="B61" s="33"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33" t="s">
         <v>511</v>
       </c>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="21" t="s">
+      <c r="F61" s="33"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="33"/>
+      <c r="I61" s="33" t="s">
         <v>643</v>
       </c>
-      <c r="J61" s="21"/>
-      <c r="K61" s="21"/>
-      <c r="L61" s="21"/>
-      <c r="M61" s="21"/>
-      <c r="O61" s="21" t="s">
+      <c r="J61" s="33"/>
+      <c r="K61" s="33"/>
+      <c r="L61" s="33"/>
+      <c r="M61" s="33"/>
+      <c r="O61" s="33" t="s">
         <v>654</v>
       </c>
-      <c r="P61" s="21"/>
-      <c r="Q61" s="21"/>
-      <c r="R61" s="21"/>
-      <c r="S61" s="21"/>
+      <c r="P61" s="33"/>
+      <c r="Q61" s="33"/>
+      <c r="R61" s="33"/>
+      <c r="S61" s="33"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="21" t="s">
+      <c r="A62" s="33" t="s">
         <v>541</v>
       </c>
-      <c r="B62" s="21"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21" t="s">
+      <c r="B62" s="33"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33" t="s">
         <v>542</v>
       </c>
-      <c r="F62" s="21"/>
-      <c r="G62" s="21"/>
-      <c r="H62" s="21"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="33"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1" t="s">
         <v>451</v>
@@ -28203,7 +28227,7 @@
         <v>472</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>635</v>
+        <v>651</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>636</v>
@@ -28215,7 +28239,7 @@
         <v>472</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>635</v>
+        <v>651</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>636</v>
@@ -28335,20 +28359,20 @@
       <c r="H65">
         <v>0.44470999999999999</v>
       </c>
-      <c r="I65" s="21" t="s">
+      <c r="I65" s="33" t="s">
         <v>644</v>
       </c>
-      <c r="J65" s="21"/>
-      <c r="K65" s="21"/>
-      <c r="L65" s="21"/>
-      <c r="M65" s="21"/>
-      <c r="O65" s="21" t="s">
+      <c r="J65" s="33"/>
+      <c r="K65" s="33"/>
+      <c r="L65" s="33"/>
+      <c r="M65" s="33"/>
+      <c r="O65" s="33" t="s">
         <v>655</v>
       </c>
-      <c r="P65" s="21"/>
-      <c r="Q65" s="21"/>
-      <c r="R65" s="21"/>
-      <c r="S65" s="21"/>
+      <c r="P65" s="33"/>
+      <c r="Q65" s="33"/>
+      <c r="R65" s="33"/>
+      <c r="S65" s="33"/>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
@@ -28513,46 +28537,46 @@
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69" s="21" t="s">
+      <c r="A69" s="33" t="s">
         <v>507</v>
       </c>
-      <c r="B69" s="21"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21" t="s">
+      <c r="B69" s="33"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="33" t="s">
         <v>511</v>
       </c>
-      <c r="F69" s="21"/>
-      <c r="G69" s="21"/>
-      <c r="H69" s="21"/>
-      <c r="I69" s="21" t="s">
+      <c r="F69" s="33"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="33"/>
+      <c r="I69" s="33" t="s">
         <v>645</v>
       </c>
-      <c r="J69" s="21"/>
-      <c r="K69" s="21"/>
-      <c r="L69" s="21"/>
-      <c r="M69" s="21"/>
-      <c r="O69" s="21" t="s">
+      <c r="J69" s="33"/>
+      <c r="K69" s="33"/>
+      <c r="L69" s="33"/>
+      <c r="M69" s="33"/>
+      <c r="O69" s="33" t="s">
         <v>656</v>
       </c>
-      <c r="P69" s="21"/>
-      <c r="Q69" s="21"/>
-      <c r="R69" s="21"/>
-      <c r="S69" s="21"/>
+      <c r="P69" s="33"/>
+      <c r="Q69" s="33"/>
+      <c r="R69" s="33"/>
+      <c r="S69" s="33"/>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70" s="21" t="s">
+      <c r="A70" s="33" t="s">
         <v>543</v>
       </c>
-      <c r="B70" s="21"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21" t="s">
+      <c r="B70" s="33"/>
+      <c r="C70" s="33"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="33" t="s">
         <v>544</v>
       </c>
-      <c r="F70" s="21"/>
-      <c r="G70" s="21"/>
-      <c r="H70" s="21"/>
+      <c r="F70" s="33"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="33"/>
       <c r="J70" s="1" t="s">
         <v>451</v>
       </c>
@@ -28583,7 +28607,7 @@
         <v>472</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>635</v>
+        <v>651</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>636</v>
@@ -28595,7 +28619,7 @@
         <v>472</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>635</v>
+        <v>651</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>636</v>
@@ -28715,20 +28739,20 @@
       <c r="H73">
         <v>0.58762999999999999</v>
       </c>
-      <c r="I73" s="21" t="s">
+      <c r="I73" s="33" t="s">
         <v>646</v>
       </c>
-      <c r="J73" s="21"/>
-      <c r="K73" s="21"/>
-      <c r="L73" s="21"/>
-      <c r="M73" s="21"/>
-      <c r="O73" s="21" t="s">
+      <c r="J73" s="33"/>
+      <c r="K73" s="33"/>
+      <c r="L73" s="33"/>
+      <c r="M73" s="33"/>
+      <c r="O73" s="33" t="s">
         <v>657</v>
       </c>
-      <c r="P73" s="21"/>
-      <c r="Q73" s="21"/>
-      <c r="R73" s="21"/>
-      <c r="S73" s="21"/>
+      <c r="P73" s="33"/>
+      <c r="Q73" s="33"/>
+      <c r="R73" s="33"/>
+      <c r="S73" s="33"/>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
@@ -28893,20 +28917,20 @@
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="I77" s="21" t="s">
+      <c r="I77" s="33" t="s">
         <v>647</v>
       </c>
-      <c r="J77" s="21"/>
-      <c r="K77" s="21"/>
-      <c r="L77" s="21"/>
-      <c r="M77" s="21"/>
-      <c r="O77" s="21" t="s">
+      <c r="J77" s="33"/>
+      <c r="K77" s="33"/>
+      <c r="L77" s="33"/>
+      <c r="M77" s="33"/>
+      <c r="O77" s="33" t="s">
         <v>658</v>
       </c>
-      <c r="P77" s="21"/>
-      <c r="Q77" s="21"/>
-      <c r="R77" s="21"/>
-      <c r="S77" s="21"/>
+      <c r="P77" s="33"/>
+      <c r="Q77" s="33"/>
+      <c r="R77" s="33"/>
+      <c r="S77" s="33"/>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="I78" s="1"/>
@@ -29000,23 +29024,23 @@
       </c>
     </row>
     <row r="85" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A85" s="34" t="s">
+      <c r="A85" s="43" t="s">
         <v>650</v>
       </c>
-      <c r="B85" s="34"/>
-      <c r="C85" s="34"/>
-      <c r="D85" s="34"/>
-      <c r="E85" s="34"/>
-      <c r="F85" s="34" t="s">
+      <c r="B85" s="43"/>
+      <c r="C85" s="43"/>
+      <c r="D85" s="43"/>
+      <c r="E85" s="43"/>
+      <c r="F85" s="43" t="s">
         <v>650</v>
       </c>
-      <c r="G85" s="34"/>
-      <c r="H85" s="34"/>
-      <c r="I85" s="34"/>
-      <c r="J85" s="34"/>
+      <c r="G85" s="43"/>
+      <c r="H85" s="43"/>
+      <c r="I85" s="43"/>
+      <c r="J85" s="43"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="35" t="s">
+      <c r="A86" s="42" t="s">
         <v>634</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -29031,7 +29055,7 @@
       <c r="E86" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="F86" s="43" t="s">
+      <c r="F86" s="27" t="s">
         <v>634</v>
       </c>
       <c r="G86" s="18" t="s">
@@ -29046,27 +29070,27 @@
       <c r="J86" s="18" t="s">
         <v>558</v>
       </c>
-      <c r="K86" s="38" t="s">
+      <c r="K86" s="22" t="s">
         <v>653</v>
       </c>
-      <c r="L86" s="37"/>
+      <c r="L86" s="21"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="35"/>
-      <c r="B87" s="21" t="s">
+      <c r="A87" s="42"/>
+      <c r="B87" s="33" t="s">
         <v>507</v>
       </c>
-      <c r="C87" s="21"/>
-      <c r="D87" s="21"/>
-      <c r="E87" s="21"/>
-      <c r="F87" s="32" t="s">
+      <c r="C87" s="33"/>
+      <c r="D87" s="33"/>
+      <c r="E87" s="33"/>
+      <c r="F87" s="29" t="s">
         <v>618</v>
       </c>
-      <c r="G87" s="32"/>
-      <c r="H87" s="32"/>
-      <c r="I87" s="32"/>
-      <c r="J87" s="32"/>
-      <c r="K87" s="38" t="s">
+      <c r="G87" s="29"/>
+      <c r="H87" s="29"/>
+      <c r="I87" s="29"/>
+      <c r="J87" s="29"/>
+      <c r="K87" s="22" t="s">
         <v>614</v>
       </c>
     </row>
@@ -29089,23 +29113,23 @@
       <c r="F88" s="18" t="s">
         <v>651</v>
       </c>
-      <c r="G88" s="39">
+      <c r="G88" s="23">
         <f>B88*100</f>
         <v>74.461999999999989</v>
       </c>
-      <c r="H88" s="39">
+      <c r="H88" s="23">
         <f t="shared" ref="H88:J90" si="0">C88*100</f>
         <v>87.512</v>
       </c>
-      <c r="I88" s="40">
+      <c r="I88" s="24">
         <f t="shared" si="0"/>
         <v>86.38</v>
       </c>
-      <c r="J88" s="40">
+      <c r="J88" s="24">
         <f t="shared" si="0"/>
         <v>90.870999999999995</v>
       </c>
-      <c r="K88" s="41">
+      <c r="K88" s="25">
         <v>4.7067688936935799</v>
       </c>
     </row>
@@ -29128,19 +29152,19 @@
       <c r="F89" s="18" t="s">
         <v>636</v>
       </c>
-      <c r="G89" s="40">
+      <c r="G89" s="24">
         <f t="shared" ref="G89:G90" si="1">B89*100</f>
         <v>78.685000000000002</v>
       </c>
-      <c r="H89" s="39">
+      <c r="H89" s="23">
         <f t="shared" si="0"/>
         <v>81.283000000000001</v>
       </c>
-      <c r="I89" s="39">
+      <c r="I89" s="23">
         <f t="shared" si="0"/>
         <v>85.701000000000008</v>
       </c>
-      <c r="J89" s="39">
+      <c r="J89" s="23">
         <f t="shared" si="0"/>
         <v>90.207000000000008</v>
       </c>
@@ -29167,42 +29191,42 @@
       <c r="F90" s="18" t="s">
         <v>637</v>
       </c>
-      <c r="G90" s="39">
+      <c r="G90" s="23">
         <f t="shared" si="1"/>
         <v>67.064999999999998</v>
       </c>
-      <c r="H90" s="40">
+      <c r="H90" s="24">
         <f t="shared" si="0"/>
         <v>93.23599999999999</v>
       </c>
-      <c r="I90" s="39">
+      <c r="I90" s="23">
         <f t="shared" si="0"/>
         <v>85.158999999999992</v>
       </c>
-      <c r="J90" s="39">
+      <c r="J90" s="23">
         <f t="shared" si="0"/>
         <v>90.807000000000002</v>
       </c>
-      <c r="K90" s="42">
+      <c r="K90" s="26">
         <v>4.78</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="21" t="s">
+      <c r="A91" s="33" t="s">
         <v>511</v>
       </c>
-      <c r="B91" s="21"/>
-      <c r="C91" s="21"/>
-      <c r="D91" s="21"/>
-      <c r="E91" s="21"/>
-      <c r="F91" s="32" t="s">
+      <c r="B91" s="33"/>
+      <c r="C91" s="33"/>
+      <c r="D91" s="33"/>
+      <c r="E91" s="33"/>
+      <c r="F91" s="29" t="s">
         <v>619</v>
       </c>
-      <c r="G91" s="32"/>
-      <c r="H91" s="32"/>
-      <c r="I91" s="32"/>
-      <c r="J91" s="32"/>
-      <c r="K91" s="38" t="s">
+      <c r="G91" s="29"/>
+      <c r="H91" s="29"/>
+      <c r="I91" s="29"/>
+      <c r="J91" s="29"/>
+      <c r="K91" s="22" t="s">
         <v>615</v>
       </c>
     </row>
@@ -29225,23 +29249,23 @@
       <c r="F92" s="18" t="s">
         <v>651</v>
       </c>
-      <c r="G92" s="40">
+      <c r="G92" s="24">
         <f t="shared" ref="G92:J94" si="2">B92*100</f>
         <v>62.388999999999996</v>
       </c>
-      <c r="H92" s="40">
+      <c r="H92" s="24">
         <f t="shared" si="2"/>
         <v>77.141999999999996</v>
       </c>
-      <c r="I92" s="40">
+      <c r="I92" s="24">
         <f t="shared" si="2"/>
         <v>77.24499999999999</v>
       </c>
-      <c r="J92" s="40">
+      <c r="J92" s="24">
         <f t="shared" si="2"/>
         <v>84.316999999999993</v>
       </c>
-      <c r="K92" s="41">
+      <c r="K92" s="25">
         <v>4.5209967640625504</v>
       </c>
     </row>
@@ -29264,19 +29288,19 @@
       <c r="F93" s="18" t="s">
         <v>636</v>
       </c>
-      <c r="G93" s="39">
+      <c r="G93" s="23">
         <f t="shared" si="2"/>
         <v>59.440000000000005</v>
       </c>
-      <c r="H93" s="39">
+      <c r="H93" s="23">
         <f t="shared" si="2"/>
         <v>73.426000000000002</v>
       </c>
-      <c r="I93" s="39">
+      <c r="I93" s="23">
         <f t="shared" si="2"/>
         <v>75.570000000000007</v>
       </c>
-      <c r="J93" s="39">
+      <c r="J93" s="23">
         <f t="shared" si="2"/>
         <v>83.655999999999992</v>
       </c>
@@ -29303,28 +29327,28 @@
       <c r="F94" s="18" t="s">
         <v>637</v>
       </c>
-      <c r="G94" s="39">
+      <c r="G94" s="23">
         <f t="shared" si="2"/>
         <v>59.794000000000004</v>
       </c>
-      <c r="H94" s="39">
+      <c r="H94" s="23">
         <f t="shared" si="2"/>
         <v>76.466999999999999</v>
       </c>
-      <c r="I94" s="39">
+      <c r="I94" s="23">
         <f t="shared" si="2"/>
         <v>76.34</v>
       </c>
-      <c r="J94" s="39">
+      <c r="J94" s="23">
         <f t="shared" si="2"/>
         <v>84.007000000000005</v>
       </c>
-      <c r="K94" s="42">
+      <c r="K94" s="26">
         <v>5.49</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="36" t="s">
+      <c r="A96" s="20" t="s">
         <v>634</v>
       </c>
       <c r="B96" s="13" t="s">
@@ -29368,17 +29392,45 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="O61:S61"/>
-    <mergeCell ref="O65:S65"/>
-    <mergeCell ref="O69:S69"/>
-    <mergeCell ref="O73:S73"/>
-    <mergeCell ref="O77:S77"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="G5:K5"/>
+  <mergeCells count="57">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A60:H60"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="F85:J85"/>
+    <mergeCell ref="F91:J91"/>
+    <mergeCell ref="F87:J87"/>
+    <mergeCell ref="I77:M77"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="G35:K35"/>
+    <mergeCell ref="G39:K39"/>
+    <mergeCell ref="G43:K43"/>
+    <mergeCell ref="G47:K47"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="I65:M65"/>
+    <mergeCell ref="I69:M69"/>
+    <mergeCell ref="I73:M73"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="I61:M61"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="E62:H62"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="E69:H69"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="E70:H70"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="E61:H61"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A44:D44"/>
     <mergeCell ref="L5:P5"/>
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="B19:E19"/>
@@ -29388,42 +29440,16 @@
     <mergeCell ref="G22:K22"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="E61:H61"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="E62:H62"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="E69:H69"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="E70:H70"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="I65:M65"/>
-    <mergeCell ref="I69:M69"/>
-    <mergeCell ref="I73:M73"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="I61:M61"/>
-    <mergeCell ref="I77:M77"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="G35:K35"/>
-    <mergeCell ref="G39:K39"/>
-    <mergeCell ref="G43:K43"/>
-    <mergeCell ref="G47:K47"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="B87:E87"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="F85:J85"/>
-    <mergeCell ref="F91:J91"/>
-    <mergeCell ref="F87:J87"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="O61:S61"/>
+    <mergeCell ref="O65:S65"/>
+    <mergeCell ref="O69:S69"/>
+    <mergeCell ref="O73:S73"/>
+    <mergeCell ref="O77:S77"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
